--- a/IP.xlsx
+++ b/IP.xlsx
@@ -1,43 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365-my.sharepoint.com/personal/toldenbeuving_tudelft_nl/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2ee38df677a9f564/Documenten/Maritieme techniek/Q4/IP-26-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{D6AD301E-3DB8-45A2-8BCE-F3103E2E69A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7B973F4-D295-40A9-9E6A-D2AE0F84D1B1}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_9A640D58C12CD2B6F91E7424993175CE37AA53CB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{459F7029-9C07-420A-8ABE-127201D6F508}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{E0D391A6-6235-43B9-86BB-EAF04D688384}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Blad1" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="103">
   <si>
     <t>Loa  [m]</t>
   </si>
@@ -343,19 +328,31 @@
   </si>
   <si>
     <t>H&amp;M calculation is turned OFF</t>
+  </si>
+  <si>
+    <t>WARNING: The Z value of point 1-3 of the bow intermediate curve is not zero</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.000000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -366,7 +363,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -378,15 +382,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -396,6 +411,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -433,20 +452,20 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -474,31 +493,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -526,23 +528,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -554,1939 +539,1967 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E063DCE3-8F71-470A-B505-C1E054D8F7AA}">
-  <dimension ref="A2:M156"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:M156"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="51.140625" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="1" max="1" width="32" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
+    <row r="1" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <v>29.97</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>17.984999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <v>146.303</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>107.081</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <v>69.494</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="4">
         <v>91.438999999999993</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4">
         <v>5.9850000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="4">
         <v>5.9850000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="4">
         <v>5.9850000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="4">
         <v>24.247</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="4">
         <v>136.58500000000001</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="4">
         <v>4.4960000000000004</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="4">
         <v>5.9850000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20">
+    <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4">
         <v>7271.8689999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="4">
         <v>44624.483</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="4">
         <v>95.58</v>
       </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
         <v>3.7229999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="4">
         <v>76.460999999999999</v>
       </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+      <c r="D23" s="4">
         <v>11.098000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="4">
         <v>0.34399999999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="4">
         <v>0.47010000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="4">
         <v>2019.5219999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="4">
         <v>88.650999999999996</v>
       </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
+      <c r="C28" s="3">
+        <v>0</v>
+      </c>
+      <c r="D28" s="4">
         <v>5.9850000000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="4">
         <v>74304.082999999999</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="5">
         <v>1422000</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="5">
         <v>1496300</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="4">
         <v>2406.404</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="4">
         <v>104.75700000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="33" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="34" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="35" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="36" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="4">
         <v>117.014</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="37" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B37" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="39" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="40" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="41" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="42" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="43" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row r="44" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
         <v>36.478999999999999</v>
       </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="B44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
         <v>41.578000000000003</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="4">
         <v>7.1779999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
+    <row r="46" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
         <v>46.677</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="4">
         <v>17.555</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47">
+    <row r="47" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
         <v>51.776000000000003</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="4">
         <v>29.242000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48">
+    <row r="48" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
         <v>56.875999999999998</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="4">
         <v>41.654000000000003</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49">
+    <row r="49" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
         <v>61.975000000000001</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="4">
         <v>54.348999999999997</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50">
+    <row r="50" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
         <v>67.073999999999998</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="4">
         <v>66.888000000000005</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51">
+    <row r="51" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
         <v>72.173000000000002</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="4">
         <v>78.742000000000004</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52">
+    <row r="52" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="4">
         <v>77.272000000000006</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="4">
         <v>89.176000000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53">
+    <row r="53" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
         <v>82.370999999999995</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="4">
         <v>97.131</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54">
+    <row r="54" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="4">
         <v>87.47</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="4">
         <v>101.43</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55">
+    <row r="55" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="4">
         <v>92.569000000000003</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="4">
         <v>102.895</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56">
+    <row r="56" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="4">
         <v>97.668000000000006</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="4">
         <v>104.121</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57">
+    <row r="57" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="4">
         <v>102.767</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="4">
         <v>104.75700000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58">
+    <row r="58" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="4">
         <v>107.866</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="4">
         <v>104.021</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59">
+    <row r="59" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="4">
         <v>112.965</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="4">
         <v>101.057</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60">
+    <row r="60" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="4">
         <v>118.065</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="4">
         <v>94.915000000000006</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61">
+    <row r="61" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="4">
         <v>123.164</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="4">
         <v>84.588999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62">
+    <row r="62" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="4">
         <v>128.26300000000001</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="4">
         <v>69.712999999999994</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63">
+    <row r="63" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="4">
         <v>133.36199999999999</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="4">
         <v>50.372999999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64">
+    <row r="64" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="4">
         <v>138.46100000000001</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="4">
         <v>24.998999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65">
+    <row r="65" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="4">
         <v>143.56</v>
       </c>
-      <c r="B65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="B65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="67" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="68" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69">
+    <row r="69" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="4">
         <v>-2.9860000000000002</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="4">
         <v>107.65900000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70">
+    <row r="70" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="4">
         <v>4.157</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="4">
         <v>133.12200000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71">
+    <row r="71" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="4">
         <v>11.3</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="4">
         <v>160.12100000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72">
+    <row r="72" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="4">
         <v>18.443000000000001</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="4">
         <v>188.333</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73">
+    <row r="73" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="4">
         <v>25.585999999999999</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="4">
         <v>217.54300000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74">
+    <row r="74" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="4">
         <v>32.728999999999999</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="4">
         <v>247.53</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75">
+    <row r="75" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="4">
         <v>39.871000000000002</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="4">
         <v>278.03699999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76">
+    <row r="76" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="4">
         <v>47.014000000000003</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="4">
         <v>308.72899999999998</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77">
+    <row r="77" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="4">
         <v>54.156999999999996</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="4">
         <v>339.14299999999997</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78">
+    <row r="78" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="4">
         <v>61.3</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="4">
         <v>368.59</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79">
+    <row r="79" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="4">
         <v>68.442999999999998</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="4">
         <v>395.96699999999998</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80">
+    <row r="80" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="4">
         <v>75.585999999999999</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="4">
         <v>419.32799999999997</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81">
+    <row r="81" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="4">
         <v>82.728999999999999</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="4">
         <v>435.01100000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82">
+    <row r="82" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="4">
         <v>89.870999999999995</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="4">
         <v>438.16500000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83">
+    <row r="83" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="4">
         <v>97.013999999999996</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="4">
         <v>433.78300000000002</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84">
+    <row r="84" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="4">
         <v>104.157</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="4">
         <v>423.14499999999998</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85">
+    <row r="85" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="4">
         <v>111.3</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="4">
         <v>401.09</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86">
+    <row r="86" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="4">
         <v>118.443</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="4">
         <v>362.76900000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87">
+    <row r="87" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="4">
         <v>125.586</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="4">
         <v>303.42700000000002</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88">
+    <row r="88" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="4">
         <v>132.72900000000001</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="4">
         <v>221.51599999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89">
+    <row r="89" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="4">
         <v>139.87100000000001</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="4">
         <v>112.539</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90">
+    <row r="90" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="4">
         <v>147.01400000000001</v>
       </c>
-      <c r="B90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="B90" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row r="92" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row r="93" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    <row r="94" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    <row r="96" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    <row r="97" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+    <row r="98" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E98" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F98" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G98" t="s">
+      <c r="G98" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H98" t="s">
+      <c r="H98" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I98" t="s">
+      <c r="I98" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J98" t="s">
+      <c r="J98" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K98" t="s">
+      <c r="K98" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99">
+    <row r="99" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="4">
         <v>-2.9860000000000002</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="4">
         <v>51.658000000000001</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="4">
         <v>0.77600000000000002</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="4">
         <v>-2.9860000000000002</v>
       </c>
-      <c r="E99">
-        <v>0</v>
-      </c>
-      <c r="F99">
+      <c r="E99" s="3">
+        <v>0</v>
+      </c>
+      <c r="F99" s="4">
         <v>15.701000000000001</v>
       </c>
-      <c r="G99">
+      <c r="G99" s="4">
         <v>44.78</v>
       </c>
-      <c r="H99">
+      <c r="H99" s="4">
         <v>4.4509999999999996</v>
       </c>
-      <c r="I99">
+      <c r="I99" s="4">
         <v>40.329000000000001</v>
       </c>
-      <c r="J99">
+      <c r="J99" s="4">
         <v>12.452</v>
       </c>
-      <c r="K99">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100">
+      <c r="K99" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="4">
         <v>4.157</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="4">
         <v>54.003</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="4">
         <v>0.81100000000000005</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="4">
         <v>4.157</v>
       </c>
-      <c r="E100">
-        <v>0</v>
-      </c>
-      <c r="F100">
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="4">
         <v>15.199</v>
       </c>
-      <c r="G100">
+      <c r="G100" s="4">
         <v>51.564999999999998</v>
       </c>
-      <c r="H100">
+      <c r="H100" s="4">
         <v>6.7670000000000003</v>
       </c>
-      <c r="I100">
+      <c r="I100" s="4">
         <v>44.798000000000002</v>
       </c>
-      <c r="J100">
+      <c r="J100" s="4">
         <v>11.241</v>
       </c>
-      <c r="K100">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101">
+      <c r="K100" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="4">
         <v>11.3</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="4">
         <v>56.76</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="4">
         <v>0.85199999999999998</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="4">
         <v>11.3</v>
       </c>
-      <c r="E101">
-        <v>0</v>
-      </c>
-      <c r="F101">
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="4">
         <v>14.708</v>
       </c>
-      <c r="G101">
+      <c r="G101" s="4">
         <v>60.290999999999997</v>
       </c>
-      <c r="H101">
+      <c r="H101" s="4">
         <v>9.6479999999999997</v>
       </c>
-      <c r="I101">
+      <c r="I101" s="4">
         <v>50.643000000000001</v>
       </c>
-      <c r="J101">
+      <c r="J101" s="4">
         <v>10.047000000000001</v>
       </c>
-      <c r="K101">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102">
+      <c r="K101" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="4">
         <v>18.443000000000001</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="4">
         <v>59.665999999999997</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="4">
         <v>0.89600000000000002</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="4">
         <v>18.443000000000001</v>
       </c>
-      <c r="E102">
-        <v>0</v>
-      </c>
-      <c r="F102">
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="4">
         <v>14.228</v>
       </c>
-      <c r="G102">
+      <c r="G102" s="4">
         <v>70.472999999999999</v>
       </c>
-      <c r="H102">
+      <c r="H102" s="4">
         <v>13.103999999999999</v>
       </c>
-      <c r="I102">
+      <c r="I102" s="4">
         <v>57.369</v>
       </c>
-      <c r="J102">
+      <c r="J102" s="4">
         <v>8.8670000000000009</v>
       </c>
-      <c r="K102">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103">
+      <c r="K102" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="4">
         <v>25.585999999999999</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="4">
         <v>62.627000000000002</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="4">
         <v>0.94</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="4">
         <v>25.585999999999999</v>
       </c>
-      <c r="E103">
-        <v>0</v>
-      </c>
-      <c r="F103">
+      <c r="E103" s="3">
+        <v>0</v>
+      </c>
+      <c r="F103" s="4">
         <v>13.759</v>
       </c>
-      <c r="G103">
+      <c r="G103" s="4">
         <v>81.945999999999998</v>
       </c>
-      <c r="H103">
+      <c r="H103" s="4">
         <v>17.135000000000002</v>
       </c>
-      <c r="I103">
+      <c r="I103" s="4">
         <v>64.811000000000007</v>
       </c>
-      <c r="J103">
+      <c r="J103" s="4">
         <v>7.7039999999999997</v>
       </c>
-      <c r="K103">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104">
+      <c r="K103" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="4">
         <v>32.728999999999999</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="4">
         <v>65.593000000000004</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="4">
         <v>0.98499999999999999</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="4">
         <v>32.728999999999999</v>
       </c>
-      <c r="E104">
-        <v>0</v>
-      </c>
-      <c r="F104">
+      <c r="E104" s="3">
+        <v>0</v>
+      </c>
+      <c r="F104" s="4">
         <v>13.302</v>
       </c>
-      <c r="G104">
+      <c r="G104" s="4">
         <v>94.593000000000004</v>
       </c>
-      <c r="H104">
+      <c r="H104" s="4">
         <v>21.731000000000002</v>
       </c>
-      <c r="I104">
+      <c r="I104" s="4">
         <v>72.861999999999995</v>
       </c>
-      <c r="J104">
+      <c r="J104" s="4">
         <v>6.5609999999999999</v>
       </c>
-      <c r="K104">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105">
+      <c r="K104" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="4">
         <v>39.871000000000002</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="4">
         <v>68.524000000000001</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="4">
         <v>1.0289999999999999</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="4">
         <v>39.871000000000002</v>
       </c>
-      <c r="E105">
-        <v>0</v>
-      </c>
-      <c r="F105">
+      <c r="E105" s="3">
+        <v>0</v>
+      </c>
+      <c r="F105" s="4">
         <v>12.86</v>
       </c>
-      <c r="G105">
+      <c r="G105" s="4">
         <v>108.285</v>
       </c>
-      <c r="H105">
+      <c r="H105" s="4">
         <v>26.861000000000001</v>
       </c>
-      <c r="I105">
+      <c r="I105" s="4">
         <v>81.424000000000007</v>
       </c>
-      <c r="J105">
+      <c r="J105" s="4">
         <v>5.4429999999999996</v>
       </c>
-      <c r="K105">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106">
+      <c r="K105" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="4">
         <v>47.014000000000003</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="4">
         <v>71.387</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="4">
         <v>1.0720000000000001</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="4">
         <v>47.014000000000003</v>
       </c>
-      <c r="E106">
-        <v>0</v>
-      </c>
-      <c r="F106">
+      <c r="E106" s="3">
+        <v>0</v>
+      </c>
+      <c r="F106" s="4">
         <v>12.433999999999999</v>
       </c>
-      <c r="G106">
+      <c r="G106" s="4">
         <v>122.84399999999999</v>
       </c>
-      <c r="H106">
+      <c r="H106" s="4">
         <v>32.468000000000004</v>
       </c>
-      <c r="I106">
+      <c r="I106" s="4">
         <v>90.375</v>
       </c>
-      <c r="J106">
+      <c r="J106" s="4">
         <v>4.3570000000000002</v>
       </c>
-      <c r="K106">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107">
+      <c r="K106" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="4">
         <v>54.156999999999996</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="4">
         <v>74.14</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="4">
         <v>1.113</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="4">
         <v>54.156999999999996</v>
       </c>
-      <c r="E107">
-        <v>0</v>
-      </c>
-      <c r="F107">
+      <c r="E107" s="3">
+        <v>0</v>
+      </c>
+      <c r="F107" s="4">
         <v>12.026999999999999</v>
       </c>
-      <c r="G107">
+      <c r="G107" s="4">
         <v>137.98400000000001</v>
       </c>
-      <c r="H107">
+      <c r="H107" s="4">
         <v>38.448</v>
       </c>
-      <c r="I107">
+      <c r="I107" s="4">
         <v>99.536000000000001</v>
       </c>
-      <c r="J107">
+      <c r="J107" s="4">
         <v>3.3130000000000002</v>
       </c>
-      <c r="K107">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108">
+      <c r="K107" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="4">
         <v>61.3</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="4">
         <v>76.724999999999994</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="4">
         <v>1.1519999999999999</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="4">
         <v>61.3</v>
       </c>
-      <c r="E108">
-        <v>0</v>
-      </c>
-      <c r="F108">
+      <c r="E108" s="3">
+        <v>0</v>
+      </c>
+      <c r="F108" s="4">
         <v>11.646000000000001</v>
       </c>
-      <c r="G108">
+      <c r="G108" s="4">
         <v>153.27099999999999</v>
       </c>
-      <c r="H108">
+      <c r="H108" s="4">
         <v>44.634999999999998</v>
       </c>
-      <c r="I108">
+      <c r="I108" s="4">
         <v>108.636</v>
       </c>
-      <c r="J108">
+      <c r="J108" s="4">
         <v>2.33</v>
       </c>
-      <c r="K108">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109">
+      <c r="K108" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="4">
         <v>68.442999999999998</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="4">
         <v>79.051000000000002</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="4">
         <v>1.1870000000000001</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="4">
         <v>68.442999999999998</v>
       </c>
-      <c r="E109">
-        <v>0</v>
-      </c>
-      <c r="F109">
+      <c r="E109" s="3">
+        <v>0</v>
+      </c>
+      <c r="F109" s="4">
         <v>11.298</v>
       </c>
-      <c r="G109">
+      <c r="G109" s="4">
         <v>167.94300000000001</v>
       </c>
-      <c r="H109">
+      <c r="H109" s="4">
         <v>50.737000000000002</v>
       </c>
-      <c r="I109">
+      <c r="I109" s="4">
         <v>117.206</v>
       </c>
-      <c r="J109">
+      <c r="J109" s="4">
         <v>1.4390000000000001</v>
       </c>
-      <c r="K109">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110">
+      <c r="K109" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="4">
         <v>75.585999999999999</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="4">
         <v>80.956000000000003</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="4">
         <v>1.216</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="4">
         <v>75.585999999999999</v>
       </c>
-      <c r="E110">
-        <v>0</v>
-      </c>
-      <c r="F110">
+      <c r="E110" s="3">
+        <v>0</v>
+      </c>
+      <c r="F110" s="4">
         <v>10.999000000000001</v>
       </c>
-      <c r="G110">
+      <c r="G110" s="4">
         <v>180.661</v>
       </c>
-      <c r="H110">
+      <c r="H110" s="4">
         <v>56.246000000000002</v>
       </c>
-      <c r="I110">
+      <c r="I110" s="4">
         <v>124.41500000000001</v>
       </c>
-      <c r="J110">
+      <c r="J110" s="4">
         <v>0.69099999999999995</v>
       </c>
-      <c r="K110">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111">
+      <c r="K110" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="4">
         <v>82.728999999999999</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="4">
         <v>82.125</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="4">
         <v>1.2330000000000001</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="4">
         <v>82.728999999999999</v>
       </c>
-      <c r="E111">
-        <v>0</v>
-      </c>
-      <c r="F111">
+      <c r="E111" s="3">
+        <v>0</v>
+      </c>
+      <c r="F111" s="4">
         <v>10.776999999999999</v>
       </c>
-      <c r="G111">
+      <c r="G111" s="4">
         <v>188.86799999999999</v>
       </c>
-      <c r="H111">
+      <c r="H111" s="4">
         <v>60.213000000000001</v>
       </c>
-      <c r="I111">
+      <c r="I111" s="4">
         <v>128.655</v>
       </c>
-      <c r="J111">
+      <c r="J111" s="4">
         <v>0.185</v>
       </c>
-      <c r="K111">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112">
+      <c r="K111" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="4">
         <v>89.870999999999995</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="4">
         <v>82.116</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="4">
         <v>1.2330000000000001</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="4">
         <v>89.870999999999995</v>
       </c>
-      <c r="E112">
-        <v>0</v>
-      </c>
-      <c r="F112">
+      <c r="E112" s="3">
+        <v>0</v>
+      </c>
+      <c r="F112" s="4">
         <v>10.661</v>
       </c>
-      <c r="G112">
+      <c r="G112" s="4">
         <v>189.06299999999999</v>
       </c>
-      <c r="H112">
+      <c r="H112" s="4">
         <v>61.465000000000003</v>
       </c>
-      <c r="I112">
+      <c r="I112" s="4">
         <v>127.598</v>
       </c>
-      <c r="J112">
+      <c r="J112" s="4">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="K112">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113">
+      <c r="K112" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="4">
         <v>97.013999999999996</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="4">
         <v>81.346999999999994</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="4">
         <v>1.2210000000000001</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="4">
         <v>97.013999999999996</v>
       </c>
-      <c r="E113">
-        <v>0</v>
-      </c>
-      <c r="F113">
+      <c r="E113" s="3">
+        <v>0</v>
+      </c>
+      <c r="F113" s="4">
         <v>10.574</v>
       </c>
-      <c r="G113">
+      <c r="G113" s="4">
         <v>183.92099999999999</v>
       </c>
-      <c r="H113">
+      <c r="H113" s="4">
         <v>61.337000000000003</v>
       </c>
-      <c r="I113">
+      <c r="I113" s="4">
         <v>122.584</v>
       </c>
-      <c r="J113">
+      <c r="J113" s="4">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="K113">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114">
+      <c r="K113" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="4">
         <v>104.157</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="4">
         <v>79.930000000000007</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="4">
         <v>1.2</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="4">
         <v>104.157</v>
       </c>
-      <c r="E114">
-        <v>0</v>
-      </c>
-      <c r="F114">
+      <c r="E114" s="3">
+        <v>0</v>
+      </c>
+      <c r="F114" s="4">
         <v>10.472</v>
       </c>
-      <c r="G114">
+      <c r="G114" s="4">
         <v>174.46799999999999</v>
       </c>
-      <c r="H114">
+      <c r="H114" s="4">
         <v>60.634</v>
       </c>
-      <c r="I114">
+      <c r="I114" s="4">
         <v>113.834</v>
       </c>
-      <c r="J114">
+      <c r="J114" s="4">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="K114">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115">
+      <c r="K114" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="4">
         <v>111.3</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="4">
         <v>77.391999999999996</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="4">
         <v>1.1619999999999999</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="4">
         <v>111.3</v>
       </c>
-      <c r="E115">
-        <v>0</v>
-      </c>
-      <c r="F115">
+      <c r="E115" s="3">
+        <v>0</v>
+      </c>
+      <c r="F115" s="4">
         <v>10.385</v>
       </c>
-      <c r="G115">
+      <c r="G115" s="4">
         <v>158.04499999999999</v>
       </c>
-      <c r="H115">
+      <c r="H115" s="4">
         <v>58.652999999999999</v>
       </c>
-      <c r="I115">
+      <c r="I115" s="4">
         <v>99.391999999999996</v>
       </c>
-      <c r="J115">
+      <c r="J115" s="4">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="K115">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116">
+      <c r="K115" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="4">
         <v>118.443</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="4">
         <v>73.281999999999996</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="4">
         <v>118.443</v>
       </c>
-      <c r="E116">
-        <v>0</v>
-      </c>
-      <c r="F116">
+      <c r="E116" s="3">
+        <v>0</v>
+      </c>
+      <c r="F116" s="4">
         <v>10.352</v>
       </c>
-      <c r="G116">
+      <c r="G116" s="4">
         <v>133.48599999999999</v>
       </c>
-      <c r="H116">
+      <c r="H116" s="4">
         <v>54.709000000000003</v>
       </c>
-      <c r="I116">
+      <c r="I116" s="4">
         <v>78.777000000000001</v>
       </c>
-      <c r="J116">
+      <c r="J116" s="4">
         <v>4.7E-2</v>
       </c>
-      <c r="K116">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117">
+      <c r="K116" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="4">
         <v>125.586</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="4">
         <v>67.034000000000006</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="4">
         <v>1.006</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="4">
         <v>125.586</v>
       </c>
-      <c r="E117">
-        <v>0</v>
-      </c>
-      <c r="F117">
+      <c r="E117" s="3">
+        <v>0</v>
+      </c>
+      <c r="F117" s="4">
         <v>10.407999999999999</v>
       </c>
-      <c r="G117">
+      <c r="G117" s="4">
         <v>101.235</v>
       </c>
-      <c r="H117">
+      <c r="H117" s="4">
         <v>47.938000000000002</v>
       </c>
-      <c r="I117">
+      <c r="I117" s="4">
         <v>53.296999999999997</v>
       </c>
-      <c r="J117">
+      <c r="J117" s="4">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="K117">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118">
+      <c r="K117" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="4">
         <v>132.72900000000001</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="4">
         <v>58.317</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="4">
         <v>0.876</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="4">
         <v>132.72900000000001</v>
       </c>
-      <c r="E118">
-        <v>0</v>
-      </c>
-      <c r="F118">
+      <c r="E118" s="3">
+        <v>0</v>
+      </c>
+      <c r="F118" s="4">
         <v>10.555</v>
       </c>
-      <c r="G118">
+      <c r="G118" s="4">
         <v>65.486999999999995</v>
       </c>
-      <c r="H118">
+      <c r="H118" s="4">
         <v>37.898000000000003</v>
       </c>
-      <c r="I118">
+      <c r="I118" s="4">
         <v>27.588999999999999</v>
       </c>
-      <c r="J118">
+      <c r="J118" s="4">
         <v>-0.01</v>
       </c>
-      <c r="K118">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119">
+      <c r="K118" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="4">
         <v>139.87100000000001</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="4">
         <v>45.28</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="4">
         <v>0.68</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="4">
         <v>139.87100000000001</v>
       </c>
-      <c r="E119">
-        <v>0</v>
-      </c>
-      <c r="F119">
+      <c r="E119" s="3">
+        <v>0</v>
+      </c>
+      <c r="F119" s="4">
         <v>11.23</v>
       </c>
-      <c r="G119">
+      <c r="G119" s="4">
         <v>29.353999999999999</v>
       </c>
-      <c r="H119">
+      <c r="H119" s="4">
         <v>21.587</v>
       </c>
-      <c r="I119">
+      <c r="I119" s="4">
         <v>7.7670000000000003</v>
       </c>
-      <c r="J119">
+      <c r="J119" s="4">
         <v>1.4990000000000001</v>
       </c>
-      <c r="K119">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120">
+      <c r="K119" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="4">
         <v>147.01400000000001</v>
       </c>
-      <c r="B120">
-        <v>0</v>
-      </c>
-      <c r="C120">
-        <v>0</v>
-      </c>
-      <c r="D120">
+      <c r="B120" s="3">
+        <v>0</v>
+      </c>
+      <c r="C120" s="3">
+        <v>0</v>
+      </c>
+      <c r="D120" s="4">
         <v>147.01400000000001</v>
       </c>
-      <c r="E120">
-        <v>0</v>
-      </c>
-      <c r="F120">
+      <c r="E120" s="3">
+        <v>0</v>
+      </c>
+      <c r="F120" s="4">
         <v>17.983000000000001</v>
       </c>
-      <c r="G120">
-        <v>0</v>
-      </c>
-      <c r="H120">
-        <v>0</v>
-      </c>
-      <c r="I120">
-        <v>0</v>
-      </c>
-      <c r="J120">
-        <v>0</v>
-      </c>
-      <c r="K120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="G120" s="3">
+        <v>0</v>
+      </c>
+      <c r="H120" s="3">
+        <v>0</v>
+      </c>
+      <c r="I120" s="3">
+        <v>0</v>
+      </c>
+      <c r="J120" s="3">
+        <v>0</v>
+      </c>
+      <c r="K120" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+    <row r="122" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="4">
         <v>146.303</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+    <row r="123" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+    <row r="124" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B124">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="B124" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="4">
         <v>5.9850000000000003</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+    <row r="126" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="4">
         <v>0.98</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+    <row r="127" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+    <row r="128" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="4">
         <v>21945.468000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+    <row r="129" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="3">
         <v>55</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+    <row r="130" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+    <row r="131" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+    <row r="132" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="3">
         <v>65</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+    <row r="133" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+    <row r="134" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="B134" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="B135" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+    <row r="137" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+    <row r="138" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+    <row r="139" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+    <row r="140" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+    <row r="141" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+    <row r="142" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+      <c r="B142" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+    <row r="144" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+    <row r="145" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+    <row r="146" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D146" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E146" t="s">
+      <c r="E146" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F146" t="s">
+      <c r="F146" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G146" t="s">
+      <c r="G146" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H146" t="s">
+      <c r="H146" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="I146" t="s">
+      <c r="I146" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="J146" t="s">
+      <c r="J146" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="K146" t="s">
+      <c r="K146" s="2" t="s">
         <v>91</v>
       </c>
       <c r="L146" t="s">
@@ -2496,56 +2509,56 @@
         <v>93</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+    <row r="147" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+    <row r="148" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+    <row r="149" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+    <row r="150" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D150" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E150" t="s">
+      <c r="E150" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F150" t="s">
+      <c r="F150" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G150" t="s">
+      <c r="G150" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H150" t="s">
+      <c r="H150" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="I150" t="s">
+      <c r="I150" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="J150" t="s">
+      <c r="J150" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="K150" t="s">
+      <c r="K150" s="2" t="s">
         <v>91</v>
       </c>
       <c r="L150" t="s">
@@ -2555,31 +2568,32 @@
         <v>93</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+    <row r="151" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+    <row r="152" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+    <row r="154" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+    <row r="155" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+    <row r="156" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2589,12 +2603,2644 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{647AAA95-3343-4603-B1A5-FD7AA296ED63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33AD6DE1-4041-4B63-9CE0-C2DA987C4619}">
+  <dimension ref="A2:M178"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A178"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>33.299999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>139.43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>95.929000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>66.228999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>87.144000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>25.149000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>123.642</v>
+      </c>
+      <c r="C18">
+        <v>-4.9950000000000001</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>7431.1930000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>46894.69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>88.096000000000004</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>69.314999999999998</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>11.282999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0.3291</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0.4783</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>2002.11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>80.430999999999997</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>90936.345000000001</v>
+      </c>
+      <c r="C29" s="6">
+        <v>1123300</v>
+      </c>
+      <c r="D29" s="6">
+        <v>1214200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>2417.6680000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>118.36199999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>-2.8460000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>34.840000000000003</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>39.470999999999997</v>
+      </c>
+      <c r="B45">
+        <v>8.1560000000000006</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>44.100999999999999</v>
+      </c>
+      <c r="B46">
+        <v>20.417999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>48.731000000000002</v>
+      </c>
+      <c r="B47">
+        <v>34.146000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>53.362000000000002</v>
+      </c>
+      <c r="B48">
+        <v>48.600999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>57.991999999999997</v>
+      </c>
+      <c r="B49">
+        <v>63.271999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>62.622999999999998</v>
+      </c>
+      <c r="B50">
+        <v>77.688999999999993</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>67.253</v>
+      </c>
+      <c r="B51">
+        <v>91.316000000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>71.882999999999996</v>
+      </c>
+      <c r="B52">
+        <v>103.429</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>76.513999999999996</v>
+      </c>
+      <c r="B53">
+        <v>112.925</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>81.144000000000005</v>
+      </c>
+      <c r="B54">
+        <v>118.14100000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>85.774000000000001</v>
+      </c>
+      <c r="B55">
+        <v>118.36199999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>90.405000000000001</v>
+      </c>
+      <c r="B56">
+        <v>117.056</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>95.034999999999997</v>
+      </c>
+      <c r="B57">
+        <v>114.88500000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>99.665999999999997</v>
+      </c>
+      <c r="B58">
+        <v>111.39400000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>104.29600000000001</v>
+      </c>
+      <c r="B59">
+        <v>106.095</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>108.926</v>
+      </c>
+      <c r="B60">
+        <v>98.447999999999993</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>113.557</v>
+      </c>
+      <c r="B61">
+        <v>88.031000000000006</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>118.187</v>
+      </c>
+      <c r="B62">
+        <v>74.599999999999994</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>122.818</v>
+      </c>
+      <c r="B63">
+        <v>57.768000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>127.44799999999999</v>
+      </c>
+      <c r="B64">
+        <v>35.896999999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>132.078</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>40</v>
+      </c>
+      <c r="B67">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>41</v>
+      </c>
+      <c r="B68" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>-2.8460000000000001</v>
+      </c>
+      <c r="B69">
+        <v>133.02799999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>4.2969999999999997</v>
+      </c>
+      <c r="B70">
+        <v>168.786</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>11.44</v>
+      </c>
+      <c r="B71">
+        <v>204.67099999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>18.582999999999998</v>
+      </c>
+      <c r="B72">
+        <v>240.55500000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>25.725999999999999</v>
+      </c>
+      <c r="B73">
+        <v>276.291</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>32.869</v>
+      </c>
+      <c r="B74">
+        <v>311.69400000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>40.012</v>
+      </c>
+      <c r="B75">
+        <v>346.517</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>47.154000000000003</v>
+      </c>
+      <c r="B76">
+        <v>380.40699999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>54.296999999999997</v>
+      </c>
+      <c r="B77">
+        <v>412.82799999999997</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>61.44</v>
+      </c>
+      <c r="B78">
+        <v>442.9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>68.582999999999998</v>
+      </c>
+      <c r="B79">
+        <v>469.00900000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>75.725999999999999</v>
+      </c>
+      <c r="B80">
+        <v>487.76799999999997</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>82.869</v>
+      </c>
+      <c r="B81">
+        <v>491.70600000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>90.012</v>
+      </c>
+      <c r="B82">
+        <v>478.90899999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>97.153999999999996</v>
+      </c>
+      <c r="B83">
+        <v>454.48899999999998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>104.297</v>
+      </c>
+      <c r="B84">
+        <v>414.92899999999997</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>111.44</v>
+      </c>
+      <c r="B85">
+        <v>359.08</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>118.583</v>
+      </c>
+      <c r="B86">
+        <v>285.75599999999997</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>125.726</v>
+      </c>
+      <c r="B87">
+        <v>190.76400000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>132.869</v>
+      </c>
+      <c r="B88">
+        <v>57.351999999999997</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>140.012</v>
+      </c>
+      <c r="B89">
+        <v>17.103999999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>147.154</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>40</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>41</v>
+      </c>
+      <c r="B93" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>46</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>40</v>
+      </c>
+      <c r="B97">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>47</v>
+      </c>
+      <c r="B98" t="s">
+        <v>48</v>
+      </c>
+      <c r="C98" t="s">
+        <v>49</v>
+      </c>
+      <c r="D98" t="s">
+        <v>50</v>
+      </c>
+      <c r="E98" t="s">
+        <v>51</v>
+      </c>
+      <c r="F98" t="s">
+        <v>52</v>
+      </c>
+      <c r="G98" t="s">
+        <v>53</v>
+      </c>
+      <c r="H98" t="s">
+        <v>54</v>
+      </c>
+      <c r="I98" t="s">
+        <v>55</v>
+      </c>
+      <c r="J98" t="s">
+        <v>56</v>
+      </c>
+      <c r="K98" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>-2.8460000000000001</v>
+      </c>
+      <c r="B99">
+        <v>66.861000000000004</v>
+      </c>
+      <c r="C99">
+        <v>133.02799999999999</v>
+      </c>
+      <c r="D99">
+        <v>-2.8460000000000001</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>15.663</v>
+      </c>
+      <c r="G99">
+        <v>8129.7629999999999</v>
+      </c>
+      <c r="H99">
+        <v>285.57900000000001</v>
+      </c>
+      <c r="I99">
+        <v>7844.1840000000002</v>
+      </c>
+      <c r="J99">
+        <v>12.516</v>
+      </c>
+      <c r="K99">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>-2.8460000000000001</v>
+      </c>
+      <c r="B100">
+        <v>66.861000000000004</v>
+      </c>
+      <c r="C100">
+        <v>133.02799999999999</v>
+      </c>
+      <c r="D100">
+        <v>-2.8460000000000001</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>15.663</v>
+      </c>
+      <c r="G100">
+        <v>8129.7629999999999</v>
+      </c>
+      <c r="H100">
+        <v>285.57900000000001</v>
+      </c>
+      <c r="I100">
+        <v>7844.1840000000002</v>
+      </c>
+      <c r="J100">
+        <v>12.516</v>
+      </c>
+      <c r="K100">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>4.2969999999999997</v>
+      </c>
+      <c r="B101">
+        <v>69.108000000000004</v>
+      </c>
+      <c r="C101">
+        <v>168.786</v>
+      </c>
+      <c r="D101">
+        <v>4.2969999999999997</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>15.09</v>
+      </c>
+      <c r="G101">
+        <v>10926.18</v>
+      </c>
+      <c r="H101">
+        <v>555.18100000000004</v>
+      </c>
+      <c r="I101">
+        <v>10371</v>
+      </c>
+      <c r="J101">
+        <v>11.25</v>
+      </c>
+      <c r="K101">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>4.2969999999999997</v>
+      </c>
+      <c r="B102">
+        <v>69.108000000000004</v>
+      </c>
+      <c r="C102">
+        <v>168.786</v>
+      </c>
+      <c r="D102">
+        <v>4.2969999999999997</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>15.09</v>
+      </c>
+      <c r="G102">
+        <v>10926.18</v>
+      </c>
+      <c r="H102">
+        <v>555.18100000000004</v>
+      </c>
+      <c r="I102">
+        <v>10371</v>
+      </c>
+      <c r="J102">
+        <v>11.25</v>
+      </c>
+      <c r="K102">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>11.44</v>
+      </c>
+      <c r="B103">
+        <v>71.340999999999994</v>
+      </c>
+      <c r="C103">
+        <v>204.67099999999999</v>
+      </c>
+      <c r="D103">
+        <v>11.44</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>14.522</v>
+      </c>
+      <c r="G103">
+        <v>13935.403</v>
+      </c>
+      <c r="H103">
+        <v>953.93399999999997</v>
+      </c>
+      <c r="I103">
+        <v>12981.468999999999</v>
+      </c>
+      <c r="J103">
+        <v>9.9949999999999992</v>
+      </c>
+      <c r="K103">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>11.44</v>
+      </c>
+      <c r="B104">
+        <v>71.340999999999994</v>
+      </c>
+      <c r="C104">
+        <v>204.67099999999999</v>
+      </c>
+      <c r="D104">
+        <v>11.44</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>14.522</v>
+      </c>
+      <c r="G104">
+        <v>13935.403</v>
+      </c>
+      <c r="H104">
+        <v>953.93399999999997</v>
+      </c>
+      <c r="I104">
+        <v>12981.468999999999</v>
+      </c>
+      <c r="J104">
+        <v>9.9949999999999992</v>
+      </c>
+      <c r="K104">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>18.582999999999998</v>
+      </c>
+      <c r="B105">
+        <v>73.570999999999998</v>
+      </c>
+      <c r="C105">
+        <v>240.55500000000001</v>
+      </c>
+      <c r="D105">
+        <v>18.582999999999998</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>13.962</v>
+      </c>
+      <c r="G105">
+        <v>17167.402999999998</v>
+      </c>
+      <c r="H105">
+        <v>1502.5119999999999</v>
+      </c>
+      <c r="I105">
+        <v>15664.891</v>
+      </c>
+      <c r="J105">
+        <v>8.7530000000000001</v>
+      </c>
+      <c r="K105">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>18.582999999999998</v>
+      </c>
+      <c r="B106">
+        <v>73.570999999999998</v>
+      </c>
+      <c r="C106">
+        <v>240.55500000000001</v>
+      </c>
+      <c r="D106">
+        <v>18.582999999999998</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>13.962</v>
+      </c>
+      <c r="G106">
+        <v>17167.402999999998</v>
+      </c>
+      <c r="H106">
+        <v>1502.5119999999999</v>
+      </c>
+      <c r="I106">
+        <v>15664.891</v>
+      </c>
+      <c r="J106">
+        <v>8.7530000000000001</v>
+      </c>
+      <c r="K106">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>25.725999999999999</v>
+      </c>
+      <c r="B107">
+        <v>75.790000000000006</v>
+      </c>
+      <c r="C107">
+        <v>276.291</v>
+      </c>
+      <c r="D107">
+        <v>25.725999999999999</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>13.411</v>
+      </c>
+      <c r="G107">
+        <v>20626.267</v>
+      </c>
+      <c r="H107">
+        <v>2217.6370000000002</v>
+      </c>
+      <c r="I107">
+        <v>18408.63</v>
+      </c>
+      <c r="J107">
+        <v>7.5289999999999999</v>
+      </c>
+      <c r="K107">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>25.725999999999999</v>
+      </c>
+      <c r="B108">
+        <v>75.790000000000006</v>
+      </c>
+      <c r="C108">
+        <v>276.291</v>
+      </c>
+      <c r="D108">
+        <v>25.725999999999999</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>13.411</v>
+      </c>
+      <c r="G108">
+        <v>20626.267</v>
+      </c>
+      <c r="H108">
+        <v>2217.6370000000002</v>
+      </c>
+      <c r="I108">
+        <v>18408.63</v>
+      </c>
+      <c r="J108">
+        <v>7.5289999999999999</v>
+      </c>
+      <c r="K108">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>32.869</v>
+      </c>
+      <c r="B109">
+        <v>77.983999999999995</v>
+      </c>
+      <c r="C109">
+        <v>311.69400000000002</v>
+      </c>
+      <c r="D109">
+        <v>32.869</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>12.872999999999999</v>
+      </c>
+      <c r="G109">
+        <v>24306.15</v>
+      </c>
+      <c r="H109">
+        <v>3110.5659999999998</v>
+      </c>
+      <c r="I109">
+        <v>21195.583999999999</v>
+      </c>
+      <c r="J109">
+        <v>6.327</v>
+      </c>
+      <c r="K109">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>32.869</v>
+      </c>
+      <c r="B110">
+        <v>77.983999999999995</v>
+      </c>
+      <c r="C110">
+        <v>311.69400000000002</v>
+      </c>
+      <c r="D110">
+        <v>32.869</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>12.872999999999999</v>
+      </c>
+      <c r="G110">
+        <v>24306.15</v>
+      </c>
+      <c r="H110">
+        <v>3110.5659999999998</v>
+      </c>
+      <c r="I110">
+        <v>21195.583999999999</v>
+      </c>
+      <c r="J110">
+        <v>6.327</v>
+      </c>
+      <c r="K110">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>40.012</v>
+      </c>
+      <c r="B111">
+        <v>80.132000000000005</v>
+      </c>
+      <c r="C111">
+        <v>346.517</v>
+      </c>
+      <c r="D111">
+        <v>40.012</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>12.349</v>
+      </c>
+      <c r="G111">
+        <v>28185.690999999999</v>
+      </c>
+      <c r="H111">
+        <v>4184.8050000000003</v>
+      </c>
+      <c r="I111">
+        <v>24000.885999999999</v>
+      </c>
+      <c r="J111">
+        <v>5.1539999999999999</v>
+      </c>
+      <c r="K111">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>40.012</v>
+      </c>
+      <c r="B112">
+        <v>80.132000000000005</v>
+      </c>
+      <c r="C112">
+        <v>346.517</v>
+      </c>
+      <c r="D112">
+        <v>40.012</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>12.349</v>
+      </c>
+      <c r="G112">
+        <v>28185.690999999999</v>
+      </c>
+      <c r="H112">
+        <v>4184.8050000000003</v>
+      </c>
+      <c r="I112">
+        <v>24000.885999999999</v>
+      </c>
+      <c r="J112">
+        <v>5.1539999999999999</v>
+      </c>
+      <c r="K112">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>47.154000000000003</v>
+      </c>
+      <c r="B113">
+        <v>82.207999999999998</v>
+      </c>
+      <c r="C113">
+        <v>380.40699999999998</v>
+      </c>
+      <c r="D113">
+        <v>47.154000000000003</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>11.843999999999999</v>
+      </c>
+      <c r="G113">
+        <v>32218.976999999999</v>
+      </c>
+      <c r="H113">
+        <v>5432.41</v>
+      </c>
+      <c r="I113">
+        <v>26786.566999999999</v>
+      </c>
+      <c r="J113">
+        <v>4.0179999999999998</v>
+      </c>
+      <c r="K113">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>47.154000000000003</v>
+      </c>
+      <c r="B114">
+        <v>82.207999999999998</v>
+      </c>
+      <c r="C114">
+        <v>380.40699999999998</v>
+      </c>
+      <c r="D114">
+        <v>47.154000000000003</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>11.843999999999999</v>
+      </c>
+      <c r="G114">
+        <v>32218.976999999999</v>
+      </c>
+      <c r="H114">
+        <v>5432.41</v>
+      </c>
+      <c r="I114">
+        <v>26786.566999999999</v>
+      </c>
+      <c r="J114">
+        <v>4.0179999999999998</v>
+      </c>
+      <c r="K114">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>54.296999999999997</v>
+      </c>
+      <c r="B115">
+        <v>84.174000000000007</v>
+      </c>
+      <c r="C115">
+        <v>412.82799999999997</v>
+      </c>
+      <c r="D115">
+        <v>54.296999999999997</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>11.364000000000001</v>
+      </c>
+      <c r="G115">
+        <v>36319.148999999998</v>
+      </c>
+      <c r="H115">
+        <v>6827.4920000000002</v>
+      </c>
+      <c r="I115">
+        <v>29491.656999999999</v>
+      </c>
+      <c r="J115">
+        <v>2.9340000000000002</v>
+      </c>
+      <c r="K115">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>54.296999999999997</v>
+      </c>
+      <c r="B116">
+        <v>84.174000000000007</v>
+      </c>
+      <c r="C116">
+        <v>412.82799999999997</v>
+      </c>
+      <c r="D116">
+        <v>54.296999999999997</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>11.364000000000001</v>
+      </c>
+      <c r="G116">
+        <v>36319.148999999998</v>
+      </c>
+      <c r="H116">
+        <v>6827.4920000000002</v>
+      </c>
+      <c r="I116">
+        <v>29491.656999999999</v>
+      </c>
+      <c r="J116">
+        <v>2.9340000000000002</v>
+      </c>
+      <c r="K116">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>61.44</v>
+      </c>
+      <c r="B117">
+        <v>85.966999999999999</v>
+      </c>
+      <c r="C117">
+        <v>442.9</v>
+      </c>
+      <c r="D117">
+        <v>61.44</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>10.917999999999999</v>
+      </c>
+      <c r="G117">
+        <v>40325.281999999999</v>
+      </c>
+      <c r="H117">
+        <v>8313.73</v>
+      </c>
+      <c r="I117">
+        <v>32011.552</v>
+      </c>
+      <c r="J117">
+        <v>1.925</v>
+      </c>
+      <c r="K117">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>61.44</v>
+      </c>
+      <c r="B118">
+        <v>85.966999999999999</v>
+      </c>
+      <c r="C118">
+        <v>442.9</v>
+      </c>
+      <c r="D118">
+        <v>61.44</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>10.917999999999999</v>
+      </c>
+      <c r="G118">
+        <v>40325.281999999999</v>
+      </c>
+      <c r="H118">
+        <v>8313.73</v>
+      </c>
+      <c r="I118">
+        <v>32011.552</v>
+      </c>
+      <c r="J118">
+        <v>1.925</v>
+      </c>
+      <c r="K118">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>68.582999999999998</v>
+      </c>
+      <c r="B119">
+        <v>87.471999999999994</v>
+      </c>
+      <c r="C119">
+        <v>469.00900000000001</v>
+      </c>
+      <c r="D119">
+        <v>68.582999999999998</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>10.523</v>
+      </c>
+      <c r="G119">
+        <v>43926.307999999997</v>
+      </c>
+      <c r="H119">
+        <v>9777.2800000000007</v>
+      </c>
+      <c r="I119">
+        <v>34149.027999999998</v>
+      </c>
+      <c r="J119">
+        <v>1.036</v>
+      </c>
+      <c r="K119">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>68.582999999999998</v>
+      </c>
+      <c r="B120">
+        <v>87.471999999999994</v>
+      </c>
+      <c r="C120">
+        <v>469.00900000000001</v>
+      </c>
+      <c r="D120">
+        <v>68.582999999999998</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>10.523</v>
+      </c>
+      <c r="G120">
+        <v>43926.307999999997</v>
+      </c>
+      <c r="H120">
+        <v>9777.2800000000007</v>
+      </c>
+      <c r="I120">
+        <v>34149.027999999998</v>
+      </c>
+      <c r="J120">
+        <v>1.036</v>
+      </c>
+      <c r="K120">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>75.725999999999999</v>
+      </c>
+      <c r="B121">
+        <v>88.438000000000002</v>
+      </c>
+      <c r="C121">
+        <v>487.76799999999997</v>
+      </c>
+      <c r="D121">
+        <v>75.725999999999999</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>10.214</v>
+      </c>
+      <c r="G121">
+        <v>46460.464</v>
+      </c>
+      <c r="H121">
+        <v>10980.885</v>
+      </c>
+      <c r="I121">
+        <v>35479.578999999998</v>
+      </c>
+      <c r="J121">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="K121">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>75.725999999999999</v>
+      </c>
+      <c r="B122">
+        <v>88.438000000000002</v>
+      </c>
+      <c r="C122">
+        <v>487.76799999999997</v>
+      </c>
+      <c r="D122">
+        <v>75.725999999999999</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>10.214</v>
+      </c>
+      <c r="G122">
+        <v>46460.464</v>
+      </c>
+      <c r="H122">
+        <v>10980.885</v>
+      </c>
+      <c r="I122">
+        <v>35479.578999999998</v>
+      </c>
+      <c r="J122">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="K122">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>82.869</v>
+      </c>
+      <c r="B123">
+        <v>88.278000000000006</v>
+      </c>
+      <c r="C123">
+        <v>491.70600000000002</v>
+      </c>
+      <c r="D123">
+        <v>82.869</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>10.058</v>
+      </c>
+      <c r="G123">
+        <v>46471.557999999997</v>
+      </c>
+      <c r="H123">
+        <v>11449.144</v>
+      </c>
+      <c r="I123">
+        <v>35022.413999999997</v>
+      </c>
+      <c r="J123">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="K123">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>82.869</v>
+      </c>
+      <c r="B124">
+        <v>88.278000000000006</v>
+      </c>
+      <c r="C124">
+        <v>491.70600000000002</v>
+      </c>
+      <c r="D124">
+        <v>82.869</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>10.058</v>
+      </c>
+      <c r="G124">
+        <v>46471.557999999997</v>
+      </c>
+      <c r="H124">
+        <v>11449.144</v>
+      </c>
+      <c r="I124">
+        <v>35022.413999999997</v>
+      </c>
+      <c r="J124">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="K124">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>90.012</v>
+      </c>
+      <c r="B125">
+        <v>86.703999999999994</v>
+      </c>
+      <c r="C125">
+        <v>478.90899999999999</v>
+      </c>
+      <c r="D125">
+        <v>90.012</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>10.016999999999999</v>
+      </c>
+      <c r="G125">
+        <v>43342.313000000002</v>
+      </c>
+      <c r="H125">
+        <v>11164.501</v>
+      </c>
+      <c r="I125">
+        <v>32177.812000000002</v>
+      </c>
+      <c r="J125">
+        <v>0.109</v>
+      </c>
+      <c r="K125">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>90.012</v>
+      </c>
+      <c r="B126">
+        <v>86.703999999999994</v>
+      </c>
+      <c r="C126">
+        <v>478.90899999999999</v>
+      </c>
+      <c r="D126">
+        <v>90.012</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>10.016999999999999</v>
+      </c>
+      <c r="G126">
+        <v>43342.313000000002</v>
+      </c>
+      <c r="H126">
+        <v>11164.501</v>
+      </c>
+      <c r="I126">
+        <v>32177.812000000002</v>
+      </c>
+      <c r="J126">
+        <v>0.109</v>
+      </c>
+      <c r="K126">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>97.153999999999996</v>
+      </c>
+      <c r="B127">
+        <v>84.018000000000001</v>
+      </c>
+      <c r="C127">
+        <v>454.48899999999998</v>
+      </c>
+      <c r="D127">
+        <v>97.153999999999996</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="G127">
+        <v>37954.69</v>
+      </c>
+      <c r="H127">
+        <v>10662.816000000001</v>
+      </c>
+      <c r="I127">
+        <v>27291.874</v>
+      </c>
+      <c r="J127">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="K127">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>97.153999999999996</v>
+      </c>
+      <c r="B128">
+        <v>84.018000000000001</v>
+      </c>
+      <c r="C128">
+        <v>454.48899999999998</v>
+      </c>
+      <c r="D128">
+        <v>97.153999999999996</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="G128">
+        <v>37954.69</v>
+      </c>
+      <c r="H128">
+        <v>10662.816000000001</v>
+      </c>
+      <c r="I128">
+        <v>27291.874</v>
+      </c>
+      <c r="J128">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="K128">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>104.297</v>
+      </c>
+      <c r="B129">
+        <v>80.150999999999996</v>
+      </c>
+      <c r="C129">
+        <v>414.92899999999997</v>
+      </c>
+      <c r="D129">
+        <v>104.297</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>9.9380000000000006</v>
+      </c>
+      <c r="G129">
+        <v>30479.712</v>
+      </c>
+      <c r="H129">
+        <v>9915.99</v>
+      </c>
+      <c r="I129">
+        <v>20563.722000000002</v>
+      </c>
+      <c r="J129">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="K129">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>104.297</v>
+      </c>
+      <c r="B130">
+        <v>80.150999999999996</v>
+      </c>
+      <c r="C130">
+        <v>414.92899999999997</v>
+      </c>
+      <c r="D130">
+        <v>104.297</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>9.9380000000000006</v>
+      </c>
+      <c r="G130">
+        <v>30479.712</v>
+      </c>
+      <c r="H130">
+        <v>9915.99</v>
+      </c>
+      <c r="I130">
+        <v>20563.722000000002</v>
+      </c>
+      <c r="J130">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="K130">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>111.44</v>
+      </c>
+      <c r="B131">
+        <v>75.566999999999993</v>
+      </c>
+      <c r="C131">
+        <v>359.08</v>
+      </c>
+      <c r="D131">
+        <v>111.44</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>9.9789999999999992</v>
+      </c>
+      <c r="G131">
+        <v>22171.98</v>
+      </c>
+      <c r="H131">
+        <v>8858.0830000000005</v>
+      </c>
+      <c r="I131">
+        <v>13313.897000000001</v>
+      </c>
+      <c r="J131">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="K131">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>111.44</v>
+      </c>
+      <c r="B132">
+        <v>75.566999999999993</v>
+      </c>
+      <c r="C132">
+        <v>359.08</v>
+      </c>
+      <c r="D132">
+        <v>111.44</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>9.9789999999999992</v>
+      </c>
+      <c r="G132">
+        <v>22171.98</v>
+      </c>
+      <c r="H132">
+        <v>8858.0830000000005</v>
+      </c>
+      <c r="I132">
+        <v>13313.897000000001</v>
+      </c>
+      <c r="J132">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="K132">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>118.583</v>
+      </c>
+      <c r="B133">
+        <v>70.433000000000007</v>
+      </c>
+      <c r="C133">
+        <v>285.75599999999997</v>
+      </c>
+      <c r="D133">
+        <v>118.583</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>10.169</v>
+      </c>
+      <c r="G133">
+        <v>14328.38</v>
+      </c>
+      <c r="H133">
+        <v>7339.1490000000003</v>
+      </c>
+      <c r="I133">
+        <v>6989.2309999999998</v>
+      </c>
+      <c r="J133">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K133">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>118.583</v>
+      </c>
+      <c r="B134">
+        <v>70.433000000000007</v>
+      </c>
+      <c r="C134">
+        <v>285.75599999999997</v>
+      </c>
+      <c r="D134">
+        <v>118.583</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>10.169</v>
+      </c>
+      <c r="G134">
+        <v>14328.38</v>
+      </c>
+      <c r="H134">
+        <v>7339.1490000000003</v>
+      </c>
+      <c r="I134">
+        <v>6989.2309999999998</v>
+      </c>
+      <c r="J134">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K134">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>125.726</v>
+      </c>
+      <c r="B135">
+        <v>64.876999999999995</v>
+      </c>
+      <c r="C135">
+        <v>190.76400000000001</v>
+      </c>
+      <c r="D135">
+        <v>125.726</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>10.792999999999999</v>
+      </c>
+      <c r="G135">
+        <v>7743.9679999999998</v>
+      </c>
+      <c r="H135">
+        <v>5107.4960000000001</v>
+      </c>
+      <c r="I135">
+        <v>2636.4720000000002</v>
+      </c>
+      <c r="J135">
+        <v>0.08</v>
+      </c>
+      <c r="K135">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>125.726</v>
+      </c>
+      <c r="B136">
+        <v>64.876999999999995</v>
+      </c>
+      <c r="C136">
+        <v>190.76400000000001</v>
+      </c>
+      <c r="D136">
+        <v>125.726</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>10.792999999999999</v>
+      </c>
+      <c r="G136">
+        <v>7743.9679999999998</v>
+      </c>
+      <c r="H136">
+        <v>5107.4960000000001</v>
+      </c>
+      <c r="I136">
+        <v>2636.4720000000002</v>
+      </c>
+      <c r="J136">
+        <v>0.08</v>
+      </c>
+      <c r="K136">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>132.869</v>
+      </c>
+      <c r="B137">
+        <v>36.206000000000003</v>
+      </c>
+      <c r="C137">
+        <v>57.351999999999997</v>
+      </c>
+      <c r="D137">
+        <v>132.869</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>15.741</v>
+      </c>
+      <c r="G137">
+        <v>803.48900000000003</v>
+      </c>
+      <c r="H137">
+        <v>134.215</v>
+      </c>
+      <c r="I137">
+        <v>669.274</v>
+      </c>
+      <c r="J137">
+        <v>11.933</v>
+      </c>
+      <c r="K137">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>132.869</v>
+      </c>
+      <c r="B138">
+        <v>36.206000000000003</v>
+      </c>
+      <c r="C138">
+        <v>57.351999999999997</v>
+      </c>
+      <c r="D138">
+        <v>132.869</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>15.741</v>
+      </c>
+      <c r="G138">
+        <v>803.48900000000003</v>
+      </c>
+      <c r="H138">
+        <v>134.215</v>
+      </c>
+      <c r="I138">
+        <v>669.274</v>
+      </c>
+      <c r="J138">
+        <v>11.933</v>
+      </c>
+      <c r="K138">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>140.012</v>
+      </c>
+      <c r="B139">
+        <v>23.068000000000001</v>
+      </c>
+      <c r="C139">
+        <v>17.103999999999999</v>
+      </c>
+      <c r="D139">
+        <v>140.012</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>17.038</v>
+      </c>
+      <c r="G139">
+        <v>104.504</v>
+      </c>
+      <c r="H139">
+        <v>6.9820000000000002</v>
+      </c>
+      <c r="I139">
+        <v>97.522000000000006</v>
+      </c>
+      <c r="J139">
+        <v>15.53</v>
+      </c>
+      <c r="K139">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>140.012</v>
+      </c>
+      <c r="B140">
+        <v>23.068000000000001</v>
+      </c>
+      <c r="C140">
+        <v>17.103999999999999</v>
+      </c>
+      <c r="D140">
+        <v>140.012</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>17.038</v>
+      </c>
+      <c r="G140">
+        <v>104.504</v>
+      </c>
+      <c r="H140">
+        <v>6.9820000000000002</v>
+      </c>
+      <c r="I140">
+        <v>97.522000000000006</v>
+      </c>
+      <c r="J140">
+        <v>15.53</v>
+      </c>
+      <c r="K140">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>147.154</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <v>147.154</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>18</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>59</v>
+      </c>
+      <c r="B143">
+        <v>139.43</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>60</v>
+      </c>
+      <c r="B144">
+        <v>33.299999999999997</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>61</v>
+      </c>
+      <c r="B145">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>62</v>
+      </c>
+      <c r="B146">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>63</v>
+      </c>
+      <c r="B147">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>64</v>
+      </c>
+      <c r="B148">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>65</v>
+      </c>
+      <c r="B149">
+        <v>20914.55</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>66</v>
+      </c>
+      <c r="B150">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>7</v>
+      </c>
+      <c r="B151">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>67</v>
+      </c>
+      <c r="B152">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>68</v>
+      </c>
+      <c r="B153">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>69</v>
+      </c>
+      <c r="B154">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>12</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>70</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>71</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>72</v>
+      </c>
+      <c r="B158">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>73</v>
+      </c>
+      <c r="B159">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>74</v>
+      </c>
+      <c r="B160">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>75</v>
+      </c>
+      <c r="B161">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>76</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>77</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>81</v>
+      </c>
+      <c r="B168" t="s">
+        <v>82</v>
+      </c>
+      <c r="C168" t="s">
+        <v>83</v>
+      </c>
+      <c r="D168" t="s">
+        <v>84</v>
+      </c>
+      <c r="E168" t="s">
+        <v>85</v>
+      </c>
+      <c r="F168" t="s">
+        <v>86</v>
+      </c>
+      <c r="G168" t="s">
+        <v>87</v>
+      </c>
+      <c r="H168" t="s">
+        <v>88</v>
+      </c>
+      <c r="I168" t="s">
+        <v>89</v>
+      </c>
+      <c r="J168" t="s">
+        <v>90</v>
+      </c>
+      <c r="K168" t="s">
+        <v>91</v>
+      </c>
+      <c r="L168" t="s">
+        <v>92</v>
+      </c>
+      <c r="M168" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>40</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>81</v>
+      </c>
+      <c r="B172" t="s">
+        <v>82</v>
+      </c>
+      <c r="C172" t="s">
+        <v>83</v>
+      </c>
+      <c r="D172" t="s">
+        <v>84</v>
+      </c>
+      <c r="E172" t="s">
+        <v>85</v>
+      </c>
+      <c r="F172" t="s">
+        <v>86</v>
+      </c>
+      <c r="G172" t="s">
+        <v>87</v>
+      </c>
+      <c r="H172" t="s">
+        <v>88</v>
+      </c>
+      <c r="I172" t="s">
+        <v>89</v>
+      </c>
+      <c r="J172" t="s">
+        <v>90</v>
+      </c>
+      <c r="K172" t="s">
+        <v>91</v>
+      </c>
+      <c r="L172" t="s">
+        <v>92</v>
+      </c>
+      <c r="M172" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>98</v>
+      </c>
+      <c r="B176" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/IP.xlsx
+++ b/IP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2ee38df677a9f564/Documenten/Maritieme techniek/Q4/IP-26-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_9A640D58C12CD2B6F91E7424993175CE37AA53CB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{459F7029-9C07-420A-8ABE-127201D6F508}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="11_9A640D58C12CD2B6F91E7424993175CE37AA53CB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C08EDB5B-85DB-49D8-B938-F11E389C115E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2604,20 +2604,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33AD6DE1-4041-4B63-9CE0-C2DA987C4619}">
-  <dimension ref="A2:M178"/>
+  <dimension ref="A2:M157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A178"/>
+      <selection sqref="A1:A157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>150</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2625,7 +2628,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>33.299999999999997</v>
+        <v>25.594000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2633,7 +2636,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18</v>
+        <v>17.997</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -2641,7 +2644,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>139.43</v>
+        <v>101.883</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2649,7 +2652,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>95.929000000000002</v>
+        <v>69.432000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -2657,7 +2660,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>66.228999999999999</v>
+        <v>48.393999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2665,7 +2668,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>87.144000000000005</v>
+        <v>63.677</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -2686,7 +2689,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>5.9969999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -2694,7 +2697,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>5.9969999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -2702,7 +2705,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>5.9969999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -2723,7 +2726,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.149000000000001</v>
+        <v>21.966999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -2739,13 +2742,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>123.642</v>
+        <v>90.290999999999997</v>
       </c>
       <c r="C18">
-        <v>-4.9950000000000001</v>
+        <v>-3.839</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>5.9969999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -2758,7 +2761,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7431.1930000000002</v>
+        <v>3406.05</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -2766,7 +2769,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>46894.69</v>
+        <v>24884.823</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -2774,13 +2777,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>88.096000000000004</v>
+        <v>64.138000000000005</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.69</v>
+        <v>3.8359999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -2788,13 +2791,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>69.314999999999998</v>
+        <v>50.09</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>11.282999999999999</v>
+        <v>11.519</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -2802,7 +2805,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3291</v>
+        <v>0.28339999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -2810,7 +2813,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4783</v>
+        <v>0.41589999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -2823,7 +2826,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>2002.11</v>
+        <v>1017.645</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -2831,13 +2834,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>80.430999999999997</v>
+        <v>59.3</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>6</v>
+        <v>5.9969999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -2845,13 +2848,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>90936.345000000001</v>
+        <v>23244.687000000002</v>
       </c>
       <c r="C29" s="6">
-        <v>1123300</v>
+        <v>293875.52500000002</v>
       </c>
       <c r="D29" s="6">
-        <v>1214200</v>
+        <v>317120.212</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -2859,7 +2862,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>2417.6680000000001</v>
+        <v>1283.193</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -2875,7 +2878,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>118.36199999999999</v>
+        <v>79.543999999999997</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -2898,7 +2901,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-2.8460000000000001</v>
+        <v>-2.0790000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -2947,7 +2950,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>34.840000000000003</v>
+        <v>25.800999999999998</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2955,167 +2958,167 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>39.470999999999997</v>
+        <v>29.106999999999999</v>
       </c>
       <c r="B45">
-        <v>8.1560000000000006</v>
+        <v>4.3330000000000002</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>44.100999999999999</v>
+        <v>32.414000000000001</v>
       </c>
       <c r="B46">
-        <v>20.417999999999999</v>
+        <v>11.52</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>48.731000000000002</v>
+        <v>35.72</v>
       </c>
       <c r="B47">
-        <v>34.146000000000001</v>
+        <v>19.879000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>53.362000000000002</v>
+        <v>39.026000000000003</v>
       </c>
       <c r="B48">
-        <v>48.600999999999999</v>
+        <v>28.873000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>57.991999999999997</v>
+        <v>42.332000000000001</v>
       </c>
       <c r="B49">
-        <v>63.271999999999998</v>
+        <v>38.152000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>62.622999999999998</v>
+        <v>45.639000000000003</v>
       </c>
       <c r="B50">
-        <v>77.688999999999993</v>
+        <v>47.414000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>67.253</v>
+        <v>48.945</v>
       </c>
       <c r="B51">
-        <v>91.316000000000003</v>
+        <v>56.341000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>71.882999999999996</v>
+        <v>52.250999999999998</v>
       </c>
       <c r="B52">
-        <v>103.429</v>
+        <v>64.516000000000005</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>76.513999999999996</v>
+        <v>55.557000000000002</v>
       </c>
       <c r="B53">
-        <v>112.925</v>
+        <v>71.281000000000006</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>81.144000000000005</v>
+        <v>58.863999999999997</v>
       </c>
       <c r="B54">
-        <v>118.14100000000001</v>
+        <v>75.507000000000005</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>85.774000000000001</v>
+        <v>62.17</v>
       </c>
       <c r="B55">
-        <v>118.36199999999999</v>
+        <v>77.245999999999995</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>90.405000000000001</v>
+        <v>65.475999999999999</v>
       </c>
       <c r="B56">
-        <v>117.056</v>
+        <v>79.13</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>95.034999999999997</v>
+        <v>68.781999999999996</v>
       </c>
       <c r="B57">
-        <v>114.88500000000001</v>
+        <v>79.543999999999997</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>99.665999999999997</v>
+        <v>72.088999999999999</v>
       </c>
       <c r="B58">
-        <v>111.39400000000001</v>
+        <v>77.391000000000005</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>104.29600000000001</v>
+        <v>75.394999999999996</v>
       </c>
       <c r="B59">
-        <v>106.095</v>
+        <v>72.772000000000006</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>108.926</v>
+        <v>78.700999999999993</v>
       </c>
       <c r="B60">
-        <v>98.447999999999993</v>
+        <v>66.429000000000002</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>113.557</v>
+        <v>82.007000000000005</v>
       </c>
       <c r="B61">
-        <v>88.031000000000006</v>
+        <v>58.447000000000003</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>118.187</v>
+        <v>85.313999999999993</v>
       </c>
       <c r="B62">
-        <v>74.599999999999994</v>
+        <v>48.283999999999999</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>122.818</v>
+        <v>88.62</v>
       </c>
       <c r="B63">
-        <v>57.768000000000001</v>
+        <v>35.082999999999998</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>127.44799999999999</v>
+        <v>91.926000000000002</v>
       </c>
       <c r="B64">
-        <v>35.896999999999998</v>
+        <v>17.393000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>132.078</v>
+        <v>95.233000000000004</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -3144,175 +3147,175 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>-2.8460000000000001</v>
+        <v>-2.0790000000000002</v>
       </c>
       <c r="B69">
-        <v>133.02799999999999</v>
+        <v>102.226</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>4.2969999999999997</v>
+        <v>2.968</v>
       </c>
       <c r="B70">
-        <v>168.786</v>
+        <v>127.51900000000001</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>11.44</v>
+        <v>8.016</v>
       </c>
       <c r="B71">
-        <v>204.67099999999999</v>
+        <v>152.774</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>18.582999999999998</v>
+        <v>13.064</v>
       </c>
       <c r="B72">
-        <v>240.55500000000001</v>
+        <v>177.89500000000001</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>25.725999999999999</v>
+        <v>18.111000000000001</v>
       </c>
       <c r="B73">
-        <v>276.291</v>
+        <v>202.78399999999999</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>32.869</v>
+        <v>23.158999999999999</v>
       </c>
       <c r="B74">
-        <v>311.69400000000002</v>
+        <v>227.32300000000001</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>40.012</v>
+        <v>28.206</v>
       </c>
       <c r="B75">
-        <v>346.517</v>
+        <v>251.36799999999999</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>47.154000000000003</v>
+        <v>33.253999999999998</v>
       </c>
       <c r="B76">
-        <v>380.40699999999998</v>
+        <v>274.72800000000001</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>54.296999999999997</v>
+        <v>38.302</v>
       </c>
       <c r="B77">
-        <v>412.82799999999997</v>
+        <v>297.137</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>61.44</v>
+        <v>43.348999999999997</v>
       </c>
       <c r="B78">
-        <v>442.9</v>
+        <v>318.185</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>68.582999999999998</v>
+        <v>48.396999999999998</v>
       </c>
       <c r="B79">
-        <v>469.00900000000001</v>
+        <v>337.14</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>75.725999999999999</v>
+        <v>53.445</v>
       </c>
       <c r="B80">
-        <v>487.76799999999997</v>
+        <v>352.44799999999998</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>82.869</v>
+        <v>58.491999999999997</v>
       </c>
       <c r="B81">
-        <v>491.70600000000002</v>
+        <v>359.928</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>90.012</v>
+        <v>63.54</v>
       </c>
       <c r="B82">
-        <v>478.90899999999999</v>
+        <v>353.221</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>97.153999999999996</v>
+        <v>68.587000000000003</v>
       </c>
       <c r="B83">
-        <v>454.48899999999998</v>
+        <v>331.08499999999998</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>104.297</v>
+        <v>73.635000000000005</v>
       </c>
       <c r="B84">
-        <v>414.92899999999997</v>
+        <v>300.39</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>111.44</v>
+        <v>78.683000000000007</v>
       </c>
       <c r="B85">
-        <v>359.08</v>
+        <v>266.00599999999997</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>118.583</v>
+        <v>83.73</v>
       </c>
       <c r="B86">
-        <v>285.75599999999997</v>
+        <v>226.17</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>125.726</v>
+        <v>88.778000000000006</v>
       </c>
       <c r="B87">
-        <v>190.76400000000001</v>
+        <v>175.953</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>132.869</v>
+        <v>93.825999999999993</v>
       </c>
       <c r="B88">
-        <v>57.351999999999997</v>
+        <v>106.474</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>140.012</v>
+        <v>98.873000000000005</v>
       </c>
       <c r="B89">
-        <v>17.103999999999999</v>
+        <v>37.396999999999998</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>147.154</v>
+        <v>103.92100000000001</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -3354,7 +3357,7 @@
         <v>46</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
@@ -3362,7 +3365,7 @@
         <v>40</v>
       </c>
       <c r="B97">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
@@ -3402,34 +3405,34 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>-2.8460000000000001</v>
+        <v>-2.0790000000000002</v>
       </c>
       <c r="B99">
-        <v>66.861000000000004</v>
+        <v>52.798000000000002</v>
       </c>
       <c r="C99">
-        <v>133.02799999999999</v>
+        <v>0.158</v>
       </c>
       <c r="D99">
-        <v>-2.8460000000000001</v>
+        <v>-2.0790000000000002</v>
       </c>
       <c r="E99">
         <v>0</v>
       </c>
       <c r="F99">
-        <v>15.663</v>
+        <v>15.913</v>
       </c>
       <c r="G99">
-        <v>8129.7629999999999</v>
+        <v>9.4390000000000001</v>
       </c>
       <c r="H99">
-        <v>285.57900000000001</v>
+        <v>0.81499999999999995</v>
       </c>
       <c r="I99">
-        <v>7844.1840000000002</v>
+        <v>8.6229999999999993</v>
       </c>
       <c r="J99">
-        <v>12.516</v>
+        <v>12.510999999999999</v>
       </c>
       <c r="K99">
         <v>18</v>
@@ -3437,34 +3440,34 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>-2.8460000000000001</v>
+        <v>2.968</v>
       </c>
       <c r="B100">
-        <v>66.861000000000004</v>
+        <v>54.908000000000001</v>
       </c>
       <c r="C100">
-        <v>133.02799999999999</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="D100">
-        <v>-2.8460000000000001</v>
+        <v>2.968</v>
       </c>
       <c r="E100">
         <v>0</v>
       </c>
       <c r="F100">
-        <v>15.663</v>
+        <v>15.427</v>
       </c>
       <c r="G100">
-        <v>8129.7629999999999</v>
+        <v>10.702999999999999</v>
       </c>
       <c r="H100">
-        <v>285.57900000000001</v>
+        <v>1.252</v>
       </c>
       <c r="I100">
-        <v>7844.1840000000002</v>
+        <v>9.4510000000000005</v>
       </c>
       <c r="J100">
-        <v>12.516</v>
+        <v>11.305</v>
       </c>
       <c r="K100">
         <v>18</v>
@@ -3472,34 +3475,34 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>4.2969999999999997</v>
+        <v>8.016</v>
       </c>
       <c r="B101">
-        <v>69.108000000000004</v>
+        <v>56.991</v>
       </c>
       <c r="C101">
-        <v>168.786</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="D101">
-        <v>4.2969999999999997</v>
+        <v>8.016</v>
       </c>
       <c r="E101">
         <v>0</v>
       </c>
       <c r="F101">
-        <v>15.09</v>
+        <v>14.944000000000001</v>
       </c>
       <c r="G101">
-        <v>10926.18</v>
+        <v>12.063000000000001</v>
       </c>
       <c r="H101">
-        <v>555.18100000000004</v>
+        <v>1.784</v>
       </c>
       <c r="I101">
-        <v>10371</v>
+        <v>10.278</v>
       </c>
       <c r="J101">
-        <v>11.25</v>
+        <v>10.106999999999999</v>
       </c>
       <c r="K101">
         <v>18</v>
@@ -3507,34 +3510,34 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>4.2969999999999997</v>
+        <v>13.064</v>
       </c>
       <c r="B102">
-        <v>69.108000000000004</v>
+        <v>59.054000000000002</v>
       </c>
       <c r="C102">
-        <v>168.786</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="D102">
-        <v>4.2969999999999997</v>
+        <v>13.064</v>
       </c>
       <c r="E102">
         <v>0</v>
       </c>
       <c r="F102">
-        <v>15.09</v>
+        <v>14.465999999999999</v>
       </c>
       <c r="G102">
-        <v>10926.18</v>
+        <v>13.519</v>
       </c>
       <c r="H102">
-        <v>555.18100000000004</v>
+        <v>2.4089999999999998</v>
       </c>
       <c r="I102">
-        <v>10371</v>
+        <v>11.11</v>
       </c>
       <c r="J102">
-        <v>11.25</v>
+        <v>8.9209999999999994</v>
       </c>
       <c r="K102">
         <v>18</v>
@@ -3542,34 +3545,34 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>11.44</v>
+        <v>18.111000000000001</v>
       </c>
       <c r="B103">
-        <v>71.340999999999994</v>
+        <v>61.091000000000001</v>
       </c>
       <c r="C103">
-        <v>204.67099999999999</v>
+        <v>0.183</v>
       </c>
       <c r="D103">
-        <v>11.44</v>
+        <v>18.111000000000001</v>
       </c>
       <c r="E103">
         <v>0</v>
       </c>
       <c r="F103">
-        <v>14.522</v>
+        <v>13.996</v>
       </c>
       <c r="G103">
-        <v>13935.403</v>
+        <v>15.068</v>
       </c>
       <c r="H103">
-        <v>953.93399999999997</v>
+        <v>3.1230000000000002</v>
       </c>
       <c r="I103">
-        <v>12981.468999999999</v>
+        <v>11.945</v>
       </c>
       <c r="J103">
-        <v>9.9949999999999992</v>
+        <v>7.7480000000000002</v>
       </c>
       <c r="K103">
         <v>18</v>
@@ -3577,34 +3580,34 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>11.44</v>
+        <v>23.158999999999999</v>
       </c>
       <c r="B104">
-        <v>71.340999999999994</v>
+        <v>63.097000000000001</v>
       </c>
       <c r="C104">
-        <v>204.67099999999999</v>
+        <v>0.189</v>
       </c>
       <c r="D104">
-        <v>11.44</v>
+        <v>23.158999999999999</v>
       </c>
       <c r="E104">
         <v>0</v>
       </c>
       <c r="F104">
-        <v>14.522</v>
+        <v>13.534000000000001</v>
       </c>
       <c r="G104">
-        <v>13935.403</v>
+        <v>16.698</v>
       </c>
       <c r="H104">
-        <v>953.93399999999997</v>
+        <v>3.919</v>
       </c>
       <c r="I104">
-        <v>12981.468999999999</v>
+        <v>12.779</v>
       </c>
       <c r="J104">
-        <v>9.9949999999999992</v>
+        <v>6.5919999999999996</v>
       </c>
       <c r="K104">
         <v>18</v>
@@ -3612,34 +3615,34 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>18.582999999999998</v>
+        <v>28.206</v>
       </c>
       <c r="B105">
-        <v>73.570999999999998</v>
+        <v>65.058000000000007</v>
       </c>
       <c r="C105">
-        <v>240.55500000000001</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="D105">
-        <v>18.582999999999998</v>
+        <v>28.206</v>
       </c>
       <c r="E105">
         <v>0</v>
       </c>
       <c r="F105">
-        <v>13.962</v>
+        <v>13.082000000000001</v>
       </c>
       <c r="G105">
-        <v>17167.402999999998</v>
+        <v>18.398</v>
       </c>
       <c r="H105">
-        <v>1502.5119999999999</v>
+        <v>4.7910000000000004</v>
       </c>
       <c r="I105">
-        <v>15664.891</v>
+        <v>13.606999999999999</v>
       </c>
       <c r="J105">
-        <v>8.7530000000000001</v>
+        <v>5.4550000000000001</v>
       </c>
       <c r="K105">
         <v>18</v>
@@ -3647,34 +3650,34 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>18.582999999999998</v>
+        <v>33.253999999999998</v>
       </c>
       <c r="B106">
-        <v>73.570999999999998</v>
+        <v>66.959000000000003</v>
       </c>
       <c r="C106">
-        <v>240.55500000000001</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="D106">
-        <v>18.582999999999998</v>
+        <v>33.253999999999998</v>
       </c>
       <c r="E106">
         <v>0</v>
       </c>
       <c r="F106">
-        <v>13.962</v>
+        <v>12.644</v>
       </c>
       <c r="G106">
-        <v>17167.402999999998</v>
+        <v>20.146000000000001</v>
       </c>
       <c r="H106">
-        <v>1502.5119999999999</v>
+        <v>5.7249999999999996</v>
       </c>
       <c r="I106">
-        <v>15664.891</v>
+        <v>14.420999999999999</v>
       </c>
       <c r="J106">
-        <v>8.7530000000000001</v>
+        <v>4.3470000000000004</v>
       </c>
       <c r="K106">
         <v>18</v>
@@ -3682,34 +3685,34 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>25.725999999999999</v>
+        <v>38.302</v>
       </c>
       <c r="B107">
-        <v>75.790000000000006</v>
+        <v>68.775000000000006</v>
       </c>
       <c r="C107">
-        <v>276.291</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="D107">
-        <v>25.725999999999999</v>
+        <v>38.302</v>
       </c>
       <c r="E107">
         <v>0</v>
       </c>
       <c r="F107">
-        <v>13.411</v>
+        <v>12.215999999999999</v>
       </c>
       <c r="G107">
-        <v>20626.267</v>
+        <v>21.945</v>
       </c>
       <c r="H107">
-        <v>2217.6370000000002</v>
+        <v>6.7130000000000001</v>
       </c>
       <c r="I107">
-        <v>18408.63</v>
+        <v>15.231999999999999</v>
       </c>
       <c r="J107">
-        <v>7.5289999999999999</v>
+        <v>3.2850000000000001</v>
       </c>
       <c r="K107">
         <v>18</v>
@@ -3717,34 +3720,34 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>25.725999999999999</v>
+        <v>43.348999999999997</v>
       </c>
       <c r="B108">
-        <v>75.790000000000006</v>
+        <v>70.468000000000004</v>
       </c>
       <c r="C108">
-        <v>276.291</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="D108">
-        <v>25.725999999999999</v>
+        <v>43.348999999999997</v>
       </c>
       <c r="E108">
         <v>0</v>
       </c>
       <c r="F108">
-        <v>13.411</v>
+        <v>11.817</v>
       </c>
       <c r="G108">
-        <v>20626.267</v>
+        <v>23.678999999999998</v>
       </c>
       <c r="H108">
-        <v>2217.6370000000002</v>
+        <v>7.7110000000000003</v>
       </c>
       <c r="I108">
-        <v>18408.63</v>
+        <v>15.968</v>
       </c>
       <c r="J108">
-        <v>7.5289999999999999</v>
+        <v>2.2890000000000001</v>
       </c>
       <c r="K108">
         <v>18</v>
@@ -3752,34 +3755,34 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>32.869</v>
+        <v>48.396999999999998</v>
       </c>
       <c r="B109">
-        <v>77.983999999999995</v>
+        <v>71.966999999999999</v>
       </c>
       <c r="C109">
-        <v>311.69400000000002</v>
+        <v>0.216</v>
       </c>
       <c r="D109">
-        <v>32.869</v>
+        <v>48.396999999999998</v>
       </c>
       <c r="E109">
         <v>0</v>
       </c>
       <c r="F109">
-        <v>12.872999999999999</v>
+        <v>11.45</v>
       </c>
       <c r="G109">
-        <v>24306.15</v>
+        <v>25.286000000000001</v>
       </c>
       <c r="H109">
-        <v>3110.5659999999998</v>
+        <v>8.6790000000000003</v>
       </c>
       <c r="I109">
-        <v>21195.583999999999</v>
+        <v>16.606999999999999</v>
       </c>
       <c r="J109">
-        <v>6.327</v>
+        <v>1.39</v>
       </c>
       <c r="K109">
         <v>18</v>
@@ -3787,34 +3790,34 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>32.869</v>
+        <v>53.445</v>
       </c>
       <c r="B110">
-        <v>77.983999999999995</v>
+        <v>73.122</v>
       </c>
       <c r="C110">
-        <v>311.69400000000002</v>
+        <v>0.219</v>
       </c>
       <c r="D110">
-        <v>32.869</v>
+        <v>53.445</v>
       </c>
       <c r="E110">
         <v>0</v>
       </c>
       <c r="F110">
-        <v>12.872999999999999</v>
+        <v>11.135999999999999</v>
       </c>
       <c r="G110">
-        <v>24306.15</v>
+        <v>26.588000000000001</v>
       </c>
       <c r="H110">
-        <v>3110.5659999999998</v>
+        <v>9.5289999999999999</v>
       </c>
       <c r="I110">
-        <v>21195.583999999999</v>
+        <v>17.059000000000001</v>
       </c>
       <c r="J110">
-        <v>6.327</v>
+        <v>0.65</v>
       </c>
       <c r="K110">
         <v>18</v>
@@ -3822,34 +3825,34 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>40.012</v>
+        <v>58.491999999999997</v>
       </c>
       <c r="B111">
-        <v>80.132000000000005</v>
+        <v>73.510000000000005</v>
       </c>
       <c r="C111">
-        <v>346.517</v>
+        <v>0.221</v>
       </c>
       <c r="D111">
-        <v>40.012</v>
+        <v>58.491999999999997</v>
       </c>
       <c r="E111">
         <v>0</v>
       </c>
       <c r="F111">
-        <v>12.349</v>
+        <v>10.916</v>
       </c>
       <c r="G111">
-        <v>28185.690999999999</v>
+        <v>27.071999999999999</v>
       </c>
       <c r="H111">
-        <v>4184.8050000000003</v>
+        <v>10.042</v>
       </c>
       <c r="I111">
-        <v>24000.885999999999</v>
+        <v>17.03</v>
       </c>
       <c r="J111">
-        <v>5.1539999999999999</v>
+        <v>0.223</v>
       </c>
       <c r="K111">
         <v>18</v>
@@ -3857,34 +3860,34 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>40.012</v>
+        <v>63.54</v>
       </c>
       <c r="B112">
-        <v>80.132000000000005</v>
+        <v>72.353999999999999</v>
       </c>
       <c r="C112">
-        <v>346.517</v>
+        <v>0.217</v>
       </c>
       <c r="D112">
-        <v>40.012</v>
+        <v>63.54</v>
       </c>
       <c r="E112">
         <v>0</v>
       </c>
       <c r="F112">
-        <v>12.349</v>
+        <v>10.771000000000001</v>
       </c>
       <c r="G112">
-        <v>28185.690999999999</v>
+        <v>25.856999999999999</v>
       </c>
       <c r="H112">
-        <v>4184.8050000000003</v>
+        <v>10.039</v>
       </c>
       <c r="I112">
-        <v>24000.885999999999</v>
+        <v>15.818</v>
       </c>
       <c r="J112">
-        <v>5.1539999999999999</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="K112">
         <v>18</v>
@@ -3892,34 +3895,34 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>47.154000000000003</v>
+        <v>68.587000000000003</v>
       </c>
       <c r="B113">
-        <v>82.207999999999998</v>
+        <v>69.647000000000006</v>
       </c>
       <c r="C113">
-        <v>380.40699999999998</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="D113">
-        <v>47.154000000000003</v>
+        <v>68.587000000000003</v>
       </c>
       <c r="E113">
         <v>0</v>
       </c>
       <c r="F113">
-        <v>11.843999999999999</v>
+        <v>10.56</v>
       </c>
       <c r="G113">
-        <v>32218.976999999999</v>
+        <v>23</v>
       </c>
       <c r="H113">
-        <v>5432.41</v>
+        <v>9.8369999999999997</v>
       </c>
       <c r="I113">
-        <v>26786.566999999999</v>
+        <v>13.162000000000001</v>
       </c>
       <c r="J113">
-        <v>4.0179999999999998</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="K113">
         <v>18</v>
@@ -3927,34 +3930,34 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>47.154000000000003</v>
+        <v>73.635000000000005</v>
       </c>
       <c r="B114">
-        <v>82.207999999999998</v>
+        <v>66.424999999999997</v>
       </c>
       <c r="C114">
-        <v>380.40699999999998</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="D114">
-        <v>47.154000000000003</v>
+        <v>73.635000000000005</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>-1E-3</v>
       </c>
       <c r="F114">
-        <v>11.843999999999999</v>
+        <v>10.452999999999999</v>
       </c>
       <c r="G114">
-        <v>32218.976999999999</v>
+        <v>19.792000000000002</v>
       </c>
       <c r="H114">
-        <v>5432.41</v>
+        <v>9.3919999999999995</v>
       </c>
       <c r="I114">
-        <v>26786.566999999999</v>
+        <v>10.4</v>
       </c>
       <c r="J114">
-        <v>4.0179999999999998</v>
+        <v>-2E-3</v>
       </c>
       <c r="K114">
         <v>18</v>
@@ -3962,34 +3965,34 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>54.296999999999997</v>
+        <v>78.683000000000007</v>
       </c>
       <c r="B115">
-        <v>84.174000000000007</v>
+        <v>63.017000000000003</v>
       </c>
       <c r="C115">
-        <v>412.82799999999997</v>
+        <v>0.189</v>
       </c>
       <c r="D115">
-        <v>54.296999999999997</v>
+        <v>78.683000000000007</v>
       </c>
       <c r="E115">
         <v>0</v>
       </c>
       <c r="F115">
-        <v>11.364000000000001</v>
+        <v>10.473000000000001</v>
       </c>
       <c r="G115">
-        <v>36319.148999999998</v>
+        <v>16.704000000000001</v>
       </c>
       <c r="H115">
-        <v>6827.4920000000002</v>
+        <v>8.6869999999999994</v>
       </c>
       <c r="I115">
-        <v>29491.656999999999</v>
+        <v>8.0169999999999995</v>
       </c>
       <c r="J115">
-        <v>2.9340000000000002</v>
+        <v>1.4E-2</v>
       </c>
       <c r="K115">
         <v>18</v>
@@ -3997,34 +4000,34 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>54.296999999999997</v>
+        <v>83.73</v>
       </c>
       <c r="B116">
-        <v>84.174000000000007</v>
+        <v>59.076000000000001</v>
       </c>
       <c r="C116">
-        <v>412.82799999999997</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="D116">
-        <v>54.296999999999997</v>
+        <v>83.73</v>
       </c>
       <c r="E116">
         <v>0</v>
       </c>
       <c r="F116">
-        <v>11.364000000000001</v>
+        <v>10.608000000000001</v>
       </c>
       <c r="G116">
-        <v>36319.148999999998</v>
+        <v>13.531000000000001</v>
       </c>
       <c r="H116">
-        <v>6827.4920000000002</v>
+        <v>7.7149999999999999</v>
       </c>
       <c r="I116">
-        <v>29491.656999999999</v>
+        <v>5.8170000000000002</v>
       </c>
       <c r="J116">
-        <v>2.9340000000000002</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="K116">
         <v>18</v>
@@ -4032,34 +4035,34 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>61.44</v>
+        <v>88.778000000000006</v>
       </c>
       <c r="B117">
-        <v>85.966999999999999</v>
+        <v>53.747999999999998</v>
       </c>
       <c r="C117">
-        <v>442.9</v>
+        <v>0.161</v>
       </c>
       <c r="D117">
-        <v>61.44</v>
+        <v>88.778000000000006</v>
       </c>
       <c r="E117">
         <v>0</v>
       </c>
       <c r="F117">
-        <v>10.917999999999999</v>
+        <v>11.009</v>
       </c>
       <c r="G117">
-        <v>40325.281999999999</v>
+        <v>9.9260000000000002</v>
       </c>
       <c r="H117">
-        <v>8313.73</v>
+        <v>6.1920000000000002</v>
       </c>
       <c r="I117">
-        <v>32011.552</v>
+        <v>3.734</v>
       </c>
       <c r="J117">
-        <v>1.925</v>
+        <v>0.69</v>
       </c>
       <c r="K117">
         <v>18</v>
@@ -4067,34 +4070,34 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>61.44</v>
+        <v>93.825999999999993</v>
       </c>
       <c r="B118">
-        <v>85.966999999999999</v>
+        <v>43.088000000000001</v>
       </c>
       <c r="C118">
-        <v>442.9</v>
+        <v>0.129</v>
       </c>
       <c r="D118">
-        <v>61.44</v>
+        <v>93.825999999999993</v>
       </c>
       <c r="E118">
         <v>0</v>
       </c>
       <c r="F118">
-        <v>10.917999999999999</v>
+        <v>12.552</v>
       </c>
       <c r="G118">
-        <v>40325.281999999999</v>
+        <v>4.9569999999999999</v>
       </c>
       <c r="H118">
-        <v>8313.73</v>
+        <v>3.1120000000000001</v>
       </c>
       <c r="I118">
-        <v>32011.552</v>
+        <v>1.8440000000000001</v>
       </c>
       <c r="J118">
-        <v>1.925</v>
+        <v>3.8650000000000002</v>
       </c>
       <c r="K118">
         <v>18</v>
@@ -4102,34 +4105,34 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>68.582999999999998</v>
+        <v>98.873000000000005</v>
       </c>
       <c r="B119">
-        <v>87.471999999999994</v>
+        <v>24.943000000000001</v>
       </c>
       <c r="C119">
-        <v>469.00900000000001</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D119">
-        <v>68.582999999999998</v>
+        <v>98.873000000000005</v>
       </c>
       <c r="E119">
         <v>0</v>
       </c>
       <c r="F119">
-        <v>10.523</v>
+        <v>15.510999999999999</v>
       </c>
       <c r="G119">
-        <v>43926.307999999997</v>
+        <v>0.97699999999999998</v>
       </c>
       <c r="H119">
-        <v>9777.2800000000007</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="I119">
-        <v>34149.027999999998</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="J119">
-        <v>1.036</v>
+        <v>11.237</v>
       </c>
       <c r="K119">
         <v>18</v>
@@ -4137,1092 +4140,357 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>68.582999999999998</v>
+        <v>103.92100000000001</v>
       </c>
       <c r="B120">
-        <v>87.471999999999994</v>
+        <v>0</v>
       </c>
       <c r="C120">
-        <v>469.00900000000001</v>
+        <v>0</v>
       </c>
       <c r="D120">
-        <v>68.582999999999998</v>
+        <v>103.92100000000001</v>
       </c>
       <c r="E120">
         <v>0</v>
       </c>
       <c r="F120">
-        <v>10.523</v>
+        <v>17.995999999999999</v>
       </c>
       <c r="G120">
-        <v>43926.307999999997</v>
+        <v>0</v>
       </c>
       <c r="H120">
-        <v>9777.2800000000007</v>
+        <v>0</v>
       </c>
       <c r="I120">
-        <v>34149.027999999998</v>
+        <v>0</v>
       </c>
       <c r="J120">
-        <v>1.036</v>
+        <v>0</v>
       </c>
       <c r="K120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>59</v>
+      </c>
+      <c r="B122">
+        <v>101.883</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>60</v>
+      </c>
+      <c r="B123">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>61</v>
+      </c>
+      <c r="B124">
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A121">
-        <v>75.725999999999999</v>
-      </c>
-      <c r="B121">
-        <v>88.438000000000002</v>
-      </c>
-      <c r="C121">
-        <v>487.76799999999997</v>
-      </c>
-      <c r="D121">
-        <v>75.725999999999999</v>
-      </c>
-      <c r="E121">
-        <v>0</v>
-      </c>
-      <c r="F121">
-        <v>10.214</v>
-      </c>
-      <c r="G121">
-        <v>46460.464</v>
-      </c>
-      <c r="H121">
-        <v>10980.885</v>
-      </c>
-      <c r="I121">
-        <v>35479.578999999998</v>
-      </c>
-      <c r="J121">
-        <v>0.35599999999999998</v>
-      </c>
-      <c r="K121">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A122">
-        <v>75.725999999999999</v>
-      </c>
-      <c r="B122">
-        <v>88.438000000000002</v>
-      </c>
-      <c r="C122">
-        <v>487.76799999999997</v>
-      </c>
-      <c r="D122">
-        <v>75.725999999999999</v>
-      </c>
-      <c r="E122">
-        <v>0</v>
-      </c>
-      <c r="F122">
-        <v>10.214</v>
-      </c>
-      <c r="G122">
-        <v>46460.464</v>
-      </c>
-      <c r="H122">
-        <v>10980.885</v>
-      </c>
-      <c r="I122">
-        <v>35479.578999999998</v>
-      </c>
-      <c r="J122">
-        <v>0.35599999999999998</v>
-      </c>
-      <c r="K122">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A123">
-        <v>82.869</v>
-      </c>
-      <c r="B123">
-        <v>88.278000000000006</v>
-      </c>
-      <c r="C123">
-        <v>491.70600000000002</v>
-      </c>
-      <c r="D123">
-        <v>82.869</v>
-      </c>
-      <c r="E123">
-        <v>0</v>
-      </c>
-      <c r="F123">
-        <v>10.058</v>
-      </c>
-      <c r="G123">
-        <v>46471.557999999997</v>
-      </c>
-      <c r="H123">
-        <v>11449.144</v>
-      </c>
-      <c r="I123">
-        <v>35022.413999999997</v>
-      </c>
-      <c r="J123">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="K123">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A124">
-        <v>82.869</v>
-      </c>
-      <c r="B124">
-        <v>88.278000000000006</v>
-      </c>
-      <c r="C124">
-        <v>491.70600000000002</v>
-      </c>
-      <c r="D124">
-        <v>82.869</v>
-      </c>
-      <c r="E124">
-        <v>0</v>
-      </c>
-      <c r="F124">
-        <v>10.058</v>
-      </c>
-      <c r="G124">
-        <v>46471.557999999997</v>
-      </c>
-      <c r="H124">
-        <v>11449.144</v>
-      </c>
-      <c r="I124">
-        <v>35022.413999999997</v>
-      </c>
-      <c r="J124">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="K124">
-        <v>18</v>
-      </c>
-    </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A125">
-        <v>90.012</v>
+      <c r="A125" t="s">
+        <v>62</v>
       </c>
       <c r="B125">
-        <v>86.703999999999994</v>
-      </c>
-      <c r="C125">
-        <v>478.90899999999999</v>
-      </c>
-      <c r="D125">
-        <v>90.012</v>
-      </c>
-      <c r="E125">
-        <v>0</v>
-      </c>
-      <c r="F125">
-        <v>10.016999999999999</v>
-      </c>
-      <c r="G125">
-        <v>43342.313000000002</v>
-      </c>
-      <c r="H125">
-        <v>11164.501</v>
-      </c>
-      <c r="I125">
-        <v>32177.812000000002</v>
-      </c>
-      <c r="J125">
-        <v>0.109</v>
-      </c>
-      <c r="K125">
-        <v>18</v>
+        <v>5.9969999999999999</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A126">
-        <v>90.012</v>
+      <c r="A126" t="s">
+        <v>63</v>
       </c>
       <c r="B126">
-        <v>86.703999999999994</v>
-      </c>
-      <c r="C126">
-        <v>478.90899999999999</v>
-      </c>
-      <c r="D126">
-        <v>90.012</v>
-      </c>
-      <c r="E126">
-        <v>0</v>
-      </c>
-      <c r="F126">
-        <v>10.016999999999999</v>
-      </c>
-      <c r="G126">
-        <v>43342.313000000002</v>
-      </c>
-      <c r="H126">
-        <v>11164.501</v>
-      </c>
-      <c r="I126">
-        <v>32177.812000000002</v>
-      </c>
-      <c r="J126">
-        <v>0.109</v>
-      </c>
-      <c r="K126">
-        <v>18</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A127">
-        <v>97.153999999999996</v>
+      <c r="A127" t="s">
+        <v>64</v>
       </c>
       <c r="B127">
-        <v>84.018000000000001</v>
-      </c>
-      <c r="C127">
-        <v>454.48899999999998</v>
-      </c>
-      <c r="D127">
-        <v>97.153999999999996</v>
-      </c>
-      <c r="E127">
-        <v>0</v>
-      </c>
-      <c r="F127">
-        <v>9.9700000000000006</v>
-      </c>
-      <c r="G127">
-        <v>37954.69</v>
-      </c>
-      <c r="H127">
-        <v>10662.816000000001</v>
-      </c>
-      <c r="I127">
-        <v>27291.874</v>
-      </c>
-      <c r="J127">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="K127">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A128">
-        <v>97.153999999999996</v>
+      <c r="A128" t="s">
+        <v>65</v>
       </c>
       <c r="B128">
-        <v>84.018000000000001</v>
-      </c>
-      <c r="C128">
-        <v>454.48899999999998</v>
-      </c>
-      <c r="D128">
-        <v>97.153999999999996</v>
-      </c>
-      <c r="E128">
-        <v>0</v>
-      </c>
-      <c r="F128">
-        <v>9.9700000000000006</v>
-      </c>
-      <c r="G128">
-        <v>37954.69</v>
-      </c>
-      <c r="H128">
-        <v>10662.816000000001</v>
-      </c>
-      <c r="I128">
-        <v>27291.874</v>
-      </c>
-      <c r="J128">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="K128">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A129">
-        <v>104.297</v>
+        <v>15282.407999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>66</v>
       </c>
       <c r="B129">
-        <v>80.150999999999996</v>
-      </c>
-      <c r="C129">
-        <v>414.92899999999997</v>
-      </c>
-      <c r="D129">
-        <v>104.297</v>
-      </c>
-      <c r="E129">
-        <v>0</v>
-      </c>
-      <c r="F129">
-        <v>9.9380000000000006</v>
-      </c>
-      <c r="G129">
-        <v>30479.712</v>
-      </c>
-      <c r="H129">
-        <v>9915.99</v>
-      </c>
-      <c r="I129">
-        <v>20563.722000000002</v>
-      </c>
-      <c r="J129">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="K129">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A130">
-        <v>104.297</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>7</v>
       </c>
       <c r="B130">
-        <v>80.150999999999996</v>
-      </c>
-      <c r="C130">
-        <v>414.92899999999997</v>
-      </c>
-      <c r="D130">
-        <v>104.297</v>
-      </c>
-      <c r="E130">
-        <v>0</v>
-      </c>
-      <c r="F130">
-        <v>9.9380000000000006</v>
-      </c>
-      <c r="G130">
-        <v>30479.712</v>
-      </c>
-      <c r="H130">
-        <v>9915.99</v>
-      </c>
-      <c r="I130">
-        <v>20563.722000000002</v>
-      </c>
-      <c r="J130">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="K130">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A131">
-        <v>111.44</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>67</v>
       </c>
       <c r="B131">
-        <v>75.566999999999993</v>
-      </c>
-      <c r="C131">
-        <v>359.08</v>
-      </c>
-      <c r="D131">
-        <v>111.44</v>
-      </c>
-      <c r="E131">
-        <v>0</v>
-      </c>
-      <c r="F131">
-        <v>9.9789999999999992</v>
-      </c>
-      <c r="G131">
-        <v>22171.98</v>
-      </c>
-      <c r="H131">
-        <v>8858.0830000000005</v>
-      </c>
-      <c r="I131">
-        <v>13313.897000000001</v>
-      </c>
-      <c r="J131">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="K131">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A132">
-        <v>111.44</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>68</v>
       </c>
       <c r="B132">
-        <v>75.566999999999993</v>
-      </c>
-      <c r="C132">
-        <v>359.08</v>
-      </c>
-      <c r="D132">
-        <v>111.44</v>
-      </c>
-      <c r="E132">
-        <v>0</v>
-      </c>
-      <c r="F132">
-        <v>9.9789999999999992</v>
-      </c>
-      <c r="G132">
-        <v>22171.98</v>
-      </c>
-      <c r="H132">
-        <v>8858.0830000000005</v>
-      </c>
-      <c r="I132">
-        <v>13313.897000000001</v>
-      </c>
-      <c r="J132">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="K132">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A133">
-        <v>118.583</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>69</v>
       </c>
       <c r="B133">
-        <v>70.433000000000007</v>
-      </c>
-      <c r="C133">
-        <v>285.75599999999997</v>
-      </c>
-      <c r="D133">
-        <v>118.583</v>
-      </c>
-      <c r="E133">
-        <v>0</v>
-      </c>
-      <c r="F133">
-        <v>10.169</v>
-      </c>
-      <c r="G133">
-        <v>14328.38</v>
-      </c>
-      <c r="H133">
-        <v>7339.1490000000003</v>
-      </c>
-      <c r="I133">
-        <v>6989.2309999999998</v>
-      </c>
-      <c r="J133">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="K133">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A134">
-        <v>118.583</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>12</v>
       </c>
       <c r="B134">
-        <v>70.433000000000007</v>
-      </c>
-      <c r="C134">
-        <v>285.75599999999997</v>
-      </c>
-      <c r="D134">
-        <v>118.583</v>
-      </c>
-      <c r="E134">
-        <v>0</v>
-      </c>
-      <c r="F134">
-        <v>10.169</v>
-      </c>
-      <c r="G134">
-        <v>14328.38</v>
-      </c>
-      <c r="H134">
-        <v>7339.1490000000003</v>
-      </c>
-      <c r="I134">
-        <v>6989.2309999999998</v>
-      </c>
-      <c r="J134">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="K134">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A135">
-        <v>125.726</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>70</v>
       </c>
       <c r="B135">
-        <v>64.876999999999995</v>
-      </c>
-      <c r="C135">
-        <v>190.76400000000001</v>
-      </c>
-      <c r="D135">
-        <v>125.726</v>
-      </c>
-      <c r="E135">
-        <v>0</v>
-      </c>
-      <c r="F135">
-        <v>10.792999999999999</v>
-      </c>
-      <c r="G135">
-        <v>7743.9679999999998</v>
-      </c>
-      <c r="H135">
-        <v>5107.4960000000001</v>
-      </c>
-      <c r="I135">
-        <v>2636.4720000000002</v>
-      </c>
-      <c r="J135">
-        <v>0.08</v>
-      </c>
-      <c r="K135">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A136">
-        <v>125.726</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>71</v>
       </c>
       <c r="B136">
-        <v>64.876999999999995</v>
-      </c>
-      <c r="C136">
-        <v>190.76400000000001</v>
-      </c>
-      <c r="D136">
-        <v>125.726</v>
-      </c>
-      <c r="E136">
-        <v>0</v>
-      </c>
-      <c r="F136">
-        <v>10.792999999999999</v>
-      </c>
-      <c r="G136">
-        <v>7743.9679999999998</v>
-      </c>
-      <c r="H136">
-        <v>5107.4960000000001</v>
-      </c>
-      <c r="I136">
-        <v>2636.4720000000002</v>
-      </c>
-      <c r="J136">
-        <v>0.08</v>
-      </c>
-      <c r="K136">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A137">
-        <v>132.869</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>72</v>
       </c>
       <c r="B137">
-        <v>36.206000000000003</v>
-      </c>
-      <c r="C137">
-        <v>57.351999999999997</v>
-      </c>
-      <c r="D137">
-        <v>132.869</v>
-      </c>
-      <c r="E137">
-        <v>0</v>
-      </c>
-      <c r="F137">
-        <v>15.741</v>
-      </c>
-      <c r="G137">
-        <v>803.48900000000003</v>
-      </c>
-      <c r="H137">
-        <v>134.215</v>
-      </c>
-      <c r="I137">
-        <v>669.274</v>
-      </c>
-      <c r="J137">
-        <v>11.933</v>
-      </c>
-      <c r="K137">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A138">
-        <v>132.869</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>73</v>
       </c>
       <c r="B138">
-        <v>36.206000000000003</v>
-      </c>
-      <c r="C138">
-        <v>57.351999999999997</v>
-      </c>
-      <c r="D138">
-        <v>132.869</v>
-      </c>
-      <c r="E138">
-        <v>0</v>
-      </c>
-      <c r="F138">
-        <v>15.741</v>
-      </c>
-      <c r="G138">
-        <v>803.48900000000003</v>
-      </c>
-      <c r="H138">
-        <v>134.215</v>
-      </c>
-      <c r="I138">
-        <v>669.274</v>
-      </c>
-      <c r="J138">
-        <v>11.933</v>
-      </c>
-      <c r="K138">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A139">
-        <v>140.012</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>74</v>
       </c>
       <c r="B139">
-        <v>23.068000000000001</v>
-      </c>
-      <c r="C139">
-        <v>17.103999999999999</v>
-      </c>
-      <c r="D139">
-        <v>140.012</v>
-      </c>
-      <c r="E139">
-        <v>0</v>
-      </c>
-      <c r="F139">
-        <v>17.038</v>
-      </c>
-      <c r="G139">
-        <v>104.504</v>
-      </c>
-      <c r="H139">
-        <v>6.9820000000000002</v>
-      </c>
-      <c r="I139">
-        <v>97.522000000000006</v>
-      </c>
-      <c r="J139">
-        <v>15.53</v>
-      </c>
-      <c r="K139">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A140">
-        <v>140.012</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>75</v>
       </c>
       <c r="B140">
-        <v>23.068000000000001</v>
-      </c>
-      <c r="C140">
-        <v>17.103999999999999</v>
-      </c>
-      <c r="D140">
-        <v>140.012</v>
-      </c>
-      <c r="E140">
-        <v>0</v>
-      </c>
-      <c r="F140">
-        <v>17.038</v>
-      </c>
-      <c r="G140">
-        <v>104.504</v>
-      </c>
-      <c r="H140">
-        <v>6.9820000000000002</v>
-      </c>
-      <c r="I140">
-        <v>97.522000000000006</v>
-      </c>
-      <c r="J140">
-        <v>15.53</v>
-      </c>
-      <c r="K140">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A141">
-        <v>147.154</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>76</v>
       </c>
       <c r="B141">
-        <v>0</v>
-      </c>
-      <c r="C141">
-        <v>0</v>
-      </c>
-      <c r="D141">
-        <v>147.154</v>
-      </c>
-      <c r="E141">
-        <v>0</v>
-      </c>
-      <c r="F141">
-        <v>18</v>
-      </c>
-      <c r="G141">
-        <v>0</v>
-      </c>
-      <c r="H141">
-        <v>0</v>
-      </c>
-      <c r="I141">
-        <v>0</v>
-      </c>
-      <c r="J141">
-        <v>0</v>
-      </c>
-      <c r="K141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>59</v>
-      </c>
-      <c r="B143">
-        <v>139.43</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>60</v>
-      </c>
-      <c r="B144">
-        <v>33.299999999999997</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>61</v>
-      </c>
-      <c r="B145">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>62</v>
-      </c>
-      <c r="B146">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>63</v>
-      </c>
-      <c r="B147">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+      <c r="B147" t="s">
+        <v>82</v>
+      </c>
+      <c r="C147" t="s">
+        <v>83</v>
+      </c>
+      <c r="D147" t="s">
+        <v>84</v>
+      </c>
+      <c r="E147" t="s">
+        <v>85</v>
+      </c>
+      <c r="F147" t="s">
+        <v>86</v>
+      </c>
+      <c r="G147" t="s">
+        <v>87</v>
+      </c>
+      <c r="H147" t="s">
+        <v>88</v>
+      </c>
+      <c r="I147" t="s">
+        <v>89</v>
+      </c>
+      <c r="J147" t="s">
+        <v>90</v>
+      </c>
+      <c r="K147" t="s">
+        <v>91</v>
+      </c>
+      <c r="L147" t="s">
+        <v>92</v>
+      </c>
+      <c r="M147" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>64</v>
-      </c>
-      <c r="B148">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>65</v>
-      </c>
-      <c r="B149">
-        <v>20914.55</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B150">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>7</v>
-      </c>
-      <c r="B151">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+      <c r="B151" t="s">
+        <v>82</v>
+      </c>
+      <c r="C151" t="s">
+        <v>83</v>
+      </c>
+      <c r="D151" t="s">
+        <v>84</v>
+      </c>
+      <c r="E151" t="s">
+        <v>85</v>
+      </c>
+      <c r="F151" t="s">
+        <v>86</v>
+      </c>
+      <c r="G151" t="s">
+        <v>87</v>
+      </c>
+      <c r="H151" t="s">
+        <v>88</v>
+      </c>
+      <c r="I151" t="s">
+        <v>89</v>
+      </c>
+      <c r="J151" t="s">
+        <v>90</v>
+      </c>
+      <c r="K151" t="s">
+        <v>91</v>
+      </c>
+      <c r="L151" t="s">
+        <v>92</v>
+      </c>
+      <c r="M151" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>67</v>
-      </c>
-      <c r="B152">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
-        <v>68</v>
-      </c>
-      <c r="B153">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>69</v>
-      </c>
-      <c r="B154">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>12</v>
-      </c>
-      <c r="B155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+      <c r="B155" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>70</v>
-      </c>
-      <c r="B156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>71</v>
-      </c>
-      <c r="B157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
-        <v>72</v>
-      </c>
-      <c r="B158">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
-        <v>73</v>
-      </c>
-      <c r="B159">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
-        <v>74</v>
-      </c>
-      <c r="B160">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
-        <v>75</v>
-      </c>
-      <c r="B161">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
-        <v>76</v>
-      </c>
-      <c r="B162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
-        <v>77</v>
-      </c>
-      <c r="B163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
-        <v>81</v>
-      </c>
-      <c r="B168" t="s">
-        <v>82</v>
-      </c>
-      <c r="C168" t="s">
-        <v>83</v>
-      </c>
-      <c r="D168" t="s">
-        <v>84</v>
-      </c>
-      <c r="E168" t="s">
-        <v>85</v>
-      </c>
-      <c r="F168" t="s">
-        <v>86</v>
-      </c>
-      <c r="G168" t="s">
-        <v>87</v>
-      </c>
-      <c r="H168" t="s">
-        <v>88</v>
-      </c>
-      <c r="I168" t="s">
-        <v>89</v>
-      </c>
-      <c r="J168" t="s">
-        <v>90</v>
-      </c>
-      <c r="K168" t="s">
-        <v>91</v>
-      </c>
-      <c r="L168" t="s">
-        <v>92</v>
-      </c>
-      <c r="M168" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
-        <v>40</v>
-      </c>
-      <c r="B171">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
-        <v>81</v>
-      </c>
-      <c r="B172" t="s">
-        <v>82</v>
-      </c>
-      <c r="C172" t="s">
-        <v>83</v>
-      </c>
-      <c r="D172" t="s">
-        <v>84</v>
-      </c>
-      <c r="E172" t="s">
-        <v>85</v>
-      </c>
-      <c r="F172" t="s">
-        <v>86</v>
-      </c>
-      <c r="G172" t="s">
-        <v>87</v>
-      </c>
-      <c r="H172" t="s">
-        <v>88</v>
-      </c>
-      <c r="I172" t="s">
-        <v>89</v>
-      </c>
-      <c r="J172" t="s">
-        <v>90</v>
-      </c>
-      <c r="K172" t="s">
-        <v>91</v>
-      </c>
-      <c r="L172" t="s">
-        <v>92</v>
-      </c>
-      <c r="M172" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
-        <v>98</v>
-      </c>
-      <c r="B176" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
         <v>101</v>
       </c>
     </row>

--- a/IP.xlsx
+++ b/IP.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2ee38df677a9f564/Documenten/Maritieme techniek/Q4/IP-26-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="11_9A640D58C12CD2B6F91E7424993175CE37AA53CB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C08EDB5B-85DB-49D8-B938-F11E389C115E}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="11_9A640D58C12CD2B6F91E7424993175CE37AA53CB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94A8D9AF-A56D-4461-A48D-1EA9C43F1722}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
     <sheet name="Blad1" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
+    <sheet name="voorbeeld" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="103">
   <si>
     <t>Loa  [m]</t>
   </si>
@@ -2606,7 +2607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33AD6DE1-4041-4B63-9CE0-C2DA987C4619}">
   <dimension ref="A2:M157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A157"/>
     </sheetView>
   </sheetViews>
@@ -4500,6 +4501,1958 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F2A38E8-AADD-43BA-8F8A-B2A54391294F}">
+  <dimension ref="A2:M159"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A159"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>224.49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>34.893999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>20.946999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>213.43700000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>96.47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>136.72999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>7.9470000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>7.9470000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>7.9470000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>22.791</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>212.357</v>
+      </c>
+      <c r="C18">
+        <v>5.234</v>
+      </c>
+      <c r="D18">
+        <v>7.9470000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>35092.942999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>118155.65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>121.679</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>4.5190000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>110.791</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>11.590999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0.58230000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0.60019999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>5793.6490000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>114.08199999999999</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>7.9470000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>457765.05699999997</v>
+      </c>
+      <c r="C29" s="6">
+        <v>15616000</v>
+      </c>
+      <c r="D29" s="6">
+        <v>16074000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>7225.348</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>234.602</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>9062.4670000000006</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>185.40199999999999</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>5.0229999999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>163.87799999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>1210.7560000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>185.804</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>9.0069999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>66519.578999999998</v>
+      </c>
+      <c r="C40">
+        <v>248761.64199999999</v>
+      </c>
+      <c r="D40">
+        <v>315281.22100000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>6.5640000000000001</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>16.727</v>
+      </c>
+      <c r="B45">
+        <v>10.638999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>26.890999999999998</v>
+      </c>
+      <c r="B46">
+        <v>38.869</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>37.054000000000002</v>
+      </c>
+      <c r="B47">
+        <v>77.081999999999994</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47.218000000000004</v>
+      </c>
+      <c r="B48">
+        <v>119.959</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>57.381999999999998</v>
+      </c>
+      <c r="B49">
+        <v>162.53200000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>67.545000000000002</v>
+      </c>
+      <c r="B50">
+        <v>199.303</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>77.709000000000003</v>
+      </c>
+      <c r="B51">
+        <v>224.38200000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>87.873000000000005</v>
+      </c>
+      <c r="B52">
+        <v>234.102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>98.036000000000001</v>
+      </c>
+      <c r="B53">
+        <v>234.602</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>108.2</v>
+      </c>
+      <c r="B54">
+        <v>234.602</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>118.364</v>
+      </c>
+      <c r="B55">
+        <v>234.602</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>128.52699999999999</v>
+      </c>
+      <c r="B56">
+        <v>234.602</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>138.691</v>
+      </c>
+      <c r="B57">
+        <v>234.46600000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>148.85499999999999</v>
+      </c>
+      <c r="B58">
+        <v>231.17699999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>159.018</v>
+      </c>
+      <c r="B59">
+        <v>221.471</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>169.18199999999999</v>
+      </c>
+      <c r="B60">
+        <v>206.59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>179.346</v>
+      </c>
+      <c r="B61">
+        <v>185.82599999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>189.50899999999999</v>
+      </c>
+      <c r="B62">
+        <v>158.12200000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>199.673</v>
+      </c>
+      <c r="B63">
+        <v>122.479</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>209.83699999999999</v>
+      </c>
+      <c r="B64">
+        <v>77.409000000000006</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>220</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>40</v>
+      </c>
+      <c r="B67">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>41</v>
+      </c>
+      <c r="B68" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>-4.49</v>
+      </c>
+      <c r="B69">
+        <v>164.87700000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>6.2</v>
+      </c>
+      <c r="B70">
+        <v>227.77099999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>16.89</v>
+      </c>
+      <c r="B71">
+        <v>298.65199999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>27.58</v>
+      </c>
+      <c r="B72">
+        <v>374.67399999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>38.270000000000003</v>
+      </c>
+      <c r="B73">
+        <v>452.56200000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>48.96</v>
+      </c>
+      <c r="B74">
+        <v>528.16200000000003</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>59.65</v>
+      </c>
+      <c r="B75">
+        <v>596.04300000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>70.34</v>
+      </c>
+      <c r="B76">
+        <v>649.24</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>81.03</v>
+      </c>
+      <c r="B77">
+        <v>680.27300000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>91.72</v>
+      </c>
+      <c r="B78">
+        <v>687.86800000000005</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>102.41</v>
+      </c>
+      <c r="B79">
+        <v>687.88099999999997</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>113.1</v>
+      </c>
+      <c r="B80">
+        <v>687.88099999999997</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>123.79</v>
+      </c>
+      <c r="B81">
+        <v>687.88099999999997</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>134.47999999999999</v>
+      </c>
+      <c r="B82">
+        <v>687.87199999999996</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>145.16999999999999</v>
+      </c>
+      <c r="B83">
+        <v>684.11099999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>155.86000000000001</v>
+      </c>
+      <c r="B84">
+        <v>663.89300000000003</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>166.55</v>
+      </c>
+      <c r="B85">
+        <v>627.87900000000002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>177.24</v>
+      </c>
+      <c r="B86">
+        <v>572.75599999999997</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>187.93</v>
+      </c>
+      <c r="B87">
+        <v>493.8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>198.62</v>
+      </c>
+      <c r="B88">
+        <v>387.14100000000002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>209.31</v>
+      </c>
+      <c r="B89">
+        <v>249.27799999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>220</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>40</v>
+      </c>
+      <c r="B92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>41</v>
+      </c>
+      <c r="B93" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>163.87799999999999</v>
+      </c>
+      <c r="B94">
+        <v>249.14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>177.90799999999999</v>
+      </c>
+      <c r="B95">
+        <v>219.703</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>191.93899999999999</v>
+      </c>
+      <c r="B96">
+        <v>175.114</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>205.97</v>
+      </c>
+      <c r="B97">
+        <v>112.256</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>220</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>46</v>
+      </c>
+      <c r="B100">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>40</v>
+      </c>
+      <c r="B101">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>47</v>
+      </c>
+      <c r="B102" t="s">
+        <v>48</v>
+      </c>
+      <c r="C102" t="s">
+        <v>49</v>
+      </c>
+      <c r="D102" t="s">
+        <v>50</v>
+      </c>
+      <c r="E102" t="s">
+        <v>51</v>
+      </c>
+      <c r="F102" t="s">
+        <v>52</v>
+      </c>
+      <c r="G102" t="s">
+        <v>53</v>
+      </c>
+      <c r="H102" t="s">
+        <v>54</v>
+      </c>
+      <c r="I102" t="s">
+        <v>55</v>
+      </c>
+      <c r="J102" t="s">
+        <v>56</v>
+      </c>
+      <c r="K102" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>-4.49</v>
+      </c>
+      <c r="B103">
+        <v>55.426000000000002</v>
+      </c>
+      <c r="C103">
+        <v>2.948</v>
+      </c>
+      <c r="D103">
+        <v>-4.49</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>17.201000000000001</v>
+      </c>
+      <c r="G103">
+        <v>195.41</v>
+      </c>
+      <c r="H103">
+        <v>45.043999999999997</v>
+      </c>
+      <c r="I103">
+        <v>150.36500000000001</v>
+      </c>
+      <c r="J103">
+        <v>10.016999999999999</v>
+      </c>
+      <c r="K103">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>6.2</v>
+      </c>
+      <c r="B104">
+        <v>62.704000000000001</v>
+      </c>
+      <c r="C104">
+        <v>3.3340000000000001</v>
+      </c>
+      <c r="D104">
+        <v>6.2</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>16.268000000000001</v>
+      </c>
+      <c r="G104">
+        <v>288.89800000000002</v>
+      </c>
+      <c r="H104">
+        <v>77.028000000000006</v>
+      </c>
+      <c r="I104">
+        <v>211.87</v>
+      </c>
+      <c r="J104">
+        <v>7.9539999999999997</v>
+      </c>
+      <c r="K104">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>16.89</v>
+      </c>
+      <c r="B105">
+        <v>70.040999999999997</v>
+      </c>
+      <c r="C105">
+        <v>3.7229999999999999</v>
+      </c>
+      <c r="D105">
+        <v>16.89</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>15.347</v>
+      </c>
+      <c r="G105">
+        <v>408.59699999999998</v>
+      </c>
+      <c r="H105">
+        <v>118.39100000000001</v>
+      </c>
+      <c r="I105">
+        <v>290.20600000000002</v>
+      </c>
+      <c r="J105">
+        <v>6.2409999999999997</v>
+      </c>
+      <c r="K105">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>27.58</v>
+      </c>
+      <c r="B106">
+        <v>77.313000000000002</v>
+      </c>
+      <c r="C106">
+        <v>4.1079999999999997</v>
+      </c>
+      <c r="D106">
+        <v>27.58</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>14.459</v>
+      </c>
+      <c r="G106">
+        <v>553.649</v>
+      </c>
+      <c r="H106">
+        <v>168.23400000000001</v>
+      </c>
+      <c r="I106">
+        <v>385.41500000000002</v>
+      </c>
+      <c r="J106">
+        <v>4.7249999999999996</v>
+      </c>
+      <c r="K106">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>38.270000000000003</v>
+      </c>
+      <c r="B107">
+        <v>84.278000000000006</v>
+      </c>
+      <c r="C107">
+        <v>4.4770000000000003</v>
+      </c>
+      <c r="D107">
+        <v>38.270000000000003</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>13.632</v>
+      </c>
+      <c r="G107">
+        <v>719.21400000000006</v>
+      </c>
+      <c r="H107">
+        <v>224.435</v>
+      </c>
+      <c r="I107">
+        <v>494.779</v>
+      </c>
+      <c r="J107">
+        <v>3.3690000000000002</v>
+      </c>
+      <c r="K107">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>48.96</v>
+      </c>
+      <c r="B108">
+        <v>90.649000000000001</v>
+      </c>
+      <c r="C108">
+        <v>4.8150000000000004</v>
+      </c>
+      <c r="D108">
+        <v>48.96</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>12.891999999999999</v>
+      </c>
+      <c r="G108">
+        <v>895.39499999999998</v>
+      </c>
+      <c r="H108">
+        <v>283.42599999999999</v>
+      </c>
+      <c r="I108">
+        <v>611.97</v>
+      </c>
+      <c r="J108">
+        <v>2.1789999999999998</v>
+      </c>
+      <c r="K108">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>59.65</v>
+      </c>
+      <c r="B109">
+        <v>96.090999999999994</v>
+      </c>
+      <c r="C109">
+        <v>5.1029999999999998</v>
+      </c>
+      <c r="D109">
+        <v>59.65</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>12.272</v>
+      </c>
+      <c r="G109">
+        <v>1065.9290000000001</v>
+      </c>
+      <c r="H109">
+        <v>339.80700000000002</v>
+      </c>
+      <c r="I109">
+        <v>726.12099999999998</v>
+      </c>
+      <c r="J109">
+        <v>1.19</v>
+      </c>
+      <c r="K109">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>70.34</v>
+      </c>
+      <c r="B110">
+        <v>100.191</v>
+      </c>
+      <c r="C110">
+        <v>5.32</v>
+      </c>
+      <c r="D110">
+        <v>70.34</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>11.811</v>
+      </c>
+      <c r="G110">
+        <v>1207.2190000000001</v>
+      </c>
+      <c r="H110">
+        <v>386.07400000000001</v>
+      </c>
+      <c r="I110">
+        <v>821.14499999999998</v>
+      </c>
+      <c r="J110">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="K110">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>81.03</v>
+      </c>
+      <c r="B111">
+        <v>102.523</v>
+      </c>
+      <c r="C111">
+        <v>5.444</v>
+      </c>
+      <c r="D111">
+        <v>81.03</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>11.551</v>
+      </c>
+      <c r="G111">
+        <v>1292.788</v>
+      </c>
+      <c r="H111">
+        <v>413.89</v>
+      </c>
+      <c r="I111">
+        <v>878.89800000000002</v>
+      </c>
+      <c r="J111">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="K111">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>91.72</v>
+      </c>
+      <c r="B112">
+        <v>103.087</v>
+      </c>
+      <c r="C112">
+        <v>5.4740000000000002</v>
+      </c>
+      <c r="D112">
+        <v>91.72</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>11.488</v>
+      </c>
+      <c r="G112">
+        <v>1314.01</v>
+      </c>
+      <c r="H112">
+        <v>420.78899999999999</v>
+      </c>
+      <c r="I112">
+        <v>893.221</v>
+      </c>
+      <c r="J112">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+      <c r="K112">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>102.41</v>
+      </c>
+      <c r="B113">
+        <v>103.08799999999999</v>
+      </c>
+      <c r="C113">
+        <v>5.4740000000000002</v>
+      </c>
+      <c r="D113">
+        <v>102.41</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>11.487</v>
+      </c>
+      <c r="G113">
+        <v>1314.046</v>
+      </c>
+      <c r="H113">
+        <v>420.80099999999999</v>
+      </c>
+      <c r="I113">
+        <v>893.245</v>
+      </c>
+      <c r="J113">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+      <c r="K113">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>113.1</v>
+      </c>
+      <c r="B114">
+        <v>103.08799999999999</v>
+      </c>
+      <c r="C114">
+        <v>5.4740000000000002</v>
+      </c>
+      <c r="D114">
+        <v>113.1</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>11.487</v>
+      </c>
+      <c r="G114">
+        <v>1314.046</v>
+      </c>
+      <c r="H114">
+        <v>420.80099999999999</v>
+      </c>
+      <c r="I114">
+        <v>893.245</v>
+      </c>
+      <c r="J114">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+      <c r="K114">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>123.79</v>
+      </c>
+      <c r="B115">
+        <v>103.08799999999999</v>
+      </c>
+      <c r="C115">
+        <v>5.4740000000000002</v>
+      </c>
+      <c r="D115">
+        <v>123.79</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>11.487</v>
+      </c>
+      <c r="G115">
+        <v>1314.046</v>
+      </c>
+      <c r="H115">
+        <v>420.80099999999999</v>
+      </c>
+      <c r="I115">
+        <v>893.245</v>
+      </c>
+      <c r="J115">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+      <c r="K115">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>134.47999999999999</v>
+      </c>
+      <c r="B116">
+        <v>103.087</v>
+      </c>
+      <c r="C116">
+        <v>5.4740000000000002</v>
+      </c>
+      <c r="D116">
+        <v>134.47999999999999</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>11.488</v>
+      </c>
+      <c r="G116">
+        <v>1314.0150000000001</v>
+      </c>
+      <c r="H116">
+        <v>420.79599999999999</v>
+      </c>
+      <c r="I116">
+        <v>893.21900000000005</v>
+      </c>
+      <c r="J116">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+      <c r="K116">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>145.16999999999999</v>
+      </c>
+      <c r="B117">
+        <v>102.744</v>
+      </c>
+      <c r="C117">
+        <v>5.4550000000000001</v>
+      </c>
+      <c r="D117">
+        <v>145.16999999999999</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>11.494</v>
+      </c>
+      <c r="G117">
+        <v>1301.1579999999999</v>
+      </c>
+      <c r="H117">
+        <v>418.59399999999999</v>
+      </c>
+      <c r="I117">
+        <v>882.56399999999996</v>
+      </c>
+      <c r="J117">
+        <v>-5.0999999999999997E-2</v>
+      </c>
+      <c r="K117">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>155.86000000000001</v>
+      </c>
+      <c r="B118">
+        <v>100.886</v>
+      </c>
+      <c r="C118">
+        <v>5.3570000000000002</v>
+      </c>
+      <c r="D118">
+        <v>155.86000000000001</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>11.528</v>
+      </c>
+      <c r="G118">
+        <v>1233.1179999999999</v>
+      </c>
+      <c r="H118">
+        <v>406.74700000000001</v>
+      </c>
+      <c r="I118">
+        <v>826.37099999999998</v>
+      </c>
+      <c r="J118">
+        <v>-4.3999999999999997E-2</v>
+      </c>
+      <c r="K118">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>166.55</v>
+      </c>
+      <c r="B119">
+        <v>97.507999999999996</v>
+      </c>
+      <c r="C119">
+        <v>5.1779999999999999</v>
+      </c>
+      <c r="D119">
+        <v>166.55</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>11.579000000000001</v>
+      </c>
+      <c r="G119">
+        <v>1115.982</v>
+      </c>
+      <c r="H119">
+        <v>385.79700000000003</v>
+      </c>
+      <c r="I119">
+        <v>730.18499999999995</v>
+      </c>
+      <c r="J119">
+        <v>-3.5000000000000003E-2</v>
+      </c>
+      <c r="K119">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>177.24</v>
+      </c>
+      <c r="B120">
+        <v>92.245999999999995</v>
+      </c>
+      <c r="C120">
+        <v>4.899</v>
+      </c>
+      <c r="D120">
+        <v>177.24</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>11.627000000000001</v>
+      </c>
+      <c r="G120">
+        <v>948.37800000000004</v>
+      </c>
+      <c r="H120">
+        <v>354.85599999999999</v>
+      </c>
+      <c r="I120">
+        <v>593.52200000000005</v>
+      </c>
+      <c r="J120">
+        <v>-3.1E-2</v>
+      </c>
+      <c r="K120">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>187.93</v>
+      </c>
+      <c r="B121">
+        <v>84.679000000000002</v>
+      </c>
+      <c r="C121">
+        <v>4.4980000000000002</v>
+      </c>
+      <c r="D121">
+        <v>187.93</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>11.663</v>
+      </c>
+      <c r="G121">
+        <v>736.71400000000006</v>
+      </c>
+      <c r="H121">
+        <v>312.26600000000002</v>
+      </c>
+      <c r="I121">
+        <v>424.44799999999998</v>
+      </c>
+      <c r="J121">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="K121">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>198.62</v>
+      </c>
+      <c r="B122">
+        <v>74.53</v>
+      </c>
+      <c r="C122">
+        <v>3.96</v>
+      </c>
+      <c r="D122">
+        <v>198.62</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>11.679</v>
+      </c>
+      <c r="G122">
+        <v>503.36700000000002</v>
+      </c>
+      <c r="H122">
+        <v>256.86200000000002</v>
+      </c>
+      <c r="I122">
+        <v>246.506</v>
+      </c>
+      <c r="J122">
+        <v>-0.04</v>
+      </c>
+      <c r="K122">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>209.31</v>
+      </c>
+      <c r="B123">
+        <v>61.683</v>
+      </c>
+      <c r="C123">
+        <v>3.2789999999999999</v>
+      </c>
+      <c r="D123">
+        <v>209.31</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>11.641999999999999</v>
+      </c>
+      <c r="G123">
+        <v>282.548</v>
+      </c>
+      <c r="H123">
+        <v>187.52699999999999</v>
+      </c>
+      <c r="I123">
+        <v>95.02</v>
+      </c>
+      <c r="J123">
+        <v>-5.0999999999999997E-2</v>
+      </c>
+      <c r="K123">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>220</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>220</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>14.304</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>59</v>
+      </c>
+      <c r="B126">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>60</v>
+      </c>
+      <c r="B127">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>61</v>
+      </c>
+      <c r="B128">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>62</v>
+      </c>
+      <c r="B129">
+        <v>7.9470000000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>63</v>
+      </c>
+      <c r="B130">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>64</v>
+      </c>
+      <c r="B131">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>65</v>
+      </c>
+      <c r="B132">
+        <v>40260.036999999997</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>66</v>
+      </c>
+      <c r="B133">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>7</v>
+      </c>
+      <c r="B134">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>67</v>
+      </c>
+      <c r="B135">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>68</v>
+      </c>
+      <c r="B136">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>69</v>
+      </c>
+      <c r="B137">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>12</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>70</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>71</v>
+      </c>
+      <c r="B140">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>72</v>
+      </c>
+      <c r="B141">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>73</v>
+      </c>
+      <c r="B142">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>74</v>
+      </c>
+      <c r="B143">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>75</v>
+      </c>
+      <c r="B144">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>76</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>77</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>81</v>
+      </c>
+      <c r="B149" t="s">
+        <v>82</v>
+      </c>
+      <c r="C149" t="s">
+        <v>83</v>
+      </c>
+      <c r="D149" t="s">
+        <v>84</v>
+      </c>
+      <c r="E149" t="s">
+        <v>85</v>
+      </c>
+      <c r="F149" t="s">
+        <v>86</v>
+      </c>
+      <c r="G149" t="s">
+        <v>87</v>
+      </c>
+      <c r="H149" t="s">
+        <v>88</v>
+      </c>
+      <c r="I149" t="s">
+        <v>89</v>
+      </c>
+      <c r="J149" t="s">
+        <v>90</v>
+      </c>
+      <c r="K149" t="s">
+        <v>91</v>
+      </c>
+      <c r="L149" t="s">
+        <v>92</v>
+      </c>
+      <c r="M149" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>40</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>81</v>
+      </c>
+      <c r="B153" t="s">
+        <v>82</v>
+      </c>
+      <c r="C153" t="s">
+        <v>83</v>
+      </c>
+      <c r="D153" t="s">
+        <v>84</v>
+      </c>
+      <c r="E153" t="s">
+        <v>85</v>
+      </c>
+      <c r="F153" t="s">
+        <v>86</v>
+      </c>
+      <c r="G153" t="s">
+        <v>87</v>
+      </c>
+      <c r="H153" t="s">
+        <v>88</v>
+      </c>
+      <c r="I153" t="s">
+        <v>89</v>
+      </c>
+      <c r="J153" t="s">
+        <v>90</v>
+      </c>
+      <c r="K153" t="s">
+        <v>91</v>
+      </c>
+      <c r="L153" t="s">
+        <v>92</v>
+      </c>
+      <c r="M153" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>98</v>
+      </c>
+      <c r="B157" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>

--- a/IP.xlsx
+++ b/IP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomol\.spyder-py3\MT-1\IP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365-my.sharepoint.com/personal/bjtvannuland_tudelft_nl/Documents/Bachelor MT jaar 1/Q4/Integratieproject/IP-26/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD7C277-7EF6-4BC4-BB69-EC4DFDBA15B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{4CD7C277-7EF6-4BC4-BB69-EC4DFDBA15B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF2DF3BA-9C7B-45F8-9999-BF6952BD8661}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
@@ -431,7 +431,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -738,20 +738,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -759,7 +759,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -767,7 +767,7 @@
         <v>29.97</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -775,7 +775,7 @@
         <v>17.984999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -783,7 +783,7 @@
         <v>146.303</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -791,7 +791,7 @@
         <v>107.081</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -799,7 +799,7 @@
         <v>69.494</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -807,7 +807,7 @@
         <v>91.438999999999993</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
@@ -815,12 +815,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
@@ -828,7 +828,7 @@
         <v>5.9850000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
@@ -836,7 +836,7 @@
         <v>5.9850000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
@@ -844,7 +844,7 @@
         <v>5.9850000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
@@ -852,12 +852,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
@@ -865,7 +865,7 @@
         <v>24.247</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
@@ -873,7 +873,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
@@ -887,12 +887,12 @@
         <v>5.9850000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
@@ -900,7 +900,7 @@
         <v>7271.8689999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>19</v>
       </c>
@@ -908,7 +908,7 @@
         <v>44624.483</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>20</v>
       </c>
@@ -922,7 +922,7 @@
         <v>3.7229999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>21</v>
       </c>
@@ -936,7 +936,7 @@
         <v>11.098000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>22</v>
       </c>
@@ -944,7 +944,7 @@
         <v>0.34399999999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>23</v>
       </c>
@@ -952,12 +952,12 @@
         <v>0.47010000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>25</v>
       </c>
@@ -965,7 +965,7 @@
         <v>2019.5219999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>26</v>
       </c>
@@ -979,7 +979,7 @@
         <v>5.9850000000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>27</v>
       </c>
@@ -993,7 +993,7 @@
         <v>1496300</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>28</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>2406.404</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>29</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>30</v>
       </c>
@@ -1017,22 +1017,22 @@
         <v>104.75700000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>34</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>117.014</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>35</v>
       </c>
@@ -1048,27 +1048,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>40</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>41</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
         <v>36.478999999999999</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
         <v>41.578000000000003</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>7.1779999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="8">
         <v>46.677</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>17.555</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>51.776000000000003</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>29.242000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="8">
         <v>56.875999999999998</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>41.654000000000003</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
         <v>61.975000000000001</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>54.348999999999997</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
         <v>67.073999999999998</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>66.888000000000005</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
         <v>72.173000000000002</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>78.742000000000004</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="8">
         <v>77.272000000000006</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>89.176000000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
         <v>82.370999999999995</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>97.131</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
         <v>87.47</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>101.43</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
         <v>92.569000000000003</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>102.895</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="8">
         <v>97.668000000000006</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>104.121</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
         <v>102.767</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>104.75700000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="8">
         <v>107.866</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>104.021</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="8">
         <v>112.965</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>101.057</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="8">
         <v>118.065</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>94.915000000000006</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="8">
         <v>123.164</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>84.588999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="8">
         <v>128.26300000000001</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>69.712999999999994</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
         <v>133.36199999999999</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>50.372999999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="8">
         <v>138.46100000000001</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>24.998999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="8">
         <v>143.56</v>
       </c>
@@ -1260,12 +1260,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>40</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>41</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="8">
         <v>-2.9860000000000002</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>107.65900000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="8">
         <v>4.157</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>133.12200000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="8">
         <v>11.3</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>160.12100000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="8">
         <v>18.443000000000001</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>188.333</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="8">
         <v>25.585999999999999</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>217.54300000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="8">
         <v>32.728999999999999</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>247.53</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="8">
         <v>39.871000000000002</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>278.03699999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="8">
         <v>47.014000000000003</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>308.72899999999998</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="8">
         <v>54.156999999999996</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>339.14299999999997</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="8">
         <v>61.3</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>368.59</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="8">
         <v>68.442999999999998</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>395.96699999999998</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="8">
         <v>75.585999999999999</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>419.32799999999997</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="8">
         <v>82.728999999999999</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>435.01100000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="8">
         <v>89.870999999999995</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>438.16500000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="8">
         <v>97.013999999999996</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>433.78300000000002</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="8">
         <v>104.157</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>423.14499999999998</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="8">
         <v>111.3</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>401.09</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="8">
         <v>118.443</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>362.76900000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="8">
         <v>125.586</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>303.42700000000002</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="8">
         <v>132.72900000000001</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>221.51599999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="8">
         <v>139.87100000000001</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>112.539</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="8">
         <v>147.01400000000001</v>
       </c>
@@ -1457,12 +1457,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
         <v>40</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
         <v>41</v>
       </c>
@@ -1478,17 +1478,17 @@
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>46</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
         <v>40</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
         <v>47</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="8">
         <v>-2.9860000000000002</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="8">
         <v>4.157</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="8">
         <v>11.3</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="8">
         <v>18.443000000000001</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="8">
         <v>25.585999999999999</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="8">
         <v>32.728999999999999</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="8">
         <v>39.871000000000002</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="8">
         <v>47.014000000000003</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="8">
         <v>54.156999999999996</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="8">
         <v>61.3</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="8">
         <v>68.442999999999998</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="8">
         <v>75.585999999999999</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="8">
         <v>82.728999999999999</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="8">
         <v>89.870999999999995</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="8">
         <v>97.013999999999996</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="8">
         <v>104.157</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="8">
         <v>111.3</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="8">
         <v>118.443</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="8">
         <v>125.586</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="8">
         <v>132.72900000000001</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="8">
         <v>139.87100000000001</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="8">
         <v>147.01400000000001</v>
       </c>
@@ -2309,12 +2309,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
         <v>59</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>146.303</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
         <v>60</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
         <v>61</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
         <v>62</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>5.9850000000000003</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
         <v>63</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
         <v>64</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
         <v>65</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>21945.468000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
         <v>66</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
         <v>7</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
         <v>67</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
         <v>68</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
         <v>69</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
         <v>12</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
         <v>70</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
         <v>71</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
         <v>72</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
         <v>73</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
         <v>74</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
         <v>75</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
         <v>76</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
         <v>77</v>
       </c>
@@ -2482,22 +2482,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
         <v>82</v>
       </c>
@@ -2538,17 +2538,17 @@
         <v>94</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
         <v>40</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
         <v>82</v>
       </c>
@@ -2597,18 +2597,18 @@
         <v>94</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="6" t="s">
         <v>99</v>
       </c>
@@ -2616,12 +2616,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="6" t="s">
         <v>102</v>
       </c>
@@ -2640,19 +2640,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>25.594000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>17.997</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>101.883</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>69.432000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>48.393999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>63.677</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2716,12 +2716,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>5.9969999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>5.9969999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>5.9969999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -2753,12 +2753,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>21.966999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -2788,12 +2788,12 @@
         <v>5.9969999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>3406.05</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>24884.823</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>3.8359999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>11.519</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>0.28339999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -2853,12 +2853,12 @@
         <v>0.41589999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>1017.645</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>5.9969999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>317120.212</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>1283.193</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -2918,22 +2918,22 @@
         <v>79.543999999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>-2.0790000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -2949,27 +2949,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>25.800999999999998</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>29.106999999999999</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>4.3330000000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>32.414000000000001</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>11.52</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>35.72</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>19.879000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>39.026000000000003</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>28.873000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>42.332000000000001</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>38.152000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>45.639000000000003</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>47.414000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>48.945</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>56.341000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>52.250999999999998</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>64.516000000000005</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>55.557000000000002</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>71.281000000000006</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>58.863999999999997</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>75.507000000000005</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>62.17</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>77.245999999999995</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>65.475999999999999</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>79.13</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>68.781999999999996</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>79.543999999999997</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>72.088999999999999</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>77.391000000000005</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>75.394999999999996</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>72.772000000000006</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>78.700999999999993</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>66.429000000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>82.007000000000005</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>58.447000000000003</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>85.313999999999993</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>48.283999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>88.62</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>35.082999999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>91.926000000000002</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>17.393000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>95.233000000000004</v>
       </c>
@@ -3161,12 +3161,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>40</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>41</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>-2.0790000000000002</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>102.226</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>2.968</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>127.51900000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>8.016</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>152.774</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>13.064</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>177.89500000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>18.111000000000001</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>202.78399999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>23.158999999999999</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>227.32300000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>28.206</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>251.36799999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>33.253999999999998</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>274.72800000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>38.302</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>297.137</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>43.348999999999997</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>318.185</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>48.396999999999998</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>337.14</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>53.445</v>
       </c>
@@ -3278,7 +3278,7 @@
         <v>352.44799999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>58.491999999999997</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>359.928</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>63.54</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>353.221</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>68.587000000000003</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>331.08499999999998</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>73.635000000000005</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>300.39</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>78.683000000000007</v>
       </c>
@@ -3318,7 +3318,7 @@
         <v>266.00599999999997</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>83.73</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>226.17</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>88.778000000000006</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>175.953</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>93.825999999999993</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>106.474</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>98.873000000000005</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>37.396999999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>103.92100000000001</v>
       </c>
@@ -3358,12 +3358,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>40</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>41</v>
       </c>
@@ -3379,17 +3379,17 @@
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>46</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>40</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>47</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>-2.0790000000000002</v>
       </c>
@@ -3475,7 +3475,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>2.968</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>8.016</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>13.064</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>18.111000000000001</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>23.158999999999999</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>28.206</v>
       </c>
@@ -3685,7 +3685,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>33.253999999999998</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
         <v>38.302</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>43.348999999999997</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <v>48.396999999999998</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>53.445</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
         <v>58.491999999999997</v>
       </c>
@@ -3895,7 +3895,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>63.54</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
         <v>68.587000000000003</v>
       </c>
@@ -3965,7 +3965,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
         <v>73.635000000000005</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
         <v>78.683000000000007</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
         <v>83.73</v>
       </c>
@@ -4070,7 +4070,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
         <v>88.778000000000006</v>
       </c>
@@ -4105,7 +4105,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
         <v>93.825999999999993</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
         <v>98.873000000000005</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
         <v>103.92100000000001</v>
       </c>
@@ -4210,12 +4210,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>59</v>
       </c>
@@ -4223,7 +4223,7 @@
         <v>101.883</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>60</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>61</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>62</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>5.9969999999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>63</v>
       </c>
@@ -4255,7 +4255,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>64</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>65</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>15282.407999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>66</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>7</v>
       </c>
@@ -4287,7 +4287,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>67</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>68</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>69</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>12</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>70</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>71</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>72</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>73</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>74</v>
       </c>
@@ -4359,7 +4359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>75</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>76</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>77</v>
       </c>
@@ -4383,27 +4383,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>82</v>
       </c>
@@ -4444,17 +4444,17 @@
         <v>94</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>40</v>
       </c>
@@ -4462,7 +4462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>82</v>
       </c>
@@ -4503,18 +4503,18 @@
         <v>94</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>99</v>
       </c>
@@ -4522,12 +4522,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>102</v>
       </c>
@@ -4544,20 +4544,23 @@
   </sheetPr>
   <dimension ref="A2:M157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="G109" sqref="G109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" customWidth="1"/>
-    <col min="6" max="6" width="31.85546875" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="38.88671875" customWidth="1"/>
+    <col min="4" max="4" width="26.88671875" customWidth="1"/>
+    <col min="5" max="5" width="22.5546875" customWidth="1"/>
+    <col min="6" max="6" width="31.88671875" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4565,7 +4568,7 @@
         <v>224.49</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4573,7 +4576,7 @@
         <v>34.893999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -4581,7 +4584,7 @@
         <v>20.946999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -4589,7 +4592,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -4597,7 +4600,7 @@
         <v>173.44800000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -4605,7 +4608,7 @@
         <v>96.47</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -4613,7 +4616,7 @@
         <v>136.72999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -4621,12 +4624,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -4634,7 +4637,7 @@
         <v>2.6469999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -4642,7 +4645,7 @@
         <v>2.6469999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -4650,7 +4653,7 @@
         <v>2.6469999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -4658,12 +4661,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -4671,7 +4674,7 @@
         <v>16.417999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -4679,7 +4682,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -4693,12 +4696,12 @@
         <v>2.6469999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -4706,7 +4709,7 @@
         <v>8224.5959999999995</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -4714,7 +4717,7 @@
         <v>118155.65</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -4728,7 +4731,7 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -4742,7 +4745,7 @@
         <v>11.590999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -4750,7 +4753,7 @@
         <v>0.4965</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -4758,12 +4761,12 @@
         <v>0.62970000000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -4771,7 +4774,7 @@
         <v>4059.3229999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -4785,7 +4788,7 @@
         <v>2.6469999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -4799,7 +4802,7 @@
         <v>7964900</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -4807,7 +4810,7 @@
         <v>4272.7529999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -4815,7 +4818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -4823,22 +4826,22 @@
         <v>63.997</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -4846,7 +4849,7 @@
         <v>163.87799999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -4854,27 +4857,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -4882,7 +4885,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -4890,7 +4893,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>45.04</v>
       </c>
@@ -4898,7 +4901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>53.3</v>
       </c>
@@ -4906,7 +4909,7 @@
         <v>11.407999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>61.558999999999997</v>
       </c>
@@ -4914,7 +4917,7 @@
         <v>28.866</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>69.819000000000003</v>
       </c>
@@ -4922,7 +4925,7 @@
         <v>45.457000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>78.078000000000003</v>
       </c>
@@ -4930,7 +4933,7 @@
         <v>57.622999999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>86.337000000000003</v>
       </c>
@@ -4938,7 +4941,7 @@
         <v>63.29</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>94.596999999999994</v>
       </c>
@@ -4946,7 +4949,7 @@
         <v>63.997</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>102.85599999999999</v>
       </c>
@@ -4954,7 +4957,7 @@
         <v>63.997</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>111.116</v>
       </c>
@@ -4962,7 +4965,7 @@
         <v>63.997</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>119.375</v>
       </c>
@@ -4970,7 +4973,7 @@
         <v>63.997</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>127.63500000000001</v>
       </c>
@@ -4978,7 +4981,7 @@
         <v>63.997</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>135.89400000000001</v>
       </c>
@@ -4986,7 +4989,7 @@
         <v>63.988999999999997</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>144.15299999999999</v>
       </c>
@@ -4994,7 +4997,7 @@
         <v>63.537999999999997</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>152.41300000000001</v>
       </c>
@@ -5002,7 +5005,7 @@
         <v>61.509</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>160.672</v>
       </c>
@@ -5010,7 +5013,7 @@
         <v>57.972000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>168.93199999999999</v>
       </c>
@@ -5018,7 +5021,7 @@
         <v>53.436</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>177.191</v>
       </c>
@@ -5026,7 +5029,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>185.45</v>
       </c>
@@ -5034,7 +5037,7 @@
         <v>41.69</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>193.71</v>
       </c>
@@ -5042,7 +5045,7 @@
         <v>34.478000000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>201.96899999999999</v>
       </c>
@@ -5050,7 +5053,7 @@
         <v>26.305</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>210.22900000000001</v>
       </c>
@@ -5058,7 +5061,7 @@
         <v>16.478999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>218.488</v>
       </c>
@@ -5066,12 +5069,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>40</v>
       </c>
@@ -5079,7 +5082,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>41</v>
       </c>
@@ -5087,7 +5090,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>-4.49</v>
       </c>
@@ -5095,7 +5098,7 @@
         <v>164.87700000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>6.2</v>
       </c>
@@ -5103,7 +5106,7 @@
         <v>227.77099999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>16.89</v>
       </c>
@@ -5111,7 +5114,7 @@
         <v>298.65199999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>27.58</v>
       </c>
@@ -5119,7 +5122,7 @@
         <v>374.67399999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>38.270000000000003</v>
       </c>
@@ -5127,7 +5130,7 @@
         <v>452.56200000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>48.96</v>
       </c>
@@ -5135,7 +5138,7 @@
         <v>528.16200000000003</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>59.65</v>
       </c>
@@ -5143,7 +5146,7 @@
         <v>596.04300000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>70.34</v>
       </c>
@@ -5151,7 +5154,7 @@
         <v>649.24</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>81.03</v>
       </c>
@@ -5159,7 +5162,7 @@
         <v>680.27300000000002</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>91.72</v>
       </c>
@@ -5167,7 +5170,7 @@
         <v>687.86800000000005</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>102.41</v>
       </c>
@@ -5175,7 +5178,7 @@
         <v>687.88099999999997</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>113.1</v>
       </c>
@@ -5183,7 +5186,7 @@
         <v>687.88099999999997</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>123.79</v>
       </c>
@@ -5191,7 +5194,7 @@
         <v>687.88099999999997</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>134.47999999999999</v>
       </c>
@@ -5199,7 +5202,7 @@
         <v>687.87199999999996</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>145.16999999999999</v>
       </c>
@@ -5207,7 +5210,7 @@
         <v>684.11099999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>155.86000000000001</v>
       </c>
@@ -5215,7 +5218,7 @@
         <v>663.89300000000003</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>166.55</v>
       </c>
@@ -5223,7 +5226,7 @@
         <v>627.87900000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>177.24</v>
       </c>
@@ -5231,7 +5234,7 @@
         <v>572.75599999999997</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>187.93</v>
       </c>
@@ -5239,7 +5242,7 @@
         <v>493.8</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>198.62</v>
       </c>
@@ -5247,7 +5250,7 @@
         <v>387.14100000000002</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>209.31</v>
       </c>
@@ -5255,7 +5258,7 @@
         <v>249.27799999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>220</v>
       </c>
@@ -5263,12 +5266,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>40</v>
       </c>
@@ -5276,7 +5279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>41</v>
       </c>
@@ -5284,17 +5287,17 @@
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B94">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>46</v>
       </c>
@@ -5302,7 +5305,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>40</v>
       </c>
@@ -5310,7 +5313,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>47</v>
       </c>
@@ -5345,7 +5348,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>-4.49</v>
       </c>
@@ -5380,7 +5383,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>6.2</v>
       </c>
@@ -5415,7 +5418,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>16.89</v>
       </c>
@@ -5450,7 +5453,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>27.58</v>
       </c>
@@ -5485,7 +5488,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>38.270000000000003</v>
       </c>
@@ -5520,7 +5523,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>48.96</v>
       </c>
@@ -5555,7 +5558,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>59.65</v>
       </c>
@@ -5590,7 +5593,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>70.34</v>
       </c>
@@ -5625,7 +5628,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>81.03</v>
       </c>
@@ -5660,7 +5663,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>91.72</v>
       </c>
@@ -5695,7 +5698,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>102.41</v>
       </c>
@@ -5730,7 +5733,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>113.1</v>
       </c>
@@ -5765,7 +5768,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>123.79</v>
       </c>
@@ -5800,7 +5803,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>134.47999999999999</v>
       </c>
@@ -5835,7 +5838,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>145.16999999999999</v>
       </c>
@@ -5870,7 +5873,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>155.86000000000001</v>
       </c>
@@ -5905,7 +5908,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>166.55</v>
       </c>
@@ -5940,7 +5943,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>177.24</v>
       </c>
@@ -5975,7 +5978,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>187.93</v>
       </c>
@@ -6010,7 +6013,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>198.62</v>
       </c>
@@ -6045,7 +6048,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>209.31</v>
       </c>
@@ -6080,7 +6083,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>220</v>
       </c>
@@ -6115,12 +6118,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>59</v>
       </c>
@@ -6128,7 +6131,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>60</v>
       </c>
@@ -6136,7 +6139,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>61</v>
       </c>
@@ -6144,7 +6147,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>62</v>
       </c>
@@ -6152,7 +6155,7 @@
         <v>2.6469999999999998</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>63</v>
       </c>
@@ -6160,7 +6163,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>64</v>
       </c>
@@ -6168,7 +6171,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>65</v>
       </c>
@@ -6176,7 +6179,7 @@
         <v>40260.036999999997</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>66</v>
       </c>
@@ -6184,7 +6187,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>7</v>
       </c>
@@ -6192,7 +6195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>67</v>
       </c>
@@ -6200,7 +6203,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>68</v>
       </c>
@@ -6208,7 +6211,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>69</v>
       </c>
@@ -6216,7 +6219,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>12</v>
       </c>
@@ -6224,7 +6227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>70</v>
       </c>
@@ -6232,7 +6235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>71</v>
       </c>
@@ -6240,7 +6243,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>72</v>
       </c>
@@ -6248,7 +6251,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>73</v>
       </c>
@@ -6256,7 +6259,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>74</v>
       </c>
@@ -6264,7 +6267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>75</v>
       </c>
@@ -6272,7 +6275,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>76</v>
       </c>
@@ -6280,7 +6283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>77</v>
       </c>
@@ -6288,17 +6291,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>82</v>
       </c>
@@ -6339,17 +6342,17 @@
         <v>94</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>40</v>
       </c>
@@ -6357,7 +6360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>82</v>
       </c>
@@ -6398,17 +6401,17 @@
         <v>94</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>106</v>
       </c>
@@ -6416,22 +6419,22 @@
         <v>100</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>105</v>
       </c>

--- a/IP.xlsx
+++ b/IP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomol\.spyder-py3\MT-1\IP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2ee38df677a9f564/Documenten/Maritieme techniek/Q4/IP-26-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49C18D1-4143-432B-96F4-07CDAC31679E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{F49C18D1-4143-432B-96F4-07CDAC31679E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BAAA628-4EB3-4342-AB0C-DA6E497C36EB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VB schip van Goris" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="112">
   <si>
     <t>Loa  [m]</t>
   </si>
@@ -304,31 +304,10 @@
     <t xml:space="preserve"> t[-]</t>
   </si>
   <si>
-    <t>&lt;null&gt;</t>
-  </si>
-  <si>
     <t>RESISTANCE TABLE BY METHOD HOLTROP &amp; MENNEN 1982 &amp; 1984</t>
   </si>
   <si>
-    <t>Runtime error SystemExitException: Position of LCB too far FWD</t>
-  </si>
-  <si>
-    <t>Traceback:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  line 75</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> in script</t>
-  </si>
-  <si>
     <t>NOTES &amp; WARNINGS H&amp;M CALCULATION</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Deck is 18353 mm from WL</t>
   </si>
   <si>
     <t>SHIP DOES NOT ADHERE TO LCB BETWEEN -5% AND +5%</t>
@@ -377,6 +356,9 @@
   </si>
   <si>
     <t>Deck is 13010 mm from WL</t>
+  </si>
+  <si>
+    <t>Deck is 13053 mm from WL</t>
   </si>
 </sst>
 </file>
@@ -444,7 +426,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -747,27 +729,30 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:M157"/>
+  <dimension ref="A1:M183"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -775,7 +760,7 @@
         <v>224.49</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -783,7 +768,7 @@
         <v>34.893999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -791,7 +776,7 @@
         <v>20.946999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -799,15 +784,15 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>173.44800000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>213.43700000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -815,7 +800,7 @@
         <v>96.47</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -823,7 +808,7 @@
         <v>136.72999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -831,36 +816,36 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="3">
-        <v>2.6469999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7.9470000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>2.6469999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7.9470000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="3">
-        <v>2.6469999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7.9470000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -868,20 +853,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="3">
-        <v>16.417999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>22.791</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -889,34 +874,34 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="3">
-        <v>207.66200000000001</v>
+        <v>212.357</v>
       </c>
       <c r="C18" s="3">
-        <v>-5.234</v>
+        <v>5.234</v>
       </c>
       <c r="D18" s="3">
-        <v>2.6469999999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7.9470000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="3">
-        <v>8224.5959999999995</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>35092.942999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -924,21 +909,21 @@
         <v>118155.65</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="3">
-        <v>129.245</v>
+        <v>121.679</v>
       </c>
       <c r="C22" s="4">
         <v>0</v>
       </c>
       <c r="D22" s="3">
-        <v>1.49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4.5190000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -952,72 +937,72 @@
         <v>11.590999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="3">
-        <v>0.4965</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.58230000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="3">
-        <v>0.62970000000000004</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.60019999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="3">
-        <v>4059.3229999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5793.6490000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="3">
-        <v>125.917</v>
+        <v>114.08199999999999</v>
       </c>
       <c r="C28" s="4">
         <v>0</v>
       </c>
       <c r="D28" s="3">
-        <v>2.6469999999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7.9470000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="3">
-        <v>225471.465</v>
+        <v>457765.05699999997</v>
       </c>
       <c r="C29" s="5">
-        <v>7739500</v>
+        <v>15616000</v>
       </c>
       <c r="D29" s="5">
-        <v>7964900</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16074000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="3">
-        <v>4272.7529999999997</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7225.348</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -1025,30 +1010,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="3">
-        <v>63.997</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>234.602</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="1">
+        <v>9062.4670000000006</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="1">
+        <v>185.40199999999999</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
+        <v>5.0229999999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -1056,35 +1053,56 @@
         <v>163.87799999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="1">
+        <v>1210.7560000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="1">
+        <v>185.804</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
+        <v>9.0069999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="1">
+        <v>66519.578999999998</v>
+      </c>
+      <c r="C40" s="1">
+        <v>248761.64199999999</v>
+      </c>
+      <c r="D40" s="1">
+        <v>315281.22100000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -1092,7 +1110,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
@@ -1100,188 +1118,188 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
-        <v>45.04</v>
+        <v>6.5640000000000001</v>
       </c>
       <c r="B44" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
-        <v>53.3</v>
+        <v>16.727</v>
       </c>
       <c r="B45" s="3">
-        <v>11.407999999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10.638999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
-        <v>61.558999999999997</v>
+        <v>26.890999999999998</v>
       </c>
       <c r="B46" s="3">
-        <v>28.866</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38.869</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
-        <v>69.819000000000003</v>
+        <v>37.054000000000002</v>
       </c>
       <c r="B47" s="3">
-        <v>45.457000000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>77.081999999999994</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
-        <v>78.078000000000003</v>
+        <v>47.218000000000004</v>
       </c>
       <c r="B48" s="3">
-        <v>57.622999999999998</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>119.959</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
-        <v>86.337000000000003</v>
+        <v>57.381999999999998</v>
       </c>
       <c r="B49" s="3">
-        <v>63.29</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>162.53200000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
-        <v>94.596999999999994</v>
+        <v>67.545000000000002</v>
       </c>
       <c r="B50" s="3">
-        <v>63.997</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>199.303</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
-        <v>102.85599999999999</v>
+        <v>77.709000000000003</v>
       </c>
       <c r="B51" s="3">
-        <v>63.997</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>224.38200000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
-        <v>111.116</v>
+        <v>87.873000000000005</v>
       </c>
       <c r="B52" s="3">
-        <v>63.997</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>234.102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
-        <v>119.375</v>
+        <v>98.036000000000001</v>
       </c>
       <c r="B53" s="3">
-        <v>63.997</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>234.602</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
-        <v>127.63500000000001</v>
+        <v>108.2</v>
       </c>
       <c r="B54" s="3">
-        <v>63.997</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>234.602</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
-        <v>135.89400000000001</v>
+        <v>118.364</v>
       </c>
       <c r="B55" s="3">
-        <v>63.988999999999997</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>234.602</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
-        <v>144.15299999999999</v>
+        <v>128.52699999999999</v>
       </c>
       <c r="B56" s="3">
-        <v>63.537999999999997</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>234.602</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
-        <v>152.41300000000001</v>
+        <v>138.691</v>
       </c>
       <c r="B57" s="3">
-        <v>61.509</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>234.46600000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
-        <v>160.672</v>
+        <v>148.85499999999999</v>
       </c>
       <c r="B58" s="3">
-        <v>57.972000000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>231.17699999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
-        <v>168.93199999999999</v>
+        <v>159.018</v>
       </c>
       <c r="B59" s="3">
-        <v>53.436</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>221.471</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
-        <v>177.191</v>
+        <v>169.18199999999999</v>
       </c>
       <c r="B60" s="4">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>206.59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
-        <v>185.45</v>
+        <v>179.346</v>
       </c>
       <c r="B61" s="3">
-        <v>41.69</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>185.82599999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
-        <v>193.71</v>
+        <v>189.50899999999999</v>
       </c>
       <c r="B62" s="3">
-        <v>34.478000000000002</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>158.12200000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
-        <v>201.96899999999999</v>
+        <v>199.673</v>
       </c>
       <c r="B63" s="3">
-        <v>26.305</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>122.479</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
-        <v>210.22900000000001</v>
+        <v>209.83699999999999</v>
       </c>
       <c r="B64" s="3">
-        <v>16.478999999999999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>77.409000000000006</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
-        <v>218.488</v>
+        <v>220</v>
       </c>
       <c r="B65" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>40</v>
       </c>
@@ -1289,7 +1307,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>41</v>
       </c>
@@ -1297,7 +1315,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>-4.49</v>
       </c>
@@ -1305,7 +1323,7 @@
         <v>164.87700000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>6.2</v>
       </c>
@@ -1313,7 +1331,7 @@
         <v>227.77099999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>16.89</v>
       </c>
@@ -1321,7 +1339,7 @@
         <v>298.65199999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>27.58</v>
       </c>
@@ -1329,7 +1347,7 @@
         <v>374.67399999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>38.270000000000003</v>
       </c>
@@ -1337,7 +1355,7 @@
         <v>452.56200000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>48.96</v>
       </c>
@@ -1345,7 +1363,7 @@
         <v>528.16200000000003</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>59.65</v>
       </c>
@@ -1353,7 +1371,7 @@
         <v>596.04300000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>70.34</v>
       </c>
@@ -1361,7 +1379,7 @@
         <v>649.24</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>81.03</v>
       </c>
@@ -1369,7 +1387,7 @@
         <v>680.27300000000002</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>91.72</v>
       </c>
@@ -1377,7 +1395,7 @@
         <v>687.86800000000005</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>102.41</v>
       </c>
@@ -1385,7 +1403,7 @@
         <v>687.88099999999997</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>113.1</v>
       </c>
@@ -1393,7 +1411,7 @@
         <v>687.88099999999997</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>123.79</v>
       </c>
@@ -1401,7 +1419,7 @@
         <v>687.88099999999997</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>134.47999999999999</v>
       </c>
@@ -1409,7 +1427,7 @@
         <v>687.87199999999996</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>145.16999999999999</v>
       </c>
@@ -1417,7 +1435,7 @@
         <v>684.11099999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>155.86000000000001</v>
       </c>
@@ -1425,7 +1443,7 @@
         <v>663.89300000000003</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>166.55</v>
       </c>
@@ -1433,7 +1451,7 @@
         <v>627.87900000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>177.24</v>
       </c>
@@ -1441,7 +1459,7 @@
         <v>572.75599999999997</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>187.93</v>
       </c>
@@ -1449,7 +1467,7 @@
         <v>493.8</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>198.62</v>
       </c>
@@ -1457,7 +1475,7 @@
         <v>387.14100000000002</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>209.31</v>
       </c>
@@ -1465,7 +1483,7 @@
         <v>249.27799999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>220</v>
       </c>
@@ -1473,20 +1491,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B92" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>41</v>
       </c>
@@ -1494,525 +1512,448 @@
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>163.87799999999999</v>
+      </c>
       <c r="B94" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
+        <v>249.14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>177.90799999999999</v>
+      </c>
+      <c r="B95" s="1">
+        <v>219.703</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>191.93899999999999</v>
+      </c>
+      <c r="B96" s="4">
+        <v>175.114</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>205.97</v>
+      </c>
+      <c r="B97" s="4">
+        <v>112.256</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>220</v>
+      </c>
+      <c r="B98" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3"/>
+      <c r="K99" s="4"/>
+    </row>
+    <row r="100" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B96" s="4">
+      <c r="B100" s="3">
         <v>53</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3"/>
+      <c r="K100" s="4"/>
+    </row>
+    <row r="101" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B97" s="4">
+      <c r="B101" s="3">
         <v>22</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
+      <c r="J101" s="3"/>
+      <c r="K101" s="4"/>
+    </row>
+    <row r="102" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B102" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C102" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D102" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="E102" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F98" s="2" t="s">
+      <c r="F102" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G98" s="1" t="s">
+      <c r="G102" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H98" s="1" t="s">
+      <c r="H102" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I98" s="1" t="s">
+      <c r="I102" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J98" s="1" t="s">
+      <c r="J102" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="K98" s="1" t="s">
+      <c r="K102" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="3">
+    <row r="103" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="3">
         <v>-4.49</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B103" s="3">
         <v>55.426000000000002</v>
       </c>
-      <c r="C99" s="3">
+      <c r="C103" s="3">
         <v>2.948</v>
       </c>
-      <c r="D99" s="3">
+      <c r="D103" s="3">
         <v>-4.49</v>
       </c>
-      <c r="E99" s="4">
-        <v>0</v>
-      </c>
-      <c r="F99" s="3">
+      <c r="E103" s="4">
+        <v>0</v>
+      </c>
+      <c r="F103" s="3">
         <v>17.201000000000001</v>
       </c>
-      <c r="G99" s="3">
+      <c r="G103" s="3">
         <v>195.41</v>
       </c>
-      <c r="H99" s="3">
+      <c r="H103" s="3">
         <v>45.043999999999997</v>
       </c>
-      <c r="I99" s="3">
+      <c r="I103" s="3">
         <v>150.36500000000001</v>
       </c>
-      <c r="J99" s="3">
+      <c r="J103" s="3">
         <v>10.016999999999999</v>
-      </c>
-      <c r="K99" s="4">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="3">
-        <v>6.2</v>
-      </c>
-      <c r="B100" s="3">
-        <v>62.704000000000001</v>
-      </c>
-      <c r="C100" s="3">
-        <v>3.3340000000000001</v>
-      </c>
-      <c r="D100" s="3">
-        <v>6.2</v>
-      </c>
-      <c r="E100" s="4">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>16.268000000000001</v>
-      </c>
-      <c r="G100" s="3">
-        <v>288.89800000000002</v>
-      </c>
-      <c r="H100" s="3">
-        <v>77.028000000000006</v>
-      </c>
-      <c r="I100" s="3">
-        <v>211.87</v>
-      </c>
-      <c r="J100" s="3">
-        <v>7.9539999999999997</v>
-      </c>
-      <c r="K100" s="4">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="3">
-        <v>16.89</v>
-      </c>
-      <c r="B101" s="3">
-        <v>70.040999999999997</v>
-      </c>
-      <c r="C101" s="3">
-        <v>3.7229999999999999</v>
-      </c>
-      <c r="D101" s="3">
-        <v>16.89</v>
-      </c>
-      <c r="E101" s="4">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>15.347</v>
-      </c>
-      <c r="G101" s="3">
-        <v>408.59699999999998</v>
-      </c>
-      <c r="H101" s="3">
-        <v>118.39100000000001</v>
-      </c>
-      <c r="I101" s="3">
-        <v>290.20600000000002</v>
-      </c>
-      <c r="J101" s="3">
-        <v>6.2409999999999997</v>
-      </c>
-      <c r="K101" s="4">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="3">
-        <v>27.58</v>
-      </c>
-      <c r="B102" s="3">
-        <v>77.313000000000002</v>
-      </c>
-      <c r="C102" s="3">
-        <v>4.1079999999999997</v>
-      </c>
-      <c r="D102" s="3">
-        <v>27.58</v>
-      </c>
-      <c r="E102" s="4">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>14.459</v>
-      </c>
-      <c r="G102" s="3">
-        <v>553.649</v>
-      </c>
-      <c r="H102" s="3">
-        <v>168.23400000000001</v>
-      </c>
-      <c r="I102" s="3">
-        <v>385.41500000000002</v>
-      </c>
-      <c r="J102" s="3">
-        <v>4.7249999999999996</v>
-      </c>
-      <c r="K102" s="4">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="3">
-        <v>38.270000000000003</v>
-      </c>
-      <c r="B103" s="3">
-        <v>84.278000000000006</v>
-      </c>
-      <c r="C103" s="3">
-        <v>4.4770000000000003</v>
-      </c>
-      <c r="D103" s="3">
-        <v>38.270000000000003</v>
-      </c>
-      <c r="E103" s="4">
-        <v>0</v>
-      </c>
-      <c r="F103" s="3">
-        <v>13.632</v>
-      </c>
-      <c r="G103" s="3">
-        <v>719.21400000000006</v>
-      </c>
-      <c r="H103" s="3">
-        <v>224.435</v>
-      </c>
-      <c r="I103" s="3">
-        <v>494.779</v>
-      </c>
-      <c r="J103" s="3">
-        <v>3.3690000000000002</v>
       </c>
       <c r="K103" s="4">
         <v>21</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
-        <v>48.96</v>
+        <v>6.2</v>
       </c>
       <c r="B104" s="3">
-        <v>90.649000000000001</v>
+        <v>62.704000000000001</v>
       </c>
       <c r="C104" s="3">
-        <v>4.8150000000000004</v>
+        <v>3.3340000000000001</v>
       </c>
       <c r="D104" s="3">
-        <v>48.96</v>
+        <v>6.2</v>
       </c>
       <c r="E104" s="4">
         <v>0</v>
       </c>
       <c r="F104" s="3">
-        <v>12.891999999999999</v>
+        <v>16.268000000000001</v>
       </c>
       <c r="G104" s="3">
-        <v>895.39499999999998</v>
+        <v>288.89800000000002</v>
       </c>
       <c r="H104" s="3">
-        <v>283.42599999999999</v>
+        <v>77.028000000000006</v>
       </c>
       <c r="I104" s="3">
-        <v>611.97</v>
+        <v>211.87</v>
       </c>
       <c r="J104" s="3">
-        <v>2.1789999999999998</v>
+        <v>7.9539999999999997</v>
       </c>
       <c r="K104" s="4">
         <v>21</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
-        <v>59.65</v>
+        <v>16.89</v>
       </c>
       <c r="B105" s="3">
-        <v>96.090999999999994</v>
+        <v>70.040999999999997</v>
       </c>
       <c r="C105" s="3">
-        <v>5.1029999999999998</v>
+        <v>3.7229999999999999</v>
       </c>
       <c r="D105" s="3">
-        <v>59.65</v>
+        <v>16.89</v>
       </c>
       <c r="E105" s="4">
         <v>0</v>
       </c>
       <c r="F105" s="3">
-        <v>12.272</v>
+        <v>15.347</v>
       </c>
       <c r="G105" s="3">
-        <v>1065.9290000000001</v>
+        <v>408.59699999999998</v>
       </c>
       <c r="H105" s="3">
-        <v>339.80700000000002</v>
+        <v>118.39100000000001</v>
       </c>
       <c r="I105" s="3">
-        <v>726.12099999999998</v>
+        <v>290.20600000000002</v>
       </c>
       <c r="J105" s="3">
-        <v>1.19</v>
+        <v>6.2409999999999997</v>
       </c>
       <c r="K105" s="4">
         <v>21</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
-        <v>70.34</v>
+        <v>27.58</v>
       </c>
       <c r="B106" s="3">
-        <v>100.191</v>
+        <v>77.313000000000002</v>
       </c>
       <c r="C106" s="3">
-        <v>5.32</v>
+        <v>4.1079999999999997</v>
       </c>
       <c r="D106" s="3">
-        <v>70.34</v>
+        <v>27.58</v>
       </c>
       <c r="E106" s="4">
         <v>0</v>
       </c>
       <c r="F106" s="3">
-        <v>11.811</v>
+        <v>14.459</v>
       </c>
       <c r="G106" s="3">
-        <v>1207.2190000000001</v>
+        <v>553.649</v>
       </c>
       <c r="H106" s="3">
-        <v>386.07400000000001</v>
+        <v>168.23400000000001</v>
       </c>
       <c r="I106" s="3">
-        <v>821.14499999999998</v>
+        <v>385.41500000000002</v>
       </c>
       <c r="J106" s="3">
-        <v>0.45900000000000002</v>
+        <v>4.7249999999999996</v>
       </c>
       <c r="K106" s="4">
         <v>21</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
-        <v>81.03</v>
+        <v>38.270000000000003</v>
       </c>
       <c r="B107" s="3">
-        <v>102.523</v>
+        <v>84.278000000000006</v>
       </c>
       <c r="C107" s="3">
-        <v>5.444</v>
+        <v>4.4770000000000003</v>
       </c>
       <c r="D107" s="3">
-        <v>81.03</v>
+        <v>38.270000000000003</v>
       </c>
       <c r="E107" s="4">
         <v>0</v>
       </c>
       <c r="F107" s="3">
-        <v>11.551</v>
+        <v>13.632</v>
       </c>
       <c r="G107" s="3">
-        <v>1292.788</v>
+        <v>719.21400000000006</v>
       </c>
       <c r="H107" s="3">
-        <v>413.89</v>
+        <v>224.435</v>
       </c>
       <c r="I107" s="3">
-        <v>878.89800000000002</v>
+        <v>494.779</v>
       </c>
       <c r="J107" s="3">
-        <v>4.5999999999999999E-2</v>
+        <v>3.3690000000000002</v>
       </c>
       <c r="K107" s="4">
         <v>21</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
-        <v>91.72</v>
+        <v>48.96</v>
       </c>
       <c r="B108" s="3">
-        <v>103.087</v>
+        <v>90.649000000000001</v>
       </c>
       <c r="C108" s="3">
-        <v>5.4740000000000002</v>
+        <v>4.8150000000000004</v>
       </c>
       <c r="D108" s="3">
-        <v>91.72</v>
+        <v>48.96</v>
       </c>
       <c r="E108" s="4">
         <v>0</v>
       </c>
       <c r="F108" s="3">
-        <v>11.488</v>
+        <v>12.891999999999999</v>
       </c>
       <c r="G108" s="3">
-        <v>1314.01</v>
+        <v>895.39499999999998</v>
       </c>
       <c r="H108" s="3">
-        <v>420.78899999999999</v>
+        <v>283.42599999999999</v>
       </c>
       <c r="I108" s="3">
-        <v>893.221</v>
+        <v>611.97</v>
       </c>
       <c r="J108" s="3">
-        <v>-5.2999999999999999E-2</v>
+        <v>2.1789999999999998</v>
       </c>
       <c r="K108" s="4">
         <v>21</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
-        <v>102.41</v>
+        <v>59.65</v>
       </c>
       <c r="B109" s="3">
-        <v>103.08799999999999</v>
+        <v>96.090999999999994</v>
       </c>
       <c r="C109" s="3">
-        <v>5.4740000000000002</v>
+        <v>5.1029999999999998</v>
       </c>
       <c r="D109" s="3">
-        <v>102.41</v>
+        <v>59.65</v>
       </c>
       <c r="E109" s="4">
         <v>0</v>
       </c>
       <c r="F109" s="3">
-        <v>11.487</v>
+        <v>12.272</v>
       </c>
       <c r="G109" s="3">
-        <v>1314.046</v>
+        <v>1065.9290000000001</v>
       </c>
       <c r="H109" s="3">
-        <v>420.80099999999999</v>
+        <v>339.80700000000002</v>
       </c>
       <c r="I109" s="3">
-        <v>893.245</v>
+        <v>726.12099999999998</v>
       </c>
       <c r="J109" s="3">
-        <v>-5.2999999999999999E-2</v>
+        <v>1.19</v>
       </c>
       <c r="K109" s="4">
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
-        <v>113.1</v>
+        <v>70.34</v>
       </c>
       <c r="B110" s="3">
-        <v>103.08799999999999</v>
+        <v>100.191</v>
       </c>
       <c r="C110" s="3">
-        <v>5.4740000000000002</v>
+        <v>5.32</v>
       </c>
       <c r="D110" s="3">
-        <v>113.1</v>
+        <v>70.34</v>
       </c>
       <c r="E110" s="4">
         <v>0</v>
       </c>
       <c r="F110" s="3">
-        <v>11.487</v>
+        <v>11.811</v>
       </c>
       <c r="G110" s="3">
-        <v>1314.046</v>
+        <v>1207.2190000000001</v>
       </c>
       <c r="H110" s="3">
-        <v>420.80099999999999</v>
+        <v>386.07400000000001</v>
       </c>
       <c r="I110" s="3">
-        <v>893.245</v>
+        <v>821.14499999999998</v>
       </c>
       <c r="J110" s="3">
-        <v>-5.2999999999999999E-2</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="K110" s="4">
         <v>21</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
-        <v>123.79</v>
+        <v>81.03</v>
       </c>
       <c r="B111" s="3">
-        <v>103.08799999999999</v>
+        <v>102.523</v>
       </c>
       <c r="C111" s="3">
-        <v>5.4740000000000002</v>
+        <v>5.444</v>
       </c>
       <c r="D111" s="3">
-        <v>123.79</v>
+        <v>81.03</v>
       </c>
       <c r="E111" s="4">
         <v>0</v>
       </c>
       <c r="F111" s="3">
-        <v>11.487</v>
+        <v>11.551</v>
       </c>
       <c r="G111" s="3">
-        <v>1314.046</v>
+        <v>1292.788</v>
       </c>
       <c r="H111" s="3">
-        <v>420.80099999999999</v>
+        <v>413.89</v>
       </c>
       <c r="I111" s="3">
-        <v>893.245</v>
+        <v>878.89800000000002</v>
       </c>
       <c r="J111" s="3">
-        <v>-5.2999999999999999E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="K111" s="4">
         <v>21</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
-        <v>134.47999999999999</v>
+        <v>91.72</v>
       </c>
       <c r="B112" s="3">
         <v>103.087</v>
@@ -2021,7 +1962,7 @@
         <v>5.4740000000000002</v>
       </c>
       <c r="D112" s="3">
-        <v>134.47999999999999</v>
+        <v>91.72</v>
       </c>
       <c r="E112" s="4">
         <v>0</v>
@@ -2030,13 +1971,13 @@
         <v>11.488</v>
       </c>
       <c r="G112" s="3">
-        <v>1314.0150000000001</v>
+        <v>1314.01</v>
       </c>
       <c r="H112" s="3">
-        <v>420.79599999999999</v>
+        <v>420.78899999999999</v>
       </c>
       <c r="I112" s="3">
-        <v>893.21900000000005</v>
+        <v>893.221</v>
       </c>
       <c r="J112" s="3">
         <v>-5.2999999999999999E-2</v>
@@ -2045,529 +1986,612 @@
         <v>21</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
-        <v>145.16999999999999</v>
+        <v>102.41</v>
       </c>
       <c r="B113" s="3">
-        <v>102.744</v>
+        <v>103.08799999999999</v>
       </c>
       <c r="C113" s="3">
-        <v>5.4550000000000001</v>
+        <v>5.4740000000000002</v>
       </c>
       <c r="D113" s="3">
-        <v>145.16999999999999</v>
+        <v>102.41</v>
       </c>
       <c r="E113" s="4">
         <v>0</v>
       </c>
       <c r="F113" s="3">
-        <v>11.494</v>
+        <v>11.487</v>
       </c>
       <c r="G113" s="3">
-        <v>1301.1579999999999</v>
+        <v>1314.046</v>
       </c>
       <c r="H113" s="3">
-        <v>418.59399999999999</v>
+        <v>420.80099999999999</v>
       </c>
       <c r="I113" s="3">
-        <v>882.56399999999996</v>
+        <v>893.245</v>
       </c>
       <c r="J113" s="3">
-        <v>-5.0999999999999997E-2</v>
+        <v>-5.2999999999999999E-2</v>
       </c>
       <c r="K113" s="4">
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
-        <v>155.86000000000001</v>
+        <v>113.1</v>
       </c>
       <c r="B114" s="3">
-        <v>100.886</v>
+        <v>103.08799999999999</v>
       </c>
       <c r="C114" s="3">
-        <v>5.3570000000000002</v>
+        <v>5.4740000000000002</v>
       </c>
       <c r="D114" s="3">
-        <v>155.86000000000001</v>
+        <v>113.1</v>
       </c>
       <c r="E114" s="4">
         <v>0</v>
       </c>
       <c r="F114" s="3">
-        <v>11.528</v>
+        <v>11.487</v>
       </c>
       <c r="G114" s="3">
-        <v>1233.1179999999999</v>
+        <v>1314.046</v>
       </c>
       <c r="H114" s="3">
-        <v>406.74700000000001</v>
+        <v>420.80099999999999</v>
       </c>
       <c r="I114" s="3">
-        <v>826.37099999999998</v>
+        <v>893.245</v>
       </c>
       <c r="J114" s="3">
-        <v>-4.3999999999999997E-2</v>
+        <v>-5.2999999999999999E-2</v>
       </c>
       <c r="K114" s="4">
         <v>21</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
-        <v>166.55</v>
+        <v>123.79</v>
       </c>
       <c r="B115" s="3">
-        <v>97.507999999999996</v>
+        <v>103.08799999999999</v>
       </c>
       <c r="C115" s="3">
-        <v>5.1779999999999999</v>
+        <v>5.4740000000000002</v>
       </c>
       <c r="D115" s="3">
-        <v>166.55</v>
+        <v>123.79</v>
       </c>
       <c r="E115" s="4">
         <v>0</v>
       </c>
       <c r="F115" s="3">
-        <v>11.579000000000001</v>
+        <v>11.487</v>
       </c>
       <c r="G115" s="3">
-        <v>1115.982</v>
+        <v>1314.046</v>
       </c>
       <c r="H115" s="3">
-        <v>385.79700000000003</v>
+        <v>420.80099999999999</v>
       </c>
       <c r="I115" s="3">
-        <v>730.18499999999995</v>
+        <v>893.245</v>
       </c>
       <c r="J115" s="3">
-        <v>-3.5000000000000003E-2</v>
+        <v>-5.2999999999999999E-2</v>
       </c>
       <c r="K115" s="4">
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
-        <v>177.24</v>
+        <v>134.47999999999999</v>
       </c>
       <c r="B116" s="3">
-        <v>92.245999999999995</v>
+        <v>103.087</v>
       </c>
       <c r="C116" s="3">
-        <v>4.899</v>
+        <v>5.4740000000000002</v>
       </c>
       <c r="D116" s="3">
-        <v>177.24</v>
+        <v>134.47999999999999</v>
       </c>
       <c r="E116" s="4">
         <v>0</v>
       </c>
       <c r="F116" s="3">
-        <v>11.627000000000001</v>
+        <v>11.488</v>
       </c>
       <c r="G116" s="3">
-        <v>948.37800000000004</v>
+        <v>1314.0150000000001</v>
       </c>
       <c r="H116" s="3">
-        <v>354.85599999999999</v>
+        <v>420.79599999999999</v>
       </c>
       <c r="I116" s="3">
-        <v>593.52200000000005</v>
+        <v>893.21900000000005</v>
       </c>
       <c r="J116" s="3">
-        <v>-3.1E-2</v>
+        <v>-5.2999999999999999E-2</v>
       </c>
       <c r="K116" s="4">
         <v>21</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
-        <v>187.93</v>
+        <v>145.16999999999999</v>
       </c>
       <c r="B117" s="3">
-        <v>84.679000000000002</v>
+        <v>102.744</v>
       </c>
       <c r="C117" s="3">
-        <v>4.4980000000000002</v>
+        <v>5.4550000000000001</v>
       </c>
       <c r="D117" s="3">
-        <v>187.93</v>
+        <v>145.16999999999999</v>
       </c>
       <c r="E117" s="4">
         <v>0</v>
       </c>
       <c r="F117" s="3">
-        <v>11.663</v>
+        <v>11.494</v>
       </c>
       <c r="G117" s="3">
-        <v>736.71400000000006</v>
+        <v>1301.1579999999999</v>
       </c>
       <c r="H117" s="3">
-        <v>312.26600000000002</v>
+        <v>418.59399999999999</v>
       </c>
       <c r="I117" s="3">
-        <v>424.44799999999998</v>
+        <v>882.56399999999996</v>
       </c>
       <c r="J117" s="3">
-        <v>-3.3000000000000002E-2</v>
+        <v>-5.0999999999999997E-2</v>
       </c>
       <c r="K117" s="4">
         <v>21</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
-        <v>198.62</v>
+        <v>155.86000000000001</v>
       </c>
       <c r="B118" s="3">
-        <v>74.53</v>
+        <v>100.886</v>
       </c>
       <c r="C118" s="3">
-        <v>3.96</v>
+        <v>5.3570000000000002</v>
       </c>
       <c r="D118" s="3">
-        <v>198.62</v>
+        <v>155.86000000000001</v>
       </c>
       <c r="E118" s="4">
         <v>0</v>
       </c>
       <c r="F118" s="3">
-        <v>11.679</v>
+        <v>11.528</v>
       </c>
       <c r="G118" s="3">
-        <v>503.36700000000002</v>
+        <v>1233.1179999999999</v>
       </c>
       <c r="H118" s="3">
-        <v>256.86200000000002</v>
+        <v>406.74700000000001</v>
       </c>
       <c r="I118" s="3">
-        <v>246.506</v>
+        <v>826.37099999999998</v>
       </c>
       <c r="J118" s="3">
-        <v>-0.04</v>
+        <v>-4.3999999999999997E-2</v>
       </c>
       <c r="K118" s="4">
         <v>21</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
-        <v>209.31</v>
+        <v>166.55</v>
       </c>
       <c r="B119" s="3">
-        <v>61.683</v>
+        <v>97.507999999999996</v>
       </c>
       <c r="C119" s="3">
-        <v>3.2789999999999999</v>
+        <v>5.1779999999999999</v>
       </c>
       <c r="D119" s="3">
-        <v>209.31</v>
+        <v>166.55</v>
       </c>
       <c r="E119" s="4">
         <v>0</v>
       </c>
       <c r="F119" s="3">
-        <v>11.641999999999999</v>
+        <v>11.579000000000001</v>
       </c>
       <c r="G119" s="3">
-        <v>282.548</v>
+        <v>1115.982</v>
       </c>
       <c r="H119" s="3">
-        <v>187.52699999999999</v>
+        <v>385.79700000000003</v>
       </c>
       <c r="I119" s="3">
-        <v>95.02</v>
+        <v>730.18499999999995</v>
       </c>
       <c r="J119" s="3">
-        <v>-5.0999999999999997E-2</v>
+        <v>-3.5000000000000003E-2</v>
       </c>
       <c r="K119" s="4">
         <v>21</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
+        <v>177.24</v>
+      </c>
+      <c r="B120" s="4">
+        <v>92.245999999999995</v>
+      </c>
+      <c r="C120" s="4">
+        <v>4.899</v>
+      </c>
+      <c r="D120" s="4">
+        <v>177.24</v>
+      </c>
+      <c r="E120" s="4">
+        <v>0</v>
+      </c>
+      <c r="F120" s="3">
+        <v>11.627000000000001</v>
+      </c>
+      <c r="G120" s="4">
+        <v>948.37800000000004</v>
+      </c>
+      <c r="H120" s="4">
+        <v>354.85599999999999</v>
+      </c>
+      <c r="I120" s="4">
+        <v>593.52200000000005</v>
+      </c>
+      <c r="J120" s="4">
+        <v>-3.1E-2</v>
+      </c>
+      <c r="K120" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>187.93</v>
+      </c>
+      <c r="B121" s="1">
+        <v>84.679000000000002</v>
+      </c>
+      <c r="C121" s="1">
+        <v>4.4980000000000002</v>
+      </c>
+      <c r="D121" s="1">
+        <v>187.93</v>
+      </c>
+      <c r="E121" s="1">
+        <v>0</v>
+      </c>
+      <c r="F121" s="2">
+        <v>11.663</v>
+      </c>
+      <c r="G121" s="1">
+        <v>736.71400000000006</v>
+      </c>
+      <c r="H121" s="1">
+        <v>312.26600000000002</v>
+      </c>
+      <c r="I121" s="1">
+        <v>424.44799999999998</v>
+      </c>
+      <c r="J121" s="1">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="K121" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>198.62</v>
+      </c>
+      <c r="B122" s="4">
+        <v>74.53</v>
+      </c>
+      <c r="C122" s="1">
+        <v>3.96</v>
+      </c>
+      <c r="D122" s="1">
+        <v>198.62</v>
+      </c>
+      <c r="E122" s="1">
+        <v>0</v>
+      </c>
+      <c r="F122" s="2">
+        <v>11.679</v>
+      </c>
+      <c r="G122" s="1">
+        <v>503.36700000000002</v>
+      </c>
+      <c r="H122" s="1">
+        <v>256.86200000000002</v>
+      </c>
+      <c r="I122" s="1">
+        <v>246.506</v>
+      </c>
+      <c r="J122" s="1">
+        <v>-0.04</v>
+      </c>
+      <c r="K122" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>209.31</v>
+      </c>
+      <c r="B123" s="4">
+        <v>61.683</v>
+      </c>
+      <c r="C123" s="1">
+        <v>3.2789999999999999</v>
+      </c>
+      <c r="D123" s="1">
+        <v>209.31</v>
+      </c>
+      <c r="E123" s="1">
+        <v>0</v>
+      </c>
+      <c r="F123" s="2">
+        <v>11.641999999999999</v>
+      </c>
+      <c r="G123" s="1">
+        <v>282.548</v>
+      </c>
+      <c r="H123" s="1">
+        <v>187.52699999999999</v>
+      </c>
+      <c r="I123" s="1">
+        <v>95.02</v>
+      </c>
+      <c r="J123" s="1">
+        <v>-5.0999999999999997E-2</v>
+      </c>
+      <c r="K123" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
         <v>220</v>
       </c>
-      <c r="B120" s="4">
-        <v>0</v>
-      </c>
-      <c r="C120" s="4">
-        <v>0</v>
-      </c>
-      <c r="D120" s="4">
+      <c r="B124" s="4">
+        <v>0</v>
+      </c>
+      <c r="C124" s="1">
+        <v>0</v>
+      </c>
+      <c r="D124" s="1">
         <v>220</v>
       </c>
-      <c r="E120" s="4">
-        <v>0</v>
-      </c>
-      <c r="F120" s="3">
+      <c r="E124" s="1">
+        <v>0</v>
+      </c>
+      <c r="F124" s="2">
         <v>14.304</v>
       </c>
-      <c r="G120" s="4">
-        <v>0</v>
-      </c>
-      <c r="H120" s="4">
-        <v>0</v>
-      </c>
-      <c r="I120" s="4">
-        <v>0</v>
-      </c>
-      <c r="J120" s="4">
-        <v>0</v>
-      </c>
-      <c r="K120" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
+      <c r="G124" s="1">
+        <v>0</v>
+      </c>
+      <c r="H124" s="1">
+        <v>0</v>
+      </c>
+      <c r="I124" s="1">
+        <v>0</v>
+      </c>
+      <c r="J124" s="1">
+        <v>0</v>
+      </c>
+      <c r="K124" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
+      <c r="B125" s="3"/>
+    </row>
+    <row r="126" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B122" s="4">
+      <c r="B126" s="3">
         <v>220</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
+    <row r="127" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B123" s="4">
+      <c r="B127" s="4">
         <v>35</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
+    <row r="128" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B124" s="4">
+      <c r="B128" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
+    <row r="129" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B125" s="3">
-        <v>2.6469999999999998</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
+      <c r="B129" s="4">
+        <v>7.9470000000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B126" s="3">
+      <c r="B130" s="4">
         <v>0.98</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
+    <row r="131" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B127" s="4">
+      <c r="B131" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
+    <row r="132" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B128" s="3">
+      <c r="B132" s="4">
         <v>40260.036999999997</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
+    <row r="133" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B129" s="4">
+      <c r="B133" s="4">
         <v>53</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
+    <row r="134" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B130" s="4">
+      <c r="B134" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
+    <row r="135" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B131" s="4">
+      <c r="B135" s="4">
         <v>21</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
+    <row r="136" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B132" s="4">
+      <c r="B136" s="4">
         <v>65</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
+    <row r="137" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B133" s="4">
+      <c r="B137" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
+    <row r="138" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B134" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
+      <c r="B138" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B135" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
+      <c r="B139" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B136" s="4">
+      <c r="B140" s="4">
         <v>53</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
+    <row r="141" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B137" s="4">
+      <c r="B141" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
+    <row r="142" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B138" s="4">
+      <c r="B142" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
+    <row r="143" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B139" s="4">
+      <c r="B143" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
+    <row r="144" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B140" s="4">
+      <c r="B144" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
+    <row r="145" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B141" s="4">
+      <c r="B145" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
+    <row r="146" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B142" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
+      <c r="B146" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
+    <row r="148" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="145" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G145" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H145" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I145" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J145" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K145" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="L145" t="s">
-        <v>91</v>
-      </c>
-      <c r="M145" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B148" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B148" s="4"/>
+    </row>
+    <row r="149" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>80</v>
       </c>
@@ -2608,43 +2632,807 @@
         <v>92</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
+    <row r="150" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>19</v>
+      </c>
+      <c r="B150" s="1">
+        <v>9.7744444444444394</v>
+      </c>
+      <c r="C150" s="1">
+        <v>0.213610756419498</v>
+      </c>
+      <c r="D150" s="1">
+        <v>937341.23933501705</v>
+      </c>
+      <c r="E150" s="1">
+        <v>593712.55030599097</v>
+      </c>
+      <c r="F150" s="2">
+        <v>0</v>
+      </c>
+      <c r="G150" s="1">
+        <v>220679.98771377699</v>
+      </c>
+      <c r="H150" s="1">
+        <v>0</v>
+      </c>
+      <c r="I150" s="1">
+        <v>0</v>
+      </c>
+      <c r="J150" s="1">
+        <v>122948.701315249</v>
+      </c>
+      <c r="K150" s="1">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>0.12234094142711301</v>
+      </c>
+      <c r="M150">
+        <v>0.16696088409096599</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B152" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J153" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K153" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L153" t="s">
+        <v>91</v>
+      </c>
+      <c r="M153" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
+        <v>6</v>
+      </c>
+      <c r="B154" s="1">
+        <v>3.0866666666666598</v>
+      </c>
+      <c r="C154" s="1">
+        <v>6.7456028342999602E-2</v>
+      </c>
+      <c r="D154" s="1">
+        <v>80587.114172521906</v>
+      </c>
+      <c r="E154" s="1">
+        <v>68326.137713709395</v>
+      </c>
+      <c r="F154" s="2">
+        <v>0</v>
+      </c>
+      <c r="G154" s="1">
+        <v>0.16413928627101301</v>
+      </c>
+      <c r="H154" s="1">
+        <v>0</v>
+      </c>
+      <c r="I154" s="1">
+        <v>0</v>
+      </c>
+      <c r="J154" s="1">
+        <v>12260.8123195262</v>
+      </c>
+      <c r="K154" s="1">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>0.12886840377387401</v>
+      </c>
+      <c r="M154">
+        <v>0.16696088409096599</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <v>7</v>
+      </c>
+      <c r="B155" s="1">
+        <v>3.60111111111111</v>
+      </c>
+      <c r="C155" s="1">
+        <v>7.8698699733499494E-2</v>
+      </c>
+      <c r="D155" s="1">
+        <v>107870.688906736</v>
+      </c>
+      <c r="E155" s="1">
+        <v>91179.5744558554</v>
+      </c>
+      <c r="F155" s="2">
+        <v>0</v>
+      </c>
+      <c r="G155" s="1">
+        <v>2.7865715257329202</v>
+      </c>
+      <c r="H155" s="1">
+        <v>0</v>
+      </c>
+      <c r="I155" s="1">
+        <v>0</v>
+      </c>
+      <c r="J155" s="1">
+        <v>16688.3278793551</v>
+      </c>
+      <c r="K155" s="1">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>0.12790415135946701</v>
+      </c>
+      <c r="M155">
+        <v>0.16696088409096599</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <v>8</v>
+      </c>
+      <c r="B156" s="1">
+        <v>4.1155555555555496</v>
+      </c>
+      <c r="C156" s="1">
+        <v>8.99413711239994E-2</v>
+      </c>
+      <c r="D156" s="1">
+        <v>138909.62164017599</v>
+      </c>
+      <c r="E156" s="1">
+        <v>117088.585471821</v>
+      </c>
+      <c r="F156" s="2">
+        <v>0</v>
+      </c>
+      <c r="G156" s="1">
+        <v>24.036489197421101</v>
+      </c>
+      <c r="H156" s="1">
+        <v>0</v>
+      </c>
+      <c r="I156" s="1">
+        <v>0</v>
+      </c>
+      <c r="J156" s="1">
+        <v>21796.9996791577</v>
+      </c>
+      <c r="K156" s="1">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <v>0.12709349644273901</v>
+      </c>
+      <c r="M156">
+        <v>0.16696088409096599</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <v>9</v>
+      </c>
+      <c r="B157" s="1">
+        <v>4.63</v>
+      </c>
+      <c r="C157" s="1">
+        <v>0.101184042514499</v>
+      </c>
+      <c r="D157" s="1">
+        <v>173724.803644183</v>
+      </c>
+      <c r="E157" s="1">
+        <v>146006.773211769</v>
+      </c>
+      <c r="F157" s="2">
+        <v>0</v>
+      </c>
+      <c r="G157" s="1">
+        <v>131.202713480146</v>
+      </c>
+      <c r="H157" s="1">
+        <v>0</v>
+      </c>
+      <c r="I157" s="1">
+        <v>0</v>
+      </c>
+      <c r="J157" s="1">
+        <v>27586.827718934001</v>
+      </c>
+      <c r="K157" s="1">
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <v>0.12639671492757601</v>
+      </c>
+      <c r="M157">
+        <v>0.16696088409096599</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <v>10</v>
+      </c>
+      <c r="B158" s="1">
+        <v>5.1444444444444404</v>
+      </c>
+      <c r="C158" s="1">
+        <v>0.112426713904999</v>
+      </c>
+      <c r="D158" s="1">
+        <v>212469.80150510999</v>
+      </c>
+      <c r="E158" s="1">
+        <v>177894.10958410299</v>
+      </c>
+      <c r="F158" s="2">
+        <v>0</v>
+      </c>
+      <c r="G158" s="1">
+        <v>517.87992232275406</v>
+      </c>
+      <c r="H158" s="1">
+        <v>0</v>
+      </c>
+      <c r="I158" s="1">
+        <v>0</v>
+      </c>
+      <c r="J158" s="1">
+        <v>34057.811998683901</v>
+      </c>
+      <c r="K158" s="1">
+        <v>0</v>
+      </c>
+      <c r="L158">
+        <v>0.12578746144552899</v>
+      </c>
+      <c r="M158">
+        <v>0.16696088409096599</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
+        <v>11</v>
+      </c>
+      <c r="B159" s="1">
+        <v>5.65888888888888</v>
+      </c>
+      <c r="C159" s="1">
+        <v>0.12366938529549901</v>
+      </c>
+      <c r="D159" s="1">
+        <v>255536.175247976</v>
+      </c>
+      <c r="E159" s="1">
+        <v>212715.47614144499</v>
+      </c>
+      <c r="F159" s="2">
+        <v>0</v>
+      </c>
+      <c r="G159" s="1">
+        <v>1610.7465881230901</v>
+      </c>
+      <c r="H159" s="1">
+        <v>0</v>
+      </c>
+      <c r="I159" s="1">
+        <v>0</v>
+      </c>
+      <c r="J159" s="1">
+        <v>41209.952518407503</v>
+      </c>
+      <c r="K159" s="1">
+        <v>0</v>
+      </c>
+      <c r="L159">
+        <v>0.12524741726243299</v>
+      </c>
+      <c r="M159">
+        <v>0.16696088409096599</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <v>12</v>
+      </c>
+      <c r="B160" s="1">
+        <v>6.1733333333333302</v>
+      </c>
+      <c r="C160" s="1">
+        <v>0.13491205668599901</v>
+      </c>
+      <c r="D160" s="1">
+        <v>303665.60981251497</v>
+      </c>
+      <c r="E160" s="1">
+        <v>250439.64744438001</v>
+      </c>
+      <c r="F160" s="2">
+        <v>0</v>
+      </c>
+      <c r="G160" s="1">
+        <v>4182.7130900297798</v>
+      </c>
+      <c r="H160" s="1">
+        <v>0</v>
+      </c>
+      <c r="I160" s="1">
+        <v>0</v>
+      </c>
+      <c r="J160" s="1">
+        <v>49043.2492781049</v>
+      </c>
+      <c r="K160" s="1">
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <v>0.124763358990583</v>
+      </c>
+      <c r="M160">
+        <v>0.16696088409096599</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <v>13</v>
+      </c>
+      <c r="B161" s="1">
+        <v>6.6877777777777698</v>
+      </c>
+      <c r="C161" s="1">
+        <v>0.14615472807649901</v>
+      </c>
+      <c r="D161" s="1">
+        <v>358038.49566270399</v>
+      </c>
+      <c r="E161" s="1">
+        <v>291038.555797907</v>
+      </c>
+      <c r="F161" s="2">
+        <v>0</v>
+      </c>
+      <c r="G161" s="1">
+        <v>9442.2375870220294</v>
+      </c>
+      <c r="H161" s="1">
+        <v>0</v>
+      </c>
+      <c r="I161" s="1">
+        <v>0</v>
+      </c>
+      <c r="J161" s="1">
+        <v>57557.702277775898</v>
+      </c>
+      <c r="K161" s="1">
+        <v>0</v>
+      </c>
+      <c r="L161">
+        <v>0.124325446835271</v>
+      </c>
+      <c r="M161">
+        <v>0.16696088409096599</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <v>14</v>
+      </c>
+      <c r="B162" s="1">
+        <v>7.2022222222222201</v>
+      </c>
+      <c r="C162" s="1">
+        <v>0.15739739946699899</v>
+      </c>
+      <c r="D162" s="1">
+        <v>420317.60108440398</v>
+      </c>
+      <c r="E162" s="1">
+        <v>334486.74299837602</v>
+      </c>
+      <c r="F162" s="2">
+        <v>0</v>
+      </c>
+      <c r="G162" s="1">
+        <v>19077.5465686075</v>
+      </c>
+      <c r="H162" s="1">
+        <v>0</v>
+      </c>
+      <c r="I162" s="1">
+        <v>0</v>
+      </c>
+      <c r="J162" s="1">
+        <v>66753.311517420501</v>
+      </c>
+      <c r="K162" s="1">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>0.123926172164792</v>
+      </c>
+      <c r="M162">
+        <v>0.16696088409096599</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <v>15</v>
+      </c>
+      <c r="B163" s="1">
+        <v>7.7166666666666597</v>
+      </c>
+      <c r="C163" s="1">
+        <v>0.16864007085749799</v>
+      </c>
+      <c r="D163" s="1">
+        <v>492640.06414211</v>
+      </c>
+      <c r="E163" s="1">
+        <v>380760.94108813599</v>
+      </c>
+      <c r="F163" s="2">
+        <v>0</v>
+      </c>
+      <c r="G163" s="1">
+        <v>35249.0460569356</v>
+      </c>
+      <c r="H163" s="1">
+        <v>0</v>
+      </c>
+      <c r="I163" s="1">
+        <v>0</v>
+      </c>
+      <c r="J163" s="1">
+        <v>76630.076997038894</v>
+      </c>
+      <c r="K163" s="1">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>0.123559682463144</v>
+      </c>
+      <c r="M163">
+        <v>0.16696088409096599</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
+        <v>16</v>
+      </c>
+      <c r="B164" s="1">
+        <v>8.2311111111111099</v>
+      </c>
+      <c r="C164" s="1">
+        <v>0.179882742247998</v>
+      </c>
+      <c r="D164" s="1">
+        <v>577560.22776194406</v>
+      </c>
+      <c r="E164" s="1">
+        <v>429839.74489795201</v>
+      </c>
+      <c r="F164" s="2">
+        <v>0</v>
+      </c>
+      <c r="G164" s="1">
+        <v>60532.484147360999</v>
+      </c>
+      <c r="H164" s="1">
+        <v>0</v>
+      </c>
+      <c r="I164" s="1">
+        <v>0</v>
+      </c>
+      <c r="J164" s="1">
+        <v>87187.9987166309</v>
+      </c>
+      <c r="K164" s="1">
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <v>0.12322133271439301</v>
+      </c>
+      <c r="M164">
+        <v>0.16696088409096599</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
+        <v>17</v>
+      </c>
+      <c r="B165" s="1">
+        <v>8.7455555555555495</v>
+      </c>
+      <c r="C165" s="1">
+        <v>0.191125413638498</v>
+      </c>
+      <c r="D165" s="1">
+        <v>677993.87307200499</v>
+      </c>
+      <c r="E165" s="1">
+        <v>481703.35162144201</v>
+      </c>
+      <c r="F165" s="2">
+        <v>0</v>
+      </c>
+      <c r="G165" s="1">
+        <v>97863.444774365998</v>
+      </c>
+      <c r="H165" s="1">
+        <v>0</v>
+      </c>
+      <c r="I165" s="1">
+        <v>0</v>
+      </c>
+      <c r="J165" s="1">
+        <v>98427.076676196593</v>
+      </c>
+      <c r="K165" s="1">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>0.122907378141802</v>
+      </c>
+      <c r="M165">
+        <v>0.16696088409096599</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A166" s="1">
+        <v>18</v>
+      </c>
+      <c r="B166" s="1">
+        <v>9.26</v>
+      </c>
+      <c r="C166" s="1">
+        <v>0.202368085028998</v>
+      </c>
+      <c r="D166" s="1">
+        <v>796969.14168002596</v>
+      </c>
+      <c r="E166" s="1">
+        <v>536333.35044767603</v>
+      </c>
+      <c r="F166" s="2">
+        <v>0</v>
+      </c>
+      <c r="G166" s="1">
+        <v>150288.480356613</v>
+      </c>
+      <c r="H166" s="1">
+        <v>0</v>
+      </c>
+      <c r="I166" s="1">
+        <v>0</v>
+      </c>
+      <c r="J166" s="1">
+        <v>110347.310875736</v>
+      </c>
+      <c r="K166" s="1">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>0.12261475822769199</v>
+      </c>
+      <c r="M166">
+        <v>0.16696088409096599</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
+        <v>19</v>
+      </c>
+      <c r="B167" s="1">
+        <v>9.7744444444444394</v>
+      </c>
+      <c r="C167" s="1">
+        <v>0.213610756419498</v>
+      </c>
+      <c r="D167" s="1">
+        <v>937341.23933501705</v>
+      </c>
+      <c r="E167" s="1">
+        <v>593712.55030599097</v>
+      </c>
+      <c r="F167" s="2">
+        <v>0</v>
+      </c>
+      <c r="G167" s="1">
+        <v>220679.98771377699</v>
+      </c>
+      <c r="H167" s="1">
+        <v>0</v>
+      </c>
+      <c r="I167" s="1">
+        <v>0</v>
+      </c>
+      <c r="J167" s="1">
+        <v>122948.701315249</v>
+      </c>
+      <c r="K167" s="1">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>0.12234094142711301</v>
+      </c>
+      <c r="M167">
+        <v>0.16696088409096599</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A168" s="1">
+        <v>20</v>
+      </c>
+      <c r="B168" s="1">
+        <v>10.288888888888801</v>
+      </c>
+      <c r="C168" s="1">
+        <v>0.22485342780999801</v>
+      </c>
+      <c r="D168" s="1">
+        <v>1105382.83353302</v>
+      </c>
+      <c r="E168" s="1">
+        <v>653824.83712268702</v>
+      </c>
+      <c r="F168" s="2">
+        <v>0</v>
+      </c>
+      <c r="G168" s="1">
+        <v>315326.74841559801</v>
+      </c>
+      <c r="H168" s="1">
+        <v>0</v>
+      </c>
+      <c r="I168" s="1">
+        <v>0</v>
+      </c>
+      <c r="J168" s="1">
+        <v>136231.24799473499</v>
+      </c>
+      <c r="K168" s="1">
+        <v>0</v>
+      </c>
+      <c r="L168">
+        <v>0.122083811281041</v>
+      </c>
+      <c r="M168">
+        <v>0.16696088409096599</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A171" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A172" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B172" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B153" s="1" t="s">
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A174" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A175" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A176" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B176" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B177" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B178" s="1">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B181" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B182" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2660,9 +3448,9 @@
       <selection activeCell="T66" sqref="T66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2670,7 +3458,7 @@
         <v>224.49</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2678,7 +3466,7 @@
         <v>34.997999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2686,7 +3474,7 @@
         <v>20.998999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2694,7 +3482,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2702,7 +3490,7 @@
         <v>213.636</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2710,7 +3498,7 @@
         <v>96.47</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2718,7 +3506,7 @@
         <v>136.72999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2726,12 +3514,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2739,7 +3527,7 @@
         <v>7.9989999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2747,7 +3535,7 @@
         <v>7.9989999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2755,7 +3543,7 @@
         <v>7.9989999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2763,12 +3551,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2776,7 +3564,7 @@
         <v>22.85</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2784,7 +3572,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2798,12 +3586,12 @@
         <v>7.9989999999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2811,7 +3599,7 @@
         <v>35500.622000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2819,7 +3607,7 @@
         <v>118833.591</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2833,7 +3621,7 @@
         <v>4.5469999999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2847,7 +3635,7 @@
         <v>11.617000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2855,7 +3643,7 @@
         <v>0.58320000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2863,12 +3651,12 @@
         <v>0.60050000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2876,7 +3664,7 @@
         <v>5818.38</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2890,7 +3678,7 @@
         <v>7.9989999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2904,7 +3692,7 @@
         <v>16169000</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2912,7 +3700,7 @@
         <v>7266.0069999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2920,7 +3708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2928,12 +3716,12 @@
         <v>237.227</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2941,7 +3729,7 @@
         <v>9112.4040000000005</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2955,7 +3743,7 @@
         <v>5.0350000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2963,7 +3751,7 @@
         <v>163.87799999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2971,7 +3759,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -2979,7 +3767,7 @@
         <v>1214.146</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -2993,7 +3781,7 @@
         <v>9.0299999999999994</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -3007,12 +3795,12 @@
         <v>316534.06800000003</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -3020,7 +3808,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -3028,7 +3816,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>6.3639999999999999</v>
       </c>
@@ -3036,7 +3824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>16.536999999999999</v>
       </c>
@@ -3044,7 +3832,7 @@
         <v>10.696999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>26.71</v>
       </c>
@@ -3052,7 +3840,7 @@
         <v>39.140999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>36.883000000000003</v>
       </c>
@@ -3060,7 +3848,7 @@
         <v>77.680999999999997</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47.055999999999997</v>
       </c>
@@ -3068,7 +3856,7 @@
         <v>120.961</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>57.23</v>
       </c>
@@ -3076,7 +3864,7 @@
         <v>163.98</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>67.403000000000006</v>
       </c>
@@ -3084,7 +3872,7 @@
         <v>201.20599999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>77.575999999999993</v>
       </c>
@@ -3092,7 +3880,7 @@
         <v>226.697</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>87.748999999999995</v>
       </c>
@@ -3100,7 +3888,7 @@
         <v>236.68799999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>97.921999999999997</v>
       </c>
@@ -3108,7 +3896,7 @@
         <v>237.227</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>108.095</v>
       </c>
@@ -3116,7 +3904,7 @@
         <v>237.227</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>118.26900000000001</v>
       </c>
@@ -3124,7 +3912,7 @@
         <v>237.227</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>128.44200000000001</v>
       </c>
@@ -3132,7 +3920,7 @@
         <v>237.227</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>138.61500000000001</v>
       </c>
@@ -3140,7 +3928,7 @@
         <v>237.09399999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>148.78800000000001</v>
       </c>
@@ -3148,7 +3936,7 @@
         <v>233.797</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>158.96100000000001</v>
       </c>
@@ -3156,7 +3944,7 @@
         <v>223.97800000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>169.13399999999999</v>
       </c>
@@ -3164,7 +3952,7 @@
         <v>208.91</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>179.30799999999999</v>
       </c>
@@ -3172,7 +3960,7 @@
         <v>187.893</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>189.48099999999999</v>
       </c>
@@ -3180,7 +3968,7 @@
         <v>159.863</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>199.654</v>
       </c>
@@ -3188,7 +3976,7 @@
         <v>123.812</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>209.827</v>
       </c>
@@ -3196,7 +3984,7 @@
         <v>78.241</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>220</v>
       </c>
@@ -3204,12 +3992,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>40</v>
       </c>
@@ -3217,7 +4005,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>41</v>
       </c>
@@ -3225,7 +4013,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>-4.49</v>
       </c>
@@ -3233,7 +4021,7 @@
         <v>165.779</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>6.2</v>
       </c>
@@ -3241,7 +4029,7 @@
         <v>229.09899999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>16.89</v>
       </c>
@@ -3249,7 +4037,7 @@
         <v>300.43400000000003</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>27.58</v>
       </c>
@@ -3257,7 +4045,7 @@
         <v>376.91699999999997</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>38.270000000000003</v>
       </c>
@@ -3265,7 +4053,7 @@
         <v>455.25900000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>48.96</v>
       </c>
@@ -3273,7 +4061,7 @@
         <v>531.28800000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>59.65</v>
       </c>
@@ -3281,7 +4069,7 @@
         <v>599.54399999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>70.34</v>
       </c>
@@ -3289,7 +4077,7 @@
         <v>653.03099999999995</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>81.03</v>
       </c>
@@ -3297,7 +4085,7 @@
         <v>684.23099999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>91.72</v>
       </c>
@@ -3305,7 +4093,7 @@
         <v>691.86599999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>102.41</v>
       </c>
@@ -3313,7 +4101,7 @@
         <v>691.87900000000002</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>113.1</v>
       </c>
@@ -3321,7 +4109,7 @@
         <v>691.87900000000002</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>123.79</v>
       </c>
@@ -3329,7 +4117,7 @@
         <v>691.87900000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>134.47999999999999</v>
       </c>
@@ -3337,7 +4125,7 @@
         <v>691.87</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>145.16999999999999</v>
       </c>
@@ -3345,7 +4133,7 @@
         <v>688.08</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>155.86000000000001</v>
       </c>
@@ -3353,7 +4141,7 @@
         <v>667.70699999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>166.55</v>
       </c>
@@ -3361,7 +4149,7 @@
         <v>631.41899999999998</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>177.24</v>
       </c>
@@ -3369,7 +4157,7 @@
         <v>575.90300000000002</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>187.93</v>
       </c>
@@ -3377,7 +4165,7 @@
         <v>496.43</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>198.62</v>
       </c>
@@ -3385,7 +4173,7 @@
         <v>389.137</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>209.31</v>
       </c>
@@ -3393,7 +4181,7 @@
         <v>250.517</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>220</v>
       </c>
@@ -3401,12 +4189,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>40</v>
       </c>
@@ -3414,7 +4202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>41</v>
       </c>
@@ -3422,7 +4210,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>163.87799999999999</v>
       </c>
@@ -3430,7 +4218,7 @@
         <v>250.64099999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>177.90799999999999</v>
       </c>
@@ -3438,7 +4226,7 @@
         <v>220.95699999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>191.93899999999999</v>
       </c>
@@ -3446,7 +4234,7 @@
         <v>176.054</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>205.97</v>
       </c>
@@ -3454,7 +4242,7 @@
         <v>112.82</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>220</v>
       </c>
@@ -3462,12 +4250,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>46</v>
       </c>
@@ -3475,7 +4263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>40</v>
       </c>
@@ -3483,7 +4271,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>47</v>
       </c>
@@ -3518,7 +4306,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>-4.49</v>
       </c>
@@ -3553,7 +4341,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>6.2</v>
       </c>
@@ -3588,7 +4376,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>16.89</v>
       </c>
@@ -3623,7 +4411,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>27.58</v>
       </c>
@@ -3658,7 +4446,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>38.270000000000003</v>
       </c>
@@ -3693,7 +4481,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>48.96</v>
       </c>
@@ -3728,7 +4516,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>59.65</v>
       </c>
@@ -3763,7 +4551,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>70.34</v>
       </c>
@@ -3798,7 +4586,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>81.03</v>
       </c>
@@ -3833,7 +4621,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>91.72</v>
       </c>
@@ -3868,7 +4656,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>102.41</v>
       </c>
@@ -3903,7 +4691,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113.1</v>
       </c>
@@ -3938,7 +4726,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>123.79</v>
       </c>
@@ -3973,7 +4761,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>134.47999999999999</v>
       </c>
@@ -4008,7 +4796,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>145.16999999999999</v>
       </c>
@@ -4043,7 +4831,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>155.86000000000001</v>
       </c>
@@ -4078,7 +4866,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>166.55</v>
       </c>
@@ -4113,7 +4901,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>177.24</v>
       </c>
@@ -4148,7 +4936,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>187.93</v>
       </c>
@@ -4183,7 +4971,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>198.62</v>
       </c>
@@ -4218,7 +5006,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>209.31</v>
       </c>
@@ -4253,7 +5041,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>220</v>
       </c>
@@ -4288,12 +5076,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>59</v>
       </c>
@@ -4301,7 +5089,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>60</v>
       </c>
@@ -4309,7 +5097,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>61</v>
       </c>
@@ -4317,7 +5105,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>62</v>
       </c>
@@ -4325,7 +5113,7 @@
         <v>7.9989999999999997</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>63</v>
       </c>
@@ -4333,7 +5121,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>64</v>
       </c>
@@ -4341,7 +5129,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>65</v>
       </c>
@@ -4349,7 +5137,7 @@
         <v>40260.036999999997</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>66</v>
       </c>
@@ -4357,7 +5145,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -4365,7 +5153,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>67</v>
       </c>
@@ -4373,7 +5161,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>68</v>
       </c>
@@ -4381,7 +5169,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>69</v>
       </c>
@@ -4389,7 +5177,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>12</v>
       </c>
@@ -4397,7 +5185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>70</v>
       </c>
@@ -4405,7 +5193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>71</v>
       </c>
@@ -4413,7 +5201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>72</v>
       </c>
@@ -4421,7 +5209,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>73</v>
       </c>
@@ -4429,7 +5217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>74</v>
       </c>
@@ -4437,7 +5225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>75</v>
       </c>
@@ -4445,7 +5233,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>76</v>
       </c>
@@ -4453,7 +5241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>77</v>
       </c>
@@ -4461,17 +5249,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>80</v>
       </c>
@@ -4512,7 +5300,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>19</v>
       </c>
@@ -4553,12 +5341,12 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>40</v>
       </c>
@@ -4566,7 +5354,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>80</v>
       </c>
@@ -4607,7 +5395,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>6</v>
       </c>
@@ -4648,7 +5436,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>7</v>
       </c>
@@ -4689,7 +5477,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>8</v>
       </c>
@@ -4730,7 +5518,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>9</v>
       </c>
@@ -4771,7 +5559,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>10</v>
       </c>
@@ -4812,7 +5600,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>11</v>
       </c>
@@ -4853,7 +5641,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>12</v>
       </c>
@@ -4894,7 +5682,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>13</v>
       </c>
@@ -4935,7 +5723,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>14</v>
       </c>
@@ -4976,7 +5764,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>15</v>
       </c>
@@ -5017,7 +5805,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>16</v>
       </c>
@@ -5058,7 +5846,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>17</v>
       </c>
@@ -5099,7 +5887,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>18</v>
       </c>
@@ -5140,7 +5928,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>19</v>
       </c>
@@ -5181,7 +5969,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>20</v>
       </c>
@@ -5222,97 +6010,97 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>110</v>
       </c>
       <c r="B172">
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>111</v>
       </c>
       <c r="B176">
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B177">
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B178">
         <v>-10</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>114</v>
       </c>
       <c r="B181">
         <v>35</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B182">
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -5328,9 +6116,9 @@
       <selection sqref="A1:A183"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5338,7 +6126,7 @@
         <v>224.49</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5346,7 +6134,7 @@
         <v>34.99</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -5354,7 +6142,7 @@
         <v>20.995000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -5362,7 +6150,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -5370,7 +6158,7 @@
         <v>213.62100000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -5378,7 +6166,7 @@
         <v>96.47</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -5386,7 +6174,7 @@
         <v>136.72999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -5394,12 +6182,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -5407,7 +6195,7 @@
         <v>7.9950000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -5415,7 +6203,7 @@
         <v>7.9950000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -5423,7 +6211,7 @@
         <v>7.9950000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -5431,12 +6219,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -5444,7 +6232,7 @@
         <v>22.844999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -5452,7 +6240,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -5466,12 +6254,12 @@
         <v>7.9950000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -5479,7 +6267,7 @@
         <v>35469.19</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -5487,7 +6275,7 @@
         <v>118781.379</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -5501,7 +6289,7 @@
         <v>4.5449999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -5515,7 +6303,7 @@
         <v>11.615</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -5523,7 +6311,7 @@
         <v>0.58309999999999995</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -5531,12 +6319,12 @@
         <v>0.60050000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -5544,7 +6332,7 @@
         <v>5816.48</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -5558,7 +6346,7 @@
         <v>7.9950000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -5572,7 +6360,7 @@
         <v>16161000</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -5580,7 +6368,7 @@
         <v>7262.8789999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -5588,7 +6376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -5596,12 +6384,12 @@
         <v>237.024</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -5609,7 +6397,7 @@
         <v>9108.5580000000009</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -5623,7 +6411,7 @@
         <v>5.0339999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -5631,7 +6419,7 @@
         <v>163.87799999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -5639,7 +6427,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -5647,7 +6435,7 @@
         <v>1213.885</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -5661,7 +6449,7 @@
         <v>9.0280000000000005</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -5675,12 +6463,12 @@
         <v>316437.598</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -5688,7 +6476,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -5696,7 +6484,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>6.3789999999999996</v>
       </c>
@@ -5704,7 +6492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>16.552</v>
       </c>
@@ -5712,7 +6500,7 @@
         <v>10.693</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>26.724</v>
       </c>
@@ -5720,7 +6508,7 @@
         <v>39.119999999999997</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>36.896000000000001</v>
       </c>
@@ -5728,7 +6516,7 @@
         <v>77.635000000000005</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47.069000000000003</v>
       </c>
@@ -5736,7 +6524,7 @@
         <v>120.883</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>57.241</v>
       </c>
@@ -5744,7 +6532,7 @@
         <v>163.869</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>67.414000000000001</v>
       </c>
@@ -5752,7 +6540,7 @@
         <v>201.059</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>77.585999999999999</v>
       </c>
@@ -5760,7 +6548,7 @@
         <v>226.51900000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>87.759</v>
       </c>
@@ -5768,7 +6556,7 @@
         <v>236.488</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>97.930999999999997</v>
       </c>
@@ -5776,7 +6564,7 @@
         <v>237.024</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>108.10299999999999</v>
       </c>
@@ -5784,7 +6572,7 @@
         <v>237.024</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>118.276</v>
       </c>
@@ -5792,7 +6580,7 @@
         <v>237.024</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>128.44800000000001</v>
       </c>
@@ -5800,7 +6588,7 @@
         <v>237.024</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>138.62100000000001</v>
       </c>
@@ -5808,7 +6596,7 @@
         <v>236.89099999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>148.79300000000001</v>
       </c>
@@ -5816,7 +6604,7 @@
         <v>233.595</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>158.96600000000001</v>
       </c>
@@ -5824,7 +6612,7 @@
         <v>223.785</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>169.13800000000001</v>
       </c>
@@ -5832,7 +6620,7 @@
         <v>208.73099999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>179.31</v>
       </c>
@@ -5840,7 +6628,7 @@
         <v>187.733</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>189.483</v>
       </c>
@@ -5848,7 +6636,7 @@
         <v>159.72800000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>199.655</v>
       </c>
@@ -5856,7 +6644,7 @@
         <v>123.709</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>209.828</v>
       </c>
@@ -5864,7 +6652,7 @@
         <v>78.177000000000007</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>220</v>
       </c>
@@ -5872,12 +6660,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>40</v>
       </c>
@@ -5885,7 +6673,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>41</v>
       </c>
@@ -5893,7 +6681,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>-4.49</v>
       </c>
@@ -5901,7 +6689,7 @@
         <v>165.709</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>6.2</v>
       </c>
@@ -5909,7 +6697,7 @@
         <v>228.99700000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>16.89</v>
       </c>
@@ -5917,7 +6705,7 @@
         <v>300.29599999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>27.58</v>
       </c>
@@ -5925,7 +6713,7 @@
         <v>376.74400000000003</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>38.270000000000003</v>
       </c>
@@ -5933,7 +6721,7 @@
         <v>455.05200000000002</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>48.96</v>
       </c>
@@ -5941,7 +6729,7 @@
         <v>531.04700000000003</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>59.65</v>
       </c>
@@ -5949,7 +6737,7 @@
         <v>599.274</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>70.34</v>
       </c>
@@ -5957,7 +6745,7 @@
         <v>652.73900000000003</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>81.03</v>
       </c>
@@ -5965,7 +6753,7 @@
         <v>683.92600000000004</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>91.72</v>
       </c>
@@ -5973,7 +6761,7 @@
         <v>691.55799999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>102.41</v>
       </c>
@@ -5981,7 +6769,7 @@
         <v>691.57100000000003</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>113.1</v>
       </c>
@@ -5989,7 +6777,7 @@
         <v>691.57100000000003</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>123.79</v>
       </c>
@@ -5997,7 +6785,7 @@
         <v>691.57100000000003</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>134.47999999999999</v>
       </c>
@@ -6005,7 +6793,7 @@
         <v>691.56200000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>145.16999999999999</v>
       </c>
@@ -6013,7 +6801,7 @@
         <v>687.774</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>155.86000000000001</v>
       </c>
@@ -6021,7 +6809,7 @@
         <v>667.41300000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>166.55</v>
       </c>
@@ -6029,7 +6817,7 @@
         <v>631.14599999999996</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>177.24</v>
       </c>
@@ -6037,7 +6825,7 @@
         <v>575.66099999999994</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>187.93</v>
       </c>
@@ -6045,7 +6833,7 @@
         <v>496.22699999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>198.62</v>
       </c>
@@ -6053,7 +6841,7 @@
         <v>388.98399999999998</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>209.31</v>
       </c>
@@ -6061,7 +6849,7 @@
         <v>250.422</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>220</v>
       </c>
@@ -6069,12 +6857,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>40</v>
       </c>
@@ -6082,7 +6870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>41</v>
       </c>
@@ -6090,7 +6878,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>163.87799999999999</v>
       </c>
@@ -6098,7 +6886,7 @@
         <v>250.52500000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>177.90799999999999</v>
       </c>
@@ -6106,7 +6894,7 @@
         <v>220.86</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>191.93899999999999</v>
       </c>
@@ -6114,7 +6902,7 @@
         <v>175.98099999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>205.97</v>
       </c>
@@ -6122,7 +6910,7 @@
         <v>112.777</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>220</v>
       </c>
@@ -6130,12 +6918,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>46</v>
       </c>
@@ -6143,7 +6931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>40</v>
       </c>
@@ -6151,7 +6939,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>47</v>
       </c>
@@ -6186,7 +6974,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>-4.49</v>
       </c>
@@ -6221,7 +7009,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>6.2</v>
       </c>
@@ -6256,7 +7044,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>16.89</v>
       </c>
@@ -6291,7 +7079,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>27.58</v>
       </c>
@@ -6326,7 +7114,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>38.270000000000003</v>
       </c>
@@ -6361,7 +7149,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>48.96</v>
       </c>
@@ -6396,7 +7184,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>59.65</v>
       </c>
@@ -6431,7 +7219,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>70.34</v>
       </c>
@@ -6466,7 +7254,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>81.03</v>
       </c>
@@ -6501,7 +7289,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>91.72</v>
       </c>
@@ -6536,7 +7324,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>102.41</v>
       </c>
@@ -6571,7 +7359,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113.1</v>
       </c>
@@ -6606,7 +7394,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>123.79</v>
       </c>
@@ -6641,7 +7429,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>134.47999999999999</v>
       </c>
@@ -6676,7 +7464,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>145.16999999999999</v>
       </c>
@@ -6711,7 +7499,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>155.86000000000001</v>
       </c>
@@ -6746,7 +7534,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>166.55</v>
       </c>
@@ -6781,7 +7569,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>177.24</v>
       </c>
@@ -6816,7 +7604,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>187.93</v>
       </c>
@@ -6851,7 +7639,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>198.62</v>
       </c>
@@ -6886,7 +7674,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>209.31</v>
       </c>
@@ -6921,7 +7709,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>220</v>
       </c>
@@ -6956,12 +7744,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>59</v>
       </c>
@@ -6969,7 +7757,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>60</v>
       </c>
@@ -6977,7 +7765,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>61</v>
       </c>
@@ -6985,7 +7773,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>62</v>
       </c>
@@ -6993,7 +7781,7 @@
         <v>7.9950000000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>63</v>
       </c>
@@ -7001,7 +7789,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>64</v>
       </c>
@@ -7009,7 +7797,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>65</v>
       </c>
@@ -7017,7 +7805,7 @@
         <v>40260.036999999997</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>66</v>
       </c>
@@ -7025,7 +7813,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -7033,7 +7821,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>67</v>
       </c>
@@ -7041,7 +7829,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>68</v>
       </c>
@@ -7049,7 +7837,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>69</v>
       </c>
@@ -7057,7 +7845,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>12</v>
       </c>
@@ -7065,7 +7853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>70</v>
       </c>
@@ -7073,7 +7861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>71</v>
       </c>
@@ -7081,7 +7869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>72</v>
       </c>
@@ -7089,7 +7877,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>73</v>
       </c>
@@ -7097,7 +7885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>74</v>
       </c>
@@ -7105,7 +7893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>75</v>
       </c>
@@ -7113,7 +7901,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>76</v>
       </c>
@@ -7121,7 +7909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>77</v>
       </c>
@@ -7129,17 +7917,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>80</v>
       </c>
@@ -7180,7 +7968,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>19</v>
       </c>
@@ -7221,12 +8009,12 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>40</v>
       </c>
@@ -7234,7 +8022,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>80</v>
       </c>
@@ -7275,7 +8063,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>6</v>
       </c>
@@ -7316,7 +8104,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>7</v>
       </c>
@@ -7357,7 +8145,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>8</v>
       </c>
@@ -7398,7 +8186,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>9</v>
       </c>
@@ -7439,7 +8227,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>10</v>
       </c>
@@ -7480,7 +8268,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>11</v>
       </c>
@@ -7521,7 +8309,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>12</v>
       </c>
@@ -7562,7 +8350,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>13</v>
       </c>
@@ -7603,7 +8391,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>14</v>
       </c>
@@ -7644,7 +8432,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>15</v>
       </c>
@@ -7685,7 +8473,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>16</v>
       </c>
@@ -7726,7 +8514,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>17</v>
       </c>
@@ -7767,7 +8555,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>18</v>
       </c>
@@ -7808,7 +8596,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>19</v>
       </c>
@@ -7849,7 +8637,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>20</v>
       </c>
@@ -7890,97 +8678,97 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>110</v>
       </c>
       <c r="B172">
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>111</v>
       </c>
       <c r="B176">
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B177">
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B178">
         <v>-10</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>114</v>
       </c>
       <c r="B181">
         <v>35</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B182">
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -7992,13 +8780,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E64EC4-E7F8-4D54-8803-3958E9902EDD}">
   <dimension ref="A2:M183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -8006,7 +8794,7 @@
         <v>224.49</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -8014,7 +8802,7 @@
         <v>34.979999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -8022,7 +8810,7 @@
         <v>20.99</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -8030,7 +8818,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -8038,7 +8826,7 @@
         <v>213.602</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -8046,7 +8834,7 @@
         <v>96.47</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -8054,7 +8842,7 @@
         <v>136.72999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -8062,12 +8850,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -8075,7 +8863,7 @@
         <v>7.99</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -8083,7 +8871,7 @@
         <v>7.99</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -8091,7 +8879,7 @@
         <v>7.99</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -8099,12 +8887,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -8112,7 +8900,7 @@
         <v>22.84</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -8120,7 +8908,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -8134,12 +8922,12 @@
         <v>7.99</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -8147,7 +8935,7 @@
         <v>35429.917999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -8155,7 +8943,7 @@
         <v>118716.12699999999</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -8169,7 +8957,7 @@
         <v>4.5419999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -8183,7 +8971,7 @@
         <v>11.613</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -8191,7 +8979,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -8199,12 +8987,12 @@
         <v>0.60050000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -8212,7 +9000,7 @@
         <v>5814.1059999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -8226,7 +9014,7 @@
         <v>7.99</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -8240,7 +9028,7 @@
         <v>16152000</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -8248,7 +9036,7 @@
         <v>7258.97</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -8256,7 +9044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -8264,12 +9052,12 @@
         <v>236.77199999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -8277,7 +9065,7 @@
         <v>9103.7520000000004</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -8291,7 +9079,7 @@
         <v>5.0330000000000004</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -8299,7 +9087,7 @@
         <v>163.87799999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -8307,7 +9095,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -8315,7 +9103,7 @@
         <v>1213.559</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -8329,7 +9117,7 @@
         <v>9.0259999999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -8343,12 +9131,12 @@
         <v>316317.033</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -8356,7 +9144,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -8364,7 +9152,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>6.3979999999999997</v>
       </c>
@@ -8372,7 +9160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>16.57</v>
       </c>
@@ -8380,7 +9168,7 @@
         <v>10.686999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>26.741</v>
       </c>
@@ -8388,7 +9176,7 @@
         <v>39.093000000000004</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>36.912999999999997</v>
       </c>
@@ -8396,7 +9184,7 @@
         <v>77.576999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47.084000000000003</v>
       </c>
@@ -8404,7 +9192,7 @@
         <v>120.78700000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>57.256</v>
       </c>
@@ -8412,7 +9200,7 @@
         <v>163.72900000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>67.427000000000007</v>
       </c>
@@ -8420,7 +9208,7 @@
         <v>200.876</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>77.599000000000004</v>
       </c>
@@ -8428,7 +9216,7 @@
         <v>226.29599999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>87.77</v>
       </c>
@@ -8436,7 +9224,7 @@
         <v>236.239</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>97.941999999999993</v>
       </c>
@@ -8444,7 +9232,7 @@
         <v>236.77199999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>108.113</v>
       </c>
@@ -8452,7 +9240,7 @@
         <v>236.77199999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>118.285</v>
       </c>
@@ -8460,7 +9248,7 @@
         <v>236.77199999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>128.45599999999999</v>
       </c>
@@ -8468,7 +9256,7 @@
         <v>236.77199999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>138.62799999999999</v>
       </c>
@@ -8476,7 +9264,7 @@
         <v>236.63800000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>148.80000000000001</v>
       </c>
@@ -8484,7 +9272,7 @@
         <v>233.34200000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>158.971</v>
       </c>
@@ -8492,7 +9280,7 @@
         <v>223.54400000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>169.143</v>
       </c>
@@ -8500,7 +9288,7 @@
         <v>208.50700000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>179.31399999999999</v>
       </c>
@@ -8508,7 +9296,7 @@
         <v>187.53399999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>189.48599999999999</v>
       </c>
@@ -8516,7 +9304,7 @@
         <v>159.56100000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>199.65700000000001</v>
       </c>
@@ -8524,7 +9312,7 @@
         <v>123.581</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>209.82900000000001</v>
       </c>
@@ -8532,7 +9320,7 @@
         <v>78.096999999999994</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>220</v>
       </c>
@@ -8540,12 +9328,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>40</v>
       </c>
@@ -8553,7 +9341,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>41</v>
       </c>
@@ -8561,7 +9349,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>-4.49</v>
       </c>
@@ -8569,7 +9357,7 @@
         <v>165.62299999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>6.2</v>
       </c>
@@ -8577,7 +9365,7 @@
         <v>228.869</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>16.89</v>
       </c>
@@ -8585,7 +9373,7 @@
         <v>300.125</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>27.58</v>
       </c>
@@ -8593,7 +9381,7 @@
         <v>376.52800000000002</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>38.270000000000003</v>
       </c>
@@ -8601,7 +9389,7 @@
         <v>454.79199999999997</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>48.96</v>
       </c>
@@ -8609,7 +9397,7 @@
         <v>530.74599999999998</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>59.65</v>
       </c>
@@ -8617,7 +9405,7 @@
         <v>598.93700000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>70.34</v>
       </c>
@@ -8625,7 +9413,7 @@
         <v>652.37400000000002</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>81.03</v>
       </c>
@@ -8633,7 +9421,7 @@
         <v>683.54499999999996</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>91.72</v>
       </c>
@@ -8641,7 +9429,7 @@
         <v>691.173</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>102.41</v>
       </c>
@@ -8649,7 +9437,7 @@
         <v>691.18600000000004</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>113.1</v>
       </c>
@@ -8657,7 +9445,7 @@
         <v>691.18600000000004</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>123.79</v>
       </c>
@@ -8665,7 +9453,7 @@
         <v>691.18600000000004</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>134.47999999999999</v>
       </c>
@@ -8673,7 +9461,7 @@
         <v>691.178</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>145.16999999999999</v>
       </c>
@@ -8681,7 +9469,7 @@
         <v>687.39200000000005</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>155.86000000000001</v>
       </c>
@@ -8689,7 +9477,7 @@
         <v>667.04600000000005</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>166.55</v>
       </c>
@@ -8697,7 +9485,7 @@
         <v>630.80499999999995</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>177.24</v>
       </c>
@@ -8705,7 +9493,7 @@
         <v>575.35799999999995</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>187.93</v>
       </c>
@@ -8713,7 +9501,7 @@
         <v>495.97399999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>198.62</v>
       </c>
@@ -8721,7 +9509,7 @@
         <v>388.791</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>209.31</v>
       </c>
@@ -8729,7 +9517,7 @@
         <v>250.30199999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>220</v>
       </c>
@@ -8737,12 +9525,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>40</v>
       </c>
@@ -8750,7 +9538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>41</v>
       </c>
@@ -8758,7 +9546,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>163.87799999999999</v>
       </c>
@@ -8766,7 +9554,7 @@
         <v>250.381</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>177.90799999999999</v>
       </c>
@@ -8774,7 +9562,7 @@
         <v>220.74</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>191.93899999999999</v>
       </c>
@@ -8782,7 +9570,7 @@
         <v>175.89099999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>205.97</v>
       </c>
@@ -8790,7 +9578,7 @@
         <v>112.723</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>220</v>
       </c>
@@ -8798,12 +9586,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>46</v>
       </c>
@@ -8811,7 +9599,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>40</v>
       </c>
@@ -8819,7 +9607,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>47</v>
       </c>
@@ -8854,7 +9642,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>-4.49</v>
       </c>
@@ -8889,7 +9677,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>6.2</v>
       </c>
@@ -8924,7 +9712,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>16.89</v>
       </c>
@@ -8959,7 +9747,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>27.58</v>
       </c>
@@ -8994,7 +9782,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>38.270000000000003</v>
       </c>
@@ -9029,7 +9817,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>48.96</v>
       </c>
@@ -9064,7 +9852,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>59.65</v>
       </c>
@@ -9099,7 +9887,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>70.34</v>
       </c>
@@ -9134,7 +9922,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>81.03</v>
       </c>
@@ -9169,7 +9957,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>91.72</v>
       </c>
@@ -9204,7 +9992,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>102.41</v>
       </c>
@@ -9239,7 +10027,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113.1</v>
       </c>
@@ -9274,7 +10062,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>123.79</v>
       </c>
@@ -9309,7 +10097,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>134.47999999999999</v>
       </c>
@@ -9344,7 +10132,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>145.16999999999999</v>
       </c>
@@ -9379,7 +10167,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>155.86000000000001</v>
       </c>
@@ -9414,7 +10202,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>166.55</v>
       </c>
@@ -9449,7 +10237,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>177.24</v>
       </c>
@@ -9484,7 +10272,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>187.93</v>
       </c>
@@ -9519,7 +10307,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>198.62</v>
       </c>
@@ -9554,7 +10342,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>209.31</v>
       </c>
@@ -9589,7 +10377,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>220</v>
       </c>
@@ -9624,12 +10412,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>59</v>
       </c>
@@ -9637,7 +10425,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>60</v>
       </c>
@@ -9645,7 +10433,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>61</v>
       </c>
@@ -9653,7 +10441,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>62</v>
       </c>
@@ -9661,7 +10449,7 @@
         <v>7.99</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>63</v>
       </c>
@@ -9669,7 +10457,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>64</v>
       </c>
@@ -9677,7 +10465,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>65</v>
       </c>
@@ -9685,7 +10473,7 @@
         <v>40260.036999999997</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>66</v>
       </c>
@@ -9693,7 +10481,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -9701,7 +10489,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>67</v>
       </c>
@@ -9709,7 +10497,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>68</v>
       </c>
@@ -9717,7 +10505,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>69</v>
       </c>
@@ -9725,7 +10513,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>12</v>
       </c>
@@ -9733,7 +10521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>70</v>
       </c>
@@ -9741,7 +10529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>71</v>
       </c>
@@ -9749,7 +10537,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>72</v>
       </c>
@@ -9757,7 +10545,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>73</v>
       </c>
@@ -9765,7 +10553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>74</v>
       </c>
@@ -9773,7 +10561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>75</v>
       </c>
@@ -9781,7 +10569,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>76</v>
       </c>
@@ -9789,7 +10577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>77</v>
       </c>
@@ -9797,17 +10585,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>80</v>
       </c>
@@ -9848,7 +10636,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>19</v>
       </c>
@@ -9889,12 +10677,12 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>40</v>
       </c>
@@ -9902,7 +10690,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>80</v>
       </c>
@@ -9943,7 +10731,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>6</v>
       </c>
@@ -9984,7 +10772,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>7</v>
       </c>
@@ -10025,7 +10813,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>8</v>
       </c>
@@ -10066,7 +10854,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>9</v>
       </c>
@@ -10107,7 +10895,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>10</v>
       </c>
@@ -10148,7 +10936,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>11</v>
       </c>
@@ -10189,7 +10977,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>12</v>
       </c>
@@ -10230,7 +11018,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>13</v>
       </c>
@@ -10271,7 +11059,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>14</v>
       </c>
@@ -10312,7 +11100,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>15</v>
       </c>
@@ -10353,7 +11141,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>16</v>
       </c>
@@ -10394,7 +11182,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>17</v>
       </c>
@@ -10435,7 +11223,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>18</v>
       </c>
@@ -10476,7 +11264,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>19</v>
       </c>
@@ -10517,7 +11305,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>20</v>
       </c>
@@ -10558,97 +11346,97 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>110</v>
       </c>
       <c r="B172">
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>111</v>
       </c>
       <c r="B176">
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B177">
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B178">
         <v>-10</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>114</v>
       </c>
       <c r="B181">
         <v>35</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B182">
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/IP.xlsx
+++ b/IP.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2ee38df677a9f564/Documenten/Maritieme techniek/Q4/IP-26-1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2ee38df677a9f564/Documenten/Maritieme techniek/Q4/IP-26/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_4C915E84F1DA5803874F3EBF6A279AC58B87A987" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34F4B7AF-FE26-4CC2-82D1-712D2206B032}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_4C915E84F1DA5803874F3EBF6A279AC58B87A987" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C800AEB9-4496-4DC7-9039-ED518AE6529C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="112">
   <si>
     <t>Loa  [m]</t>
   </si>
@@ -358,25 +358,7 @@
     <t>Deck is 13001 mm from WL</t>
   </si>
   <si>
-    <t>&lt;null&gt;</t>
-  </si>
-  <si>
-    <t>Runtime error SystemExitException: Position of LCB too far FWD</t>
-  </si>
-  <si>
-    <t>Traceback:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  line 75</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> in script</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Deck is 18353 mm from WL</t>
+    <t>Deck is 13053 mm from WL</t>
   </si>
 </sst>
 </file>
@@ -477,6 +459,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -767,9 +753,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:M157"/>
+  <dimension ref="A1:M183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -825,7 +811,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="7">
-        <v>173.44800000000001</v>
+        <v>213.43700000000001</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -862,7 +848,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="7">
-        <v>2.6469999999999998</v>
+        <v>7.9470000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -870,7 +856,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="7">
-        <v>2.6469999999999998</v>
+        <v>7.9470000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -878,7 +864,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="7">
-        <v>2.6469999999999998</v>
+        <v>7.9470000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -899,7 +885,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="7">
-        <v>16.417999999999999</v>
+        <v>22.791</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -915,13 +901,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="7">
-        <v>207.66200000000001</v>
+        <v>212.357</v>
       </c>
       <c r="C18" s="7">
-        <v>-5.234</v>
+        <v>5.234</v>
       </c>
       <c r="D18" s="7">
-        <v>2.6469999999999998</v>
+        <v>7.9470000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -934,7 +920,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="7">
-        <v>8224.5959999999995</v>
+        <v>35092.942999999999</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -950,13 +936,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="7">
-        <v>129.245</v>
+        <v>121.679</v>
       </c>
       <c r="C22" s="8">
         <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>1.49</v>
+        <v>4.5190000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -978,7 +964,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="7">
-        <v>0.4965</v>
+        <v>0.58230000000000004</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -986,7 +972,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="7">
-        <v>0.62970000000000004</v>
+        <v>0.60019999999999996</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -999,7 +985,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="7">
-        <v>4059.3229999999999</v>
+        <v>5793.6490000000003</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1007,13 +993,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="7">
-        <v>125.917</v>
+        <v>114.08199999999999</v>
       </c>
       <c r="C28" s="8">
         <v>0</v>
       </c>
       <c r="D28" s="7">
-        <v>2.6469999999999998</v>
+        <v>7.9470000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1021,13 +1007,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="7">
-        <v>225471.465</v>
+        <v>457765.05699999997</v>
       </c>
       <c r="C29" s="9">
-        <v>7739500</v>
+        <v>15616000</v>
       </c>
       <c r="D29" s="9">
-        <v>7964900</v>
+        <v>16074000</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1035,7 +1021,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="7">
-        <v>4272.7529999999997</v>
+        <v>7225.348</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1051,25 +1037,37 @@
         <v>30</v>
       </c>
       <c r="B32" s="7">
-        <v>63.997</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>234.602</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="1">
+        <v>9062.4670000000006</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="1">
+        <v>185.40199999999999</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
+        <v>5.0229999999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>34</v>
       </c>
@@ -1077,35 +1075,56 @@
         <v>163.87799999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="1">
+        <v>1210.7560000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="1">
+        <v>185.804</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
+        <v>9.0069999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="1">
+        <v>66519.578999999998</v>
+      </c>
+      <c r="C40" s="1">
+        <v>248761.64199999999</v>
+      </c>
+      <c r="D40" s="1">
+        <v>315281.22100000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>40</v>
       </c>
@@ -1113,7 +1132,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>41</v>
       </c>
@@ -1121,177 +1140,177 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7">
-        <v>45.04</v>
+        <v>6.5640000000000001</v>
       </c>
       <c r="B44" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7">
-        <v>53.3</v>
+        <v>16.727</v>
       </c>
       <c r="B45" s="7">
-        <v>11.407999999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>10.638999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7">
-        <v>61.558999999999997</v>
+        <v>26.890999999999998</v>
       </c>
       <c r="B46" s="7">
-        <v>28.866</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>38.869</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7">
-        <v>69.819000000000003</v>
+        <v>37.054000000000002</v>
       </c>
       <c r="B47" s="7">
-        <v>45.457000000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>77.081999999999994</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7">
-        <v>78.078000000000003</v>
+        <v>47.218000000000004</v>
       </c>
       <c r="B48" s="7">
-        <v>57.622999999999998</v>
+        <v>119.959</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7">
-        <v>86.337000000000003</v>
+        <v>57.381999999999998</v>
       </c>
       <c r="B49" s="7">
-        <v>63.29</v>
+        <v>162.53200000000001</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7">
-        <v>94.596999999999994</v>
+        <v>67.545000000000002</v>
       </c>
       <c r="B50" s="7">
-        <v>63.997</v>
+        <v>199.303</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
-        <v>102.85599999999999</v>
+        <v>77.709000000000003</v>
       </c>
       <c r="B51" s="7">
-        <v>63.997</v>
+        <v>224.38200000000001</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7">
-        <v>111.116</v>
+        <v>87.873000000000005</v>
       </c>
       <c r="B52" s="7">
-        <v>63.997</v>
+        <v>234.102</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7">
-        <v>119.375</v>
+        <v>98.036000000000001</v>
       </c>
       <c r="B53" s="7">
-        <v>63.997</v>
+        <v>234.602</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7">
-        <v>127.63500000000001</v>
+        <v>108.2</v>
       </c>
       <c r="B54" s="7">
-        <v>63.997</v>
+        <v>234.602</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7">
-        <v>135.89400000000001</v>
+        <v>118.364</v>
       </c>
       <c r="B55" s="7">
-        <v>63.988999999999997</v>
+        <v>234.602</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7">
-        <v>144.15299999999999</v>
+        <v>128.52699999999999</v>
       </c>
       <c r="B56" s="7">
-        <v>63.537999999999997</v>
+        <v>234.602</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7">
-        <v>152.41300000000001</v>
+        <v>138.691</v>
       </c>
       <c r="B57" s="7">
-        <v>61.509</v>
+        <v>234.46600000000001</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7">
-        <v>160.672</v>
+        <v>148.85499999999999</v>
       </c>
       <c r="B58" s="7">
-        <v>57.972000000000001</v>
+        <v>231.17699999999999</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7">
-        <v>168.93199999999999</v>
+        <v>159.018</v>
       </c>
       <c r="B59" s="7">
-        <v>53.436</v>
+        <v>221.471</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7">
-        <v>177.191</v>
+        <v>169.18199999999999</v>
       </c>
       <c r="B60" s="8">
-        <v>48</v>
+        <v>206.59</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7">
-        <v>185.45</v>
+        <v>179.346</v>
       </c>
       <c r="B61" s="7">
-        <v>41.69</v>
+        <v>185.82599999999999</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="7">
-        <v>193.71</v>
+        <v>189.50899999999999</v>
       </c>
       <c r="B62" s="7">
-        <v>34.478000000000002</v>
+        <v>158.12200000000001</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="7">
-        <v>201.96899999999999</v>
+        <v>199.673</v>
       </c>
       <c r="B63" s="7">
-        <v>26.305</v>
+        <v>122.479</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="7">
-        <v>210.22900000000001</v>
+        <v>209.83699999999999</v>
       </c>
       <c r="B64" s="7">
-        <v>16.478999999999999</v>
+        <v>77.409000000000006</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="7">
-        <v>218.488</v>
+        <v>220</v>
       </c>
       <c r="B65" s="8">
         <v>0</v>
@@ -1504,7 +1523,7 @@
         <v>40</v>
       </c>
       <c r="B92" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1516,236 +1535,168 @@
       </c>
     </row>
     <row r="94" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>163.87799999999999</v>
+      </c>
       <c r="B94" s="8">
-        <v>0</v>
+        <v>249.14</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="6" t="s">
+      <c r="A95" s="6">
+        <v>177.90799999999999</v>
+      </c>
+      <c r="B95" s="1">
+        <v>219.703</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="6">
+        <v>191.93899999999999</v>
+      </c>
+      <c r="B96" s="8">
+        <v>175.114</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="6">
+        <v>205.97</v>
+      </c>
+      <c r="B97" s="8">
+        <v>112.256</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="6">
+        <v>220</v>
+      </c>
+      <c r="B98" s="6">
+        <v>0</v>
+      </c>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="6"/>
+    </row>
+    <row r="99" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="7" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="6" t="s">
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="7"/>
+      <c r="J99" s="7"/>
+      <c r="K99" s="8"/>
+    </row>
+    <row r="100" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B96" s="8">
+      <c r="B100" s="7">
         <v>53</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="6" t="s">
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="7"/>
+      <c r="J100" s="7"/>
+      <c r="K100" s="8"/>
+    </row>
+    <row r="101" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B97" s="8">
+      <c r="B101" s="7">
         <v>22</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="6" t="s">
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="7"/>
+      <c r="J101" s="7"/>
+      <c r="K101" s="8"/>
+    </row>
+    <row r="102" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B102" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C98" s="6" t="s">
+      <c r="C102" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D98" s="6" t="s">
+      <c r="D102" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E98" s="6" t="s">
+      <c r="E102" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F98" s="10" t="s">
+      <c r="F102" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G98" s="6" t="s">
+      <c r="G102" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H98" s="6" t="s">
+      <c r="H102" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I98" s="6" t="s">
+      <c r="I102" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="J98" s="6" t="s">
+      <c r="J102" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K98" s="6" t="s">
+      <c r="K102" s="8" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="7">
-        <v>-4.49</v>
-      </c>
-      <c r="B99" s="7">
-        <v>55.426000000000002</v>
-      </c>
-      <c r="C99" s="7">
-        <v>2.948</v>
-      </c>
-      <c r="D99" s="7">
-        <v>-4.49</v>
-      </c>
-      <c r="E99" s="8">
-        <v>0</v>
-      </c>
-      <c r="F99" s="7">
-        <v>17.201000000000001</v>
-      </c>
-      <c r="G99" s="7">
-        <v>195.41</v>
-      </c>
-      <c r="H99" s="7">
-        <v>45.043999999999997</v>
-      </c>
-      <c r="I99" s="7">
-        <v>150.36500000000001</v>
-      </c>
-      <c r="J99" s="7">
-        <v>10.016999999999999</v>
-      </c>
-      <c r="K99" s="8">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="7">
-        <v>6.2</v>
-      </c>
-      <c r="B100" s="7">
-        <v>62.704000000000001</v>
-      </c>
-      <c r="C100" s="7">
-        <v>3.3340000000000001</v>
-      </c>
-      <c r="D100" s="7">
-        <v>6.2</v>
-      </c>
-      <c r="E100" s="8">
-        <v>0</v>
-      </c>
-      <c r="F100" s="7">
-        <v>16.268000000000001</v>
-      </c>
-      <c r="G100" s="7">
-        <v>288.89800000000002</v>
-      </c>
-      <c r="H100" s="7">
-        <v>77.028000000000006</v>
-      </c>
-      <c r="I100" s="7">
-        <v>211.87</v>
-      </c>
-      <c r="J100" s="7">
-        <v>7.9539999999999997</v>
-      </c>
-      <c r="K100" s="8">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="7">
-        <v>16.89</v>
-      </c>
-      <c r="B101" s="7">
-        <v>70.040999999999997</v>
-      </c>
-      <c r="C101" s="7">
-        <v>3.7229999999999999</v>
-      </c>
-      <c r="D101" s="7">
-        <v>16.89</v>
-      </c>
-      <c r="E101" s="8">
-        <v>0</v>
-      </c>
-      <c r="F101" s="7">
-        <v>15.347</v>
-      </c>
-      <c r="G101" s="7">
-        <v>408.59699999999998</v>
-      </c>
-      <c r="H101" s="7">
-        <v>118.39100000000001</v>
-      </c>
-      <c r="I101" s="7">
-        <v>290.20600000000002</v>
-      </c>
-      <c r="J101" s="7">
-        <v>6.2409999999999997</v>
-      </c>
-      <c r="K101" s="8">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="7">
-        <v>27.58</v>
-      </c>
-      <c r="B102" s="7">
-        <v>77.313000000000002</v>
-      </c>
-      <c r="C102" s="7">
-        <v>4.1079999999999997</v>
-      </c>
-      <c r="D102" s="7">
-        <v>27.58</v>
-      </c>
-      <c r="E102" s="8">
-        <v>0</v>
-      </c>
-      <c r="F102" s="7">
-        <v>14.459</v>
-      </c>
-      <c r="G102" s="7">
-        <v>553.649</v>
-      </c>
-      <c r="H102" s="7">
-        <v>168.23400000000001</v>
-      </c>
-      <c r="I102" s="7">
-        <v>385.41500000000002</v>
-      </c>
-      <c r="J102" s="7">
-        <v>4.7249999999999996</v>
-      </c>
-      <c r="K102" s="8">
-        <v>21</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="7">
-        <v>38.270000000000003</v>
+        <v>-4.49</v>
       </c>
       <c r="B103" s="7">
-        <v>84.278000000000006</v>
+        <v>55.426000000000002</v>
       </c>
       <c r="C103" s="7">
-        <v>4.4770000000000003</v>
+        <v>2.948</v>
       </c>
       <c r="D103" s="7">
-        <v>38.270000000000003</v>
+        <v>-4.49</v>
       </c>
       <c r="E103" s="8">
         <v>0</v>
       </c>
       <c r="F103" s="7">
-        <v>13.632</v>
+        <v>17.201000000000001</v>
       </c>
       <c r="G103" s="7">
-        <v>719.21400000000006</v>
+        <v>195.41</v>
       </c>
       <c r="H103" s="7">
-        <v>224.435</v>
+        <v>45.043999999999997</v>
       </c>
       <c r="I103" s="7">
-        <v>494.779</v>
+        <v>150.36500000000001</v>
       </c>
       <c r="J103" s="7">
-        <v>3.3690000000000002</v>
+        <v>10.016999999999999</v>
       </c>
       <c r="K103" s="8">
         <v>21</v>
@@ -1753,34 +1704,34 @@
     </row>
     <row r="104" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7">
-        <v>48.96</v>
+        <v>6.2</v>
       </c>
       <c r="B104" s="7">
-        <v>90.649000000000001</v>
+        <v>62.704000000000001</v>
       </c>
       <c r="C104" s="7">
-        <v>4.8150000000000004</v>
+        <v>3.3340000000000001</v>
       </c>
       <c r="D104" s="7">
-        <v>48.96</v>
+        <v>6.2</v>
       </c>
       <c r="E104" s="8">
         <v>0</v>
       </c>
       <c r="F104" s="7">
-        <v>12.891999999999999</v>
+        <v>16.268000000000001</v>
       </c>
       <c r="G104" s="7">
-        <v>895.39499999999998</v>
+        <v>288.89800000000002</v>
       </c>
       <c r="H104" s="7">
-        <v>283.42599999999999</v>
+        <v>77.028000000000006</v>
       </c>
       <c r="I104" s="7">
-        <v>611.97</v>
+        <v>211.87</v>
       </c>
       <c r="J104" s="7">
-        <v>2.1789999999999998</v>
+        <v>7.9539999999999997</v>
       </c>
       <c r="K104" s="8">
         <v>21</v>
@@ -1788,34 +1739,34 @@
     </row>
     <row r="105" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="7">
-        <v>59.65</v>
+        <v>16.89</v>
       </c>
       <c r="B105" s="7">
-        <v>96.090999999999994</v>
+        <v>70.040999999999997</v>
       </c>
       <c r="C105" s="7">
-        <v>5.1029999999999998</v>
+        <v>3.7229999999999999</v>
       </c>
       <c r="D105" s="7">
-        <v>59.65</v>
+        <v>16.89</v>
       </c>
       <c r="E105" s="8">
         <v>0</v>
       </c>
       <c r="F105" s="7">
-        <v>12.272</v>
+        <v>15.347</v>
       </c>
       <c r="G105" s="7">
-        <v>1065.9290000000001</v>
+        <v>408.59699999999998</v>
       </c>
       <c r="H105" s="7">
-        <v>339.80700000000002</v>
+        <v>118.39100000000001</v>
       </c>
       <c r="I105" s="7">
-        <v>726.12099999999998</v>
+        <v>290.20600000000002</v>
       </c>
       <c r="J105" s="7">
-        <v>1.19</v>
+        <v>6.2409999999999997</v>
       </c>
       <c r="K105" s="8">
         <v>21</v>
@@ -1823,34 +1774,34 @@
     </row>
     <row r="106" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="7">
-        <v>70.34</v>
+        <v>27.58</v>
       </c>
       <c r="B106" s="7">
-        <v>100.191</v>
+        <v>77.313000000000002</v>
       </c>
       <c r="C106" s="7">
-        <v>5.32</v>
+        <v>4.1079999999999997</v>
       </c>
       <c r="D106" s="7">
-        <v>70.34</v>
+        <v>27.58</v>
       </c>
       <c r="E106" s="8">
         <v>0</v>
       </c>
       <c r="F106" s="7">
-        <v>11.811</v>
+        <v>14.459</v>
       </c>
       <c r="G106" s="7">
-        <v>1207.2190000000001</v>
+        <v>553.649</v>
       </c>
       <c r="H106" s="7">
-        <v>386.07400000000001</v>
+        <v>168.23400000000001</v>
       </c>
       <c r="I106" s="7">
-        <v>821.14499999999998</v>
+        <v>385.41500000000002</v>
       </c>
       <c r="J106" s="7">
-        <v>0.45900000000000002</v>
+        <v>4.7249999999999996</v>
       </c>
       <c r="K106" s="8">
         <v>21</v>
@@ -1858,34 +1809,34 @@
     </row>
     <row r="107" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="7">
-        <v>81.03</v>
+        <v>38.270000000000003</v>
       </c>
       <c r="B107" s="7">
-        <v>102.523</v>
+        <v>84.278000000000006</v>
       </c>
       <c r="C107" s="7">
-        <v>5.444</v>
+        <v>4.4770000000000003</v>
       </c>
       <c r="D107" s="7">
-        <v>81.03</v>
+        <v>38.270000000000003</v>
       </c>
       <c r="E107" s="8">
         <v>0</v>
       </c>
       <c r="F107" s="7">
-        <v>11.551</v>
+        <v>13.632</v>
       </c>
       <c r="G107" s="7">
-        <v>1292.788</v>
+        <v>719.21400000000006</v>
       </c>
       <c r="H107" s="7">
-        <v>413.89</v>
+        <v>224.435</v>
       </c>
       <c r="I107" s="7">
-        <v>878.89800000000002</v>
+        <v>494.779</v>
       </c>
       <c r="J107" s="7">
-        <v>4.5999999999999999E-2</v>
+        <v>3.3690000000000002</v>
       </c>
       <c r="K107" s="8">
         <v>21</v>
@@ -1893,34 +1844,34 @@
     </row>
     <row r="108" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="7">
-        <v>91.72</v>
+        <v>48.96</v>
       </c>
       <c r="B108" s="7">
-        <v>103.087</v>
+        <v>90.649000000000001</v>
       </c>
       <c r="C108" s="7">
-        <v>5.4740000000000002</v>
+        <v>4.8150000000000004</v>
       </c>
       <c r="D108" s="7">
-        <v>91.72</v>
+        <v>48.96</v>
       </c>
       <c r="E108" s="8">
         <v>0</v>
       </c>
       <c r="F108" s="7">
-        <v>11.488</v>
+        <v>12.891999999999999</v>
       </c>
       <c r="G108" s="7">
-        <v>1314.01</v>
+        <v>895.39499999999998</v>
       </c>
       <c r="H108" s="7">
-        <v>420.78899999999999</v>
+        <v>283.42599999999999</v>
       </c>
       <c r="I108" s="7">
-        <v>893.221</v>
+        <v>611.97</v>
       </c>
       <c r="J108" s="7">
-        <v>-5.2999999999999999E-2</v>
+        <v>2.1789999999999998</v>
       </c>
       <c r="K108" s="8">
         <v>21</v>
@@ -1928,34 +1879,34 @@
     </row>
     <row r="109" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="7">
-        <v>102.41</v>
+        <v>59.65</v>
       </c>
       <c r="B109" s="7">
-        <v>103.08799999999999</v>
+        <v>96.090999999999994</v>
       </c>
       <c r="C109" s="7">
-        <v>5.4740000000000002</v>
+        <v>5.1029999999999998</v>
       </c>
       <c r="D109" s="7">
-        <v>102.41</v>
+        <v>59.65</v>
       </c>
       <c r="E109" s="8">
         <v>0</v>
       </c>
       <c r="F109" s="7">
-        <v>11.487</v>
+        <v>12.272</v>
       </c>
       <c r="G109" s="7">
-        <v>1314.046</v>
+        <v>1065.9290000000001</v>
       </c>
       <c r="H109" s="7">
-        <v>420.80099999999999</v>
+        <v>339.80700000000002</v>
       </c>
       <c r="I109" s="7">
-        <v>893.245</v>
+        <v>726.12099999999998</v>
       </c>
       <c r="J109" s="7">
-        <v>-5.2999999999999999E-2</v>
+        <v>1.19</v>
       </c>
       <c r="K109" s="8">
         <v>21</v>
@@ -1963,34 +1914,34 @@
     </row>
     <row r="110" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="7">
-        <v>113.1</v>
+        <v>70.34</v>
       </c>
       <c r="B110" s="7">
-        <v>103.08799999999999</v>
+        <v>100.191</v>
       </c>
       <c r="C110" s="7">
-        <v>5.4740000000000002</v>
+        <v>5.32</v>
       </c>
       <c r="D110" s="7">
-        <v>113.1</v>
+        <v>70.34</v>
       </c>
       <c r="E110" s="8">
         <v>0</v>
       </c>
       <c r="F110" s="7">
-        <v>11.487</v>
+        <v>11.811</v>
       </c>
       <c r="G110" s="7">
-        <v>1314.046</v>
+        <v>1207.2190000000001</v>
       </c>
       <c r="H110" s="7">
-        <v>420.80099999999999</v>
+        <v>386.07400000000001</v>
       </c>
       <c r="I110" s="7">
-        <v>893.245</v>
+        <v>821.14499999999998</v>
       </c>
       <c r="J110" s="7">
-        <v>-5.2999999999999999E-2</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="K110" s="8">
         <v>21</v>
@@ -1998,34 +1949,34 @@
     </row>
     <row r="111" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="7">
-        <v>123.79</v>
+        <v>81.03</v>
       </c>
       <c r="B111" s="7">
-        <v>103.08799999999999</v>
+        <v>102.523</v>
       </c>
       <c r="C111" s="7">
-        <v>5.4740000000000002</v>
+        <v>5.444</v>
       </c>
       <c r="D111" s="7">
-        <v>123.79</v>
+        <v>81.03</v>
       </c>
       <c r="E111" s="8">
         <v>0</v>
       </c>
       <c r="F111" s="7">
-        <v>11.487</v>
+        <v>11.551</v>
       </c>
       <c r="G111" s="7">
-        <v>1314.046</v>
+        <v>1292.788</v>
       </c>
       <c r="H111" s="7">
-        <v>420.80099999999999</v>
+        <v>413.89</v>
       </c>
       <c r="I111" s="7">
-        <v>893.245</v>
+        <v>878.89800000000002</v>
       </c>
       <c r="J111" s="7">
-        <v>-5.2999999999999999E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="K111" s="8">
         <v>21</v>
@@ -2033,7 +1984,7 @@
     </row>
     <row r="112" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="7">
-        <v>134.47999999999999</v>
+        <v>91.72</v>
       </c>
       <c r="B112" s="7">
         <v>103.087</v>
@@ -2042,7 +1993,7 @@
         <v>5.4740000000000002</v>
       </c>
       <c r="D112" s="7">
-        <v>134.47999999999999</v>
+        <v>91.72</v>
       </c>
       <c r="E112" s="8">
         <v>0</v>
@@ -2051,13 +2002,13 @@
         <v>11.488</v>
       </c>
       <c r="G112" s="7">
-        <v>1314.0150000000001</v>
+        <v>1314.01</v>
       </c>
       <c r="H112" s="7">
-        <v>420.79599999999999</v>
+        <v>420.78899999999999</v>
       </c>
       <c r="I112" s="7">
-        <v>893.21900000000005</v>
+        <v>893.221</v>
       </c>
       <c r="J112" s="7">
         <v>-5.2999999999999999E-2</v>
@@ -2068,34 +2019,34 @@
     </row>
     <row r="113" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="7">
-        <v>145.16999999999999</v>
+        <v>102.41</v>
       </c>
       <c r="B113" s="7">
-        <v>102.744</v>
+        <v>103.08799999999999</v>
       </c>
       <c r="C113" s="7">
-        <v>5.4550000000000001</v>
+        <v>5.4740000000000002</v>
       </c>
       <c r="D113" s="7">
-        <v>145.16999999999999</v>
+        <v>102.41</v>
       </c>
       <c r="E113" s="8">
         <v>0</v>
       </c>
       <c r="F113" s="7">
-        <v>11.494</v>
+        <v>11.487</v>
       </c>
       <c r="G113" s="7">
-        <v>1301.1579999999999</v>
+        <v>1314.046</v>
       </c>
       <c r="H113" s="7">
-        <v>418.59399999999999</v>
+        <v>420.80099999999999</v>
       </c>
       <c r="I113" s="7">
-        <v>882.56399999999996</v>
+        <v>893.245</v>
       </c>
       <c r="J113" s="7">
-        <v>-5.0999999999999997E-2</v>
+        <v>-5.2999999999999999E-2</v>
       </c>
       <c r="K113" s="8">
         <v>21</v>
@@ -2103,34 +2054,34 @@
     </row>
     <row r="114" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="7">
-        <v>155.86000000000001</v>
+        <v>113.1</v>
       </c>
       <c r="B114" s="7">
-        <v>100.886</v>
+        <v>103.08799999999999</v>
       </c>
       <c r="C114" s="7">
-        <v>5.3570000000000002</v>
+        <v>5.4740000000000002</v>
       </c>
       <c r="D114" s="7">
-        <v>155.86000000000001</v>
+        <v>113.1</v>
       </c>
       <c r="E114" s="8">
         <v>0</v>
       </c>
       <c r="F114" s="7">
-        <v>11.528</v>
+        <v>11.487</v>
       </c>
       <c r="G114" s="7">
-        <v>1233.1179999999999</v>
+        <v>1314.046</v>
       </c>
       <c r="H114" s="7">
-        <v>406.74700000000001</v>
+        <v>420.80099999999999</v>
       </c>
       <c r="I114" s="7">
-        <v>826.37099999999998</v>
+        <v>893.245</v>
       </c>
       <c r="J114" s="7">
-        <v>-4.3999999999999997E-2</v>
+        <v>-5.2999999999999999E-2</v>
       </c>
       <c r="K114" s="8">
         <v>21</v>
@@ -2138,34 +2089,34 @@
     </row>
     <row r="115" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="7">
-        <v>166.55</v>
+        <v>123.79</v>
       </c>
       <c r="B115" s="7">
-        <v>97.507999999999996</v>
+        <v>103.08799999999999</v>
       </c>
       <c r="C115" s="7">
-        <v>5.1779999999999999</v>
+        <v>5.4740000000000002</v>
       </c>
       <c r="D115" s="7">
-        <v>166.55</v>
+        <v>123.79</v>
       </c>
       <c r="E115" s="8">
         <v>0</v>
       </c>
       <c r="F115" s="7">
-        <v>11.579000000000001</v>
+        <v>11.487</v>
       </c>
       <c r="G115" s="7">
-        <v>1115.982</v>
+        <v>1314.046</v>
       </c>
       <c r="H115" s="7">
-        <v>385.79700000000003</v>
+        <v>420.80099999999999</v>
       </c>
       <c r="I115" s="7">
-        <v>730.18499999999995</v>
+        <v>893.245</v>
       </c>
       <c r="J115" s="7">
-        <v>-3.5000000000000003E-2</v>
+        <v>-5.2999999999999999E-2</v>
       </c>
       <c r="K115" s="8">
         <v>21</v>
@@ -2173,34 +2124,34 @@
     </row>
     <row r="116" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="7">
-        <v>177.24</v>
+        <v>134.47999999999999</v>
       </c>
       <c r="B116" s="7">
-        <v>92.245999999999995</v>
+        <v>103.087</v>
       </c>
       <c r="C116" s="7">
-        <v>4.899</v>
+        <v>5.4740000000000002</v>
       </c>
       <c r="D116" s="7">
-        <v>177.24</v>
+        <v>134.47999999999999</v>
       </c>
       <c r="E116" s="8">
         <v>0</v>
       </c>
       <c r="F116" s="7">
-        <v>11.627000000000001</v>
+        <v>11.488</v>
       </c>
       <c r="G116" s="7">
-        <v>948.37800000000004</v>
+        <v>1314.0150000000001</v>
       </c>
       <c r="H116" s="7">
-        <v>354.85599999999999</v>
+        <v>420.79599999999999</v>
       </c>
       <c r="I116" s="7">
-        <v>593.52200000000005</v>
+        <v>893.21900000000005</v>
       </c>
       <c r="J116" s="7">
-        <v>-3.1E-2</v>
+        <v>-5.2999999999999999E-2</v>
       </c>
       <c r="K116" s="8">
         <v>21</v>
@@ -2208,34 +2159,34 @@
     </row>
     <row r="117" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="7">
-        <v>187.93</v>
+        <v>145.16999999999999</v>
       </c>
       <c r="B117" s="7">
-        <v>84.679000000000002</v>
+        <v>102.744</v>
       </c>
       <c r="C117" s="7">
-        <v>4.4980000000000002</v>
+        <v>5.4550000000000001</v>
       </c>
       <c r="D117" s="7">
-        <v>187.93</v>
+        <v>145.16999999999999</v>
       </c>
       <c r="E117" s="8">
         <v>0</v>
       </c>
       <c r="F117" s="7">
-        <v>11.663</v>
+        <v>11.494</v>
       </c>
       <c r="G117" s="7">
-        <v>736.71400000000006</v>
+        <v>1301.1579999999999</v>
       </c>
       <c r="H117" s="7">
-        <v>312.26600000000002</v>
+        <v>418.59399999999999</v>
       </c>
       <c r="I117" s="7">
-        <v>424.44799999999998</v>
+        <v>882.56399999999996</v>
       </c>
       <c r="J117" s="7">
-        <v>-3.3000000000000002E-2</v>
+        <v>-5.0999999999999997E-2</v>
       </c>
       <c r="K117" s="8">
         <v>21</v>
@@ -2243,34 +2194,34 @@
     </row>
     <row r="118" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="7">
-        <v>198.62</v>
+        <v>155.86000000000001</v>
       </c>
       <c r="B118" s="7">
-        <v>74.53</v>
+        <v>100.886</v>
       </c>
       <c r="C118" s="7">
-        <v>3.96</v>
+        <v>5.3570000000000002</v>
       </c>
       <c r="D118" s="7">
-        <v>198.62</v>
+        <v>155.86000000000001</v>
       </c>
       <c r="E118" s="8">
         <v>0</v>
       </c>
       <c r="F118" s="7">
-        <v>11.679</v>
+        <v>11.528</v>
       </c>
       <c r="G118" s="7">
-        <v>503.36700000000002</v>
+        <v>1233.1179999999999</v>
       </c>
       <c r="H118" s="7">
-        <v>256.86200000000002</v>
+        <v>406.74700000000001</v>
       </c>
       <c r="I118" s="7">
-        <v>246.506</v>
+        <v>826.37099999999998</v>
       </c>
       <c r="J118" s="7">
-        <v>-0.04</v>
+        <v>-4.3999999999999997E-2</v>
       </c>
       <c r="K118" s="8">
         <v>21</v>
@@ -2278,34 +2229,34 @@
     </row>
     <row r="119" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="7">
-        <v>209.31</v>
+        <v>166.55</v>
       </c>
       <c r="B119" s="7">
-        <v>61.683</v>
+        <v>97.507999999999996</v>
       </c>
       <c r="C119" s="7">
-        <v>3.2789999999999999</v>
+        <v>5.1779999999999999</v>
       </c>
       <c r="D119" s="7">
-        <v>209.31</v>
+        <v>166.55</v>
       </c>
       <c r="E119" s="8">
         <v>0</v>
       </c>
       <c r="F119" s="7">
-        <v>11.641999999999999</v>
+        <v>11.579000000000001</v>
       </c>
       <c r="G119" s="7">
-        <v>282.548</v>
+        <v>1115.982</v>
       </c>
       <c r="H119" s="7">
-        <v>187.52699999999999</v>
+        <v>385.79700000000003</v>
       </c>
       <c r="I119" s="7">
-        <v>95.02</v>
+        <v>730.18499999999995</v>
       </c>
       <c r="J119" s="7">
-        <v>-5.0999999999999997E-2</v>
+        <v>-3.5000000000000003E-2</v>
       </c>
       <c r="K119" s="8">
         <v>21</v>
@@ -2313,280 +2264,372 @@
     </row>
     <row r="120" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="8">
+        <v>177.24</v>
+      </c>
+      <c r="B120" s="8">
+        <v>92.245999999999995</v>
+      </c>
+      <c r="C120" s="8">
+        <v>4.899</v>
+      </c>
+      <c r="D120" s="8">
+        <v>177.24</v>
+      </c>
+      <c r="E120" s="8">
+        <v>0</v>
+      </c>
+      <c r="F120" s="7">
+        <v>11.627000000000001</v>
+      </c>
+      <c r="G120" s="8">
+        <v>948.37800000000004</v>
+      </c>
+      <c r="H120" s="8">
+        <v>354.85599999999999</v>
+      </c>
+      <c r="I120" s="8">
+        <v>593.52200000000005</v>
+      </c>
+      <c r="J120" s="8">
+        <v>-3.1E-2</v>
+      </c>
+      <c r="K120" s="8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="6">
+        <v>187.93</v>
+      </c>
+      <c r="B121" s="1">
+        <v>84.679000000000002</v>
+      </c>
+      <c r="C121" s="1">
+        <v>4.4980000000000002</v>
+      </c>
+      <c r="D121" s="1">
+        <v>187.93</v>
+      </c>
+      <c r="E121" s="1">
+        <v>0</v>
+      </c>
+      <c r="F121" s="2">
+        <v>11.663</v>
+      </c>
+      <c r="G121" s="1">
+        <v>736.71400000000006</v>
+      </c>
+      <c r="H121" s="1">
+        <v>312.26600000000002</v>
+      </c>
+      <c r="I121" s="1">
+        <v>424.44799999999998</v>
+      </c>
+      <c r="J121" s="1">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="K121" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="6">
+        <v>198.62</v>
+      </c>
+      <c r="B122" s="8">
+        <v>74.53</v>
+      </c>
+      <c r="C122" s="1">
+        <v>3.96</v>
+      </c>
+      <c r="D122" s="1">
+        <v>198.62</v>
+      </c>
+      <c r="E122" s="1">
+        <v>0</v>
+      </c>
+      <c r="F122" s="2">
+        <v>11.679</v>
+      </c>
+      <c r="G122" s="1">
+        <v>503.36700000000002</v>
+      </c>
+      <c r="H122" s="1">
+        <v>256.86200000000002</v>
+      </c>
+      <c r="I122" s="1">
+        <v>246.506</v>
+      </c>
+      <c r="J122" s="1">
+        <v>-0.04</v>
+      </c>
+      <c r="K122" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="6">
+        <v>209.31</v>
+      </c>
+      <c r="B123" s="8">
+        <v>61.683</v>
+      </c>
+      <c r="C123" s="1">
+        <v>3.2789999999999999</v>
+      </c>
+      <c r="D123" s="1">
+        <v>209.31</v>
+      </c>
+      <c r="E123" s="1">
+        <v>0</v>
+      </c>
+      <c r="F123" s="2">
+        <v>11.641999999999999</v>
+      </c>
+      <c r="G123" s="1">
+        <v>282.548</v>
+      </c>
+      <c r="H123" s="1">
+        <v>187.52699999999999</v>
+      </c>
+      <c r="I123" s="1">
+        <v>95.02</v>
+      </c>
+      <c r="J123" s="1">
+        <v>-5.0999999999999997E-2</v>
+      </c>
+      <c r="K123" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="6">
         <v>220</v>
       </c>
-      <c r="B120" s="8">
-        <v>0</v>
-      </c>
-      <c r="C120" s="8">
-        <v>0</v>
-      </c>
-      <c r="D120" s="8">
+      <c r="B124" s="8">
+        <v>0</v>
+      </c>
+      <c r="C124" s="1">
+        <v>0</v>
+      </c>
+      <c r="D124" s="1">
         <v>220</v>
       </c>
-      <c r="E120" s="8">
-        <v>0</v>
-      </c>
-      <c r="F120" s="7">
+      <c r="E124" s="1">
+        <v>0</v>
+      </c>
+      <c r="F124" s="2">
         <v>14.304</v>
       </c>
-      <c r="G120" s="8">
-        <v>0</v>
-      </c>
-      <c r="H120" s="8">
-        <v>0</v>
-      </c>
-      <c r="I120" s="8">
-        <v>0</v>
-      </c>
-      <c r="J120" s="8">
-        <v>0</v>
-      </c>
-      <c r="K120" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B122" s="8">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B123" s="8">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B124" s="8">
-        <v>21</v>
+      <c r="G124" s="1">
+        <v>0</v>
+      </c>
+      <c r="H124" s="1">
+        <v>0</v>
+      </c>
+      <c r="I124" s="1">
+        <v>0</v>
+      </c>
+      <c r="J124" s="1">
+        <v>0</v>
+      </c>
+      <c r="K124" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B125" s="7">
-        <v>2.6469999999999998</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B125" s="7"/>
     </row>
     <row r="126" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B126" s="7">
-        <v>0.98</v>
+        <v>220</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B127" s="8">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="128" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B128" s="7">
-        <v>40260.036999999997</v>
+        <v>21</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B129" s="8">
-        <v>53</v>
+        <v>7.9470000000000001</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="B130" s="8">
-        <v>10</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B131" s="8">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B132" s="8">
-        <v>65</v>
+        <v>40260.036999999997</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B133" s="8">
-        <v>17</v>
+        <v>53</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B134" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B135" s="8">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B136" s="8">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B137" s="8">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="B138" s="8">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B139" s="8">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B140" s="8">
-        <v>30</v>
+        <v>53</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B141" s="8">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B142" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
+      </c>
+      <c r="B143" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="B144" s="1">
+        <v>30</v>
       </c>
     </row>
     <row r="145" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B145" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C145" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D145" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E145" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F145" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="G145" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H145" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="I145" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="J145" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="K145" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="L145" t="s">
-        <v>91</v>
-      </c>
-      <c r="M145" t="s">
-        <v>92</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="B145" s="6">
+        <v>1</v>
+      </c>
+      <c r="C145" s="6"/>
+      <c r="D145" s="6"/>
+      <c r="E145" s="6"/>
+      <c r="F145" s="10"/>
+      <c r="G145" s="6"/>
+      <c r="H145" s="6"/>
+      <c r="I145" s="6"/>
+      <c r="J145" s="6"/>
+      <c r="K145" s="6"/>
     </row>
     <row r="146" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
-        <v>111</v>
+        <v>77</v>
+      </c>
+      <c r="B146" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="6" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="148" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B148" s="8">
-        <v>1</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B148" s="8"/>
     </row>
     <row r="149" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
@@ -2630,42 +2673,806 @@
       </c>
     </row>
     <row r="150" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="A150" s="6">
+        <v>19</v>
+      </c>
+      <c r="B150" s="1">
+        <v>9.7744444444444394</v>
+      </c>
+      <c r="C150" s="1">
+        <v>0.213610756419498</v>
+      </c>
+      <c r="D150" s="1">
+        <v>937341.23933501705</v>
+      </c>
+      <c r="E150" s="1">
+        <v>593712.55030599097</v>
+      </c>
+      <c r="F150" s="2">
+        <v>0</v>
+      </c>
+      <c r="G150" s="1">
+        <v>220679.98771377699</v>
+      </c>
+      <c r="H150" s="1">
+        <v>0</v>
+      </c>
+      <c r="I150" s="1">
+        <v>0</v>
+      </c>
+      <c r="J150" s="1">
+        <v>122948.701315249</v>
+      </c>
+      <c r="K150" s="1">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>0.12234094142711301</v>
+      </c>
+      <c r="M150">
+        <v>0.16696088409096599</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
     <row r="152" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
-        <v>113</v>
+        <v>40</v>
+      </c>
+      <c r="B152" s="1">
+        <v>15</v>
       </c>
     </row>
     <row r="153" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="6" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>115</v>
+        <v>81</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J153" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K153" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L153" t="s">
+        <v>91</v>
+      </c>
+      <c r="M153" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="154" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="6" t="s">
+      <c r="A154" s="6">
+        <v>6</v>
+      </c>
+      <c r="B154" s="1">
+        <v>3.0866666666666598</v>
+      </c>
+      <c r="C154" s="1">
+        <v>6.7456028342999602E-2</v>
+      </c>
+      <c r="D154" s="1">
+        <v>80587.114172521906</v>
+      </c>
+      <c r="E154" s="1">
+        <v>68326.137713709395</v>
+      </c>
+      <c r="F154" s="2">
+        <v>0</v>
+      </c>
+      <c r="G154" s="1">
+        <v>0.16413928627101301</v>
+      </c>
+      <c r="H154" s="1">
+        <v>0</v>
+      </c>
+      <c r="I154" s="1">
+        <v>0</v>
+      </c>
+      <c r="J154" s="1">
+        <v>12260.8123195262</v>
+      </c>
+      <c r="K154" s="1">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>0.12886840377387401</v>
+      </c>
+      <c r="M154">
+        <v>0.16696088409096599</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="6">
+        <v>7</v>
+      </c>
+      <c r="B155" s="1">
+        <v>3.60111111111111</v>
+      </c>
+      <c r="C155" s="1">
+        <v>7.8698699733499494E-2</v>
+      </c>
+      <c r="D155" s="1">
+        <v>107870.688906736</v>
+      </c>
+      <c r="E155" s="1">
+        <v>91179.5744558554</v>
+      </c>
+      <c r="F155" s="2">
+        <v>0</v>
+      </c>
+      <c r="G155" s="1">
+        <v>2.7865715257329202</v>
+      </c>
+      <c r="H155" s="1">
+        <v>0</v>
+      </c>
+      <c r="I155" s="1">
+        <v>0</v>
+      </c>
+      <c r="J155" s="1">
+        <v>16688.3278793551</v>
+      </c>
+      <c r="K155" s="1">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>0.12790415135946701</v>
+      </c>
+      <c r="M155">
+        <v>0.16696088409096599</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="6">
+        <v>8</v>
+      </c>
+      <c r="B156" s="1">
+        <v>4.1155555555555496</v>
+      </c>
+      <c r="C156" s="1">
+        <v>8.99413711239994E-2</v>
+      </c>
+      <c r="D156" s="1">
+        <v>138909.62164017599</v>
+      </c>
+      <c r="E156" s="1">
+        <v>117088.585471821</v>
+      </c>
+      <c r="F156" s="2">
+        <v>0</v>
+      </c>
+      <c r="G156" s="1">
+        <v>24.036489197421101</v>
+      </c>
+      <c r="H156" s="1">
+        <v>0</v>
+      </c>
+      <c r="I156" s="1">
+        <v>0</v>
+      </c>
+      <c r="J156" s="1">
+        <v>21796.9996791577</v>
+      </c>
+      <c r="K156" s="1">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <v>0.12709349644273901</v>
+      </c>
+      <c r="M156">
+        <v>0.16696088409096599</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="6">
+        <v>9</v>
+      </c>
+      <c r="B157" s="1">
+        <v>4.63</v>
+      </c>
+      <c r="C157" s="1">
+        <v>0.101184042514499</v>
+      </c>
+      <c r="D157" s="1">
+        <v>173724.803644183</v>
+      </c>
+      <c r="E157" s="1">
+        <v>146006.773211769</v>
+      </c>
+      <c r="F157" s="2">
+        <v>0</v>
+      </c>
+      <c r="G157" s="1">
+        <v>131.202713480146</v>
+      </c>
+      <c r="H157" s="1">
+        <v>0</v>
+      </c>
+      <c r="I157" s="1">
+        <v>0</v>
+      </c>
+      <c r="J157" s="1">
+        <v>27586.827718934001</v>
+      </c>
+      <c r="K157" s="1">
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <v>0.12639671492757601</v>
+      </c>
+      <c r="M157">
+        <v>0.16696088409096599</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <v>10</v>
+      </c>
+      <c r="B158" s="1">
+        <v>5.1444444444444404</v>
+      </c>
+      <c r="C158" s="1">
+        <v>0.112426713904999</v>
+      </c>
+      <c r="D158" s="1">
+        <v>212469.80150510999</v>
+      </c>
+      <c r="E158" s="1">
+        <v>177894.10958410299</v>
+      </c>
+      <c r="F158" s="2">
+        <v>0</v>
+      </c>
+      <c r="G158" s="1">
+        <v>517.87992232275406</v>
+      </c>
+      <c r="H158" s="1">
+        <v>0</v>
+      </c>
+      <c r="I158" s="1">
+        <v>0</v>
+      </c>
+      <c r="J158" s="1">
+        <v>34057.811998683901</v>
+      </c>
+      <c r="K158" s="1">
+        <v>0</v>
+      </c>
+      <c r="L158">
+        <v>0.12578746144552899</v>
+      </c>
+      <c r="M158">
+        <v>0.16696088409096599</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
+        <v>11</v>
+      </c>
+      <c r="B159" s="1">
+        <v>5.65888888888888</v>
+      </c>
+      <c r="C159" s="1">
+        <v>0.12366938529549901</v>
+      </c>
+      <c r="D159" s="1">
+        <v>255536.175247976</v>
+      </c>
+      <c r="E159" s="1">
+        <v>212715.47614144499</v>
+      </c>
+      <c r="F159" s="2">
+        <v>0</v>
+      </c>
+      <c r="G159" s="1">
+        <v>1610.7465881230901</v>
+      </c>
+      <c r="H159" s="1">
+        <v>0</v>
+      </c>
+      <c r="I159" s="1">
+        <v>0</v>
+      </c>
+      <c r="J159" s="1">
+        <v>41209.952518407503</v>
+      </c>
+      <c r="K159" s="1">
+        <v>0</v>
+      </c>
+      <c r="L159">
+        <v>0.12524741726243299</v>
+      </c>
+      <c r="M159">
+        <v>0.16696088409096599</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <v>12</v>
+      </c>
+      <c r="B160" s="1">
+        <v>6.1733333333333302</v>
+      </c>
+      <c r="C160" s="1">
+        <v>0.13491205668599901</v>
+      </c>
+      <c r="D160" s="1">
+        <v>303665.60981251497</v>
+      </c>
+      <c r="E160" s="1">
+        <v>250439.64744438001</v>
+      </c>
+      <c r="F160" s="2">
+        <v>0</v>
+      </c>
+      <c r="G160" s="1">
+        <v>4182.7130900297798</v>
+      </c>
+      <c r="H160" s="1">
+        <v>0</v>
+      </c>
+      <c r="I160" s="1">
+        <v>0</v>
+      </c>
+      <c r="J160" s="1">
+        <v>49043.2492781049</v>
+      </c>
+      <c r="K160" s="1">
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <v>0.124763358990583</v>
+      </c>
+      <c r="M160">
+        <v>0.16696088409096599</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <v>13</v>
+      </c>
+      <c r="B161" s="1">
+        <v>6.6877777777777698</v>
+      </c>
+      <c r="C161" s="1">
+        <v>0.14615472807649901</v>
+      </c>
+      <c r="D161" s="1">
+        <v>358038.49566270399</v>
+      </c>
+      <c r="E161" s="1">
+        <v>291038.555797907</v>
+      </c>
+      <c r="F161" s="2">
+        <v>0</v>
+      </c>
+      <c r="G161" s="1">
+        <v>9442.2375870220294</v>
+      </c>
+      <c r="H161" s="1">
+        <v>0</v>
+      </c>
+      <c r="I161" s="1">
+        <v>0</v>
+      </c>
+      <c r="J161" s="1">
+        <v>57557.702277775898</v>
+      </c>
+      <c r="K161" s="1">
+        <v>0</v>
+      </c>
+      <c r="L161">
+        <v>0.124325446835271</v>
+      </c>
+      <c r="M161">
+        <v>0.16696088409096599</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <v>14</v>
+      </c>
+      <c r="B162" s="1">
+        <v>7.2022222222222201</v>
+      </c>
+      <c r="C162" s="1">
+        <v>0.15739739946699899</v>
+      </c>
+      <c r="D162" s="1">
+        <v>420317.60108440398</v>
+      </c>
+      <c r="E162" s="1">
+        <v>334486.74299837602</v>
+      </c>
+      <c r="F162" s="2">
+        <v>0</v>
+      </c>
+      <c r="G162" s="1">
+        <v>19077.5465686075</v>
+      </c>
+      <c r="H162" s="1">
+        <v>0</v>
+      </c>
+      <c r="I162" s="1">
+        <v>0</v>
+      </c>
+      <c r="J162" s="1">
+        <v>66753.311517420501</v>
+      </c>
+      <c r="K162" s="1">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>0.123926172164792</v>
+      </c>
+      <c r="M162">
+        <v>0.16696088409096599</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <v>15</v>
+      </c>
+      <c r="B163" s="1">
+        <v>7.7166666666666597</v>
+      </c>
+      <c r="C163" s="1">
+        <v>0.16864007085749799</v>
+      </c>
+      <c r="D163" s="1">
+        <v>492640.06414211</v>
+      </c>
+      <c r="E163" s="1">
+        <v>380760.94108813599</v>
+      </c>
+      <c r="F163" s="2">
+        <v>0</v>
+      </c>
+      <c r="G163" s="1">
+        <v>35249.0460569356</v>
+      </c>
+      <c r="H163" s="1">
+        <v>0</v>
+      </c>
+      <c r="I163" s="1">
+        <v>0</v>
+      </c>
+      <c r="J163" s="1">
+        <v>76630.076997038894</v>
+      </c>
+      <c r="K163" s="1">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>0.123559682463144</v>
+      </c>
+      <c r="M163">
+        <v>0.16696088409096599</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
+        <v>16</v>
+      </c>
+      <c r="B164" s="1">
+        <v>8.2311111111111099</v>
+      </c>
+      <c r="C164" s="1">
+        <v>0.179882742247998</v>
+      </c>
+      <c r="D164" s="1">
+        <v>577560.22776194406</v>
+      </c>
+      <c r="E164" s="1">
+        <v>429839.74489795201</v>
+      </c>
+      <c r="F164" s="2">
+        <v>0</v>
+      </c>
+      <c r="G164" s="1">
+        <v>60532.484147360999</v>
+      </c>
+      <c r="H164" s="1">
+        <v>0</v>
+      </c>
+      <c r="I164" s="1">
+        <v>0</v>
+      </c>
+      <c r="J164" s="1">
+        <v>87187.9987166309</v>
+      </c>
+      <c r="K164" s="1">
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <v>0.12322133271439301</v>
+      </c>
+      <c r="M164">
+        <v>0.16696088409096599</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
+        <v>17</v>
+      </c>
+      <c r="B165" s="1">
+        <v>8.7455555555555495</v>
+      </c>
+      <c r="C165" s="1">
+        <v>0.191125413638498</v>
+      </c>
+      <c r="D165" s="1">
+        <v>677993.87307200499</v>
+      </c>
+      <c r="E165" s="1">
+        <v>481703.35162144201</v>
+      </c>
+      <c r="F165" s="2">
+        <v>0</v>
+      </c>
+      <c r="G165" s="1">
+        <v>97863.444774365998</v>
+      </c>
+      <c r="H165" s="1">
+        <v>0</v>
+      </c>
+      <c r="I165" s="1">
+        <v>0</v>
+      </c>
+      <c r="J165" s="1">
+        <v>98427.076676196593</v>
+      </c>
+      <c r="K165" s="1">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>0.122907378141802</v>
+      </c>
+      <c r="M165">
+        <v>0.16696088409096599</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A166" s="1">
+        <v>18</v>
+      </c>
+      <c r="B166" s="1">
+        <v>9.26</v>
+      </c>
+      <c r="C166" s="1">
+        <v>0.202368085028998</v>
+      </c>
+      <c r="D166" s="1">
+        <v>796969.14168002596</v>
+      </c>
+      <c r="E166" s="1">
+        <v>536333.35044767603</v>
+      </c>
+      <c r="F166" s="2">
+        <v>0</v>
+      </c>
+      <c r="G166" s="1">
+        <v>150288.480356613</v>
+      </c>
+      <c r="H166" s="1">
+        <v>0</v>
+      </c>
+      <c r="I166" s="1">
+        <v>0</v>
+      </c>
+      <c r="J166" s="1">
+        <v>110347.310875736</v>
+      </c>
+      <c r="K166" s="1">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>0.12261475822769199</v>
+      </c>
+      <c r="M166">
+        <v>0.16696088409096599</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
+        <v>19</v>
+      </c>
+      <c r="B167" s="1">
+        <v>9.7744444444444394</v>
+      </c>
+      <c r="C167" s="1">
+        <v>0.213610756419498</v>
+      </c>
+      <c r="D167" s="1">
+        <v>937341.23933501705</v>
+      </c>
+      <c r="E167" s="1">
+        <v>593712.55030599097</v>
+      </c>
+      <c r="F167" s="2">
+        <v>0</v>
+      </c>
+      <c r="G167" s="1">
+        <v>220679.98771377699</v>
+      </c>
+      <c r="H167" s="1">
+        <v>0</v>
+      </c>
+      <c r="I167" s="1">
+        <v>0</v>
+      </c>
+      <c r="J167" s="1">
+        <v>122948.701315249</v>
+      </c>
+      <c r="K167" s="1">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>0.12234094142711301</v>
+      </c>
+      <c r="M167">
+        <v>0.16696088409096599</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A168" s="1">
+        <v>20</v>
+      </c>
+      <c r="B168" s="1">
+        <v>10.288888888888801</v>
+      </c>
+      <c r="C168" s="1">
+        <v>0.22485342780999801</v>
+      </c>
+      <c r="D168" s="1">
+        <v>1105382.83353302</v>
+      </c>
+      <c r="E168" s="1">
+        <v>653824.83712268702</v>
+      </c>
+      <c r="F168" s="2">
+        <v>0</v>
+      </c>
+      <c r="G168" s="1">
+        <v>315326.74841559801</v>
+      </c>
+      <c r="H168" s="1">
+        <v>0</v>
+      </c>
+      <c r="I168" s="1">
+        <v>0</v>
+      </c>
+      <c r="J168" s="1">
+        <v>136231.24799473499</v>
+      </c>
+      <c r="K168" s="1">
+        <v>0</v>
+      </c>
+      <c r="L168">
+        <v>0.122083811281041</v>
+      </c>
+      <c r="M168">
+        <v>0.16696088409096599</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="6" t="s">
-        <v>117</v>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A171" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A172" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B172" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A174" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A175" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A176" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B176" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B177" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B178" s="1">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B181" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B182" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/IP.xlsx
+++ b/IP.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2ee38df677a9f564/Documenten/Maritieme techniek/Q4/IP-26/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomol\.spyder-py3\MT-1\IP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_4C915E84F1DA5803874F3EBF6A279AC58B87A987" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C800AEB9-4496-4DC7-9039-ED518AE6529C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2DB163-3540-4535-82BB-2A763B4E6A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="VB schip van Goris" sheetId="1" r:id="rId1"/>
+    <sheet name="VB schip van Goris" sheetId="5" r:id="rId1"/>
     <sheet name="Plaatdikte uitvogelen" sheetId="2" r:id="rId2"/>
     <sheet name="Plaatdikte 2" sheetId="3" r:id="rId3"/>
     <sheet name="Plaatdikte 3" sheetId="4" r:id="rId4"/>
@@ -368,7 +368,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,12 +379,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -416,7 +410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -429,24 +423,10 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -459,10 +439,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -749,1920 +725,1856 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:M183"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DD5B60-8F68-4A4C-A146-6DEED2955986}">
+  <dimension ref="A2:M183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="H94" sqref="H94"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="38.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>224.49</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3">
         <v>34.893999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4">
         <v>20.946999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5">
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6">
         <v>213.43700000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7">
         <v>96.47</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8">
         <v>136.72999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11">
         <v>7.9470000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12">
         <v>7.9470000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13">
         <v>7.9470000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16">
         <v>22.791</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18">
         <v>212.357</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18">
         <v>5.234</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18">
         <v>7.9470000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20">
         <v>35092.942999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21">
         <v>118155.65</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22">
         <v>121.679</v>
       </c>
-      <c r="C22" s="8">
-        <v>0</v>
-      </c>
-      <c r="D22" s="7">
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
         <v>4.5190000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23">
         <v>110.791</v>
       </c>
-      <c r="C23" s="8">
-        <v>0</v>
-      </c>
-      <c r="D23" s="7">
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
         <v>11.590999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24">
         <v>0.58230000000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25">
         <v>0.60019999999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27">
         <v>5793.6490000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28">
         <v>114.08199999999999</v>
       </c>
-      <c r="C28" s="8">
-        <v>0</v>
-      </c>
-      <c r="D28" s="7">
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
         <v>7.9470000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29">
         <v>457765.05699999997</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="6">
         <v>15616000</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="6">
         <v>16074000</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30">
         <v>7225.348</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32">
         <v>234.602</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34">
         <v>9062.4670000000006</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35">
         <v>185.40199999999999</v>
       </c>
-      <c r="C35" s="1">
-        <v>0</v>
-      </c>
-      <c r="D35" s="1">
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
         <v>5.0229999999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36">
         <v>163.87799999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37">
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38">
         <v>1210.7560000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39">
         <v>185.804</v>
       </c>
-      <c r="C39" s="1">
-        <v>0</v>
-      </c>
-      <c r="D39" s="1">
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
         <v>9.0069999999999997</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40">
         <v>66519.578999999998</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40">
         <v>248761.64199999999</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40">
         <v>315281.22100000002</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42">
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="7">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>6.5640000000000001</v>
       </c>
-      <c r="B44" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="7">
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>16.727</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45">
         <v>10.638999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="7">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>26.890999999999998</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46">
         <v>38.869</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="7">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>37.054000000000002</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47">
         <v>77.081999999999994</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="7">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>47.218000000000004</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48">
         <v>119.959</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="7">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>57.381999999999998</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49">
         <v>162.53200000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="7">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>67.545000000000002</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50">
         <v>199.303</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="7">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>77.709000000000003</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51">
         <v>224.38200000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="7">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>87.873000000000005</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B52">
         <v>234.102</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="7">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>98.036000000000001</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B53">
         <v>234.602</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="7">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>108.2</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B54">
         <v>234.602</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="7">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>118.364</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55">
         <v>234.602</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="7">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>128.52699999999999</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B56">
         <v>234.602</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="7">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>138.691</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B57">
         <v>234.46600000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="7">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>148.85499999999999</v>
       </c>
-      <c r="B58" s="7">
+      <c r="B58">
         <v>231.17699999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="7">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>159.018</v>
       </c>
-      <c r="B59" s="7">
+      <c r="B59">
         <v>221.471</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="7">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>169.18199999999999</v>
       </c>
-      <c r="B60" s="8">
+      <c r="B60">
         <v>206.59</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="7">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>179.346</v>
       </c>
-      <c r="B61" s="7">
+      <c r="B61">
         <v>185.82599999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="7">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>189.50899999999999</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B62">
         <v>158.12200000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="7">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>199.673</v>
       </c>
-      <c r="B63" s="7">
+      <c r="B63">
         <v>122.479</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="7">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>209.83699999999999</v>
       </c>
-      <c r="B64" s="7">
+      <c r="B64">
         <v>77.409000000000006</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="7">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>220</v>
       </c>
-      <c r="B65" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="6" t="s">
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="6" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>40</v>
       </c>
-      <c r="B67" s="8">
+      <c r="B67">
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="6" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>41</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="7">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>-4.49</v>
       </c>
-      <c r="B69" s="7">
+      <c r="B69">
         <v>164.87700000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="7">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
         <v>6.2</v>
       </c>
-      <c r="B70" s="7">
+      <c r="B70">
         <v>227.77099999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="7">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
         <v>16.89</v>
       </c>
-      <c r="B71" s="7">
+      <c r="B71">
         <v>298.65199999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="7">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
         <v>27.58</v>
       </c>
-      <c r="B72" s="7">
+      <c r="B72">
         <v>374.67399999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="7">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
         <v>38.270000000000003</v>
       </c>
-      <c r="B73" s="7">
+      <c r="B73">
         <v>452.56200000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="7">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
         <v>48.96</v>
       </c>
-      <c r="B74" s="7">
+      <c r="B74">
         <v>528.16200000000003</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="7">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
         <v>59.65</v>
       </c>
-      <c r="B75" s="7">
+      <c r="B75">
         <v>596.04300000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="7">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
         <v>70.34</v>
       </c>
-      <c r="B76" s="7">
+      <c r="B76">
         <v>649.24</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="7">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
         <v>81.03</v>
       </c>
-      <c r="B77" s="7">
+      <c r="B77">
         <v>680.27300000000002</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="7">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
         <v>91.72</v>
       </c>
-      <c r="B78" s="7">
+      <c r="B78">
         <v>687.86800000000005</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="7">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
         <v>102.41</v>
       </c>
-      <c r="B79" s="7">
+      <c r="B79">
         <v>687.88099999999997</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="7">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
         <v>113.1</v>
       </c>
-      <c r="B80" s="7">
+      <c r="B80">
         <v>687.88099999999997</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="7">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
         <v>123.79</v>
       </c>
-      <c r="B81" s="7">
+      <c r="B81">
         <v>687.88099999999997</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="7">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
         <v>134.47999999999999</v>
       </c>
-      <c r="B82" s="7">
+      <c r="B82">
         <v>687.87199999999996</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="7">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
         <v>145.16999999999999</v>
       </c>
-      <c r="B83" s="7">
+      <c r="B83">
         <v>684.11099999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="7">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
         <v>155.86000000000001</v>
       </c>
-      <c r="B84" s="7">
+      <c r="B84">
         <v>663.89300000000003</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="7">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
         <v>166.55</v>
       </c>
-      <c r="B85" s="7">
+      <c r="B85">
         <v>627.87900000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="7">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
         <v>177.24</v>
       </c>
-      <c r="B86" s="7">
+      <c r="B86">
         <v>572.75599999999997</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="7">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
         <v>187.93</v>
       </c>
-      <c r="B87" s="7">
+      <c r="B87">
         <v>493.8</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="7">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
         <v>198.62</v>
       </c>
-      <c r="B88" s="7">
+      <c r="B88">
         <v>387.14100000000002</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="7">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
         <v>209.31</v>
       </c>
-      <c r="B89" s="7">
+      <c r="B89">
         <v>249.27799999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="8">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
         <v>220</v>
       </c>
-      <c r="B90" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="6" t="s">
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="6" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>40</v>
       </c>
-      <c r="B92" s="8">
+      <c r="B92">
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="6" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>41</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B93" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="1">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
         <v>163.87799999999999</v>
       </c>
-      <c r="B94" s="8">
+      <c r="B94">
         <v>249.14</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="6">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
         <v>177.90799999999999</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B95">
         <v>219.703</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="6">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
         <v>191.93899999999999</v>
       </c>
-      <c r="B96" s="8">
+      <c r="B96">
         <v>175.114</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="6">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97">
         <v>205.97</v>
       </c>
-      <c r="B97" s="8">
+      <c r="B97">
         <v>112.256</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="6">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98">
         <v>220</v>
       </c>
-      <c r="B98" s="6">
-        <v>0</v>
-      </c>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="10"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
-      <c r="I98" s="6"/>
-      <c r="J98" s="6"/>
-      <c r="K98" s="6"/>
-    </row>
-    <row r="99" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="7" t="s">
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>45</v>
       </c>
-      <c r="B99" s="7"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="8"/>
-      <c r="F99" s="7"/>
-      <c r="G99" s="7"/>
-      <c r="H99" s="7"/>
-      <c r="I99" s="7"/>
-      <c r="J99" s="7"/>
-      <c r="K99" s="8"/>
-    </row>
-    <row r="100" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="7" t="s">
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>46</v>
       </c>
-      <c r="B100" s="7">
+      <c r="B100">
         <v>53</v>
       </c>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="8"/>
-      <c r="F100" s="7"/>
-      <c r="G100" s="7"/>
-      <c r="H100" s="7"/>
-      <c r="I100" s="7"/>
-      <c r="J100" s="7"/>
-      <c r="K100" s="8"/>
-    </row>
-    <row r="101" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="7" t="s">
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>40</v>
       </c>
-      <c r="B101" s="7">
+      <c r="B101">
         <v>22</v>
       </c>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="8"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="7"/>
-      <c r="H101" s="7"/>
-      <c r="I101" s="7"/>
-      <c r="J101" s="7"/>
-      <c r="K101" s="8"/>
-    </row>
-    <row r="102" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="7" t="s">
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>47</v>
       </c>
-      <c r="B102" s="7" t="s">
+      <c r="B102" t="s">
         <v>48</v>
       </c>
-      <c r="C102" s="7" t="s">
+      <c r="C102" t="s">
         <v>49</v>
       </c>
-      <c r="D102" s="7" t="s">
+      <c r="D102" t="s">
         <v>50</v>
       </c>
-      <c r="E102" s="8" t="s">
+      <c r="E102" t="s">
         <v>51</v>
       </c>
-      <c r="F102" s="7" t="s">
+      <c r="F102" t="s">
         <v>52</v>
       </c>
-      <c r="G102" s="7" t="s">
+      <c r="G102" t="s">
         <v>53</v>
       </c>
-      <c r="H102" s="7" t="s">
+      <c r="H102" t="s">
         <v>54</v>
       </c>
-      <c r="I102" s="7" t="s">
+      <c r="I102" t="s">
         <v>55</v>
       </c>
-      <c r="J102" s="7" t="s">
+      <c r="J102" t="s">
         <v>56</v>
       </c>
-      <c r="K102" s="8" t="s">
+      <c r="K102" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="7">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103">
         <v>-4.49</v>
       </c>
-      <c r="B103" s="7">
+      <c r="B103">
         <v>55.426000000000002</v>
       </c>
-      <c r="C103" s="7">
+      <c r="C103">
         <v>2.948</v>
       </c>
-      <c r="D103" s="7">
+      <c r="D103">
         <v>-4.49</v>
       </c>
-      <c r="E103" s="8">
-        <v>0</v>
-      </c>
-      <c r="F103" s="7">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
         <v>17.201000000000001</v>
       </c>
-      <c r="G103" s="7">
+      <c r="G103">
         <v>195.41</v>
       </c>
-      <c r="H103" s="7">
+      <c r="H103">
         <v>45.043999999999997</v>
       </c>
-      <c r="I103" s="7">
+      <c r="I103">
         <v>150.36500000000001</v>
       </c>
-      <c r="J103" s="7">
+      <c r="J103">
         <v>10.016999999999999</v>
       </c>
-      <c r="K103" s="8">
+      <c r="K103">
         <v>21</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="7">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104">
         <v>6.2</v>
       </c>
-      <c r="B104" s="7">
+      <c r="B104">
         <v>62.704000000000001</v>
       </c>
-      <c r="C104" s="7">
+      <c r="C104">
         <v>3.3340000000000001</v>
       </c>
-      <c r="D104" s="7">
+      <c r="D104">
         <v>6.2</v>
       </c>
-      <c r="E104" s="8">
-        <v>0</v>
-      </c>
-      <c r="F104" s="7">
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>16.268000000000001</v>
       </c>
-      <c r="G104" s="7">
+      <c r="G104">
         <v>288.89800000000002</v>
       </c>
-      <c r="H104" s="7">
+      <c r="H104">
         <v>77.028000000000006</v>
       </c>
-      <c r="I104" s="7">
+      <c r="I104">
         <v>211.87</v>
       </c>
-      <c r="J104" s="7">
+      <c r="J104">
         <v>7.9539999999999997</v>
       </c>
-      <c r="K104" s="8">
+      <c r="K104">
         <v>21</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="7">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105">
         <v>16.89</v>
       </c>
-      <c r="B105" s="7">
+      <c r="B105">
         <v>70.040999999999997</v>
       </c>
-      <c r="C105" s="7">
+      <c r="C105">
         <v>3.7229999999999999</v>
       </c>
-      <c r="D105" s="7">
+      <c r="D105">
         <v>16.89</v>
       </c>
-      <c r="E105" s="8">
-        <v>0</v>
-      </c>
-      <c r="F105" s="7">
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
         <v>15.347</v>
       </c>
-      <c r="G105" s="7">
+      <c r="G105">
         <v>408.59699999999998</v>
       </c>
-      <c r="H105" s="7">
+      <c r="H105">
         <v>118.39100000000001</v>
       </c>
-      <c r="I105" s="7">
+      <c r="I105">
         <v>290.20600000000002</v>
       </c>
-      <c r="J105" s="7">
+      <c r="J105">
         <v>6.2409999999999997</v>
       </c>
-      <c r="K105" s="8">
+      <c r="K105">
         <v>21</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="7">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106">
         <v>27.58</v>
       </c>
-      <c r="B106" s="7">
+      <c r="B106">
         <v>77.313000000000002</v>
       </c>
-      <c r="C106" s="7">
+      <c r="C106">
         <v>4.1079999999999997</v>
       </c>
-      <c r="D106" s="7">
+      <c r="D106">
         <v>27.58</v>
       </c>
-      <c r="E106" s="8">
-        <v>0</v>
-      </c>
-      <c r="F106" s="7">
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
         <v>14.459</v>
       </c>
-      <c r="G106" s="7">
+      <c r="G106">
         <v>553.649</v>
       </c>
-      <c r="H106" s="7">
+      <c r="H106">
         <v>168.23400000000001</v>
       </c>
-      <c r="I106" s="7">
+      <c r="I106">
         <v>385.41500000000002</v>
       </c>
-      <c r="J106" s="7">
+      <c r="J106">
         <v>4.7249999999999996</v>
       </c>
-      <c r="K106" s="8">
+      <c r="K106">
         <v>21</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="7">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107">
         <v>38.270000000000003</v>
       </c>
-      <c r="B107" s="7">
+      <c r="B107">
         <v>84.278000000000006</v>
       </c>
-      <c r="C107" s="7">
+      <c r="C107">
         <v>4.4770000000000003</v>
       </c>
-      <c r="D107" s="7">
+      <c r="D107">
         <v>38.270000000000003</v>
       </c>
-      <c r="E107" s="8">
-        <v>0</v>
-      </c>
-      <c r="F107" s="7">
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
         <v>13.632</v>
       </c>
-      <c r="G107" s="7">
+      <c r="G107">
         <v>719.21400000000006</v>
       </c>
-      <c r="H107" s="7">
+      <c r="H107">
         <v>224.435</v>
       </c>
-      <c r="I107" s="7">
+      <c r="I107">
         <v>494.779</v>
       </c>
-      <c r="J107" s="7">
+      <c r="J107">
         <v>3.3690000000000002</v>
       </c>
-      <c r="K107" s="8">
+      <c r="K107">
         <v>21</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="7">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108">
         <v>48.96</v>
       </c>
-      <c r="B108" s="7">
+      <c r="B108">
         <v>90.649000000000001</v>
       </c>
-      <c r="C108" s="7">
+      <c r="C108">
         <v>4.8150000000000004</v>
       </c>
-      <c r="D108" s="7">
+      <c r="D108">
         <v>48.96</v>
       </c>
-      <c r="E108" s="8">
-        <v>0</v>
-      </c>
-      <c r="F108" s="7">
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
         <v>12.891999999999999</v>
       </c>
-      <c r="G108" s="7">
+      <c r="G108">
         <v>895.39499999999998</v>
       </c>
-      <c r="H108" s="7">
+      <c r="H108">
         <v>283.42599999999999</v>
       </c>
-      <c r="I108" s="7">
+      <c r="I108">
         <v>611.97</v>
       </c>
-      <c r="J108" s="7">
+      <c r="J108">
         <v>2.1789999999999998</v>
       </c>
-      <c r="K108" s="8">
+      <c r="K108">
         <v>21</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="7">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109">
         <v>59.65</v>
       </c>
-      <c r="B109" s="7">
+      <c r="B109">
         <v>96.090999999999994</v>
       </c>
-      <c r="C109" s="7">
+      <c r="C109">
         <v>5.1029999999999998</v>
       </c>
-      <c r="D109" s="7">
+      <c r="D109">
         <v>59.65</v>
       </c>
-      <c r="E109" s="8">
-        <v>0</v>
-      </c>
-      <c r="F109" s="7">
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
         <v>12.272</v>
       </c>
-      <c r="G109" s="7">
+      <c r="G109">
         <v>1065.9290000000001</v>
       </c>
-      <c r="H109" s="7">
+      <c r="H109">
         <v>339.80700000000002</v>
       </c>
-      <c r="I109" s="7">
+      <c r="I109">
         <v>726.12099999999998</v>
       </c>
-      <c r="J109" s="7">
+      <c r="J109">
         <v>1.19</v>
       </c>
-      <c r="K109" s="8">
+      <c r="K109">
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="7">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110">
         <v>70.34</v>
       </c>
-      <c r="B110" s="7">
+      <c r="B110">
         <v>100.191</v>
       </c>
-      <c r="C110" s="7">
+      <c r="C110">
         <v>5.32</v>
       </c>
-      <c r="D110" s="7">
+      <c r="D110">
         <v>70.34</v>
       </c>
-      <c r="E110" s="8">
-        <v>0</v>
-      </c>
-      <c r="F110" s="7">
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
         <v>11.811</v>
       </c>
-      <c r="G110" s="7">
+      <c r="G110">
         <v>1207.2190000000001</v>
       </c>
-      <c r="H110" s="7">
+      <c r="H110">
         <v>386.07400000000001</v>
       </c>
-      <c r="I110" s="7">
+      <c r="I110">
         <v>821.14499999999998</v>
       </c>
-      <c r="J110" s="7">
+      <c r="J110">
         <v>0.45900000000000002</v>
       </c>
-      <c r="K110" s="8">
+      <c r="K110">
         <v>21</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="7">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111">
         <v>81.03</v>
       </c>
-      <c r="B111" s="7">
+      <c r="B111">
         <v>102.523</v>
       </c>
-      <c r="C111" s="7">
+      <c r="C111">
         <v>5.444</v>
       </c>
-      <c r="D111" s="7">
+      <c r="D111">
         <v>81.03</v>
       </c>
-      <c r="E111" s="8">
-        <v>0</v>
-      </c>
-      <c r="F111" s="7">
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
         <v>11.551</v>
       </c>
-      <c r="G111" s="7">
+      <c r="G111">
         <v>1292.788</v>
       </c>
-      <c r="H111" s="7">
+      <c r="H111">
         <v>413.89</v>
       </c>
-      <c r="I111" s="7">
+      <c r="I111">
         <v>878.89800000000002</v>
       </c>
-      <c r="J111" s="7">
+      <c r="J111">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="K111" s="8">
+      <c r="K111">
         <v>21</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="7">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112">
         <v>91.72</v>
       </c>
-      <c r="B112" s="7">
+      <c r="B112">
         <v>103.087</v>
       </c>
-      <c r="C112" s="7">
+      <c r="C112">
         <v>5.4740000000000002</v>
       </c>
-      <c r="D112" s="7">
+      <c r="D112">
         <v>91.72</v>
       </c>
-      <c r="E112" s="8">
-        <v>0</v>
-      </c>
-      <c r="F112" s="7">
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
         <v>11.488</v>
       </c>
-      <c r="G112" s="7">
+      <c r="G112">
         <v>1314.01</v>
       </c>
-      <c r="H112" s="7">
+      <c r="H112">
         <v>420.78899999999999</v>
       </c>
-      <c r="I112" s="7">
+      <c r="I112">
         <v>893.221</v>
       </c>
-      <c r="J112" s="7">
+      <c r="J112">
         <v>-5.2999999999999999E-2</v>
       </c>
-      <c r="K112" s="8">
+      <c r="K112">
         <v>21</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="7">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113">
         <v>102.41</v>
       </c>
-      <c r="B113" s="7">
+      <c r="B113">
         <v>103.08799999999999</v>
       </c>
-      <c r="C113" s="7">
+      <c r="C113">
         <v>5.4740000000000002</v>
       </c>
-      <c r="D113" s="7">
+      <c r="D113">
         <v>102.41</v>
       </c>
-      <c r="E113" s="8">
-        <v>0</v>
-      </c>
-      <c r="F113" s="7">
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
         <v>11.487</v>
       </c>
-      <c r="G113" s="7">
+      <c r="G113">
         <v>1314.046</v>
       </c>
-      <c r="H113" s="7">
+      <c r="H113">
         <v>420.80099999999999</v>
       </c>
-      <c r="I113" s="7">
+      <c r="I113">
         <v>893.245</v>
       </c>
-      <c r="J113" s="7">
+      <c r="J113">
         <v>-5.2999999999999999E-2</v>
       </c>
-      <c r="K113" s="8">
+      <c r="K113">
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="7">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114">
         <v>113.1</v>
       </c>
-      <c r="B114" s="7">
+      <c r="B114">
         <v>103.08799999999999</v>
       </c>
-      <c r="C114" s="7">
+      <c r="C114">
         <v>5.4740000000000002</v>
       </c>
-      <c r="D114" s="7">
+      <c r="D114">
         <v>113.1</v>
       </c>
-      <c r="E114" s="8">
-        <v>0</v>
-      </c>
-      <c r="F114" s="7">
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
         <v>11.487</v>
       </c>
-      <c r="G114" s="7">
+      <c r="G114">
         <v>1314.046</v>
       </c>
-      <c r="H114" s="7">
+      <c r="H114">
         <v>420.80099999999999</v>
       </c>
-      <c r="I114" s="7">
+      <c r="I114">
         <v>893.245</v>
       </c>
-      <c r="J114" s="7">
+      <c r="J114">
         <v>-5.2999999999999999E-2</v>
       </c>
-      <c r="K114" s="8">
+      <c r="K114">
         <v>21</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="7">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115">
         <v>123.79</v>
       </c>
-      <c r="B115" s="7">
+      <c r="B115">
         <v>103.08799999999999</v>
       </c>
-      <c r="C115" s="7">
+      <c r="C115">
         <v>5.4740000000000002</v>
       </c>
-      <c r="D115" s="7">
+      <c r="D115">
         <v>123.79</v>
       </c>
-      <c r="E115" s="8">
-        <v>0</v>
-      </c>
-      <c r="F115" s="7">
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
         <v>11.487</v>
       </c>
-      <c r="G115" s="7">
+      <c r="G115">
         <v>1314.046</v>
       </c>
-      <c r="H115" s="7">
+      <c r="H115">
         <v>420.80099999999999</v>
       </c>
-      <c r="I115" s="7">
+      <c r="I115">
         <v>893.245</v>
       </c>
-      <c r="J115" s="7">
+      <c r="J115">
         <v>-5.2999999999999999E-2</v>
       </c>
-      <c r="K115" s="8">
+      <c r="K115">
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="7">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116">
         <v>134.47999999999999</v>
       </c>
-      <c r="B116" s="7">
+      <c r="B116">
         <v>103.087</v>
       </c>
-      <c r="C116" s="7">
+      <c r="C116">
         <v>5.4740000000000002</v>
       </c>
-      <c r="D116" s="7">
+      <c r="D116">
         <v>134.47999999999999</v>
       </c>
-      <c r="E116" s="8">
-        <v>0</v>
-      </c>
-      <c r="F116" s="7">
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
         <v>11.488</v>
       </c>
-      <c r="G116" s="7">
+      <c r="G116">
         <v>1314.0150000000001</v>
       </c>
-      <c r="H116" s="7">
+      <c r="H116">
         <v>420.79599999999999</v>
       </c>
-      <c r="I116" s="7">
+      <c r="I116">
         <v>893.21900000000005</v>
       </c>
-      <c r="J116" s="7">
+      <c r="J116">
         <v>-5.2999999999999999E-2</v>
       </c>
-      <c r="K116" s="8">
+      <c r="K116">
         <v>21</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="7">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117">
         <v>145.16999999999999</v>
       </c>
-      <c r="B117" s="7">
+      <c r="B117">
         <v>102.744</v>
       </c>
-      <c r="C117" s="7">
+      <c r="C117">
         <v>5.4550000000000001</v>
       </c>
-      <c r="D117" s="7">
+      <c r="D117">
         <v>145.16999999999999</v>
       </c>
-      <c r="E117" s="8">
-        <v>0</v>
-      </c>
-      <c r="F117" s="7">
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
         <v>11.494</v>
       </c>
-      <c r="G117" s="7">
+      <c r="G117">
         <v>1301.1579999999999</v>
       </c>
-      <c r="H117" s="7">
+      <c r="H117">
         <v>418.59399999999999</v>
       </c>
-      <c r="I117" s="7">
+      <c r="I117">
         <v>882.56399999999996</v>
       </c>
-      <c r="J117" s="7">
+      <c r="J117">
         <v>-5.0999999999999997E-2</v>
       </c>
-      <c r="K117" s="8">
+      <c r="K117">
         <v>21</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="7">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118">
         <v>155.86000000000001</v>
       </c>
-      <c r="B118" s="7">
+      <c r="B118">
         <v>100.886</v>
       </c>
-      <c r="C118" s="7">
+      <c r="C118">
         <v>5.3570000000000002</v>
       </c>
-      <c r="D118" s="7">
+      <c r="D118">
         <v>155.86000000000001</v>
       </c>
-      <c r="E118" s="8">
-        <v>0</v>
-      </c>
-      <c r="F118" s="7">
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
         <v>11.528</v>
       </c>
-      <c r="G118" s="7">
+      <c r="G118">
         <v>1233.1179999999999</v>
       </c>
-      <c r="H118" s="7">
+      <c r="H118">
         <v>406.74700000000001</v>
       </c>
-      <c r="I118" s="7">
+      <c r="I118">
         <v>826.37099999999998</v>
       </c>
-      <c r="J118" s="7">
+      <c r="J118">
         <v>-4.3999999999999997E-2</v>
       </c>
-      <c r="K118" s="8">
+      <c r="K118">
         <v>21</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="7">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119">
         <v>166.55</v>
       </c>
-      <c r="B119" s="7">
+      <c r="B119">
         <v>97.507999999999996</v>
       </c>
-      <c r="C119" s="7">
+      <c r="C119">
         <v>5.1779999999999999</v>
       </c>
-      <c r="D119" s="7">
+      <c r="D119">
         <v>166.55</v>
       </c>
-      <c r="E119" s="8">
-        <v>0</v>
-      </c>
-      <c r="F119" s="7">
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
         <v>11.579000000000001</v>
       </c>
-      <c r="G119" s="7">
+      <c r="G119">
         <v>1115.982</v>
       </c>
-      <c r="H119" s="7">
+      <c r="H119">
         <v>385.79700000000003</v>
       </c>
-      <c r="I119" s="7">
+      <c r="I119">
         <v>730.18499999999995</v>
       </c>
-      <c r="J119" s="7">
+      <c r="J119">
         <v>-3.5000000000000003E-2</v>
       </c>
-      <c r="K119" s="8">
+      <c r="K119">
         <v>21</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="8">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120">
         <v>177.24</v>
       </c>
-      <c r="B120" s="8">
+      <c r="B120">
         <v>92.245999999999995</v>
       </c>
-      <c r="C120" s="8">
+      <c r="C120">
         <v>4.899</v>
       </c>
-      <c r="D120" s="8">
+      <c r="D120">
         <v>177.24</v>
       </c>
-      <c r="E120" s="8">
-        <v>0</v>
-      </c>
-      <c r="F120" s="7">
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
         <v>11.627000000000001</v>
       </c>
-      <c r="G120" s="8">
+      <c r="G120">
         <v>948.37800000000004</v>
       </c>
-      <c r="H120" s="8">
+      <c r="H120">
         <v>354.85599999999999</v>
       </c>
-      <c r="I120" s="8">
+      <c r="I120">
         <v>593.52200000000005</v>
       </c>
-      <c r="J120" s="8">
+      <c r="J120">
         <v>-3.1E-2</v>
       </c>
-      <c r="K120" s="8">
+      <c r="K120">
         <v>21</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="6">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121">
         <v>187.93</v>
       </c>
-      <c r="B121" s="1">
+      <c r="B121">
         <v>84.679000000000002</v>
       </c>
-      <c r="C121" s="1">
+      <c r="C121">
         <v>4.4980000000000002</v>
       </c>
-      <c r="D121" s="1">
+      <c r="D121">
         <v>187.93</v>
       </c>
-      <c r="E121" s="1">
-        <v>0</v>
-      </c>
-      <c r="F121" s="2">
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
         <v>11.663</v>
       </c>
-      <c r="G121" s="1">
+      <c r="G121">
         <v>736.71400000000006</v>
       </c>
-      <c r="H121" s="1">
+      <c r="H121">
         <v>312.26600000000002</v>
       </c>
-      <c r="I121" s="1">
+      <c r="I121">
         <v>424.44799999999998</v>
       </c>
-      <c r="J121" s="1">
+      <c r="J121">
         <v>-3.3000000000000002E-2</v>
       </c>
-      <c r="K121" s="1">
+      <c r="K121">
         <v>21</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="6">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122">
         <v>198.62</v>
       </c>
-      <c r="B122" s="8">
+      <c r="B122">
         <v>74.53</v>
       </c>
-      <c r="C122" s="1">
+      <c r="C122">
         <v>3.96</v>
       </c>
-      <c r="D122" s="1">
+      <c r="D122">
         <v>198.62</v>
       </c>
-      <c r="E122" s="1">
-        <v>0</v>
-      </c>
-      <c r="F122" s="2">
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
         <v>11.679</v>
       </c>
-      <c r="G122" s="1">
+      <c r="G122">
         <v>503.36700000000002</v>
       </c>
-      <c r="H122" s="1">
+      <c r="H122">
         <v>256.86200000000002</v>
       </c>
-      <c r="I122" s="1">
+      <c r="I122">
         <v>246.506</v>
       </c>
-      <c r="J122" s="1">
+      <c r="J122">
         <v>-0.04</v>
       </c>
-      <c r="K122" s="1">
+      <c r="K122">
         <v>21</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="6">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123">
         <v>209.31</v>
       </c>
-      <c r="B123" s="8">
+      <c r="B123">
         <v>61.683</v>
       </c>
-      <c r="C123" s="1">
+      <c r="C123">
         <v>3.2789999999999999</v>
       </c>
-      <c r="D123" s="1">
+      <c r="D123">
         <v>209.31</v>
       </c>
-      <c r="E123" s="1">
-        <v>0</v>
-      </c>
-      <c r="F123" s="2">
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
         <v>11.641999999999999</v>
       </c>
-      <c r="G123" s="1">
+      <c r="G123">
         <v>282.548</v>
       </c>
-      <c r="H123" s="1">
+      <c r="H123">
         <v>187.52699999999999</v>
       </c>
-      <c r="I123" s="1">
+      <c r="I123">
         <v>95.02</v>
       </c>
-      <c r="J123" s="1">
+      <c r="J123">
         <v>-5.0999999999999997E-2</v>
       </c>
-      <c r="K123" s="1">
+      <c r="K123">
         <v>21</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="6">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124">
         <v>220</v>
       </c>
-      <c r="B124" s="8">
-        <v>0</v>
-      </c>
-      <c r="C124" s="1">
-        <v>0</v>
-      </c>
-      <c r="D124" s="1">
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
         <v>220</v>
       </c>
-      <c r="E124" s="1">
-        <v>0</v>
-      </c>
-      <c r="F124" s="2">
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
         <v>14.304</v>
       </c>
-      <c r="G124" s="1">
-        <v>0</v>
-      </c>
-      <c r="H124" s="1">
-        <v>0</v>
-      </c>
-      <c r="I124" s="1">
-        <v>0</v>
-      </c>
-      <c r="J124" s="1">
-        <v>0</v>
-      </c>
-      <c r="K124" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="6" t="s">
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>58</v>
       </c>
-      <c r="B125" s="7"/>
-    </row>
-    <row r="126" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="6" t="s">
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>59</v>
       </c>
-      <c r="B126" s="7">
+      <c r="B126">
         <v>220</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="6" t="s">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>60</v>
       </c>
-      <c r="B127" s="8">
+      <c r="B127">
         <v>35</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="6" t="s">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>61</v>
       </c>
-      <c r="B128" s="7">
+      <c r="B128">
         <v>21</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="6" t="s">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>62</v>
       </c>
-      <c r="B129" s="8">
+      <c r="B129">
         <v>7.9470000000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="6" t="s">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>63</v>
       </c>
-      <c r="B130" s="8">
+      <c r="B130">
         <v>0.98</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="6" t="s">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>64</v>
       </c>
-      <c r="B131" s="8">
+      <c r="B131">
         <v>42</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="6" t="s">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>65</v>
       </c>
-      <c r="B132" s="8">
+      <c r="B132">
         <v>40260.036999999997</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="6" t="s">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>66</v>
       </c>
-      <c r="B133" s="8">
+      <c r="B133">
         <v>53</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="6" t="s">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>7</v>
       </c>
-      <c r="B134" s="8">
+      <c r="B134">
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="6" t="s">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>67</v>
       </c>
-      <c r="B135" s="8">
+      <c r="B135">
         <v>21</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="6" t="s">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>68</v>
       </c>
-      <c r="B136" s="8">
+      <c r="B136">
         <v>65</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="6" t="s">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>69</v>
       </c>
-      <c r="B137" s="8">
+      <c r="B137">
         <v>17</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="6" t="s">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>12</v>
       </c>
-      <c r="B138" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="6" t="s">
+      <c r="B138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>70</v>
       </c>
-      <c r="B139" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="6" t="s">
+      <c r="B139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>71</v>
       </c>
-      <c r="B140" s="8">
+      <c r="B140">
         <v>53</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="6" t="s">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>72</v>
       </c>
-      <c r="B141" s="8">
+      <c r="B141">
         <v>20</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="6" t="s">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>73</v>
       </c>
-      <c r="B142" s="8">
+      <c r="B142">
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="6" t="s">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
         <v>74</v>
       </c>
-      <c r="B143" s="1">
+      <c r="B143">
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="6" t="s">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
         <v>75</v>
       </c>
-      <c r="B144" s="1">
+      <c r="B144">
         <v>30</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="6" t="s">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
         <v>76</v>
       </c>
-      <c r="B145" s="6">
+      <c r="B145">
         <v>1</v>
       </c>
-      <c r="C145" s="6"/>
-      <c r="D145" s="6"/>
-      <c r="E145" s="6"/>
-      <c r="F145" s="10"/>
-      <c r="G145" s="6"/>
-      <c r="H145" s="6"/>
-      <c r="I145" s="6"/>
-      <c r="J145" s="6"/>
-      <c r="K145" s="6"/>
-    </row>
-    <row r="146" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="6" t="s">
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>77</v>
       </c>
-      <c r="B146" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="6" t="s">
+      <c r="B146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="6" t="s">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>79</v>
       </c>
-      <c r="B148" s="8"/>
-    </row>
-    <row r="149" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="6" t="s">
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>80</v>
       </c>
-      <c r="B149" s="6" t="s">
+      <c r="B149" t="s">
         <v>81</v>
       </c>
-      <c r="C149" s="6" t="s">
+      <c r="C149" t="s">
         <v>82</v>
       </c>
-      <c r="D149" s="6" t="s">
+      <c r="D149" t="s">
         <v>83</v>
       </c>
-      <c r="E149" s="6" t="s">
+      <c r="E149" t="s">
         <v>84</v>
       </c>
-      <c r="F149" s="10" t="s">
+      <c r="F149" t="s">
         <v>85</v>
       </c>
-      <c r="G149" s="6" t="s">
+      <c r="G149" t="s">
         <v>86</v>
       </c>
-      <c r="H149" s="6" t="s">
+      <c r="H149" t="s">
         <v>87</v>
       </c>
-      <c r="I149" s="6" t="s">
+      <c r="I149" t="s">
         <v>88</v>
       </c>
-      <c r="J149" s="6" t="s">
+      <c r="J149" t="s">
         <v>89</v>
       </c>
-      <c r="K149" s="6" t="s">
+      <c r="K149" t="s">
         <v>90</v>
       </c>
       <c r="L149" t="s">
@@ -2672,38 +2584,38 @@
         <v>92</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="6">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A150">
         <v>19</v>
       </c>
-      <c r="B150" s="1">
+      <c r="B150">
         <v>9.7744444444444394</v>
       </c>
-      <c r="C150" s="1">
+      <c r="C150">
         <v>0.213610756419498</v>
       </c>
-      <c r="D150" s="1">
+      <c r="D150">
         <v>937341.23933501705</v>
       </c>
-      <c r="E150" s="1">
+      <c r="E150">
         <v>593712.55030599097</v>
       </c>
-      <c r="F150" s="2">
-        <v>0</v>
-      </c>
-      <c r="G150" s="1">
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150">
         <v>220679.98771377699</v>
       </c>
-      <c r="H150" s="1">
-        <v>0</v>
-      </c>
-      <c r="I150" s="1">
-        <v>0</v>
-      </c>
-      <c r="J150" s="1">
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
         <v>122948.701315249</v>
       </c>
-      <c r="K150" s="1">
+      <c r="K150">
         <v>0</v>
       </c>
       <c r="L150">
@@ -2713,51 +2625,51 @@
         <v>0.16696088409096599</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="1" t="s">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="6" t="s">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
         <v>40</v>
       </c>
-      <c r="B152" s="1">
+      <c r="B152">
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="6" t="s">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>80</v>
       </c>
-      <c r="B153" s="6" t="s">
+      <c r="B153" t="s">
         <v>81</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="C153" t="s">
         <v>82</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="D153" t="s">
         <v>83</v>
       </c>
-      <c r="E153" s="1" t="s">
+      <c r="E153" t="s">
         <v>84</v>
       </c>
-      <c r="F153" s="2" t="s">
+      <c r="F153" t="s">
         <v>85</v>
       </c>
-      <c r="G153" s="1" t="s">
+      <c r="G153" t="s">
         <v>86</v>
       </c>
-      <c r="H153" s="1" t="s">
+      <c r="H153" t="s">
         <v>87</v>
       </c>
-      <c r="I153" s="1" t="s">
+      <c r="I153" t="s">
         <v>88</v>
       </c>
-      <c r="J153" s="1" t="s">
+      <c r="J153" t="s">
         <v>89</v>
       </c>
-      <c r="K153" s="1" t="s">
+      <c r="K153" t="s">
         <v>90</v>
       </c>
       <c r="L153" t="s">
@@ -2767,38 +2679,38 @@
         <v>92</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="6">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A154">
         <v>6</v>
       </c>
-      <c r="B154" s="1">
+      <c r="B154">
         <v>3.0866666666666598</v>
       </c>
-      <c r="C154" s="1">
+      <c r="C154">
         <v>6.7456028342999602E-2</v>
       </c>
-      <c r="D154" s="1">
+      <c r="D154">
         <v>80587.114172521906</v>
       </c>
-      <c r="E154" s="1">
+      <c r="E154">
         <v>68326.137713709395</v>
       </c>
-      <c r="F154" s="2">
-        <v>0</v>
-      </c>
-      <c r="G154" s="1">
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154">
         <v>0.16413928627101301</v>
       </c>
-      <c r="H154" s="1">
-        <v>0</v>
-      </c>
-      <c r="I154" s="1">
-        <v>0</v>
-      </c>
-      <c r="J154" s="1">
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
         <v>12260.8123195262</v>
       </c>
-      <c r="K154" s="1">
+      <c r="K154">
         <v>0</v>
       </c>
       <c r="L154">
@@ -2808,38 +2720,38 @@
         <v>0.16696088409096599</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="6">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A155">
         <v>7</v>
       </c>
-      <c r="B155" s="1">
+      <c r="B155">
         <v>3.60111111111111</v>
       </c>
-      <c r="C155" s="1">
+      <c r="C155">
         <v>7.8698699733499494E-2</v>
       </c>
-      <c r="D155" s="1">
+      <c r="D155">
         <v>107870.688906736</v>
       </c>
-      <c r="E155" s="1">
+      <c r="E155">
         <v>91179.5744558554</v>
       </c>
-      <c r="F155" s="2">
-        <v>0</v>
-      </c>
-      <c r="G155" s="1">
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
         <v>2.7865715257329202</v>
       </c>
-      <c r="H155" s="1">
-        <v>0</v>
-      </c>
-      <c r="I155" s="1">
-        <v>0</v>
-      </c>
-      <c r="J155" s="1">
+      <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
         <v>16688.3278793551</v>
       </c>
-      <c r="K155" s="1">
+      <c r="K155">
         <v>0</v>
       </c>
       <c r="L155">
@@ -2849,38 +2761,38 @@
         <v>0.16696088409096599</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="6">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A156">
         <v>8</v>
       </c>
-      <c r="B156" s="1">
+      <c r="B156">
         <v>4.1155555555555496</v>
       </c>
-      <c r="C156" s="1">
+      <c r="C156">
         <v>8.99413711239994E-2</v>
       </c>
-      <c r="D156" s="1">
+      <c r="D156">
         <v>138909.62164017599</v>
       </c>
-      <c r="E156" s="1">
+      <c r="E156">
         <v>117088.585471821</v>
       </c>
-      <c r="F156" s="2">
-        <v>0</v>
-      </c>
-      <c r="G156" s="1">
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156">
         <v>24.036489197421101</v>
       </c>
-      <c r="H156" s="1">
-        <v>0</v>
-      </c>
-      <c r="I156" s="1">
-        <v>0</v>
-      </c>
-      <c r="J156" s="1">
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
         <v>21796.9996791577</v>
       </c>
-      <c r="K156" s="1">
+      <c r="K156">
         <v>0</v>
       </c>
       <c r="L156">
@@ -2890,38 +2802,38 @@
         <v>0.16696088409096599</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="6">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A157">
         <v>9</v>
       </c>
-      <c r="B157" s="1">
+      <c r="B157">
         <v>4.63</v>
       </c>
-      <c r="C157" s="1">
+      <c r="C157">
         <v>0.101184042514499</v>
       </c>
-      <c r="D157" s="1">
+      <c r="D157">
         <v>173724.803644183</v>
       </c>
-      <c r="E157" s="1">
+      <c r="E157">
         <v>146006.773211769</v>
       </c>
-      <c r="F157" s="2">
-        <v>0</v>
-      </c>
-      <c r="G157" s="1">
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157">
         <v>131.202713480146</v>
       </c>
-      <c r="H157" s="1">
-        <v>0</v>
-      </c>
-      <c r="I157" s="1">
-        <v>0</v>
-      </c>
-      <c r="J157" s="1">
+      <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
         <v>27586.827718934001</v>
       </c>
-      <c r="K157" s="1">
+      <c r="K157">
         <v>0</v>
       </c>
       <c r="L157">
@@ -2931,38 +2843,38 @@
         <v>0.16696088409096599</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A158" s="1">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A158">
         <v>10</v>
       </c>
-      <c r="B158" s="1">
+      <c r="B158">
         <v>5.1444444444444404</v>
       </c>
-      <c r="C158" s="1">
+      <c r="C158">
         <v>0.112426713904999</v>
       </c>
-      <c r="D158" s="1">
+      <c r="D158">
         <v>212469.80150510999</v>
       </c>
-      <c r="E158" s="1">
+      <c r="E158">
         <v>177894.10958410299</v>
       </c>
-      <c r="F158" s="2">
-        <v>0</v>
-      </c>
-      <c r="G158" s="1">
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158">
         <v>517.87992232275406</v>
       </c>
-      <c r="H158" s="1">
-        <v>0</v>
-      </c>
-      <c r="I158" s="1">
-        <v>0</v>
-      </c>
-      <c r="J158" s="1">
+      <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
         <v>34057.811998683901</v>
       </c>
-      <c r="K158" s="1">
+      <c r="K158">
         <v>0</v>
       </c>
       <c r="L158">
@@ -2972,38 +2884,38 @@
         <v>0.16696088409096599</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A159" s="1">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A159">
         <v>11</v>
       </c>
-      <c r="B159" s="1">
+      <c r="B159">
         <v>5.65888888888888</v>
       </c>
-      <c r="C159" s="1">
+      <c r="C159">
         <v>0.12366938529549901</v>
       </c>
-      <c r="D159" s="1">
+      <c r="D159">
         <v>255536.175247976</v>
       </c>
-      <c r="E159" s="1">
+      <c r="E159">
         <v>212715.47614144499</v>
       </c>
-      <c r="F159" s="2">
-        <v>0</v>
-      </c>
-      <c r="G159" s="1">
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159">
         <v>1610.7465881230901</v>
       </c>
-      <c r="H159" s="1">
-        <v>0</v>
-      </c>
-      <c r="I159" s="1">
-        <v>0</v>
-      </c>
-      <c r="J159" s="1">
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
         <v>41209.952518407503</v>
       </c>
-      <c r="K159" s="1">
+      <c r="K159">
         <v>0</v>
       </c>
       <c r="L159">
@@ -3013,38 +2925,38 @@
         <v>0.16696088409096599</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A160" s="1">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A160">
         <v>12</v>
       </c>
-      <c r="B160" s="1">
+      <c r="B160">
         <v>6.1733333333333302</v>
       </c>
-      <c r="C160" s="1">
+      <c r="C160">
         <v>0.13491205668599901</v>
       </c>
-      <c r="D160" s="1">
+      <c r="D160">
         <v>303665.60981251497</v>
       </c>
-      <c r="E160" s="1">
+      <c r="E160">
         <v>250439.64744438001</v>
       </c>
-      <c r="F160" s="2">
-        <v>0</v>
-      </c>
-      <c r="G160" s="1">
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160">
         <v>4182.7130900297798</v>
       </c>
-      <c r="H160" s="1">
-        <v>0</v>
-      </c>
-      <c r="I160" s="1">
-        <v>0</v>
-      </c>
-      <c r="J160" s="1">
+      <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
         <v>49043.2492781049</v>
       </c>
-      <c r="K160" s="1">
+      <c r="K160">
         <v>0</v>
       </c>
       <c r="L160">
@@ -3054,38 +2966,38 @@
         <v>0.16696088409096599</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A161" s="1">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A161">
         <v>13</v>
       </c>
-      <c r="B161" s="1">
+      <c r="B161">
         <v>6.6877777777777698</v>
       </c>
-      <c r="C161" s="1">
+      <c r="C161">
         <v>0.14615472807649901</v>
       </c>
-      <c r="D161" s="1">
+      <c r="D161">
         <v>358038.49566270399</v>
       </c>
-      <c r="E161" s="1">
+      <c r="E161">
         <v>291038.555797907</v>
       </c>
-      <c r="F161" s="2">
-        <v>0</v>
-      </c>
-      <c r="G161" s="1">
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161">
         <v>9442.2375870220294</v>
       </c>
-      <c r="H161" s="1">
-        <v>0</v>
-      </c>
-      <c r="I161" s="1">
-        <v>0</v>
-      </c>
-      <c r="J161" s="1">
+      <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
         <v>57557.702277775898</v>
       </c>
-      <c r="K161" s="1">
+      <c r="K161">
         <v>0</v>
       </c>
       <c r="L161">
@@ -3095,38 +3007,38 @@
         <v>0.16696088409096599</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A162" s="1">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A162">
         <v>14</v>
       </c>
-      <c r="B162" s="1">
+      <c r="B162">
         <v>7.2022222222222201</v>
       </c>
-      <c r="C162" s="1">
+      <c r="C162">
         <v>0.15739739946699899</v>
       </c>
-      <c r="D162" s="1">
+      <c r="D162">
         <v>420317.60108440398</v>
       </c>
-      <c r="E162" s="1">
+      <c r="E162">
         <v>334486.74299837602</v>
       </c>
-      <c r="F162" s="2">
-        <v>0</v>
-      </c>
-      <c r="G162" s="1">
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162">
         <v>19077.5465686075</v>
       </c>
-      <c r="H162" s="1">
-        <v>0</v>
-      </c>
-      <c r="I162" s="1">
-        <v>0</v>
-      </c>
-      <c r="J162" s="1">
+      <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
         <v>66753.311517420501</v>
       </c>
-      <c r="K162" s="1">
+      <c r="K162">
         <v>0</v>
       </c>
       <c r="L162">
@@ -3136,38 +3048,38 @@
         <v>0.16696088409096599</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A163" s="1">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A163">
         <v>15</v>
       </c>
-      <c r="B163" s="1">
+      <c r="B163">
         <v>7.7166666666666597</v>
       </c>
-      <c r="C163" s="1">
+      <c r="C163">
         <v>0.16864007085749799</v>
       </c>
-      <c r="D163" s="1">
+      <c r="D163">
         <v>492640.06414211</v>
       </c>
-      <c r="E163" s="1">
+      <c r="E163">
         <v>380760.94108813599</v>
       </c>
-      <c r="F163" s="2">
-        <v>0</v>
-      </c>
-      <c r="G163" s="1">
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163">
         <v>35249.0460569356</v>
       </c>
-      <c r="H163" s="1">
-        <v>0</v>
-      </c>
-      <c r="I163" s="1">
-        <v>0</v>
-      </c>
-      <c r="J163" s="1">
+      <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
         <v>76630.076997038894</v>
       </c>
-      <c r="K163" s="1">
+      <c r="K163">
         <v>0</v>
       </c>
       <c r="L163">
@@ -3177,38 +3089,38 @@
         <v>0.16696088409096599</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A164" s="1">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A164">
         <v>16</v>
       </c>
-      <c r="B164" s="1">
+      <c r="B164">
         <v>8.2311111111111099</v>
       </c>
-      <c r="C164" s="1">
+      <c r="C164">
         <v>0.179882742247998</v>
       </c>
-      <c r="D164" s="1">
+      <c r="D164">
         <v>577560.22776194406</v>
       </c>
-      <c r="E164" s="1">
+      <c r="E164">
         <v>429839.74489795201</v>
       </c>
-      <c r="F164" s="2">
-        <v>0</v>
-      </c>
-      <c r="G164" s="1">
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164">
         <v>60532.484147360999</v>
       </c>
-      <c r="H164" s="1">
-        <v>0</v>
-      </c>
-      <c r="I164" s="1">
-        <v>0</v>
-      </c>
-      <c r="J164" s="1">
+      <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
         <v>87187.9987166309</v>
       </c>
-      <c r="K164" s="1">
+      <c r="K164">
         <v>0</v>
       </c>
       <c r="L164">
@@ -3218,38 +3130,38 @@
         <v>0.16696088409096599</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A165" s="1">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A165">
         <v>17</v>
       </c>
-      <c r="B165" s="1">
+      <c r="B165">
         <v>8.7455555555555495</v>
       </c>
-      <c r="C165" s="1">
+      <c r="C165">
         <v>0.191125413638498</v>
       </c>
-      <c r="D165" s="1">
+      <c r="D165">
         <v>677993.87307200499</v>
       </c>
-      <c r="E165" s="1">
+      <c r="E165">
         <v>481703.35162144201</v>
       </c>
-      <c r="F165" s="2">
-        <v>0</v>
-      </c>
-      <c r="G165" s="1">
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165">
         <v>97863.444774365998</v>
       </c>
-      <c r="H165" s="1">
-        <v>0</v>
-      </c>
-      <c r="I165" s="1">
-        <v>0</v>
-      </c>
-      <c r="J165" s="1">
+      <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
         <v>98427.076676196593</v>
       </c>
-      <c r="K165" s="1">
+      <c r="K165">
         <v>0</v>
       </c>
       <c r="L165">
@@ -3259,38 +3171,38 @@
         <v>0.16696088409096599</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A166" s="1">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A166">
         <v>18</v>
       </c>
-      <c r="B166" s="1">
+      <c r="B166">
         <v>9.26</v>
       </c>
-      <c r="C166" s="1">
+      <c r="C166">
         <v>0.202368085028998</v>
       </c>
-      <c r="D166" s="1">
+      <c r="D166">
         <v>796969.14168002596</v>
       </c>
-      <c r="E166" s="1">
+      <c r="E166">
         <v>536333.35044767603</v>
       </c>
-      <c r="F166" s="2">
-        <v>0</v>
-      </c>
-      <c r="G166" s="1">
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166">
         <v>150288.480356613</v>
       </c>
-      <c r="H166" s="1">
-        <v>0</v>
-      </c>
-      <c r="I166" s="1">
-        <v>0</v>
-      </c>
-      <c r="J166" s="1">
+      <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
         <v>110347.310875736</v>
       </c>
-      <c r="K166" s="1">
+      <c r="K166">
         <v>0</v>
       </c>
       <c r="L166">
@@ -3300,38 +3212,38 @@
         <v>0.16696088409096599</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A167" s="1">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A167">
         <v>19</v>
       </c>
-      <c r="B167" s="1">
+      <c r="B167">
         <v>9.7744444444444394</v>
       </c>
-      <c r="C167" s="1">
+      <c r="C167">
         <v>0.213610756419498</v>
       </c>
-      <c r="D167" s="1">
+      <c r="D167">
         <v>937341.23933501705</v>
       </c>
-      <c r="E167" s="1">
+      <c r="E167">
         <v>593712.55030599097</v>
       </c>
-      <c r="F167" s="2">
-        <v>0</v>
-      </c>
-      <c r="G167" s="1">
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167">
         <v>220679.98771377699</v>
       </c>
-      <c r="H167" s="1">
-        <v>0</v>
-      </c>
-      <c r="I167" s="1">
-        <v>0</v>
-      </c>
-      <c r="J167" s="1">
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
         <v>122948.701315249</v>
       </c>
-      <c r="K167" s="1">
+      <c r="K167">
         <v>0</v>
       </c>
       <c r="L167">
@@ -3341,38 +3253,38 @@
         <v>0.16696088409096599</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A168" s="1">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A168">
         <v>20</v>
       </c>
-      <c r="B168" s="1">
+      <c r="B168">
         <v>10.288888888888801</v>
       </c>
-      <c r="C168" s="1">
+      <c r="C168">
         <v>0.22485342780999801</v>
       </c>
-      <c r="D168" s="1">
+      <c r="D168">
         <v>1105382.83353302</v>
       </c>
-      <c r="E168" s="1">
+      <c r="E168">
         <v>653824.83712268702</v>
       </c>
-      <c r="F168" s="2">
-        <v>0</v>
-      </c>
-      <c r="G168" s="1">
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168">
         <v>315326.74841559801</v>
       </c>
-      <c r="H168" s="1">
-        <v>0</v>
-      </c>
-      <c r="I168" s="1">
-        <v>0</v>
-      </c>
-      <c r="J168" s="1">
+      <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
         <v>136231.24799473499</v>
       </c>
-      <c r="K168" s="1">
+      <c r="K168">
         <v>0</v>
       </c>
       <c r="L168">
@@ -3382,96 +3294,96 @@
         <v>0.16696088409096599</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A169" s="1" t="s">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A170" s="1" t="s">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A171" s="1" t="s">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A172" s="1" t="s">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
         <v>97</v>
       </c>
-      <c r="B172" s="1">
+      <c r="B172">
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A173" s="1" t="s">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A174" s="1" t="s">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A175" s="1" t="s">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A176" s="1" t="s">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
         <v>101</v>
       </c>
-      <c r="B176" s="1">
+      <c r="B176">
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A177" s="1" t="s">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
         <v>102</v>
       </c>
-      <c r="B177" s="1">
+      <c r="B177">
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A178" s="1" t="s">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>103</v>
       </c>
-      <c r="B178" s="1">
+      <c r="B178">
         <v>-10</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A179" s="1" t="s">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A180" s="1" t="s">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A181" s="1" t="s">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
         <v>106</v>
       </c>
-      <c r="B181" s="1">
+      <c r="B181">
         <v>35</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A182" s="1" t="s">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
         <v>107</v>
       </c>
-      <c r="B182" s="1">
+      <c r="B182">
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A183" s="1" t="s">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3489,20 +3401,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="14.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3510,7 +3422,7 @@
         <v>224.49</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3518,7 +3430,7 @@
         <v>34.997999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -3526,7 +3438,7 @@
         <v>20.998999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -3534,7 +3446,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -3542,7 +3454,7 @@
         <v>213.636</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -3550,7 +3462,7 @@
         <v>96.47</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -3558,7 +3470,7 @@
         <v>136.72999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -3566,12 +3478,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -3579,7 +3491,7 @@
         <v>7.9989999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -3587,7 +3499,7 @@
         <v>7.9989999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -3595,7 +3507,7 @@
         <v>7.9989999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -3603,12 +3515,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -3616,7 +3528,7 @@
         <v>22.85</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -3624,7 +3536,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -3638,12 +3550,12 @@
         <v>7.9989999999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -3651,7 +3563,7 @@
         <v>35500.622000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -3659,7 +3571,7 @@
         <v>118833.591</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -3673,7 +3585,7 @@
         <v>4.5469999999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -3687,7 +3599,7 @@
         <v>11.617000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -3695,7 +3607,7 @@
         <v>0.58320000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -3703,12 +3615,12 @@
         <v>0.60050000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -3716,7 +3628,7 @@
         <v>5818.38</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -3730,7 +3642,7 @@
         <v>7.9989999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -3744,7 +3656,7 @@
         <v>16169000</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -3752,7 +3664,7 @@
         <v>7266.0069999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -3760,7 +3672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -3768,12 +3680,12 @@
         <v>237.227</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -3781,7 +3693,7 @@
         <v>9112.4040000000005</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -3795,7 +3707,7 @@
         <v>5.0350000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -3803,7 +3715,7 @@
         <v>163.87799999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -3811,7 +3723,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -3819,7 +3731,7 @@
         <v>1214.146</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -3833,7 +3745,7 @@
         <v>9.0299999999999994</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -3847,12 +3759,12 @@
         <v>316534.06800000003</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -3860,7 +3772,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
@@ -3868,7 +3780,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>6.3639999999999999</v>
       </c>
@@ -3876,7 +3788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>16.536999999999999</v>
       </c>
@@ -3884,7 +3796,7 @@
         <v>10.696999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>26.71</v>
       </c>
@@ -3892,7 +3804,7 @@
         <v>39.140999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>36.883000000000003</v>
       </c>
@@ -3900,7 +3812,7 @@
         <v>77.680999999999997</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>47.055999999999997</v>
       </c>
@@ -3908,7 +3820,7 @@
         <v>120.961</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>57.23</v>
       </c>
@@ -3916,7 +3828,7 @@
         <v>163.98</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>67.403000000000006</v>
       </c>
@@ -3924,7 +3836,7 @@
         <v>201.20599999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>77.575999999999993</v>
       </c>
@@ -3932,7 +3844,7 @@
         <v>226.697</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>87.748999999999995</v>
       </c>
@@ -3940,7 +3852,7 @@
         <v>236.68799999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>97.921999999999997</v>
       </c>
@@ -3948,7 +3860,7 @@
         <v>237.227</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>108.095</v>
       </c>
@@ -3956,7 +3868,7 @@
         <v>237.227</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>118.26900000000001</v>
       </c>
@@ -3964,7 +3876,7 @@
         <v>237.227</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>128.44200000000001</v>
       </c>
@@ -3972,7 +3884,7 @@
         <v>237.227</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>138.61500000000001</v>
       </c>
@@ -3980,7 +3892,7 @@
         <v>237.09399999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>148.78800000000001</v>
       </c>
@@ -3988,7 +3900,7 @@
         <v>233.797</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>158.96100000000001</v>
       </c>
@@ -3996,7 +3908,7 @@
         <v>223.97800000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>169.13399999999999</v>
       </c>
@@ -4004,7 +3916,7 @@
         <v>208.91</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>179.30799999999999</v>
       </c>
@@ -4012,7 +3924,7 @@
         <v>187.893</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>189.48099999999999</v>
       </c>
@@ -4020,7 +3932,7 @@
         <v>159.863</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>199.654</v>
       </c>
@@ -4028,7 +3940,7 @@
         <v>123.812</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>209.827</v>
       </c>
@@ -4036,7 +3948,7 @@
         <v>78.241</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>220</v>
       </c>
@@ -4044,12 +3956,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>40</v>
       </c>
@@ -4057,7 +3969,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>41</v>
       </c>
@@ -4065,7 +3977,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>-4.49</v>
       </c>
@@ -4073,7 +3985,7 @@
         <v>165.779</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>6.2</v>
       </c>
@@ -4081,7 +3993,7 @@
         <v>229.09899999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>16.89</v>
       </c>
@@ -4089,7 +4001,7 @@
         <v>300.43400000000003</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>27.58</v>
       </c>
@@ -4097,7 +4009,7 @@
         <v>376.91699999999997</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>38.270000000000003</v>
       </c>
@@ -4105,7 +4017,7 @@
         <v>455.25900000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>48.96</v>
       </c>
@@ -4113,7 +4025,7 @@
         <v>531.28800000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>59.65</v>
       </c>
@@ -4121,7 +4033,7 @@
         <v>599.54399999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>70.34</v>
       </c>
@@ -4129,7 +4041,7 @@
         <v>653.03099999999995</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>81.03</v>
       </c>
@@ -4137,7 +4049,7 @@
         <v>684.23099999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>91.72</v>
       </c>
@@ -4145,7 +4057,7 @@
         <v>691.86599999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>102.41</v>
       </c>
@@ -4153,7 +4065,7 @@
         <v>691.87900000000002</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>113.1</v>
       </c>
@@ -4161,7 +4073,7 @@
         <v>691.87900000000002</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>123.79</v>
       </c>
@@ -4169,7 +4081,7 @@
         <v>691.87900000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>134.47999999999999</v>
       </c>
@@ -4177,7 +4089,7 @@
         <v>691.87</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>145.16999999999999</v>
       </c>
@@ -4185,7 +4097,7 @@
         <v>688.08</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>155.86000000000001</v>
       </c>
@@ -4193,7 +4105,7 @@
         <v>667.70699999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>166.55</v>
       </c>
@@ -4201,7 +4113,7 @@
         <v>631.41899999999998</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>177.24</v>
       </c>
@@ -4209,7 +4121,7 @@
         <v>575.90300000000002</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>187.93</v>
       </c>
@@ -4217,7 +4129,7 @@
         <v>496.43</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>198.62</v>
       </c>
@@ -4225,7 +4137,7 @@
         <v>389.137</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>209.31</v>
       </c>
@@ -4233,7 +4145,7 @@
         <v>250.517</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>220</v>
       </c>
@@ -4241,12 +4153,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>40</v>
       </c>
@@ -4254,7 +4166,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>41</v>
       </c>
@@ -4262,7 +4174,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>163.87799999999999</v>
       </c>
@@ -4270,7 +4182,7 @@
         <v>250.64099999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>177.90799999999999</v>
       </c>
@@ -4278,7 +4190,7 @@
         <v>220.95699999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>191.93899999999999</v>
       </c>
@@ -4286,7 +4198,7 @@
         <v>176.054</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>205.97</v>
       </c>
@@ -4294,7 +4206,7 @@
         <v>112.82</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>220</v>
       </c>
@@ -4302,12 +4214,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>46</v>
       </c>
@@ -4315,7 +4227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>40</v>
       </c>
@@ -4323,7 +4235,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>47</v>
       </c>
@@ -4358,7 +4270,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>-4.49</v>
       </c>
@@ -4393,7 +4305,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>6.2</v>
       </c>
@@ -4428,7 +4340,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>16.89</v>
       </c>
@@ -4463,7 +4375,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>27.58</v>
       </c>
@@ -4498,7 +4410,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>38.270000000000003</v>
       </c>
@@ -4533,7 +4445,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>48.96</v>
       </c>
@@ -4568,7 +4480,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>59.65</v>
       </c>
@@ -4603,7 +4515,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>70.34</v>
       </c>
@@ -4638,7 +4550,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>81.03</v>
       </c>
@@ -4673,7 +4585,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>91.72</v>
       </c>
@@ -4708,7 +4620,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>102.41</v>
       </c>
@@ -4743,7 +4655,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>113.1</v>
       </c>
@@ -4778,7 +4690,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>123.79</v>
       </c>
@@ -4813,7 +4725,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>134.47999999999999</v>
       </c>
@@ -4848,7 +4760,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>145.16999999999999</v>
       </c>
@@ -4883,7 +4795,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>155.86000000000001</v>
       </c>
@@ -4918,7 +4830,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>166.55</v>
       </c>
@@ -4953,7 +4865,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>177.24</v>
       </c>
@@ -4988,7 +4900,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>187.93</v>
       </c>
@@ -5023,7 +4935,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>198.62</v>
       </c>
@@ -5058,7 +4970,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>209.31</v>
       </c>
@@ -5093,7 +5005,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>220</v>
       </c>
@@ -5128,12 +5040,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>59</v>
       </c>
@@ -5141,7 +5053,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>60</v>
       </c>
@@ -5149,7 +5061,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>61</v>
       </c>
@@ -5157,7 +5069,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>62</v>
       </c>
@@ -5165,7 +5077,7 @@
         <v>7.9989999999999997</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>63</v>
       </c>
@@ -5173,7 +5085,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>64</v>
       </c>
@@ -5181,7 +5093,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>65</v>
       </c>
@@ -5189,7 +5101,7 @@
         <v>40260.036999999997</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>66</v>
       </c>
@@ -5197,7 +5109,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>7</v>
       </c>
@@ -5205,7 +5117,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>67</v>
       </c>
@@ -5213,7 +5125,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>68</v>
       </c>
@@ -5221,7 +5133,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>69</v>
       </c>
@@ -5229,7 +5141,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>12</v>
       </c>
@@ -5237,7 +5149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>70</v>
       </c>
@@ -5245,7 +5157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>71</v>
       </c>
@@ -5253,7 +5165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>72</v>
       </c>
@@ -5261,7 +5173,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>73</v>
       </c>
@@ -5269,7 +5181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>74</v>
       </c>
@@ -5277,7 +5189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>75</v>
       </c>
@@ -5285,7 +5197,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>76</v>
       </c>
@@ -5293,7 +5205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>77</v>
       </c>
@@ -5301,17 +5213,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>80</v>
       </c>
@@ -5352,7 +5264,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <v>19</v>
       </c>
@@ -5393,12 +5305,12 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>40</v>
       </c>
@@ -5406,7 +5318,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>80</v>
       </c>
@@ -5447,7 +5359,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>6</v>
       </c>
@@ -5488,7 +5400,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>7</v>
       </c>
@@ -5529,7 +5441,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>8</v>
       </c>
@@ -5570,7 +5482,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <v>9</v>
       </c>
@@ -5611,7 +5523,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <v>10</v>
       </c>
@@ -5652,7 +5564,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>11</v>
       </c>
@@ -5693,7 +5605,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <v>12</v>
       </c>
@@ -5734,7 +5646,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <v>13</v>
       </c>
@@ -5775,7 +5687,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <v>14</v>
       </c>
@@ -5816,7 +5728,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <v>15</v>
       </c>
@@ -5857,7 +5769,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <v>16</v>
       </c>
@@ -5898,7 +5810,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <v>17</v>
       </c>
@@ -5939,7 +5851,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <v>18</v>
       </c>
@@ -5980,7 +5892,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <v>19</v>
       </c>
@@ -6021,7 +5933,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <v>20</v>
       </c>
@@ -6062,22 +5974,22 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>97</v>
       </c>
@@ -6085,22 +5997,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>101</v>
       </c>
@@ -6108,7 +6020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>102</v>
       </c>
@@ -6116,7 +6028,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>103</v>
       </c>
@@ -6124,17 +6036,17 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>106</v>
       </c>
@@ -6142,7 +6054,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>107</v>
       </c>
@@ -6150,7 +6062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>110</v>
       </c>
@@ -6169,20 +6081,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="14.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -6190,7 +6102,7 @@
         <v>224.49</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -6198,7 +6110,7 @@
         <v>34.99</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -6206,7 +6118,7 @@
         <v>20.995000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -6214,7 +6126,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -6222,7 +6134,7 @@
         <v>213.62100000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -6230,7 +6142,7 @@
         <v>96.47</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -6238,7 +6150,7 @@
         <v>136.72999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -6246,12 +6158,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -6259,7 +6171,7 @@
         <v>7.9950000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -6267,7 +6179,7 @@
         <v>7.9950000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -6275,7 +6187,7 @@
         <v>7.9950000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -6283,12 +6195,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -6296,7 +6208,7 @@
         <v>22.844999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -6304,7 +6216,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -6318,12 +6230,12 @@
         <v>7.9950000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -6331,7 +6243,7 @@
         <v>35469.19</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -6339,7 +6251,7 @@
         <v>118781.379</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -6353,7 +6265,7 @@
         <v>4.5449999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -6367,7 +6279,7 @@
         <v>11.615</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -6375,7 +6287,7 @@
         <v>0.58309999999999995</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -6383,12 +6295,12 @@
         <v>0.60050000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -6396,7 +6308,7 @@
         <v>5816.48</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -6410,7 +6322,7 @@
         <v>7.9950000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -6424,7 +6336,7 @@
         <v>16161000</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -6432,7 +6344,7 @@
         <v>7262.8789999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -6440,7 +6352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -6448,12 +6360,12 @@
         <v>237.024</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -6461,7 +6373,7 @@
         <v>9108.5580000000009</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -6475,7 +6387,7 @@
         <v>5.0339999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -6483,7 +6395,7 @@
         <v>163.87799999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -6491,7 +6403,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -6499,7 +6411,7 @@
         <v>1213.885</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -6513,7 +6425,7 @@
         <v>9.0280000000000005</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -6527,12 +6439,12 @@
         <v>316437.598</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -6540,7 +6452,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
@@ -6548,7 +6460,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>6.3789999999999996</v>
       </c>
@@ -6556,7 +6468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>16.552</v>
       </c>
@@ -6564,7 +6476,7 @@
         <v>10.693</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>26.724</v>
       </c>
@@ -6572,7 +6484,7 @@
         <v>39.119999999999997</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>36.896000000000001</v>
       </c>
@@ -6580,7 +6492,7 @@
         <v>77.635000000000005</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>47.069000000000003</v>
       </c>
@@ -6588,7 +6500,7 @@
         <v>120.883</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>57.241</v>
       </c>
@@ -6596,7 +6508,7 @@
         <v>163.869</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>67.414000000000001</v>
       </c>
@@ -6604,7 +6516,7 @@
         <v>201.059</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>77.585999999999999</v>
       </c>
@@ -6612,7 +6524,7 @@
         <v>226.51900000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>87.759</v>
       </c>
@@ -6620,7 +6532,7 @@
         <v>236.488</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>97.930999999999997</v>
       </c>
@@ -6628,7 +6540,7 @@
         <v>237.024</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>108.10299999999999</v>
       </c>
@@ -6636,7 +6548,7 @@
         <v>237.024</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>118.276</v>
       </c>
@@ -6644,7 +6556,7 @@
         <v>237.024</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>128.44800000000001</v>
       </c>
@@ -6652,7 +6564,7 @@
         <v>237.024</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>138.62100000000001</v>
       </c>
@@ -6660,7 +6572,7 @@
         <v>236.89099999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>148.79300000000001</v>
       </c>
@@ -6668,7 +6580,7 @@
         <v>233.595</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>158.96600000000001</v>
       </c>
@@ -6676,7 +6588,7 @@
         <v>223.785</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>169.13800000000001</v>
       </c>
@@ -6684,7 +6596,7 @@
         <v>208.73099999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>179.31</v>
       </c>
@@ -6692,7 +6604,7 @@
         <v>187.733</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>189.483</v>
       </c>
@@ -6700,7 +6612,7 @@
         <v>159.72800000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>199.655</v>
       </c>
@@ -6708,7 +6620,7 @@
         <v>123.709</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>209.828</v>
       </c>
@@ -6716,7 +6628,7 @@
         <v>78.177000000000007</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>220</v>
       </c>
@@ -6724,12 +6636,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>40</v>
       </c>
@@ -6737,7 +6649,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>41</v>
       </c>
@@ -6745,7 +6657,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>-4.49</v>
       </c>
@@ -6753,7 +6665,7 @@
         <v>165.709</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>6.2</v>
       </c>
@@ -6761,7 +6673,7 @@
         <v>228.99700000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>16.89</v>
       </c>
@@ -6769,7 +6681,7 @@
         <v>300.29599999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>27.58</v>
       </c>
@@ -6777,7 +6689,7 @@
         <v>376.74400000000003</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>38.270000000000003</v>
       </c>
@@ -6785,7 +6697,7 @@
         <v>455.05200000000002</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>48.96</v>
       </c>
@@ -6793,7 +6705,7 @@
         <v>531.04700000000003</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>59.65</v>
       </c>
@@ -6801,7 +6713,7 @@
         <v>599.274</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>70.34</v>
       </c>
@@ -6809,7 +6721,7 @@
         <v>652.73900000000003</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>81.03</v>
       </c>
@@ -6817,7 +6729,7 @@
         <v>683.92600000000004</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>91.72</v>
       </c>
@@ -6825,7 +6737,7 @@
         <v>691.55799999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>102.41</v>
       </c>
@@ -6833,7 +6745,7 @@
         <v>691.57100000000003</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>113.1</v>
       </c>
@@ -6841,7 +6753,7 @@
         <v>691.57100000000003</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>123.79</v>
       </c>
@@ -6849,7 +6761,7 @@
         <v>691.57100000000003</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>134.47999999999999</v>
       </c>
@@ -6857,7 +6769,7 @@
         <v>691.56200000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>145.16999999999999</v>
       </c>
@@ -6865,7 +6777,7 @@
         <v>687.774</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>155.86000000000001</v>
       </c>
@@ -6873,7 +6785,7 @@
         <v>667.41300000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>166.55</v>
       </c>
@@ -6881,7 +6793,7 @@
         <v>631.14599999999996</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>177.24</v>
       </c>
@@ -6889,7 +6801,7 @@
         <v>575.66099999999994</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>187.93</v>
       </c>
@@ -6897,7 +6809,7 @@
         <v>496.22699999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>198.62</v>
       </c>
@@ -6905,7 +6817,7 @@
         <v>388.98399999999998</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>209.31</v>
       </c>
@@ -6913,7 +6825,7 @@
         <v>250.422</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>220</v>
       </c>
@@ -6921,12 +6833,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>40</v>
       </c>
@@ -6934,7 +6846,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>41</v>
       </c>
@@ -6942,7 +6854,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>163.87799999999999</v>
       </c>
@@ -6950,7 +6862,7 @@
         <v>250.52500000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>177.90799999999999</v>
       </c>
@@ -6958,7 +6870,7 @@
         <v>220.86</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>191.93899999999999</v>
       </c>
@@ -6966,7 +6878,7 @@
         <v>175.98099999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>205.97</v>
       </c>
@@ -6974,7 +6886,7 @@
         <v>112.777</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>220</v>
       </c>
@@ -6982,12 +6894,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>46</v>
       </c>
@@ -6995,7 +6907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>40</v>
       </c>
@@ -7003,7 +6915,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>47</v>
       </c>
@@ -7038,7 +6950,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>-4.49</v>
       </c>
@@ -7073,7 +6985,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>6.2</v>
       </c>
@@ -7108,7 +7020,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>16.89</v>
       </c>
@@ -7143,7 +7055,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>27.58</v>
       </c>
@@ -7178,7 +7090,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>38.270000000000003</v>
       </c>
@@ -7213,7 +7125,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>48.96</v>
       </c>
@@ -7248,7 +7160,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>59.65</v>
       </c>
@@ -7283,7 +7195,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>70.34</v>
       </c>
@@ -7318,7 +7230,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>81.03</v>
       </c>
@@ -7353,7 +7265,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>91.72</v>
       </c>
@@ -7388,7 +7300,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>102.41</v>
       </c>
@@ -7423,7 +7335,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>113.1</v>
       </c>
@@ -7458,7 +7370,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>123.79</v>
       </c>
@@ -7493,7 +7405,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>134.47999999999999</v>
       </c>
@@ -7528,7 +7440,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>145.16999999999999</v>
       </c>
@@ -7563,7 +7475,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>155.86000000000001</v>
       </c>
@@ -7598,7 +7510,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>166.55</v>
       </c>
@@ -7633,7 +7545,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>177.24</v>
       </c>
@@ -7668,7 +7580,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>187.93</v>
       </c>
@@ -7703,7 +7615,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>198.62</v>
       </c>
@@ -7738,7 +7650,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>209.31</v>
       </c>
@@ -7773,7 +7685,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>220</v>
       </c>
@@ -7808,12 +7720,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>59</v>
       </c>
@@ -7821,7 +7733,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>60</v>
       </c>
@@ -7829,7 +7741,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>61</v>
       </c>
@@ -7837,7 +7749,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>62</v>
       </c>
@@ -7845,7 +7757,7 @@
         <v>7.9950000000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>63</v>
       </c>
@@ -7853,7 +7765,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>64</v>
       </c>
@@ -7861,7 +7773,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>65</v>
       </c>
@@ -7869,7 +7781,7 @@
         <v>40260.036999999997</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>66</v>
       </c>
@@ -7877,7 +7789,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>7</v>
       </c>
@@ -7885,7 +7797,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>67</v>
       </c>
@@ -7893,7 +7805,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>68</v>
       </c>
@@ -7901,7 +7813,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>69</v>
       </c>
@@ -7909,7 +7821,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>12</v>
       </c>
@@ -7917,7 +7829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>70</v>
       </c>
@@ -7925,7 +7837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>71</v>
       </c>
@@ -7933,7 +7845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>72</v>
       </c>
@@ -7941,7 +7853,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>73</v>
       </c>
@@ -7949,7 +7861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>74</v>
       </c>
@@ -7957,7 +7869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>75</v>
       </c>
@@ -7965,7 +7877,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>76</v>
       </c>
@@ -7973,7 +7885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>77</v>
       </c>
@@ -7981,17 +7893,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>80</v>
       </c>
@@ -8032,7 +7944,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <v>19</v>
       </c>
@@ -8073,12 +7985,12 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>40</v>
       </c>
@@ -8086,7 +7998,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>80</v>
       </c>
@@ -8127,7 +8039,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>6</v>
       </c>
@@ -8168,7 +8080,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>7</v>
       </c>
@@ -8209,7 +8121,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>8</v>
       </c>
@@ -8250,7 +8162,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <v>9</v>
       </c>
@@ -8291,7 +8203,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <v>10</v>
       </c>
@@ -8332,7 +8244,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>11</v>
       </c>
@@ -8373,7 +8285,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <v>12</v>
       </c>
@@ -8414,7 +8326,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <v>13</v>
       </c>
@@ -8455,7 +8367,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <v>14</v>
       </c>
@@ -8496,7 +8408,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <v>15</v>
       </c>
@@ -8537,7 +8449,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <v>16</v>
       </c>
@@ -8578,7 +8490,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <v>17</v>
       </c>
@@ -8619,7 +8531,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <v>18</v>
       </c>
@@ -8660,7 +8572,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <v>19</v>
       </c>
@@ -8701,7 +8613,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <v>20</v>
       </c>
@@ -8742,22 +8654,22 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>97</v>
       </c>
@@ -8765,22 +8677,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>101</v>
       </c>
@@ -8788,7 +8700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>102</v>
       </c>
@@ -8796,7 +8708,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>103</v>
       </c>
@@ -8804,17 +8716,17 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>106</v>
       </c>
@@ -8822,7 +8734,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>107</v>
       </c>
@@ -8830,7 +8742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>109</v>
       </c>
@@ -8849,20 +8761,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="14.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -8870,7 +8782,7 @@
         <v>224.49</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -8878,7 +8790,7 @@
         <v>34.979999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -8886,7 +8798,7 @@
         <v>20.99</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -8894,7 +8806,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -8902,7 +8814,7 @@
         <v>213.602</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -8910,7 +8822,7 @@
         <v>96.47</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -8918,7 +8830,7 @@
         <v>136.72999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -8926,12 +8838,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -8939,7 +8851,7 @@
         <v>7.99</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -8947,7 +8859,7 @@
         <v>7.99</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -8955,7 +8867,7 @@
         <v>7.99</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -8963,12 +8875,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -8976,7 +8888,7 @@
         <v>22.84</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -8984,7 +8896,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -8998,12 +8910,12 @@
         <v>7.99</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -9011,7 +8923,7 @@
         <v>35429.917999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -9019,7 +8931,7 @@
         <v>118716.12699999999</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -9033,7 +8945,7 @@
         <v>4.5419999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -9047,7 +8959,7 @@
         <v>11.613</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -9055,7 +8967,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -9063,12 +8975,12 @@
         <v>0.60050000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -9076,7 +8988,7 @@
         <v>5814.1059999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -9090,7 +9002,7 @@
         <v>7.99</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -9104,7 +9016,7 @@
         <v>16152000</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -9112,7 +9024,7 @@
         <v>7258.97</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -9120,7 +9032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -9128,12 +9040,12 @@
         <v>236.77199999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -9141,7 +9053,7 @@
         <v>9103.7520000000004</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -9155,7 +9067,7 @@
         <v>5.0330000000000004</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -9163,7 +9075,7 @@
         <v>163.87799999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -9171,7 +9083,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -9179,7 +9091,7 @@
         <v>1213.559</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -9193,7 +9105,7 @@
         <v>9.0259999999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -9207,12 +9119,12 @@
         <v>316317.033</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -9220,7 +9132,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
@@ -9228,7 +9140,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>6.3979999999999997</v>
       </c>
@@ -9236,7 +9148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>16.57</v>
       </c>
@@ -9244,7 +9156,7 @@
         <v>10.686999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>26.741</v>
       </c>
@@ -9252,7 +9164,7 @@
         <v>39.093000000000004</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>36.912999999999997</v>
       </c>
@@ -9260,7 +9172,7 @@
         <v>77.576999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>47.084000000000003</v>
       </c>
@@ -9268,7 +9180,7 @@
         <v>120.78700000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>57.256</v>
       </c>
@@ -9276,7 +9188,7 @@
         <v>163.72900000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>67.427000000000007</v>
       </c>
@@ -9284,7 +9196,7 @@
         <v>200.876</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>77.599000000000004</v>
       </c>
@@ -9292,7 +9204,7 @@
         <v>226.29599999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>87.77</v>
       </c>
@@ -9300,7 +9212,7 @@
         <v>236.239</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>97.941999999999993</v>
       </c>
@@ -9308,7 +9220,7 @@
         <v>236.77199999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>108.113</v>
       </c>
@@ -9316,7 +9228,7 @@
         <v>236.77199999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>118.285</v>
       </c>
@@ -9324,7 +9236,7 @@
         <v>236.77199999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>128.45599999999999</v>
       </c>
@@ -9332,7 +9244,7 @@
         <v>236.77199999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>138.62799999999999</v>
       </c>
@@ -9340,7 +9252,7 @@
         <v>236.63800000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>148.80000000000001</v>
       </c>
@@ -9348,7 +9260,7 @@
         <v>233.34200000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>158.971</v>
       </c>
@@ -9356,7 +9268,7 @@
         <v>223.54400000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>169.143</v>
       </c>
@@ -9364,7 +9276,7 @@
         <v>208.50700000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>179.31399999999999</v>
       </c>
@@ -9372,7 +9284,7 @@
         <v>187.53399999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>189.48599999999999</v>
       </c>
@@ -9380,7 +9292,7 @@
         <v>159.56100000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>199.65700000000001</v>
       </c>
@@ -9388,7 +9300,7 @@
         <v>123.581</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>209.82900000000001</v>
       </c>
@@ -9396,7 +9308,7 @@
         <v>78.096999999999994</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>220</v>
       </c>
@@ -9404,12 +9316,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>40</v>
       </c>
@@ -9417,7 +9329,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>41</v>
       </c>
@@ -9425,7 +9337,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>-4.49</v>
       </c>
@@ -9433,7 +9345,7 @@
         <v>165.62299999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>6.2</v>
       </c>
@@ -9441,7 +9353,7 @@
         <v>228.869</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>16.89</v>
       </c>
@@ -9449,7 +9361,7 @@
         <v>300.125</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>27.58</v>
       </c>
@@ -9457,7 +9369,7 @@
         <v>376.52800000000002</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>38.270000000000003</v>
       </c>
@@ -9465,7 +9377,7 @@
         <v>454.79199999999997</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>48.96</v>
       </c>
@@ -9473,7 +9385,7 @@
         <v>530.74599999999998</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>59.65</v>
       </c>
@@ -9481,7 +9393,7 @@
         <v>598.93700000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>70.34</v>
       </c>
@@ -9489,7 +9401,7 @@
         <v>652.37400000000002</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>81.03</v>
       </c>
@@ -9497,7 +9409,7 @@
         <v>683.54499999999996</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>91.72</v>
       </c>
@@ -9505,7 +9417,7 @@
         <v>691.173</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>102.41</v>
       </c>
@@ -9513,7 +9425,7 @@
         <v>691.18600000000004</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>113.1</v>
       </c>
@@ -9521,7 +9433,7 @@
         <v>691.18600000000004</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>123.79</v>
       </c>
@@ -9529,7 +9441,7 @@
         <v>691.18600000000004</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>134.47999999999999</v>
       </c>
@@ -9537,7 +9449,7 @@
         <v>691.178</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>145.16999999999999</v>
       </c>
@@ -9545,7 +9457,7 @@
         <v>687.39200000000005</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>155.86000000000001</v>
       </c>
@@ -9553,7 +9465,7 @@
         <v>667.04600000000005</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>166.55</v>
       </c>
@@ -9561,7 +9473,7 @@
         <v>630.80499999999995</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>177.24</v>
       </c>
@@ -9569,7 +9481,7 @@
         <v>575.35799999999995</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>187.93</v>
       </c>
@@ -9577,7 +9489,7 @@
         <v>495.97399999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>198.62</v>
       </c>
@@ -9585,7 +9497,7 @@
         <v>388.791</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>209.31</v>
       </c>
@@ -9593,7 +9505,7 @@
         <v>250.30199999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>220</v>
       </c>
@@ -9601,12 +9513,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>40</v>
       </c>
@@ -9614,7 +9526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>41</v>
       </c>
@@ -9622,7 +9534,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>163.87799999999999</v>
       </c>
@@ -9630,7 +9542,7 @@
         <v>250.381</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>177.90799999999999</v>
       </c>
@@ -9638,7 +9550,7 @@
         <v>220.74</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>191.93899999999999</v>
       </c>
@@ -9646,7 +9558,7 @@
         <v>175.89099999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>205.97</v>
       </c>
@@ -9654,7 +9566,7 @@
         <v>112.723</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>220</v>
       </c>
@@ -9662,12 +9574,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>46</v>
       </c>
@@ -9675,7 +9587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>40</v>
       </c>
@@ -9683,7 +9595,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>47</v>
       </c>
@@ -9718,7 +9630,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>-4.49</v>
       </c>
@@ -9753,7 +9665,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>6.2</v>
       </c>
@@ -9788,7 +9700,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>16.89</v>
       </c>
@@ -9823,7 +9735,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>27.58</v>
       </c>
@@ -9858,7 +9770,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>38.270000000000003</v>
       </c>
@@ -9893,7 +9805,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>48.96</v>
       </c>
@@ -9928,7 +9840,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>59.65</v>
       </c>
@@ -9963,7 +9875,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>70.34</v>
       </c>
@@ -9998,7 +9910,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>81.03</v>
       </c>
@@ -10033,7 +9945,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>91.72</v>
       </c>
@@ -10068,7 +9980,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>102.41</v>
       </c>
@@ -10103,7 +10015,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>113.1</v>
       </c>
@@ -10138,7 +10050,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>123.79</v>
       </c>
@@ -10173,7 +10085,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>134.47999999999999</v>
       </c>
@@ -10208,7 +10120,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>145.16999999999999</v>
       </c>
@@ -10243,7 +10155,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>155.86000000000001</v>
       </c>
@@ -10278,7 +10190,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>166.55</v>
       </c>
@@ -10313,7 +10225,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>177.24</v>
       </c>
@@ -10348,7 +10260,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>187.93</v>
       </c>
@@ -10383,7 +10295,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>198.62</v>
       </c>
@@ -10418,7 +10330,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>209.31</v>
       </c>
@@ -10453,7 +10365,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>220</v>
       </c>
@@ -10488,12 +10400,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>59</v>
       </c>
@@ -10501,7 +10413,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>60</v>
       </c>
@@ -10509,7 +10421,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>61</v>
       </c>
@@ -10517,7 +10429,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>62</v>
       </c>
@@ -10525,7 +10437,7 @@
         <v>7.99</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>63</v>
       </c>
@@ -10533,7 +10445,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>64</v>
       </c>
@@ -10541,7 +10453,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>65</v>
       </c>
@@ -10549,7 +10461,7 @@
         <v>40260.036999999997</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>66</v>
       </c>
@@ -10557,7 +10469,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>7</v>
       </c>
@@ -10565,7 +10477,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>67</v>
       </c>
@@ -10573,7 +10485,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>68</v>
       </c>
@@ -10581,7 +10493,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>69</v>
       </c>
@@ -10589,7 +10501,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>12</v>
       </c>
@@ -10597,7 +10509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>70</v>
       </c>
@@ -10605,7 +10517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>71</v>
       </c>
@@ -10613,7 +10525,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>72</v>
       </c>
@@ -10621,7 +10533,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>73</v>
       </c>
@@ -10629,7 +10541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>74</v>
       </c>
@@ -10637,7 +10549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>75</v>
       </c>
@@ -10645,7 +10557,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>76</v>
       </c>
@@ -10653,7 +10565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>77</v>
       </c>
@@ -10661,17 +10573,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>80</v>
       </c>
@@ -10712,7 +10624,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <v>19</v>
       </c>
@@ -10753,12 +10665,12 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>40</v>
       </c>
@@ -10766,7 +10678,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>80</v>
       </c>
@@ -10807,7 +10719,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>6</v>
       </c>
@@ -10848,7 +10760,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>7</v>
       </c>
@@ -10889,7 +10801,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>8</v>
       </c>
@@ -10930,7 +10842,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <v>9</v>
       </c>
@@ -10971,7 +10883,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <v>10</v>
       </c>
@@ -11012,7 +10924,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>11</v>
       </c>
@@ -11053,7 +10965,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <v>12</v>
       </c>
@@ -11094,7 +11006,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <v>13</v>
       </c>
@@ -11135,7 +11047,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <v>14</v>
       </c>
@@ -11176,7 +11088,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <v>15</v>
       </c>
@@ -11217,7 +11129,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <v>16</v>
       </c>
@@ -11258,7 +11170,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <v>17</v>
       </c>
@@ -11299,7 +11211,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <v>18</v>
       </c>
@@ -11340,7 +11252,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <v>19</v>
       </c>
@@ -11381,7 +11293,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <v>20</v>
       </c>
@@ -11422,22 +11334,22 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>97</v>
       </c>
@@ -11445,22 +11357,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>101</v>
       </c>
@@ -11468,7 +11380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>102</v>
       </c>
@@ -11476,7 +11388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>103</v>
       </c>
@@ -11484,17 +11396,17 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>106</v>
       </c>
@@ -11502,7 +11414,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>107</v>
       </c>
@@ -11510,7 +11422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>108</v>
       </c>

--- a/IP.xlsx
+++ b/IP.xlsx
@@ -5,25 +5,26 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomol\.spyder-py3\MT-1\IP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2ee38df677a9f564/Documenten/Maritieme techniek/Q4/IP-26/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2DB163-3540-4535-82BB-2A763B4E6A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{5D2DB163-3540-4535-82BB-2A763B4E6A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF071A7C-9BAB-4D38-ADE7-937C2FCD5337}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VB schip van Goris" sheetId="5" r:id="rId1"/>
-    <sheet name="Plaatdikte uitvogelen" sheetId="2" r:id="rId2"/>
-    <sheet name="Plaatdikte 2" sheetId="3" r:id="rId3"/>
-    <sheet name="Plaatdikte 3" sheetId="4" r:id="rId4"/>
+    <sheet name="ik ben snelheid" sheetId="6" r:id="rId2"/>
+    <sheet name="Plaatdikte uitvogelen" sheetId="2" r:id="rId3"/>
+    <sheet name="Plaatdikte 2" sheetId="3" r:id="rId4"/>
+    <sheet name="Plaatdikte 3" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="116">
   <si>
     <t>Loa  [m]</t>
   </si>
@@ -360,6 +361,18 @@
   <si>
     <t>Deck is 13053 mm from WL</t>
   </si>
+  <si>
+    <t>WARNING: The Z value of point 1-3 of the bow intermediate curve is not zero</t>
+  </si>
+  <si>
+    <t>SHIP DOES NOT ADHERE TO LWL/B RATIO LIMITATION</t>
+  </si>
+  <si>
+    <t>Half waterline entrance angle calculated using HMT 1984 method</t>
+  </si>
+  <si>
+    <t>Deck is 4607 mm from WL</t>
+  </si>
 </sst>
 </file>
 
@@ -426,7 +439,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -728,13 +741,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DD5B60-8F68-4A4C-A146-6DEED2955986}">
   <dimension ref="A2:M183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="H94" sqref="H94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -742,7 +755,7 @@
         <v>224.49</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -750,7 +763,7 @@
         <v>34.893999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -758,7 +771,7 @@
         <v>20.946999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -766,7 +779,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -774,7 +787,7 @@
         <v>213.43700000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -782,7 +795,7 @@
         <v>96.47</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -790,7 +803,7 @@
         <v>136.72999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -798,12 +811,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -811,7 +824,7 @@
         <v>7.9470000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -819,7 +832,7 @@
         <v>7.9470000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -827,7 +840,7 @@
         <v>7.9470000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -835,12 +848,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -848,7 +861,7 @@
         <v>22.791</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -856,7 +869,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -870,12 +883,12 @@
         <v>7.9470000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -883,7 +896,7 @@
         <v>35092.942999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -891,7 +904,7 @@
         <v>118155.65</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -905,7 +918,7 @@
         <v>4.5190000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -919,7 +932,7 @@
         <v>11.590999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -927,7 +940,7 @@
         <v>0.58230000000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -935,12 +948,12 @@
         <v>0.60019999999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -948,7 +961,7 @@
         <v>5793.6490000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -962,7 +975,7 @@
         <v>7.9470000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -976,7 +989,7 @@
         <v>16074000</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -984,7 +997,7 @@
         <v>7225.348</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -992,7 +1005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1000,12 +1013,12 @@
         <v>234.602</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1013,7 +1026,7 @@
         <v>9062.4670000000006</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1027,7 +1040,7 @@
         <v>5.0229999999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1035,7 +1048,7 @@
         <v>163.87799999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1043,7 +1056,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1051,7 +1064,7 @@
         <v>1210.7560000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1065,7 +1078,7 @@
         <v>9.0069999999999997</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1079,12 +1092,12 @@
         <v>315281.22100000002</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1092,7 +1105,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -1100,7 +1113,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>6.5640000000000001</v>
       </c>
@@ -1108,7 +1121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>16.727</v>
       </c>
@@ -1116,7 +1129,7 @@
         <v>10.638999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>26.890999999999998</v>
       </c>
@@ -1124,7 +1137,7 @@
         <v>38.869</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>37.054000000000002</v>
       </c>
@@ -1132,7 +1145,7 @@
         <v>77.081999999999994</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47.218000000000004</v>
       </c>
@@ -1140,7 +1153,7 @@
         <v>119.959</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>57.381999999999998</v>
       </c>
@@ -1148,7 +1161,7 @@
         <v>162.53200000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>67.545000000000002</v>
       </c>
@@ -1156,7 +1169,7 @@
         <v>199.303</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>77.709000000000003</v>
       </c>
@@ -1164,7 +1177,7 @@
         <v>224.38200000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>87.873000000000005</v>
       </c>
@@ -1172,7 +1185,7 @@
         <v>234.102</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>98.036000000000001</v>
       </c>
@@ -1180,7 +1193,7 @@
         <v>234.602</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>108.2</v>
       </c>
@@ -1188,7 +1201,7 @@
         <v>234.602</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>118.364</v>
       </c>
@@ -1196,7 +1209,7 @@
         <v>234.602</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>128.52699999999999</v>
       </c>
@@ -1204,7 +1217,7 @@
         <v>234.602</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>138.691</v>
       </c>
@@ -1212,7 +1225,7 @@
         <v>234.46600000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>148.85499999999999</v>
       </c>
@@ -1220,7 +1233,7 @@
         <v>231.17699999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>159.018</v>
       </c>
@@ -1228,7 +1241,7 @@
         <v>221.471</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>169.18199999999999</v>
       </c>
@@ -1236,7 +1249,7 @@
         <v>206.59</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>179.346</v>
       </c>
@@ -1244,7 +1257,7 @@
         <v>185.82599999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>189.50899999999999</v>
       </c>
@@ -1252,7 +1265,7 @@
         <v>158.12200000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>199.673</v>
       </c>
@@ -1260,7 +1273,7 @@
         <v>122.479</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>209.83699999999999</v>
       </c>
@@ -1268,7 +1281,7 @@
         <v>77.409000000000006</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>220</v>
       </c>
@@ -1276,12 +1289,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>40</v>
       </c>
@@ -1289,7 +1302,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>41</v>
       </c>
@@ -1297,7 +1310,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>-4.49</v>
       </c>
@@ -1305,7 +1318,7 @@
         <v>164.87700000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>6.2</v>
       </c>
@@ -1313,7 +1326,7 @@
         <v>227.77099999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>16.89</v>
       </c>
@@ -1321,7 +1334,7 @@
         <v>298.65199999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>27.58</v>
       </c>
@@ -1329,7 +1342,7 @@
         <v>374.67399999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>38.270000000000003</v>
       </c>
@@ -1337,7 +1350,7 @@
         <v>452.56200000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>48.96</v>
       </c>
@@ -1345,7 +1358,7 @@
         <v>528.16200000000003</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>59.65</v>
       </c>
@@ -1353,7 +1366,7 @@
         <v>596.04300000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>70.34</v>
       </c>
@@ -1361,7 +1374,7 @@
         <v>649.24</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>81.03</v>
       </c>
@@ -1369,7 +1382,7 @@
         <v>680.27300000000002</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>91.72</v>
       </c>
@@ -1377,7 +1390,7 @@
         <v>687.86800000000005</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>102.41</v>
       </c>
@@ -1385,7 +1398,7 @@
         <v>687.88099999999997</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>113.1</v>
       </c>
@@ -1393,7 +1406,7 @@
         <v>687.88099999999997</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>123.79</v>
       </c>
@@ -1401,7 +1414,7 @@
         <v>687.88099999999997</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>134.47999999999999</v>
       </c>
@@ -1409,7 +1422,7 @@
         <v>687.87199999999996</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>145.16999999999999</v>
       </c>
@@ -1417,7 +1430,7 @@
         <v>684.11099999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>155.86000000000001</v>
       </c>
@@ -1425,7 +1438,7 @@
         <v>663.89300000000003</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>166.55</v>
       </c>
@@ -1433,7 +1446,7 @@
         <v>627.87900000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>177.24</v>
       </c>
@@ -1441,7 +1454,7 @@
         <v>572.75599999999997</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>187.93</v>
       </c>
@@ -1449,7 +1462,7 @@
         <v>493.8</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>198.62</v>
       </c>
@@ -1457,7 +1470,7 @@
         <v>387.14100000000002</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>209.31</v>
       </c>
@@ -1465,7 +1478,7 @@
         <v>249.27799999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>220</v>
       </c>
@@ -1473,12 +1486,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>40</v>
       </c>
@@ -1486,7 +1499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>41</v>
       </c>
@@ -1494,7 +1507,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>163.87799999999999</v>
       </c>
@@ -1502,7 +1515,7 @@
         <v>249.14</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>177.90799999999999</v>
       </c>
@@ -1510,7 +1523,7 @@
         <v>219.703</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>191.93899999999999</v>
       </c>
@@ -1518,7 +1531,7 @@
         <v>175.114</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>205.97</v>
       </c>
@@ -1526,7 +1539,7 @@
         <v>112.256</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>220</v>
       </c>
@@ -1534,12 +1547,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>46</v>
       </c>
@@ -1547,7 +1560,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>40</v>
       </c>
@@ -1555,7 +1568,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>47</v>
       </c>
@@ -1590,7 +1603,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>-4.49</v>
       </c>
@@ -1625,7 +1638,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>6.2</v>
       </c>
@@ -1660,7 +1673,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>16.89</v>
       </c>
@@ -1695,7 +1708,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>27.58</v>
       </c>
@@ -1730,7 +1743,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>38.270000000000003</v>
       </c>
@@ -1765,7 +1778,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>48.96</v>
       </c>
@@ -1800,7 +1813,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>59.65</v>
       </c>
@@ -1835,7 +1848,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>70.34</v>
       </c>
@@ -1870,7 +1883,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>81.03</v>
       </c>
@@ -1905,7 +1918,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>91.72</v>
       </c>
@@ -1940,7 +1953,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>102.41</v>
       </c>
@@ -1975,7 +1988,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113.1</v>
       </c>
@@ -2010,7 +2023,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>123.79</v>
       </c>
@@ -2045,7 +2058,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>134.47999999999999</v>
       </c>
@@ -2080,7 +2093,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>145.16999999999999</v>
       </c>
@@ -2115,7 +2128,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>155.86000000000001</v>
       </c>
@@ -2150,7 +2163,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>166.55</v>
       </c>
@@ -2185,7 +2198,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>177.24</v>
       </c>
@@ -2220,7 +2233,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>187.93</v>
       </c>
@@ -2255,7 +2268,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>198.62</v>
       </c>
@@ -2290,7 +2303,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>209.31</v>
       </c>
@@ -2325,7 +2338,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>220</v>
       </c>
@@ -2360,12 +2373,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>59</v>
       </c>
@@ -2373,7 +2386,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>60</v>
       </c>
@@ -2381,7 +2394,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>61</v>
       </c>
@@ -2389,7 +2402,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>62</v>
       </c>
@@ -2397,7 +2410,7 @@
         <v>7.9470000000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>63</v>
       </c>
@@ -2405,7 +2418,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>64</v>
       </c>
@@ -2413,7 +2426,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>65</v>
       </c>
@@ -2421,7 +2434,7 @@
         <v>40260.036999999997</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>66</v>
       </c>
@@ -2429,7 +2442,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -2437,7 +2450,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>67</v>
       </c>
@@ -2445,7 +2458,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>68</v>
       </c>
@@ -2453,7 +2466,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>69</v>
       </c>
@@ -2461,7 +2474,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>12</v>
       </c>
@@ -2469,7 +2482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>70</v>
       </c>
@@ -2477,7 +2490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>71</v>
       </c>
@@ -2485,7 +2498,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>72</v>
       </c>
@@ -2493,7 +2506,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>73</v>
       </c>
@@ -2501,7 +2514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>74</v>
       </c>
@@ -2509,7 +2522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>75</v>
       </c>
@@ -2517,7 +2530,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>76</v>
       </c>
@@ -2525,7 +2538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>77</v>
       </c>
@@ -2533,17 +2546,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>80</v>
       </c>
@@ -2584,7 +2597,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>19</v>
       </c>
@@ -2625,12 +2638,12 @@
         <v>0.16696088409096599</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>40</v>
       </c>
@@ -2638,7 +2651,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>80</v>
       </c>
@@ -2679,7 +2692,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>6</v>
       </c>
@@ -2720,7 +2733,7 @@
         <v>0.16696088409096599</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>7</v>
       </c>
@@ -2761,7 +2774,7 @@
         <v>0.16696088409096599</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>8</v>
       </c>
@@ -2802,7 +2815,7 @@
         <v>0.16696088409096599</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>9</v>
       </c>
@@ -2843,7 +2856,7 @@
         <v>0.16696088409096599</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>10</v>
       </c>
@@ -2884,7 +2897,7 @@
         <v>0.16696088409096599</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>11</v>
       </c>
@@ -2925,7 +2938,7 @@
         <v>0.16696088409096599</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>12</v>
       </c>
@@ -2966,7 +2979,7 @@
         <v>0.16696088409096599</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>13</v>
       </c>
@@ -3007,7 +3020,7 @@
         <v>0.16696088409096599</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>14</v>
       </c>
@@ -3048,7 +3061,7 @@
         <v>0.16696088409096599</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>15</v>
       </c>
@@ -3089,7 +3102,7 @@
         <v>0.16696088409096599</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>16</v>
       </c>
@@ -3130,7 +3143,7 @@
         <v>0.16696088409096599</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>17</v>
       </c>
@@ -3171,7 +3184,7 @@
         <v>0.16696088409096599</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>18</v>
       </c>
@@ -3212,7 +3225,7 @@
         <v>0.16696088409096599</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>19</v>
       </c>
@@ -3253,7 +3266,7 @@
         <v>0.16696088409096599</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>20</v>
       </c>
@@ -3294,22 +3307,22 @@
         <v>0.16696088409096599</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>97</v>
       </c>
@@ -3317,22 +3330,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>101</v>
       </c>
@@ -3340,7 +3353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>102</v>
       </c>
@@ -3348,7 +3361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>103</v>
       </c>
@@ -3356,17 +3369,17 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>106</v>
       </c>
@@ -3374,7 +3387,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>107</v>
       </c>
@@ -3382,7 +3395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>111</v>
       </c>
@@ -3393,6 +3406,2597 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A24B4E0-2D92-43E9-9EE0-3B2FB59FB426}">
+  <dimension ref="A2:M182"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="J189" sqref="J189"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>19.986000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>9.9930000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>65.429000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>60.645000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>31.079000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>40.893000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>5.3929999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>5.3929999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>5.3929999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>14.919</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>51.506</v>
+      </c>
+      <c r="C18">
+        <v>-4.4969999999999999</v>
+      </c>
+      <c r="D18">
+        <v>5.3929999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>1375.7460000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>5255.4179999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>37.841000000000001</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>3.7890000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>30.451000000000001</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>6.8079999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0.29849999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0.32200000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>588.24199999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>32.466000000000001</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>5.3929999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>5989.03</v>
+      </c>
+      <c r="C29">
+        <v>127979.9</v>
+      </c>
+      <c r="D29">
+        <v>133968.93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>780.43499999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>38.319000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>120.56100000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>55.982999999999997</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>2.4119999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>51.823999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>53.124000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>56.228000000000002</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>3.7970000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>140.87200000000001</v>
+      </c>
+      <c r="C40">
+        <v>487.57600000000002</v>
+      </c>
+      <c r="D40">
+        <v>628.44799999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>3.9510000000000001</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>6.8390000000000004</v>
+      </c>
+      <c r="B45">
+        <v>2.6859999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>9.7270000000000003</v>
+      </c>
+      <c r="B46">
+        <v>6.2370000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>12.615</v>
+      </c>
+      <c r="B47">
+        <v>9.8780000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>15.503</v>
+      </c>
+      <c r="B48">
+        <v>13.477</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>18.390999999999998</v>
+      </c>
+      <c r="B49">
+        <v>16.991</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>21.279</v>
+      </c>
+      <c r="B50">
+        <v>20.402000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>24.166</v>
+      </c>
+      <c r="B51">
+        <v>23.693999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>27.053999999999998</v>
+      </c>
+      <c r="B52">
+        <v>26.846</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>29.942</v>
+      </c>
+      <c r="B53">
+        <v>29.812999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>32.83</v>
+      </c>
+      <c r="B54">
+        <v>32.512</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>35.718000000000004</v>
+      </c>
+      <c r="B55">
+        <v>34.771000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>38.606000000000002</v>
+      </c>
+      <c r="B56">
+        <v>36.284999999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>41.494</v>
+      </c>
+      <c r="B57">
+        <v>37.634</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>44.381</v>
+      </c>
+      <c r="B58">
+        <v>38.319000000000003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>47.268999999999998</v>
+      </c>
+      <c r="B59">
+        <v>36.865000000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>50.156999999999996</v>
+      </c>
+      <c r="B60">
+        <v>33.643999999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>53.045000000000002</v>
+      </c>
+      <c r="B61">
+        <v>29.042999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>55.933</v>
+      </c>
+      <c r="B62">
+        <v>23.238</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>58.820999999999998</v>
+      </c>
+      <c r="B63">
+        <v>16.11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>61.709000000000003</v>
+      </c>
+      <c r="B64">
+        <v>7.5259999999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64.596000000000004</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>40</v>
+      </c>
+      <c r="B67">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>41</v>
+      </c>
+      <c r="B68" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>-4.1760000000000002</v>
+      </c>
+      <c r="B69">
+        <v>39.890999999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>-0.84299999999999997</v>
+      </c>
+      <c r="B70">
+        <v>46.204999999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="B71">
+        <v>52.953000000000003</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>5.8239999999999998</v>
+      </c>
+      <c r="B72">
+        <v>59.689</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>9.157</v>
+      </c>
+      <c r="B73">
+        <v>66.247</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>12.49</v>
+      </c>
+      <c r="B74">
+        <v>72.555999999999997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>15.824</v>
+      </c>
+      <c r="B75">
+        <v>78.597999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>19.157</v>
+      </c>
+      <c r="B76">
+        <v>84.378</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>22.49</v>
+      </c>
+      <c r="B77">
+        <v>89.894999999999996</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>25.824000000000002</v>
+      </c>
+      <c r="B78">
+        <v>95.122</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>29.157</v>
+      </c>
+      <c r="B79">
+        <v>99.980999999999995</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>32.49</v>
+      </c>
+      <c r="B80">
+        <v>104.294</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>35.823999999999998</v>
+      </c>
+      <c r="B81">
+        <v>107.622</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>39.156999999999996</v>
+      </c>
+      <c r="B82">
+        <v>108.83199999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>42.49</v>
+      </c>
+      <c r="B83">
+        <v>107.035</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>45.823999999999998</v>
+      </c>
+      <c r="B84">
+        <v>98.617000000000004</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>49.156999999999996</v>
+      </c>
+      <c r="B85">
+        <v>87.4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>52.49</v>
+      </c>
+      <c r="B86">
+        <v>74.956999999999994</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>55.823999999999998</v>
+      </c>
+      <c r="B87">
+        <v>60.15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>59.156999999999996</v>
+      </c>
+      <c r="B88">
+        <v>41.84</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>62.49</v>
+      </c>
+      <c r="B89">
+        <v>19.440000000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>65.823999999999998</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>40</v>
+      </c>
+      <c r="B92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>41</v>
+      </c>
+      <c r="B93" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>51.823999999999998</v>
+      </c>
+      <c r="B94">
+        <v>17.866</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>54.895000000000003</v>
+      </c>
+      <c r="B95">
+        <v>14.805999999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>57.966000000000001</v>
+      </c>
+      <c r="B96">
+        <v>10.551</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>61.036999999999999</v>
+      </c>
+      <c r="B97">
+        <v>4.9459999999999997</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>64.108999999999995</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>46</v>
+      </c>
+      <c r="B100">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>40</v>
+      </c>
+      <c r="B101">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>47</v>
+      </c>
+      <c r="B102" t="s">
+        <v>48</v>
+      </c>
+      <c r="C102" t="s">
+        <v>49</v>
+      </c>
+      <c r="D102" t="s">
+        <v>50</v>
+      </c>
+      <c r="E102" t="s">
+        <v>51</v>
+      </c>
+      <c r="F102" t="s">
+        <v>52</v>
+      </c>
+      <c r="G102" t="s">
+        <v>53</v>
+      </c>
+      <c r="H102" t="s">
+        <v>54</v>
+      </c>
+      <c r="I102" t="s">
+        <v>55</v>
+      </c>
+      <c r="J102" t="s">
+        <v>56</v>
+      </c>
+      <c r="K102" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>-4.1760000000000002</v>
+      </c>
+      <c r="B103">
+        <v>33.610999999999997</v>
+      </c>
+      <c r="C103">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="D103">
+        <v>-4.1760000000000002</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>8.7219999999999995</v>
+      </c>
+      <c r="G103">
+        <v>5.7089999999999996</v>
+      </c>
+      <c r="H103">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="I103">
+        <v>5.2850000000000001</v>
+      </c>
+      <c r="J103">
+        <v>6.92</v>
+      </c>
+      <c r="K103">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>-0.84299999999999997</v>
+      </c>
+      <c r="B104">
+        <v>33.770000000000003</v>
+      </c>
+      <c r="C104">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="D104">
+        <v>-0.84299999999999997</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>8.4920000000000009</v>
+      </c>
+      <c r="G104">
+        <v>5.8250000000000002</v>
+      </c>
+      <c r="H104">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="I104">
+        <v>5.2290000000000001</v>
+      </c>
+      <c r="J104">
+        <v>6.282</v>
+      </c>
+      <c r="K104">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="B105">
+        <v>34.545999999999999</v>
+      </c>
+      <c r="C105">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="D105">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>8.2769999999999992</v>
+      </c>
+      <c r="G105">
+        <v>6.2679999999999998</v>
+      </c>
+      <c r="H105">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="I105">
+        <v>5.4690000000000003</v>
+      </c>
+      <c r="J105">
+        <v>5.657</v>
+      </c>
+      <c r="K105">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>5.8239999999999998</v>
+      </c>
+      <c r="B106">
+        <v>35.597000000000001</v>
+      </c>
+      <c r="C106">
+        <v>0.249</v>
+      </c>
+      <c r="D106">
+        <v>5.8239999999999998</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>8.0820000000000007</v>
+      </c>
+      <c r="G106">
+        <v>6.8760000000000003</v>
+      </c>
+      <c r="H106">
+        <v>1.026</v>
+      </c>
+      <c r="I106">
+        <v>5.85</v>
+      </c>
+      <c r="J106">
+        <v>5.0410000000000004</v>
+      </c>
+      <c r="K106">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>9.157</v>
+      </c>
+      <c r="B107">
+        <v>36.741999999999997</v>
+      </c>
+      <c r="C107">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="D107">
+        <v>9.157</v>
+      </c>
+      <c r="E107">
+        <v>1E-3</v>
+      </c>
+      <c r="F107">
+        <v>7.9020000000000001</v>
+      </c>
+      <c r="G107">
+        <v>7.5659999999999998</v>
+      </c>
+      <c r="H107">
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="I107">
+        <v>6.2910000000000004</v>
+      </c>
+      <c r="J107">
+        <v>4.4320000000000004</v>
+      </c>
+      <c r="K107">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>12.49</v>
+      </c>
+      <c r="B108">
+        <v>37.908999999999999</v>
+      </c>
+      <c r="C108">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="D108">
+        <v>12.49</v>
+      </c>
+      <c r="E108">
+        <v>1E-3</v>
+      </c>
+      <c r="F108">
+        <v>7.7359999999999998</v>
+      </c>
+      <c r="G108">
+        <v>8.2970000000000006</v>
+      </c>
+      <c r="H108">
+        <v>1.5389999999999999</v>
+      </c>
+      <c r="I108">
+        <v>6.7590000000000003</v>
+      </c>
+      <c r="J108">
+        <v>3.839</v>
+      </c>
+      <c r="K108">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>15.824</v>
+      </c>
+      <c r="B109">
+        <v>39.064999999999998</v>
+      </c>
+      <c r="C109">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="D109">
+        <v>15.824</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>7.58</v>
+      </c>
+      <c r="G109">
+        <v>9.0540000000000003</v>
+      </c>
+      <c r="H109">
+        <v>1.8129999999999999</v>
+      </c>
+      <c r="I109">
+        <v>7.2409999999999997</v>
+      </c>
+      <c r="J109">
+        <v>3.2789999999999999</v>
+      </c>
+      <c r="K109">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>19.157</v>
+      </c>
+      <c r="B110">
+        <v>40.19</v>
+      </c>
+      <c r="C110">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="D110">
+        <v>19.157</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>7.4359999999999999</v>
+      </c>
+      <c r="G110">
+        <v>9.8249999999999993</v>
+      </c>
+      <c r="H110">
+        <v>2.0950000000000002</v>
+      </c>
+      <c r="I110">
+        <v>7.73</v>
+      </c>
+      <c r="J110">
+        <v>2.762</v>
+      </c>
+      <c r="K110">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>22.49</v>
+      </c>
+      <c r="B111">
+        <v>41.267000000000003</v>
+      </c>
+      <c r="C111">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="D111">
+        <v>22.49</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>7.3010000000000002</v>
+      </c>
+      <c r="G111">
+        <v>10.599</v>
+      </c>
+      <c r="H111">
+        <v>2.38</v>
+      </c>
+      <c r="I111">
+        <v>8.218</v>
+      </c>
+      <c r="J111">
+        <v>2.2909999999999999</v>
+      </c>
+      <c r="K111">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>25.824000000000002</v>
+      </c>
+      <c r="B112">
+        <v>42.277000000000001</v>
+      </c>
+      <c r="C112">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="D112">
+        <v>25.824000000000002</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>7.1749999999999998</v>
+      </c>
+      <c r="G112">
+        <v>11.359</v>
+      </c>
+      <c r="H112">
+        <v>2.665</v>
+      </c>
+      <c r="I112">
+        <v>8.6940000000000008</v>
+      </c>
+      <c r="J112">
+        <v>1.8640000000000001</v>
+      </c>
+      <c r="K112">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>29.157</v>
+      </c>
+      <c r="B113">
+        <v>43.195</v>
+      </c>
+      <c r="C113">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="D113">
+        <v>29.157</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>7.06</v>
+      </c>
+      <c r="G113">
+        <v>12.08</v>
+      </c>
+      <c r="H113">
+        <v>2.9409999999999998</v>
+      </c>
+      <c r="I113">
+        <v>9.1389999999999993</v>
+      </c>
+      <c r="J113">
+        <v>1.4850000000000001</v>
+      </c>
+      <c r="K113">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>32.49</v>
+      </c>
+      <c r="B114">
+        <v>43.966000000000001</v>
+      </c>
+      <c r="C114">
+        <v>0.308</v>
+      </c>
+      <c r="D114">
+        <v>32.49</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>6.9560000000000004</v>
+      </c>
+      <c r="G114">
+        <v>12.712999999999999</v>
+      </c>
+      <c r="H114">
+        <v>3.1960000000000002</v>
+      </c>
+      <c r="I114">
+        <v>9.5169999999999995</v>
+      </c>
+      <c r="J114">
+        <v>1.1579999999999999</v>
+      </c>
+      <c r="K114">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>35.823999999999998</v>
+      </c>
+      <c r="B115">
+        <v>44.457000000000001</v>
+      </c>
+      <c r="C115">
+        <v>0.312</v>
+      </c>
+      <c r="D115">
+        <v>35.823999999999998</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>6.8659999999999997</v>
+      </c>
+      <c r="G115">
+        <v>13.141999999999999</v>
+      </c>
+      <c r="H115">
+        <v>3.403</v>
+      </c>
+      <c r="I115">
+        <v>9.7390000000000008</v>
+      </c>
+      <c r="J115">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="K115">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>39.156999999999996</v>
+      </c>
+      <c r="B116">
+        <v>44.210999999999999</v>
+      </c>
+      <c r="C116">
+        <v>0.31</v>
+      </c>
+      <c r="D116">
+        <v>39.156999999999996</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>6.7859999999999996</v>
+      </c>
+      <c r="G116">
+        <v>12.997</v>
+      </c>
+      <c r="H116">
+        <v>3.4990000000000001</v>
+      </c>
+      <c r="I116">
+        <v>9.4979999999999993</v>
+      </c>
+      <c r="J116">
+        <v>0.79</v>
+      </c>
+      <c r="K116">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>42.49</v>
+      </c>
+      <c r="B117">
+        <v>42.421999999999997</v>
+      </c>
+      <c r="C117">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="D117">
+        <v>42.49</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>6.6289999999999996</v>
+      </c>
+      <c r="G117">
+        <v>11.706</v>
+      </c>
+      <c r="H117">
+        <v>3.4929999999999999</v>
+      </c>
+      <c r="I117">
+        <v>8.2129999999999992</v>
+      </c>
+      <c r="J117">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="K117">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>45.823999999999998</v>
+      </c>
+      <c r="B118">
+        <v>39.357999999999997</v>
+      </c>
+      <c r="C118">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="D118">
+        <v>45.823999999999998</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>6.4349999999999996</v>
+      </c>
+      <c r="G118">
+        <v>9.4930000000000003</v>
+      </c>
+      <c r="H118">
+        <v>3.371</v>
+      </c>
+      <c r="I118">
+        <v>6.1219999999999999</v>
+      </c>
+      <c r="J118">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="K118">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>49.156999999999996</v>
+      </c>
+      <c r="B119">
+        <v>36.944000000000003</v>
+      </c>
+      <c r="C119">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="D119">
+        <v>49.156999999999996</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>6.3390000000000004</v>
+      </c>
+      <c r="G119">
+        <v>7.7380000000000004</v>
+      </c>
+      <c r="H119">
+        <v>3.2389999999999999</v>
+      </c>
+      <c r="I119">
+        <v>4.4989999999999997</v>
+      </c>
+      <c r="J119">
+        <v>0.41</v>
+      </c>
+      <c r="K119">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>52.49</v>
+      </c>
+      <c r="B120">
+        <v>34.698999999999998</v>
+      </c>
+      <c r="C120">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="D120">
+        <v>52.49</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>6.2930000000000001</v>
+      </c>
+      <c r="G120">
+        <v>6.2489999999999997</v>
+      </c>
+      <c r="H120">
+        <v>3.0430000000000001</v>
+      </c>
+      <c r="I120">
+        <v>3.206</v>
+      </c>
+      <c r="J120">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="K120">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>55.823999999999998</v>
+      </c>
+      <c r="B121">
+        <v>32.081000000000003</v>
+      </c>
+      <c r="C121">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="D121">
+        <v>55.823999999999998</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>6.25</v>
+      </c>
+      <c r="G121">
+        <v>4.774</v>
+      </c>
+      <c r="H121">
+        <v>2.74</v>
+      </c>
+      <c r="I121">
+        <v>2.0339999999999998</v>
+      </c>
+      <c r="J121">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K121">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>59.156999999999996</v>
+      </c>
+      <c r="B122">
+        <v>28.542999999999999</v>
+      </c>
+      <c r="C122">
+        <v>0.2</v>
+      </c>
+      <c r="D122">
+        <v>59.156999999999996</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>6.1710000000000003</v>
+      </c>
+      <c r="G122">
+        <v>3.2509999999999999</v>
+      </c>
+      <c r="H122">
+        <v>2.2709999999999999</v>
+      </c>
+      <c r="I122">
+        <v>0.98</v>
+      </c>
+      <c r="J122">
+        <v>0.04</v>
+      </c>
+      <c r="K122">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>62.49</v>
+      </c>
+      <c r="B123">
+        <v>21.713000000000001</v>
+      </c>
+      <c r="C123">
+        <v>0.152</v>
+      </c>
+      <c r="D123">
+        <v>62.49</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>6.54</v>
+      </c>
+      <c r="G123">
+        <v>1.4239999999999999</v>
+      </c>
+      <c r="H123">
+        <v>1.1859999999999999</v>
+      </c>
+      <c r="I123">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="J123">
+        <v>1.52</v>
+      </c>
+      <c r="K123">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>65.823999999999998</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>65.823999999999998</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>9.9909999999999997</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>59</v>
+      </c>
+      <c r="B126">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>60</v>
+      </c>
+      <c r="B127">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>61</v>
+      </c>
+      <c r="B128">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>62</v>
+      </c>
+      <c r="B129">
+        <v>5.3929999999999998</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>63</v>
+      </c>
+      <c r="B130">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>64</v>
+      </c>
+      <c r="B131">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>65</v>
+      </c>
+      <c r="B132">
+        <v>9814.3080000000009</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>66</v>
+      </c>
+      <c r="B133">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>7</v>
+      </c>
+      <c r="B134">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>67</v>
+      </c>
+      <c r="B135">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>68</v>
+      </c>
+      <c r="B136">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>69</v>
+      </c>
+      <c r="B137">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>12</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>70</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>71</v>
+      </c>
+      <c r="B140">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>72</v>
+      </c>
+      <c r="B141">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>73</v>
+      </c>
+      <c r="B142">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>74</v>
+      </c>
+      <c r="B143">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>75</v>
+      </c>
+      <c r="B144">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>76</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>77</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>80</v>
+      </c>
+      <c r="B150" t="s">
+        <v>81</v>
+      </c>
+      <c r="C150" t="s">
+        <v>82</v>
+      </c>
+      <c r="D150" t="s">
+        <v>83</v>
+      </c>
+      <c r="E150" t="s">
+        <v>84</v>
+      </c>
+      <c r="F150" t="s">
+        <v>85</v>
+      </c>
+      <c r="G150" t="s">
+        <v>86</v>
+      </c>
+      <c r="H150" t="s">
+        <v>87</v>
+      </c>
+      <c r="I150" t="s">
+        <v>88</v>
+      </c>
+      <c r="J150" t="s">
+        <v>89</v>
+      </c>
+      <c r="K150" t="s">
+        <v>90</v>
+      </c>
+      <c r="L150" t="s">
+        <v>91</v>
+      </c>
+      <c r="M150" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>16</v>
+      </c>
+      <c r="B151">
+        <v>8.2311111111111099</v>
+      </c>
+      <c r="C151">
+        <v>0.33746298969163302</v>
+      </c>
+      <c r="D151">
+        <v>191279.55495279201</v>
+      </c>
+      <c r="E151">
+        <v>68684.222520569398</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <v>106009.386518386</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>16585.9459138366</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>6.4068919613493799E-2</v>
+      </c>
+      <c r="M151">
+        <v>0.19401000268621099</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>40</v>
+      </c>
+      <c r="B153">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>80</v>
+      </c>
+      <c r="B154" t="s">
+        <v>81</v>
+      </c>
+      <c r="C154" t="s">
+        <v>82</v>
+      </c>
+      <c r="D154" t="s">
+        <v>83</v>
+      </c>
+      <c r="E154" t="s">
+        <v>84</v>
+      </c>
+      <c r="F154" t="s">
+        <v>85</v>
+      </c>
+      <c r="G154" t="s">
+        <v>86</v>
+      </c>
+      <c r="H154" t="s">
+        <v>87</v>
+      </c>
+      <c r="I154" t="s">
+        <v>88</v>
+      </c>
+      <c r="J154" t="s">
+        <v>89</v>
+      </c>
+      <c r="K154" t="s">
+        <v>90</v>
+      </c>
+      <c r="L154" t="s">
+        <v>91</v>
+      </c>
+      <c r="M154" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>6</v>
+      </c>
+      <c r="B155">
+        <v>3.0866666666666598</v>
+      </c>
+      <c r="C155">
+        <v>0.12654862113436199</v>
+      </c>
+      <c r="D155">
+        <v>13366.0375018492</v>
+      </c>
+      <c r="E155">
+        <v>11032.624242395599</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>1.01461532040604</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>2332.39864413327</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>6.5413318822721098E-2</v>
+      </c>
+      <c r="M155">
+        <v>0.19401000268621099</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>7</v>
+      </c>
+      <c r="B156">
+        <v>3.60111111111111</v>
+      </c>
+      <c r="C156">
+        <v>0.147640057990089</v>
+      </c>
+      <c r="D156">
+        <v>17885.490378894301</v>
+      </c>
+      <c r="E156">
+        <v>14697.2632273052</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <v>13.5734415188735</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>3174.6537100702799</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <v>6.5182682440293099E-2</v>
+      </c>
+      <c r="M156">
+        <v>0.19401000268621099</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>8</v>
+      </c>
+      <c r="B157">
+        <v>4.1155555555555496</v>
+      </c>
+      <c r="C157">
+        <v>0.16873149484581601</v>
+      </c>
+      <c r="D157">
+        <v>23089.911360602298</v>
+      </c>
+      <c r="E157">
+        <v>18845.754847303699</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <v>97.670034839368398</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>4146.48647845915</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <v>6.4989123325413206E-2</v>
+      </c>
+      <c r="M157">
+        <v>0.19401000268621099</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>9</v>
+      </c>
+      <c r="B158">
+        <v>4.63</v>
+      </c>
+      <c r="C158">
+        <v>0.18982293170154299</v>
+      </c>
+      <c r="D158">
+        <v>29180.362203429999</v>
+      </c>
+      <c r="E158">
+        <v>23470.2009254324</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <v>462.26432869772998</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>5247.8969492998604</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+      <c r="L158">
+        <v>6.4823002870544502E-2</v>
+      </c>
+      <c r="M158">
+        <v>0.19401000268621099</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>10</v>
+      </c>
+      <c r="B159">
+        <v>5.1444444444444404</v>
+      </c>
+      <c r="C159">
+        <v>0.21091436855727</v>
+      </c>
+      <c r="D159">
+        <v>36668.319913032399</v>
+      </c>
+      <c r="E159">
+        <v>28563.798368826301</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <v>1625.6364216136301</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>6478.88512259242</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159">
+        <v>6.4677940180824095E-2</v>
+      </c>
+      <c r="M159">
+        <v>0.19401000268621099</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>11</v>
+      </c>
+      <c r="B160">
+        <v>5.65888888888888</v>
+      </c>
+      <c r="C160">
+        <v>0.23200580541299701</v>
+      </c>
+      <c r="D160">
+        <v>46558.649881914302</v>
+      </c>
+      <c r="E160">
+        <v>34120.586810050903</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <v>4598.6120735264803</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>7839.4509983368298</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <v>6.4549505356539E-2</v>
+      </c>
+      <c r="M160">
+        <v>0.19401000268621099</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>12</v>
+      </c>
+      <c r="B161">
+        <v>6.1733333333333302</v>
+      </c>
+      <c r="C161">
+        <v>0.25309724226872399</v>
+      </c>
+      <c r="D161">
+        <v>60213.141165106601</v>
+      </c>
+      <c r="E161">
+        <v>40135.273146871397</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <v>10748.2734417021</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>9329.5945765330907</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+      <c r="L161">
+        <v>6.4434505076007995E-2</v>
+      </c>
+      <c r="M161">
+        <v>0.19401000268621099</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>13</v>
+      </c>
+      <c r="B162">
+        <v>6.6877777777777698</v>
+      </c>
+      <c r="C162">
+        <v>0.27418867912445199</v>
+      </c>
+      <c r="D162">
+        <v>81830.599052490696</v>
+      </c>
+      <c r="E162">
+        <v>46603.104826063704</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <v>24278.178369245801</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>10949.3158571812</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>6.4330566045962101E-2</v>
+      </c>
+      <c r="M162">
+        <v>0.19401000268621099</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>14</v>
+      </c>
+      <c r="B163">
+        <v>7.2022222222222201</v>
+      </c>
+      <c r="C163">
+        <v>0.295280115980179</v>
+      </c>
+      <c r="D163">
+        <v>114207.96279763601</v>
+      </c>
+      <c r="E163">
+        <v>53519.775478127798</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <v>47989.572479227703</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>12698.6148402811</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>6.4235879245281596E-2</v>
+      </c>
+      <c r="M163">
+        <v>0.19401000268621099</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>15</v>
+      </c>
+      <c r="B164">
+        <v>7.7166666666666597</v>
+      </c>
+      <c r="C164">
+        <v>0.31637155283590601</v>
+      </c>
+      <c r="D164">
+        <v>150604.13659339701</v>
+      </c>
+      <c r="E164">
+        <v>60881.3528405127</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <v>75145.292227051395</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>14577.4915258329</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <v>6.4149036079226798E-2</v>
+      </c>
+      <c r="M164">
+        <v>0.19401000268621099</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>16</v>
+      </c>
+      <c r="B165">
+        <v>8.2311111111111099</v>
+      </c>
+      <c r="C165">
+        <v>0.33746298969163302</v>
+      </c>
+      <c r="D165">
+        <v>191279.55495279201</v>
+      </c>
+      <c r="E165">
+        <v>68684.222520569398</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165">
+        <v>106009.386518386</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>16585.9459138366</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>6.4068919613493799E-2</v>
+      </c>
+      <c r="M165">
+        <v>0.19401000268621099</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>17</v>
+      </c>
+      <c r="B166">
+        <v>8.7455555555555495</v>
+      </c>
+      <c r="C166">
+        <v>0.35855442654735997</v>
+      </c>
+      <c r="D166">
+        <v>251502.99803593801</v>
+      </c>
+      <c r="E166">
+        <v>76925.043313923103</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <v>155853.97671772301</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>18723.978004292101</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>6.3994630155075199E-2</v>
+      </c>
+      <c r="M166">
+        <v>0.19401000268621099</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>18</v>
+      </c>
+      <c r="B167">
+        <v>9.26</v>
+      </c>
+      <c r="C167">
+        <v>0.37964586340308698</v>
+      </c>
+      <c r="D167">
+        <v>354357.19557102403</v>
+      </c>
+      <c r="E167">
+        <v>85600.711143815701</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <v>247764.896630009</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>20991.587797199401</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>6.3925432990370595E-2</v>
+      </c>
+      <c r="M167">
+        <v>0.19401000268621099</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>97</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>101</v>
+      </c>
+      <c r="B175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>102</v>
+      </c>
+      <c r="B176">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>103</v>
+      </c>
+      <c r="B177">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>106</v>
+      </c>
+      <c r="B180">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>107</v>
+      </c>
+      <c r="B181">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -3401,20 +6005,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3422,7 +6026,7 @@
         <v>224.49</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3430,7 +6034,7 @@
         <v>34.997999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -3438,7 +6042,7 @@
         <v>20.998999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -3446,7 +6050,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -3454,7 +6058,7 @@
         <v>213.636</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -3462,7 +6066,7 @@
         <v>96.47</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -3470,7 +6074,7 @@
         <v>136.72999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -3478,12 +6082,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -3491,7 +6095,7 @@
         <v>7.9989999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -3499,7 +6103,7 @@
         <v>7.9989999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -3507,7 +6111,7 @@
         <v>7.9989999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -3515,12 +6119,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -3528,7 +6132,7 @@
         <v>22.85</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -3536,7 +6140,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -3550,12 +6154,12 @@
         <v>7.9989999999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -3563,7 +6167,7 @@
         <v>35500.622000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -3571,7 +6175,7 @@
         <v>118833.591</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -3585,7 +6189,7 @@
         <v>4.5469999999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -3599,7 +6203,7 @@
         <v>11.617000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -3607,7 +6211,7 @@
         <v>0.58320000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -3615,12 +6219,12 @@
         <v>0.60050000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -3628,7 +6232,7 @@
         <v>5818.38</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -3642,7 +6246,7 @@
         <v>7.9989999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -3656,7 +6260,7 @@
         <v>16169000</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -3664,7 +6268,7 @@
         <v>7266.0069999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -3672,7 +6276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -3680,12 +6284,12 @@
         <v>237.227</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -3693,7 +6297,7 @@
         <v>9112.4040000000005</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -3707,7 +6311,7 @@
         <v>5.0350000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -3715,7 +6319,7 @@
         <v>163.87799999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -3723,7 +6327,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -3731,7 +6335,7 @@
         <v>1214.146</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -3745,7 +6349,7 @@
         <v>9.0299999999999994</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -3759,12 +6363,12 @@
         <v>316534.06800000003</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -3772,7 +6376,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
@@ -3780,7 +6384,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>6.3639999999999999</v>
       </c>
@@ -3788,7 +6392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>16.536999999999999</v>
       </c>
@@ -3796,7 +6400,7 @@
         <v>10.696999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>26.71</v>
       </c>
@@ -3804,7 +6408,7 @@
         <v>39.140999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>36.883000000000003</v>
       </c>
@@ -3812,7 +6416,7 @@
         <v>77.680999999999997</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>47.055999999999997</v>
       </c>
@@ -3820,7 +6424,7 @@
         <v>120.961</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>57.23</v>
       </c>
@@ -3828,7 +6432,7 @@
         <v>163.98</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>67.403000000000006</v>
       </c>
@@ -3836,7 +6440,7 @@
         <v>201.20599999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>77.575999999999993</v>
       </c>
@@ -3844,7 +6448,7 @@
         <v>226.697</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>87.748999999999995</v>
       </c>
@@ -3852,7 +6456,7 @@
         <v>236.68799999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>97.921999999999997</v>
       </c>
@@ -3860,7 +6464,7 @@
         <v>237.227</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>108.095</v>
       </c>
@@ -3868,7 +6472,7 @@
         <v>237.227</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>118.26900000000001</v>
       </c>
@@ -3876,7 +6480,7 @@
         <v>237.227</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>128.44200000000001</v>
       </c>
@@ -3884,7 +6488,7 @@
         <v>237.227</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>138.61500000000001</v>
       </c>
@@ -3892,7 +6496,7 @@
         <v>237.09399999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>148.78800000000001</v>
       </c>
@@ -3900,7 +6504,7 @@
         <v>233.797</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>158.96100000000001</v>
       </c>
@@ -3908,7 +6512,7 @@
         <v>223.97800000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>169.13399999999999</v>
       </c>
@@ -3916,7 +6520,7 @@
         <v>208.91</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>179.30799999999999</v>
       </c>
@@ -3924,7 +6528,7 @@
         <v>187.893</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>189.48099999999999</v>
       </c>
@@ -3932,7 +6536,7 @@
         <v>159.863</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>199.654</v>
       </c>
@@ -3940,7 +6544,7 @@
         <v>123.812</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>209.827</v>
       </c>
@@ -3948,7 +6552,7 @@
         <v>78.241</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>220</v>
       </c>
@@ -3956,12 +6560,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>40</v>
       </c>
@@ -3969,7 +6573,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>41</v>
       </c>
@@ -3977,7 +6581,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>-4.49</v>
       </c>
@@ -3985,7 +6589,7 @@
         <v>165.779</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>6.2</v>
       </c>
@@ -3993,7 +6597,7 @@
         <v>229.09899999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>16.89</v>
       </c>
@@ -4001,7 +6605,7 @@
         <v>300.43400000000003</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>27.58</v>
       </c>
@@ -4009,7 +6613,7 @@
         <v>376.91699999999997</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>38.270000000000003</v>
       </c>
@@ -4017,7 +6621,7 @@
         <v>455.25900000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>48.96</v>
       </c>
@@ -4025,7 +6629,7 @@
         <v>531.28800000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>59.65</v>
       </c>
@@ -4033,7 +6637,7 @@
         <v>599.54399999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>70.34</v>
       </c>
@@ -4041,7 +6645,7 @@
         <v>653.03099999999995</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>81.03</v>
       </c>
@@ -4049,7 +6653,7 @@
         <v>684.23099999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>91.72</v>
       </c>
@@ -4057,7 +6661,7 @@
         <v>691.86599999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>102.41</v>
       </c>
@@ -4065,7 +6669,7 @@
         <v>691.87900000000002</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>113.1</v>
       </c>
@@ -4073,7 +6677,7 @@
         <v>691.87900000000002</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>123.79</v>
       </c>
@@ -4081,7 +6685,7 @@
         <v>691.87900000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>134.47999999999999</v>
       </c>
@@ -4089,7 +6693,7 @@
         <v>691.87</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>145.16999999999999</v>
       </c>
@@ -4097,7 +6701,7 @@
         <v>688.08</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>155.86000000000001</v>
       </c>
@@ -4105,7 +6709,7 @@
         <v>667.70699999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>166.55</v>
       </c>
@@ -4113,7 +6717,7 @@
         <v>631.41899999999998</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>177.24</v>
       </c>
@@ -4121,7 +6725,7 @@
         <v>575.90300000000002</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>187.93</v>
       </c>
@@ -4129,7 +6733,7 @@
         <v>496.43</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>198.62</v>
       </c>
@@ -4137,7 +6741,7 @@
         <v>389.137</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>209.31</v>
       </c>
@@ -4145,7 +6749,7 @@
         <v>250.517</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>220</v>
       </c>
@@ -4153,12 +6757,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>40</v>
       </c>
@@ -4166,7 +6770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>41</v>
       </c>
@@ -4174,7 +6778,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>163.87799999999999</v>
       </c>
@@ -4182,7 +6786,7 @@
         <v>250.64099999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>177.90799999999999</v>
       </c>
@@ -4190,7 +6794,7 @@
         <v>220.95699999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>191.93899999999999</v>
       </c>
@@ -4198,7 +6802,7 @@
         <v>176.054</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>205.97</v>
       </c>
@@ -4206,7 +6810,7 @@
         <v>112.82</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>220</v>
       </c>
@@ -4214,12 +6818,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>46</v>
       </c>
@@ -4227,7 +6831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>40</v>
       </c>
@@ -4235,7 +6839,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>47</v>
       </c>
@@ -4270,7 +6874,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>-4.49</v>
       </c>
@@ -4305,7 +6909,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>6.2</v>
       </c>
@@ -4340,7 +6944,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>16.89</v>
       </c>
@@ -4375,7 +6979,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>27.58</v>
       </c>
@@ -4410,7 +7014,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>38.270000000000003</v>
       </c>
@@ -4445,7 +7049,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>48.96</v>
       </c>
@@ -4480,7 +7084,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>59.65</v>
       </c>
@@ -4515,7 +7119,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>70.34</v>
       </c>
@@ -4550,7 +7154,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
         <v>81.03</v>
       </c>
@@ -4585,7 +7189,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>91.72</v>
       </c>
@@ -4620,7 +7224,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>102.41</v>
       </c>
@@ -4655,7 +7259,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
         <v>113.1</v>
       </c>
@@ -4690,7 +7294,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
         <v>123.79</v>
       </c>
@@ -4725,7 +7329,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
         <v>134.47999999999999</v>
       </c>
@@ -4760,7 +7364,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
         <v>145.16999999999999</v>
       </c>
@@ -4795,7 +7399,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>155.86000000000001</v>
       </c>
@@ -4830,7 +7434,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>166.55</v>
       </c>
@@ -4865,7 +7469,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
         <v>177.24</v>
       </c>
@@ -4900,7 +7504,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
         <v>187.93</v>
       </c>
@@ -4935,7 +7539,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>198.62</v>
       </c>
@@ -4970,7 +7574,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
         <v>209.31</v>
       </c>
@@ -5005,7 +7609,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
         <v>220</v>
       </c>
@@ -5040,12 +7644,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>59</v>
       </c>
@@ -5053,7 +7657,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>60</v>
       </c>
@@ -5061,7 +7665,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>61</v>
       </c>
@@ -5069,7 +7673,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>62</v>
       </c>
@@ -5077,7 +7681,7 @@
         <v>7.9989999999999997</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>63</v>
       </c>
@@ -5085,7 +7689,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>64</v>
       </c>
@@ -5093,7 +7697,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>65</v>
       </c>
@@ -5101,7 +7705,7 @@
         <v>40260.036999999997</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>66</v>
       </c>
@@ -5109,7 +7713,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>7</v>
       </c>
@@ -5117,7 +7721,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>67</v>
       </c>
@@ -5125,7 +7729,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>68</v>
       </c>
@@ -5133,7 +7737,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>69</v>
       </c>
@@ -5141,7 +7745,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>12</v>
       </c>
@@ -5149,7 +7753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>70</v>
       </c>
@@ -5157,7 +7761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>71</v>
       </c>
@@ -5165,7 +7769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>72</v>
       </c>
@@ -5173,7 +7777,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>73</v>
       </c>
@@ -5181,7 +7785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>74</v>
       </c>
@@ -5189,7 +7793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>75</v>
       </c>
@@ -5197,7 +7801,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>76</v>
       </c>
@@ -5205,7 +7809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>77</v>
       </c>
@@ -5213,17 +7817,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>80</v>
       </c>
@@ -5264,7 +7868,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="4">
         <v>19</v>
       </c>
@@ -5305,12 +7909,12 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>40</v>
       </c>
@@ -5318,7 +7922,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>80</v>
       </c>
@@ -5359,7 +7963,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="4">
         <v>6</v>
       </c>
@@ -5400,7 +8004,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="4">
         <v>7</v>
       </c>
@@ -5441,7 +8045,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="4">
         <v>8</v>
       </c>
@@ -5482,7 +8086,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="4">
         <v>9</v>
       </c>
@@ -5523,7 +8127,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="4">
         <v>10</v>
       </c>
@@ -5564,7 +8168,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="4">
         <v>11</v>
       </c>
@@ -5605,7 +8209,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="4">
         <v>12</v>
       </c>
@@ -5646,7 +8250,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="4">
         <v>13</v>
       </c>
@@ -5687,7 +8291,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="4">
         <v>14</v>
       </c>
@@ -5728,7 +8332,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="4">
         <v>15</v>
       </c>
@@ -5769,7 +8373,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="4">
         <v>16</v>
       </c>
@@ -5810,7 +8414,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="4">
         <v>17</v>
       </c>
@@ -5851,7 +8455,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="4">
         <v>18</v>
       </c>
@@ -5892,7 +8496,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="4">
         <v>19</v>
       </c>
@@ -5933,7 +8537,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="4">
         <v>20</v>
       </c>
@@ -5974,22 +8578,22 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>97</v>
       </c>
@@ -5997,22 +8601,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>101</v>
       </c>
@@ -6020,7 +8624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>102</v>
       </c>
@@ -6028,7 +8632,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>103</v>
       </c>
@@ -6036,17 +8640,17 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>106</v>
       </c>
@@ -6054,7 +8658,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>107</v>
       </c>
@@ -6062,7 +8666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>110</v>
       </c>
@@ -6072,7 +8676,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -6081,20 +8685,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -6102,7 +8706,7 @@
         <v>224.49</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -6110,7 +8714,7 @@
         <v>34.99</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -6118,7 +8722,7 @@
         <v>20.995000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -6126,7 +8730,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -6134,7 +8738,7 @@
         <v>213.62100000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -6142,7 +8746,7 @@
         <v>96.47</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -6150,7 +8754,7 @@
         <v>136.72999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -6158,12 +8762,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -6171,7 +8775,7 @@
         <v>7.9950000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -6179,7 +8783,7 @@
         <v>7.9950000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -6187,7 +8791,7 @@
         <v>7.9950000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -6195,12 +8799,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -6208,7 +8812,7 @@
         <v>22.844999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -6216,7 +8820,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -6230,12 +8834,12 @@
         <v>7.9950000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -6243,7 +8847,7 @@
         <v>35469.19</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -6251,7 +8855,7 @@
         <v>118781.379</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -6265,7 +8869,7 @@
         <v>4.5449999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -6279,7 +8883,7 @@
         <v>11.615</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -6287,7 +8891,7 @@
         <v>0.58309999999999995</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -6295,12 +8899,12 @@
         <v>0.60050000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -6308,7 +8912,7 @@
         <v>5816.48</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -6322,7 +8926,7 @@
         <v>7.9950000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -6336,7 +8940,7 @@
         <v>16161000</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -6344,7 +8948,7 @@
         <v>7262.8789999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -6352,7 +8956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -6360,12 +8964,12 @@
         <v>237.024</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -6373,7 +8977,7 @@
         <v>9108.5580000000009</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -6387,7 +8991,7 @@
         <v>5.0339999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -6395,7 +8999,7 @@
         <v>163.87799999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -6403,7 +9007,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -6411,7 +9015,7 @@
         <v>1213.885</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -6425,7 +9029,7 @@
         <v>9.0280000000000005</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -6439,12 +9043,12 @@
         <v>316437.598</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -6452,7 +9056,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
@@ -6460,7 +9064,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>6.3789999999999996</v>
       </c>
@@ -6468,7 +9072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>16.552</v>
       </c>
@@ -6476,7 +9080,7 @@
         <v>10.693</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>26.724</v>
       </c>
@@ -6484,7 +9088,7 @@
         <v>39.119999999999997</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>36.896000000000001</v>
       </c>
@@ -6492,7 +9096,7 @@
         <v>77.635000000000005</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>47.069000000000003</v>
       </c>
@@ -6500,7 +9104,7 @@
         <v>120.883</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>57.241</v>
       </c>
@@ -6508,7 +9112,7 @@
         <v>163.869</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>67.414000000000001</v>
       </c>
@@ -6516,7 +9120,7 @@
         <v>201.059</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>77.585999999999999</v>
       </c>
@@ -6524,7 +9128,7 @@
         <v>226.51900000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>87.759</v>
       </c>
@@ -6532,7 +9136,7 @@
         <v>236.488</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>97.930999999999997</v>
       </c>
@@ -6540,7 +9144,7 @@
         <v>237.024</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>108.10299999999999</v>
       </c>
@@ -6548,7 +9152,7 @@
         <v>237.024</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>118.276</v>
       </c>
@@ -6556,7 +9160,7 @@
         <v>237.024</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>128.44800000000001</v>
       </c>
@@ -6564,7 +9168,7 @@
         <v>237.024</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>138.62100000000001</v>
       </c>
@@ -6572,7 +9176,7 @@
         <v>236.89099999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>148.79300000000001</v>
       </c>
@@ -6580,7 +9184,7 @@
         <v>233.595</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>158.96600000000001</v>
       </c>
@@ -6588,7 +9192,7 @@
         <v>223.785</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>169.13800000000001</v>
       </c>
@@ -6596,7 +9200,7 @@
         <v>208.73099999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>179.31</v>
       </c>
@@ -6604,7 +9208,7 @@
         <v>187.733</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>189.483</v>
       </c>
@@ -6612,7 +9216,7 @@
         <v>159.72800000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>199.655</v>
       </c>
@@ -6620,7 +9224,7 @@
         <v>123.709</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>209.828</v>
       </c>
@@ -6628,7 +9232,7 @@
         <v>78.177000000000007</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>220</v>
       </c>
@@ -6636,12 +9240,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>40</v>
       </c>
@@ -6649,7 +9253,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>41</v>
       </c>
@@ -6657,7 +9261,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>-4.49</v>
       </c>
@@ -6665,7 +9269,7 @@
         <v>165.709</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>6.2</v>
       </c>
@@ -6673,7 +9277,7 @@
         <v>228.99700000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>16.89</v>
       </c>
@@ -6681,7 +9285,7 @@
         <v>300.29599999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>27.58</v>
       </c>
@@ -6689,7 +9293,7 @@
         <v>376.74400000000003</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>38.270000000000003</v>
       </c>
@@ -6697,7 +9301,7 @@
         <v>455.05200000000002</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>48.96</v>
       </c>
@@ -6705,7 +9309,7 @@
         <v>531.04700000000003</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>59.65</v>
       </c>
@@ -6713,7 +9317,7 @@
         <v>599.274</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>70.34</v>
       </c>
@@ -6721,7 +9325,7 @@
         <v>652.73900000000003</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>81.03</v>
       </c>
@@ -6729,7 +9333,7 @@
         <v>683.92600000000004</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>91.72</v>
       </c>
@@ -6737,7 +9341,7 @@
         <v>691.55799999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>102.41</v>
       </c>
@@ -6745,7 +9349,7 @@
         <v>691.57100000000003</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>113.1</v>
       </c>
@@ -6753,7 +9357,7 @@
         <v>691.57100000000003</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>123.79</v>
       </c>
@@ -6761,7 +9365,7 @@
         <v>691.57100000000003</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>134.47999999999999</v>
       </c>
@@ -6769,7 +9373,7 @@
         <v>691.56200000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>145.16999999999999</v>
       </c>
@@ -6777,7 +9381,7 @@
         <v>687.774</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>155.86000000000001</v>
       </c>
@@ -6785,7 +9389,7 @@
         <v>667.41300000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>166.55</v>
       </c>
@@ -6793,7 +9397,7 @@
         <v>631.14599999999996</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>177.24</v>
       </c>
@@ -6801,7 +9405,7 @@
         <v>575.66099999999994</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>187.93</v>
       </c>
@@ -6809,7 +9413,7 @@
         <v>496.22699999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>198.62</v>
       </c>
@@ -6817,7 +9421,7 @@
         <v>388.98399999999998</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>209.31</v>
       </c>
@@ -6825,7 +9429,7 @@
         <v>250.422</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>220</v>
       </c>
@@ -6833,12 +9437,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>40</v>
       </c>
@@ -6846,7 +9450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>41</v>
       </c>
@@ -6854,7 +9458,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>163.87799999999999</v>
       </c>
@@ -6862,7 +9466,7 @@
         <v>250.52500000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>177.90799999999999</v>
       </c>
@@ -6870,7 +9474,7 @@
         <v>220.86</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>191.93899999999999</v>
       </c>
@@ -6878,7 +9482,7 @@
         <v>175.98099999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>205.97</v>
       </c>
@@ -6886,7 +9490,7 @@
         <v>112.777</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>220</v>
       </c>
@@ -6894,12 +9498,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>46</v>
       </c>
@@ -6907,7 +9511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>40</v>
       </c>
@@ -6915,7 +9519,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>47</v>
       </c>
@@ -6950,7 +9554,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>-4.49</v>
       </c>
@@ -6985,7 +9589,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>6.2</v>
       </c>
@@ -7020,7 +9624,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>16.89</v>
       </c>
@@ -7055,7 +9659,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>27.58</v>
       </c>
@@ -7090,7 +9694,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>38.270000000000003</v>
       </c>
@@ -7125,7 +9729,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>48.96</v>
       </c>
@@ -7160,7 +9764,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>59.65</v>
       </c>
@@ -7195,7 +9799,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>70.34</v>
       </c>
@@ -7230,7 +9834,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
         <v>81.03</v>
       </c>
@@ -7265,7 +9869,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>91.72</v>
       </c>
@@ -7300,7 +9904,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>102.41</v>
       </c>
@@ -7335,7 +9939,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
         <v>113.1</v>
       </c>
@@ -7370,7 +9974,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
         <v>123.79</v>
       </c>
@@ -7405,7 +10009,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
         <v>134.47999999999999</v>
       </c>
@@ -7440,7 +10044,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
         <v>145.16999999999999</v>
       </c>
@@ -7475,7 +10079,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>155.86000000000001</v>
       </c>
@@ -7510,7 +10114,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>166.55</v>
       </c>
@@ -7545,7 +10149,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
         <v>177.24</v>
       </c>
@@ -7580,7 +10184,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
         <v>187.93</v>
       </c>
@@ -7615,7 +10219,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>198.62</v>
       </c>
@@ -7650,7 +10254,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
         <v>209.31</v>
       </c>
@@ -7685,7 +10289,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
         <v>220</v>
       </c>
@@ -7720,12 +10324,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>59</v>
       </c>
@@ -7733,7 +10337,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>60</v>
       </c>
@@ -7741,7 +10345,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>61</v>
       </c>
@@ -7749,7 +10353,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>62</v>
       </c>
@@ -7757,7 +10361,7 @@
         <v>7.9950000000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>63</v>
       </c>
@@ -7765,7 +10369,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>64</v>
       </c>
@@ -7773,7 +10377,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>65</v>
       </c>
@@ -7781,7 +10385,7 @@
         <v>40260.036999999997</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>66</v>
       </c>
@@ -7789,7 +10393,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>7</v>
       </c>
@@ -7797,7 +10401,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>67</v>
       </c>
@@ -7805,7 +10409,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>68</v>
       </c>
@@ -7813,7 +10417,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>69</v>
       </c>
@@ -7821,7 +10425,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>12</v>
       </c>
@@ -7829,7 +10433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>70</v>
       </c>
@@ -7837,7 +10441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>71</v>
       </c>
@@ -7845,7 +10449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>72</v>
       </c>
@@ -7853,7 +10457,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>73</v>
       </c>
@@ -7861,7 +10465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>74</v>
       </c>
@@ -7869,7 +10473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>75</v>
       </c>
@@ -7877,7 +10481,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>76</v>
       </c>
@@ -7885,7 +10489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>77</v>
       </c>
@@ -7893,17 +10497,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>80</v>
       </c>
@@ -7944,7 +10548,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="4">
         <v>19</v>
       </c>
@@ -7985,12 +10589,12 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>40</v>
       </c>
@@ -7998,7 +10602,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>80</v>
       </c>
@@ -8039,7 +10643,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="4">
         <v>6</v>
       </c>
@@ -8080,7 +10684,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="4">
         <v>7</v>
       </c>
@@ -8121,7 +10725,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="4">
         <v>8</v>
       </c>
@@ -8162,7 +10766,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="4">
         <v>9</v>
       </c>
@@ -8203,7 +10807,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="4">
         <v>10</v>
       </c>
@@ -8244,7 +10848,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="4">
         <v>11</v>
       </c>
@@ -8285,7 +10889,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="4">
         <v>12</v>
       </c>
@@ -8326,7 +10930,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="4">
         <v>13</v>
       </c>
@@ -8367,7 +10971,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="4">
         <v>14</v>
       </c>
@@ -8408,7 +11012,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="4">
         <v>15</v>
       </c>
@@ -8449,7 +11053,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="4">
         <v>16</v>
       </c>
@@ -8490,7 +11094,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="4">
         <v>17</v>
       </c>
@@ -8531,7 +11135,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="4">
         <v>18</v>
       </c>
@@ -8572,7 +11176,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="4">
         <v>19</v>
       </c>
@@ -8613,7 +11217,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="4">
         <v>20</v>
       </c>
@@ -8654,22 +11258,22 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>97</v>
       </c>
@@ -8677,22 +11281,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>101</v>
       </c>
@@ -8700,7 +11304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>102</v>
       </c>
@@ -8708,7 +11312,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>103</v>
       </c>
@@ -8716,17 +11320,17 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>106</v>
       </c>
@@ -8734,7 +11338,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>107</v>
       </c>
@@ -8742,7 +11346,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>109</v>
       </c>
@@ -8752,7 +11356,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -8761,20 +11365,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -8782,7 +11386,7 @@
         <v>224.49</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -8790,7 +11394,7 @@
         <v>34.979999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -8798,7 +11402,7 @@
         <v>20.99</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -8806,7 +11410,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -8814,7 +11418,7 @@
         <v>213.602</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -8822,7 +11426,7 @@
         <v>96.47</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -8830,7 +11434,7 @@
         <v>136.72999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -8838,12 +11442,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -8851,7 +11455,7 @@
         <v>7.99</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -8859,7 +11463,7 @@
         <v>7.99</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -8867,7 +11471,7 @@
         <v>7.99</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -8875,12 +11479,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -8888,7 +11492,7 @@
         <v>22.84</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -8896,7 +11500,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -8910,12 +11514,12 @@
         <v>7.99</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -8923,7 +11527,7 @@
         <v>35429.917999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -8931,7 +11535,7 @@
         <v>118716.12699999999</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -8945,7 +11549,7 @@
         <v>4.5419999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -8959,7 +11563,7 @@
         <v>11.613</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -8967,7 +11571,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -8975,12 +11579,12 @@
         <v>0.60050000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -8988,7 +11592,7 @@
         <v>5814.1059999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -9002,7 +11606,7 @@
         <v>7.99</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -9016,7 +11620,7 @@
         <v>16152000</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -9024,7 +11628,7 @@
         <v>7258.97</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -9032,7 +11636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -9040,12 +11644,12 @@
         <v>236.77199999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -9053,7 +11657,7 @@
         <v>9103.7520000000004</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -9067,7 +11671,7 @@
         <v>5.0330000000000004</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -9075,7 +11679,7 @@
         <v>163.87799999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -9083,7 +11687,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -9091,7 +11695,7 @@
         <v>1213.559</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -9105,7 +11709,7 @@
         <v>9.0259999999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -9119,12 +11723,12 @@
         <v>316317.033</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -9132,7 +11736,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
@@ -9140,7 +11744,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>6.3979999999999997</v>
       </c>
@@ -9148,7 +11752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>16.57</v>
       </c>
@@ -9156,7 +11760,7 @@
         <v>10.686999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>26.741</v>
       </c>
@@ -9164,7 +11768,7 @@
         <v>39.093000000000004</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>36.912999999999997</v>
       </c>
@@ -9172,7 +11776,7 @@
         <v>77.576999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>47.084000000000003</v>
       </c>
@@ -9180,7 +11784,7 @@
         <v>120.78700000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>57.256</v>
       </c>
@@ -9188,7 +11792,7 @@
         <v>163.72900000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>67.427000000000007</v>
       </c>
@@ -9196,7 +11800,7 @@
         <v>200.876</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>77.599000000000004</v>
       </c>
@@ -9204,7 +11808,7 @@
         <v>226.29599999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>87.77</v>
       </c>
@@ -9212,7 +11816,7 @@
         <v>236.239</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>97.941999999999993</v>
       </c>
@@ -9220,7 +11824,7 @@
         <v>236.77199999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>108.113</v>
       </c>
@@ -9228,7 +11832,7 @@
         <v>236.77199999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>118.285</v>
       </c>
@@ -9236,7 +11840,7 @@
         <v>236.77199999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>128.45599999999999</v>
       </c>
@@ -9244,7 +11848,7 @@
         <v>236.77199999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>138.62799999999999</v>
       </c>
@@ -9252,7 +11856,7 @@
         <v>236.63800000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>148.80000000000001</v>
       </c>
@@ -9260,7 +11864,7 @@
         <v>233.34200000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>158.971</v>
       </c>
@@ -9268,7 +11872,7 @@
         <v>223.54400000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>169.143</v>
       </c>
@@ -9276,7 +11880,7 @@
         <v>208.50700000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>179.31399999999999</v>
       </c>
@@ -9284,7 +11888,7 @@
         <v>187.53399999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>189.48599999999999</v>
       </c>
@@ -9292,7 +11896,7 @@
         <v>159.56100000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>199.65700000000001</v>
       </c>
@@ -9300,7 +11904,7 @@
         <v>123.581</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>209.82900000000001</v>
       </c>
@@ -9308,7 +11912,7 @@
         <v>78.096999999999994</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>220</v>
       </c>
@@ -9316,12 +11920,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>40</v>
       </c>
@@ -9329,7 +11933,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>41</v>
       </c>
@@ -9337,7 +11941,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>-4.49</v>
       </c>
@@ -9345,7 +11949,7 @@
         <v>165.62299999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>6.2</v>
       </c>
@@ -9353,7 +11957,7 @@
         <v>228.869</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>16.89</v>
       </c>
@@ -9361,7 +11965,7 @@
         <v>300.125</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>27.58</v>
       </c>
@@ -9369,7 +11973,7 @@
         <v>376.52800000000002</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>38.270000000000003</v>
       </c>
@@ -9377,7 +11981,7 @@
         <v>454.79199999999997</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>48.96</v>
       </c>
@@ -9385,7 +11989,7 @@
         <v>530.74599999999998</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>59.65</v>
       </c>
@@ -9393,7 +11997,7 @@
         <v>598.93700000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>70.34</v>
       </c>
@@ -9401,7 +12005,7 @@
         <v>652.37400000000002</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>81.03</v>
       </c>
@@ -9409,7 +12013,7 @@
         <v>683.54499999999996</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>91.72</v>
       </c>
@@ -9417,7 +12021,7 @@
         <v>691.173</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>102.41</v>
       </c>
@@ -9425,7 +12029,7 @@
         <v>691.18600000000004</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>113.1</v>
       </c>
@@ -9433,7 +12037,7 @@
         <v>691.18600000000004</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>123.79</v>
       </c>
@@ -9441,7 +12045,7 @@
         <v>691.18600000000004</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>134.47999999999999</v>
       </c>
@@ -9449,7 +12053,7 @@
         <v>691.178</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>145.16999999999999</v>
       </c>
@@ -9457,7 +12061,7 @@
         <v>687.39200000000005</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>155.86000000000001</v>
       </c>
@@ -9465,7 +12069,7 @@
         <v>667.04600000000005</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>166.55</v>
       </c>
@@ -9473,7 +12077,7 @@
         <v>630.80499999999995</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>177.24</v>
       </c>
@@ -9481,7 +12085,7 @@
         <v>575.35799999999995</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>187.93</v>
       </c>
@@ -9489,7 +12093,7 @@
         <v>495.97399999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>198.62</v>
       </c>
@@ -9497,7 +12101,7 @@
         <v>388.791</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>209.31</v>
       </c>
@@ -9505,7 +12109,7 @@
         <v>250.30199999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>220</v>
       </c>
@@ -9513,12 +12117,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>40</v>
       </c>
@@ -9526,7 +12130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>41</v>
       </c>
@@ -9534,7 +12138,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>163.87799999999999</v>
       </c>
@@ -9542,7 +12146,7 @@
         <v>250.381</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>177.90799999999999</v>
       </c>
@@ -9550,7 +12154,7 @@
         <v>220.74</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>191.93899999999999</v>
       </c>
@@ -9558,7 +12162,7 @@
         <v>175.89099999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>205.97</v>
       </c>
@@ -9566,7 +12170,7 @@
         <v>112.723</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>220</v>
       </c>
@@ -9574,12 +12178,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>46</v>
       </c>
@@ -9587,7 +12191,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>40</v>
       </c>
@@ -9595,7 +12199,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>47</v>
       </c>
@@ -9630,7 +12234,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>-4.49</v>
       </c>
@@ -9665,7 +12269,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>6.2</v>
       </c>
@@ -9700,7 +12304,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>16.89</v>
       </c>
@@ -9735,7 +12339,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>27.58</v>
       </c>
@@ -9770,7 +12374,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>38.270000000000003</v>
       </c>
@@ -9805,7 +12409,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>48.96</v>
       </c>
@@ -9840,7 +12444,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>59.65</v>
       </c>
@@ -9875,7 +12479,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>70.34</v>
       </c>
@@ -9910,7 +12514,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
         <v>81.03</v>
       </c>
@@ -9945,7 +12549,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>91.72</v>
       </c>
@@ -9980,7 +12584,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>102.41</v>
       </c>
@@ -10015,7 +12619,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
         <v>113.1</v>
       </c>
@@ -10050,7 +12654,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
         <v>123.79</v>
       </c>
@@ -10085,7 +12689,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
         <v>134.47999999999999</v>
       </c>
@@ -10120,7 +12724,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
         <v>145.16999999999999</v>
       </c>
@@ -10155,7 +12759,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>155.86000000000001</v>
       </c>
@@ -10190,7 +12794,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>166.55</v>
       </c>
@@ -10225,7 +12829,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
         <v>177.24</v>
       </c>
@@ -10260,7 +12864,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
         <v>187.93</v>
       </c>
@@ -10295,7 +12899,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>198.62</v>
       </c>
@@ -10330,7 +12934,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
         <v>209.31</v>
       </c>
@@ -10365,7 +12969,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
         <v>220</v>
       </c>
@@ -10400,12 +13004,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>59</v>
       </c>
@@ -10413,7 +13017,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>60</v>
       </c>
@@ -10421,7 +13025,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>61</v>
       </c>
@@ -10429,7 +13033,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>62</v>
       </c>
@@ -10437,7 +13041,7 @@
         <v>7.99</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>63</v>
       </c>
@@ -10445,7 +13049,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>64</v>
       </c>
@@ -10453,7 +13057,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>65</v>
       </c>
@@ -10461,7 +13065,7 @@
         <v>40260.036999999997</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>66</v>
       </c>
@@ -10469,7 +13073,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>7</v>
       </c>
@@ -10477,7 +13081,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>67</v>
       </c>
@@ -10485,7 +13089,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>68</v>
       </c>
@@ -10493,7 +13097,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>69</v>
       </c>
@@ -10501,7 +13105,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>12</v>
       </c>
@@ -10509,7 +13113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>70</v>
       </c>
@@ -10517,7 +13121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>71</v>
       </c>
@@ -10525,7 +13129,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>72</v>
       </c>
@@ -10533,7 +13137,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>73</v>
       </c>
@@ -10541,7 +13145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>74</v>
       </c>
@@ -10549,7 +13153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>75</v>
       </c>
@@ -10557,7 +13161,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>76</v>
       </c>
@@ -10565,7 +13169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>77</v>
       </c>
@@ -10573,17 +13177,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>80</v>
       </c>
@@ -10624,7 +13228,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="4">
         <v>19</v>
       </c>
@@ -10665,12 +13269,12 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>40</v>
       </c>
@@ -10678,7 +13282,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>80</v>
       </c>
@@ -10719,7 +13323,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="4">
         <v>6</v>
       </c>
@@ -10760,7 +13364,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="4">
         <v>7</v>
       </c>
@@ -10801,7 +13405,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="4">
         <v>8</v>
       </c>
@@ -10842,7 +13446,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="4">
         <v>9</v>
       </c>
@@ -10883,7 +13487,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="4">
         <v>10</v>
       </c>
@@ -10924,7 +13528,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="4">
         <v>11</v>
       </c>
@@ -10965,7 +13569,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="4">
         <v>12</v>
       </c>
@@ -11006,7 +13610,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="4">
         <v>13</v>
       </c>
@@ -11047,7 +13651,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="4">
         <v>14</v>
       </c>
@@ -11088,7 +13692,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="4">
         <v>15</v>
       </c>
@@ -11129,7 +13733,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="4">
         <v>16</v>
       </c>
@@ -11170,7 +13774,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="4">
         <v>17</v>
       </c>
@@ -11211,7 +13815,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="4">
         <v>18</v>
       </c>
@@ -11252,7 +13856,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="4">
         <v>19</v>
       </c>
@@ -11293,7 +13897,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="4">
         <v>20</v>
       </c>
@@ -11334,22 +13938,22 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>97</v>
       </c>
@@ -11357,22 +13961,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>101</v>
       </c>
@@ -11380,7 +13984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>102</v>
       </c>
@@ -11388,7 +13992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>103</v>
       </c>
@@ -11396,17 +14000,17 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>106</v>
       </c>
@@ -11414,7 +14018,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>107</v>
       </c>
@@ -11422,7 +14026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>108</v>
       </c>

--- a/IP.xlsx
+++ b/IP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="VB schip van Goris"/>
@@ -385,13 +385,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -423,30 +423,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -457,12 +457,6 @@
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -768,11 +762,11 @@
   </sheetPr>
   <dimension ref="A1:M183"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="41.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="41.86214285714286" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="11" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="11" width="57.14785714285715" customWidth="1" bestFit="1"/>
@@ -803,7 +797,7 @@
       <c r="M1" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5">
@@ -822,7 +816,7 @@
       <c r="M2" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="5">
@@ -841,7 +835,7 @@
       <c r="M3" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="5">
@@ -860,7 +854,7 @@
       <c r="M4" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="6">
@@ -879,7 +873,7 @@
       <c r="M5" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="5">
@@ -898,7 +892,7 @@
       <c r="M6" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="5">
@@ -917,7 +911,7 @@
       <c r="M7" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="5">
@@ -936,7 +930,7 @@
       <c r="M8" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="6">
@@ -955,7 +949,7 @@
       <c r="M9" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2"/>
@@ -972,7 +966,7 @@
       <c r="M10" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="5">
@@ -991,7 +985,7 @@
       <c r="M11" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="5">
@@ -1010,7 +1004,7 @@
       <c r="M12" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="5">
@@ -1029,7 +1023,7 @@
       <c r="M13" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="6">
@@ -1048,7 +1042,7 @@
       <c r="M14" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="2"/>
@@ -1065,7 +1059,7 @@
       <c r="M15" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="5">
@@ -1084,7 +1078,7 @@
       <c r="M16" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="6">
@@ -1103,7 +1097,7 @@
       <c r="M17" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="5">
@@ -1126,7 +1120,7 @@
       <c r="M18" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="2"/>
@@ -1143,7 +1137,7 @@
       <c r="M19" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="5">
@@ -1162,7 +1156,7 @@
       <c r="M20" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="5">
@@ -1181,7 +1175,7 @@
       <c r="M21" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="5">
@@ -1204,7 +1198,7 @@
       <c r="M22" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="5">
@@ -1227,7 +1221,7 @@
       <c r="M23" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="5">
@@ -1246,7 +1240,7 @@
       <c r="M24" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="5">
@@ -1265,7 +1259,7 @@
       <c r="M25" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="2"/>
@@ -1282,7 +1276,7 @@
       <c r="M26" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="5">
@@ -1301,7 +1295,7 @@
       <c r="M27" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="5">
@@ -1324,7 +1318,7 @@
       <c r="M28" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="5">
@@ -1347,7 +1341,7 @@
       <c r="M29" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="5">
@@ -1366,7 +1360,7 @@
       <c r="M30" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="6">
@@ -1385,7 +1379,7 @@
       <c r="M31" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="5">
@@ -1404,7 +1398,7 @@
       <c r="M32" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="2"/>
@@ -1421,7 +1415,7 @@
       <c r="M33" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="5">
@@ -1440,7 +1434,7 @@
       <c r="M34" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="5">
@@ -1463,7 +1457,7 @@
       <c r="M35" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="5">
@@ -1482,7 +1476,7 @@
       <c r="M36" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="6">
@@ -1501,7 +1495,7 @@
       <c r="M37" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="5">
@@ -1520,7 +1514,7 @@
       <c r="M38" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B39" s="5">
@@ -1543,7 +1537,7 @@
       <c r="M39" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B40" s="5">
@@ -1566,7 +1560,7 @@
       <c r="M40" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B41" s="2"/>
@@ -1583,7 +1577,7 @@
       <c r="M41" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B42" s="6">
@@ -1602,10 +1596,10 @@
       <c r="M42" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C43" s="3"/>
@@ -2039,7 +2033,7 @@
       <c r="M65" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
-      <c r="A66" s="12" t="s">
+      <c r="A66" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B66" s="2"/>
@@ -2056,7 +2050,7 @@
       <c r="M66" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5">
-      <c r="A67" s="12" t="s">
+      <c r="A67" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B67" s="6">
@@ -2075,10 +2069,10 @@
       <c r="M67" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5">
-      <c r="A68" s="12" t="s">
+      <c r="A68" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B68" s="12" t="s">
+      <c r="B68" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C68" s="3"/>
@@ -2512,7 +2506,7 @@
       <c r="M90" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="19.5">
-      <c r="A91" s="12" t="s">
+      <c r="A91" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B91" s="2"/>
@@ -2529,7 +2523,7 @@
       <c r="M91" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="19.5">
-      <c r="A92" s="12" t="s">
+      <c r="A92" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B92" s="6">
@@ -2548,10 +2542,10 @@
       <c r="M92" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="19.5">
-      <c r="A93" s="12" t="s">
+      <c r="A93" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B93" s="12" t="s">
+      <c r="B93" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C93" s="3"/>
@@ -2662,7 +2656,7 @@
       <c r="M98" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="19.5">
-      <c r="A99" s="12" t="s">
+      <c r="A99" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B99" s="2"/>
@@ -2679,7 +2673,7 @@
       <c r="M99" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="19.5">
-      <c r="A100" s="12" t="s">
+      <c r="A100" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B100" s="6">
@@ -2698,7 +2692,7 @@
       <c r="M100" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="19.5">
-      <c r="A101" s="12" t="s">
+      <c r="A101" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B101" s="6">
@@ -2717,37 +2711,37 @@
       <c r="M101" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="19.5">
-      <c r="A102" s="12" t="s">
+      <c r="A102" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B102" s="12" t="s">
+      <c r="B102" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C102" s="13" t="s">
+      <c r="C102" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D102" s="13" t="s">
+      <c r="D102" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E102" s="13" t="s">
+      <c r="E102" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F102" s="12" t="s">
+      <c r="F102" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G102" s="13" t="s">
+      <c r="G102" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H102" s="12" t="s">
+      <c r="H102" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I102" s="12" t="s">
+      <c r="I102" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J102" s="13" t="s">
+      <c r="J102" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="K102" s="12" t="s">
+      <c r="K102" s="4" t="s">
         <v>57</v>
       </c>
       <c r="L102" s="3"/>
@@ -3568,7 +3562,7 @@
       <c r="M124" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="19.5">
-      <c r="A125" s="12" t="s">
+      <c r="A125" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B125" s="2"/>
@@ -3585,7 +3579,7 @@
       <c r="M125" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="19.5">
-      <c r="A126" s="12" t="s">
+      <c r="A126" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B126" s="6">
@@ -3604,7 +3598,7 @@
       <c r="M126" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="19.5">
-      <c r="A127" s="12" t="s">
+      <c r="A127" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B127" s="6">
@@ -3623,7 +3617,7 @@
       <c r="M127" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="19.5">
-      <c r="A128" s="12" t="s">
+      <c r="A128" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B128" s="6">
@@ -3642,7 +3636,7 @@
       <c r="M128" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="19.5">
-      <c r="A129" s="12" t="s">
+      <c r="A129" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B129" s="5">
@@ -3661,7 +3655,7 @@
       <c r="M129" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="19.5">
-      <c r="A130" s="12" t="s">
+      <c r="A130" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B130" s="5">
@@ -3680,7 +3674,7 @@
       <c r="M130" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="19.5">
-      <c r="A131" s="12" t="s">
+      <c r="A131" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B131" s="6">
@@ -3699,7 +3693,7 @@
       <c r="M131" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="19.5">
-      <c r="A132" s="12" t="s">
+      <c r="A132" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B132" s="5">
@@ -3718,7 +3712,7 @@
       <c r="M132" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="19.5">
-      <c r="A133" s="12" t="s">
+      <c r="A133" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B133" s="6">
@@ -3737,7 +3731,7 @@
       <c r="M133" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="19.5">
-      <c r="A134" s="12" t="s">
+      <c r="A134" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B134" s="6">
@@ -3756,7 +3750,7 @@
       <c r="M134" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="19.5">
-      <c r="A135" s="12" t="s">
+      <c r="A135" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B135" s="6">
@@ -3775,7 +3769,7 @@
       <c r="M135" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="19.5">
-      <c r="A136" s="12" t="s">
+      <c r="A136" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B136" s="6">
@@ -3794,7 +3788,7 @@
       <c r="M136" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="19.5">
-      <c r="A137" s="12" t="s">
+      <c r="A137" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B137" s="6">
@@ -3813,7 +3807,7 @@
       <c r="M137" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="19.5">
-      <c r="A138" s="12" t="s">
+      <c r="A138" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B138" s="6">
@@ -3832,7 +3826,7 @@
       <c r="M138" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="19.5">
-      <c r="A139" s="12" t="s">
+      <c r="A139" s="4" t="s">
         <v>70</v>
       </c>
       <c r="B139" s="6">
@@ -3851,7 +3845,7 @@
       <c r="M139" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="19.5">
-      <c r="A140" s="12" t="s">
+      <c r="A140" s="4" t="s">
         <v>71</v>
       </c>
       <c r="B140" s="6">
@@ -3870,7 +3864,7 @@
       <c r="M140" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="19.5">
-      <c r="A141" s="12" t="s">
+      <c r="A141" s="4" t="s">
         <v>72</v>
       </c>
       <c r="B141" s="6">
@@ -3889,7 +3883,7 @@
       <c r="M141" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="19.5">
-      <c r="A142" s="12" t="s">
+      <c r="A142" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B142" s="6">
@@ -3908,7 +3902,7 @@
       <c r="M142" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="19.5">
-      <c r="A143" s="12" t="s">
+      <c r="A143" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B143" s="6">
@@ -3927,7 +3921,7 @@
       <c r="M143" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="19.5">
-      <c r="A144" s="12" t="s">
+      <c r="A144" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B144" s="6">
@@ -3946,7 +3940,7 @@
       <c r="M144" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="19.5">
-      <c r="A145" s="12" t="s">
+      <c r="A145" s="4" t="s">
         <v>76</v>
       </c>
       <c r="B145" s="6">
@@ -3965,7 +3959,7 @@
       <c r="M145" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="19.5">
-      <c r="A146" s="12" t="s">
+      <c r="A146" s="4" t="s">
         <v>77</v>
       </c>
       <c r="B146" s="6">
@@ -3984,7 +3978,7 @@
       <c r="M146" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="19.5">
-      <c r="A147" s="12" t="s">
+      <c r="A147" s="4" t="s">
         <v>78</v>
       </c>
       <c r="B147" s="2"/>
@@ -4001,7 +3995,7 @@
       <c r="M147" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="19.5">
-      <c r="A148" s="12" t="s">
+      <c r="A148" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B148" s="2"/>
@@ -4018,43 +4012,43 @@
       <c r="M148" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="19.5">
-      <c r="A149" s="12" t="s">
+      <c r="A149" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B149" s="12" t="s">
+      <c r="B149" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C149" s="13" t="s">
+      <c r="C149" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D149" s="13" t="s">
+      <c r="D149" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E149" s="13" t="s">
+      <c r="E149" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F149" s="12" t="s">
+      <c r="F149" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G149" s="13" t="s">
+      <c r="G149" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="H149" s="12" t="s">
+      <c r="H149" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="I149" s="12" t="s">
+      <c r="I149" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="J149" s="13" t="s">
+      <c r="J149" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="K149" s="12" t="s">
+      <c r="K149" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="L149" s="13" t="s">
+      <c r="L149" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="M149" s="13" t="s">
+      <c r="M149" s="8" t="s">
         <v>92</v>
       </c>
     </row>
@@ -4100,7 +4094,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="19.5">
-      <c r="A151" s="12" t="s">
+      <c r="A151" s="4" t="s">
         <v>93</v>
       </c>
       <c r="B151" s="2"/>
@@ -4117,7 +4111,7 @@
       <c r="M151" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="19.5">
-      <c r="A152" s="12" t="s">
+      <c r="A152" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B152" s="6">
@@ -4136,43 +4130,43 @@
       <c r="M152" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="19.5">
-      <c r="A153" s="12" t="s">
+      <c r="A153" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B153" s="12" t="s">
+      <c r="B153" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C153" s="13" t="s">
+      <c r="C153" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D153" s="13" t="s">
+      <c r="D153" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E153" s="13" t="s">
+      <c r="E153" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F153" s="12" t="s">
+      <c r="F153" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G153" s="13" t="s">
+      <c r="G153" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="H153" s="12" t="s">
+      <c r="H153" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="I153" s="12" t="s">
+      <c r="I153" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="J153" s="13" t="s">
+      <c r="J153" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="K153" s="12" t="s">
+      <c r="K153" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="L153" s="13" t="s">
+      <c r="L153" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="M153" s="13" t="s">
+      <c r="M153" s="8" t="s">
         <v>92</v>
       </c>
     </row>
@@ -4792,7 +4786,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="19.5">
-      <c r="A169" s="12" t="s">
+      <c r="A169" s="4" t="s">
         <v>94</v>
       </c>
       <c r="B169" s="2"/>
@@ -4809,7 +4803,7 @@
       <c r="M169" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="19.5">
-      <c r="A170" s="12" t="s">
+      <c r="A170" s="4" t="s">
         <v>95</v>
       </c>
       <c r="B170" s="2"/>
@@ -4826,7 +4820,7 @@
       <c r="M170" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="19.5">
-      <c r="A171" s="12" t="s">
+      <c r="A171" s="4" t="s">
         <v>96</v>
       </c>
       <c r="B171" s="2"/>
@@ -4843,7 +4837,7 @@
       <c r="M171" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="19.5">
-      <c r="A172" s="12" t="s">
+      <c r="A172" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B172" s="6">
@@ -4862,7 +4856,7 @@
       <c r="M172" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="19.5">
-      <c r="A173" s="12" t="s">
+      <c r="A173" s="4" t="s">
         <v>98</v>
       </c>
       <c r="B173" s="2"/>
@@ -4879,7 +4873,7 @@
       <c r="M173" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="19.5">
-      <c r="A174" s="12" t="s">
+      <c r="A174" s="4" t="s">
         <v>99</v>
       </c>
       <c r="B174" s="2"/>
@@ -4896,7 +4890,7 @@
       <c r="M174" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="19.5">
-      <c r="A175" s="12" t="s">
+      <c r="A175" s="4" t="s">
         <v>100</v>
       </c>
       <c r="B175" s="2"/>
@@ -4913,7 +4907,7 @@
       <c r="M175" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="19.5">
-      <c r="A176" s="12" t="s">
+      <c r="A176" s="4" t="s">
         <v>101</v>
       </c>
       <c r="B176" s="6">
@@ -4932,7 +4926,7 @@
       <c r="M176" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="19.5">
-      <c r="A177" s="12" t="s">
+      <c r="A177" s="4" t="s">
         <v>102</v>
       </c>
       <c r="B177" s="6">
@@ -4951,7 +4945,7 @@
       <c r="M177" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="19.5">
-      <c r="A178" s="12" t="s">
+      <c r="A178" s="4" t="s">
         <v>103</v>
       </c>
       <c r="B178" s="6">
@@ -4970,7 +4964,7 @@
       <c r="M178" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="19.5">
-      <c r="A179" s="12" t="s">
+      <c r="A179" s="4" t="s">
         <v>104</v>
       </c>
       <c r="B179" s="2"/>
@@ -4987,7 +4981,7 @@
       <c r="M179" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="19.5">
-      <c r="A180" s="12" t="s">
+      <c r="A180" s="4" t="s">
         <v>105</v>
       </c>
       <c r="B180" s="2"/>
@@ -5004,7 +4998,7 @@
       <c r="M180" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="19.5">
-      <c r="A181" s="12" t="s">
+      <c r="A181" s="4" t="s">
         <v>106</v>
       </c>
       <c r="B181" s="6">
@@ -5023,7 +5017,7 @@
       <c r="M181" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="19.5">
-      <c r="A182" s="12" t="s">
+      <c r="A182" s="4" t="s">
         <v>107</v>
       </c>
       <c r="B182" s="6">
@@ -5042,7 +5036,7 @@
       <c r="M182" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="19.5">
-      <c r="A183" s="12" t="s">
+      <c r="A183" s="4" t="s">
         <v>115</v>
       </c>
       <c r="B183" s="2"/>
@@ -5074,7 +5068,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="11" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="11" width="14.147857142857141" customWidth="1" bestFit="1"/>
@@ -5105,7 +5099,7 @@
       <c r="M1" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6">
@@ -5124,7 +5118,7 @@
       <c r="M2" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="5">
@@ -5143,7 +5137,7 @@
       <c r="M3" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="5">
@@ -5162,7 +5156,7 @@
       <c r="M4" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="5">
@@ -5181,7 +5175,7 @@
       <c r="M5" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="5">
@@ -5200,7 +5194,7 @@
       <c r="M6" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="5">
@@ -5219,7 +5213,7 @@
       <c r="M7" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="5">
@@ -5238,7 +5232,7 @@
       <c r="M8" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="6">
@@ -5257,7 +5251,7 @@
       <c r="M9" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2"/>
@@ -5274,7 +5268,7 @@
       <c r="M10" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="5">
@@ -5293,7 +5287,7 @@
       <c r="M11" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="5">
@@ -5312,7 +5306,7 @@
       <c r="M12" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="5">
@@ -5331,7 +5325,7 @@
       <c r="M13" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="6">
@@ -5350,7 +5344,7 @@
       <c r="M14" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="2"/>
@@ -5367,7 +5361,7 @@
       <c r="M15" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="5">
@@ -5386,7 +5380,7 @@
       <c r="M16" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="6">
@@ -5405,7 +5399,7 @@
       <c r="M17" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="5">
@@ -5428,7 +5422,7 @@
       <c r="M18" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="2"/>
@@ -5445,7 +5439,7 @@
       <c r="M19" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="5">
@@ -5464,7 +5458,7 @@
       <c r="M20" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="5">
@@ -5483,7 +5477,7 @@
       <c r="M21" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="5">
@@ -5506,7 +5500,7 @@
       <c r="M22" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="5">
@@ -5529,7 +5523,7 @@
       <c r="M23" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="5">
@@ -5548,7 +5542,7 @@
       <c r="M24" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="5">
@@ -5567,7 +5561,7 @@
       <c r="M25" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="2"/>
@@ -5584,7 +5578,7 @@
       <c r="M26" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="5">
@@ -5603,7 +5597,7 @@
       <c r="M27" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="5">
@@ -5626,7 +5620,7 @@
       <c r="M28" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="5">
@@ -5649,7 +5643,7 @@
       <c r="M29" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="5">
@@ -5668,7 +5662,7 @@
       <c r="M30" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="6">
@@ -5687,7 +5681,7 @@
       <c r="M31" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="5">
@@ -5706,7 +5700,7 @@
       <c r="M32" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="2"/>
@@ -5723,7 +5717,7 @@
       <c r="M33" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="5">
@@ -5742,7 +5736,7 @@
       <c r="M34" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="5">
@@ -5765,7 +5759,7 @@
       <c r="M35" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="5">
@@ -5784,7 +5778,7 @@
       <c r="M36" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="6">
@@ -5803,7 +5797,7 @@
       <c r="M37" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="5">
@@ -5822,7 +5816,7 @@
       <c r="M38" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B39" s="5">
@@ -5845,7 +5839,7 @@
       <c r="M39" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B40" s="5">
@@ -5868,7 +5862,7 @@
       <c r="M40" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B41" s="2"/>
@@ -5885,7 +5879,7 @@
       <c r="M41" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B42" s="6">
@@ -5904,10 +5898,10 @@
       <c r="M42" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C43" s="3"/>
@@ -6341,7 +6335,7 @@
       <c r="M65" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
-      <c r="A66" s="12" t="s">
+      <c r="A66" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B66" s="2"/>
@@ -6358,7 +6352,7 @@
       <c r="M66" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5">
-      <c r="A67" s="12" t="s">
+      <c r="A67" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B67" s="6">
@@ -6377,10 +6371,10 @@
       <c r="M67" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5">
-      <c r="A68" s="12" t="s">
+      <c r="A68" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B68" s="12" t="s">
+      <c r="B68" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C68" s="3"/>
@@ -6814,7 +6808,7 @@
       <c r="M90" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="19.5">
-      <c r="A91" s="12" t="s">
+      <c r="A91" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B91" s="2"/>
@@ -6831,7 +6825,7 @@
       <c r="M91" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="19.5">
-      <c r="A92" s="12" t="s">
+      <c r="A92" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B92" s="6">
@@ -6850,10 +6844,10 @@
       <c r="M92" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="19.5">
-      <c r="A93" s="12" t="s">
+      <c r="A93" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B93" s="12" t="s">
+      <c r="B93" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C93" s="3"/>
@@ -6964,7 +6958,7 @@
       <c r="M98" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="19.5">
-      <c r="A99" s="12" t="s">
+      <c r="A99" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B99" s="2"/>
@@ -6981,7 +6975,7 @@
       <c r="M99" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="19.5">
-      <c r="A100" s="12" t="s">
+      <c r="A100" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B100" s="6">
@@ -7000,7 +6994,7 @@
       <c r="M100" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="19.5">
-      <c r="A101" s="12" t="s">
+      <c r="A101" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B101" s="6">
@@ -7019,37 +7013,37 @@
       <c r="M101" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="19.5">
-      <c r="A102" s="12" t="s">
+      <c r="A102" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B102" s="12" t="s">
+      <c r="B102" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C102" s="13" t="s">
+      <c r="C102" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D102" s="13" t="s">
+      <c r="D102" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E102" s="13" t="s">
+      <c r="E102" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F102" s="12" t="s">
+      <c r="F102" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G102" s="13" t="s">
+      <c r="G102" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H102" s="12" t="s">
+      <c r="H102" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I102" s="12" t="s">
+      <c r="I102" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J102" s="13" t="s">
+      <c r="J102" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="K102" s="12" t="s">
+      <c r="K102" s="4" t="s">
         <v>57</v>
       </c>
       <c r="L102" s="3"/>
@@ -7870,7 +7864,7 @@
       <c r="M124" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="19.5">
-      <c r="A125" s="12" t="s">
+      <c r="A125" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B125" s="2"/>
@@ -7887,7 +7881,7 @@
       <c r="M125" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="19.5">
-      <c r="A126" s="12" t="s">
+      <c r="A126" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B126" s="6">
@@ -7906,7 +7900,7 @@
       <c r="M126" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="19.5">
-      <c r="A127" s="12" t="s">
+      <c r="A127" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B127" s="6">
@@ -7925,7 +7919,7 @@
       <c r="M127" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="19.5">
-      <c r="A128" s="12" t="s">
+      <c r="A128" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B128" s="6">
@@ -7944,7 +7938,7 @@
       <c r="M128" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="19.5">
-      <c r="A129" s="12" t="s">
+      <c r="A129" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B129" s="5">
@@ -7963,7 +7957,7 @@
       <c r="M129" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="19.5">
-      <c r="A130" s="12" t="s">
+      <c r="A130" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B130" s="5">
@@ -7982,7 +7976,7 @@
       <c r="M130" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="19.5">
-      <c r="A131" s="12" t="s">
+      <c r="A131" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B131" s="6">
@@ -8001,7 +7995,7 @@
       <c r="M131" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="19.5">
-      <c r="A132" s="12" t="s">
+      <c r="A132" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B132" s="5">
@@ -8020,7 +8014,7 @@
       <c r="M132" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="19.5">
-      <c r="A133" s="12" t="s">
+      <c r="A133" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B133" s="6">
@@ -8039,7 +8033,7 @@
       <c r="M133" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="19.5">
-      <c r="A134" s="12" t="s">
+      <c r="A134" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B134" s="6">
@@ -8058,7 +8052,7 @@
       <c r="M134" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="19.5">
-      <c r="A135" s="12" t="s">
+      <c r="A135" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B135" s="6">
@@ -8077,7 +8071,7 @@
       <c r="M135" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="19.5">
-      <c r="A136" s="12" t="s">
+      <c r="A136" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B136" s="6">
@@ -8096,7 +8090,7 @@
       <c r="M136" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="19.5">
-      <c r="A137" s="12" t="s">
+      <c r="A137" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B137" s="6">
@@ -8115,7 +8109,7 @@
       <c r="M137" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="19.5">
-      <c r="A138" s="12" t="s">
+      <c r="A138" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B138" s="6">
@@ -8134,7 +8128,7 @@
       <c r="M138" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="19.5">
-      <c r="A139" s="12" t="s">
+      <c r="A139" s="4" t="s">
         <v>70</v>
       </c>
       <c r="B139" s="6">
@@ -8153,7 +8147,7 @@
       <c r="M139" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="19.5">
-      <c r="A140" s="12" t="s">
+      <c r="A140" s="4" t="s">
         <v>71</v>
       </c>
       <c r="B140" s="6">
@@ -8172,7 +8166,7 @@
       <c r="M140" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="19.5">
-      <c r="A141" s="12" t="s">
+      <c r="A141" s="4" t="s">
         <v>72</v>
       </c>
       <c r="B141" s="6">
@@ -8191,7 +8185,7 @@
       <c r="M141" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="19.5">
-      <c r="A142" s="12" t="s">
+      <c r="A142" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B142" s="6">
@@ -8210,7 +8204,7 @@
       <c r="M142" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="19.5">
-      <c r="A143" s="12" t="s">
+      <c r="A143" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B143" s="6">
@@ -8229,7 +8223,7 @@
       <c r="M143" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="19.5">
-      <c r="A144" s="12" t="s">
+      <c r="A144" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B144" s="6">
@@ -8248,7 +8242,7 @@
       <c r="M144" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="19.5">
-      <c r="A145" s="12" t="s">
+      <c r="A145" s="4" t="s">
         <v>76</v>
       </c>
       <c r="B145" s="6">
@@ -8267,7 +8261,7 @@
       <c r="M145" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="19.5">
-      <c r="A146" s="12" t="s">
+      <c r="A146" s="4" t="s">
         <v>77</v>
       </c>
       <c r="B146" s="6">
@@ -8286,7 +8280,7 @@
       <c r="M146" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="19.5">
-      <c r="A147" s="12" t="s">
+      <c r="A147" s="4" t="s">
         <v>111</v>
       </c>
       <c r="B147" s="2"/>
@@ -8303,7 +8297,7 @@
       <c r="M147" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="19.5">
-      <c r="A148" s="12" t="s">
+      <c r="A148" s="4" t="s">
         <v>78</v>
       </c>
       <c r="B148" s="2"/>
@@ -8320,7 +8314,7 @@
       <c r="M148" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="19.5">
-      <c r="A149" s="12" t="s">
+      <c r="A149" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B149" s="2"/>
@@ -8337,43 +8331,43 @@
       <c r="M149" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="19.5">
-      <c r="A150" s="12" t="s">
+      <c r="A150" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B150" s="12" t="s">
+      <c r="B150" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C150" s="13" t="s">
+      <c r="C150" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D150" s="13" t="s">
+      <c r="D150" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E150" s="13" t="s">
+      <c r="E150" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F150" s="12" t="s">
+      <c r="F150" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G150" s="13" t="s">
+      <c r="G150" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="H150" s="12" t="s">
+      <c r="H150" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="I150" s="12" t="s">
+      <c r="I150" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="J150" s="13" t="s">
+      <c r="J150" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="K150" s="12" t="s">
+      <c r="K150" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="L150" s="13" t="s">
+      <c r="L150" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="M150" s="13" t="s">
+      <c r="M150" s="8" t="s">
         <v>92</v>
       </c>
     </row>
@@ -8419,7 +8413,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="19.5">
-      <c r="A152" s="12" t="s">
+      <c r="A152" s="4" t="s">
         <v>93</v>
       </c>
       <c r="B152" s="2"/>
@@ -8436,7 +8430,7 @@
       <c r="M152" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="19.5">
-      <c r="A153" s="12" t="s">
+      <c r="A153" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B153" s="6">
@@ -8455,43 +8449,43 @@
       <c r="M153" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="19.5">
-      <c r="A154" s="12" t="s">
+      <c r="A154" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B154" s="12" t="s">
+      <c r="B154" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C154" s="13" t="s">
+      <c r="C154" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D154" s="13" t="s">
+      <c r="D154" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E154" s="13" t="s">
+      <c r="E154" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F154" s="12" t="s">
+      <c r="F154" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G154" s="13" t="s">
+      <c r="G154" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="H154" s="12" t="s">
+      <c r="H154" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="I154" s="12" t="s">
+      <c r="I154" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="J154" s="13" t="s">
+      <c r="J154" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="K154" s="12" t="s">
+      <c r="K154" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="L154" s="13" t="s">
+      <c r="L154" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="M154" s="13" t="s">
+      <c r="M154" s="8" t="s">
         <v>92</v>
       </c>
     </row>
@@ -9029,7 +9023,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="19.5">
-      <c r="A168" s="12" t="s">
+      <c r="A168" s="4" t="s">
         <v>94</v>
       </c>
       <c r="B168" s="2"/>
@@ -9046,7 +9040,7 @@
       <c r="M168" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="19.5">
-      <c r="A169" s="12" t="s">
+      <c r="A169" s="4" t="s">
         <v>95</v>
       </c>
       <c r="B169" s="2"/>
@@ -9063,7 +9057,7 @@
       <c r="M169" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="19.5">
-      <c r="A170" s="12" t="s">
+      <c r="A170" s="4" t="s">
         <v>112</v>
       </c>
       <c r="B170" s="2"/>
@@ -9080,7 +9074,7 @@
       <c r="M170" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="19.5">
-      <c r="A171" s="12" t="s">
+      <c r="A171" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B171" s="6">
@@ -9099,7 +9093,7 @@
       <c r="M171" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="19.5">
-      <c r="A172" s="12" t="s">
+      <c r="A172" s="4" t="s">
         <v>98</v>
       </c>
       <c r="B172" s="2"/>
@@ -9116,7 +9110,7 @@
       <c r="M172" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="19.5">
-      <c r="A173" s="12" t="s">
+      <c r="A173" s="4" t="s">
         <v>113</v>
       </c>
       <c r="B173" s="2"/>
@@ -9133,7 +9127,7 @@
       <c r="M173" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="19.5">
-      <c r="A174" s="12" t="s">
+      <c r="A174" s="4" t="s">
         <v>100</v>
       </c>
       <c r="B174" s="2"/>
@@ -9150,7 +9144,7 @@
       <c r="M174" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="19.5">
-      <c r="A175" s="12" t="s">
+      <c r="A175" s="4" t="s">
         <v>101</v>
       </c>
       <c r="B175" s="6">
@@ -9169,7 +9163,7 @@
       <c r="M175" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="19.5">
-      <c r="A176" s="12" t="s">
+      <c r="A176" s="4" t="s">
         <v>102</v>
       </c>
       <c r="B176" s="6">
@@ -9188,7 +9182,7 @@
       <c r="M176" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="19.5">
-      <c r="A177" s="12" t="s">
+      <c r="A177" s="4" t="s">
         <v>103</v>
       </c>
       <c r="B177" s="6">
@@ -9207,7 +9201,7 @@
       <c r="M177" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="19.5">
-      <c r="A178" s="12" t="s">
+      <c r="A178" s="4" t="s">
         <v>104</v>
       </c>
       <c r="B178" s="2"/>
@@ -9224,7 +9218,7 @@
       <c r="M178" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="19.5">
-      <c r="A179" s="12" t="s">
+      <c r="A179" s="4" t="s">
         <v>105</v>
       </c>
       <c r="B179" s="2"/>
@@ -9241,7 +9235,7 @@
       <c r="M179" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="19.5">
-      <c r="A180" s="12" t="s">
+      <c r="A180" s="4" t="s">
         <v>106</v>
       </c>
       <c r="B180" s="6">
@@ -9260,7 +9254,7 @@
       <c r="M180" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="19.5">
-      <c r="A181" s="12" t="s">
+      <c r="A181" s="4" t="s">
         <v>107</v>
       </c>
       <c r="B181" s="6">
@@ -9279,7 +9273,7 @@
       <c r="M181" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="19.5">
-      <c r="A182" s="12" t="s">
+      <c r="A182" s="4" t="s">
         <v>114</v>
       </c>
       <c r="B182" s="2"/>
@@ -9307,13 +9301,13 @@
   </sheetPr>
   <dimension ref="A1:M183"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="10.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="23.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="11" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="11" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>

--- a/IP.xlsx
+++ b/IP.xlsx
@@ -5,26 +5,41 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2ee38df677a9f564/Documenten/Maritieme techniek/Q4/IP-26/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomol\.spyder-py3\MT-1\IP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_335967806A0D449819BF6D051A95DF09AAEE0D5D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D45411DA-E6EE-4394-B0BE-A95C05D7D0AC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575719C0-35F3-481B-9417-1F61FC954675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VB schip van Goris" sheetId="1" r:id="rId1"/>
     <sheet name="ik ben snelheid" sheetId="2" r:id="rId2"/>
-    <sheet name="Plaatdikte uitvogelen" sheetId="3" r:id="rId3"/>
-    <sheet name="Plaatdikte 2" sheetId="4" r:id="rId4"/>
-    <sheet name="Plaatdikte 3" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
+    <sheet name="Plaatdikte uitvogelen" sheetId="3" r:id="rId4"/>
+    <sheet name="Plaatdikte 2" sheetId="4" r:id="rId5"/>
+    <sheet name="Plaatdikte 3" sheetId="5" r:id="rId6"/>
+    <sheet name="Container" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="122">
   <si>
     <t>Loa  [m]</t>
   </si>
@@ -376,6 +391,21 @@
   <si>
     <t>WARNING: an endpoint of a curve is inside the rectangle BH</t>
   </si>
+  <si>
+    <t>aantal in:</t>
+  </si>
+  <si>
+    <t>hoogte</t>
+  </si>
+  <si>
+    <t>breedte</t>
+  </si>
+  <si>
+    <t>lengte</t>
+  </si>
+  <si>
+    <t>aantal containers</t>
+  </si>
 </sst>
 </file>
 
@@ -465,7 +495,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -478,10 +508,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -776,22 +802,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.140625" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -806,7 +832,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -825,7 +851,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -844,7 +870,7 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -863,7 +889,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -882,7 +908,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -901,7 +927,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -920,7 +946,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -939,7 +965,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -958,7 +984,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -975,7 +1001,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -994,7 +1020,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -1013,7 +1039,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -1032,7 +1058,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -1051,7 +1077,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
@@ -1068,7 +1094,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
@@ -1087,7 +1113,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
@@ -1106,7 +1132,7 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
@@ -1129,7 +1155,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
@@ -1146,7 +1172,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
@@ -1165,7 +1191,7 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
@@ -1184,7 +1210,7 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
@@ -1207,7 +1233,7 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
@@ -1230,7 +1256,7 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>22</v>
       </c>
@@ -1249,7 +1275,7 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>23</v>
       </c>
@@ -1268,7 +1294,7 @@
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>24</v>
       </c>
@@ -1285,7 +1311,7 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>25</v>
       </c>
@@ -1304,7 +1330,7 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>26</v>
       </c>
@@ -1327,7 +1353,7 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>27</v>
       </c>
@@ -1350,7 +1376,7 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>28</v>
       </c>
@@ -1369,7 +1395,7 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>29</v>
       </c>
@@ -1388,7 +1414,7 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>30</v>
       </c>
@@ -1407,7 +1433,7 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>31</v>
       </c>
@@ -1424,7 +1450,7 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
     </row>
-    <row r="34" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>32</v>
       </c>
@@ -1443,7 +1469,7 @@
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>33</v>
       </c>
@@ -1466,7 +1492,7 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
     </row>
-    <row r="36" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>34</v>
       </c>
@@ -1485,7 +1511,7 @@
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
     </row>
-    <row r="37" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>35</v>
       </c>
@@ -1504,7 +1530,7 @@
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
     </row>
-    <row r="38" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>36</v>
       </c>
@@ -1523,7 +1549,7 @@
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
     </row>
-    <row r="39" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>37</v>
       </c>
@@ -1546,7 +1572,7 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
     </row>
-    <row r="40" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>38</v>
       </c>
@@ -1569,7 +1595,7 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
     </row>
-    <row r="41" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>39</v>
       </c>
@@ -1586,7 +1612,7 @@
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
     </row>
-    <row r="42" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>40</v>
       </c>
@@ -1605,7 +1631,7 @@
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
     </row>
-    <row r="43" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>41</v>
       </c>
@@ -1624,7 +1650,7 @@
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
     </row>
-    <row r="44" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>6.5640000000000001</v>
       </c>
@@ -1643,7 +1669,7 @@
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
     </row>
-    <row r="45" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>16.727</v>
       </c>
@@ -1662,7 +1688,7 @@
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
     </row>
-    <row r="46" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>26.890999999999998</v>
       </c>
@@ -1681,7 +1707,7 @@
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
     </row>
-    <row r="47" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>37.054000000000002</v>
       </c>
@@ -1700,7 +1726,7 @@
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
     </row>
-    <row r="48" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>47.218000000000004</v>
       </c>
@@ -1719,7 +1745,7 @@
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
     </row>
-    <row r="49" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>57.381999999999998</v>
       </c>
@@ -1738,7 +1764,7 @@
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
     </row>
-    <row r="50" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>67.545000000000002</v>
       </c>
@@ -1757,7 +1783,7 @@
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
     </row>
-    <row r="51" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>77.709000000000003</v>
       </c>
@@ -1776,7 +1802,7 @@
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
     </row>
-    <row r="52" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>87.873000000000005</v>
       </c>
@@ -1795,7 +1821,7 @@
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
     </row>
-    <row r="53" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>98.036000000000001</v>
       </c>
@@ -1814,7 +1840,7 @@
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
     </row>
-    <row r="54" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>108.2</v>
       </c>
@@ -1833,7 +1859,7 @@
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
     </row>
-    <row r="55" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>118.364</v>
       </c>
@@ -1852,7 +1878,7 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
     </row>
-    <row r="56" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>128.52699999999999</v>
       </c>
@@ -1871,7 +1897,7 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
     </row>
-    <row r="57" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>138.691</v>
       </c>
@@ -1890,7 +1916,7 @@
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
     </row>
-    <row r="58" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>148.85499999999999</v>
       </c>
@@ -1909,7 +1935,7 @@
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
     </row>
-    <row r="59" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>159.018</v>
       </c>
@@ -1928,7 +1954,7 @@
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
     </row>
-    <row r="60" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>169.18199999999999</v>
       </c>
@@ -1947,7 +1973,7 @@
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
     </row>
-    <row r="61" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>179.346</v>
       </c>
@@ -1966,7 +1992,7 @@
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
     </row>
-    <row r="62" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>189.50899999999999</v>
       </c>
@@ -1985,7 +2011,7 @@
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
     </row>
-    <row r="63" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>199.673</v>
       </c>
@@ -2004,7 +2030,7 @@
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
     </row>
-    <row r="64" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>209.83699999999999</v>
       </c>
@@ -2023,7 +2049,7 @@
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
     </row>
-    <row r="65" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>220</v>
       </c>
@@ -2042,7 +2068,7 @@
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
     </row>
-    <row r="66" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>43</v>
       </c>
@@ -2059,7 +2085,7 @@
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
     </row>
-    <row r="67" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>40</v>
       </c>
@@ -2078,7 +2104,7 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
     </row>
-    <row r="68" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>41</v>
       </c>
@@ -2097,7 +2123,7 @@
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
     </row>
-    <row r="69" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>-4.49</v>
       </c>
@@ -2116,7 +2142,7 @@
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
     </row>
-    <row r="70" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>6.2</v>
       </c>
@@ -2135,7 +2161,7 @@
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
     </row>
-    <row r="71" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>16.89</v>
       </c>
@@ -2154,7 +2180,7 @@
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
     </row>
-    <row r="72" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>27.58</v>
       </c>
@@ -2173,7 +2199,7 @@
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
     </row>
-    <row r="73" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>38.270000000000003</v>
       </c>
@@ -2192,7 +2218,7 @@
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
     </row>
-    <row r="74" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>48.96</v>
       </c>
@@ -2211,7 +2237,7 @@
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
     </row>
-    <row r="75" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>59.65</v>
       </c>
@@ -2230,7 +2256,7 @@
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
     </row>
-    <row r="76" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>70.34</v>
       </c>
@@ -2249,7 +2275,7 @@
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
     </row>
-    <row r="77" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>81.03</v>
       </c>
@@ -2268,7 +2294,7 @@
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
     </row>
-    <row r="78" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>91.72</v>
       </c>
@@ -2287,7 +2313,7 @@
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
     </row>
-    <row r="79" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>102.41</v>
       </c>
@@ -2306,7 +2332,7 @@
       <c r="L79" s="3"/>
       <c r="M79" s="3"/>
     </row>
-    <row r="80" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>113.1</v>
       </c>
@@ -2325,7 +2351,7 @@
       <c r="L80" s="3"/>
       <c r="M80" s="3"/>
     </row>
-    <row r="81" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>123.79</v>
       </c>
@@ -2344,7 +2370,7 @@
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
     </row>
-    <row r="82" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>134.47999999999999</v>
       </c>
@@ -2363,7 +2389,7 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
     </row>
-    <row r="83" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>145.16999999999999</v>
       </c>
@@ -2382,7 +2408,7 @@
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>
     </row>
-    <row r="84" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>155.86000000000001</v>
       </c>
@@ -2401,7 +2427,7 @@
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
     </row>
-    <row r="85" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>166.55</v>
       </c>
@@ -2420,7 +2446,7 @@
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
     </row>
-    <row r="86" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>177.24</v>
       </c>
@@ -2439,7 +2465,7 @@
       <c r="L86" s="3"/>
       <c r="M86" s="3"/>
     </row>
-    <row r="87" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>187.93</v>
       </c>
@@ -2458,7 +2484,7 @@
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
     </row>
-    <row r="88" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>198.62</v>
       </c>
@@ -2477,7 +2503,7 @@
       <c r="L88" s="3"/>
       <c r="M88" s="3"/>
     </row>
-    <row r="89" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>209.31</v>
       </c>
@@ -2496,7 +2522,7 @@
       <c r="L89" s="3"/>
       <c r="M89" s="3"/>
     </row>
-    <row r="90" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>220</v>
       </c>
@@ -2515,7 +2541,7 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
     </row>
-    <row r="91" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>44</v>
       </c>
@@ -2532,7 +2558,7 @@
       <c r="L91" s="3"/>
       <c r="M91" s="3"/>
     </row>
-    <row r="92" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>40</v>
       </c>
@@ -2551,7 +2577,7 @@
       <c r="L92" s="3"/>
       <c r="M92" s="3"/>
     </row>
-    <row r="93" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>41</v>
       </c>
@@ -2570,7 +2596,7 @@
       <c r="L93" s="3"/>
       <c r="M93" s="3"/>
     </row>
-    <row r="94" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>163.87799999999999</v>
       </c>
@@ -2589,7 +2615,7 @@
       <c r="L94" s="3"/>
       <c r="M94" s="3"/>
     </row>
-    <row r="95" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <v>177.90799999999999</v>
       </c>
@@ -2608,7 +2634,7 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
     </row>
-    <row r="96" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>191.93899999999999</v>
       </c>
@@ -2627,7 +2653,7 @@
       <c r="L96" s="3"/>
       <c r="M96" s="3"/>
     </row>
-    <row r="97" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>205.97</v>
       </c>
@@ -2646,7 +2672,7 @@
       <c r="L97" s="3"/>
       <c r="M97" s="3"/>
     </row>
-    <row r="98" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>220</v>
       </c>
@@ -2665,7 +2691,7 @@
       <c r="L98" s="3"/>
       <c r="M98" s="3"/>
     </row>
-    <row r="99" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>45</v>
       </c>
@@ -2682,7 +2708,7 @@
       <c r="L99" s="3"/>
       <c r="M99" s="3"/>
     </row>
-    <row r="100" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>46</v>
       </c>
@@ -2701,7 +2727,7 @@
       <c r="L100" s="3"/>
       <c r="M100" s="3"/>
     </row>
-    <row r="101" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>40</v>
       </c>
@@ -2720,7 +2746,7 @@
       <c r="L101" s="3"/>
       <c r="M101" s="3"/>
     </row>
-    <row r="102" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>47</v>
       </c>
@@ -2757,7 +2783,7 @@
       <c r="L102" s="3"/>
       <c r="M102" s="3"/>
     </row>
-    <row r="103" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <v>-4.49</v>
       </c>
@@ -2794,7 +2820,7 @@
       <c r="L103" s="3"/>
       <c r="M103" s="3"/>
     </row>
-    <row r="104" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
         <v>6.2</v>
       </c>
@@ -2831,7 +2857,7 @@
       <c r="L104" s="3"/>
       <c r="M104" s="3"/>
     </row>
-    <row r="105" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
         <v>16.89</v>
       </c>
@@ -2868,7 +2894,7 @@
       <c r="L105" s="3"/>
       <c r="M105" s="3"/>
     </row>
-    <row r="106" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
         <v>27.58</v>
       </c>
@@ -2905,7 +2931,7 @@
       <c r="L106" s="3"/>
       <c r="M106" s="3"/>
     </row>
-    <row r="107" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
         <v>38.270000000000003</v>
       </c>
@@ -2942,7 +2968,7 @@
       <c r="L107" s="3"/>
       <c r="M107" s="3"/>
     </row>
-    <row r="108" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
         <v>48.96</v>
       </c>
@@ -2979,7 +3005,7 @@
       <c r="L108" s="3"/>
       <c r="M108" s="3"/>
     </row>
-    <row r="109" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
         <v>59.65</v>
       </c>
@@ -3016,7 +3042,7 @@
       <c r="L109" s="3"/>
       <c r="M109" s="3"/>
     </row>
-    <row r="110" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
         <v>70.34</v>
       </c>
@@ -3053,7 +3079,7 @@
       <c r="L110" s="3"/>
       <c r="M110" s="3"/>
     </row>
-    <row r="111" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
         <v>81.03</v>
       </c>
@@ -3090,7 +3116,7 @@
       <c r="L111" s="3"/>
       <c r="M111" s="3"/>
     </row>
-    <row r="112" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="5">
         <v>91.72</v>
       </c>
@@ -3127,7 +3153,7 @@
       <c r="L112" s="3"/>
       <c r="M112" s="3"/>
     </row>
-    <row r="113" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="5">
         <v>102.41</v>
       </c>
@@ -3164,7 +3190,7 @@
       <c r="L113" s="3"/>
       <c r="M113" s="3"/>
     </row>
-    <row r="114" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
         <v>113.1</v>
       </c>
@@ -3201,7 +3227,7 @@
       <c r="L114" s="3"/>
       <c r="M114" s="3"/>
     </row>
-    <row r="115" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
         <v>123.79</v>
       </c>
@@ -3238,7 +3264,7 @@
       <c r="L115" s="3"/>
       <c r="M115" s="3"/>
     </row>
-    <row r="116" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
         <v>134.47999999999999</v>
       </c>
@@ -3275,7 +3301,7 @@
       <c r="L116" s="3"/>
       <c r="M116" s="3"/>
     </row>
-    <row r="117" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="5">
         <v>145.16999999999999</v>
       </c>
@@ -3312,7 +3338,7 @@
       <c r="L117" s="3"/>
       <c r="M117" s="3"/>
     </row>
-    <row r="118" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="5">
         <v>155.86000000000001</v>
       </c>
@@ -3349,7 +3375,7 @@
       <c r="L118" s="3"/>
       <c r="M118" s="3"/>
     </row>
-    <row r="119" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="5">
         <v>166.55</v>
       </c>
@@ -3386,7 +3412,7 @@
       <c r="L119" s="3"/>
       <c r="M119" s="3"/>
     </row>
-    <row r="120" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
         <v>177.24</v>
       </c>
@@ -3423,7 +3449,7 @@
       <c r="L120" s="3"/>
       <c r="M120" s="3"/>
     </row>
-    <row r="121" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
         <v>187.93</v>
       </c>
@@ -3460,7 +3486,7 @@
       <c r="L121" s="3"/>
       <c r="M121" s="3"/>
     </row>
-    <row r="122" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
         <v>198.62</v>
       </c>
@@ -3497,7 +3523,7 @@
       <c r="L122" s="3"/>
       <c r="M122" s="3"/>
     </row>
-    <row r="123" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="5">
         <v>209.31</v>
       </c>
@@ -3534,7 +3560,7 @@
       <c r="L123" s="3"/>
       <c r="M123" s="3"/>
     </row>
-    <row r="124" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
         <v>220</v>
       </c>
@@ -3571,7 +3597,7 @@
       <c r="L124" s="3"/>
       <c r="M124" s="3"/>
     </row>
-    <row r="125" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>58</v>
       </c>
@@ -3588,7 +3614,7 @@
       <c r="L125" s="3"/>
       <c r="M125" s="3"/>
     </row>
-    <row r="126" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>59</v>
       </c>
@@ -3607,7 +3633,7 @@
       <c r="L126" s="3"/>
       <c r="M126" s="3"/>
     </row>
-    <row r="127" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>60</v>
       </c>
@@ -3626,7 +3652,7 @@
       <c r="L127" s="3"/>
       <c r="M127" s="3"/>
     </row>
-    <row r="128" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>61</v>
       </c>
@@ -3645,7 +3671,7 @@
       <c r="L128" s="3"/>
       <c r="M128" s="3"/>
     </row>
-    <row r="129" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>62</v>
       </c>
@@ -3664,7 +3690,7 @@
       <c r="L129" s="3"/>
       <c r="M129" s="3"/>
     </row>
-    <row r="130" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>63</v>
       </c>
@@ -3683,7 +3709,7 @@
       <c r="L130" s="3"/>
       <c r="M130" s="3"/>
     </row>
-    <row r="131" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>64</v>
       </c>
@@ -3702,7 +3728,7 @@
       <c r="L131" s="3"/>
       <c r="M131" s="3"/>
     </row>
-    <row r="132" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>65</v>
       </c>
@@ -3721,7 +3747,7 @@
       <c r="L132" s="3"/>
       <c r="M132" s="3"/>
     </row>
-    <row r="133" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>66</v>
       </c>
@@ -3740,7 +3766,7 @@
       <c r="L133" s="3"/>
       <c r="M133" s="3"/>
     </row>
-    <row r="134" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>7</v>
       </c>
@@ -3759,7 +3785,7 @@
       <c r="L134" s="3"/>
       <c r="M134" s="3"/>
     </row>
-    <row r="135" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>67</v>
       </c>
@@ -3778,7 +3804,7 @@
       <c r="L135" s="3"/>
       <c r="M135" s="3"/>
     </row>
-    <row r="136" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>68</v>
       </c>
@@ -3797,7 +3823,7 @@
       <c r="L136" s="3"/>
       <c r="M136" s="3"/>
     </row>
-    <row r="137" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>69</v>
       </c>
@@ -3816,7 +3842,7 @@
       <c r="L137" s="3"/>
       <c r="M137" s="3"/>
     </row>
-    <row r="138" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>12</v>
       </c>
@@ -3835,7 +3861,7 @@
       <c r="L138" s="3"/>
       <c r="M138" s="3"/>
     </row>
-    <row r="139" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>70</v>
       </c>
@@ -3854,7 +3880,7 @@
       <c r="L139" s="3"/>
       <c r="M139" s="3"/>
     </row>
-    <row r="140" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>71</v>
       </c>
@@ -3873,7 +3899,7 @@
       <c r="L140" s="3"/>
       <c r="M140" s="3"/>
     </row>
-    <row r="141" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
         <v>72</v>
       </c>
@@ -3892,7 +3918,7 @@
       <c r="L141" s="3"/>
       <c r="M141" s="3"/>
     </row>
-    <row r="142" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
         <v>73</v>
       </c>
@@ -3911,7 +3937,7 @@
       <c r="L142" s="3"/>
       <c r="M142" s="3"/>
     </row>
-    <row r="143" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>74</v>
       </c>
@@ -3930,7 +3956,7 @@
       <c r="L143" s="3"/>
       <c r="M143" s="3"/>
     </row>
-    <row r="144" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>75</v>
       </c>
@@ -3949,7 +3975,7 @@
       <c r="L144" s="3"/>
       <c r="M144" s="3"/>
     </row>
-    <row r="145" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
         <v>76</v>
       </c>
@@ -3968,7 +3994,7 @@
       <c r="L145" s="3"/>
       <c r="M145" s="3"/>
     </row>
-    <row r="146" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>77</v>
       </c>
@@ -3987,7 +4013,7 @@
       <c r="L146" s="3"/>
       <c r="M146" s="3"/>
     </row>
-    <row r="147" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
         <v>78</v>
       </c>
@@ -4004,7 +4030,7 @@
       <c r="L147" s="3"/>
       <c r="M147" s="3"/>
     </row>
-    <row r="148" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>79</v>
       </c>
@@ -4021,7 +4047,7 @@
       <c r="L148" s="3"/>
       <c r="M148" s="3"/>
     </row>
-    <row r="149" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
         <v>80</v>
       </c>
@@ -4062,7 +4088,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="6">
         <v>19</v>
       </c>
@@ -4103,7 +4129,7 @@
         <v>0.16696088409096599</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
         <v>93</v>
       </c>
@@ -4120,7 +4146,7 @@
       <c r="L151" s="3"/>
       <c r="M151" s="3"/>
     </row>
-    <row r="152" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>40</v>
       </c>
@@ -4139,7 +4165,7 @@
       <c r="L152" s="3"/>
       <c r="M152" s="3"/>
     </row>
-    <row r="153" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
         <v>80</v>
       </c>
@@ -4180,7 +4206,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
         <v>6</v>
       </c>
@@ -4221,7 +4247,7 @@
         <v>0.16696088409096599</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
         <v>7</v>
       </c>
@@ -4262,7 +4288,7 @@
         <v>0.16696088409096599</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
         <v>8</v>
       </c>
@@ -4303,7 +4329,7 @@
         <v>0.16696088409096599</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="6">
         <v>9</v>
       </c>
@@ -4344,7 +4370,7 @@
         <v>0.16696088409096599</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="6">
         <v>10</v>
       </c>
@@ -4385,7 +4411,7 @@
         <v>0.16696088409096599</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="6">
         <v>11</v>
       </c>
@@ -4426,7 +4452,7 @@
         <v>0.16696088409096599</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="6">
         <v>12</v>
       </c>
@@ -4467,7 +4493,7 @@
         <v>0.16696088409096599</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="6">
         <v>13</v>
       </c>
@@ -4508,7 +4534,7 @@
         <v>0.16696088409096599</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="6">
         <v>14</v>
       </c>
@@ -4549,7 +4575,7 @@
         <v>0.16696088409096599</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="6">
         <v>15</v>
       </c>
@@ -4590,7 +4616,7 @@
         <v>0.16696088409096599</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="6">
         <v>16</v>
       </c>
@@ -4631,7 +4657,7 @@
         <v>0.16696088409096599</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="6">
         <v>17</v>
       </c>
@@ -4672,7 +4698,7 @@
         <v>0.16696088409096599</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="6">
         <v>18</v>
       </c>
@@ -4713,7 +4739,7 @@
         <v>0.16696088409096599</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="6">
         <v>19</v>
       </c>
@@ -4754,7 +4780,7 @@
         <v>0.16696088409096599</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="6">
         <v>20</v>
       </c>
@@ -4795,7 +4821,7 @@
         <v>0.16696088409096599</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
         <v>94</v>
       </c>
@@ -4812,7 +4838,7 @@
       <c r="L169" s="3"/>
       <c r="M169" s="3"/>
     </row>
-    <row r="170" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>95</v>
       </c>
@@ -4829,7 +4855,7 @@
       <c r="L170" s="3"/>
       <c r="M170" s="3"/>
     </row>
-    <row r="171" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
         <v>96</v>
       </c>
@@ -4846,7 +4872,7 @@
       <c r="L171" s="3"/>
       <c r="M171" s="3"/>
     </row>
-    <row r="172" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
         <v>97</v>
       </c>
@@ -4865,7 +4891,7 @@
       <c r="L172" s="3"/>
       <c r="M172" s="3"/>
     </row>
-    <row r="173" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
         <v>98</v>
       </c>
@@ -4882,7 +4908,7 @@
       <c r="L173" s="3"/>
       <c r="M173" s="3"/>
     </row>
-    <row r="174" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
         <v>99</v>
       </c>
@@ -4899,7 +4925,7 @@
       <c r="L174" s="3"/>
       <c r="M174" s="3"/>
     </row>
-    <row r="175" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
         <v>100</v>
       </c>
@@ -4916,7 +4942,7 @@
       <c r="L175" s="3"/>
       <c r="M175" s="3"/>
     </row>
-    <row r="176" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
         <v>101</v>
       </c>
@@ -4935,7 +4961,7 @@
       <c r="L176" s="3"/>
       <c r="M176" s="3"/>
     </row>
-    <row r="177" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
         <v>102</v>
       </c>
@@ -4954,7 +4980,7 @@
       <c r="L177" s="3"/>
       <c r="M177" s="3"/>
     </row>
-    <row r="178" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
         <v>103</v>
       </c>
@@ -4973,7 +4999,7 @@
       <c r="L178" s="3"/>
       <c r="M178" s="3"/>
     </row>
-    <row r="179" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
         <v>104</v>
       </c>
@@ -4990,7 +5016,7 @@
       <c r="L179" s="3"/>
       <c r="M179" s="3"/>
     </row>
-    <row r="180" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
         <v>105</v>
       </c>
@@ -5007,7 +5033,7 @@
       <c r="L180" s="3"/>
       <c r="M180" s="3"/>
     </row>
-    <row r="181" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
         <v>106</v>
       </c>
@@ -5026,7 +5052,7 @@
       <c r="L181" s="3"/>
       <c r="M181" s="3"/>
     </row>
-    <row r="182" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
         <v>107</v>
       </c>
@@ -5045,7 +5071,7 @@
       <c r="L182" s="3"/>
       <c r="M182" s="3"/>
     </row>
-    <row r="183" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
         <v>115</v>
       </c>
@@ -5074,24 +5100,24 @@
   </sheetPr>
   <dimension ref="A1:M184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A184"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="14.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="14.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.140625" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -5106,7 +5132,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -5125,7 +5151,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -5144,7 +5170,7 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -5163,7 +5189,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -5182,7 +5208,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -5201,7 +5227,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -5220,7 +5246,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -5239,7 +5265,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -5258,7 +5284,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -5275,7 +5301,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -5294,7 +5320,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -5313,7 +5339,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -5332,7 +5358,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -5351,7 +5377,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
@@ -5368,7 +5394,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
@@ -5387,7 +5413,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
@@ -5406,7 +5432,7 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
@@ -5429,7 +5455,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
@@ -5446,7 +5472,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
@@ -5465,7 +5491,7 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
@@ -5484,7 +5510,7 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
@@ -5507,7 +5533,7 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
@@ -5530,7 +5556,7 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>22</v>
       </c>
@@ -5549,7 +5575,7 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>23</v>
       </c>
@@ -5568,7 +5594,7 @@
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>24</v>
       </c>
@@ -5585,7 +5611,7 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>25</v>
       </c>
@@ -5604,7 +5630,7 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>26</v>
       </c>
@@ -5627,7 +5653,7 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>27</v>
       </c>
@@ -5650,7 +5676,7 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>28</v>
       </c>
@@ -5669,7 +5695,7 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>29</v>
       </c>
@@ -5688,7 +5714,7 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>30</v>
       </c>
@@ -5707,7 +5733,7 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>31</v>
       </c>
@@ -5724,7 +5750,7 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
     </row>
-    <row r="34" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>32</v>
       </c>
@@ -5743,7 +5769,7 @@
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>33</v>
       </c>
@@ -5766,7 +5792,7 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
     </row>
-    <row r="36" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>34</v>
       </c>
@@ -5785,7 +5811,7 @@
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
     </row>
-    <row r="37" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>35</v>
       </c>
@@ -5804,7 +5830,7 @@
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
     </row>
-    <row r="38" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>36</v>
       </c>
@@ -5823,7 +5849,7 @@
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
     </row>
-    <row r="39" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>37</v>
       </c>
@@ -5846,7 +5872,7 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
     </row>
-    <row r="40" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>38</v>
       </c>
@@ -5869,7 +5895,7 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
     </row>
-    <row r="41" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>39</v>
       </c>
@@ -5886,7 +5912,7 @@
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
     </row>
-    <row r="42" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>40</v>
       </c>
@@ -5905,7 +5931,7 @@
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
     </row>
-    <row r="43" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>41</v>
       </c>
@@ -5924,7 +5950,7 @@
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
     </row>
-    <row r="44" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>5.9269999999999996</v>
       </c>
@@ -5943,7 +5969,7 @@
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
     </row>
-    <row r="45" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>10.465999999999999</v>
       </c>
@@ -5962,7 +5988,7 @@
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
     </row>
-    <row r="46" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>15.006</v>
       </c>
@@ -5981,7 +6007,7 @@
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
     </row>
-    <row r="47" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>19.545000000000002</v>
       </c>
@@ -6000,7 +6026,7 @@
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
     </row>
-    <row r="48" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>24.085000000000001</v>
       </c>
@@ -6019,7 +6045,7 @@
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
     </row>
-    <row r="49" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>28.623999999999999</v>
       </c>
@@ -6038,7 +6064,7 @@
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
     </row>
-    <row r="50" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>33.164000000000001</v>
       </c>
@@ -6057,7 +6083,7 @@
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
     </row>
-    <row r="51" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>37.703000000000003</v>
       </c>
@@ -6076,7 +6102,7 @@
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
     </row>
-    <row r="52" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>42.243000000000002</v>
       </c>
@@ -6095,7 +6121,7 @@
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
     </row>
-    <row r="53" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>46.781999999999996</v>
       </c>
@@ -6114,7 +6140,7 @@
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
     </row>
-    <row r="54" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>51.322000000000003</v>
       </c>
@@ -6133,7 +6159,7 @@
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
     </row>
-    <row r="55" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>55.860999999999997</v>
       </c>
@@ -6152,7 +6178,7 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
     </row>
-    <row r="56" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>60.401000000000003</v>
       </c>
@@ -6171,7 +6197,7 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
     </row>
-    <row r="57" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>64.94</v>
       </c>
@@ -6190,7 +6216,7 @@
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
     </row>
-    <row r="58" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>69.48</v>
       </c>
@@ -6209,7 +6235,7 @@
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
     </row>
-    <row r="59" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>74.019000000000005</v>
       </c>
@@ -6228,7 +6254,7 @@
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
     </row>
-    <row r="60" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>78.558999999999997</v>
       </c>
@@ -6247,7 +6273,7 @@
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
     </row>
-    <row r="61" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>83.097999999999999</v>
       </c>
@@ -6266,7 +6292,7 @@
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
     </row>
-    <row r="62" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>87.638000000000005</v>
       </c>
@@ -6285,7 +6311,7 @@
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
     </row>
-    <row r="63" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>92.177000000000007</v>
       </c>
@@ -6304,7 +6330,7 @@
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
     </row>
-    <row r="64" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>96.716999999999999</v>
       </c>
@@ -6323,7 +6349,7 @@
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
     </row>
-    <row r="65" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>101.256</v>
       </c>
@@ -6342,7 +6368,7 @@
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
     </row>
-    <row r="66" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>43</v>
       </c>
@@ -6359,7 +6385,7 @@
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
     </row>
-    <row r="67" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>40</v>
       </c>
@@ -6378,7 +6404,7 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
     </row>
-    <row r="68" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>41</v>
       </c>
@@ -6397,7 +6423,7 @@
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
     </row>
-    <row r="69" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>-6.516</v>
       </c>
@@ -6416,7 +6442,7 @@
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
     </row>
-    <row r="70" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>-1.3260000000000001</v>
       </c>
@@ -6435,7 +6461,7 @@
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
     </row>
-    <row r="71" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>3.8650000000000002</v>
       </c>
@@ -6454,7 +6480,7 @@
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
     </row>
-    <row r="72" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>9.0549999999999997</v>
       </c>
@@ -6473,7 +6499,7 @@
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
     </row>
-    <row r="73" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>14.246</v>
       </c>
@@ -6492,7 +6518,7 @@
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
     </row>
-    <row r="74" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>19.436</v>
       </c>
@@ -6511,7 +6537,7 @@
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
     </row>
-    <row r="75" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>24.626999999999999</v>
       </c>
@@ -6530,7 +6556,7 @@
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
     </row>
-    <row r="76" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>29.817</v>
       </c>
@@ -6549,7 +6575,7 @@
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
     </row>
-    <row r="77" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>35.008000000000003</v>
       </c>
@@ -6568,7 +6594,7 @@
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
     </row>
-    <row r="78" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>40.198</v>
       </c>
@@ -6587,7 +6613,7 @@
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
     </row>
-    <row r="79" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>45.387999999999998</v>
       </c>
@@ -6606,7 +6632,7 @@
       <c r="L79" s="3"/>
       <c r="M79" s="3"/>
     </row>
-    <row r="80" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>50.579000000000001</v>
       </c>
@@ -6625,7 +6651,7 @@
       <c r="L80" s="3"/>
       <c r="M80" s="3"/>
     </row>
-    <row r="81" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>55.768999999999998</v>
       </c>
@@ -6644,7 +6670,7 @@
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
     </row>
-    <row r="82" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>60.96</v>
       </c>
@@ -6663,7 +6689,7 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
     </row>
-    <row r="83" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>66.150000000000006</v>
       </c>
@@ -6682,7 +6708,7 @@
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>
     </row>
-    <row r="84" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>71.340999999999994</v>
       </c>
@@ -6701,7 +6727,7 @@
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
     </row>
-    <row r="85" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>76.531000000000006</v>
       </c>
@@ -6720,7 +6746,7 @@
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
     </row>
-    <row r="86" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>81.721999999999994</v>
       </c>
@@ -6739,7 +6765,7 @@
       <c r="L86" s="3"/>
       <c r="M86" s="3"/>
     </row>
-    <row r="87" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>86.912000000000006</v>
       </c>
@@ -6758,7 +6784,7 @@
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
     </row>
-    <row r="88" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>92.102999999999994</v>
       </c>
@@ -6777,7 +6803,7 @@
       <c r="L88" s="3"/>
       <c r="M88" s="3"/>
     </row>
-    <row r="89" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>97.293000000000006</v>
       </c>
@@ -6796,7 +6822,7 @@
       <c r="L89" s="3"/>
       <c r="M89" s="3"/>
     </row>
-    <row r="90" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <v>102.48399999999999</v>
       </c>
@@ -6815,7 +6841,7 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
     </row>
-    <row r="91" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>44</v>
       </c>
@@ -6832,7 +6858,7 @@
       <c r="L91" s="3"/>
       <c r="M91" s="3"/>
     </row>
-    <row r="92" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>40</v>
       </c>
@@ -6851,7 +6877,7 @@
       <c r="L92" s="3"/>
       <c r="M92" s="3"/>
     </row>
-    <row r="93" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>41</v>
       </c>
@@ -6870,7 +6896,7 @@
       <c r="L93" s="3"/>
       <c r="M93" s="3"/>
     </row>
-    <row r="94" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>80.683999999999997</v>
       </c>
@@ -6889,7 +6915,7 @@
       <c r="L94" s="3"/>
       <c r="M94" s="3"/>
     </row>
-    <row r="95" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <v>85.704999999999998</v>
       </c>
@@ -6908,7 +6934,7 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
     </row>
-    <row r="96" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>90.725999999999999</v>
       </c>
@@ -6927,7 +6953,7 @@
       <c r="L96" s="3"/>
       <c r="M96" s="3"/>
     </row>
-    <row r="97" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>95.747</v>
       </c>
@@ -6946,7 +6972,7 @@
       <c r="L97" s="3"/>
       <c r="M97" s="3"/>
     </row>
-    <row r="98" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
         <v>100.76900000000001</v>
       </c>
@@ -6965,7 +6991,7 @@
       <c r="L98" s="3"/>
       <c r="M98" s="3"/>
     </row>
-    <row r="99" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>45</v>
       </c>
@@ -6982,7 +7008,7 @@
       <c r="L99" s="3"/>
       <c r="M99" s="3"/>
     </row>
-    <row r="100" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>46</v>
       </c>
@@ -7001,7 +7027,7 @@
       <c r="L100" s="3"/>
       <c r="M100" s="3"/>
     </row>
-    <row r="101" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>40</v>
       </c>
@@ -7020,7 +7046,7 @@
       <c r="L101" s="3"/>
       <c r="M101" s="3"/>
     </row>
-    <row r="102" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>47</v>
       </c>
@@ -7057,7 +7083,7 @@
       <c r="L102" s="3"/>
       <c r="M102" s="3"/>
     </row>
-    <row r="103" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <v>-6.516</v>
       </c>
@@ -7094,7 +7120,7 @@
       <c r="L103" s="3"/>
       <c r="M103" s="3"/>
     </row>
-    <row r="104" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
         <v>-1.3260000000000001</v>
       </c>
@@ -7131,7 +7157,7 @@
       <c r="L104" s="3"/>
       <c r="M104" s="3"/>
     </row>
-    <row r="105" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
         <v>3.8650000000000002</v>
       </c>
@@ -7168,7 +7194,7 @@
       <c r="L105" s="3"/>
       <c r="M105" s="3"/>
     </row>
-    <row r="106" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
         <v>9.0549999999999997</v>
       </c>
@@ -7205,7 +7231,7 @@
       <c r="L106" s="3"/>
       <c r="M106" s="3"/>
     </row>
-    <row r="107" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
         <v>14.246</v>
       </c>
@@ -7242,7 +7268,7 @@
       <c r="L107" s="3"/>
       <c r="M107" s="3"/>
     </row>
-    <row r="108" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
         <v>19.436</v>
       </c>
@@ -7279,7 +7305,7 @@
       <c r="L108" s="3"/>
       <c r="M108" s="3"/>
     </row>
-    <row r="109" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
         <v>24.626999999999999</v>
       </c>
@@ -7316,7 +7342,7 @@
       <c r="L109" s="3"/>
       <c r="M109" s="3"/>
     </row>
-    <row r="110" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
         <v>29.817</v>
       </c>
@@ -7353,7 +7379,7 @@
       <c r="L110" s="3"/>
       <c r="M110" s="3"/>
     </row>
-    <row r="111" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
         <v>35.008000000000003</v>
       </c>
@@ -7390,7 +7416,7 @@
       <c r="L111" s="3"/>
       <c r="M111" s="3"/>
     </row>
-    <row r="112" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="5">
         <v>40.198</v>
       </c>
@@ -7427,7 +7453,7 @@
       <c r="L112" s="3"/>
       <c r="M112" s="3"/>
     </row>
-    <row r="113" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="5">
         <v>45.387999999999998</v>
       </c>
@@ -7464,7 +7490,7 @@
       <c r="L113" s="3"/>
       <c r="M113" s="3"/>
     </row>
-    <row r="114" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
         <v>50.579000000000001</v>
       </c>
@@ -7501,7 +7527,7 @@
       <c r="L114" s="3"/>
       <c r="M114" s="3"/>
     </row>
-    <row r="115" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
         <v>55.768999999999998</v>
       </c>
@@ -7538,7 +7564,7 @@
       <c r="L115" s="3"/>
       <c r="M115" s="3"/>
     </row>
-    <row r="116" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
         <v>60.96</v>
       </c>
@@ -7575,7 +7601,7 @@
       <c r="L116" s="3"/>
       <c r="M116" s="3"/>
     </row>
-    <row r="117" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="5">
         <v>66.150000000000006</v>
       </c>
@@ -7612,7 +7638,7 @@
       <c r="L117" s="3"/>
       <c r="M117" s="3"/>
     </row>
-    <row r="118" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="5">
         <v>71.340999999999994</v>
       </c>
@@ -7649,7 +7675,7 @@
       <c r="L118" s="3"/>
       <c r="M118" s="3"/>
     </row>
-    <row r="119" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="5">
         <v>76.531000000000006</v>
       </c>
@@ -7686,7 +7712,7 @@
       <c r="L119" s="3"/>
       <c r="M119" s="3"/>
     </row>
-    <row r="120" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
         <v>81.721999999999994</v>
       </c>
@@ -7723,7 +7749,7 @@
       <c r="L120" s="3"/>
       <c r="M120" s="3"/>
     </row>
-    <row r="121" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
         <v>86.912000000000006</v>
       </c>
@@ -7760,7 +7786,7 @@
       <c r="L121" s="3"/>
       <c r="M121" s="3"/>
     </row>
-    <row r="122" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
         <v>92.102999999999994</v>
       </c>
@@ -7797,7 +7823,7 @@
       <c r="L122" s="3"/>
       <c r="M122" s="3"/>
     </row>
-    <row r="123" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="5">
         <v>97.293000000000006</v>
       </c>
@@ -7834,7 +7860,7 @@
       <c r="L123" s="3"/>
       <c r="M123" s="3"/>
     </row>
-    <row r="124" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="5">
         <v>102.48399999999999</v>
       </c>
@@ -7871,7 +7897,7 @@
       <c r="L124" s="3"/>
       <c r="M124" s="3"/>
     </row>
-    <row r="125" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>58</v>
       </c>
@@ -7888,7 +7914,7 @@
       <c r="L125" s="3"/>
       <c r="M125" s="3"/>
     </row>
-    <row r="126" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>59</v>
       </c>
@@ -7907,7 +7933,7 @@
       <c r="L126" s="3"/>
       <c r="M126" s="3"/>
     </row>
-    <row r="127" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>60</v>
       </c>
@@ -7926,7 +7952,7 @@
       <c r="L127" s="3"/>
       <c r="M127" s="3"/>
     </row>
-    <row r="128" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>61</v>
       </c>
@@ -7945,7 +7971,7 @@
       <c r="L128" s="3"/>
       <c r="M128" s="3"/>
     </row>
-    <row r="129" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>62</v>
       </c>
@@ -7964,7 +7990,7 @@
       <c r="L129" s="3"/>
       <c r="M129" s="3"/>
     </row>
-    <row r="130" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>63</v>
       </c>
@@ -7983,7 +8009,7 @@
       <c r="L130" s="3"/>
       <c r="M130" s="3"/>
     </row>
-    <row r="131" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>64</v>
       </c>
@@ -8002,7 +8028,7 @@
       <c r="L131" s="3"/>
       <c r="M131" s="3"/>
     </row>
-    <row r="132" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>65</v>
       </c>
@@ -8021,7 +8047,7 @@
       <c r="L132" s="3"/>
       <c r="M132" s="3"/>
     </row>
-    <row r="133" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>66</v>
       </c>
@@ -8040,7 +8066,7 @@
       <c r="L133" s="3"/>
       <c r="M133" s="3"/>
     </row>
-    <row r="134" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>7</v>
       </c>
@@ -8059,7 +8085,7 @@
       <c r="L134" s="3"/>
       <c r="M134" s="3"/>
     </row>
-    <row r="135" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>67</v>
       </c>
@@ -8078,7 +8104,7 @@
       <c r="L135" s="3"/>
       <c r="M135" s="3"/>
     </row>
-    <row r="136" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>68</v>
       </c>
@@ -8097,7 +8123,7 @@
       <c r="L136" s="3"/>
       <c r="M136" s="3"/>
     </row>
-    <row r="137" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>69</v>
       </c>
@@ -8116,7 +8142,7 @@
       <c r="L137" s="3"/>
       <c r="M137" s="3"/>
     </row>
-    <row r="138" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>12</v>
       </c>
@@ -8135,7 +8161,7 @@
       <c r="L138" s="3"/>
       <c r="M138" s="3"/>
     </row>
-    <row r="139" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>70</v>
       </c>
@@ -8154,7 +8180,7 @@
       <c r="L139" s="3"/>
       <c r="M139" s="3"/>
     </row>
-    <row r="140" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>71</v>
       </c>
@@ -8173,7 +8199,7 @@
       <c r="L140" s="3"/>
       <c r="M140" s="3"/>
     </row>
-    <row r="141" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
         <v>72</v>
       </c>
@@ -8192,7 +8218,7 @@
       <c r="L141" s="3"/>
       <c r="M141" s="3"/>
     </row>
-    <row r="142" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
         <v>73</v>
       </c>
@@ -8211,7 +8237,7 @@
       <c r="L142" s="3"/>
       <c r="M142" s="3"/>
     </row>
-    <row r="143" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>74</v>
       </c>
@@ -8230,7 +8256,7 @@
       <c r="L143" s="3"/>
       <c r="M143" s="3"/>
     </row>
-    <row r="144" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>75</v>
       </c>
@@ -8249,7 +8275,7 @@
       <c r="L144" s="3"/>
       <c r="M144" s="3"/>
     </row>
-    <row r="145" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
         <v>76</v>
       </c>
@@ -8268,7 +8294,7 @@
       <c r="L145" s="3"/>
       <c r="M145" s="3"/>
     </row>
-    <row r="146" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>77</v>
       </c>
@@ -8287,7 +8313,7 @@
       <c r="L146" s="3"/>
       <c r="M146" s="3"/>
     </row>
-    <row r="147" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
         <v>116</v>
       </c>
@@ -8304,7 +8330,7 @@
       <c r="L147" s="3"/>
       <c r="M147" s="3"/>
     </row>
-    <row r="148" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>111</v>
       </c>
@@ -8321,7 +8347,7 @@
       <c r="L148" s="3"/>
       <c r="M148" s="3"/>
     </row>
-    <row r="149" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
         <v>78</v>
       </c>
@@ -8338,7 +8364,7 @@
       <c r="L149" s="3"/>
       <c r="M149" s="3"/>
     </row>
-    <row r="150" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
         <v>79</v>
       </c>
@@ -8355,7 +8381,7 @@
       <c r="L150" s="8"/>
       <c r="M150" s="8"/>
     </row>
-    <row r="151" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
         <v>80</v>
       </c>
@@ -8396,7 +8422,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>16</v>
       </c>
@@ -8437,7 +8463,7 @@
         <v>0.19140274643279001</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
         <v>93</v>
       </c>
@@ -8454,7 +8480,7 @@
       <c r="L153" s="3"/>
       <c r="M153" s="3"/>
     </row>
-    <row r="154" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>40</v>
       </c>
@@ -8473,7 +8499,7 @@
       <c r="L154" s="8"/>
       <c r="M154" s="8"/>
     </row>
-    <row r="155" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
         <v>80</v>
       </c>
@@ -8514,7 +8540,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
         <v>6</v>
       </c>
@@ -8555,7 +8581,7 @@
         <v>0.19140274643279001</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="6">
         <v>7</v>
       </c>
@@ -8596,7 +8622,7 @@
         <v>0.19140274643279001</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="6">
         <v>8</v>
       </c>
@@ -8637,7 +8663,7 @@
         <v>0.19140274643279001</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="6">
         <v>9</v>
       </c>
@@ -8678,7 +8704,7 @@
         <v>0.19140274643279001</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="6">
         <v>10</v>
       </c>
@@ -8719,7 +8745,7 @@
         <v>0.19140274643279001</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="6">
         <v>11</v>
       </c>
@@ -8760,7 +8786,7 @@
         <v>0.19140274643279001</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="6">
         <v>12</v>
       </c>
@@ -8801,7 +8827,7 @@
         <v>0.19140274643279001</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="6">
         <v>13</v>
       </c>
@@ -8842,7 +8868,7 @@
         <v>0.19140274643279001</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="6">
         <v>14</v>
       </c>
@@ -8883,7 +8909,7 @@
         <v>0.19140274643279001</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="6">
         <v>15</v>
       </c>
@@ -8924,7 +8950,7 @@
         <v>0.19140274643279001</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="6">
         <v>16</v>
       </c>
@@ -8965,7 +8991,7 @@
         <v>0.19140274643279001</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="6">
         <v>17</v>
       </c>
@@ -9006,7 +9032,7 @@
         <v>0.19140274643279001</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <v>18</v>
       </c>
@@ -9047,7 +9073,7 @@
         <v>0.19140274643279001</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
         <v>94</v>
       </c>
@@ -9064,7 +9090,7 @@
       <c r="L169" s="3"/>
       <c r="M169" s="3"/>
     </row>
-    <row r="170" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>95</v>
       </c>
@@ -9081,7 +9107,7 @@
       <c r="L170" s="3"/>
       <c r="M170" s="3"/>
     </row>
-    <row r="171" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
         <v>112</v>
       </c>
@@ -9098,7 +9124,7 @@
       <c r="L171" s="3"/>
       <c r="M171" s="3"/>
     </row>
-    <row r="172" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
         <v>96</v>
       </c>
@@ -9115,7 +9141,7 @@
       <c r="L172" s="3"/>
       <c r="M172" s="3"/>
     </row>
-    <row r="173" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
         <v>97</v>
       </c>
@@ -9134,7 +9160,7 @@
       <c r="L173" s="3"/>
       <c r="M173" s="3"/>
     </row>
-    <row r="174" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
         <v>98</v>
       </c>
@@ -9151,7 +9177,7 @@
       <c r="L174" s="3"/>
       <c r="M174" s="3"/>
     </row>
-    <row r="175" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
         <v>113</v>
       </c>
@@ -9168,7 +9194,7 @@
       <c r="L175" s="3"/>
       <c r="M175" s="3"/>
     </row>
-    <row r="176" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
         <v>100</v>
       </c>
@@ -9185,7 +9211,7 @@
       <c r="L176" s="3"/>
       <c r="M176" s="3"/>
     </row>
-    <row r="177" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
         <v>101</v>
       </c>
@@ -9204,7 +9230,7 @@
       <c r="L177" s="3"/>
       <c r="M177" s="3"/>
     </row>
-    <row r="178" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
         <v>102</v>
       </c>
@@ -9223,7 +9249,7 @@
       <c r="L178" s="3"/>
       <c r="M178" s="3"/>
     </row>
-    <row r="179" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
         <v>103</v>
       </c>
@@ -9242,7 +9268,7 @@
       <c r="L179" s="3"/>
       <c r="M179" s="3"/>
     </row>
-    <row r="180" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
         <v>104</v>
       </c>
@@ -9259,7 +9285,7 @@
       <c r="L180" s="3"/>
       <c r="M180" s="3"/>
     </row>
-    <row r="181" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
         <v>105</v>
       </c>
@@ -9276,7 +9302,7 @@
       <c r="L181" s="3"/>
       <c r="M181" s="3"/>
     </row>
-    <row r="182" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
         <v>106</v>
       </c>
@@ -9295,7 +9321,7 @@
       <c r="L182" s="3"/>
       <c r="M182" s="3"/>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="s">
         <v>107</v>
       </c>
@@ -9303,7 +9329,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="s">
         <v>114</v>
       </c>
@@ -9314,6 +9340,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EC7652-81C6-4C07-80F9-5511A8282806}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -9322,21 +9360,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.140625" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -9351,7 +9389,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -9370,7 +9408,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -9389,7 +9427,7 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -9408,7 +9446,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -9427,7 +9465,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -9446,7 +9484,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -9465,7 +9503,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -9484,7 +9522,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -9503,7 +9541,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -9520,7 +9558,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -9539,7 +9577,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -9558,7 +9596,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -9577,7 +9615,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -9596,7 +9634,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
@@ -9613,7 +9651,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
@@ -9632,7 +9670,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
@@ -9651,7 +9689,7 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
@@ -9674,7 +9712,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
@@ -9691,7 +9729,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
@@ -9710,7 +9748,7 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
@@ -9729,7 +9767,7 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
@@ -9752,7 +9790,7 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
@@ -9775,7 +9813,7 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>22</v>
       </c>
@@ -9794,7 +9832,7 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>23</v>
       </c>
@@ -9813,7 +9851,7 @@
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>24</v>
       </c>
@@ -9830,7 +9868,7 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>25</v>
       </c>
@@ -9849,7 +9887,7 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>26</v>
       </c>
@@ -9872,7 +9910,7 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>27</v>
       </c>
@@ -9895,7 +9933,7 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>28</v>
       </c>
@@ -9914,7 +9952,7 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>29</v>
       </c>
@@ -9933,7 +9971,7 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>30</v>
       </c>
@@ -9952,7 +9990,7 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>31</v>
       </c>
@@ -9969,7 +10007,7 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
     </row>
-    <row r="34" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>32</v>
       </c>
@@ -9988,7 +10026,7 @@
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>33</v>
       </c>
@@ -10011,7 +10049,7 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
     </row>
-    <row r="36" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>34</v>
       </c>
@@ -10030,7 +10068,7 @@
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
     </row>
-    <row r="37" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>35</v>
       </c>
@@ -10049,7 +10087,7 @@
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
     </row>
-    <row r="38" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>36</v>
       </c>
@@ -10068,7 +10106,7 @@
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
     </row>
-    <row r="39" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>37</v>
       </c>
@@ -10091,7 +10129,7 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
     </row>
-    <row r="40" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>38</v>
       </c>
@@ -10114,7 +10152,7 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
     </row>
-    <row r="41" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>39</v>
       </c>
@@ -10131,7 +10169,7 @@
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
     </row>
-    <row r="42" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>40</v>
       </c>
@@ -10150,7 +10188,7 @@
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
     </row>
-    <row r="43" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>41</v>
       </c>
@@ -10169,7 +10207,7 @@
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
     </row>
-    <row r="44" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>6.3639999999999999</v>
       </c>
@@ -10188,7 +10226,7 @@
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
     </row>
-    <row r="45" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>16.536999999999999</v>
       </c>
@@ -10207,7 +10245,7 @@
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
     </row>
-    <row r="46" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>26.71</v>
       </c>
@@ -10226,7 +10264,7 @@
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
     </row>
-    <row r="47" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>36.883000000000003</v>
       </c>
@@ -10245,7 +10283,7 @@
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
     </row>
-    <row r="48" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>47.055999999999997</v>
       </c>
@@ -10264,7 +10302,7 @@
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
     </row>
-    <row r="49" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>57.23</v>
       </c>
@@ -10283,7 +10321,7 @@
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
     </row>
-    <row r="50" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>67.403000000000006</v>
       </c>
@@ -10302,7 +10340,7 @@
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
     </row>
-    <row r="51" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>77.575999999999993</v>
       </c>
@@ -10321,7 +10359,7 @@
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
     </row>
-    <row r="52" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>87.748999999999995</v>
       </c>
@@ -10340,7 +10378,7 @@
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
     </row>
-    <row r="53" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>97.921999999999997</v>
       </c>
@@ -10359,7 +10397,7 @@
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
     </row>
-    <row r="54" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>108.095</v>
       </c>
@@ -10378,7 +10416,7 @@
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
     </row>
-    <row r="55" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>118.26900000000001</v>
       </c>
@@ -10397,7 +10435,7 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
     </row>
-    <row r="56" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>128.44200000000001</v>
       </c>
@@ -10416,7 +10454,7 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
     </row>
-    <row r="57" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>138.61500000000001</v>
       </c>
@@ -10435,7 +10473,7 @@
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
     </row>
-    <row r="58" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>148.78800000000001</v>
       </c>
@@ -10454,7 +10492,7 @@
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
     </row>
-    <row r="59" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>158.96100000000001</v>
       </c>
@@ -10473,7 +10511,7 @@
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
     </row>
-    <row r="60" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>169.13399999999999</v>
       </c>
@@ -10492,7 +10530,7 @@
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
     </row>
-    <row r="61" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>179.30799999999999</v>
       </c>
@@ -10511,7 +10549,7 @@
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
     </row>
-    <row r="62" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>189.48099999999999</v>
       </c>
@@ -10530,7 +10568,7 @@
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
     </row>
-    <row r="63" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>199.654</v>
       </c>
@@ -10549,7 +10587,7 @@
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
     </row>
-    <row r="64" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>209.827</v>
       </c>
@@ -10568,7 +10606,7 @@
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
     </row>
-    <row r="65" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>220</v>
       </c>
@@ -10587,7 +10625,7 @@
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
     </row>
-    <row r="66" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>43</v>
       </c>
@@ -10604,7 +10642,7 @@
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
     </row>
-    <row r="67" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>40</v>
       </c>
@@ -10623,7 +10661,7 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
     </row>
-    <row r="68" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>41</v>
       </c>
@@ -10642,7 +10680,7 @@
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
     </row>
-    <row r="69" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>-4.49</v>
       </c>
@@ -10661,7 +10699,7 @@
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
     </row>
-    <row r="70" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>6.2</v>
       </c>
@@ -10680,7 +10718,7 @@
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
     </row>
-    <row r="71" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>16.89</v>
       </c>
@@ -10699,7 +10737,7 @@
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
     </row>
-    <row r="72" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>27.58</v>
       </c>
@@ -10718,7 +10756,7 @@
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
     </row>
-    <row r="73" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>38.270000000000003</v>
       </c>
@@ -10737,7 +10775,7 @@
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
     </row>
-    <row r="74" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>48.96</v>
       </c>
@@ -10756,7 +10794,7 @@
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
     </row>
-    <row r="75" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>59.65</v>
       </c>
@@ -10775,7 +10813,7 @@
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
     </row>
-    <row r="76" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>70.34</v>
       </c>
@@ -10794,7 +10832,7 @@
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
     </row>
-    <row r="77" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>81.03</v>
       </c>
@@ -10813,7 +10851,7 @@
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
     </row>
-    <row r="78" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>91.72</v>
       </c>
@@ -10832,7 +10870,7 @@
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
     </row>
-    <row r="79" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>102.41</v>
       </c>
@@ -10851,7 +10889,7 @@
       <c r="L79" s="3"/>
       <c r="M79" s="3"/>
     </row>
-    <row r="80" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>113.1</v>
       </c>
@@ -10870,7 +10908,7 @@
       <c r="L80" s="3"/>
       <c r="M80" s="3"/>
     </row>
-    <row r="81" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>123.79</v>
       </c>
@@ -10889,7 +10927,7 @@
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
     </row>
-    <row r="82" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>134.47999999999999</v>
       </c>
@@ -10908,7 +10946,7 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
     </row>
-    <row r="83" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>145.16999999999999</v>
       </c>
@@ -10927,7 +10965,7 @@
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>
     </row>
-    <row r="84" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>155.86000000000001</v>
       </c>
@@ -10946,7 +10984,7 @@
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
     </row>
-    <row r="85" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>166.55</v>
       </c>
@@ -10965,7 +11003,7 @@
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
     </row>
-    <row r="86" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>177.24</v>
       </c>
@@ -10984,7 +11022,7 @@
       <c r="L86" s="3"/>
       <c r="M86" s="3"/>
     </row>
-    <row r="87" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>187.93</v>
       </c>
@@ -11003,7 +11041,7 @@
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
     </row>
-    <row r="88" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>198.62</v>
       </c>
@@ -11022,7 +11060,7 @@
       <c r="L88" s="3"/>
       <c r="M88" s="3"/>
     </row>
-    <row r="89" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>209.31</v>
       </c>
@@ -11041,7 +11079,7 @@
       <c r="L89" s="3"/>
       <c r="M89" s="3"/>
     </row>
-    <row r="90" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>220</v>
       </c>
@@ -11060,7 +11098,7 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
     </row>
-    <row r="91" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>44</v>
       </c>
@@ -11077,7 +11115,7 @@
       <c r="L91" s="3"/>
       <c r="M91" s="3"/>
     </row>
-    <row r="92" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>40</v>
       </c>
@@ -11096,7 +11134,7 @@
       <c r="L92" s="3"/>
       <c r="M92" s="3"/>
     </row>
-    <row r="93" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>41</v>
       </c>
@@ -11115,7 +11153,7 @@
       <c r="L93" s="3"/>
       <c r="M93" s="3"/>
     </row>
-    <row r="94" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>163.87799999999999</v>
       </c>
@@ -11134,7 +11172,7 @@
       <c r="L94" s="3"/>
       <c r="M94" s="3"/>
     </row>
-    <row r="95" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <v>177.90799999999999</v>
       </c>
@@ -11153,7 +11191,7 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
     </row>
-    <row r="96" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>191.93899999999999</v>
       </c>
@@ -11172,7 +11210,7 @@
       <c r="L96" s="3"/>
       <c r="M96" s="3"/>
     </row>
-    <row r="97" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>205.97</v>
       </c>
@@ -11191,7 +11229,7 @@
       <c r="L97" s="3"/>
       <c r="M97" s="3"/>
     </row>
-    <row r="98" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>220</v>
       </c>
@@ -11210,7 +11248,7 @@
       <c r="L98" s="3"/>
       <c r="M98" s="3"/>
     </row>
-    <row r="99" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>45</v>
       </c>
@@ -11227,7 +11265,7 @@
       <c r="L99" s="3"/>
       <c r="M99" s="3"/>
     </row>
-    <row r="100" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>46</v>
       </c>
@@ -11246,7 +11284,7 @@
       <c r="L100" s="3"/>
       <c r="M100" s="3"/>
     </row>
-    <row r="101" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>40</v>
       </c>
@@ -11265,7 +11303,7 @@
       <c r="L101" s="3"/>
       <c r="M101" s="3"/>
     </row>
-    <row r="102" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>47</v>
       </c>
@@ -11302,7 +11340,7 @@
       <c r="L102" s="3"/>
       <c r="M102" s="3"/>
     </row>
-    <row r="103" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <v>-4.49</v>
       </c>
@@ -11339,7 +11377,7 @@
       <c r="L103" s="3"/>
       <c r="M103" s="3"/>
     </row>
-    <row r="104" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
         <v>6.2</v>
       </c>
@@ -11376,7 +11414,7 @@
       <c r="L104" s="3"/>
       <c r="M104" s="3"/>
     </row>
-    <row r="105" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
         <v>16.89</v>
       </c>
@@ -11413,7 +11451,7 @@
       <c r="L105" s="3"/>
       <c r="M105" s="3"/>
     </row>
-    <row r="106" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
         <v>27.58</v>
       </c>
@@ -11450,7 +11488,7 @@
       <c r="L106" s="3"/>
       <c r="M106" s="3"/>
     </row>
-    <row r="107" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
         <v>38.270000000000003</v>
       </c>
@@ -11487,7 +11525,7 @@
       <c r="L107" s="3"/>
       <c r="M107" s="3"/>
     </row>
-    <row r="108" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
         <v>48.96</v>
       </c>
@@ -11524,7 +11562,7 @@
       <c r="L108" s="3"/>
       <c r="M108" s="3"/>
     </row>
-    <row r="109" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
         <v>59.65</v>
       </c>
@@ -11561,7 +11599,7 @@
       <c r="L109" s="3"/>
       <c r="M109" s="3"/>
     </row>
-    <row r="110" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
         <v>70.34</v>
       </c>
@@ -11598,7 +11636,7 @@
       <c r="L110" s="3"/>
       <c r="M110" s="3"/>
     </row>
-    <row r="111" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
         <v>81.03</v>
       </c>
@@ -11635,7 +11673,7 @@
       <c r="L111" s="3"/>
       <c r="M111" s="3"/>
     </row>
-    <row r="112" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="5">
         <v>91.72</v>
       </c>
@@ -11672,7 +11710,7 @@
       <c r="L112" s="3"/>
       <c r="M112" s="3"/>
     </row>
-    <row r="113" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="5">
         <v>102.41</v>
       </c>
@@ -11709,7 +11747,7 @@
       <c r="L113" s="3"/>
       <c r="M113" s="3"/>
     </row>
-    <row r="114" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
         <v>113.1</v>
       </c>
@@ -11746,7 +11784,7 @@
       <c r="L114" s="3"/>
       <c r="M114" s="3"/>
     </row>
-    <row r="115" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
         <v>123.79</v>
       </c>
@@ -11783,7 +11821,7 @@
       <c r="L115" s="3"/>
       <c r="M115" s="3"/>
     </row>
-    <row r="116" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
         <v>134.47999999999999</v>
       </c>
@@ -11820,7 +11858,7 @@
       <c r="L116" s="3"/>
       <c r="M116" s="3"/>
     </row>
-    <row r="117" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="5">
         <v>145.16999999999999</v>
       </c>
@@ -11857,7 +11895,7 @@
       <c r="L117" s="3"/>
       <c r="M117" s="3"/>
     </row>
-    <row r="118" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="5">
         <v>155.86000000000001</v>
       </c>
@@ -11894,7 +11932,7 @@
       <c r="L118" s="3"/>
       <c r="M118" s="3"/>
     </row>
-    <row r="119" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="5">
         <v>166.55</v>
       </c>
@@ -11931,7 +11969,7 @@
       <c r="L119" s="3"/>
       <c r="M119" s="3"/>
     </row>
-    <row r="120" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
         <v>177.24</v>
       </c>
@@ -11968,7 +12006,7 @@
       <c r="L120" s="3"/>
       <c r="M120" s="3"/>
     </row>
-    <row r="121" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
         <v>187.93</v>
       </c>
@@ -12005,7 +12043,7 @@
       <c r="L121" s="3"/>
       <c r="M121" s="3"/>
     </row>
-    <row r="122" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
         <v>198.62</v>
       </c>
@@ -12042,7 +12080,7 @@
       <c r="L122" s="3"/>
       <c r="M122" s="3"/>
     </row>
-    <row r="123" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="5">
         <v>209.31</v>
       </c>
@@ -12079,7 +12117,7 @@
       <c r="L123" s="3"/>
       <c r="M123" s="3"/>
     </row>
-    <row r="124" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
         <v>220</v>
       </c>
@@ -12116,7 +12154,7 @@
       <c r="L124" s="3"/>
       <c r="M124" s="3"/>
     </row>
-    <row r="125" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>58</v>
       </c>
@@ -12133,7 +12171,7 @@
       <c r="L125" s="3"/>
       <c r="M125" s="3"/>
     </row>
-    <row r="126" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>59</v>
       </c>
@@ -12152,7 +12190,7 @@
       <c r="L126" s="3"/>
       <c r="M126" s="3"/>
     </row>
-    <row r="127" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>60</v>
       </c>
@@ -12171,7 +12209,7 @@
       <c r="L127" s="3"/>
       <c r="M127" s="3"/>
     </row>
-    <row r="128" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>61</v>
       </c>
@@ -12190,7 +12228,7 @@
       <c r="L128" s="3"/>
       <c r="M128" s="3"/>
     </row>
-    <row r="129" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>62</v>
       </c>
@@ -12209,7 +12247,7 @@
       <c r="L129" s="3"/>
       <c r="M129" s="3"/>
     </row>
-    <row r="130" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>63</v>
       </c>
@@ -12228,7 +12266,7 @@
       <c r="L130" s="3"/>
       <c r="M130" s="3"/>
     </row>
-    <row r="131" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>64</v>
       </c>
@@ -12247,7 +12285,7 @@
       <c r="L131" s="3"/>
       <c r="M131" s="3"/>
     </row>
-    <row r="132" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>65</v>
       </c>
@@ -12266,7 +12304,7 @@
       <c r="L132" s="3"/>
       <c r="M132" s="3"/>
     </row>
-    <row r="133" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>66</v>
       </c>
@@ -12285,7 +12323,7 @@
       <c r="L133" s="3"/>
       <c r="M133" s="3"/>
     </row>
-    <row r="134" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>7</v>
       </c>
@@ -12304,7 +12342,7 @@
       <c r="L134" s="3"/>
       <c r="M134" s="3"/>
     </row>
-    <row r="135" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>67</v>
       </c>
@@ -12323,7 +12361,7 @@
       <c r="L135" s="3"/>
       <c r="M135" s="3"/>
     </row>
-    <row r="136" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>68</v>
       </c>
@@ -12342,7 +12380,7 @@
       <c r="L136" s="3"/>
       <c r="M136" s="3"/>
     </row>
-    <row r="137" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>69</v>
       </c>
@@ -12361,7 +12399,7 @@
       <c r="L137" s="3"/>
       <c r="M137" s="3"/>
     </row>
-    <row r="138" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>12</v>
       </c>
@@ -12380,7 +12418,7 @@
       <c r="L138" s="3"/>
       <c r="M138" s="3"/>
     </row>
-    <row r="139" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>70</v>
       </c>
@@ -12399,7 +12437,7 @@
       <c r="L139" s="3"/>
       <c r="M139" s="3"/>
     </row>
-    <row r="140" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>71</v>
       </c>
@@ -12418,7 +12456,7 @@
       <c r="L140" s="3"/>
       <c r="M140" s="3"/>
     </row>
-    <row r="141" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
         <v>72</v>
       </c>
@@ -12437,7 +12475,7 @@
       <c r="L141" s="3"/>
       <c r="M141" s="3"/>
     </row>
-    <row r="142" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
         <v>73</v>
       </c>
@@ -12456,7 +12494,7 @@
       <c r="L142" s="3"/>
       <c r="M142" s="3"/>
     </row>
-    <row r="143" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>74</v>
       </c>
@@ -12475,7 +12513,7 @@
       <c r="L143" s="3"/>
       <c r="M143" s="3"/>
     </row>
-    <row r="144" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>75</v>
       </c>
@@ -12494,7 +12532,7 @@
       <c r="L144" s="3"/>
       <c r="M144" s="3"/>
     </row>
-    <row r="145" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
         <v>76</v>
       </c>
@@ -12513,7 +12551,7 @@
       <c r="L145" s="3"/>
       <c r="M145" s="3"/>
     </row>
-    <row r="146" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>77</v>
       </c>
@@ -12532,7 +12570,7 @@
       <c r="L146" s="3"/>
       <c r="M146" s="3"/>
     </row>
-    <row r="147" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
         <v>78</v>
       </c>
@@ -12549,7 +12587,7 @@
       <c r="L147" s="3"/>
       <c r="M147" s="3"/>
     </row>
-    <row r="148" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>79</v>
       </c>
@@ -12566,7 +12604,7 @@
       <c r="L148" s="3"/>
       <c r="M148" s="3"/>
     </row>
-    <row r="149" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
         <v>80</v>
       </c>
@@ -12607,7 +12645,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="6">
         <v>19</v>
       </c>
@@ -12648,7 +12686,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
         <v>93</v>
       </c>
@@ -12665,7 +12703,7 @@
       <c r="L151" s="3"/>
       <c r="M151" s="3"/>
     </row>
-    <row r="152" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>40</v>
       </c>
@@ -12684,7 +12722,7 @@
       <c r="L152" s="3"/>
       <c r="M152" s="3"/>
     </row>
-    <row r="153" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
         <v>80</v>
       </c>
@@ -12725,7 +12763,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
         <v>6</v>
       </c>
@@ -12766,7 +12804,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
         <v>7</v>
       </c>
@@ -12807,7 +12845,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
         <v>8</v>
       </c>
@@ -12848,7 +12886,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="6">
         <v>9</v>
       </c>
@@ -12889,7 +12927,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="6">
         <v>10</v>
       </c>
@@ -12930,7 +12968,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="6">
         <v>11</v>
       </c>
@@ -12971,7 +13009,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="6">
         <v>12</v>
       </c>
@@ -13012,7 +13050,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="6">
         <v>13</v>
       </c>
@@ -13053,7 +13091,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="6">
         <v>14</v>
       </c>
@@ -13094,7 +13132,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="6">
         <v>15</v>
       </c>
@@ -13135,7 +13173,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="6">
         <v>16</v>
       </c>
@@ -13176,7 +13214,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="6">
         <v>17</v>
       </c>
@@ -13217,7 +13255,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="6">
         <v>18</v>
       </c>
@@ -13258,7 +13296,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="6">
         <v>19</v>
       </c>
@@ -13299,7 +13337,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="6">
         <v>20</v>
       </c>
@@ -13340,7 +13378,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
         <v>94</v>
       </c>
@@ -13357,7 +13395,7 @@
       <c r="L169" s="3"/>
       <c r="M169" s="3"/>
     </row>
-    <row r="170" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>95</v>
       </c>
@@ -13374,7 +13412,7 @@
       <c r="L170" s="3"/>
       <c r="M170" s="3"/>
     </row>
-    <row r="171" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
         <v>96</v>
       </c>
@@ -13391,7 +13429,7 @@
       <c r="L171" s="3"/>
       <c r="M171" s="3"/>
     </row>
-    <row r="172" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
         <v>97</v>
       </c>
@@ -13410,7 +13448,7 @@
       <c r="L172" s="3"/>
       <c r="M172" s="3"/>
     </row>
-    <row r="173" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
         <v>98</v>
       </c>
@@ -13427,7 +13465,7 @@
       <c r="L173" s="3"/>
       <c r="M173" s="3"/>
     </row>
-    <row r="174" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
         <v>99</v>
       </c>
@@ -13444,7 +13482,7 @@
       <c r="L174" s="3"/>
       <c r="M174" s="3"/>
     </row>
-    <row r="175" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
         <v>100</v>
       </c>
@@ -13461,7 +13499,7 @@
       <c r="L175" s="3"/>
       <c r="M175" s="3"/>
     </row>
-    <row r="176" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
         <v>101</v>
       </c>
@@ -13480,7 +13518,7 @@
       <c r="L176" s="3"/>
       <c r="M176" s="3"/>
     </row>
-    <row r="177" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
         <v>102</v>
       </c>
@@ -13499,7 +13537,7 @@
       <c r="L177" s="3"/>
       <c r="M177" s="3"/>
     </row>
-    <row r="178" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
         <v>103</v>
       </c>
@@ -13518,7 +13556,7 @@
       <c r="L178" s="3"/>
       <c r="M178" s="3"/>
     </row>
-    <row r="179" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
         <v>104</v>
       </c>
@@ -13535,7 +13573,7 @@
       <c r="L179" s="3"/>
       <c r="M179" s="3"/>
     </row>
-    <row r="180" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
         <v>105</v>
       </c>
@@ -13552,7 +13590,7 @@
       <c r="L180" s="3"/>
       <c r="M180" s="3"/>
     </row>
-    <row r="181" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
         <v>106</v>
       </c>
@@ -13571,7 +13609,7 @@
       <c r="L181" s="3"/>
       <c r="M181" s="3"/>
     </row>
-    <row r="182" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
         <v>107</v>
       </c>
@@ -13590,7 +13628,7 @@
       <c r="L182" s="3"/>
       <c r="M182" s="3"/>
     </row>
-    <row r="183" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
         <v>110</v>
       </c>
@@ -13612,7 +13650,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -13621,20 +13659,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="14.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="14.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.140625" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -13649,7 +13687,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -13668,7 +13706,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -13687,7 +13725,7 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -13706,7 +13744,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -13725,7 +13763,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -13744,7 +13782,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -13763,7 +13801,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -13782,7 +13820,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -13801,7 +13839,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -13818,7 +13856,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -13837,7 +13875,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -13856,7 +13894,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -13875,7 +13913,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -13894,7 +13932,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
@@ -13911,7 +13949,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
@@ -13930,7 +13968,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
@@ -13949,7 +13987,7 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
@@ -13972,7 +14010,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
@@ -13989,7 +14027,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
@@ -14008,7 +14046,7 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
@@ -14027,7 +14065,7 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
@@ -14050,7 +14088,7 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
@@ -14073,7 +14111,7 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>22</v>
       </c>
@@ -14092,7 +14130,7 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>23</v>
       </c>
@@ -14111,7 +14149,7 @@
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>24</v>
       </c>
@@ -14128,7 +14166,7 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>25</v>
       </c>
@@ -14147,7 +14185,7 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>26</v>
       </c>
@@ -14170,7 +14208,7 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>27</v>
       </c>
@@ -14193,7 +14231,7 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>28</v>
       </c>
@@ -14212,7 +14250,7 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>29</v>
       </c>
@@ -14231,7 +14269,7 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>30</v>
       </c>
@@ -14250,7 +14288,7 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>31</v>
       </c>
@@ -14267,7 +14305,7 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
     </row>
-    <row r="34" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>32</v>
       </c>
@@ -14286,7 +14324,7 @@
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>33</v>
       </c>
@@ -14309,7 +14347,7 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
     </row>
-    <row r="36" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>34</v>
       </c>
@@ -14328,7 +14366,7 @@
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
     </row>
-    <row r="37" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>35</v>
       </c>
@@ -14347,7 +14385,7 @@
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
     </row>
-    <row r="38" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>36</v>
       </c>
@@ -14366,7 +14404,7 @@
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
     </row>
-    <row r="39" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>37</v>
       </c>
@@ -14389,7 +14427,7 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
     </row>
-    <row r="40" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>38</v>
       </c>
@@ -14412,7 +14450,7 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
     </row>
-    <row r="41" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>39</v>
       </c>
@@ -14429,7 +14467,7 @@
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
     </row>
-    <row r="42" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>40</v>
       </c>
@@ -14448,7 +14486,7 @@
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
     </row>
-    <row r="43" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>41</v>
       </c>
@@ -14467,7 +14505,7 @@
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
     </row>
-    <row r="44" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>6.3789999999999996</v>
       </c>
@@ -14486,7 +14524,7 @@
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
     </row>
-    <row r="45" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>16.552</v>
       </c>
@@ -14505,7 +14543,7 @@
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
     </row>
-    <row r="46" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>26.724</v>
       </c>
@@ -14524,7 +14562,7 @@
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
     </row>
-    <row r="47" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>36.896000000000001</v>
       </c>
@@ -14543,7 +14581,7 @@
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
     </row>
-    <row r="48" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>47.069000000000003</v>
       </c>
@@ -14562,7 +14600,7 @@
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
     </row>
-    <row r="49" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>57.241</v>
       </c>
@@ -14581,7 +14619,7 @@
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
     </row>
-    <row r="50" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>67.414000000000001</v>
       </c>
@@ -14600,7 +14638,7 @@
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
     </row>
-    <row r="51" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>77.585999999999999</v>
       </c>
@@ -14619,7 +14657,7 @@
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
     </row>
-    <row r="52" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>87.759</v>
       </c>
@@ -14638,7 +14676,7 @@
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
     </row>
-    <row r="53" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>97.930999999999997</v>
       </c>
@@ -14657,7 +14695,7 @@
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
     </row>
-    <row r="54" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>108.10299999999999</v>
       </c>
@@ -14676,7 +14714,7 @@
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
     </row>
-    <row r="55" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>118.276</v>
       </c>
@@ -14695,7 +14733,7 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
     </row>
-    <row r="56" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>128.44800000000001</v>
       </c>
@@ -14714,7 +14752,7 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
     </row>
-    <row r="57" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>138.62100000000001</v>
       </c>
@@ -14733,7 +14771,7 @@
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
     </row>
-    <row r="58" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>148.79300000000001</v>
       </c>
@@ -14752,7 +14790,7 @@
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
     </row>
-    <row r="59" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>158.96600000000001</v>
       </c>
@@ -14771,7 +14809,7 @@
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
     </row>
-    <row r="60" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>169.13800000000001</v>
       </c>
@@ -14790,7 +14828,7 @@
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
     </row>
-    <row r="61" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>179.31</v>
       </c>
@@ -14809,7 +14847,7 @@
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
     </row>
-    <row r="62" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>189.483</v>
       </c>
@@ -14828,7 +14866,7 @@
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
     </row>
-    <row r="63" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>199.655</v>
       </c>
@@ -14847,7 +14885,7 @@
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
     </row>
-    <row r="64" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>209.828</v>
       </c>
@@ -14866,7 +14904,7 @@
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
     </row>
-    <row r="65" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>220</v>
       </c>
@@ -14885,7 +14923,7 @@
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
     </row>
-    <row r="66" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>43</v>
       </c>
@@ -14902,7 +14940,7 @@
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
     </row>
-    <row r="67" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>40</v>
       </c>
@@ -14921,7 +14959,7 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
     </row>
-    <row r="68" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>41</v>
       </c>
@@ -14940,7 +14978,7 @@
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
     </row>
-    <row r="69" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>-4.49</v>
       </c>
@@ -14959,7 +14997,7 @@
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
     </row>
-    <row r="70" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>6.2</v>
       </c>
@@ -14978,7 +15016,7 @@
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
     </row>
-    <row r="71" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>16.89</v>
       </c>
@@ -14997,7 +15035,7 @@
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
     </row>
-    <row r="72" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>27.58</v>
       </c>
@@ -15016,7 +15054,7 @@
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
     </row>
-    <row r="73" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>38.270000000000003</v>
       </c>
@@ -15035,7 +15073,7 @@
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
     </row>
-    <row r="74" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>48.96</v>
       </c>
@@ -15054,7 +15092,7 @@
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
     </row>
-    <row r="75" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>59.65</v>
       </c>
@@ -15073,7 +15111,7 @@
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
     </row>
-    <row r="76" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>70.34</v>
       </c>
@@ -15092,7 +15130,7 @@
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
     </row>
-    <row r="77" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>81.03</v>
       </c>
@@ -15111,7 +15149,7 @@
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
     </row>
-    <row r="78" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>91.72</v>
       </c>
@@ -15130,7 +15168,7 @@
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
     </row>
-    <row r="79" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>102.41</v>
       </c>
@@ -15149,7 +15187,7 @@
       <c r="L79" s="3"/>
       <c r="M79" s="3"/>
     </row>
-    <row r="80" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>113.1</v>
       </c>
@@ -15168,7 +15206,7 @@
       <c r="L80" s="3"/>
       <c r="M80" s="3"/>
     </row>
-    <row r="81" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>123.79</v>
       </c>
@@ -15187,7 +15225,7 @@
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
     </row>
-    <row r="82" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>134.47999999999999</v>
       </c>
@@ -15206,7 +15244,7 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
     </row>
-    <row r="83" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>145.16999999999999</v>
       </c>
@@ -15225,7 +15263,7 @@
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>
     </row>
-    <row r="84" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>155.86000000000001</v>
       </c>
@@ -15244,7 +15282,7 @@
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
     </row>
-    <row r="85" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>166.55</v>
       </c>
@@ -15263,7 +15301,7 @@
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
     </row>
-    <row r="86" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>177.24</v>
       </c>
@@ -15282,7 +15320,7 @@
       <c r="L86" s="3"/>
       <c r="M86" s="3"/>
     </row>
-    <row r="87" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>187.93</v>
       </c>
@@ -15301,7 +15339,7 @@
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
     </row>
-    <row r="88" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>198.62</v>
       </c>
@@ -15320,7 +15358,7 @@
       <c r="L88" s="3"/>
       <c r="M88" s="3"/>
     </row>
-    <row r="89" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>209.31</v>
       </c>
@@ -15339,7 +15377,7 @@
       <c r="L89" s="3"/>
       <c r="M89" s="3"/>
     </row>
-    <row r="90" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>220</v>
       </c>
@@ -15358,7 +15396,7 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
     </row>
-    <row r="91" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>44</v>
       </c>
@@ -15375,7 +15413,7 @@
       <c r="L91" s="3"/>
       <c r="M91" s="3"/>
     </row>
-    <row r="92" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>40</v>
       </c>
@@ -15394,7 +15432,7 @@
       <c r="L92" s="3"/>
       <c r="M92" s="3"/>
     </row>
-    <row r="93" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>41</v>
       </c>
@@ -15413,7 +15451,7 @@
       <c r="L93" s="3"/>
       <c r="M93" s="3"/>
     </row>
-    <row r="94" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>163.87799999999999</v>
       </c>
@@ -15432,7 +15470,7 @@
       <c r="L94" s="3"/>
       <c r="M94" s="3"/>
     </row>
-    <row r="95" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <v>177.90799999999999</v>
       </c>
@@ -15451,7 +15489,7 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
     </row>
-    <row r="96" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>191.93899999999999</v>
       </c>
@@ -15470,7 +15508,7 @@
       <c r="L96" s="3"/>
       <c r="M96" s="3"/>
     </row>
-    <row r="97" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>205.97</v>
       </c>
@@ -15489,7 +15527,7 @@
       <c r="L97" s="3"/>
       <c r="M97" s="3"/>
     </row>
-    <row r="98" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>220</v>
       </c>
@@ -15508,7 +15546,7 @@
       <c r="L98" s="3"/>
       <c r="M98" s="3"/>
     </row>
-    <row r="99" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>45</v>
       </c>
@@ -15525,7 +15563,7 @@
       <c r="L99" s="3"/>
       <c r="M99" s="3"/>
     </row>
-    <row r="100" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>46</v>
       </c>
@@ -15544,7 +15582,7 @@
       <c r="L100" s="3"/>
       <c r="M100" s="3"/>
     </row>
-    <row r="101" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>40</v>
       </c>
@@ -15563,7 +15601,7 @@
       <c r="L101" s="3"/>
       <c r="M101" s="3"/>
     </row>
-    <row r="102" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>47</v>
       </c>
@@ -15600,7 +15638,7 @@
       <c r="L102" s="3"/>
       <c r="M102" s="3"/>
     </row>
-    <row r="103" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <v>-4.49</v>
       </c>
@@ -15637,7 +15675,7 @@
       <c r="L103" s="3"/>
       <c r="M103" s="3"/>
     </row>
-    <row r="104" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
         <v>6.2</v>
       </c>
@@ -15674,7 +15712,7 @@
       <c r="L104" s="3"/>
       <c r="M104" s="3"/>
     </row>
-    <row r="105" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
         <v>16.89</v>
       </c>
@@ -15711,7 +15749,7 @@
       <c r="L105" s="3"/>
       <c r="M105" s="3"/>
     </row>
-    <row r="106" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
         <v>27.58</v>
       </c>
@@ -15748,7 +15786,7 @@
       <c r="L106" s="3"/>
       <c r="M106" s="3"/>
     </row>
-    <row r="107" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
         <v>38.270000000000003</v>
       </c>
@@ -15785,7 +15823,7 @@
       <c r="L107" s="3"/>
       <c r="M107" s="3"/>
     </row>
-    <row r="108" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
         <v>48.96</v>
       </c>
@@ -15822,7 +15860,7 @@
       <c r="L108" s="3"/>
       <c r="M108" s="3"/>
     </row>
-    <row r="109" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
         <v>59.65</v>
       </c>
@@ -15859,7 +15897,7 @@
       <c r="L109" s="3"/>
       <c r="M109" s="3"/>
     </row>
-    <row r="110" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
         <v>70.34</v>
       </c>
@@ -15896,7 +15934,7 @@
       <c r="L110" s="3"/>
       <c r="M110" s="3"/>
     </row>
-    <row r="111" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
         <v>81.03</v>
       </c>
@@ -15933,7 +15971,7 @@
       <c r="L111" s="3"/>
       <c r="M111" s="3"/>
     </row>
-    <row r="112" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="5">
         <v>91.72</v>
       </c>
@@ -15970,7 +16008,7 @@
       <c r="L112" s="3"/>
       <c r="M112" s="3"/>
     </row>
-    <row r="113" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="5">
         <v>102.41</v>
       </c>
@@ -16007,7 +16045,7 @@
       <c r="L113" s="3"/>
       <c r="M113" s="3"/>
     </row>
-    <row r="114" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
         <v>113.1</v>
       </c>
@@ -16044,7 +16082,7 @@
       <c r="L114" s="3"/>
       <c r="M114" s="3"/>
     </row>
-    <row r="115" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
         <v>123.79</v>
       </c>
@@ -16081,7 +16119,7 @@
       <c r="L115" s="3"/>
       <c r="M115" s="3"/>
     </row>
-    <row r="116" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
         <v>134.47999999999999</v>
       </c>
@@ -16118,7 +16156,7 @@
       <c r="L116" s="3"/>
       <c r="M116" s="3"/>
     </row>
-    <row r="117" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="5">
         <v>145.16999999999999</v>
       </c>
@@ -16155,7 +16193,7 @@
       <c r="L117" s="3"/>
       <c r="M117" s="3"/>
     </row>
-    <row r="118" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="5">
         <v>155.86000000000001</v>
       </c>
@@ -16192,7 +16230,7 @@
       <c r="L118" s="3"/>
       <c r="M118" s="3"/>
     </row>
-    <row r="119" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="5">
         <v>166.55</v>
       </c>
@@ -16229,7 +16267,7 @@
       <c r="L119" s="3"/>
       <c r="M119" s="3"/>
     </row>
-    <row r="120" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
         <v>177.24</v>
       </c>
@@ -16266,7 +16304,7 @@
       <c r="L120" s="3"/>
       <c r="M120" s="3"/>
     </row>
-    <row r="121" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
         <v>187.93</v>
       </c>
@@ -16303,7 +16341,7 @@
       <c r="L121" s="3"/>
       <c r="M121" s="3"/>
     </row>
-    <row r="122" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
         <v>198.62</v>
       </c>
@@ -16340,7 +16378,7 @@
       <c r="L122" s="3"/>
       <c r="M122" s="3"/>
     </row>
-    <row r="123" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="5">
         <v>209.31</v>
       </c>
@@ -16377,7 +16415,7 @@
       <c r="L123" s="3"/>
       <c r="M123" s="3"/>
     </row>
-    <row r="124" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
         <v>220</v>
       </c>
@@ -16414,7 +16452,7 @@
       <c r="L124" s="3"/>
       <c r="M124" s="3"/>
     </row>
-    <row r="125" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>58</v>
       </c>
@@ -16431,7 +16469,7 @@
       <c r="L125" s="3"/>
       <c r="M125" s="3"/>
     </row>
-    <row r="126" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>59</v>
       </c>
@@ -16450,7 +16488,7 @@
       <c r="L126" s="3"/>
       <c r="M126" s="3"/>
     </row>
-    <row r="127" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>60</v>
       </c>
@@ -16469,7 +16507,7 @@
       <c r="L127" s="3"/>
       <c r="M127" s="3"/>
     </row>
-    <row r="128" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>61</v>
       </c>
@@ -16488,7 +16526,7 @@
       <c r="L128" s="3"/>
       <c r="M128" s="3"/>
     </row>
-    <row r="129" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>62</v>
       </c>
@@ -16507,7 +16545,7 @@
       <c r="L129" s="3"/>
       <c r="M129" s="3"/>
     </row>
-    <row r="130" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>63</v>
       </c>
@@ -16526,7 +16564,7 @@
       <c r="L130" s="3"/>
       <c r="M130" s="3"/>
     </row>
-    <row r="131" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>64</v>
       </c>
@@ -16545,7 +16583,7 @@
       <c r="L131" s="3"/>
       <c r="M131" s="3"/>
     </row>
-    <row r="132" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>65</v>
       </c>
@@ -16564,7 +16602,7 @@
       <c r="L132" s="3"/>
       <c r="M132" s="3"/>
     </row>
-    <row r="133" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>66</v>
       </c>
@@ -16583,7 +16621,7 @@
       <c r="L133" s="3"/>
       <c r="M133" s="3"/>
     </row>
-    <row r="134" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>7</v>
       </c>
@@ -16602,7 +16640,7 @@
       <c r="L134" s="3"/>
       <c r="M134" s="3"/>
     </row>
-    <row r="135" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>67</v>
       </c>
@@ -16621,7 +16659,7 @@
       <c r="L135" s="3"/>
       <c r="M135" s="3"/>
     </row>
-    <row r="136" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>68</v>
       </c>
@@ -16640,7 +16678,7 @@
       <c r="L136" s="3"/>
       <c r="M136" s="3"/>
     </row>
-    <row r="137" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>69</v>
       </c>
@@ -16659,7 +16697,7 @@
       <c r="L137" s="3"/>
       <c r="M137" s="3"/>
     </row>
-    <row r="138" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>12</v>
       </c>
@@ -16678,7 +16716,7 @@
       <c r="L138" s="3"/>
       <c r="M138" s="3"/>
     </row>
-    <row r="139" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>70</v>
       </c>
@@ -16697,7 +16735,7 @@
       <c r="L139" s="3"/>
       <c r="M139" s="3"/>
     </row>
-    <row r="140" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>71</v>
       </c>
@@ -16716,7 +16754,7 @@
       <c r="L140" s="3"/>
       <c r="M140" s="3"/>
     </row>
-    <row r="141" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
         <v>72</v>
       </c>
@@ -16735,7 +16773,7 @@
       <c r="L141" s="3"/>
       <c r="M141" s="3"/>
     </row>
-    <row r="142" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
         <v>73</v>
       </c>
@@ -16754,7 +16792,7 @@
       <c r="L142" s="3"/>
       <c r="M142" s="3"/>
     </row>
-    <row r="143" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>74</v>
       </c>
@@ -16773,7 +16811,7 @@
       <c r="L143" s="3"/>
       <c r="M143" s="3"/>
     </row>
-    <row r="144" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>75</v>
       </c>
@@ -16792,7 +16830,7 @@
       <c r="L144" s="3"/>
       <c r="M144" s="3"/>
     </row>
-    <row r="145" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
         <v>76</v>
       </c>
@@ -16811,7 +16849,7 @@
       <c r="L145" s="3"/>
       <c r="M145" s="3"/>
     </row>
-    <row r="146" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>77</v>
       </c>
@@ -16830,7 +16868,7 @@
       <c r="L146" s="3"/>
       <c r="M146" s="3"/>
     </row>
-    <row r="147" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
         <v>78</v>
       </c>
@@ -16847,7 +16885,7 @@
       <c r="L147" s="3"/>
       <c r="M147" s="3"/>
     </row>
-    <row r="148" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>79</v>
       </c>
@@ -16864,7 +16902,7 @@
       <c r="L148" s="3"/>
       <c r="M148" s="3"/>
     </row>
-    <row r="149" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
         <v>80</v>
       </c>
@@ -16905,7 +16943,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="6">
         <v>19</v>
       </c>
@@ -16946,7 +16984,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
         <v>93</v>
       </c>
@@ -16963,7 +17001,7 @@
       <c r="L151" s="3"/>
       <c r="M151" s="3"/>
     </row>
-    <row r="152" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>40</v>
       </c>
@@ -16982,7 +17020,7 @@
       <c r="L152" s="3"/>
       <c r="M152" s="3"/>
     </row>
-    <row r="153" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
         <v>80</v>
       </c>
@@ -17023,7 +17061,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
         <v>6</v>
       </c>
@@ -17064,7 +17102,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
         <v>7</v>
       </c>
@@ -17105,7 +17143,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
         <v>8</v>
       </c>
@@ -17146,7 +17184,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="6">
         <v>9</v>
       </c>
@@ -17187,7 +17225,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="6">
         <v>10</v>
       </c>
@@ -17228,7 +17266,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="6">
         <v>11</v>
       </c>
@@ -17269,7 +17307,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="6">
         <v>12</v>
       </c>
@@ -17310,7 +17348,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="6">
         <v>13</v>
       </c>
@@ -17351,7 +17389,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="6">
         <v>14</v>
       </c>
@@ -17392,7 +17430,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="6">
         <v>15</v>
       </c>
@@ -17433,7 +17471,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="6">
         <v>16</v>
       </c>
@@ -17474,7 +17512,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="6">
         <v>17</v>
       </c>
@@ -17515,7 +17553,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="6">
         <v>18</v>
       </c>
@@ -17556,7 +17594,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="6">
         <v>19</v>
       </c>
@@ -17597,7 +17635,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="6">
         <v>20</v>
       </c>
@@ -17638,7 +17676,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
         <v>94</v>
       </c>
@@ -17655,7 +17693,7 @@
       <c r="L169" s="3"/>
       <c r="M169" s="3"/>
     </row>
-    <row r="170" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>95</v>
       </c>
@@ -17672,7 +17710,7 @@
       <c r="L170" s="3"/>
       <c r="M170" s="3"/>
     </row>
-    <row r="171" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
         <v>96</v>
       </c>
@@ -17689,7 +17727,7 @@
       <c r="L171" s="3"/>
       <c r="M171" s="3"/>
     </row>
-    <row r="172" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
         <v>97</v>
       </c>
@@ -17708,7 +17746,7 @@
       <c r="L172" s="3"/>
       <c r="M172" s="3"/>
     </row>
-    <row r="173" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
         <v>98</v>
       </c>
@@ -17725,7 +17763,7 @@
       <c r="L173" s="3"/>
       <c r="M173" s="3"/>
     </row>
-    <row r="174" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
         <v>99</v>
       </c>
@@ -17742,7 +17780,7 @@
       <c r="L174" s="3"/>
       <c r="M174" s="3"/>
     </row>
-    <row r="175" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
         <v>100</v>
       </c>
@@ -17759,7 +17797,7 @@
       <c r="L175" s="3"/>
       <c r="M175" s="3"/>
     </row>
-    <row r="176" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
         <v>101</v>
       </c>
@@ -17778,7 +17816,7 @@
       <c r="L176" s="3"/>
       <c r="M176" s="3"/>
     </row>
-    <row r="177" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
         <v>102</v>
       </c>
@@ -17797,7 +17835,7 @@
       <c r="L177" s="3"/>
       <c r="M177" s="3"/>
     </row>
-    <row r="178" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
         <v>103</v>
       </c>
@@ -17816,7 +17854,7 @@
       <c r="L178" s="3"/>
       <c r="M178" s="3"/>
     </row>
-    <row r="179" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
         <v>104</v>
       </c>
@@ -17833,7 +17871,7 @@
       <c r="L179" s="3"/>
       <c r="M179" s="3"/>
     </row>
-    <row r="180" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
         <v>105</v>
       </c>
@@ -17850,7 +17888,7 @@
       <c r="L180" s="3"/>
       <c r="M180" s="3"/>
     </row>
-    <row r="181" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
         <v>106</v>
       </c>
@@ -17869,7 +17907,7 @@
       <c r="L181" s="3"/>
       <c r="M181" s="3"/>
     </row>
-    <row r="182" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
         <v>107</v>
       </c>
@@ -17888,7 +17926,7 @@
       <c r="L182" s="3"/>
       <c r="M182" s="3"/>
     </row>
-    <row r="183" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
         <v>109</v>
       </c>
@@ -17910,29 +17948,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:M183"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="14.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="14.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.140625" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -17947,7 +17987,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -17966,7 +18006,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -17985,7 +18025,7 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -18004,7 +18044,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -18023,7 +18063,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -18042,7 +18082,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -18061,7 +18101,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -18080,7 +18120,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -18099,7 +18139,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -18116,7 +18156,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -18135,7 +18175,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -18154,7 +18194,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -18173,7 +18213,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -18192,7 +18232,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
@@ -18209,7 +18249,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
@@ -18228,7 +18268,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
@@ -18247,7 +18287,7 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
@@ -18270,7 +18310,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
@@ -18287,7 +18327,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
@@ -18306,7 +18346,7 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
@@ -18325,7 +18365,7 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
@@ -18348,7 +18388,7 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
@@ -18371,7 +18411,7 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>22</v>
       </c>
@@ -18390,7 +18430,7 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>23</v>
       </c>
@@ -18409,7 +18449,7 @@
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>24</v>
       </c>
@@ -18426,7 +18466,7 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>25</v>
       </c>
@@ -18445,7 +18485,7 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>26</v>
       </c>
@@ -18468,7 +18508,7 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>27</v>
       </c>
@@ -18491,7 +18531,7 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>28</v>
       </c>
@@ -18510,7 +18550,7 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>29</v>
       </c>
@@ -18529,7 +18569,7 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>30</v>
       </c>
@@ -18548,7 +18588,7 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>31</v>
       </c>
@@ -18565,7 +18605,7 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
     </row>
-    <row r="34" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>32</v>
       </c>
@@ -18584,7 +18624,7 @@
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>33</v>
       </c>
@@ -18607,7 +18647,7 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
     </row>
-    <row r="36" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>34</v>
       </c>
@@ -18626,7 +18666,7 @@
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
     </row>
-    <row r="37" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>35</v>
       </c>
@@ -18645,7 +18685,7 @@
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
     </row>
-    <row r="38" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>36</v>
       </c>
@@ -18664,7 +18704,7 @@
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
     </row>
-    <row r="39" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>37</v>
       </c>
@@ -18687,7 +18727,7 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
     </row>
-    <row r="40" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>38</v>
       </c>
@@ -18710,7 +18750,7 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
     </row>
-    <row r="41" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>39</v>
       </c>
@@ -18727,7 +18767,7 @@
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
     </row>
-    <row r="42" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>40</v>
       </c>
@@ -18746,7 +18786,7 @@
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
     </row>
-    <row r="43" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>41</v>
       </c>
@@ -18765,7 +18805,7 @@
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
     </row>
-    <row r="44" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>6.3979999999999997</v>
       </c>
@@ -18784,7 +18824,7 @@
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
     </row>
-    <row r="45" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>16.57</v>
       </c>
@@ -18803,7 +18843,7 @@
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
     </row>
-    <row r="46" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>26.741</v>
       </c>
@@ -18822,7 +18862,7 @@
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
     </row>
-    <row r="47" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>36.912999999999997</v>
       </c>
@@ -18841,7 +18881,7 @@
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
     </row>
-    <row r="48" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>47.084000000000003</v>
       </c>
@@ -18860,7 +18900,7 @@
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
     </row>
-    <row r="49" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>57.256</v>
       </c>
@@ -18879,7 +18919,7 @@
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
     </row>
-    <row r="50" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>67.427000000000007</v>
       </c>
@@ -18898,7 +18938,7 @@
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
     </row>
-    <row r="51" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>77.599000000000004</v>
       </c>
@@ -18917,7 +18957,7 @@
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
     </row>
-    <row r="52" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>87.77</v>
       </c>
@@ -18936,7 +18976,7 @@
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
     </row>
-    <row r="53" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>97.941999999999993</v>
       </c>
@@ -18955,7 +18995,7 @@
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
     </row>
-    <row r="54" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>108.113</v>
       </c>
@@ -18974,7 +19014,7 @@
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
     </row>
-    <row r="55" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>118.285</v>
       </c>
@@ -18993,7 +19033,7 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
     </row>
-    <row r="56" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>128.45599999999999</v>
       </c>
@@ -19012,7 +19052,7 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
     </row>
-    <row r="57" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>138.62799999999999</v>
       </c>
@@ -19031,7 +19071,7 @@
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
     </row>
-    <row r="58" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>148.80000000000001</v>
       </c>
@@ -19050,7 +19090,7 @@
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
     </row>
-    <row r="59" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>158.971</v>
       </c>
@@ -19069,7 +19109,7 @@
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
     </row>
-    <row r="60" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>169.143</v>
       </c>
@@ -19088,7 +19128,7 @@
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
     </row>
-    <row r="61" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>179.31399999999999</v>
       </c>
@@ -19107,7 +19147,7 @@
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
     </row>
-    <row r="62" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>189.48599999999999</v>
       </c>
@@ -19126,7 +19166,7 @@
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
     </row>
-    <row r="63" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>199.65700000000001</v>
       </c>
@@ -19145,7 +19185,7 @@
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
     </row>
-    <row r="64" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>209.82900000000001</v>
       </c>
@@ -19164,7 +19204,7 @@
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
     </row>
-    <row r="65" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>220</v>
       </c>
@@ -19183,7 +19223,7 @@
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
     </row>
-    <row r="66" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>43</v>
       </c>
@@ -19200,7 +19240,7 @@
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
     </row>
-    <row r="67" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>40</v>
       </c>
@@ -19219,7 +19259,7 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
     </row>
-    <row r="68" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>41</v>
       </c>
@@ -19238,7 +19278,7 @@
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
     </row>
-    <row r="69" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>-4.49</v>
       </c>
@@ -19257,7 +19297,7 @@
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
     </row>
-    <row r="70" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>6.2</v>
       </c>
@@ -19276,7 +19316,7 @@
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
     </row>
-    <row r="71" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>16.89</v>
       </c>
@@ -19295,7 +19335,7 @@
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
     </row>
-    <row r="72" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>27.58</v>
       </c>
@@ -19314,7 +19354,7 @@
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
     </row>
-    <row r="73" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>38.270000000000003</v>
       </c>
@@ -19333,7 +19373,7 @@
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
     </row>
-    <row r="74" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>48.96</v>
       </c>
@@ -19352,7 +19392,7 @@
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
     </row>
-    <row r="75" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>59.65</v>
       </c>
@@ -19371,7 +19411,7 @@
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
     </row>
-    <row r="76" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>70.34</v>
       </c>
@@ -19390,7 +19430,7 @@
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
     </row>
-    <row r="77" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>81.03</v>
       </c>
@@ -19409,7 +19449,7 @@
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
     </row>
-    <row r="78" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>91.72</v>
       </c>
@@ -19428,7 +19468,7 @@
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
     </row>
-    <row r="79" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>102.41</v>
       </c>
@@ -19447,7 +19487,7 @@
       <c r="L79" s="3"/>
       <c r="M79" s="3"/>
     </row>
-    <row r="80" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>113.1</v>
       </c>
@@ -19466,7 +19506,7 @@
       <c r="L80" s="3"/>
       <c r="M80" s="3"/>
     </row>
-    <row r="81" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>123.79</v>
       </c>
@@ -19485,7 +19525,7 @@
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
     </row>
-    <row r="82" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>134.47999999999999</v>
       </c>
@@ -19504,7 +19544,7 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
     </row>
-    <row r="83" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>145.16999999999999</v>
       </c>
@@ -19523,7 +19563,7 @@
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>
     </row>
-    <row r="84" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>155.86000000000001</v>
       </c>
@@ -19542,7 +19582,7 @@
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
     </row>
-    <row r="85" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>166.55</v>
       </c>
@@ -19561,7 +19601,7 @@
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
     </row>
-    <row r="86" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>177.24</v>
       </c>
@@ -19580,7 +19620,7 @@
       <c r="L86" s="3"/>
       <c r="M86" s="3"/>
     </row>
-    <row r="87" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>187.93</v>
       </c>
@@ -19599,7 +19639,7 @@
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
     </row>
-    <row r="88" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>198.62</v>
       </c>
@@ -19618,7 +19658,7 @@
       <c r="L88" s="3"/>
       <c r="M88" s="3"/>
     </row>
-    <row r="89" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>209.31</v>
       </c>
@@ -19637,7 +19677,7 @@
       <c r="L89" s="3"/>
       <c r="M89" s="3"/>
     </row>
-    <row r="90" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>220</v>
       </c>
@@ -19656,7 +19696,7 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
     </row>
-    <row r="91" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>44</v>
       </c>
@@ -19673,7 +19713,7 @@
       <c r="L91" s="3"/>
       <c r="M91" s="3"/>
     </row>
-    <row r="92" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>40</v>
       </c>
@@ -19692,7 +19732,7 @@
       <c r="L92" s="3"/>
       <c r="M92" s="3"/>
     </row>
-    <row r="93" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>41</v>
       </c>
@@ -19711,7 +19751,7 @@
       <c r="L93" s="3"/>
       <c r="M93" s="3"/>
     </row>
-    <row r="94" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>163.87799999999999</v>
       </c>
@@ -19730,7 +19770,7 @@
       <c r="L94" s="3"/>
       <c r="M94" s="3"/>
     </row>
-    <row r="95" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <v>177.90799999999999</v>
       </c>
@@ -19749,7 +19789,7 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
     </row>
-    <row r="96" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>191.93899999999999</v>
       </c>
@@ -19768,7 +19808,7 @@
       <c r="L96" s="3"/>
       <c r="M96" s="3"/>
     </row>
-    <row r="97" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>205.97</v>
       </c>
@@ -19787,7 +19827,7 @@
       <c r="L97" s="3"/>
       <c r="M97" s="3"/>
     </row>
-    <row r="98" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>220</v>
       </c>
@@ -19806,7 +19846,7 @@
       <c r="L98" s="3"/>
       <c r="M98" s="3"/>
     </row>
-    <row r="99" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>45</v>
       </c>
@@ -19823,7 +19863,7 @@
       <c r="L99" s="3"/>
       <c r="M99" s="3"/>
     </row>
-    <row r="100" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>46</v>
       </c>
@@ -19842,7 +19882,7 @@
       <c r="L100" s="3"/>
       <c r="M100" s="3"/>
     </row>
-    <row r="101" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>40</v>
       </c>
@@ -19861,7 +19901,7 @@
       <c r="L101" s="3"/>
       <c r="M101" s="3"/>
     </row>
-    <row r="102" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>47</v>
       </c>
@@ -19898,7 +19938,7 @@
       <c r="L102" s="3"/>
       <c r="M102" s="3"/>
     </row>
-    <row r="103" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <v>-4.49</v>
       </c>
@@ -19935,7 +19975,7 @@
       <c r="L103" s="3"/>
       <c r="M103" s="3"/>
     </row>
-    <row r="104" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
         <v>6.2</v>
       </c>
@@ -19972,7 +20012,7 @@
       <c r="L104" s="3"/>
       <c r="M104" s="3"/>
     </row>
-    <row r="105" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
         <v>16.89</v>
       </c>
@@ -20009,7 +20049,7 @@
       <c r="L105" s="3"/>
       <c r="M105" s="3"/>
     </row>
-    <row r="106" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
         <v>27.58</v>
       </c>
@@ -20046,7 +20086,7 @@
       <c r="L106" s="3"/>
       <c r="M106" s="3"/>
     </row>
-    <row r="107" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
         <v>38.270000000000003</v>
       </c>
@@ -20083,7 +20123,7 @@
       <c r="L107" s="3"/>
       <c r="M107" s="3"/>
     </row>
-    <row r="108" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
         <v>48.96</v>
       </c>
@@ -20120,7 +20160,7 @@
       <c r="L108" s="3"/>
       <c r="M108" s="3"/>
     </row>
-    <row r="109" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
         <v>59.65</v>
       </c>
@@ -20157,7 +20197,7 @@
       <c r="L109" s="3"/>
       <c r="M109" s="3"/>
     </row>
-    <row r="110" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
         <v>70.34</v>
       </c>
@@ -20194,7 +20234,7 @@
       <c r="L110" s="3"/>
       <c r="M110" s="3"/>
     </row>
-    <row r="111" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
         <v>81.03</v>
       </c>
@@ -20231,7 +20271,7 @@
       <c r="L111" s="3"/>
       <c r="M111" s="3"/>
     </row>
-    <row r="112" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="5">
         <v>91.72</v>
       </c>
@@ -20268,7 +20308,7 @@
       <c r="L112" s="3"/>
       <c r="M112" s="3"/>
     </row>
-    <row r="113" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="5">
         <v>102.41</v>
       </c>
@@ -20305,7 +20345,7 @@
       <c r="L113" s="3"/>
       <c r="M113" s="3"/>
     </row>
-    <row r="114" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
         <v>113.1</v>
       </c>
@@ -20342,7 +20382,7 @@
       <c r="L114" s="3"/>
       <c r="M114" s="3"/>
     </row>
-    <row r="115" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
         <v>123.79</v>
       </c>
@@ -20379,7 +20419,7 @@
       <c r="L115" s="3"/>
       <c r="M115" s="3"/>
     </row>
-    <row r="116" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
         <v>134.47999999999999</v>
       </c>
@@ -20416,7 +20456,7 @@
       <c r="L116" s="3"/>
       <c r="M116" s="3"/>
     </row>
-    <row r="117" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="5">
         <v>145.16999999999999</v>
       </c>
@@ -20453,7 +20493,7 @@
       <c r="L117" s="3"/>
       <c r="M117" s="3"/>
     </row>
-    <row r="118" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="5">
         <v>155.86000000000001</v>
       </c>
@@ -20490,7 +20530,7 @@
       <c r="L118" s="3"/>
       <c r="M118" s="3"/>
     </row>
-    <row r="119" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="5">
         <v>166.55</v>
       </c>
@@ -20527,7 +20567,7 @@
       <c r="L119" s="3"/>
       <c r="M119" s="3"/>
     </row>
-    <row r="120" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
         <v>177.24</v>
       </c>
@@ -20564,7 +20604,7 @@
       <c r="L120" s="3"/>
       <c r="M120" s="3"/>
     </row>
-    <row r="121" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
         <v>187.93</v>
       </c>
@@ -20601,7 +20641,7 @@
       <c r="L121" s="3"/>
       <c r="M121" s="3"/>
     </row>
-    <row r="122" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
         <v>198.62</v>
       </c>
@@ -20638,7 +20678,7 @@
       <c r="L122" s="3"/>
       <c r="M122" s="3"/>
     </row>
-    <row r="123" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="5">
         <v>209.31</v>
       </c>
@@ -20675,7 +20715,7 @@
       <c r="L123" s="3"/>
       <c r="M123" s="3"/>
     </row>
-    <row r="124" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
         <v>220</v>
       </c>
@@ -20712,7 +20752,7 @@
       <c r="L124" s="3"/>
       <c r="M124" s="3"/>
     </row>
-    <row r="125" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>58</v>
       </c>
@@ -20729,7 +20769,7 @@
       <c r="L125" s="3"/>
       <c r="M125" s="3"/>
     </row>
-    <row r="126" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>59</v>
       </c>
@@ -20748,7 +20788,7 @@
       <c r="L126" s="3"/>
       <c r="M126" s="3"/>
     </row>
-    <row r="127" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>60</v>
       </c>
@@ -20767,7 +20807,7 @@
       <c r="L127" s="3"/>
       <c r="M127" s="3"/>
     </row>
-    <row r="128" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>61</v>
       </c>
@@ -20786,7 +20826,7 @@
       <c r="L128" s="3"/>
       <c r="M128" s="3"/>
     </row>
-    <row r="129" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>62</v>
       </c>
@@ -20805,7 +20845,7 @@
       <c r="L129" s="3"/>
       <c r="M129" s="3"/>
     </row>
-    <row r="130" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>63</v>
       </c>
@@ -20824,7 +20864,7 @@
       <c r="L130" s="3"/>
       <c r="M130" s="3"/>
     </row>
-    <row r="131" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>64</v>
       </c>
@@ -20843,7 +20883,7 @@
       <c r="L131" s="3"/>
       <c r="M131" s="3"/>
     </row>
-    <row r="132" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>65</v>
       </c>
@@ -20862,7 +20902,7 @@
       <c r="L132" s="3"/>
       <c r="M132" s="3"/>
     </row>
-    <row r="133" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>66</v>
       </c>
@@ -20881,7 +20921,7 @@
       <c r="L133" s="3"/>
       <c r="M133" s="3"/>
     </row>
-    <row r="134" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>7</v>
       </c>
@@ -20900,7 +20940,7 @@
       <c r="L134" s="3"/>
       <c r="M134" s="3"/>
     </row>
-    <row r="135" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>67</v>
       </c>
@@ -20919,7 +20959,7 @@
       <c r="L135" s="3"/>
       <c r="M135" s="3"/>
     </row>
-    <row r="136" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>68</v>
       </c>
@@ -20938,7 +20978,7 @@
       <c r="L136" s="3"/>
       <c r="M136" s="3"/>
     </row>
-    <row r="137" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>69</v>
       </c>
@@ -20957,7 +20997,7 @@
       <c r="L137" s="3"/>
       <c r="M137" s="3"/>
     </row>
-    <row r="138" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>12</v>
       </c>
@@ -20976,7 +21016,7 @@
       <c r="L138" s="3"/>
       <c r="M138" s="3"/>
     </row>
-    <row r="139" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>70</v>
       </c>
@@ -20995,7 +21035,7 @@
       <c r="L139" s="3"/>
       <c r="M139" s="3"/>
     </row>
-    <row r="140" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>71</v>
       </c>
@@ -21014,7 +21054,7 @@
       <c r="L140" s="3"/>
       <c r="M140" s="3"/>
     </row>
-    <row r="141" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
         <v>72</v>
       </c>
@@ -21033,7 +21073,7 @@
       <c r="L141" s="3"/>
       <c r="M141" s="3"/>
     </row>
-    <row r="142" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
         <v>73</v>
       </c>
@@ -21052,7 +21092,7 @@
       <c r="L142" s="3"/>
       <c r="M142" s="3"/>
     </row>
-    <row r="143" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>74</v>
       </c>
@@ -21071,7 +21111,7 @@
       <c r="L143" s="3"/>
       <c r="M143" s="3"/>
     </row>
-    <row r="144" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>75</v>
       </c>
@@ -21090,7 +21130,7 @@
       <c r="L144" s="3"/>
       <c r="M144" s="3"/>
     </row>
-    <row r="145" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
         <v>76</v>
       </c>
@@ -21109,7 +21149,7 @@
       <c r="L145" s="3"/>
       <c r="M145" s="3"/>
     </row>
-    <row r="146" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>77</v>
       </c>
@@ -21128,7 +21168,7 @@
       <c r="L146" s="3"/>
       <c r="M146" s="3"/>
     </row>
-    <row r="147" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
         <v>78</v>
       </c>
@@ -21145,7 +21185,7 @@
       <c r="L147" s="3"/>
       <c r="M147" s="3"/>
     </row>
-    <row r="148" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>79</v>
       </c>
@@ -21162,7 +21202,7 @@
       <c r="L148" s="3"/>
       <c r="M148" s="3"/>
     </row>
-    <row r="149" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
         <v>80</v>
       </c>
@@ -21203,7 +21243,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="6">
         <v>19</v>
       </c>
@@ -21244,7 +21284,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
         <v>93</v>
       </c>
@@ -21261,7 +21301,7 @@
       <c r="L151" s="3"/>
       <c r="M151" s="3"/>
     </row>
-    <row r="152" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>40</v>
       </c>
@@ -21280,7 +21320,7 @@
       <c r="L152" s="3"/>
       <c r="M152" s="3"/>
     </row>
-    <row r="153" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
         <v>80</v>
       </c>
@@ -21321,7 +21361,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
         <v>6</v>
       </c>
@@ -21362,7 +21402,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
         <v>7</v>
       </c>
@@ -21403,7 +21443,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
         <v>8</v>
       </c>
@@ -21444,7 +21484,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="6">
         <v>9</v>
       </c>
@@ -21485,7 +21525,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="6">
         <v>10</v>
       </c>
@@ -21526,7 +21566,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="6">
         <v>11</v>
       </c>
@@ -21567,7 +21607,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="6">
         <v>12</v>
       </c>
@@ -21608,7 +21648,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="6">
         <v>13</v>
       </c>
@@ -21649,7 +21689,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="6">
         <v>14</v>
       </c>
@@ -21690,7 +21730,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="6">
         <v>15</v>
       </c>
@@ -21731,7 +21771,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="6">
         <v>16</v>
       </c>
@@ -21772,7 +21812,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="6">
         <v>17</v>
       </c>
@@ -21813,7 +21853,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="6">
         <v>18</v>
       </c>
@@ -21854,7 +21894,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="6">
         <v>19</v>
       </c>
@@ -21895,7 +21935,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="6">
         <v>20</v>
       </c>
@@ -21936,7 +21976,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
         <v>94</v>
       </c>
@@ -21953,7 +21993,7 @@
       <c r="L169" s="3"/>
       <c r="M169" s="3"/>
     </row>
-    <row r="170" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>95</v>
       </c>
@@ -21970,7 +22010,7 @@
       <c r="L170" s="3"/>
       <c r="M170" s="3"/>
     </row>
-    <row r="171" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
         <v>96</v>
       </c>
@@ -21987,7 +22027,7 @@
       <c r="L171" s="3"/>
       <c r="M171" s="3"/>
     </row>
-    <row r="172" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
         <v>97</v>
       </c>
@@ -22006,7 +22046,7 @@
       <c r="L172" s="3"/>
       <c r="M172" s="3"/>
     </row>
-    <row r="173" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
         <v>98</v>
       </c>
@@ -22023,7 +22063,7 @@
       <c r="L173" s="3"/>
       <c r="M173" s="3"/>
     </row>
-    <row r="174" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
         <v>99</v>
       </c>
@@ -22040,7 +22080,7 @@
       <c r="L174" s="3"/>
       <c r="M174" s="3"/>
     </row>
-    <row r="175" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
         <v>100</v>
       </c>
@@ -22057,7 +22097,7 @@
       <c r="L175" s="3"/>
       <c r="M175" s="3"/>
     </row>
-    <row r="176" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
         <v>101</v>
       </c>
@@ -22076,7 +22116,7 @@
       <c r="L176" s="3"/>
       <c r="M176" s="3"/>
     </row>
-    <row r="177" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
         <v>102</v>
       </c>
@@ -22095,7 +22135,7 @@
       <c r="L177" s="3"/>
       <c r="M177" s="3"/>
     </row>
-    <row r="178" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
         <v>103</v>
       </c>
@@ -22114,7 +22154,7 @@
       <c r="L178" s="3"/>
       <c r="M178" s="3"/>
     </row>
-    <row r="179" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
         <v>104</v>
       </c>
@@ -22131,7 +22171,7 @@
       <c r="L179" s="3"/>
       <c r="M179" s="3"/>
     </row>
-    <row r="180" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
         <v>105</v>
       </c>
@@ -22148,7 +22188,7 @@
       <c r="L180" s="3"/>
       <c r="M180" s="3"/>
     </row>
-    <row r="181" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
         <v>106</v>
       </c>
@@ -22167,7 +22207,7 @@
       <c r="L181" s="3"/>
       <c r="M181" s="3"/>
     </row>
-    <row r="182" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
         <v>107</v>
       </c>
@@ -22186,7 +22226,7 @@
       <c r="L182" s="3"/>
       <c r="M182" s="3"/>
     </row>
-    <row r="183" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
         <v>108</v>
       </c>
@@ -22206,4 +22246,57 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4309077-2AFB-46BB-B10C-149960471737}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6">
+        <f>PRODUCT(B2:B4)</f>
+        <v>234</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/IP.xlsx
+++ b/IP.xlsx
@@ -5,26 +5,41 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2ee38df677a9f564/Documenten/Maritieme techniek/Q4/IP-26/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomol\.spyder-py3\MT-1\IP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_335967806A0D449819BF6D051A95DF09AAEE0D5D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D45411DA-E6EE-4394-B0BE-A95C05D7D0AC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C9B4F8-30D1-4C28-B192-3AA9DF546DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="VB schip van Goris" sheetId="1" r:id="rId1"/>
-    <sheet name="ik ben snelheid" sheetId="2" r:id="rId2"/>
-    <sheet name="Plaatdikte uitvogelen" sheetId="3" r:id="rId3"/>
-    <sheet name="Plaatdikte 2" sheetId="4" r:id="rId4"/>
-    <sheet name="Plaatdikte 3" sheetId="5" r:id="rId5"/>
+    <sheet name="Container" sheetId="7" r:id="rId1"/>
+    <sheet name="VB schip van Goris" sheetId="1" r:id="rId2"/>
+    <sheet name="ik ben snelheid" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
+    <sheet name="Plaatdikte uitvogelen" sheetId="3" r:id="rId5"/>
+    <sheet name="Plaatdikte 2" sheetId="4" r:id="rId6"/>
+    <sheet name="Plaatdikte 3" sheetId="5" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="122">
   <si>
     <t>Loa  [m]</t>
   </si>
@@ -376,6 +391,21 @@
   <si>
     <t>WARNING: an endpoint of a curve is inside the rectangle BH</t>
   </si>
+  <si>
+    <t>aantal in:</t>
+  </si>
+  <si>
+    <t>hoogte</t>
+  </si>
+  <si>
+    <t>breedte</t>
+  </si>
+  <si>
+    <t>lengte</t>
+  </si>
+  <si>
+    <t>aantal containers</t>
+  </si>
 </sst>
 </file>
 
@@ -465,7 +495,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -478,10 +508,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -768,6 +794,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4309077-2AFB-46BB-B10C-149960471737}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6">
+        <f>PRODUCT(B2:B4)</f>
+        <v>234</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -776,22 +855,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.140625" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -806,7 +885,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -825,7 +904,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -844,7 +923,7 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -863,7 +942,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -882,7 +961,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -901,7 +980,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -920,7 +999,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -939,7 +1018,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -958,7 +1037,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -975,7 +1054,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -994,7 +1073,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -1013,7 +1092,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -1032,7 +1111,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -1051,7 +1130,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
@@ -1068,7 +1147,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
@@ -1087,7 +1166,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
@@ -1106,7 +1185,7 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
@@ -1129,7 +1208,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
@@ -1146,7 +1225,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
@@ -1165,7 +1244,7 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
@@ -1184,7 +1263,7 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
@@ -1207,7 +1286,7 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
@@ -1230,7 +1309,7 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>22</v>
       </c>
@@ -1249,7 +1328,7 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>23</v>
       </c>
@@ -1268,7 +1347,7 @@
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>24</v>
       </c>
@@ -1285,7 +1364,7 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>25</v>
       </c>
@@ -1304,7 +1383,7 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>26</v>
       </c>
@@ -1327,7 +1406,7 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>27</v>
       </c>
@@ -1350,7 +1429,7 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>28</v>
       </c>
@@ -1369,7 +1448,7 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>29</v>
       </c>
@@ -1388,7 +1467,7 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>30</v>
       </c>
@@ -1407,7 +1486,7 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>31</v>
       </c>
@@ -1424,7 +1503,7 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
     </row>
-    <row r="34" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>32</v>
       </c>
@@ -1443,7 +1522,7 @@
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>33</v>
       </c>
@@ -1466,7 +1545,7 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
     </row>
-    <row r="36" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>34</v>
       </c>
@@ -1485,7 +1564,7 @@
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
     </row>
-    <row r="37" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>35</v>
       </c>
@@ -1504,7 +1583,7 @@
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
     </row>
-    <row r="38" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>36</v>
       </c>
@@ -1523,7 +1602,7 @@
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
     </row>
-    <row r="39" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>37</v>
       </c>
@@ -1546,7 +1625,7 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
     </row>
-    <row r="40" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>38</v>
       </c>
@@ -1569,7 +1648,7 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
     </row>
-    <row r="41" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>39</v>
       </c>
@@ -1586,7 +1665,7 @@
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
     </row>
-    <row r="42" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>40</v>
       </c>
@@ -1605,7 +1684,7 @@
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
     </row>
-    <row r="43" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>41</v>
       </c>
@@ -1624,7 +1703,7 @@
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
     </row>
-    <row r="44" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>6.5640000000000001</v>
       </c>
@@ -1643,7 +1722,7 @@
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
     </row>
-    <row r="45" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>16.727</v>
       </c>
@@ -1662,7 +1741,7 @@
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
     </row>
-    <row r="46" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>26.890999999999998</v>
       </c>
@@ -1681,7 +1760,7 @@
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
     </row>
-    <row r="47" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>37.054000000000002</v>
       </c>
@@ -1700,7 +1779,7 @@
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
     </row>
-    <row r="48" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>47.218000000000004</v>
       </c>
@@ -1719,7 +1798,7 @@
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
     </row>
-    <row r="49" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>57.381999999999998</v>
       </c>
@@ -1738,7 +1817,7 @@
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
     </row>
-    <row r="50" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>67.545000000000002</v>
       </c>
@@ -1757,7 +1836,7 @@
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
     </row>
-    <row r="51" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>77.709000000000003</v>
       </c>
@@ -1776,7 +1855,7 @@
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
     </row>
-    <row r="52" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>87.873000000000005</v>
       </c>
@@ -1795,7 +1874,7 @@
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
     </row>
-    <row r="53" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>98.036000000000001</v>
       </c>
@@ -1814,7 +1893,7 @@
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
     </row>
-    <row r="54" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>108.2</v>
       </c>
@@ -1833,7 +1912,7 @@
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
     </row>
-    <row r="55" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>118.364</v>
       </c>
@@ -1852,7 +1931,7 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
     </row>
-    <row r="56" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>128.52699999999999</v>
       </c>
@@ -1871,7 +1950,7 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
     </row>
-    <row r="57" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>138.691</v>
       </c>
@@ -1890,7 +1969,7 @@
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
     </row>
-    <row r="58" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>148.85499999999999</v>
       </c>
@@ -1909,7 +1988,7 @@
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
     </row>
-    <row r="59" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>159.018</v>
       </c>
@@ -1928,7 +2007,7 @@
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
     </row>
-    <row r="60" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>169.18199999999999</v>
       </c>
@@ -1947,7 +2026,7 @@
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
     </row>
-    <row r="61" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>179.346</v>
       </c>
@@ -1966,7 +2045,7 @@
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
     </row>
-    <row r="62" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>189.50899999999999</v>
       </c>
@@ -1985,7 +2064,7 @@
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
     </row>
-    <row r="63" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>199.673</v>
       </c>
@@ -2004,7 +2083,7 @@
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
     </row>
-    <row r="64" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>209.83699999999999</v>
       </c>
@@ -2023,7 +2102,7 @@
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
     </row>
-    <row r="65" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>220</v>
       </c>
@@ -2042,7 +2121,7 @@
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
     </row>
-    <row r="66" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>43</v>
       </c>
@@ -2059,7 +2138,7 @@
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
     </row>
-    <row r="67" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>40</v>
       </c>
@@ -2078,7 +2157,7 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
     </row>
-    <row r="68" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>41</v>
       </c>
@@ -2097,7 +2176,7 @@
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
     </row>
-    <row r="69" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>-4.49</v>
       </c>
@@ -2116,7 +2195,7 @@
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
     </row>
-    <row r="70" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>6.2</v>
       </c>
@@ -2135,7 +2214,7 @@
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
     </row>
-    <row r="71" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>16.89</v>
       </c>
@@ -2154,7 +2233,7 @@
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
     </row>
-    <row r="72" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>27.58</v>
       </c>
@@ -2173,7 +2252,7 @@
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
     </row>
-    <row r="73" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>38.270000000000003</v>
       </c>
@@ -2192,7 +2271,7 @@
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
     </row>
-    <row r="74" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>48.96</v>
       </c>
@@ -2211,7 +2290,7 @@
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
     </row>
-    <row r="75" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>59.65</v>
       </c>
@@ -2230,7 +2309,7 @@
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
     </row>
-    <row r="76" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>70.34</v>
       </c>
@@ -2249,7 +2328,7 @@
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
     </row>
-    <row r="77" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>81.03</v>
       </c>
@@ -2268,7 +2347,7 @@
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
     </row>
-    <row r="78" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>91.72</v>
       </c>
@@ -2287,7 +2366,7 @@
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
     </row>
-    <row r="79" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>102.41</v>
       </c>
@@ -2306,7 +2385,7 @@
       <c r="L79" s="3"/>
       <c r="M79" s="3"/>
     </row>
-    <row r="80" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>113.1</v>
       </c>
@@ -2325,7 +2404,7 @@
       <c r="L80" s="3"/>
       <c r="M80" s="3"/>
     </row>
-    <row r="81" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>123.79</v>
       </c>
@@ -2344,7 +2423,7 @@
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
     </row>
-    <row r="82" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>134.47999999999999</v>
       </c>
@@ -2363,7 +2442,7 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
     </row>
-    <row r="83" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>145.16999999999999</v>
       </c>
@@ -2382,7 +2461,7 @@
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>
     </row>
-    <row r="84" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>155.86000000000001</v>
       </c>
@@ -2401,7 +2480,7 @@
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
     </row>
-    <row r="85" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>166.55</v>
       </c>
@@ -2420,7 +2499,7 @@
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
     </row>
-    <row r="86" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>177.24</v>
       </c>
@@ -2439,7 +2518,7 @@
       <c r="L86" s="3"/>
       <c r="M86" s="3"/>
     </row>
-    <row r="87" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>187.93</v>
       </c>
@@ -2458,7 +2537,7 @@
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
     </row>
-    <row r="88" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>198.62</v>
       </c>
@@ -2477,7 +2556,7 @@
       <c r="L88" s="3"/>
       <c r="M88" s="3"/>
     </row>
-    <row r="89" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>209.31</v>
       </c>
@@ -2496,7 +2575,7 @@
       <c r="L89" s="3"/>
       <c r="M89" s="3"/>
     </row>
-    <row r="90" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>220</v>
       </c>
@@ -2515,7 +2594,7 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
     </row>
-    <row r="91" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>44</v>
       </c>
@@ -2532,7 +2611,7 @@
       <c r="L91" s="3"/>
       <c r="M91" s="3"/>
     </row>
-    <row r="92" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>40</v>
       </c>
@@ -2551,7 +2630,7 @@
       <c r="L92" s="3"/>
       <c r="M92" s="3"/>
     </row>
-    <row r="93" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>41</v>
       </c>
@@ -2570,7 +2649,7 @@
       <c r="L93" s="3"/>
       <c r="M93" s="3"/>
     </row>
-    <row r="94" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>163.87799999999999</v>
       </c>
@@ -2589,7 +2668,7 @@
       <c r="L94" s="3"/>
       <c r="M94" s="3"/>
     </row>
-    <row r="95" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <v>177.90799999999999</v>
       </c>
@@ -2608,7 +2687,7 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
     </row>
-    <row r="96" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>191.93899999999999</v>
       </c>
@@ -2627,7 +2706,7 @@
       <c r="L96" s="3"/>
       <c r="M96" s="3"/>
     </row>
-    <row r="97" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>205.97</v>
       </c>
@@ -2646,7 +2725,7 @@
       <c r="L97" s="3"/>
       <c r="M97" s="3"/>
     </row>
-    <row r="98" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>220</v>
       </c>
@@ -2665,7 +2744,7 @@
       <c r="L98" s="3"/>
       <c r="M98" s="3"/>
     </row>
-    <row r="99" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>45</v>
       </c>
@@ -2682,7 +2761,7 @@
       <c r="L99" s="3"/>
       <c r="M99" s="3"/>
     </row>
-    <row r="100" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>46</v>
       </c>
@@ -2701,7 +2780,7 @@
       <c r="L100" s="3"/>
       <c r="M100" s="3"/>
     </row>
-    <row r="101" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>40</v>
       </c>
@@ -2720,7 +2799,7 @@
       <c r="L101" s="3"/>
       <c r="M101" s="3"/>
     </row>
-    <row r="102" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>47</v>
       </c>
@@ -2757,7 +2836,7 @@
       <c r="L102" s="3"/>
       <c r="M102" s="3"/>
     </row>
-    <row r="103" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <v>-4.49</v>
       </c>
@@ -2794,7 +2873,7 @@
       <c r="L103" s="3"/>
       <c r="M103" s="3"/>
     </row>
-    <row r="104" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
         <v>6.2</v>
       </c>
@@ -2831,7 +2910,7 @@
       <c r="L104" s="3"/>
       <c r="M104" s="3"/>
     </row>
-    <row r="105" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
         <v>16.89</v>
       </c>
@@ -2868,7 +2947,7 @@
       <c r="L105" s="3"/>
       <c r="M105" s="3"/>
     </row>
-    <row r="106" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
         <v>27.58</v>
       </c>
@@ -2905,7 +2984,7 @@
       <c r="L106" s="3"/>
       <c r="M106" s="3"/>
     </row>
-    <row r="107" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
         <v>38.270000000000003</v>
       </c>
@@ -2942,7 +3021,7 @@
       <c r="L107" s="3"/>
       <c r="M107" s="3"/>
     </row>
-    <row r="108" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
         <v>48.96</v>
       </c>
@@ -2979,7 +3058,7 @@
       <c r="L108" s="3"/>
       <c r="M108" s="3"/>
     </row>
-    <row r="109" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
         <v>59.65</v>
       </c>
@@ -3016,7 +3095,7 @@
       <c r="L109" s="3"/>
       <c r="M109" s="3"/>
     </row>
-    <row r="110" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
         <v>70.34</v>
       </c>
@@ -3053,7 +3132,7 @@
       <c r="L110" s="3"/>
       <c r="M110" s="3"/>
     </row>
-    <row r="111" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
         <v>81.03</v>
       </c>
@@ -3090,7 +3169,7 @@
       <c r="L111" s="3"/>
       <c r="M111" s="3"/>
     </row>
-    <row r="112" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="5">
         <v>91.72</v>
       </c>
@@ -3127,7 +3206,7 @@
       <c r="L112" s="3"/>
       <c r="M112" s="3"/>
     </row>
-    <row r="113" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="5">
         <v>102.41</v>
       </c>
@@ -3164,7 +3243,7 @@
       <c r="L113" s="3"/>
       <c r="M113" s="3"/>
     </row>
-    <row r="114" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
         <v>113.1</v>
       </c>
@@ -3201,7 +3280,7 @@
       <c r="L114" s="3"/>
       <c r="M114" s="3"/>
     </row>
-    <row r="115" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
         <v>123.79</v>
       </c>
@@ -3238,7 +3317,7 @@
       <c r="L115" s="3"/>
       <c r="M115" s="3"/>
     </row>
-    <row r="116" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
         <v>134.47999999999999</v>
       </c>
@@ -3275,7 +3354,7 @@
       <c r="L116" s="3"/>
       <c r="M116" s="3"/>
     </row>
-    <row r="117" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="5">
         <v>145.16999999999999</v>
       </c>
@@ -3312,7 +3391,7 @@
       <c r="L117" s="3"/>
       <c r="M117" s="3"/>
     </row>
-    <row r="118" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="5">
         <v>155.86000000000001</v>
       </c>
@@ -3349,7 +3428,7 @@
       <c r="L118" s="3"/>
       <c r="M118" s="3"/>
     </row>
-    <row r="119" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="5">
         <v>166.55</v>
       </c>
@@ -3386,7 +3465,7 @@
       <c r="L119" s="3"/>
       <c r="M119" s="3"/>
     </row>
-    <row r="120" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
         <v>177.24</v>
       </c>
@@ -3423,7 +3502,7 @@
       <c r="L120" s="3"/>
       <c r="M120" s="3"/>
     </row>
-    <row r="121" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
         <v>187.93</v>
       </c>
@@ -3460,7 +3539,7 @@
       <c r="L121" s="3"/>
       <c r="M121" s="3"/>
     </row>
-    <row r="122" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
         <v>198.62</v>
       </c>
@@ -3497,7 +3576,7 @@
       <c r="L122" s="3"/>
       <c r="M122" s="3"/>
     </row>
-    <row r="123" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="5">
         <v>209.31</v>
       </c>
@@ -3534,7 +3613,7 @@
       <c r="L123" s="3"/>
       <c r="M123" s="3"/>
     </row>
-    <row r="124" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
         <v>220</v>
       </c>
@@ -3571,7 +3650,7 @@
       <c r="L124" s="3"/>
       <c r="M124" s="3"/>
     </row>
-    <row r="125" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>58</v>
       </c>
@@ -3588,7 +3667,7 @@
       <c r="L125" s="3"/>
       <c r="M125" s="3"/>
     </row>
-    <row r="126" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>59</v>
       </c>
@@ -3607,7 +3686,7 @@
       <c r="L126" s="3"/>
       <c r="M126" s="3"/>
     </row>
-    <row r="127" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>60</v>
       </c>
@@ -3626,7 +3705,7 @@
       <c r="L127" s="3"/>
       <c r="M127" s="3"/>
     </row>
-    <row r="128" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>61</v>
       </c>
@@ -3645,7 +3724,7 @@
       <c r="L128" s="3"/>
       <c r="M128" s="3"/>
     </row>
-    <row r="129" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>62</v>
       </c>
@@ -3664,7 +3743,7 @@
       <c r="L129" s="3"/>
       <c r="M129" s="3"/>
     </row>
-    <row r="130" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>63</v>
       </c>
@@ -3683,7 +3762,7 @@
       <c r="L130" s="3"/>
       <c r="M130" s="3"/>
     </row>
-    <row r="131" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>64</v>
       </c>
@@ -3702,7 +3781,7 @@
       <c r="L131" s="3"/>
       <c r="M131" s="3"/>
     </row>
-    <row r="132" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>65</v>
       </c>
@@ -3721,7 +3800,7 @@
       <c r="L132" s="3"/>
       <c r="M132" s="3"/>
     </row>
-    <row r="133" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>66</v>
       </c>
@@ -3740,7 +3819,7 @@
       <c r="L133" s="3"/>
       <c r="M133" s="3"/>
     </row>
-    <row r="134" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>7</v>
       </c>
@@ -3759,7 +3838,7 @@
       <c r="L134" s="3"/>
       <c r="M134" s="3"/>
     </row>
-    <row r="135" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>67</v>
       </c>
@@ -3778,7 +3857,7 @@
       <c r="L135" s="3"/>
       <c r="M135" s="3"/>
     </row>
-    <row r="136" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>68</v>
       </c>
@@ -3797,7 +3876,7 @@
       <c r="L136" s="3"/>
       <c r="M136" s="3"/>
     </row>
-    <row r="137" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>69</v>
       </c>
@@ -3816,7 +3895,7 @@
       <c r="L137" s="3"/>
       <c r="M137" s="3"/>
     </row>
-    <row r="138" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>12</v>
       </c>
@@ -3835,7 +3914,7 @@
       <c r="L138" s="3"/>
       <c r="M138" s="3"/>
     </row>
-    <row r="139" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>70</v>
       </c>
@@ -3854,7 +3933,7 @@
       <c r="L139" s="3"/>
       <c r="M139" s="3"/>
     </row>
-    <row r="140" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>71</v>
       </c>
@@ -3873,7 +3952,7 @@
       <c r="L140" s="3"/>
       <c r="M140" s="3"/>
     </row>
-    <row r="141" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
         <v>72</v>
       </c>
@@ -3892,7 +3971,7 @@
       <c r="L141" s="3"/>
       <c r="M141" s="3"/>
     </row>
-    <row r="142" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
         <v>73</v>
       </c>
@@ -3911,7 +3990,7 @@
       <c r="L142" s="3"/>
       <c r="M142" s="3"/>
     </row>
-    <row r="143" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>74</v>
       </c>
@@ -3930,7 +4009,7 @@
       <c r="L143" s="3"/>
       <c r="M143" s="3"/>
     </row>
-    <row r="144" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>75</v>
       </c>
@@ -3949,7 +4028,7 @@
       <c r="L144" s="3"/>
       <c r="M144" s="3"/>
     </row>
-    <row r="145" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
         <v>76</v>
       </c>
@@ -3968,7 +4047,7 @@
       <c r="L145" s="3"/>
       <c r="M145" s="3"/>
     </row>
-    <row r="146" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>77</v>
       </c>
@@ -3987,7 +4066,7 @@
       <c r="L146" s="3"/>
       <c r="M146" s="3"/>
     </row>
-    <row r="147" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
         <v>78</v>
       </c>
@@ -4004,7 +4083,7 @@
       <c r="L147" s="3"/>
       <c r="M147" s="3"/>
     </row>
-    <row r="148" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>79</v>
       </c>
@@ -4021,7 +4100,7 @@
       <c r="L148" s="3"/>
       <c r="M148" s="3"/>
     </row>
-    <row r="149" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
         <v>80</v>
       </c>
@@ -4062,7 +4141,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="6">
         <v>19</v>
       </c>
@@ -4103,7 +4182,7 @@
         <v>0.16696088409096599</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
         <v>93</v>
       </c>
@@ -4120,7 +4199,7 @@
       <c r="L151" s="3"/>
       <c r="M151" s="3"/>
     </row>
-    <row r="152" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>40</v>
       </c>
@@ -4139,7 +4218,7 @@
       <c r="L152" s="3"/>
       <c r="M152" s="3"/>
     </row>
-    <row r="153" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
         <v>80</v>
       </c>
@@ -4180,7 +4259,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
         <v>6</v>
       </c>
@@ -4221,7 +4300,7 @@
         <v>0.16696088409096599</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
         <v>7</v>
       </c>
@@ -4262,7 +4341,7 @@
         <v>0.16696088409096599</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
         <v>8</v>
       </c>
@@ -4303,7 +4382,7 @@
         <v>0.16696088409096599</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="6">
         <v>9</v>
       </c>
@@ -4344,7 +4423,7 @@
         <v>0.16696088409096599</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="6">
         <v>10</v>
       </c>
@@ -4385,7 +4464,7 @@
         <v>0.16696088409096599</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="6">
         <v>11</v>
       </c>
@@ -4426,7 +4505,7 @@
         <v>0.16696088409096599</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="6">
         <v>12</v>
       </c>
@@ -4467,7 +4546,7 @@
         <v>0.16696088409096599</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="6">
         <v>13</v>
       </c>
@@ -4508,7 +4587,7 @@
         <v>0.16696088409096599</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="6">
         <v>14</v>
       </c>
@@ -4549,7 +4628,7 @@
         <v>0.16696088409096599</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="6">
         <v>15</v>
       </c>
@@ -4590,7 +4669,7 @@
         <v>0.16696088409096599</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="6">
         <v>16</v>
       </c>
@@ -4631,7 +4710,7 @@
         <v>0.16696088409096599</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="6">
         <v>17</v>
       </c>
@@ -4672,7 +4751,7 @@
         <v>0.16696088409096599</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="6">
         <v>18</v>
       </c>
@@ -4713,7 +4792,7 @@
         <v>0.16696088409096599</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="6">
         <v>19</v>
       </c>
@@ -4754,7 +4833,7 @@
         <v>0.16696088409096599</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="6">
         <v>20</v>
       </c>
@@ -4795,7 +4874,7 @@
         <v>0.16696088409096599</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
         <v>94</v>
       </c>
@@ -4812,7 +4891,7 @@
       <c r="L169" s="3"/>
       <c r="M169" s="3"/>
     </row>
-    <row r="170" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>95</v>
       </c>
@@ -4829,7 +4908,7 @@
       <c r="L170" s="3"/>
       <c r="M170" s="3"/>
     </row>
-    <row r="171" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
         <v>96</v>
       </c>
@@ -4846,7 +4925,7 @@
       <c r="L171" s="3"/>
       <c r="M171" s="3"/>
     </row>
-    <row r="172" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
         <v>97</v>
       </c>
@@ -4865,7 +4944,7 @@
       <c r="L172" s="3"/>
       <c r="M172" s="3"/>
     </row>
-    <row r="173" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
         <v>98</v>
       </c>
@@ -4882,7 +4961,7 @@
       <c r="L173" s="3"/>
       <c r="M173" s="3"/>
     </row>
-    <row r="174" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
         <v>99</v>
       </c>
@@ -4899,7 +4978,7 @@
       <c r="L174" s="3"/>
       <c r="M174" s="3"/>
     </row>
-    <row r="175" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
         <v>100</v>
       </c>
@@ -4916,7 +4995,7 @@
       <c r="L175" s="3"/>
       <c r="M175" s="3"/>
     </row>
-    <row r="176" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
         <v>101</v>
       </c>
@@ -4935,7 +5014,7 @@
       <c r="L176" s="3"/>
       <c r="M176" s="3"/>
     </row>
-    <row r="177" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
         <v>102</v>
       </c>
@@ -4954,7 +5033,7 @@
       <c r="L177" s="3"/>
       <c r="M177" s="3"/>
     </row>
-    <row r="178" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
         <v>103</v>
       </c>
@@ -4973,7 +5052,7 @@
       <c r="L178" s="3"/>
       <c r="M178" s="3"/>
     </row>
-    <row r="179" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
         <v>104</v>
       </c>
@@ -4990,7 +5069,7 @@
       <c r="L179" s="3"/>
       <c r="M179" s="3"/>
     </row>
-    <row r="180" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
         <v>105</v>
       </c>
@@ -5007,7 +5086,7 @@
       <c r="L180" s="3"/>
       <c r="M180" s="3"/>
     </row>
-    <row r="181" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
         <v>106</v>
       </c>
@@ -5026,7 +5105,7 @@
       <c r="L181" s="3"/>
       <c r="M181" s="3"/>
     </row>
-    <row r="182" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
         <v>107</v>
       </c>
@@ -5045,7 +5124,7 @@
       <c r="L182" s="3"/>
       <c r="M182" s="3"/>
     </row>
-    <row r="183" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
         <v>115</v>
       </c>
@@ -5067,31 +5146,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:M184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A184"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="14.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="14.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.140625" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -5106,7 +5185,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -5125,7 +5204,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -5144,7 +5223,7 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -5163,7 +5242,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -5182,7 +5261,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -5201,7 +5280,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -5220,7 +5299,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -5239,7 +5318,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -5258,7 +5337,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -5275,7 +5354,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -5294,7 +5373,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -5313,7 +5392,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -5332,7 +5411,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -5351,7 +5430,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
@@ -5368,7 +5447,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
@@ -5387,7 +5466,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
@@ -5406,7 +5485,7 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
@@ -5429,7 +5508,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
@@ -5446,7 +5525,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
@@ -5465,7 +5544,7 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
@@ -5484,7 +5563,7 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
@@ -5507,7 +5586,7 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
@@ -5530,7 +5609,7 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>22</v>
       </c>
@@ -5549,7 +5628,7 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>23</v>
       </c>
@@ -5568,7 +5647,7 @@
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>24</v>
       </c>
@@ -5585,7 +5664,7 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>25</v>
       </c>
@@ -5604,7 +5683,7 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>26</v>
       </c>
@@ -5627,7 +5706,7 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>27</v>
       </c>
@@ -5650,7 +5729,7 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>28</v>
       </c>
@@ -5669,7 +5748,7 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>29</v>
       </c>
@@ -5688,7 +5767,7 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>30</v>
       </c>
@@ -5707,7 +5786,7 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>31</v>
       </c>
@@ -5724,7 +5803,7 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
     </row>
-    <row r="34" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>32</v>
       </c>
@@ -5743,7 +5822,7 @@
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>33</v>
       </c>
@@ -5766,7 +5845,7 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
     </row>
-    <row r="36" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>34</v>
       </c>
@@ -5785,7 +5864,7 @@
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
     </row>
-    <row r="37" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>35</v>
       </c>
@@ -5804,7 +5883,7 @@
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
     </row>
-    <row r="38" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>36</v>
       </c>
@@ -5823,7 +5902,7 @@
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
     </row>
-    <row r="39" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>37</v>
       </c>
@@ -5846,7 +5925,7 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
     </row>
-    <row r="40" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>38</v>
       </c>
@@ -5869,7 +5948,7 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
     </row>
-    <row r="41" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>39</v>
       </c>
@@ -5886,7 +5965,7 @@
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
     </row>
-    <row r="42" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>40</v>
       </c>
@@ -5905,7 +5984,7 @@
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
     </row>
-    <row r="43" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>41</v>
       </c>
@@ -5924,7 +6003,7 @@
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
     </row>
-    <row r="44" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>5.9269999999999996</v>
       </c>
@@ -5943,7 +6022,7 @@
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
     </row>
-    <row r="45" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>10.465999999999999</v>
       </c>
@@ -5962,7 +6041,7 @@
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
     </row>
-    <row r="46" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>15.006</v>
       </c>
@@ -5981,7 +6060,7 @@
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
     </row>
-    <row r="47" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>19.545000000000002</v>
       </c>
@@ -6000,7 +6079,7 @@
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
     </row>
-    <row r="48" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>24.085000000000001</v>
       </c>
@@ -6019,7 +6098,7 @@
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
     </row>
-    <row r="49" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>28.623999999999999</v>
       </c>
@@ -6038,7 +6117,7 @@
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
     </row>
-    <row r="50" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>33.164000000000001</v>
       </c>
@@ -6057,7 +6136,7 @@
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
     </row>
-    <row r="51" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>37.703000000000003</v>
       </c>
@@ -6076,7 +6155,7 @@
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
     </row>
-    <row r="52" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>42.243000000000002</v>
       </c>
@@ -6095,7 +6174,7 @@
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
     </row>
-    <row r="53" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>46.781999999999996</v>
       </c>
@@ -6114,7 +6193,7 @@
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
     </row>
-    <row r="54" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>51.322000000000003</v>
       </c>
@@ -6133,7 +6212,7 @@
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
     </row>
-    <row r="55" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>55.860999999999997</v>
       </c>
@@ -6152,7 +6231,7 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
     </row>
-    <row r="56" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>60.401000000000003</v>
       </c>
@@ -6171,7 +6250,7 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
     </row>
-    <row r="57" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>64.94</v>
       </c>
@@ -6190,7 +6269,7 @@
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
     </row>
-    <row r="58" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>69.48</v>
       </c>
@@ -6209,7 +6288,7 @@
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
     </row>
-    <row r="59" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>74.019000000000005</v>
       </c>
@@ -6228,7 +6307,7 @@
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
     </row>
-    <row r="60" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>78.558999999999997</v>
       </c>
@@ -6247,7 +6326,7 @@
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
     </row>
-    <row r="61" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>83.097999999999999</v>
       </c>
@@ -6266,7 +6345,7 @@
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
     </row>
-    <row r="62" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>87.638000000000005</v>
       </c>
@@ -6285,7 +6364,7 @@
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
     </row>
-    <row r="63" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>92.177000000000007</v>
       </c>
@@ -6304,7 +6383,7 @@
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
     </row>
-    <row r="64" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>96.716999999999999</v>
       </c>
@@ -6323,7 +6402,7 @@
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
     </row>
-    <row r="65" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>101.256</v>
       </c>
@@ -6342,7 +6421,7 @@
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
     </row>
-    <row r="66" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>43</v>
       </c>
@@ -6359,7 +6438,7 @@
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
     </row>
-    <row r="67" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>40</v>
       </c>
@@ -6378,7 +6457,7 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
     </row>
-    <row r="68" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>41</v>
       </c>
@@ -6397,7 +6476,7 @@
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
     </row>
-    <row r="69" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>-6.516</v>
       </c>
@@ -6416,7 +6495,7 @@
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
     </row>
-    <row r="70" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>-1.3260000000000001</v>
       </c>
@@ -6435,7 +6514,7 @@
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
     </row>
-    <row r="71" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>3.8650000000000002</v>
       </c>
@@ -6454,7 +6533,7 @@
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
     </row>
-    <row r="72" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>9.0549999999999997</v>
       </c>
@@ -6473,7 +6552,7 @@
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
     </row>
-    <row r="73" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>14.246</v>
       </c>
@@ -6492,7 +6571,7 @@
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
     </row>
-    <row r="74" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>19.436</v>
       </c>
@@ -6511,7 +6590,7 @@
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
     </row>
-    <row r="75" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>24.626999999999999</v>
       </c>
@@ -6530,7 +6609,7 @@
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
     </row>
-    <row r="76" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>29.817</v>
       </c>
@@ -6549,7 +6628,7 @@
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
     </row>
-    <row r="77" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>35.008000000000003</v>
       </c>
@@ -6568,7 +6647,7 @@
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
     </row>
-    <row r="78" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>40.198</v>
       </c>
@@ -6587,7 +6666,7 @@
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
     </row>
-    <row r="79" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>45.387999999999998</v>
       </c>
@@ -6606,7 +6685,7 @@
       <c r="L79" s="3"/>
       <c r="M79" s="3"/>
     </row>
-    <row r="80" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>50.579000000000001</v>
       </c>
@@ -6625,7 +6704,7 @@
       <c r="L80" s="3"/>
       <c r="M80" s="3"/>
     </row>
-    <row r="81" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>55.768999999999998</v>
       </c>
@@ -6644,7 +6723,7 @@
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
     </row>
-    <row r="82" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>60.96</v>
       </c>
@@ -6663,7 +6742,7 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
     </row>
-    <row r="83" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>66.150000000000006</v>
       </c>
@@ -6682,7 +6761,7 @@
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>
     </row>
-    <row r="84" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>71.340999999999994</v>
       </c>
@@ -6701,7 +6780,7 @@
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
     </row>
-    <row r="85" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>76.531000000000006</v>
       </c>
@@ -6720,7 +6799,7 @@
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
     </row>
-    <row r="86" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>81.721999999999994</v>
       </c>
@@ -6739,7 +6818,7 @@
       <c r="L86" s="3"/>
       <c r="M86" s="3"/>
     </row>
-    <row r="87" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>86.912000000000006</v>
       </c>
@@ -6758,7 +6837,7 @@
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
     </row>
-    <row r="88" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>92.102999999999994</v>
       </c>
@@ -6777,7 +6856,7 @@
       <c r="L88" s="3"/>
       <c r="M88" s="3"/>
     </row>
-    <row r="89" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>97.293000000000006</v>
       </c>
@@ -6796,7 +6875,7 @@
       <c r="L89" s="3"/>
       <c r="M89" s="3"/>
     </row>
-    <row r="90" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <v>102.48399999999999</v>
       </c>
@@ -6815,7 +6894,7 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
     </row>
-    <row r="91" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>44</v>
       </c>
@@ -6832,7 +6911,7 @@
       <c r="L91" s="3"/>
       <c r="M91" s="3"/>
     </row>
-    <row r="92" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>40</v>
       </c>
@@ -6851,7 +6930,7 @@
       <c r="L92" s="3"/>
       <c r="M92" s="3"/>
     </row>
-    <row r="93" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>41</v>
       </c>
@@ -6870,7 +6949,7 @@
       <c r="L93" s="3"/>
       <c r="M93" s="3"/>
     </row>
-    <row r="94" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>80.683999999999997</v>
       </c>
@@ -6889,7 +6968,7 @@
       <c r="L94" s="3"/>
       <c r="M94" s="3"/>
     </row>
-    <row r="95" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <v>85.704999999999998</v>
       </c>
@@ -6908,7 +6987,7 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
     </row>
-    <row r="96" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>90.725999999999999</v>
       </c>
@@ -6927,7 +7006,7 @@
       <c r="L96" s="3"/>
       <c r="M96" s="3"/>
     </row>
-    <row r="97" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>95.747</v>
       </c>
@@ -6946,7 +7025,7 @@
       <c r="L97" s="3"/>
       <c r="M97" s="3"/>
     </row>
-    <row r="98" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
         <v>100.76900000000001</v>
       </c>
@@ -6965,7 +7044,7 @@
       <c r="L98" s="3"/>
       <c r="M98" s="3"/>
     </row>
-    <row r="99" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>45</v>
       </c>
@@ -6982,7 +7061,7 @@
       <c r="L99" s="3"/>
       <c r="M99" s="3"/>
     </row>
-    <row r="100" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>46</v>
       </c>
@@ -7001,7 +7080,7 @@
       <c r="L100" s="3"/>
       <c r="M100" s="3"/>
     </row>
-    <row r="101" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>40</v>
       </c>
@@ -7020,7 +7099,7 @@
       <c r="L101" s="3"/>
       <c r="M101" s="3"/>
     </row>
-    <row r="102" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>47</v>
       </c>
@@ -7057,7 +7136,7 @@
       <c r="L102" s="3"/>
       <c r="M102" s="3"/>
     </row>
-    <row r="103" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <v>-6.516</v>
       </c>
@@ -7094,7 +7173,7 @@
       <c r="L103" s="3"/>
       <c r="M103" s="3"/>
     </row>
-    <row r="104" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
         <v>-1.3260000000000001</v>
       </c>
@@ -7131,7 +7210,7 @@
       <c r="L104" s="3"/>
       <c r="M104" s="3"/>
     </row>
-    <row r="105" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
         <v>3.8650000000000002</v>
       </c>
@@ -7168,7 +7247,7 @@
       <c r="L105" s="3"/>
       <c r="M105" s="3"/>
     </row>
-    <row r="106" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
         <v>9.0549999999999997</v>
       </c>
@@ -7205,7 +7284,7 @@
       <c r="L106" s="3"/>
       <c r="M106" s="3"/>
     </row>
-    <row r="107" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
         <v>14.246</v>
       </c>
@@ -7242,7 +7321,7 @@
       <c r="L107" s="3"/>
       <c r="M107" s="3"/>
     </row>
-    <row r="108" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
         <v>19.436</v>
       </c>
@@ -7279,7 +7358,7 @@
       <c r="L108" s="3"/>
       <c r="M108" s="3"/>
     </row>
-    <row r="109" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
         <v>24.626999999999999</v>
       </c>
@@ -7316,7 +7395,7 @@
       <c r="L109" s="3"/>
       <c r="M109" s="3"/>
     </row>
-    <row r="110" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
         <v>29.817</v>
       </c>
@@ -7353,7 +7432,7 @@
       <c r="L110" s="3"/>
       <c r="M110" s="3"/>
     </row>
-    <row r="111" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
         <v>35.008000000000003</v>
       </c>
@@ -7390,7 +7469,7 @@
       <c r="L111" s="3"/>
       <c r="M111" s="3"/>
     </row>
-    <row r="112" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="5">
         <v>40.198</v>
       </c>
@@ -7427,7 +7506,7 @@
       <c r="L112" s="3"/>
       <c r="M112" s="3"/>
     </row>
-    <row r="113" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="5">
         <v>45.387999999999998</v>
       </c>
@@ -7464,7 +7543,7 @@
       <c r="L113" s="3"/>
       <c r="M113" s="3"/>
     </row>
-    <row r="114" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
         <v>50.579000000000001</v>
       </c>
@@ -7501,7 +7580,7 @@
       <c r="L114" s="3"/>
       <c r="M114" s="3"/>
     </row>
-    <row r="115" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
         <v>55.768999999999998</v>
       </c>
@@ -7538,7 +7617,7 @@
       <c r="L115" s="3"/>
       <c r="M115" s="3"/>
     </row>
-    <row r="116" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
         <v>60.96</v>
       </c>
@@ -7575,7 +7654,7 @@
       <c r="L116" s="3"/>
       <c r="M116" s="3"/>
     </row>
-    <row r="117" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="5">
         <v>66.150000000000006</v>
       </c>
@@ -7612,7 +7691,7 @@
       <c r="L117" s="3"/>
       <c r="M117" s="3"/>
     </row>
-    <row r="118" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="5">
         <v>71.340999999999994</v>
       </c>
@@ -7649,7 +7728,7 @@
       <c r="L118" s="3"/>
       <c r="M118" s="3"/>
     </row>
-    <row r="119" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="5">
         <v>76.531000000000006</v>
       </c>
@@ -7686,7 +7765,7 @@
       <c r="L119" s="3"/>
       <c r="M119" s="3"/>
     </row>
-    <row r="120" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
         <v>81.721999999999994</v>
       </c>
@@ -7723,7 +7802,7 @@
       <c r="L120" s="3"/>
       <c r="M120" s="3"/>
     </row>
-    <row r="121" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
         <v>86.912000000000006</v>
       </c>
@@ -7760,7 +7839,7 @@
       <c r="L121" s="3"/>
       <c r="M121" s="3"/>
     </row>
-    <row r="122" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
         <v>92.102999999999994</v>
       </c>
@@ -7797,7 +7876,7 @@
       <c r="L122" s="3"/>
       <c r="M122" s="3"/>
     </row>
-    <row r="123" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="5">
         <v>97.293000000000006</v>
       </c>
@@ -7834,7 +7913,7 @@
       <c r="L123" s="3"/>
       <c r="M123" s="3"/>
     </row>
-    <row r="124" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="5">
         <v>102.48399999999999</v>
       </c>
@@ -7871,7 +7950,7 @@
       <c r="L124" s="3"/>
       <c r="M124" s="3"/>
     </row>
-    <row r="125" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>58</v>
       </c>
@@ -7888,7 +7967,7 @@
       <c r="L125" s="3"/>
       <c r="M125" s="3"/>
     </row>
-    <row r="126" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>59</v>
       </c>
@@ -7907,7 +7986,7 @@
       <c r="L126" s="3"/>
       <c r="M126" s="3"/>
     </row>
-    <row r="127" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>60</v>
       </c>
@@ -7926,7 +8005,7 @@
       <c r="L127" s="3"/>
       <c r="M127" s="3"/>
     </row>
-    <row r="128" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>61</v>
       </c>
@@ -7945,7 +8024,7 @@
       <c r="L128" s="3"/>
       <c r="M128" s="3"/>
     </row>
-    <row r="129" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>62</v>
       </c>
@@ -7964,7 +8043,7 @@
       <c r="L129" s="3"/>
       <c r="M129" s="3"/>
     </row>
-    <row r="130" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>63</v>
       </c>
@@ -7983,7 +8062,7 @@
       <c r="L130" s="3"/>
       <c r="M130" s="3"/>
     </row>
-    <row r="131" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>64</v>
       </c>
@@ -8002,7 +8081,7 @@
       <c r="L131" s="3"/>
       <c r="M131" s="3"/>
     </row>
-    <row r="132" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>65</v>
       </c>
@@ -8021,7 +8100,7 @@
       <c r="L132" s="3"/>
       <c r="M132" s="3"/>
     </row>
-    <row r="133" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>66</v>
       </c>
@@ -8040,7 +8119,7 @@
       <c r="L133" s="3"/>
       <c r="M133" s="3"/>
     </row>
-    <row r="134" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>7</v>
       </c>
@@ -8059,7 +8138,7 @@
       <c r="L134" s="3"/>
       <c r="M134" s="3"/>
     </row>
-    <row r="135" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>67</v>
       </c>
@@ -8078,7 +8157,7 @@
       <c r="L135" s="3"/>
       <c r="M135" s="3"/>
     </row>
-    <row r="136" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>68</v>
       </c>
@@ -8097,7 +8176,7 @@
       <c r="L136" s="3"/>
       <c r="M136" s="3"/>
     </row>
-    <row r="137" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>69</v>
       </c>
@@ -8116,7 +8195,7 @@
       <c r="L137" s="3"/>
       <c r="M137" s="3"/>
     </row>
-    <row r="138" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>12</v>
       </c>
@@ -8135,7 +8214,7 @@
       <c r="L138" s="3"/>
       <c r="M138" s="3"/>
     </row>
-    <row r="139" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>70</v>
       </c>
@@ -8154,7 +8233,7 @@
       <c r="L139" s="3"/>
       <c r="M139" s="3"/>
     </row>
-    <row r="140" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>71</v>
       </c>
@@ -8173,7 +8252,7 @@
       <c r="L140" s="3"/>
       <c r="M140" s="3"/>
     </row>
-    <row r="141" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
         <v>72</v>
       </c>
@@ -8192,7 +8271,7 @@
       <c r="L141" s="3"/>
       <c r="M141" s="3"/>
     </row>
-    <row r="142" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
         <v>73</v>
       </c>
@@ -8211,7 +8290,7 @@
       <c r="L142" s="3"/>
       <c r="M142" s="3"/>
     </row>
-    <row r="143" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>74</v>
       </c>
@@ -8230,7 +8309,7 @@
       <c r="L143" s="3"/>
       <c r="M143" s="3"/>
     </row>
-    <row r="144" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>75</v>
       </c>
@@ -8249,7 +8328,7 @@
       <c r="L144" s="3"/>
       <c r="M144" s="3"/>
     </row>
-    <row r="145" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
         <v>76</v>
       </c>
@@ -8268,7 +8347,7 @@
       <c r="L145" s="3"/>
       <c r="M145" s="3"/>
     </row>
-    <row r="146" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>77</v>
       </c>
@@ -8287,7 +8366,7 @@
       <c r="L146" s="3"/>
       <c r="M146" s="3"/>
     </row>
-    <row r="147" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
         <v>116</v>
       </c>
@@ -8304,7 +8383,7 @@
       <c r="L147" s="3"/>
       <c r="M147" s="3"/>
     </row>
-    <row r="148" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>111</v>
       </c>
@@ -8321,7 +8400,7 @@
       <c r="L148" s="3"/>
       <c r="M148" s="3"/>
     </row>
-    <row r="149" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
         <v>78</v>
       </c>
@@ -8338,7 +8417,7 @@
       <c r="L149" s="3"/>
       <c r="M149" s="3"/>
     </row>
-    <row r="150" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
         <v>79</v>
       </c>
@@ -8355,7 +8434,7 @@
       <c r="L150" s="8"/>
       <c r="M150" s="8"/>
     </row>
-    <row r="151" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
         <v>80</v>
       </c>
@@ -8396,7 +8475,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>16</v>
       </c>
@@ -8437,7 +8516,7 @@
         <v>0.19140274643279001</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
         <v>93</v>
       </c>
@@ -8454,7 +8533,7 @@
       <c r="L153" s="3"/>
       <c r="M153" s="3"/>
     </row>
-    <row r="154" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>40</v>
       </c>
@@ -8473,7 +8552,7 @@
       <c r="L154" s="8"/>
       <c r="M154" s="8"/>
     </row>
-    <row r="155" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
         <v>80</v>
       </c>
@@ -8514,7 +8593,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
         <v>6</v>
       </c>
@@ -8555,7 +8634,7 @@
         <v>0.19140274643279001</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="6">
         <v>7</v>
       </c>
@@ -8596,7 +8675,7 @@
         <v>0.19140274643279001</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="6">
         <v>8</v>
       </c>
@@ -8637,7 +8716,7 @@
         <v>0.19140274643279001</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="6">
         <v>9</v>
       </c>
@@ -8678,7 +8757,7 @@
         <v>0.19140274643279001</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="6">
         <v>10</v>
       </c>
@@ -8719,7 +8798,7 @@
         <v>0.19140274643279001</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="6">
         <v>11</v>
       </c>
@@ -8760,7 +8839,7 @@
         <v>0.19140274643279001</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="6">
         <v>12</v>
       </c>
@@ -8801,7 +8880,7 @@
         <v>0.19140274643279001</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="6">
         <v>13</v>
       </c>
@@ -8842,7 +8921,7 @@
         <v>0.19140274643279001</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="6">
         <v>14</v>
       </c>
@@ -8883,7 +8962,7 @@
         <v>0.19140274643279001</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="6">
         <v>15</v>
       </c>
@@ -8924,7 +9003,7 @@
         <v>0.19140274643279001</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="6">
         <v>16</v>
       </c>
@@ -8965,7 +9044,7 @@
         <v>0.19140274643279001</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="6">
         <v>17</v>
       </c>
@@ -9006,7 +9085,7 @@
         <v>0.19140274643279001</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <v>18</v>
       </c>
@@ -9047,7 +9126,7 @@
         <v>0.19140274643279001</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
         <v>94</v>
       </c>
@@ -9064,7 +9143,7 @@
       <c r="L169" s="3"/>
       <c r="M169" s="3"/>
     </row>
-    <row r="170" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>95</v>
       </c>
@@ -9081,7 +9160,7 @@
       <c r="L170" s="3"/>
       <c r="M170" s="3"/>
     </row>
-    <row r="171" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
         <v>112</v>
       </c>
@@ -9098,7 +9177,7 @@
       <c r="L171" s="3"/>
       <c r="M171" s="3"/>
     </row>
-    <row r="172" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
         <v>96</v>
       </c>
@@ -9115,7 +9194,7 @@
       <c r="L172" s="3"/>
       <c r="M172" s="3"/>
     </row>
-    <row r="173" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
         <v>97</v>
       </c>
@@ -9134,7 +9213,7 @@
       <c r="L173" s="3"/>
       <c r="M173" s="3"/>
     </row>
-    <row r="174" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
         <v>98</v>
       </c>
@@ -9151,7 +9230,7 @@
       <c r="L174" s="3"/>
       <c r="M174" s="3"/>
     </row>
-    <row r="175" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
         <v>113</v>
       </c>
@@ -9168,7 +9247,7 @@
       <c r="L175" s="3"/>
       <c r="M175" s="3"/>
     </row>
-    <row r="176" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
         <v>100</v>
       </c>
@@ -9185,7 +9264,7 @@
       <c r="L176" s="3"/>
       <c r="M176" s="3"/>
     </row>
-    <row r="177" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
         <v>101</v>
       </c>
@@ -9204,7 +9283,7 @@
       <c r="L177" s="3"/>
       <c r="M177" s="3"/>
     </row>
-    <row r="178" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
         <v>102</v>
       </c>
@@ -9223,7 +9302,7 @@
       <c r="L178" s="3"/>
       <c r="M178" s="3"/>
     </row>
-    <row r="179" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
         <v>103</v>
       </c>
@@ -9242,7 +9321,7 @@
       <c r="L179" s="3"/>
       <c r="M179" s="3"/>
     </row>
-    <row r="180" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
         <v>104</v>
       </c>
@@ -9259,7 +9338,7 @@
       <c r="L180" s="3"/>
       <c r="M180" s="3"/>
     </row>
-    <row r="181" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
         <v>105</v>
       </c>
@@ -9276,7 +9355,7 @@
       <c r="L181" s="3"/>
       <c r="M181" s="3"/>
     </row>
-    <row r="182" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
         <v>106</v>
       </c>
@@ -9295,7 +9374,7 @@
       <c r="L182" s="3"/>
       <c r="M182" s="3"/>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="s">
         <v>107</v>
       </c>
@@ -9303,7 +9382,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="s">
         <v>114</v>
       </c>
@@ -9313,7 +9392,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EC7652-81C6-4C07-80F9-5511A8282806}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -9322,21 +9413,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.140625" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -9351,7 +9442,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -9370,7 +9461,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -9389,7 +9480,7 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -9408,7 +9499,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -9427,7 +9518,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -9446,7 +9537,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -9465,7 +9556,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -9484,7 +9575,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -9503,7 +9594,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -9520,7 +9611,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -9539,7 +9630,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -9558,7 +9649,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -9577,7 +9668,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -9596,7 +9687,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
@@ -9613,7 +9704,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
@@ -9632,7 +9723,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
@@ -9651,7 +9742,7 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
@@ -9674,7 +9765,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
@@ -9691,7 +9782,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
@@ -9710,7 +9801,7 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
@@ -9729,7 +9820,7 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
@@ -9752,7 +9843,7 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
@@ -9775,7 +9866,7 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>22</v>
       </c>
@@ -9794,7 +9885,7 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>23</v>
       </c>
@@ -9813,7 +9904,7 @@
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>24</v>
       </c>
@@ -9830,7 +9921,7 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>25</v>
       </c>
@@ -9849,7 +9940,7 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>26</v>
       </c>
@@ -9872,7 +9963,7 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>27</v>
       </c>
@@ -9895,7 +9986,7 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>28</v>
       </c>
@@ -9914,7 +10005,7 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>29</v>
       </c>
@@ -9933,7 +10024,7 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>30</v>
       </c>
@@ -9952,7 +10043,7 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>31</v>
       </c>
@@ -9969,7 +10060,7 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
     </row>
-    <row r="34" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>32</v>
       </c>
@@ -9988,7 +10079,7 @@
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>33</v>
       </c>
@@ -10011,7 +10102,7 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
     </row>
-    <row r="36" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>34</v>
       </c>
@@ -10030,7 +10121,7 @@
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
     </row>
-    <row r="37" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>35</v>
       </c>
@@ -10049,7 +10140,7 @@
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
     </row>
-    <row r="38" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>36</v>
       </c>
@@ -10068,7 +10159,7 @@
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
     </row>
-    <row r="39" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>37</v>
       </c>
@@ -10091,7 +10182,7 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
     </row>
-    <row r="40" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>38</v>
       </c>
@@ -10114,7 +10205,7 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
     </row>
-    <row r="41" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>39</v>
       </c>
@@ -10131,7 +10222,7 @@
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
     </row>
-    <row r="42" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>40</v>
       </c>
@@ -10150,7 +10241,7 @@
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
     </row>
-    <row r="43" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>41</v>
       </c>
@@ -10169,7 +10260,7 @@
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
     </row>
-    <row r="44" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>6.3639999999999999</v>
       </c>
@@ -10188,7 +10279,7 @@
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
     </row>
-    <row r="45" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>16.536999999999999</v>
       </c>
@@ -10207,7 +10298,7 @@
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
     </row>
-    <row r="46" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>26.71</v>
       </c>
@@ -10226,7 +10317,7 @@
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
     </row>
-    <row r="47" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>36.883000000000003</v>
       </c>
@@ -10245,7 +10336,7 @@
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
     </row>
-    <row r="48" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>47.055999999999997</v>
       </c>
@@ -10264,7 +10355,7 @@
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
     </row>
-    <row r="49" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>57.23</v>
       </c>
@@ -10283,7 +10374,7 @@
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
     </row>
-    <row r="50" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>67.403000000000006</v>
       </c>
@@ -10302,7 +10393,7 @@
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
     </row>
-    <row r="51" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>77.575999999999993</v>
       </c>
@@ -10321,7 +10412,7 @@
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
     </row>
-    <row r="52" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>87.748999999999995</v>
       </c>
@@ -10340,7 +10431,7 @@
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
     </row>
-    <row r="53" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>97.921999999999997</v>
       </c>
@@ -10359,7 +10450,7 @@
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
     </row>
-    <row r="54" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>108.095</v>
       </c>
@@ -10378,7 +10469,7 @@
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
     </row>
-    <row r="55" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>118.26900000000001</v>
       </c>
@@ -10397,7 +10488,7 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
     </row>
-    <row r="56" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>128.44200000000001</v>
       </c>
@@ -10416,7 +10507,7 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
     </row>
-    <row r="57" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>138.61500000000001</v>
       </c>
@@ -10435,7 +10526,7 @@
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
     </row>
-    <row r="58" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>148.78800000000001</v>
       </c>
@@ -10454,7 +10545,7 @@
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
     </row>
-    <row r="59" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>158.96100000000001</v>
       </c>
@@ -10473,7 +10564,7 @@
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
     </row>
-    <row r="60" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>169.13399999999999</v>
       </c>
@@ -10492,7 +10583,7 @@
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
     </row>
-    <row r="61" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>179.30799999999999</v>
       </c>
@@ -10511,7 +10602,7 @@
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
     </row>
-    <row r="62" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>189.48099999999999</v>
       </c>
@@ -10530,7 +10621,7 @@
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
     </row>
-    <row r="63" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>199.654</v>
       </c>
@@ -10549,7 +10640,7 @@
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
     </row>
-    <row r="64" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>209.827</v>
       </c>
@@ -10568,7 +10659,7 @@
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
     </row>
-    <row r="65" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>220</v>
       </c>
@@ -10587,7 +10678,7 @@
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
     </row>
-    <row r="66" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>43</v>
       </c>
@@ -10604,7 +10695,7 @@
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
     </row>
-    <row r="67" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>40</v>
       </c>
@@ -10623,7 +10714,7 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
     </row>
-    <row r="68" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>41</v>
       </c>
@@ -10642,7 +10733,7 @@
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
     </row>
-    <row r="69" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>-4.49</v>
       </c>
@@ -10661,7 +10752,7 @@
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
     </row>
-    <row r="70" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>6.2</v>
       </c>
@@ -10680,7 +10771,7 @@
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
     </row>
-    <row r="71" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>16.89</v>
       </c>
@@ -10699,7 +10790,7 @@
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
     </row>
-    <row r="72" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>27.58</v>
       </c>
@@ -10718,7 +10809,7 @@
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
     </row>
-    <row r="73" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>38.270000000000003</v>
       </c>
@@ -10737,7 +10828,7 @@
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
     </row>
-    <row r="74" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>48.96</v>
       </c>
@@ -10756,7 +10847,7 @@
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
     </row>
-    <row r="75" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>59.65</v>
       </c>
@@ -10775,7 +10866,7 @@
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
     </row>
-    <row r="76" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>70.34</v>
       </c>
@@ -10794,7 +10885,7 @@
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
     </row>
-    <row r="77" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>81.03</v>
       </c>
@@ -10813,7 +10904,7 @@
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
     </row>
-    <row r="78" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>91.72</v>
       </c>
@@ -10832,7 +10923,7 @@
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
     </row>
-    <row r="79" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>102.41</v>
       </c>
@@ -10851,7 +10942,7 @@
       <c r="L79" s="3"/>
       <c r="M79" s="3"/>
     </row>
-    <row r="80" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>113.1</v>
       </c>
@@ -10870,7 +10961,7 @@
       <c r="L80" s="3"/>
       <c r="M80" s="3"/>
     </row>
-    <row r="81" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>123.79</v>
       </c>
@@ -10889,7 +10980,7 @@
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
     </row>
-    <row r="82" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>134.47999999999999</v>
       </c>
@@ -10908,7 +10999,7 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
     </row>
-    <row r="83" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>145.16999999999999</v>
       </c>
@@ -10927,7 +11018,7 @@
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>
     </row>
-    <row r="84" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>155.86000000000001</v>
       </c>
@@ -10946,7 +11037,7 @@
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
     </row>
-    <row r="85" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>166.55</v>
       </c>
@@ -10965,7 +11056,7 @@
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
     </row>
-    <row r="86" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>177.24</v>
       </c>
@@ -10984,7 +11075,7 @@
       <c r="L86" s="3"/>
       <c r="M86" s="3"/>
     </row>
-    <row r="87" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>187.93</v>
       </c>
@@ -11003,7 +11094,7 @@
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
     </row>
-    <row r="88" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>198.62</v>
       </c>
@@ -11022,7 +11113,7 @@
       <c r="L88" s="3"/>
       <c r="M88" s="3"/>
     </row>
-    <row r="89" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>209.31</v>
       </c>
@@ -11041,7 +11132,7 @@
       <c r="L89" s="3"/>
       <c r="M89" s="3"/>
     </row>
-    <row r="90" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>220</v>
       </c>
@@ -11060,7 +11151,7 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
     </row>
-    <row r="91" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>44</v>
       </c>
@@ -11077,7 +11168,7 @@
       <c r="L91" s="3"/>
       <c r="M91" s="3"/>
     </row>
-    <row r="92" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>40</v>
       </c>
@@ -11096,7 +11187,7 @@
       <c r="L92" s="3"/>
       <c r="M92" s="3"/>
     </row>
-    <row r="93" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>41</v>
       </c>
@@ -11115,7 +11206,7 @@
       <c r="L93" s="3"/>
       <c r="M93" s="3"/>
     </row>
-    <row r="94" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>163.87799999999999</v>
       </c>
@@ -11134,7 +11225,7 @@
       <c r="L94" s="3"/>
       <c r="M94" s="3"/>
     </row>
-    <row r="95" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <v>177.90799999999999</v>
       </c>
@@ -11153,7 +11244,7 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
     </row>
-    <row r="96" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>191.93899999999999</v>
       </c>
@@ -11172,7 +11263,7 @@
       <c r="L96" s="3"/>
       <c r="M96" s="3"/>
     </row>
-    <row r="97" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>205.97</v>
       </c>
@@ -11191,7 +11282,7 @@
       <c r="L97" s="3"/>
       <c r="M97" s="3"/>
     </row>
-    <row r="98" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>220</v>
       </c>
@@ -11210,7 +11301,7 @@
       <c r="L98" s="3"/>
       <c r="M98" s="3"/>
     </row>
-    <row r="99" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>45</v>
       </c>
@@ -11227,7 +11318,7 @@
       <c r="L99" s="3"/>
       <c r="M99" s="3"/>
     </row>
-    <row r="100" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>46</v>
       </c>
@@ -11246,7 +11337,7 @@
       <c r="L100" s="3"/>
       <c r="M100" s="3"/>
     </row>
-    <row r="101" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>40</v>
       </c>
@@ -11265,7 +11356,7 @@
       <c r="L101" s="3"/>
       <c r="M101" s="3"/>
     </row>
-    <row r="102" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>47</v>
       </c>
@@ -11302,7 +11393,7 @@
       <c r="L102" s="3"/>
       <c r="M102" s="3"/>
     </row>
-    <row r="103" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <v>-4.49</v>
       </c>
@@ -11339,7 +11430,7 @@
       <c r="L103" s="3"/>
       <c r="M103" s="3"/>
     </row>
-    <row r="104" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
         <v>6.2</v>
       </c>
@@ -11376,7 +11467,7 @@
       <c r="L104" s="3"/>
       <c r="M104" s="3"/>
     </row>
-    <row r="105" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
         <v>16.89</v>
       </c>
@@ -11413,7 +11504,7 @@
       <c r="L105" s="3"/>
       <c r="M105" s="3"/>
     </row>
-    <row r="106" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
         <v>27.58</v>
       </c>
@@ -11450,7 +11541,7 @@
       <c r="L106" s="3"/>
       <c r="M106" s="3"/>
     </row>
-    <row r="107" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
         <v>38.270000000000003</v>
       </c>
@@ -11487,7 +11578,7 @@
       <c r="L107" s="3"/>
       <c r="M107" s="3"/>
     </row>
-    <row r="108" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
         <v>48.96</v>
       </c>
@@ -11524,7 +11615,7 @@
       <c r="L108" s="3"/>
       <c r="M108" s="3"/>
     </row>
-    <row r="109" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
         <v>59.65</v>
       </c>
@@ -11561,7 +11652,7 @@
       <c r="L109" s="3"/>
       <c r="M109" s="3"/>
     </row>
-    <row r="110" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
         <v>70.34</v>
       </c>
@@ -11598,7 +11689,7 @@
       <c r="L110" s="3"/>
       <c r="M110" s="3"/>
     </row>
-    <row r="111" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
         <v>81.03</v>
       </c>
@@ -11635,7 +11726,7 @@
       <c r="L111" s="3"/>
       <c r="M111" s="3"/>
     </row>
-    <row r="112" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="5">
         <v>91.72</v>
       </c>
@@ -11672,7 +11763,7 @@
       <c r="L112" s="3"/>
       <c r="M112" s="3"/>
     </row>
-    <row r="113" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="5">
         <v>102.41</v>
       </c>
@@ -11709,7 +11800,7 @@
       <c r="L113" s="3"/>
       <c r="M113" s="3"/>
     </row>
-    <row r="114" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
         <v>113.1</v>
       </c>
@@ -11746,7 +11837,7 @@
       <c r="L114" s="3"/>
       <c r="M114" s="3"/>
     </row>
-    <row r="115" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
         <v>123.79</v>
       </c>
@@ -11783,7 +11874,7 @@
       <c r="L115" s="3"/>
       <c r="M115" s="3"/>
     </row>
-    <row r="116" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
         <v>134.47999999999999</v>
       </c>
@@ -11820,7 +11911,7 @@
       <c r="L116" s="3"/>
       <c r="M116" s="3"/>
     </row>
-    <row r="117" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="5">
         <v>145.16999999999999</v>
       </c>
@@ -11857,7 +11948,7 @@
       <c r="L117" s="3"/>
       <c r="M117" s="3"/>
     </row>
-    <row r="118" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="5">
         <v>155.86000000000001</v>
       </c>
@@ -11894,7 +11985,7 @@
       <c r="L118" s="3"/>
       <c r="M118" s="3"/>
     </row>
-    <row r="119" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="5">
         <v>166.55</v>
       </c>
@@ -11931,7 +12022,7 @@
       <c r="L119" s="3"/>
       <c r="M119" s="3"/>
     </row>
-    <row r="120" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
         <v>177.24</v>
       </c>
@@ -11968,7 +12059,7 @@
       <c r="L120" s="3"/>
       <c r="M120" s="3"/>
     </row>
-    <row r="121" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
         <v>187.93</v>
       </c>
@@ -12005,7 +12096,7 @@
       <c r="L121" s="3"/>
       <c r="M121" s="3"/>
     </row>
-    <row r="122" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
         <v>198.62</v>
       </c>
@@ -12042,7 +12133,7 @@
       <c r="L122" s="3"/>
       <c r="M122" s="3"/>
     </row>
-    <row r="123" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="5">
         <v>209.31</v>
       </c>
@@ -12079,7 +12170,7 @@
       <c r="L123" s="3"/>
       <c r="M123" s="3"/>
     </row>
-    <row r="124" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
         <v>220</v>
       </c>
@@ -12116,7 +12207,7 @@
       <c r="L124" s="3"/>
       <c r="M124" s="3"/>
     </row>
-    <row r="125" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>58</v>
       </c>
@@ -12133,7 +12224,7 @@
       <c r="L125" s="3"/>
       <c r="M125" s="3"/>
     </row>
-    <row r="126" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>59</v>
       </c>
@@ -12152,7 +12243,7 @@
       <c r="L126" s="3"/>
       <c r="M126" s="3"/>
     </row>
-    <row r="127" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>60</v>
       </c>
@@ -12171,7 +12262,7 @@
       <c r="L127" s="3"/>
       <c r="M127" s="3"/>
     </row>
-    <row r="128" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>61</v>
       </c>
@@ -12190,7 +12281,7 @@
       <c r="L128" s="3"/>
       <c r="M128" s="3"/>
     </row>
-    <row r="129" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>62</v>
       </c>
@@ -12209,7 +12300,7 @@
       <c r="L129" s="3"/>
       <c r="M129" s="3"/>
     </row>
-    <row r="130" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>63</v>
       </c>
@@ -12228,7 +12319,7 @@
       <c r="L130" s="3"/>
       <c r="M130" s="3"/>
     </row>
-    <row r="131" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>64</v>
       </c>
@@ -12247,7 +12338,7 @@
       <c r="L131" s="3"/>
       <c r="M131" s="3"/>
     </row>
-    <row r="132" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>65</v>
       </c>
@@ -12266,7 +12357,7 @@
       <c r="L132" s="3"/>
       <c r="M132" s="3"/>
     </row>
-    <row r="133" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>66</v>
       </c>
@@ -12285,7 +12376,7 @@
       <c r="L133" s="3"/>
       <c r="M133" s="3"/>
     </row>
-    <row r="134" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>7</v>
       </c>
@@ -12304,7 +12395,7 @@
       <c r="L134" s="3"/>
       <c r="M134" s="3"/>
     </row>
-    <row r="135" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>67</v>
       </c>
@@ -12323,7 +12414,7 @@
       <c r="L135" s="3"/>
       <c r="M135" s="3"/>
     </row>
-    <row r="136" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>68</v>
       </c>
@@ -12342,7 +12433,7 @@
       <c r="L136" s="3"/>
       <c r="M136" s="3"/>
     </row>
-    <row r="137" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>69</v>
       </c>
@@ -12361,7 +12452,7 @@
       <c r="L137" s="3"/>
       <c r="M137" s="3"/>
     </row>
-    <row r="138" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>12</v>
       </c>
@@ -12380,7 +12471,7 @@
       <c r="L138" s="3"/>
       <c r="M138" s="3"/>
     </row>
-    <row r="139" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>70</v>
       </c>
@@ -12399,7 +12490,7 @@
       <c r="L139" s="3"/>
       <c r="M139" s="3"/>
     </row>
-    <row r="140" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>71</v>
       </c>
@@ -12418,7 +12509,7 @@
       <c r="L140" s="3"/>
       <c r="M140" s="3"/>
     </row>
-    <row r="141" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
         <v>72</v>
       </c>
@@ -12437,7 +12528,7 @@
       <c r="L141" s="3"/>
       <c r="M141" s="3"/>
     </row>
-    <row r="142" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
         <v>73</v>
       </c>
@@ -12456,7 +12547,7 @@
       <c r="L142" s="3"/>
       <c r="M142" s="3"/>
     </row>
-    <row r="143" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>74</v>
       </c>
@@ -12475,7 +12566,7 @@
       <c r="L143" s="3"/>
       <c r="M143" s="3"/>
     </row>
-    <row r="144" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>75</v>
       </c>
@@ -12494,7 +12585,7 @@
       <c r="L144" s="3"/>
       <c r="M144" s="3"/>
     </row>
-    <row r="145" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
         <v>76</v>
       </c>
@@ -12513,7 +12604,7 @@
       <c r="L145" s="3"/>
       <c r="M145" s="3"/>
     </row>
-    <row r="146" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>77</v>
       </c>
@@ -12532,7 +12623,7 @@
       <c r="L146" s="3"/>
       <c r="M146" s="3"/>
     </row>
-    <row r="147" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
         <v>78</v>
       </c>
@@ -12549,7 +12640,7 @@
       <c r="L147" s="3"/>
       <c r="M147" s="3"/>
     </row>
-    <row r="148" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>79</v>
       </c>
@@ -12566,7 +12657,7 @@
       <c r="L148" s="3"/>
       <c r="M148" s="3"/>
     </row>
-    <row r="149" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
         <v>80</v>
       </c>
@@ -12607,7 +12698,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="6">
         <v>19</v>
       </c>
@@ -12648,7 +12739,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
         <v>93</v>
       </c>
@@ -12665,7 +12756,7 @@
       <c r="L151" s="3"/>
       <c r="M151" s="3"/>
     </row>
-    <row r="152" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>40</v>
       </c>
@@ -12684,7 +12775,7 @@
       <c r="L152" s="3"/>
       <c r="M152" s="3"/>
     </row>
-    <row r="153" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
         <v>80</v>
       </c>
@@ -12725,7 +12816,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
         <v>6</v>
       </c>
@@ -12766,7 +12857,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
         <v>7</v>
       </c>
@@ -12807,7 +12898,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
         <v>8</v>
       </c>
@@ -12848,7 +12939,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="6">
         <v>9</v>
       </c>
@@ -12889,7 +12980,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="6">
         <v>10</v>
       </c>
@@ -12930,7 +13021,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="6">
         <v>11</v>
       </c>
@@ -12971,7 +13062,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="6">
         <v>12</v>
       </c>
@@ -13012,7 +13103,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="6">
         <v>13</v>
       </c>
@@ -13053,7 +13144,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="6">
         <v>14</v>
       </c>
@@ -13094,7 +13185,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="6">
         <v>15</v>
       </c>
@@ -13135,7 +13226,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="6">
         <v>16</v>
       </c>
@@ -13176,7 +13267,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="6">
         <v>17</v>
       </c>
@@ -13217,7 +13308,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="6">
         <v>18</v>
       </c>
@@ -13258,7 +13349,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="6">
         <v>19</v>
       </c>
@@ -13299,7 +13390,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="6">
         <v>20</v>
       </c>
@@ -13340,7 +13431,7 @@
         <v>0.167305750477065</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
         <v>94</v>
       </c>
@@ -13357,7 +13448,7 @@
       <c r="L169" s="3"/>
       <c r="M169" s="3"/>
     </row>
-    <row r="170" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>95</v>
       </c>
@@ -13374,7 +13465,7 @@
       <c r="L170" s="3"/>
       <c r="M170" s="3"/>
     </row>
-    <row r="171" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
         <v>96</v>
       </c>
@@ -13391,7 +13482,7 @@
       <c r="L171" s="3"/>
       <c r="M171" s="3"/>
     </row>
-    <row r="172" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
         <v>97</v>
       </c>
@@ -13410,7 +13501,7 @@
       <c r="L172" s="3"/>
       <c r="M172" s="3"/>
     </row>
-    <row r="173" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
         <v>98</v>
       </c>
@@ -13427,7 +13518,7 @@
       <c r="L173" s="3"/>
       <c r="M173" s="3"/>
     </row>
-    <row r="174" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
         <v>99</v>
       </c>
@@ -13444,7 +13535,7 @@
       <c r="L174" s="3"/>
       <c r="M174" s="3"/>
     </row>
-    <row r="175" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
         <v>100</v>
       </c>
@@ -13461,7 +13552,7 @@
       <c r="L175" s="3"/>
       <c r="M175" s="3"/>
     </row>
-    <row r="176" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
         <v>101</v>
       </c>
@@ -13480,7 +13571,7 @@
       <c r="L176" s="3"/>
       <c r="M176" s="3"/>
     </row>
-    <row r="177" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
         <v>102</v>
       </c>
@@ -13499,7 +13590,7 @@
       <c r="L177" s="3"/>
       <c r="M177" s="3"/>
     </row>
-    <row r="178" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
         <v>103</v>
       </c>
@@ -13518,7 +13609,7 @@
       <c r="L178" s="3"/>
       <c r="M178" s="3"/>
     </row>
-    <row r="179" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
         <v>104</v>
       </c>
@@ -13535,7 +13626,7 @@
       <c r="L179" s="3"/>
       <c r="M179" s="3"/>
     </row>
-    <row r="180" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
         <v>105</v>
       </c>
@@ -13552,7 +13643,7 @@
       <c r="L180" s="3"/>
       <c r="M180" s="3"/>
     </row>
-    <row r="181" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
         <v>106</v>
       </c>
@@ -13571,7 +13662,7 @@
       <c r="L181" s="3"/>
       <c r="M181" s="3"/>
     </row>
-    <row r="182" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
         <v>107</v>
       </c>
@@ -13590,7 +13681,7 @@
       <c r="L182" s="3"/>
       <c r="M182" s="3"/>
     </row>
-    <row r="183" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
         <v>110</v>
       </c>
@@ -13612,7 +13703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -13621,20 +13712,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="14.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="14.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.140625" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -13649,7 +13740,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -13668,7 +13759,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -13687,7 +13778,7 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -13706,7 +13797,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -13725,7 +13816,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -13744,7 +13835,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -13763,7 +13854,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -13782,7 +13873,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -13801,7 +13892,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -13818,7 +13909,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -13837,7 +13928,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -13856,7 +13947,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -13875,7 +13966,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -13894,7 +13985,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
@@ -13911,7 +14002,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
@@ -13930,7 +14021,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
@@ -13949,7 +14040,7 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
@@ -13972,7 +14063,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
@@ -13989,7 +14080,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
@@ -14008,7 +14099,7 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
@@ -14027,7 +14118,7 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
@@ -14050,7 +14141,7 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
@@ -14073,7 +14164,7 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>22</v>
       </c>
@@ -14092,7 +14183,7 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>23</v>
       </c>
@@ -14111,7 +14202,7 @@
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>24</v>
       </c>
@@ -14128,7 +14219,7 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>25</v>
       </c>
@@ -14147,7 +14238,7 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>26</v>
       </c>
@@ -14170,7 +14261,7 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>27</v>
       </c>
@@ -14193,7 +14284,7 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>28</v>
       </c>
@@ -14212,7 +14303,7 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>29</v>
       </c>
@@ -14231,7 +14322,7 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>30</v>
       </c>
@@ -14250,7 +14341,7 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>31</v>
       </c>
@@ -14267,7 +14358,7 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
     </row>
-    <row r="34" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>32</v>
       </c>
@@ -14286,7 +14377,7 @@
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>33</v>
       </c>
@@ -14309,7 +14400,7 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
     </row>
-    <row r="36" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>34</v>
       </c>
@@ -14328,7 +14419,7 @@
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
     </row>
-    <row r="37" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>35</v>
       </c>
@@ -14347,7 +14438,7 @@
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
     </row>
-    <row r="38" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>36</v>
       </c>
@@ -14366,7 +14457,7 @@
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
     </row>
-    <row r="39" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>37</v>
       </c>
@@ -14389,7 +14480,7 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
     </row>
-    <row r="40" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>38</v>
       </c>
@@ -14412,7 +14503,7 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
     </row>
-    <row r="41" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>39</v>
       </c>
@@ -14429,7 +14520,7 @@
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
     </row>
-    <row r="42" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>40</v>
       </c>
@@ -14448,7 +14539,7 @@
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
     </row>
-    <row r="43" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>41</v>
       </c>
@@ -14467,7 +14558,7 @@
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
     </row>
-    <row r="44" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>6.3789999999999996</v>
       </c>
@@ -14486,7 +14577,7 @@
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
     </row>
-    <row r="45" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>16.552</v>
       </c>
@@ -14505,7 +14596,7 @@
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
     </row>
-    <row r="46" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>26.724</v>
       </c>
@@ -14524,7 +14615,7 @@
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
     </row>
-    <row r="47" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>36.896000000000001</v>
       </c>
@@ -14543,7 +14634,7 @@
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
     </row>
-    <row r="48" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>47.069000000000003</v>
       </c>
@@ -14562,7 +14653,7 @@
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
     </row>
-    <row r="49" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>57.241</v>
       </c>
@@ -14581,7 +14672,7 @@
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
     </row>
-    <row r="50" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>67.414000000000001</v>
       </c>
@@ -14600,7 +14691,7 @@
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
     </row>
-    <row r="51" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>77.585999999999999</v>
       </c>
@@ -14619,7 +14710,7 @@
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
     </row>
-    <row r="52" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>87.759</v>
       </c>
@@ -14638,7 +14729,7 @@
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
     </row>
-    <row r="53" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>97.930999999999997</v>
       </c>
@@ -14657,7 +14748,7 @@
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
     </row>
-    <row r="54" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>108.10299999999999</v>
       </c>
@@ -14676,7 +14767,7 @@
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
     </row>
-    <row r="55" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>118.276</v>
       </c>
@@ -14695,7 +14786,7 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
     </row>
-    <row r="56" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>128.44800000000001</v>
       </c>
@@ -14714,7 +14805,7 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
     </row>
-    <row r="57" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>138.62100000000001</v>
       </c>
@@ -14733,7 +14824,7 @@
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
     </row>
-    <row r="58" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>148.79300000000001</v>
       </c>
@@ -14752,7 +14843,7 @@
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
     </row>
-    <row r="59" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>158.96600000000001</v>
       </c>
@@ -14771,7 +14862,7 @@
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
     </row>
-    <row r="60" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>169.13800000000001</v>
       </c>
@@ -14790,7 +14881,7 @@
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
     </row>
-    <row r="61" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>179.31</v>
       </c>
@@ -14809,7 +14900,7 @@
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
     </row>
-    <row r="62" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>189.483</v>
       </c>
@@ -14828,7 +14919,7 @@
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
     </row>
-    <row r="63" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>199.655</v>
       </c>
@@ -14847,7 +14938,7 @@
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
     </row>
-    <row r="64" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>209.828</v>
       </c>
@@ -14866,7 +14957,7 @@
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
     </row>
-    <row r="65" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>220</v>
       </c>
@@ -14885,7 +14976,7 @@
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
     </row>
-    <row r="66" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>43</v>
       </c>
@@ -14902,7 +14993,7 @@
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
     </row>
-    <row r="67" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>40</v>
       </c>
@@ -14921,7 +15012,7 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
     </row>
-    <row r="68" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>41</v>
       </c>
@@ -14940,7 +15031,7 @@
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
     </row>
-    <row r="69" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>-4.49</v>
       </c>
@@ -14959,7 +15050,7 @@
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
     </row>
-    <row r="70" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>6.2</v>
       </c>
@@ -14978,7 +15069,7 @@
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
     </row>
-    <row r="71" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>16.89</v>
       </c>
@@ -14997,7 +15088,7 @@
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
     </row>
-    <row r="72" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>27.58</v>
       </c>
@@ -15016,7 +15107,7 @@
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
     </row>
-    <row r="73" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>38.270000000000003</v>
       </c>
@@ -15035,7 +15126,7 @@
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
     </row>
-    <row r="74" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>48.96</v>
       </c>
@@ -15054,7 +15145,7 @@
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
     </row>
-    <row r="75" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>59.65</v>
       </c>
@@ -15073,7 +15164,7 @@
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
     </row>
-    <row r="76" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>70.34</v>
       </c>
@@ -15092,7 +15183,7 @@
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
     </row>
-    <row r="77" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>81.03</v>
       </c>
@@ -15111,7 +15202,7 @@
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
     </row>
-    <row r="78" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>91.72</v>
       </c>
@@ -15130,7 +15221,7 @@
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
     </row>
-    <row r="79" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>102.41</v>
       </c>
@@ -15149,7 +15240,7 @@
       <c r="L79" s="3"/>
       <c r="M79" s="3"/>
     </row>
-    <row r="80" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>113.1</v>
       </c>
@@ -15168,7 +15259,7 @@
       <c r="L80" s="3"/>
       <c r="M80" s="3"/>
     </row>
-    <row r="81" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>123.79</v>
       </c>
@@ -15187,7 +15278,7 @@
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
     </row>
-    <row r="82" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>134.47999999999999</v>
       </c>
@@ -15206,7 +15297,7 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
     </row>
-    <row r="83" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>145.16999999999999</v>
       </c>
@@ -15225,7 +15316,7 @@
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>
     </row>
-    <row r="84" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>155.86000000000001</v>
       </c>
@@ -15244,7 +15335,7 @@
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
     </row>
-    <row r="85" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>166.55</v>
       </c>
@@ -15263,7 +15354,7 @@
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
     </row>
-    <row r="86" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>177.24</v>
       </c>
@@ -15282,7 +15373,7 @@
       <c r="L86" s="3"/>
       <c r="M86" s="3"/>
     </row>
-    <row r="87" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>187.93</v>
       </c>
@@ -15301,7 +15392,7 @@
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
     </row>
-    <row r="88" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>198.62</v>
       </c>
@@ -15320,7 +15411,7 @@
       <c r="L88" s="3"/>
       <c r="M88" s="3"/>
     </row>
-    <row r="89" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>209.31</v>
       </c>
@@ -15339,7 +15430,7 @@
       <c r="L89" s="3"/>
       <c r="M89" s="3"/>
     </row>
-    <row r="90" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>220</v>
       </c>
@@ -15358,7 +15449,7 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
     </row>
-    <row r="91" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>44</v>
       </c>
@@ -15375,7 +15466,7 @@
       <c r="L91" s="3"/>
       <c r="M91" s="3"/>
     </row>
-    <row r="92" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>40</v>
       </c>
@@ -15394,7 +15485,7 @@
       <c r="L92" s="3"/>
       <c r="M92" s="3"/>
     </row>
-    <row r="93" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>41</v>
       </c>
@@ -15413,7 +15504,7 @@
       <c r="L93" s="3"/>
       <c r="M93" s="3"/>
     </row>
-    <row r="94" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>163.87799999999999</v>
       </c>
@@ -15432,7 +15523,7 @@
       <c r="L94" s="3"/>
       <c r="M94" s="3"/>
     </row>
-    <row r="95" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <v>177.90799999999999</v>
       </c>
@@ -15451,7 +15542,7 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
     </row>
-    <row r="96" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>191.93899999999999</v>
       </c>
@@ -15470,7 +15561,7 @@
       <c r="L96" s="3"/>
       <c r="M96" s="3"/>
     </row>
-    <row r="97" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>205.97</v>
       </c>
@@ -15489,7 +15580,7 @@
       <c r="L97" s="3"/>
       <c r="M97" s="3"/>
     </row>
-    <row r="98" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>220</v>
       </c>
@@ -15508,7 +15599,7 @@
       <c r="L98" s="3"/>
       <c r="M98" s="3"/>
     </row>
-    <row r="99" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>45</v>
       </c>
@@ -15525,7 +15616,7 @@
       <c r="L99" s="3"/>
       <c r="M99" s="3"/>
     </row>
-    <row r="100" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>46</v>
       </c>
@@ -15544,7 +15635,7 @@
       <c r="L100" s="3"/>
       <c r="M100" s="3"/>
     </row>
-    <row r="101" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>40</v>
       </c>
@@ -15563,7 +15654,7 @@
       <c r="L101" s="3"/>
       <c r="M101" s="3"/>
     </row>
-    <row r="102" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>47</v>
       </c>
@@ -15600,7 +15691,7 @@
       <c r="L102" s="3"/>
       <c r="M102" s="3"/>
     </row>
-    <row r="103" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <v>-4.49</v>
       </c>
@@ -15637,7 +15728,7 @@
       <c r="L103" s="3"/>
       <c r="M103" s="3"/>
     </row>
-    <row r="104" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
         <v>6.2</v>
       </c>
@@ -15674,7 +15765,7 @@
       <c r="L104" s="3"/>
       <c r="M104" s="3"/>
     </row>
-    <row r="105" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
         <v>16.89</v>
       </c>
@@ -15711,7 +15802,7 @@
       <c r="L105" s="3"/>
       <c r="M105" s="3"/>
     </row>
-    <row r="106" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
         <v>27.58</v>
       </c>
@@ -15748,7 +15839,7 @@
       <c r="L106" s="3"/>
       <c r="M106" s="3"/>
     </row>
-    <row r="107" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
         <v>38.270000000000003</v>
       </c>
@@ -15785,7 +15876,7 @@
       <c r="L107" s="3"/>
       <c r="M107" s="3"/>
     </row>
-    <row r="108" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
         <v>48.96</v>
       </c>
@@ -15822,7 +15913,7 @@
       <c r="L108" s="3"/>
       <c r="M108" s="3"/>
     </row>
-    <row r="109" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
         <v>59.65</v>
       </c>
@@ -15859,7 +15950,7 @@
       <c r="L109" s="3"/>
       <c r="M109" s="3"/>
     </row>
-    <row r="110" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
         <v>70.34</v>
       </c>
@@ -15896,7 +15987,7 @@
       <c r="L110" s="3"/>
       <c r="M110" s="3"/>
     </row>
-    <row r="111" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
         <v>81.03</v>
       </c>
@@ -15933,7 +16024,7 @@
       <c r="L111" s="3"/>
       <c r="M111" s="3"/>
     </row>
-    <row r="112" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="5">
         <v>91.72</v>
       </c>
@@ -15970,7 +16061,7 @@
       <c r="L112" s="3"/>
       <c r="M112" s="3"/>
     </row>
-    <row r="113" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="5">
         <v>102.41</v>
       </c>
@@ -16007,7 +16098,7 @@
       <c r="L113" s="3"/>
       <c r="M113" s="3"/>
     </row>
-    <row r="114" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
         <v>113.1</v>
       </c>
@@ -16044,7 +16135,7 @@
       <c r="L114" s="3"/>
       <c r="M114" s="3"/>
     </row>
-    <row r="115" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
         <v>123.79</v>
       </c>
@@ -16081,7 +16172,7 @@
       <c r="L115" s="3"/>
       <c r="M115" s="3"/>
     </row>
-    <row r="116" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
         <v>134.47999999999999</v>
       </c>
@@ -16118,7 +16209,7 @@
       <c r="L116" s="3"/>
       <c r="M116" s="3"/>
     </row>
-    <row r="117" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="5">
         <v>145.16999999999999</v>
       </c>
@@ -16155,7 +16246,7 @@
       <c r="L117" s="3"/>
       <c r="M117" s="3"/>
     </row>
-    <row r="118" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="5">
         <v>155.86000000000001</v>
       </c>
@@ -16192,7 +16283,7 @@
       <c r="L118" s="3"/>
       <c r="M118" s="3"/>
     </row>
-    <row r="119" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="5">
         <v>166.55</v>
       </c>
@@ -16229,7 +16320,7 @@
       <c r="L119" s="3"/>
       <c r="M119" s="3"/>
     </row>
-    <row r="120" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
         <v>177.24</v>
       </c>
@@ -16266,7 +16357,7 @@
       <c r="L120" s="3"/>
       <c r="M120" s="3"/>
     </row>
-    <row r="121" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
         <v>187.93</v>
       </c>
@@ -16303,7 +16394,7 @@
       <c r="L121" s="3"/>
       <c r="M121" s="3"/>
     </row>
-    <row r="122" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
         <v>198.62</v>
       </c>
@@ -16340,7 +16431,7 @@
       <c r="L122" s="3"/>
       <c r="M122" s="3"/>
     </row>
-    <row r="123" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="5">
         <v>209.31</v>
       </c>
@@ -16377,7 +16468,7 @@
       <c r="L123" s="3"/>
       <c r="M123" s="3"/>
     </row>
-    <row r="124" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
         <v>220</v>
       </c>
@@ -16414,7 +16505,7 @@
       <c r="L124" s="3"/>
       <c r="M124" s="3"/>
     </row>
-    <row r="125" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>58</v>
       </c>
@@ -16431,7 +16522,7 @@
       <c r="L125" s="3"/>
       <c r="M125" s="3"/>
     </row>
-    <row r="126" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>59</v>
       </c>
@@ -16450,7 +16541,7 @@
       <c r="L126" s="3"/>
       <c r="M126" s="3"/>
     </row>
-    <row r="127" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>60</v>
       </c>
@@ -16469,7 +16560,7 @@
       <c r="L127" s="3"/>
       <c r="M127" s="3"/>
     </row>
-    <row r="128" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>61</v>
       </c>
@@ -16488,7 +16579,7 @@
       <c r="L128" s="3"/>
       <c r="M128" s="3"/>
     </row>
-    <row r="129" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>62</v>
       </c>
@@ -16507,7 +16598,7 @@
       <c r="L129" s="3"/>
       <c r="M129" s="3"/>
     </row>
-    <row r="130" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>63</v>
       </c>
@@ -16526,7 +16617,7 @@
       <c r="L130" s="3"/>
       <c r="M130" s="3"/>
     </row>
-    <row r="131" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>64</v>
       </c>
@@ -16545,7 +16636,7 @@
       <c r="L131" s="3"/>
       <c r="M131" s="3"/>
     </row>
-    <row r="132" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>65</v>
       </c>
@@ -16564,7 +16655,7 @@
       <c r="L132" s="3"/>
       <c r="M132" s="3"/>
     </row>
-    <row r="133" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>66</v>
       </c>
@@ -16583,7 +16674,7 @@
       <c r="L133" s="3"/>
       <c r="M133" s="3"/>
     </row>
-    <row r="134" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>7</v>
       </c>
@@ -16602,7 +16693,7 @@
       <c r="L134" s="3"/>
       <c r="M134" s="3"/>
     </row>
-    <row r="135" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>67</v>
       </c>
@@ -16621,7 +16712,7 @@
       <c r="L135" s="3"/>
       <c r="M135" s="3"/>
     </row>
-    <row r="136" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>68</v>
       </c>
@@ -16640,7 +16731,7 @@
       <c r="L136" s="3"/>
       <c r="M136" s="3"/>
     </row>
-    <row r="137" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>69</v>
       </c>
@@ -16659,7 +16750,7 @@
       <c r="L137" s="3"/>
       <c r="M137" s="3"/>
     </row>
-    <row r="138" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>12</v>
       </c>
@@ -16678,7 +16769,7 @@
       <c r="L138" s="3"/>
       <c r="M138" s="3"/>
     </row>
-    <row r="139" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>70</v>
       </c>
@@ -16697,7 +16788,7 @@
       <c r="L139" s="3"/>
       <c r="M139" s="3"/>
     </row>
-    <row r="140" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>71</v>
       </c>
@@ -16716,7 +16807,7 @@
       <c r="L140" s="3"/>
       <c r="M140" s="3"/>
     </row>
-    <row r="141" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
         <v>72</v>
       </c>
@@ -16735,7 +16826,7 @@
       <c r="L141" s="3"/>
       <c r="M141" s="3"/>
     </row>
-    <row r="142" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
         <v>73</v>
       </c>
@@ -16754,7 +16845,7 @@
       <c r="L142" s="3"/>
       <c r="M142" s="3"/>
     </row>
-    <row r="143" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>74</v>
       </c>
@@ -16773,7 +16864,7 @@
       <c r="L143" s="3"/>
       <c r="M143" s="3"/>
     </row>
-    <row r="144" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>75</v>
       </c>
@@ -16792,7 +16883,7 @@
       <c r="L144" s="3"/>
       <c r="M144" s="3"/>
     </row>
-    <row r="145" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
         <v>76</v>
       </c>
@@ -16811,7 +16902,7 @@
       <c r="L145" s="3"/>
       <c r="M145" s="3"/>
     </row>
-    <row r="146" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>77</v>
       </c>
@@ -16830,7 +16921,7 @@
       <c r="L146" s="3"/>
       <c r="M146" s="3"/>
     </row>
-    <row r="147" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
         <v>78</v>
       </c>
@@ -16847,7 +16938,7 @@
       <c r="L147" s="3"/>
       <c r="M147" s="3"/>
     </row>
-    <row r="148" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>79</v>
       </c>
@@ -16864,7 +16955,7 @@
       <c r="L148" s="3"/>
       <c r="M148" s="3"/>
     </row>
-    <row r="149" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
         <v>80</v>
       </c>
@@ -16905,7 +16996,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="6">
         <v>19</v>
       </c>
@@ -16946,7 +17037,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
         <v>93</v>
       </c>
@@ -16963,7 +17054,7 @@
       <c r="L151" s="3"/>
       <c r="M151" s="3"/>
     </row>
-    <row r="152" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>40</v>
       </c>
@@ -16982,7 +17073,7 @@
       <c r="L152" s="3"/>
       <c r="M152" s="3"/>
     </row>
-    <row r="153" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
         <v>80</v>
       </c>
@@ -17023,7 +17114,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
         <v>6</v>
       </c>
@@ -17064,7 +17155,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
         <v>7</v>
       </c>
@@ -17105,7 +17196,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
         <v>8</v>
       </c>
@@ -17146,7 +17237,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="6">
         <v>9</v>
       </c>
@@ -17187,7 +17278,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="6">
         <v>10</v>
       </c>
@@ -17228,7 +17319,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="6">
         <v>11</v>
       </c>
@@ -17269,7 +17360,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="6">
         <v>12</v>
       </c>
@@ -17310,7 +17401,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="6">
         <v>13</v>
       </c>
@@ -17351,7 +17442,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="6">
         <v>14</v>
       </c>
@@ -17392,7 +17483,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="6">
         <v>15</v>
       </c>
@@ -17433,7 +17524,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="6">
         <v>16</v>
       </c>
@@ -17474,7 +17565,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="6">
         <v>17</v>
       </c>
@@ -17515,7 +17606,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="6">
         <v>18</v>
       </c>
@@ -17556,7 +17647,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="6">
         <v>19</v>
       </c>
@@ -17597,7 +17688,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="6">
         <v>20</v>
       </c>
@@ -17638,7 +17729,7 @@
         <v>0.16727924349574899</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
         <v>94</v>
       </c>
@@ -17655,7 +17746,7 @@
       <c r="L169" s="3"/>
       <c r="M169" s="3"/>
     </row>
-    <row r="170" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>95</v>
       </c>
@@ -17672,7 +17763,7 @@
       <c r="L170" s="3"/>
       <c r="M170" s="3"/>
     </row>
-    <row r="171" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
         <v>96</v>
       </c>
@@ -17689,7 +17780,7 @@
       <c r="L171" s="3"/>
       <c r="M171" s="3"/>
     </row>
-    <row r="172" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
         <v>97</v>
       </c>
@@ -17708,7 +17799,7 @@
       <c r="L172" s="3"/>
       <c r="M172" s="3"/>
     </row>
-    <row r="173" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
         <v>98</v>
       </c>
@@ -17725,7 +17816,7 @@
       <c r="L173" s="3"/>
       <c r="M173" s="3"/>
     </row>
-    <row r="174" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
         <v>99</v>
       </c>
@@ -17742,7 +17833,7 @@
       <c r="L174" s="3"/>
       <c r="M174" s="3"/>
     </row>
-    <row r="175" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
         <v>100</v>
       </c>
@@ -17759,7 +17850,7 @@
       <c r="L175" s="3"/>
       <c r="M175" s="3"/>
     </row>
-    <row r="176" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
         <v>101</v>
       </c>
@@ -17778,7 +17869,7 @@
       <c r="L176" s="3"/>
       <c r="M176" s="3"/>
     </row>
-    <row r="177" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
         <v>102</v>
       </c>
@@ -17797,7 +17888,7 @@
       <c r="L177" s="3"/>
       <c r="M177" s="3"/>
     </row>
-    <row r="178" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
         <v>103</v>
       </c>
@@ -17816,7 +17907,7 @@
       <c r="L178" s="3"/>
       <c r="M178" s="3"/>
     </row>
-    <row r="179" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
         <v>104</v>
       </c>
@@ -17833,7 +17924,7 @@
       <c r="L179" s="3"/>
       <c r="M179" s="3"/>
     </row>
-    <row r="180" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
         <v>105</v>
       </c>
@@ -17850,7 +17941,7 @@
       <c r="L180" s="3"/>
       <c r="M180" s="3"/>
     </row>
-    <row r="181" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
         <v>106</v>
       </c>
@@ -17869,7 +17960,7 @@
       <c r="L181" s="3"/>
       <c r="M181" s="3"/>
     </row>
-    <row r="182" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
         <v>107</v>
       </c>
@@ -17888,7 +17979,7 @@
       <c r="L182" s="3"/>
       <c r="M182" s="3"/>
     </row>
-    <row r="183" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
         <v>109</v>
       </c>
@@ -17910,29 +18001,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:M183"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="14.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="14.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.140625" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -17947,7 +18040,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -17966,7 +18059,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -17985,7 +18078,7 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -18004,7 +18097,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -18023,7 +18116,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -18042,7 +18135,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -18061,7 +18154,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -18080,7 +18173,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -18099,7 +18192,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -18116,7 +18209,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -18135,7 +18228,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -18154,7 +18247,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -18173,7 +18266,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -18192,7 +18285,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
@@ -18209,7 +18302,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
@@ -18228,7 +18321,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
@@ -18247,7 +18340,7 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
@@ -18270,7 +18363,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
@@ -18287,7 +18380,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
@@ -18306,7 +18399,7 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
@@ -18325,7 +18418,7 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
@@ -18348,7 +18441,7 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
@@ -18371,7 +18464,7 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>22</v>
       </c>
@@ -18390,7 +18483,7 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>23</v>
       </c>
@@ -18409,7 +18502,7 @@
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>24</v>
       </c>
@@ -18426,7 +18519,7 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>25</v>
       </c>
@@ -18445,7 +18538,7 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>26</v>
       </c>
@@ -18468,7 +18561,7 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>27</v>
       </c>
@@ -18491,7 +18584,7 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>28</v>
       </c>
@@ -18510,7 +18603,7 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>29</v>
       </c>
@@ -18529,7 +18622,7 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
     </row>
-    <row r="32" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>30</v>
       </c>
@@ -18548,7 +18641,7 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
     </row>
-    <row r="33" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>31</v>
       </c>
@@ -18565,7 +18658,7 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
     </row>
-    <row r="34" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>32</v>
       </c>
@@ -18584,7 +18677,7 @@
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
     </row>
-    <row r="35" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>33</v>
       </c>
@@ -18607,7 +18700,7 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
     </row>
-    <row r="36" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>34</v>
       </c>
@@ -18626,7 +18719,7 @@
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
     </row>
-    <row r="37" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>35</v>
       </c>
@@ -18645,7 +18738,7 @@
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
     </row>
-    <row r="38" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>36</v>
       </c>
@@ -18664,7 +18757,7 @@
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
     </row>
-    <row r="39" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>37</v>
       </c>
@@ -18687,7 +18780,7 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
     </row>
-    <row r="40" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>38</v>
       </c>
@@ -18710,7 +18803,7 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
     </row>
-    <row r="41" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>39</v>
       </c>
@@ -18727,7 +18820,7 @@
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
     </row>
-    <row r="42" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>40</v>
       </c>
@@ -18746,7 +18839,7 @@
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
     </row>
-    <row r="43" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>41</v>
       </c>
@@ -18765,7 +18858,7 @@
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
     </row>
-    <row r="44" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>6.3979999999999997</v>
       </c>
@@ -18784,7 +18877,7 @@
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
     </row>
-    <row r="45" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>16.57</v>
       </c>
@@ -18803,7 +18896,7 @@
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
     </row>
-    <row r="46" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>26.741</v>
       </c>
@@ -18822,7 +18915,7 @@
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
     </row>
-    <row r="47" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>36.912999999999997</v>
       </c>
@@ -18841,7 +18934,7 @@
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
     </row>
-    <row r="48" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>47.084000000000003</v>
       </c>
@@ -18860,7 +18953,7 @@
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
     </row>
-    <row r="49" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>57.256</v>
       </c>
@@ -18879,7 +18972,7 @@
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
     </row>
-    <row r="50" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>67.427000000000007</v>
       </c>
@@ -18898,7 +18991,7 @@
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
     </row>
-    <row r="51" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>77.599000000000004</v>
       </c>
@@ -18917,7 +19010,7 @@
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
     </row>
-    <row r="52" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>87.77</v>
       </c>
@@ -18936,7 +19029,7 @@
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
     </row>
-    <row r="53" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>97.941999999999993</v>
       </c>
@@ -18955,7 +19048,7 @@
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
     </row>
-    <row r="54" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>108.113</v>
       </c>
@@ -18974,7 +19067,7 @@
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
     </row>
-    <row r="55" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>118.285</v>
       </c>
@@ -18993,7 +19086,7 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
     </row>
-    <row r="56" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>128.45599999999999</v>
       </c>
@@ -19012,7 +19105,7 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
     </row>
-    <row r="57" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>138.62799999999999</v>
       </c>
@@ -19031,7 +19124,7 @@
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
     </row>
-    <row r="58" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>148.80000000000001</v>
       </c>
@@ -19050,7 +19143,7 @@
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
     </row>
-    <row r="59" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>158.971</v>
       </c>
@@ -19069,7 +19162,7 @@
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
     </row>
-    <row r="60" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>169.143</v>
       </c>
@@ -19088,7 +19181,7 @@
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
     </row>
-    <row r="61" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>179.31399999999999</v>
       </c>
@@ -19107,7 +19200,7 @@
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
     </row>
-    <row r="62" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>189.48599999999999</v>
       </c>
@@ -19126,7 +19219,7 @@
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
     </row>
-    <row r="63" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>199.65700000000001</v>
       </c>
@@ -19145,7 +19238,7 @@
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
     </row>
-    <row r="64" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>209.82900000000001</v>
       </c>
@@ -19164,7 +19257,7 @@
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
     </row>
-    <row r="65" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>220</v>
       </c>
@@ -19183,7 +19276,7 @@
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
     </row>
-    <row r="66" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>43</v>
       </c>
@@ -19200,7 +19293,7 @@
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
     </row>
-    <row r="67" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>40</v>
       </c>
@@ -19219,7 +19312,7 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
     </row>
-    <row r="68" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>41</v>
       </c>
@@ -19238,7 +19331,7 @@
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
     </row>
-    <row r="69" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>-4.49</v>
       </c>
@@ -19257,7 +19350,7 @@
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
     </row>
-    <row r="70" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>6.2</v>
       </c>
@@ -19276,7 +19369,7 @@
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
     </row>
-    <row r="71" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>16.89</v>
       </c>
@@ -19295,7 +19388,7 @@
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
     </row>
-    <row r="72" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>27.58</v>
       </c>
@@ -19314,7 +19407,7 @@
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
     </row>
-    <row r="73" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>38.270000000000003</v>
       </c>
@@ -19333,7 +19426,7 @@
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
     </row>
-    <row r="74" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>48.96</v>
       </c>
@@ -19352,7 +19445,7 @@
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
     </row>
-    <row r="75" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>59.65</v>
       </c>
@@ -19371,7 +19464,7 @@
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
     </row>
-    <row r="76" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>70.34</v>
       </c>
@@ -19390,7 +19483,7 @@
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
     </row>
-    <row r="77" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>81.03</v>
       </c>
@@ -19409,7 +19502,7 @@
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
     </row>
-    <row r="78" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>91.72</v>
       </c>
@@ -19428,7 +19521,7 @@
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
     </row>
-    <row r="79" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>102.41</v>
       </c>
@@ -19447,7 +19540,7 @@
       <c r="L79" s="3"/>
       <c r="M79" s="3"/>
     </row>
-    <row r="80" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>113.1</v>
       </c>
@@ -19466,7 +19559,7 @@
       <c r="L80" s="3"/>
       <c r="M80" s="3"/>
     </row>
-    <row r="81" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>123.79</v>
       </c>
@@ -19485,7 +19578,7 @@
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
     </row>
-    <row r="82" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>134.47999999999999</v>
       </c>
@@ -19504,7 +19597,7 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
     </row>
-    <row r="83" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>145.16999999999999</v>
       </c>
@@ -19523,7 +19616,7 @@
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>
     </row>
-    <row r="84" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>155.86000000000001</v>
       </c>
@@ -19542,7 +19635,7 @@
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
     </row>
-    <row r="85" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>166.55</v>
       </c>
@@ -19561,7 +19654,7 @@
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
     </row>
-    <row r="86" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>177.24</v>
       </c>
@@ -19580,7 +19673,7 @@
       <c r="L86" s="3"/>
       <c r="M86" s="3"/>
     </row>
-    <row r="87" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>187.93</v>
       </c>
@@ -19599,7 +19692,7 @@
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
     </row>
-    <row r="88" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>198.62</v>
       </c>
@@ -19618,7 +19711,7 @@
       <c r="L88" s="3"/>
       <c r="M88" s="3"/>
     </row>
-    <row r="89" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>209.31</v>
       </c>
@@ -19637,7 +19730,7 @@
       <c r="L89" s="3"/>
       <c r="M89" s="3"/>
     </row>
-    <row r="90" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>220</v>
       </c>
@@ -19656,7 +19749,7 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
     </row>
-    <row r="91" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>44</v>
       </c>
@@ -19673,7 +19766,7 @@
       <c r="L91" s="3"/>
       <c r="M91" s="3"/>
     </row>
-    <row r="92" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>40</v>
       </c>
@@ -19692,7 +19785,7 @@
       <c r="L92" s="3"/>
       <c r="M92" s="3"/>
     </row>
-    <row r="93" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>41</v>
       </c>
@@ -19711,7 +19804,7 @@
       <c r="L93" s="3"/>
       <c r="M93" s="3"/>
     </row>
-    <row r="94" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>163.87799999999999</v>
       </c>
@@ -19730,7 +19823,7 @@
       <c r="L94" s="3"/>
       <c r="M94" s="3"/>
     </row>
-    <row r="95" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <v>177.90799999999999</v>
       </c>
@@ -19749,7 +19842,7 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
     </row>
-    <row r="96" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>191.93899999999999</v>
       </c>
@@ -19768,7 +19861,7 @@
       <c r="L96" s="3"/>
       <c r="M96" s="3"/>
     </row>
-    <row r="97" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>205.97</v>
       </c>
@@ -19787,7 +19880,7 @@
       <c r="L97" s="3"/>
       <c r="M97" s="3"/>
     </row>
-    <row r="98" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>220</v>
       </c>
@@ -19806,7 +19899,7 @@
       <c r="L98" s="3"/>
       <c r="M98" s="3"/>
     </row>
-    <row r="99" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>45</v>
       </c>
@@ -19823,7 +19916,7 @@
       <c r="L99" s="3"/>
       <c r="M99" s="3"/>
     </row>
-    <row r="100" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>46</v>
       </c>
@@ -19842,7 +19935,7 @@
       <c r="L100" s="3"/>
       <c r="M100" s="3"/>
     </row>
-    <row r="101" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>40</v>
       </c>
@@ -19861,7 +19954,7 @@
       <c r="L101" s="3"/>
       <c r="M101" s="3"/>
     </row>
-    <row r="102" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>47</v>
       </c>
@@ -19898,7 +19991,7 @@
       <c r="L102" s="3"/>
       <c r="M102" s="3"/>
     </row>
-    <row r="103" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <v>-4.49</v>
       </c>
@@ -19935,7 +20028,7 @@
       <c r="L103" s="3"/>
       <c r="M103" s="3"/>
     </row>
-    <row r="104" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
         <v>6.2</v>
       </c>
@@ -19972,7 +20065,7 @@
       <c r="L104" s="3"/>
       <c r="M104" s="3"/>
     </row>
-    <row r="105" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
         <v>16.89</v>
       </c>
@@ -20009,7 +20102,7 @@
       <c r="L105" s="3"/>
       <c r="M105" s="3"/>
     </row>
-    <row r="106" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
         <v>27.58</v>
       </c>
@@ -20046,7 +20139,7 @@
       <c r="L106" s="3"/>
       <c r="M106" s="3"/>
     </row>
-    <row r="107" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
         <v>38.270000000000003</v>
       </c>
@@ -20083,7 +20176,7 @@
       <c r="L107" s="3"/>
       <c r="M107" s="3"/>
     </row>
-    <row r="108" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
         <v>48.96</v>
       </c>
@@ -20120,7 +20213,7 @@
       <c r="L108" s="3"/>
       <c r="M108" s="3"/>
     </row>
-    <row r="109" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
         <v>59.65</v>
       </c>
@@ -20157,7 +20250,7 @@
       <c r="L109" s="3"/>
       <c r="M109" s="3"/>
     </row>
-    <row r="110" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
         <v>70.34</v>
       </c>
@@ -20194,7 +20287,7 @@
       <c r="L110" s="3"/>
       <c r="M110" s="3"/>
     </row>
-    <row r="111" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
         <v>81.03</v>
       </c>
@@ -20231,7 +20324,7 @@
       <c r="L111" s="3"/>
       <c r="M111" s="3"/>
     </row>
-    <row r="112" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="5">
         <v>91.72</v>
       </c>
@@ -20268,7 +20361,7 @@
       <c r="L112" s="3"/>
       <c r="M112" s="3"/>
     </row>
-    <row r="113" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="5">
         <v>102.41</v>
       </c>
@@ -20305,7 +20398,7 @@
       <c r="L113" s="3"/>
       <c r="M113" s="3"/>
     </row>
-    <row r="114" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
         <v>113.1</v>
       </c>
@@ -20342,7 +20435,7 @@
       <c r="L114" s="3"/>
       <c r="M114" s="3"/>
     </row>
-    <row r="115" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
         <v>123.79</v>
       </c>
@@ -20379,7 +20472,7 @@
       <c r="L115" s="3"/>
       <c r="M115" s="3"/>
     </row>
-    <row r="116" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
         <v>134.47999999999999</v>
       </c>
@@ -20416,7 +20509,7 @@
       <c r="L116" s="3"/>
       <c r="M116" s="3"/>
     </row>
-    <row r="117" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="5">
         <v>145.16999999999999</v>
       </c>
@@ -20453,7 +20546,7 @@
       <c r="L117" s="3"/>
       <c r="M117" s="3"/>
     </row>
-    <row r="118" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="5">
         <v>155.86000000000001</v>
       </c>
@@ -20490,7 +20583,7 @@
       <c r="L118" s="3"/>
       <c r="M118" s="3"/>
     </row>
-    <row r="119" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="5">
         <v>166.55</v>
       </c>
@@ -20527,7 +20620,7 @@
       <c r="L119" s="3"/>
       <c r="M119" s="3"/>
     </row>
-    <row r="120" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
         <v>177.24</v>
       </c>
@@ -20564,7 +20657,7 @@
       <c r="L120" s="3"/>
       <c r="M120" s="3"/>
     </row>
-    <row r="121" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
         <v>187.93</v>
       </c>
@@ -20601,7 +20694,7 @@
       <c r="L121" s="3"/>
       <c r="M121" s="3"/>
     </row>
-    <row r="122" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
         <v>198.62</v>
       </c>
@@ -20638,7 +20731,7 @@
       <c r="L122" s="3"/>
       <c r="M122" s="3"/>
     </row>
-    <row r="123" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="5">
         <v>209.31</v>
       </c>
@@ -20675,7 +20768,7 @@
       <c r="L123" s="3"/>
       <c r="M123" s="3"/>
     </row>
-    <row r="124" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
         <v>220</v>
       </c>
@@ -20712,7 +20805,7 @@
       <c r="L124" s="3"/>
       <c r="M124" s="3"/>
     </row>
-    <row r="125" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>58</v>
       </c>
@@ -20729,7 +20822,7 @@
       <c r="L125" s="3"/>
       <c r="M125" s="3"/>
     </row>
-    <row r="126" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>59</v>
       </c>
@@ -20748,7 +20841,7 @@
       <c r="L126" s="3"/>
       <c r="M126" s="3"/>
     </row>
-    <row r="127" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>60</v>
       </c>
@@ -20767,7 +20860,7 @@
       <c r="L127" s="3"/>
       <c r="M127" s="3"/>
     </row>
-    <row r="128" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>61</v>
       </c>
@@ -20786,7 +20879,7 @@
       <c r="L128" s="3"/>
       <c r="M128" s="3"/>
     </row>
-    <row r="129" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>62</v>
       </c>
@@ -20805,7 +20898,7 @@
       <c r="L129" s="3"/>
       <c r="M129" s="3"/>
     </row>
-    <row r="130" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>63</v>
       </c>
@@ -20824,7 +20917,7 @@
       <c r="L130" s="3"/>
       <c r="M130" s="3"/>
     </row>
-    <row r="131" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>64</v>
       </c>
@@ -20843,7 +20936,7 @@
       <c r="L131" s="3"/>
       <c r="M131" s="3"/>
     </row>
-    <row r="132" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>65</v>
       </c>
@@ -20862,7 +20955,7 @@
       <c r="L132" s="3"/>
       <c r="M132" s="3"/>
     </row>
-    <row r="133" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>66</v>
       </c>
@@ -20881,7 +20974,7 @@
       <c r="L133" s="3"/>
       <c r="M133" s="3"/>
     </row>
-    <row r="134" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>7</v>
       </c>
@@ -20900,7 +20993,7 @@
       <c r="L134" s="3"/>
       <c r="M134" s="3"/>
     </row>
-    <row r="135" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>67</v>
       </c>
@@ -20919,7 +21012,7 @@
       <c r="L135" s="3"/>
       <c r="M135" s="3"/>
     </row>
-    <row r="136" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>68</v>
       </c>
@@ -20938,7 +21031,7 @@
       <c r="L136" s="3"/>
       <c r="M136" s="3"/>
     </row>
-    <row r="137" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>69</v>
       </c>
@@ -20957,7 +21050,7 @@
       <c r="L137" s="3"/>
       <c r="M137" s="3"/>
     </row>
-    <row r="138" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>12</v>
       </c>
@@ -20976,7 +21069,7 @@
       <c r="L138" s="3"/>
       <c r="M138" s="3"/>
     </row>
-    <row r="139" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>70</v>
       </c>
@@ -20995,7 +21088,7 @@
       <c r="L139" s="3"/>
       <c r="M139" s="3"/>
     </row>
-    <row r="140" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>71</v>
       </c>
@@ -21014,7 +21107,7 @@
       <c r="L140" s="3"/>
       <c r="M140" s="3"/>
     </row>
-    <row r="141" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
         <v>72</v>
       </c>
@@ -21033,7 +21126,7 @@
       <c r="L141" s="3"/>
       <c r="M141" s="3"/>
     </row>
-    <row r="142" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
         <v>73</v>
       </c>
@@ -21052,7 +21145,7 @@
       <c r="L142" s="3"/>
       <c r="M142" s="3"/>
     </row>
-    <row r="143" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>74</v>
       </c>
@@ -21071,7 +21164,7 @@
       <c r="L143" s="3"/>
       <c r="M143" s="3"/>
     </row>
-    <row r="144" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>75</v>
       </c>
@@ -21090,7 +21183,7 @@
       <c r="L144" s="3"/>
       <c r="M144" s="3"/>
     </row>
-    <row r="145" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
         <v>76</v>
       </c>
@@ -21109,7 +21202,7 @@
       <c r="L145" s="3"/>
       <c r="M145" s="3"/>
     </row>
-    <row r="146" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>77</v>
       </c>
@@ -21128,7 +21221,7 @@
       <c r="L146" s="3"/>
       <c r="M146" s="3"/>
     </row>
-    <row r="147" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
         <v>78</v>
       </c>
@@ -21145,7 +21238,7 @@
       <c r="L147" s="3"/>
       <c r="M147" s="3"/>
     </row>
-    <row r="148" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>79</v>
       </c>
@@ -21162,7 +21255,7 @@
       <c r="L148" s="3"/>
       <c r="M148" s="3"/>
     </row>
-    <row r="149" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
         <v>80</v>
       </c>
@@ -21203,7 +21296,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="6">
         <v>19</v>
       </c>
@@ -21244,7 +21337,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
         <v>93</v>
       </c>
@@ -21261,7 +21354,7 @@
       <c r="L151" s="3"/>
       <c r="M151" s="3"/>
     </row>
-    <row r="152" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>40</v>
       </c>
@@ -21280,7 +21373,7 @@
       <c r="L152" s="3"/>
       <c r="M152" s="3"/>
     </row>
-    <row r="153" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
         <v>80</v>
       </c>
@@ -21321,7 +21414,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
         <v>6</v>
       </c>
@@ -21362,7 +21455,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
         <v>7</v>
       </c>
@@ -21403,7 +21496,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
         <v>8</v>
       </c>
@@ -21444,7 +21537,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="6">
         <v>9</v>
       </c>
@@ -21485,7 +21578,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="6">
         <v>10</v>
       </c>
@@ -21526,7 +21619,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="6">
         <v>11</v>
       </c>
@@ -21567,7 +21660,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="6">
         <v>12</v>
       </c>
@@ -21608,7 +21701,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="6">
         <v>13</v>
       </c>
@@ -21649,7 +21742,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="6">
         <v>14</v>
       </c>
@@ -21690,7 +21783,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="6">
         <v>15</v>
       </c>
@@ -21731,7 +21824,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="6">
         <v>16</v>
       </c>
@@ -21772,7 +21865,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="6">
         <v>17</v>
       </c>
@@ -21813,7 +21906,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="6">
         <v>18</v>
       </c>
@@ -21854,7 +21947,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="6">
         <v>19</v>
       </c>
@@ -21895,7 +21988,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="6">
         <v>20</v>
       </c>
@@ -21936,7 +22029,7 @@
         <v>0.16724610481798199</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
         <v>94</v>
       </c>
@@ -21953,7 +22046,7 @@
       <c r="L169" s="3"/>
       <c r="M169" s="3"/>
     </row>
-    <row r="170" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>95</v>
       </c>
@@ -21970,7 +22063,7 @@
       <c r="L170" s="3"/>
       <c r="M170" s="3"/>
     </row>
-    <row r="171" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
         <v>96</v>
       </c>
@@ -21987,7 +22080,7 @@
       <c r="L171" s="3"/>
       <c r="M171" s="3"/>
     </row>
-    <row r="172" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
         <v>97</v>
       </c>
@@ -22006,7 +22099,7 @@
       <c r="L172" s="3"/>
       <c r="M172" s="3"/>
     </row>
-    <row r="173" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
         <v>98</v>
       </c>
@@ -22023,7 +22116,7 @@
       <c r="L173" s="3"/>
       <c r="M173" s="3"/>
     </row>
-    <row r="174" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
         <v>99</v>
       </c>
@@ -22040,7 +22133,7 @@
       <c r="L174" s="3"/>
       <c r="M174" s="3"/>
     </row>
-    <row r="175" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
         <v>100</v>
       </c>
@@ -22057,7 +22150,7 @@
       <c r="L175" s="3"/>
       <c r="M175" s="3"/>
     </row>
-    <row r="176" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
         <v>101</v>
       </c>
@@ -22076,7 +22169,7 @@
       <c r="L176" s="3"/>
       <c r="M176" s="3"/>
     </row>
-    <row r="177" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
         <v>102</v>
       </c>
@@ -22095,7 +22188,7 @@
       <c r="L177" s="3"/>
       <c r="M177" s="3"/>
     </row>
-    <row r="178" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
         <v>103</v>
       </c>
@@ -22114,7 +22207,7 @@
       <c r="L178" s="3"/>
       <c r="M178" s="3"/>
     </row>
-    <row r="179" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
         <v>104</v>
       </c>
@@ -22131,7 +22224,7 @@
       <c r="L179" s="3"/>
       <c r="M179" s="3"/>
     </row>
-    <row r="180" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
         <v>105</v>
       </c>
@@ -22148,7 +22241,7 @@
       <c r="L180" s="3"/>
       <c r="M180" s="3"/>
     </row>
-    <row r="181" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
         <v>106</v>
       </c>
@@ -22167,7 +22260,7 @@
       <c r="L181" s="3"/>
       <c r="M181" s="3"/>
     </row>
-    <row r="182" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
         <v>107</v>
       </c>
@@ -22186,7 +22279,7 @@
       <c r="L182" s="3"/>
       <c r="M182" s="3"/>
     </row>
-    <row r="183" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
         <v>108</v>
       </c>

--- a/IP.xlsx
+++ b/IP.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomol\.spyder-py3\MT-1\IP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575719C0-35F3-481B-9417-1F61FC954675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C9B4F8-30D1-4C28-B192-3AA9DF546DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="VB schip van Goris" sheetId="1" r:id="rId1"/>
-    <sheet name="ik ben snelheid" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
-    <sheet name="Plaatdikte uitvogelen" sheetId="3" r:id="rId4"/>
-    <sheet name="Plaatdikte 2" sheetId="4" r:id="rId5"/>
-    <sheet name="Plaatdikte 3" sheetId="5" r:id="rId6"/>
-    <sheet name="Container" sheetId="7" r:id="rId7"/>
+    <sheet name="Container" sheetId="7" r:id="rId1"/>
+    <sheet name="VB schip van Goris" sheetId="1" r:id="rId2"/>
+    <sheet name="ik ben snelheid" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
+    <sheet name="Plaatdikte uitvogelen" sheetId="3" r:id="rId5"/>
+    <sheet name="Plaatdikte 2" sheetId="4" r:id="rId6"/>
+    <sheet name="Plaatdikte 3" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -794,6 +794,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4309077-2AFB-46BB-B10C-149960471737}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6">
+        <f>PRODUCT(B2:B4)</f>
+        <v>234</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -5093,7 +5146,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -9339,7 +9392,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EC7652-81C6-4C07-80F9-5511A8282806}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -9351,7 +9404,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -13650,7 +13703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -17948,7 +18001,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -22246,57 +22299,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4309077-2AFB-46BB-B10C-149960471737}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B6">
-        <f>PRODUCT(B2:B4)</f>
-        <v>234</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/IP.xlsx
+++ b/IP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2ee38df677a9f564/Documenten/Maritieme techniek/Q4/IP-26/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{51C9B4F8-30D1-4C28-B192-3AA9DF546DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F44715B-F1DB-4829-BF88-6A276DD6B53A}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{51C9B4F8-30D1-4C28-B192-3AA9DF546DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79D81901-B65A-493A-BFDE-4B541A568AA2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="122">
   <si>
     <t>Loa  [m]</t>
   </si>
@@ -401,7 +401,10 @@
     <t>aantal containers</t>
   </si>
   <si>
-    <t>Deck is 8107 mm from WL</t>
+    <t>NO WARNINGS</t>
+  </si>
+  <si>
+    <t>Deck is 6107 mm from WL</t>
   </si>
 </sst>
 </file>
@@ -505,6 +508,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5263,7 +5270,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="5">
-        <v>166.297</v>
+        <v>178.77699999999999</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -5356,7 +5363,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>5.9930000000000003</v>
+        <v>7.9930000000000003</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -5375,7 +5382,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="5">
-        <v>5.9930000000000003</v>
+        <v>7.9930000000000003</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -5394,7 +5401,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5">
-        <v>5.9930000000000003</v>
+        <v>7.9930000000000003</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -5449,7 +5456,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="5">
-        <v>7.9550000000000001</v>
+        <v>8.6760000000000002</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -5487,13 +5494,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="5">
-        <v>145.89099999999999</v>
+        <v>150.16800000000001</v>
       </c>
       <c r="C18" s="5">
-        <v>-5.9370000000000003</v>
+        <v>5.9370000000000003</v>
       </c>
       <c r="D18" s="5">
-        <v>5.9930000000000003</v>
+        <v>7.9930000000000003</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="2"/>
@@ -5527,7 +5534,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="5">
-        <v>9644.2039999999997</v>
+        <v>15602.788</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -5565,13 +5572,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="5">
-        <v>91.097999999999999</v>
+        <v>87.227000000000004</v>
       </c>
       <c r="C22" s="6">
         <v>0</v>
       </c>
       <c r="D22" s="5">
-        <v>3.81</v>
+        <v>5.0369999999999999</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="2"/>
@@ -5611,7 +5618,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="5">
-        <v>0.41470000000000001</v>
+        <v>0.4602</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -5630,7 +5637,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="5">
-        <v>0.44409999999999999</v>
+        <v>0.45839999999999997</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -5666,7 +5673,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="5">
-        <v>2717.1080000000002</v>
+        <v>3226.239</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -5685,13 +5692,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="5">
-        <v>83.891000000000005</v>
+        <v>78.320999999999998</v>
       </c>
       <c r="C28" s="6">
         <v>0</v>
       </c>
       <c r="D28" s="5">
-        <v>5.9930000000000003</v>
+        <v>7.9930000000000003</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="2"/>
@@ -5708,13 +5715,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="5">
-        <v>79110.831999999995</v>
+        <v>112593.193</v>
       </c>
       <c r="C29" s="5">
-        <v>4469700</v>
+        <v>6212700</v>
       </c>
       <c r="D29" s="5">
-        <v>4548800</v>
+        <v>6325300</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="2"/>
@@ -5731,7 +5738,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="5">
-        <v>3394.6550000000002</v>
+        <v>4338.9210000000003</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -5769,7 +5776,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="5">
-        <v>90.603999999999999</v>
+        <v>136.50700000000001</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -6002,7 +6009,7 @@
     </row>
     <row r="44" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
-        <v>10.131</v>
+        <v>-1.766</v>
       </c>
       <c r="B44" s="6">
         <v>0</v>
@@ -6021,10 +6028,10 @@
     </row>
     <row r="45" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
-        <v>18.05</v>
+        <v>6.7469999999999999</v>
       </c>
       <c r="B45" s="5">
-        <v>12.641999999999999</v>
+        <v>17.308</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -6040,10 +6047,10 @@
     </row>
     <row r="46" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
-        <v>25.969000000000001</v>
+        <v>15.26</v>
       </c>
       <c r="B46" s="5">
-        <v>28.516999999999999</v>
+        <v>38.776000000000003</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -6059,10 +6066,10 @@
     </row>
     <row r="47" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
-        <v>33.887</v>
+        <v>23.773</v>
       </c>
       <c r="B47" s="5">
-        <v>44.314</v>
+        <v>60.41</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -6078,10 +6085,10 @@
     </row>
     <row r="48" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
-        <v>41.805999999999997</v>
+        <v>32.286000000000001</v>
       </c>
       <c r="B48" s="5">
-        <v>58.838000000000001</v>
+        <v>80.897000000000006</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -6097,10 +6104,10 @@
     </row>
     <row r="49" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
-        <v>49.725000000000001</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="B49" s="5">
-        <v>71.260000000000005</v>
+        <v>99.245000000000005</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -6116,10 +6123,10 @@
     </row>
     <row r="50" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
-        <v>57.643999999999998</v>
+        <v>49.313000000000002</v>
       </c>
       <c r="B50" s="5">
-        <v>80.947999999999993</v>
+        <v>114.59699999999999</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -6135,10 +6142,10 @@
     </row>
     <row r="51" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
-        <v>65.563000000000002</v>
+        <v>57.826000000000001</v>
       </c>
       <c r="B51" s="5">
-        <v>87.456999999999994</v>
+        <v>126.221</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -6154,10 +6161,10 @@
     </row>
     <row r="52" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
-        <v>73.481999999999999</v>
+        <v>66.338999999999999</v>
       </c>
       <c r="B52" s="5">
-        <v>90.603999999999999</v>
+        <v>133.58799999999999</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -6173,10 +6180,10 @@
     </row>
     <row r="53" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
-        <v>81.400999999999996</v>
+        <v>74.852000000000004</v>
       </c>
       <c r="B53" s="5">
-        <v>90.600999999999999</v>
+        <v>136.50700000000001</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -6192,10 +6199,10 @@
     </row>
     <row r="54" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
-        <v>89.32</v>
+        <v>83.364999999999995</v>
       </c>
       <c r="B54" s="5">
-        <v>88.23</v>
+        <v>135.34700000000001</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -6211,10 +6218,10 @@
     </row>
     <row r="55" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
-        <v>97.239000000000004</v>
+        <v>91.879000000000005</v>
       </c>
       <c r="B55" s="5">
-        <v>84.662999999999997</v>
+        <v>131.321</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -6230,10 +6237,10 @@
     </row>
     <row r="56" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
-        <v>105.158</v>
+        <v>100.392</v>
       </c>
       <c r="B56" s="5">
-        <v>80.218999999999994</v>
+        <v>125.69</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -6249,10 +6256,10 @@
     </row>
     <row r="57" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
-        <v>113.07599999999999</v>
+        <v>108.905</v>
       </c>
       <c r="B57" s="5">
-        <v>75.010000000000005</v>
+        <v>118.566</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -6268,10 +6275,10 @@
     </row>
     <row r="58" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
-        <v>120.995</v>
+        <v>117.41800000000001</v>
       </c>
       <c r="B58" s="5">
-        <v>69.222999999999999</v>
+        <v>110.03100000000001</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -6287,10 +6294,10 @@
     </row>
     <row r="59" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
-        <v>128.91399999999999</v>
+        <v>125.931</v>
       </c>
       <c r="B59" s="5">
-        <v>63.021999999999998</v>
+        <v>100.262</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -6306,10 +6313,10 @@
     </row>
     <row r="60" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
-        <v>136.833</v>
+        <v>134.44399999999999</v>
       </c>
       <c r="B60" s="5">
-        <v>56.378999999999998</v>
+        <v>89.417000000000002</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -6325,10 +6332,10 @@
     </row>
     <row r="61" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
-        <v>144.75200000000001</v>
+        <v>142.958</v>
       </c>
       <c r="B61" s="5">
-        <v>48.936999999999998</v>
+        <v>77.349000000000004</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -6344,10 +6351,10 @@
     </row>
     <row r="62" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
-        <v>152.67099999999999</v>
+        <v>151.471</v>
       </c>
       <c r="B62" s="5">
-        <v>40.148000000000003</v>
+        <v>63.316000000000003</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -6363,10 +6370,10 @@
     </row>
     <row r="63" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
-        <v>160.59</v>
+        <v>159.98400000000001</v>
       </c>
       <c r="B63" s="5">
-        <v>29.440999999999999</v>
+        <v>46.366</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -6382,10 +6389,10 @@
     </row>
     <row r="64" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
-        <v>168.50899999999999</v>
+        <v>168.49700000000001</v>
       </c>
       <c r="B64" s="5">
-        <v>15.944000000000001</v>
+        <v>25.21</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -6401,7 +6408,7 @@
     </row>
     <row r="65" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
-        <v>176.428</v>
+        <v>177.01</v>
       </c>
       <c r="B65" s="6">
         <v>0</v>
@@ -8026,7 +8033,7 @@
         <v>62</v>
       </c>
       <c r="B129" s="5">
-        <v>5.9930000000000003</v>
+        <v>7.9930000000000003</v>
       </c>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
@@ -8480,19 +8487,19 @@
         <v>9.7744444444444394</v>
       </c>
       <c r="C152" s="3">
-        <v>0.24199999174465001</v>
+        <v>0.23340074045016301</v>
       </c>
       <c r="D152" s="3">
-        <v>483670.63676708803</v>
+        <v>578161.015847923</v>
       </c>
       <c r="E152" s="3">
-        <v>296515.83913292398</v>
+        <v>373036.06434712303</v>
       </c>
       <c r="F152" s="2">
         <v>0</v>
       </c>
       <c r="G152" s="3">
-        <v>119626.567603826</v>
+        <v>122836.425087838</v>
       </c>
       <c r="H152" s="2">
         <v>0</v>
@@ -8501,16 +8508,16 @@
         <v>0</v>
       </c>
       <c r="J152" s="3">
-        <v>67528.230030338207</v>
+        <v>82288.526412961306</v>
       </c>
       <c r="K152" s="2">
         <v>0</v>
       </c>
       <c r="L152" s="3">
-        <v>6.0100621401334403E-2</v>
+        <v>9.0711450722069195E-2</v>
       </c>
       <c r="M152" s="3">
-        <v>0.166008171960286</v>
+        <v>0.16986808776588999</v>
       </c>
     </row>
     <row r="153" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -8598,19 +8605,19 @@
         <v>3.0866666666666598</v>
       </c>
       <c r="C156" s="5">
-        <v>7.6421050024626597E-2</v>
+        <v>7.3705496984262098E-2</v>
       </c>
       <c r="D156" s="5">
-        <v>40935.576573463397</v>
+        <v>51204.895494914497</v>
       </c>
       <c r="E156" s="5">
-        <v>34201.016153634999</v>
+        <v>42998.615899209901</v>
       </c>
       <c r="F156" s="6">
         <v>0</v>
       </c>
       <c r="G156" s="5">
-        <v>0.44329768941152498</v>
+        <v>0.221560063060425</v>
       </c>
       <c r="H156" s="6">
         <v>0</v>
@@ -8619,16 +8626,16 @@
         <v>0</v>
       </c>
       <c r="J156" s="5">
-        <v>6734.1171221389905</v>
+        <v>8206.0580356415703</v>
       </c>
       <c r="K156" s="6">
         <v>0</v>
       </c>
       <c r="L156" s="5">
-        <v>6.5022995296018002E-2</v>
+        <v>9.4489907772892498E-2</v>
       </c>
       <c r="M156" s="5">
-        <v>0.166008171960286</v>
+        <v>0.16986808776588999</v>
       </c>
     </row>
     <row r="157" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -8639,19 +8646,19 @@
         <v>3.13811111111111</v>
       </c>
       <c r="C157" s="5">
-        <v>7.7694734191703696E-2</v>
+        <v>7.4933921933999795E-2</v>
       </c>
       <c r="D157" s="5">
-        <v>42235.208951557397</v>
+        <v>52830.432018789499</v>
       </c>
       <c r="E157" s="5">
-        <v>35274.1603447901</v>
+        <v>44348.259373960303</v>
       </c>
       <c r="F157" s="6">
         <v>0</v>
       </c>
       <c r="G157" s="5">
-        <v>0.59032580090022202</v>
+        <v>0.299880767483585</v>
       </c>
       <c r="H157" s="6">
         <v>0</v>
@@ -8660,16 +8667,16 @@
         <v>0</v>
       </c>
       <c r="J157" s="5">
-        <v>6960.4582809664398</v>
+        <v>8481.8727640617399</v>
       </c>
       <c r="K157" s="6">
         <v>0</v>
       </c>
       <c r="L157" s="5">
-        <v>6.4943916279788697E-2</v>
+        <v>9.4428973079496395E-2</v>
       </c>
       <c r="M157" s="5">
-        <v>0.166008171960286</v>
+        <v>0.16986808776588999</v>
       </c>
     </row>
     <row r="158" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -8680,19 +8687,19 @@
         <v>3.1895555555555499</v>
       </c>
       <c r="C158" s="5">
-        <v>7.8968418358780795E-2</v>
+        <v>7.6162346883737506E-2</v>
       </c>
       <c r="D158" s="5">
-        <v>43554.1072773056</v>
+        <v>54480.036329496099</v>
       </c>
       <c r="E158" s="5">
-        <v>36362.787418499698</v>
+        <v>45717.387778965502</v>
       </c>
       <c r="F158" s="6">
         <v>0</v>
       </c>
       <c r="G158" s="5">
-        <v>0.77924283295442398</v>
+        <v>0.40213691783298</v>
       </c>
       <c r="H158" s="6">
         <v>0</v>
@@ -8701,16 +8708,16 @@
         <v>0</v>
       </c>
       <c r="J158" s="5">
-        <v>7190.54061597285</v>
+        <v>8762.2464136128292</v>
       </c>
       <c r="K158" s="6">
         <v>0</v>
       </c>
       <c r="L158" s="5">
-        <v>6.4866389779861103E-2</v>
+        <v>9.4369241972658904E-2</v>
       </c>
       <c r="M158" s="5">
-        <v>0.166008171960286</v>
+        <v>0.16986808776588999</v>
       </c>
     </row>
     <row r="159" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -8721,19 +8728,19 @@
         <v>3.2410000000000001</v>
       </c>
       <c r="C159" s="5">
-        <v>8.0242102525857895E-2</v>
+        <v>7.7390771833475203E-2</v>
       </c>
       <c r="D159" s="5">
-        <v>44892.252082991603</v>
+        <v>56153.677693024903</v>
       </c>
       <c r="E159" s="5">
-        <v>37466.867922449303</v>
+        <v>47105.9642019557</v>
       </c>
       <c r="F159" s="6">
         <v>0</v>
       </c>
       <c r="G159" s="5">
-        <v>1.02003338401548</v>
+        <v>0.53450677436989202</v>
       </c>
       <c r="H159" s="6">
         <v>0</v>
@@ -8742,16 +8749,16 @@
         <v>0</v>
       </c>
       <c r="J159" s="5">
-        <v>7424.3641271582301</v>
+        <v>9047.1789842948292</v>
       </c>
       <c r="K159" s="6">
         <v>0</v>
       </c>
       <c r="L159" s="5">
-        <v>6.4790360699041594E-2</v>
+        <v>9.4310671580733099E-2</v>
       </c>
       <c r="M159" s="5">
-        <v>0.166008171960286</v>
+        <v>0.16986808776588999</v>
       </c>
     </row>
     <row r="160" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -8762,19 +8769,19 @@
         <v>3.2924444444444401</v>
       </c>
       <c r="C160" s="5">
-        <v>8.1515786692934994E-2</v>
+        <v>7.86191967832129E-2</v>
       </c>
       <c r="D160" s="5">
-        <v>46249.626361668597</v>
+        <v>57851.327366320897</v>
       </c>
       <c r="E160" s="5">
-        <v>38586.372957009196</v>
+        <v>48513.952422923001</v>
       </c>
       <c r="F160" s="6">
         <v>0</v>
       </c>
       <c r="G160" s="5">
-        <v>1.3245901367331601</v>
+        <v>0.70446729011023101</v>
       </c>
       <c r="H160" s="6">
         <v>0</v>
@@ -8783,16 +8790,16 @@
         <v>0</v>
       </c>
       <c r="J160" s="5">
-        <v>7661.9288145225801</v>
+        <v>9336.6704761077399</v>
       </c>
       <c r="K160" s="6">
         <v>0</v>
       </c>
       <c r="L160" s="5">
-        <v>6.4715776737300307E-2</v>
+        <v>9.4253221214430596E-2</v>
       </c>
       <c r="M160" s="5">
-        <v>0.166008171960286</v>
+        <v>0.16986808776588999</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -8803,19 +8810,19 @@
         <v>3.34388888888888</v>
       </c>
       <c r="C161" s="5">
-        <v>8.2789470860012093E-2</v>
+        <v>7.9847621732950597E-2</v>
       </c>
       <c r="D161" s="5">
-        <v>47626.215817909499</v>
+        <v>59572.958781772199</v>
       </c>
       <c r="E161" s="5">
-        <v>39721.2741562624</v>
+        <v>49941.316890364898</v>
       </c>
       <c r="F161" s="6">
         <v>0</v>
       </c>
       <c r="G161" s="5">
-        <v>1.70698358121558</v>
+        <v>0.92100235569969502</v>
       </c>
       <c r="H161" s="6">
         <v>0</v>
@@ -8824,16 +8831,16 @@
         <v>0</v>
       </c>
       <c r="J161" s="5">
-        <v>7903.2346780659</v>
+        <v>9630.7208890515594</v>
       </c>
       <c r="K161" s="6">
         <v>0</v>
       </c>
       <c r="L161" s="5">
-        <v>6.4642588208439794E-2</v>
+        <v>9.4196852223480398E-2</v>
       </c>
       <c r="M161" s="5">
-        <v>0.166008171960286</v>
+        <v>0.16986808776588999</v>
       </c>
     </row>
     <row r="162" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -8844,19 +8851,19 @@
         <v>3.3953333333333302</v>
       </c>
       <c r="C162" s="5">
-        <v>8.4063155027089206E-2</v>
+        <v>8.1076046682688294E-2</v>
       </c>
       <c r="D162" s="5">
-        <v>49022.009142324598</v>
+        <v>61318.547754756903</v>
       </c>
       <c r="E162" s="5">
-        <v>40871.543669967599</v>
+        <v>51388.022698700399</v>
       </c>
       <c r="F162" s="6">
         <v>0</v>
       </c>
       <c r="G162" s="5">
-        <v>2.18375456873722</v>
+        <v>1.1948329302068399</v>
       </c>
       <c r="H162" s="6">
         <v>0</v>
@@ -8865,16 +8872,16 @@
         <v>0</v>
       </c>
       <c r="J162" s="5">
-        <v>8148.2817177881698</v>
+        <v>9929.3302231263006</v>
       </c>
       <c r="K162" s="6">
         <v>0</v>
       </c>
       <c r="L162" s="5">
-        <v>6.45707478714031E-2</v>
+        <v>9.4141527864753799E-2</v>
       </c>
       <c r="M162" s="5">
-        <v>0.166008171960286</v>
+        <v>0.16986808776588999</v>
       </c>
     </row>
     <row r="163" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -8885,19 +8892,19 @@
         <v>3.4467777777777702</v>
       </c>
       <c r="C163" s="5">
-        <v>8.5336839194166306E-2</v>
+        <v>8.2304471632426005E-2</v>
       </c>
       <c r="D163" s="5">
-        <v>50436.998309825198</v>
+        <v>63088.0727148796</v>
       </c>
       <c r="E163" s="5">
-        <v>42037.154146399902</v>
+        <v>52854.035566783903</v>
       </c>
       <c r="F163" s="6">
         <v>0</v>
       </c>
       <c r="G163" s="5">
-        <v>2.7742297358856098</v>
+        <v>1.5386697637029301</v>
       </c>
       <c r="H163" s="6">
         <v>0</v>
@@ -8906,16 +8913,16 @@
         <v>0</v>
       </c>
       <c r="J163" s="5">
-        <v>8397.0699336894195</v>
+        <v>10232.4984783319</v>
       </c>
       <c r="K163" s="6">
         <v>0</v>
       </c>
       <c r="L163" s="5">
-        <v>6.4500210774847397E-2</v>
+        <v>9.4087213180778895E-2</v>
       </c>
       <c r="M163" s="5">
-        <v>0.166008171960286</v>
+        <v>0.16986808776588999</v>
       </c>
     </row>
     <row r="164" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -8926,19 +8933,19 @@
         <v>3.4982222222222199</v>
       </c>
       <c r="C164" s="5">
-        <v>8.6610523361243502E-2</v>
+        <v>8.3532896582163702E-2</v>
       </c>
       <c r="D164" s="5">
-        <v>51871.178901423897</v>
+        <v>64881.514961380497</v>
       </c>
       <c r="E164" s="5">
-        <v>43218.0787160119</v>
+        <v>54339.3218174465</v>
       </c>
       <c r="F164" s="6">
         <v>0</v>
       </c>
       <c r="G164" s="5">
-        <v>3.50085964241639</v>
+        <v>1.96748926549147</v>
       </c>
       <c r="H164" s="6">
         <v>0</v>
@@ -8947,16 +8954,16 @@
         <v>0</v>
       </c>
       <c r="J164" s="5">
-        <v>8649.5993257696391</v>
+        <v>10540.2256546685</v>
       </c>
       <c r="K164" s="6">
         <v>0</v>
       </c>
       <c r="L164" s="5">
-        <v>6.4430934113760899E-2</v>
+        <v>9.4033874887683902E-2</v>
       </c>
       <c r="M164" s="5">
-        <v>0.166008171960286</v>
+        <v>0.16986808776588999</v>
       </c>
     </row>
     <row r="165" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -8967,19 +8974,19 @@
         <v>3.5496666666666599</v>
       </c>
       <c r="C165" s="5">
-        <v>8.7884207528320601E-2</v>
+        <v>8.4761321531901399E-2</v>
       </c>
       <c r="D165" s="5">
-        <v>53324.5504491631</v>
+        <v>66698.858943047293</v>
       </c>
       <c r="E165" s="5">
-        <v>44414.290975866097</v>
+        <v>55843.848358002397</v>
       </c>
       <c r="F165" s="6">
         <v>0</v>
       </c>
       <c r="G165" s="5">
-        <v>4.3895792681900101</v>
+        <v>2.49883290901426</v>
       </c>
       <c r="H165" s="6">
         <v>0</v>
@@ -8988,16 +8995,16 @@
         <v>0</v>
       </c>
       <c r="J165" s="5">
-        <v>8905.8698940288104</v>
+        <v>10852.511752135901</v>
       </c>
       <c r="K165" s="6">
         <v>0</v>
       </c>
       <c r="L165" s="5">
-        <v>6.4362877097024998E-2</v>
+        <v>9.3981481271710798E-2</v>
       </c>
       <c r="M165" s="5">
-        <v>0.166008171960286</v>
+        <v>0.16986808776588999</v>
       </c>
     </row>
     <row r="166" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -9008,19 +9015,19 @@
         <v>3.60111111111111</v>
       </c>
       <c r="C166" s="5">
-        <v>8.9157891695397701E-2</v>
+        <v>8.5989746481639096E-2</v>
       </c>
       <c r="D166" s="5">
-        <v>54797.1168035757</v>
+        <v>68540.092562788297</v>
       </c>
       <c r="E166" s="5">
-        <v>45625.764974790502</v>
+        <v>57367.582661660701</v>
       </c>
       <c r="F166" s="6">
         <v>0</v>
       </c>
       <c r="G166" s="5">
-        <v>5.4701903183172398</v>
+        <v>3.1531303931452701</v>
       </c>
       <c r="H166" s="6">
         <v>0</v>
@@ -9029,16 +9036,16 @@
         <v>0</v>
       </c>
       <c r="J166" s="5">
-        <v>9165.8816384669608</v>
+        <v>11169.356770734301</v>
       </c>
       <c r="K166" s="6">
         <v>0</v>
       </c>
       <c r="L166" s="5">
-        <v>6.4296000824942606E-2</v>
+        <v>9.39300020935291E-2</v>
       </c>
       <c r="M166" s="5">
-        <v>0.166008171960286</v>
+        <v>0.16986808776588999</v>
       </c>
     </row>
     <row r="167" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -9049,19 +9056,19 @@
         <v>3.65255555555555</v>
       </c>
       <c r="C167" s="5">
-        <v>9.04315758624748E-2</v>
+        <v>8.7218171431376806E-2</v>
       </c>
       <c r="D167" s="5">
-        <v>56288.886522891102</v>
+        <v>70405.207506854698</v>
       </c>
       <c r="E167" s="5">
-        <v>46852.475199213302</v>
+        <v>58910.4927497889</v>
       </c>
       <c r="F167" s="6">
         <v>0</v>
       </c>
       <c r="G167" s="5">
-        <v>6.77676459372507</v>
+        <v>3.9540466022143699</v>
       </c>
       <c r="H167" s="6">
         <v>0</v>
@@ -9070,16 +9077,16 @@
         <v>0</v>
       </c>
       <c r="J167" s="5">
-        <v>9429.6345590840701</v>
+        <v>11490.760710463601</v>
       </c>
       <c r="K167" s="6">
         <v>0</v>
       </c>
       <c r="L167" s="5">
-        <v>6.4230268175849398E-2</v>
+        <v>9.3879408499659395E-2</v>
       </c>
       <c r="M167" s="5">
-        <v>0.166008171960286</v>
+        <v>0.16986808776588999</v>
       </c>
     </row>
     <row r="168" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -9090,19 +9097,19 @@
         <v>3.7040000000000002</v>
       </c>
       <c r="C168" s="3">
-        <v>9.1705260029551899E-2</v>
+        <v>8.8446596381114503E-2</v>
       </c>
       <c r="D168" s="3">
-        <v>57799.873283018002</v>
+        <v>72294.199598525302</v>
       </c>
       <c r="E168" s="3">
-        <v>48094.396559638597</v>
+        <v>60472.5471749754</v>
       </c>
       <c r="F168" s="2">
         <v>0</v>
       </c>
       <c r="G168" s="3">
-        <v>8.3480674992412105</v>
+        <v>4.9288522261157199</v>
       </c>
       <c r="H168" s="2">
         <v>0</v>
@@ -9111,16 +9118,16 @@
         <v>0</v>
       </c>
       <c r="J168" s="3">
-        <v>9697.1286558801403</v>
+        <v>11816.723571323801</v>
       </c>
       <c r="K168" s="2">
         <v>0</v>
       </c>
       <c r="L168" s="3">
-        <v>6.4165643701018599E-2</v>
+        <v>9.3829672940386299E-2</v>
       </c>
       <c r="M168" s="3">
-        <v>0.166008171960286</v>
+        <v>0.16986808776588999</v>
       </c>
     </row>
     <row r="169" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -9131,19 +9138,19 @@
         <v>3.7554444444444401</v>
       </c>
       <c r="C169" s="3">
-        <v>9.2978944196628999E-2</v>
+        <v>8.96750213308522E-2</v>
       </c>
       <c r="D169" s="3">
-        <v>59330.096307162799</v>
+        <v>74207.069175882207</v>
       </c>
       <c r="E169" s="3">
-        <v>49351.504377722398</v>
+        <v>62053.715004847501</v>
       </c>
       <c r="F169" s="2">
         <v>0</v>
       </c>
       <c r="G169" s="3">
-        <v>10.228000585218799</v>
+        <v>6.10881771965603</v>
       </c>
       <c r="H169" s="2">
         <v>0</v>
@@ -9152,16 +9159,16 @@
         <v>0</v>
       </c>
       <c r="J169" s="3">
-        <v>9968.3639288551894</v>
+        <v>12147.2453533149</v>
       </c>
       <c r="K169" s="2">
         <v>0</v>
       </c>
       <c r="L169" s="3">
-        <v>6.4102093527145201E-2</v>
+        <v>9.3780769093602306E-2</v>
       </c>
       <c r="M169" s="3">
-        <v>0.166008171960286</v>
+        <v>0.16986808776588999</v>
       </c>
     </row>
     <row r="170" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -9172,19 +9179,19 @@
         <v>3.8068888888888801</v>
       </c>
       <c r="C170" s="3">
-        <v>9.4252628363706098E-2</v>
+        <v>9.0903446280589897E-2</v>
       </c>
       <c r="D170" s="3">
-        <v>60879.5808137801</v>
+        <v>76143.821493135096</v>
       </c>
       <c r="E170" s="3">
-        <v>50623.7743739172</v>
+        <v>63653.965806598899</v>
       </c>
       <c r="F170" s="2">
         <v>0</v>
       </c>
       <c r="G170" s="3">
-        <v>12.4660618536568</v>
+        <v>7.5296300992074396</v>
       </c>
       <c r="H170" s="2">
         <v>0</v>
@@ -9193,16 +9200,16 @@
         <v>0</v>
       </c>
       <c r="J170" s="3">
-        <v>10243.340378009199</v>
+        <v>12482.326056436999</v>
       </c>
       <c r="K170" s="2">
         <v>0</v>
       </c>
       <c r="L170" s="3">
-        <v>6.4039585265767099E-2</v>
+        <v>9.3732671794078098E-2</v>
       </c>
       <c r="M170" s="3">
-        <v>0.166008171960286</v>
+        <v>0.16986808776588999</v>
       </c>
     </row>
     <row r="171" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -9213,19 +9220,19 @@
         <v>3.8583333333333298</v>
       </c>
       <c r="C171" s="3">
-        <v>9.5526312530783197E-2</v>
+        <v>9.2131871230327594E-2</v>
       </c>
       <c r="D171" s="3">
-        <v>62448.358481400603</v>
+        <v>78104.467144773196</v>
       </c>
       <c r="E171" s="3">
-        <v>51911.182655651101</v>
+        <v>65273.269632186297</v>
       </c>
       <c r="F171" s="2">
         <v>0</v>
       </c>
       <c r="G171" s="3">
-        <v>15.1178224074024</v>
+        <v>9.2318318969569706</v>
       </c>
       <c r="H171" s="2">
         <v>0</v>
@@ -9234,16 +9241,16 @@
         <v>0</v>
       </c>
       <c r="J171" s="3">
-        <v>10522.058003342099</v>
+        <v>12821.9656806899</v>
       </c>
       <c r="K171" s="2">
         <v>0</v>
       </c>
       <c r="L171" s="3">
-        <v>6.3978087929043595E-2</v>
+        <v>9.3685356967706801E-2</v>
       </c>
       <c r="M171" s="3">
-        <v>0.166008171960286</v>
+        <v>0.16986808776588999</v>
       </c>
     </row>
     <row r="172" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -9254,19 +9261,19 @@
         <v>3.9097777777777698</v>
       </c>
       <c r="C172" s="3">
-        <v>9.6799996697860297E-2</v>
+        <v>9.3360296180065305E-2</v>
       </c>
       <c r="D172" s="3">
-        <v>64036.467928748403</v>
+        <v>80089.0225116535</v>
       </c>
       <c r="E172" s="3">
-        <v>53213.705706011497</v>
+        <v>66911.597004159004</v>
       </c>
       <c r="F172" s="2">
         <v>0</v>
       </c>
       <c r="G172" s="3">
-        <v>18.245417882764901</v>
+        <v>11.2612814206392</v>
       </c>
       <c r="H172" s="2">
         <v>0</v>
@@ -9275,16 +9282,16 @@
         <v>0</v>
       </c>
       <c r="J172" s="3">
-        <v>10804.5168048541</v>
+        <v>13166.164226073801</v>
       </c>
       <c r="K172" s="2">
         <v>0</v>
       </c>
       <c r="L172" s="3">
-        <v>6.3917571851366498E-2</v>
+        <v>9.3638801570308405E-2</v>
       </c>
       <c r="M172" s="3">
-        <v>0.166008171960286</v>
+        <v>0.16986808776588999</v>
       </c>
     </row>
     <row r="173" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -9295,19 +9302,19 @@
         <v>3.96122222222222</v>
       </c>
       <c r="C173" s="3">
-        <v>9.8073680864937396E-2</v>
+        <v>9.4588721129803002E-2</v>
       </c>
       <c r="D173" s="3">
-        <v>65643.955208434607</v>
+        <v>82097.510227976003</v>
       </c>
       <c r="E173" s="3">
-        <v>54531.320372906797</v>
+        <v>68568.918902085905</v>
       </c>
       <c r="F173" s="2">
         <v>0</v>
       </c>
       <c r="G173" s="3">
-        <v>21.918052982824499</v>
+        <v>13.669633301482699</v>
       </c>
       <c r="H173" s="2">
         <v>0</v>
@@ -9316,16 +9323,16 @@
         <v>0</v>
       </c>
       <c r="J173" s="3">
-        <v>11090.716782545</v>
+        <v>13514.921692588499</v>
       </c>
       <c r="K173" s="2">
         <v>0</v>
       </c>
       <c r="L173" s="3">
-        <v>6.3858008616328205E-2</v>
+        <v>9.3592983530624799E-2</v>
       </c>
       <c r="M173" s="3">
-        <v>0.166008171960286</v>
+        <v>0.16986808776588999</v>
       </c>
     </row>
     <row r="174" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -9336,19 +9343,19 @@
         <v>4.0126666666666599</v>
       </c>
       <c r="C174" s="3">
-        <v>9.9347365032014606E-2</v>
+        <v>9.5817146079540699E-2</v>
       </c>
       <c r="D174" s="3">
-        <v>67270.874312414206</v>
+        <v>84129.959667936899</v>
       </c>
       <c r="E174" s="3">
-        <v>55864.003858677599</v>
+        <v>70245.206749545803</v>
       </c>
       <c r="F174" s="2">
         <v>0</v>
       </c>
       <c r="G174" s="3">
-        <v>26.212517321734101</v>
+        <v>16.514838156871999</v>
       </c>
       <c r="H174" s="2">
         <v>0</v>
@@ -9357,16 +9364,16 @@
         <v>0</v>
       </c>
       <c r="J174" s="3">
-        <v>11380.6579364148</v>
+        <v>13868.2380802342</v>
       </c>
       <c r="K174" s="2">
         <v>0</v>
       </c>
       <c r="L174" s="3">
-        <v>6.3799370988616502E-2</v>
+        <v>9.3547881697166796E-2</v>
       </c>
       <c r="M174" s="3">
-        <v>0.166008171960286</v>
+        <v>0.16986808776588999</v>
       </c>
     </row>
     <row r="175" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -9377,19 +9384,19 @@
         <v>4.0641111111111101</v>
       </c>
       <c r="C175" s="3">
-        <v>0.100621049199091</v>
+        <v>9.7045571029278396E-2</v>
       </c>
       <c r="D175" s="3">
-        <v>68917.287687299104</v>
+        <v>86186.407450711893</v>
       </c>
       <c r="E175" s="3">
-        <v>57211.733710135501</v>
+        <v>71940.432401652593</v>
       </c>
       <c r="F175" s="2">
         <v>0</v>
       </c>
       <c r="G175" s="3">
-        <v>31.2137106999335</v>
+        <v>19.8616600483954</v>
       </c>
       <c r="H175" s="2">
         <v>0</v>
@@ -9398,16 +9405,16 @@
         <v>0</v>
       </c>
       <c r="J175" s="3">
-        <v>11674.3402664637</v>
+        <v>14226.113389010799</v>
       </c>
       <c r="K175" s="2">
         <v>0</v>
       </c>
       <c r="L175" s="3">
-        <v>6.3741632850445706E-2</v>
+        <v>9.3503475788606696E-2</v>
       </c>
       <c r="M175" s="3">
-        <v>0.166008171960286</v>
+        <v>0.16986808776588999</v>
       </c>
     </row>
     <row r="176" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -9418,19 +9425,19 @@
         <v>4.1155555555555496</v>
       </c>
       <c r="C176" s="3">
-        <v>0.101894733366168</v>
+        <v>9.8273995979016093E-2</v>
       </c>
       <c r="D176" s="3">
-        <v>70583.266757553298</v>
+        <v>88266.897962286195</v>
       </c>
       <c r="E176" s="3">
-        <v>58574.487809004997</v>
+        <v>73654.568133086097</v>
       </c>
       <c r="F176" s="2">
         <v>0</v>
       </c>
       <c r="G176" s="3">
-        <v>37.015175856725499</v>
+        <v>23.782210281772301</v>
       </c>
       <c r="H176" s="2">
         <v>0</v>
@@ -9439,16 +9446,16 @@
         <v>0</v>
       </c>
       <c r="J176" s="3">
-        <v>11971.7637726915</v>
+        <v>14588.547618918299</v>
       </c>
       <c r="K176" s="2">
         <v>0</v>
       </c>
       <c r="L176" s="3">
-        <v>6.36847691421666E-2</v>
+        <v>9.3459746347439102E-2</v>
       </c>
       <c r="M176" s="3">
-        <v>0.166008171960286</v>
+        <v>0.16986808776588999</v>
       </c>
     </row>
     <row r="177" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -9459,19 +9466,19 @@
         <v>4.16699999999999</v>
       </c>
       <c r="C177" s="3">
-        <v>0.103168417533245</v>
+        <v>9.9502420928753804E-2</v>
       </c>
       <c r="D177" s="3">
-        <v>72268.892454537199</v>
+        <v>90371.483892531396</v>
       </c>
       <c r="E177" s="3">
-        <v>59952.244362748701</v>
+        <v>75387.586626600998</v>
       </c>
       <c r="F177" s="2">
         <v>0</v>
       </c>
       <c r="G177" s="3">
-        <v>43.719636690166503</v>
+        <v>28.356495973647601</v>
       </c>
       <c r="H177" s="2">
         <v>0</v>
@@ -9480,16 +9487,16 @@
         <v>0</v>
       </c>
       <c r="J177" s="3">
-        <v>12272.928455098299</v>
+        <v>14955.5407699567</v>
       </c>
       <c r="K177" s="2">
         <v>0</v>
       </c>
       <c r="L177" s="3">
-        <v>6.3628755806735507E-2</v>
+        <v>9.3416674696656293E-2</v>
       </c>
       <c r="M177" s="3">
-        <v>0.166008171960286</v>
+        <v>0.16986808776588999</v>
       </c>
     </row>
     <row r="178" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -9500,19 +9507,19 @@
         <v>4.2184444444444402</v>
       </c>
       <c r="C178" s="3">
-        <v>0.104442101700323</v>
+        <v>0.100730845878491</v>
       </c>
       <c r="D178" s="3">
-        <v>73974.255749332806</v>
+        <v>92500.226785819104</v>
       </c>
       <c r="E178" s="3">
-        <v>61344.981895754201</v>
+        <v>77139.460961990801</v>
       </c>
       <c r="F178" s="2">
         <v>0</v>
       </c>
       <c r="G178" s="3">
-        <v>51.439539894528799</v>
+        <v>33.672981702238701</v>
       </c>
       <c r="H178" s="2">
         <v>0</v>
@@ -9521,16 +9528,16 @@
         <v>0</v>
       </c>
       <c r="J178" s="3">
-        <v>12577.834313683999</v>
+        <v>15327.092842126</v>
       </c>
       <c r="K178" s="2">
         <v>0</v>
       </c>
       <c r="L178" s="3">
-        <v>6.3573569737742502E-2</v>
+        <v>9.3374242899207496E-2</v>
       </c>
       <c r="M178" s="3">
-        <v>0.166008171960286</v>
+        <v>0.16986808776588999</v>
       </c>
     </row>
     <row r="179" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -9541,19 +9548,19 @@
         <v>4.2698888888888797</v>
       </c>
       <c r="C179" s="3">
-        <v>0.10571578586740001</v>
+        <v>0.101959270828229</v>
       </c>
       <c r="D179" s="3">
-        <v>75699.458187256605</v>
+        <v>94653.197603373002</v>
       </c>
       <c r="E179" s="3">
-        <v>62752.679240865502</v>
+        <v>78910.164605481696</v>
       </c>
       <c r="F179" s="2">
         <v>0</v>
       </c>
       <c r="G179" s="3">
-        <v>60.297597942347302</v>
+        <v>39.829162464892597</v>
       </c>
       <c r="H179" s="2">
         <v>0</v>
@@ -9562,16 +9569,16 @@
         <v>0</v>
       </c>
       <c r="J179" s="3">
-        <v>12886.4813484487</v>
+        <v>15703.2038354263</v>
       </c>
       <c r="K179" s="2">
         <v>0</v>
       </c>
       <c r="L179" s="3">
-        <v>6.3519188730734796E-2</v>
+        <v>9.3332433720029903E-2</v>
       </c>
       <c r="M179" s="3">
-        <v>0.166008171960286</v>
+        <v>0.16986808776588999</v>
       </c>
     </row>
     <row r="180" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -9582,19 +9589,19 @@
         <v>4.3213333333333299</v>
       </c>
       <c r="C180" s="3">
-        <v>0.10698947003447699</v>
+        <v>0.10318769577796599</v>
       </c>
       <c r="D180" s="3">
-        <v>77444.612421964397</v>
+        <v>96830.477295479795</v>
       </c>
       <c r="E180" s="3">
-        <v>64175.3155312413</v>
+        <v>80699.671399536106</v>
       </c>
       <c r="F180" s="2">
         <v>0</v>
       </c>
       <c r="G180" s="3">
-        <v>70.427331330739193</v>
+        <v>46.9321460861632</v>
       </c>
       <c r="H180" s="2">
         <v>0</v>
@@ -9603,16 +9610,16 @@
         <v>0</v>
       </c>
       <c r="J180" s="3">
-        <v>13198.8695593924</v>
+        <v>16083.873749857399</v>
       </c>
       <c r="K180" s="2">
         <v>0</v>
       </c>
       <c r="L180" s="3">
-        <v>6.3465591437586302E-2</v>
+        <v>9.3291230590463001E-2</v>
       </c>
       <c r="M180" s="3">
-        <v>0.166008171960286</v>
+        <v>0.16986808776588999</v>
       </c>
     </row>
     <row r="181" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -9623,19 +9630,19 @@
         <v>4.3727777777777703</v>
       </c>
       <c r="C181" s="3">
-        <v>0.108263154201554</v>
+        <v>0.104416120727704</v>
       </c>
       <c r="D181" s="3">
-        <v>79209.842747057497</v>
+        <v>99032.157381618701</v>
       </c>
       <c r="E181" s="3">
-        <v>65612.870192522896</v>
+        <v>82507.955553043896</v>
       </c>
       <c r="F181" s="2">
         <v>0</v>
       </c>
       <c r="G181" s="3">
-        <v>81.973608019575593</v>
+        <v>55.099243155243201</v>
       </c>
       <c r="H181" s="2">
         <v>0</v>
@@ -9644,16 +9651,16 @@
         <v>0</v>
       </c>
       <c r="J181" s="3">
-        <v>13514.998946514999</v>
+        <v>16469.1025854195</v>
       </c>
       <c r="K181" s="2">
         <v>0</v>
       </c>
       <c r="L181" s="3">
-        <v>6.3412757323690103E-2</v>
+        <v>9.3250617574865996E-2</v>
       </c>
       <c r="M181" s="3">
-        <v>0.166008171960286</v>
+        <v>0.16986808776588999</v>
       </c>
     </row>
     <row r="182" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -9664,19 +9671,19 @@
         <v>4.4242222222222196</v>
       </c>
       <c r="C182" s="3">
-        <v>0.109536838368631</v>
+        <v>0.105644545677442</v>
       </c>
       <c r="D182" s="3">
-        <v>80995.285623125397</v>
+        <v>101258.340536517</v>
       </c>
       <c r="E182" s="3">
-        <v>67065.322935297401</v>
+        <v>84334.991631882993</v>
       </c>
       <c r="F182" s="2">
         <v>0</v>
       </c>
       <c r="G182" s="3">
-        <v>95.093178011409606</v>
+        <v>64.458562521484296</v>
       </c>
       <c r="H182" s="2">
         <v>0</v>
@@ -9685,16 +9692,16 @@
         <v>0</v>
       </c>
       <c r="J182" s="3">
-        <v>13834.869509816601</v>
+        <v>16858.8903421125</v>
       </c>
       <c r="K182" s="2">
         <v>0</v>
       </c>
       <c r="L182" s="3">
-        <v>6.3360666627768E-2</v>
+        <v>9.3210579339280397E-2</v>
       </c>
       <c r="M182" s="3">
-        <v>0.166008171960286</v>
+        <v>0.16986808776588999</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.3">
@@ -9705,19 +9712,19 @@
         <v>4.47566666666666</v>
       </c>
       <c r="C183" s="11">
-        <v>0.110810522535708</v>
+        <v>0.10687297062718</v>
       </c>
       <c r="D183" s="11">
-        <v>82801.090198197198</v>
+        <v>103509.141180109</v>
       </c>
       <c r="E183" s="11">
-        <v>68532.653747841105</v>
+        <v>86180.754549831894</v>
       </c>
       <c r="F183" s="10">
         <v>0</v>
       </c>
       <c r="G183" s="11">
-        <v>109.955201058884</v>
+        <v>75.149610341179596</v>
       </c>
       <c r="H183" s="10">
         <v>0</v>
@@ -9726,16 +9733,16 @@
         <v>0</v>
       </c>
       <c r="J183" s="11">
-        <v>14158.4812492972</v>
+        <v>17253.237019936401</v>
       </c>
       <c r="K183" s="10">
         <v>0</v>
       </c>
       <c r="L183" s="11">
-        <v>6.33093003241086E-2</v>
+        <v>9.3171101121989897E-2</v>
       </c>
       <c r="M183" s="11">
-        <v>0.166008171960286</v>
+        <v>0.16986808776588999</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.3">
@@ -9746,19 +9753,19 @@
         <v>4.5271111111111102</v>
       </c>
       <c r="C184" s="11">
-        <v>0.112084206702785</v>
+        <v>0.108101395576917</v>
       </c>
       <c r="D184" s="11">
-        <v>84627.418819620405</v>
+        <v>105784.686069353</v>
       </c>
       <c r="E184" s="11">
-        <v>70014.842889129999</v>
+        <v>88045.219559815203</v>
       </c>
       <c r="F184" s="10">
         <v>0</v>
       </c>
       <c r="G184" s="11">
-        <v>126.74176553366701</v>
+        <v>87.323890647441104</v>
       </c>
       <c r="H184" s="10">
         <v>0</v>
@@ -9767,16 +9774,16 @@
         <v>0</v>
       </c>
       <c r="J184" s="11">
-        <v>14485.834164956699</v>
+        <v>17652.142618891201</v>
       </c>
       <c r="K184" s="10">
         <v>0</v>
       </c>
       <c r="L184" s="11">
-        <v>6.3258640087060905E-2</v>
+        <v>9.3132168705840596E-2</v>
       </c>
       <c r="M184" s="11">
-        <v>0.166008171960286</v>
+        <v>0.16986808776588999</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.3">
@@ -9787,19 +9794,19 @@
         <v>4.5785555555555497</v>
       </c>
       <c r="C185" s="11">
-        <v>0.113357890869862</v>
+        <v>0.10932982052665501</v>
       </c>
       <c r="D185" s="11">
-        <v>86474.447535450003</v>
+        <v>108085.114889852</v>
       </c>
       <c r="E185" s="11">
-        <v>71511.870882104005</v>
+        <v>89928.362245467593</v>
       </c>
       <c r="F185" s="10">
         <v>0</v>
       </c>
       <c r="G185" s="11">
-        <v>145.648396550738</v>
+        <v>101.14550540745699</v>
       </c>
       <c r="H185" s="10">
         <v>0</v>
@@ -9808,16 +9815,16 @@
         <v>0</v>
       </c>
       <c r="J185" s="11">
-        <v>14816.9282567952</v>
+        <v>18055.607138976899</v>
       </c>
       <c r="K185" s="10">
         <v>0</v>
       </c>
       <c r="L185" s="11">
-        <v>6.3208668257624903E-2</v>
+        <v>9.30937683921996E-2</v>
       </c>
       <c r="M185" s="11">
-        <v>0.166008171960286</v>
+        <v>0.16986808776588999</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.3">
@@ -9828,19 +9835,19 @@
         <v>4.63</v>
       </c>
       <c r="C186" s="11">
-        <v>0.11463157503693901</v>
+        <v>0.11055824547639299</v>
       </c>
       <c r="D186" s="11">
-        <v>88342.366583498195</v>
+        <v>110410.58084523201</v>
       </c>
       <c r="E186" s="11">
-        <v>73023.7185071735</v>
+        <v>91830.158513001807</v>
       </c>
       <c r="F186" s="10">
         <v>0</v>
       </c>
       <c r="G186" s="11">
-        <v>166.88455151197101</v>
+        <v>116.791752037126</v>
       </c>
       <c r="H186" s="10">
         <v>0</v>
@@ -9849,16 +9856,16 @@
         <v>0</v>
       </c>
       <c r="J186" s="11">
-        <v>15151.763524812701</v>
+        <v>18463.630580193501</v>
       </c>
       <c r="K186" s="10">
         <v>0</v>
       </c>
       <c r="L186" s="11">
-        <v>6.3159367811993203E-2</v>
+        <v>9.3055886976437102E-2</v>
       </c>
       <c r="M186" s="11">
-        <v>0.166008171960286</v>
+        <v>0.16986808776588999</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.3">
@@ -9869,19 +9876,19 @@
         <v>4.6814444444444403</v>
       </c>
       <c r="C187" s="11">
-        <v>0.11590525920401699</v>
+        <v>0.11178667042613</v>
       </c>
       <c r="D187" s="11">
-        <v>90231.380866278399</v>
+        <v>112761.25124226599</v>
       </c>
       <c r="E187" s="11">
-        <v>74550.366795956899</v>
+        <v>93750.584583364194</v>
       </c>
       <c r="F187" s="10">
         <v>0</v>
       </c>
       <c r="G187" s="11">
-        <v>190.674101312294</v>
+        <v>134.45371636130801</v>
       </c>
       <c r="H187" s="10">
         <v>0</v>
@@ -9890,16 +9897,16 @@
         <v>0</v>
       </c>
       <c r="J187" s="11">
-        <v>15490.339969009099</v>
+        <v>18876.212942540998</v>
       </c>
       <c r="K187" s="10">
         <v>0</v>
       </c>
       <c r="L187" s="11">
-        <v>6.3110722331909105E-2</v>
+        <v>9.30185117248256E-2</v>
       </c>
       <c r="M187" s="11">
-        <v>0.166008171960286</v>
+        <v>0.16986808776588999</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.3">
@@ -9910,19 +9917,19 @@
         <v>4.7328888888888798</v>
       </c>
       <c r="C188" s="11">
-        <v>0.117178943371094</v>
+        <v>0.113015095375868</v>
       </c>
       <c r="D188" s="11">
-        <v>92141.710410161701</v>
+        <v>115137.308069725</v>
       </c>
       <c r="E188" s="11">
-        <v>76091.797025238004</v>
+        <v>95689.6169846673</v>
       </c>
       <c r="F188" s="10">
         <v>0</v>
       </c>
       <c r="G188" s="11">
-        <v>217.25579553914599</v>
+        <v>154.33685903814401</v>
       </c>
       <c r="H188" s="10">
         <v>0</v>
@@ -9931,16 +9938,16 @@
         <v>0</v>
       </c>
       <c r="J188" s="11">
-        <v>15832.6575893845</v>
+        <v>19293.354226019499</v>
       </c>
       <c r="K188" s="10">
         <v>0</v>
       </c>
       <c r="L188" s="11">
-        <v>6.3062715976718198E-2</v>
+        <v>9.2981630352762204E-2</v>
       </c>
       <c r="M188" s="11">
-        <v>0.166008171960286</v>
+        <v>0.16986808776588999</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.3">
@@ -9951,19 +9958,19 @@
         <v>4.78433333333333</v>
       </c>
       <c r="C189" s="11">
-        <v>0.118452627538171</v>
+        <v>0.114243520325606</v>
       </c>
       <c r="D189" s="11">
-        <v>94073.590807162502</v>
+        <v>117538.94856901999</v>
       </c>
       <c r="E189" s="11">
-        <v>77647.9907111332</v>
+        <v>97647.232544884304</v>
       </c>
       <c r="F189" s="10">
         <v>0</v>
       </c>
       <c r="G189" s="11">
-        <v>246.88371009034299</v>
+        <v>176.66159350702699</v>
       </c>
       <c r="H189" s="10">
         <v>0</v>
@@ -9972,16 +9979,16 @@
         <v>0</v>
       </c>
       <c r="J189" s="11">
-        <v>16178.7163859389</v>
+        <v>19715.054430628799</v>
       </c>
       <c r="K189" s="10">
         <v>0</v>
       </c>
       <c r="L189" s="11">
-        <v>6.3015333456998196E-2</v>
+        <v>9.2945231004222403E-2</v>
       </c>
       <c r="M189" s="11">
-        <v>0.166008171960286</v>
+        <v>0.16986808776588999</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.3">
@@ -9992,19 +9999,19 @@
         <v>4.8357777777777704</v>
       </c>
       <c r="C190" s="11">
-        <v>0.119726311705248</v>
+        <v>0.115471945275344</v>
       </c>
       <c r="D190" s="11">
-        <v>96027.273637867795</v>
+        <v>119966.385794735</v>
       </c>
       <c r="E190" s="11">
-        <v>79218.929603459794</v>
+        <v>99623.408384795301</v>
       </c>
       <c r="F190" s="10">
         <v>0</v>
       </c>
       <c r="G190" s="11">
-        <v>279.82767573572397</v>
+        <v>201.66385357125901</v>
       </c>
       <c r="H190" s="10">
         <v>0</v>
@@ -10013,16 +10020,16 @@
         <v>0</v>
       </c>
       <c r="J190" s="11">
-        <v>16528.516358672201</v>
+        <v>20141.313556369099</v>
       </c>
       <c r="K190" s="10">
         <v>0</v>
       </c>
       <c r="L190" s="11">
-        <v>6.2968560009663596E-2</v>
+        <v>9.2909302232364405E-2</v>
       </c>
       <c r="M190" s="11">
-        <v>0.166008171960286</v>
+        <v>0.16986808776588999</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.3">
@@ -10033,19 +10040,19 @@
         <v>4.8872222222222197</v>
       </c>
       <c r="C191" s="11">
-        <v>0.120999995872325</v>
+        <v>0.11670037022508099</v>
       </c>
       <c r="D191" s="11">
-        <v>98003.026874133298</v>
+        <v>122419.84916319999</v>
       </c>
       <c r="E191" s="11">
-        <v>80804.595680295693</v>
+        <v>101618.121911172</v>
       </c>
       <c r="F191" s="10">
         <v>0</v>
       </c>
       <c r="G191" s="11">
-        <v>316.37368625300201</v>
+        <v>229.595648787187</v>
       </c>
       <c r="H191" s="10">
         <v>0</v>
@@ -10054,16 +10061,16 @@
         <v>0</v>
       </c>
       <c r="J191" s="11">
-        <v>16882.057507584501</v>
+        <v>20572.131603240301</v>
       </c>
       <c r="K191" s="10">
         <v>0</v>
       </c>
       <c r="L191" s="11">
-        <v>6.2922381374445904E-2</v>
+        <v>9.2873832981208299E-2</v>
       </c>
       <c r="M191" s="11">
-        <v>0.166008171960286</v>
+        <v>0.16986808776588999</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.3">
@@ -10074,19 +10081,19 @@
         <v>4.9386666666666601</v>
       </c>
       <c r="C192" s="11">
-        <v>0.12227368003940201</v>
+        <v>0.117928795174819</v>
       </c>
       <c r="D192" s="11">
-        <v>100001.13526027399</v>
+        <v>124899.584987341</v>
       </c>
       <c r="E192" s="11">
-        <v>82404.971142721697</v>
+        <v>103631.350810198</v>
       </c>
       <c r="F192" s="10">
         <v>0</v>
       </c>
       <c r="G192" s="11">
-        <v>356.82428487698002</v>
+        <v>260.72560590069003</v>
       </c>
       <c r="H192" s="10">
         <v>0</v>
@@ -10095,16 +10102,16 @@
         <v>0</v>
       </c>
       <c r="J192" s="11">
-        <v>17239.3398326758</v>
+        <v>21007.508571242401</v>
       </c>
       <c r="K192" s="10">
         <v>0</v>
       </c>
       <c r="L192" s="11">
-        <v>6.2876783771662004E-2</v>
+        <v>9.2838812568318593E-2</v>
       </c>
       <c r="M192" s="11">
-        <v>0.166008171960286</v>
+        <v>0.16986808776588999</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.3">
@@ -10115,19 +10122,19 @@
         <v>4.9901111111111103</v>
       </c>
       <c r="C193" s="11">
-        <v>0.12354736420647899</v>
+        <v>0.119157220124557</v>
       </c>
       <c r="D193" s="11">
-        <v>102021.90067159801</v>
+        <v>127405.856996117</v>
       </c>
       <c r="E193" s="11">
-        <v>84020.038409739602</v>
+        <v>105663.073041093</v>
       </c>
       <c r="F193" s="10">
         <v>0</v>
       </c>
       <c r="G193" s="11">
-        <v>401.4989279129</v>
+        <v>295.33949464862201</v>
       </c>
       <c r="H193" s="10">
         <v>0</v>
@@ -10136,16 +10143,16 @@
         <v>0</v>
       </c>
       <c r="J193" s="11">
-        <v>17600.363333945999</v>
+        <v>21447.444460375398</v>
       </c>
       <c r="K193" s="10">
         <v>0</v>
       </c>
       <c r="L193" s="11">
-        <v>6.2831753881185601E-2</v>
+        <v>9.2804230668426801E-2</v>
       </c>
       <c r="M193" s="11">
-        <v>0.166008171960286</v>
+        <v>0.16986808776588999</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.3">
@@ -10156,19 +10163,19 @@
         <v>5.0415555555555498</v>
       </c>
       <c r="C194" s="11">
-        <v>0.124821048373556</v>
+        <v>0.120385645074294</v>
       </c>
       <c r="D194" s="11">
-        <v>104065.64244923</v>
+        <v>129938.946836934</v>
       </c>
       <c r="E194" s="11">
-        <v>85649.780113357396</v>
+        <v>107713.266829969</v>
       </c>
       <c r="F194" s="10">
         <v>0</v>
       </c>
       <c r="G194" s="11">
-        <v>450.73432447800201</v>
+        <v>333.74073632598299</v>
       </c>
       <c r="H194" s="10">
         <v>0</v>
@@ -10177,16 +10184,16 @@
         <v>0</v>
       </c>
       <c r="J194" s="11">
-        <v>17965.128011395202</v>
+        <v>21891.939270639301</v>
       </c>
       <c r="K194" s="10">
         <v>0</v>
       </c>
       <c r="L194" s="11">
-        <v>6.27872788225457E-2</v>
+        <v>9.2770077297932699E-2</v>
       </c>
       <c r="M194" s="11">
-        <v>0.166008171960286</v>
+        <v>0.16986808776588999</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.3">
@@ -10197,19 +10204,19 @@
         <v>5.093</v>
       </c>
       <c r="C195" s="11">
-        <v>0.126094732540633</v>
+        <v>0.121614070024032</v>
       </c>
       <c r="D195" s="11">
-        <v>106132.697710308</v>
+        <v>132499.154559508</v>
       </c>
       <c r="E195" s="11">
-        <v>87294.1790938349</v>
+        <v>109781.910663866</v>
       </c>
       <c r="F195" s="10">
         <v>0</v>
       </c>
       <c r="G195" s="11">
-        <v>504.884751449654</v>
+        <v>376.25089360847602</v>
       </c>
       <c r="H195" s="10">
         <v>0</v>
@@ -10218,16 +10225,16 @@
         <v>0</v>
       </c>
       <c r="J195" s="11">
-        <v>18333.633865023399</v>
+        <v>22340.993002034102</v>
       </c>
       <c r="K195" s="10">
         <v>0</v>
       </c>
       <c r="L195" s="11">
-        <v>6.2743346136081304E-2</v>
+        <v>9.2736342800229701E-2</v>
       </c>
       <c r="M195" s="11">
-        <v>0.166008171960286</v>
+        <v>0.16986808776588999</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.3">
@@ -10238,19 +10245,19 @@
         <v>5.1444444444444404</v>
       </c>
       <c r="C196" s="11">
-        <v>0.12736841670771101</v>
+        <v>0.12284249497377001</v>
       </c>
       <c r="D196" s="11">
-        <v>108223.42163272599</v>
+        <v>135086.79907976699</v>
       </c>
       <c r="E196" s="11">
-        <v>88953.218395082498</v>
+        <v>111868.983284993</v>
       </c>
       <c r="F196" s="10">
         <v>0</v>
       </c>
       <c r="G196" s="11">
-        <v>564.32234281287799</v>
+        <v>423.21014021379602</v>
       </c>
       <c r="H196" s="10">
         <v>0</v>
@@ -10259,16 +10266,16 @@
         <v>0</v>
       </c>
       <c r="J196" s="11">
-        <v>18705.880894830501</v>
+        <v>22794.605654559899</v>
       </c>
       <c r="K196" s="10">
         <v>0</v>
       </c>
       <c r="L196" s="11">
-        <v>6.2699943765085003E-2</v>
+        <v>9.2703017831801196E-2</v>
       </c>
       <c r="M196" s="11">
-        <v>0.166008171960286</v>
+        <v>0.16986808776588999</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.3">
@@ -10279,19 +10286,19 @@
         <v>5.1958888888888799</v>
       </c>
       <c r="C197" s="11">
-        <v>0.128642100874788</v>
+        <v>0.12407091992350699</v>
       </c>
       <c r="D197" s="11">
-        <v>110338.18771373801</v>
+        <v>137702.21862245101</v>
       </c>
       <c r="E197" s="11">
-        <v>90626.881260207796</v>
+        <v>113974.463685152</v>
       </c>
       <c r="F197" s="10">
         <v>0</v>
       </c>
       <c r="G197" s="11">
-        <v>629.43735271384696</v>
+        <v>474.97770908251499</v>
       </c>
       <c r="H197" s="10">
         <v>0</v>
@@ -10300,16 +10307,16 @@
         <v>0</v>
       </c>
       <c r="J197" s="11">
-        <v>19081.869100816599</v>
+        <v>23252.777228216499</v>
       </c>
       <c r="K197" s="10">
         <v>0</v>
       </c>
       <c r="L197" s="11">
-        <v>6.2657060038875695E-2</v>
+        <v>9.2670093349042401E-2</v>
       </c>
       <c r="M197" s="11">
-        <v>0.166008171960286</v>
+        <v>0.16986808776588999</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.3">
@@ -10320,19 +10327,19 @@
         <v>5.2473333333333301</v>
       </c>
       <c r="C198" s="11">
-        <v>0.12991578504186499</v>
+        <v>0.12529934487324501</v>
       </c>
       <c r="D198" s="11">
-        <v>112477.38800182199</v>
+        <v>140345.77114119101</v>
       </c>
       <c r="E198" s="11">
-        <v>92315.151127202102</v>
+        <v>116098.33110032701</v>
       </c>
       <c r="F198" s="10">
         <v>0</v>
       </c>
       <c r="G198" s="11">
-        <v>700.63839163845205</v>
+        <v>531.93231786004696</v>
       </c>
       <c r="H198" s="10">
         <v>0</v>
@@ -10341,16 +10348,16 @@
         <v>0</v>
       </c>
       <c r="J198" s="11">
-        <v>19461.598482981601</v>
+        <v>23715.507723004099</v>
       </c>
       <c r="K198" s="10">
         <v>0</v>
       </c>
       <c r="L198" s="11">
-        <v>6.2614683656742207E-2</v>
+        <v>9.2637560595760102E-2</v>
       </c>
       <c r="M198" s="11">
-        <v>0.166008171960286</v>
+        <v>0.16986808776588999</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.3">
@@ -10361,19 +10368,19 @@
         <v>5.2987777777777696</v>
       </c>
       <c r="C199" s="11">
-        <v>0.13118946920894201</v>
+        <v>0.126527769822983</v>
       </c>
       <c r="D199" s="11">
-        <v>114641.43330133399</v>
+        <v>143017.834714948</v>
       </c>
       <c r="E199" s="11">
-        <v>94018.011624763007</v>
+        <v>118240.565005461</v>
       </c>
       <c r="F199" s="10">
         <v>0</v>
       </c>
       <c r="G199" s="11">
-        <v>778.35263524564004</v>
+        <v>594.47257056411195</v>
       </c>
       <c r="H199" s="10">
         <v>0</v>
@@ -10382,16 +10389,16 @@
         <v>0</v>
       </c>
       <c r="J199" s="11">
-        <v>19845.0690413257</v>
+        <v>24182.7971389226</v>
       </c>
       <c r="K199" s="10">
         <v>0</v>
       </c>
       <c r="L199" s="11">
-        <v>6.2572803672705304E-2</v>
+        <v>9.2605411091311804E-2</v>
       </c>
       <c r="M199" s="11">
-        <v>0.166008171960286</v>
+        <v>0.16986808776588999</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.3">
@@ -10402,19 +10409,19 @@
         <v>5.3502222222222198</v>
       </c>
       <c r="C200" s="11">
-        <v>0.13246315337601899</v>
+        <v>0.12775619477272099</v>
       </c>
       <c r="D200" s="11">
-        <v>116830.753349587</v>
+        <v>145718.807919777</v>
       </c>
       <c r="E200" s="11">
-        <v>95735.446568245796</v>
+        <v>120401.14510937899</v>
       </c>
       <c r="F200" s="10">
         <v>0</v>
       </c>
       <c r="G200" s="11">
-        <v>863.02600549302997</v>
+        <v>663.01733442644297</v>
       </c>
       <c r="H200" s="10">
         <v>0</v>
@@ -10423,16 +10430,16 @@
         <v>0</v>
       </c>
       <c r="J200" s="11">
-        <v>20232.2807758487</v>
+        <v>24654.645475972</v>
       </c>
       <c r="K200" s="10">
         <v>0</v>
       </c>
       <c r="L200" s="11">
-        <v>6.2531409481049002E-2</v>
+        <v>9.2573636619344396E-2</v>
       </c>
       <c r="M200" s="11">
-        <v>0.166008171960286</v>
+        <v>0.16986808776588999</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.3">
@@ -10443,19 +10450,19 @@
         <v>5.4016666666666602</v>
       </c>
       <c r="C201" s="11">
-        <v>0.13373683754309601</v>
+        <v>0.128984619722458</v>
       </c>
       <c r="D201" s="11">
-        <v>119045.796966087</v>
+        <v>148449.110175029</v>
       </c>
       <c r="E201" s="11">
-        <v>97467.439955740003</v>
+        <v>122580.051349874</v>
       </c>
       <c r="F201" s="10">
         <v>0</v>
       </c>
       <c r="G201" s="11">
-        <v>955.12332379644295</v>
+        <v>738.006091002782</v>
       </c>
       <c r="H201" s="10">
         <v>0</v>
@@ -10464,16 +10471,16 @@
         <v>0</v>
       </c>
       <c r="J201" s="11">
-        <v>20623.2336865506</v>
+        <v>25131.052734152301</v>
       </c>
       <c r="K201" s="10">
         <v>0</v>
       </c>
       <c r="L201" s="11">
-        <v>6.2490490802575703E-2</v>
+        <v>9.25422292170959E-2</v>
       </c>
       <c r="M201" s="11">
-        <v>0.166008171960286</v>
+        <v>0.16986808776588999</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.3">
@@ -10484,19 +10491,19 @@
         <v>5.4531111111111104</v>
       </c>
       <c r="C202" s="11">
-        <v>0.135010521710173</v>
+        <v>0.13021304467219599</v>
       </c>
       <c r="D202" s="11">
-        <v>121287.03217376101</v>
+        <v>151209.182063157</v>
       </c>
       <c r="E202" s="11">
-        <v>99213.9759642641</v>
+        <v>124777.26388894299</v>
       </c>
       <c r="F202" s="10">
         <v>0</v>
       </c>
       <c r="G202" s="11">
-        <v>1055.1284360653599</v>
+        <v>819.89926075047902</v>
       </c>
       <c r="H202" s="10">
         <v>0</v>
@@ -10505,16 +10512,16 @@
         <v>0</v>
       </c>
       <c r="J202" s="11">
-        <v>21017.9277734315</v>
+        <v>25612.0189134635</v>
       </c>
       <c r="K202" s="10">
         <v>0</v>
       </c>
       <c r="L202" s="11">
-        <v>6.24500376715411E-2</v>
+        <v>9.2511181165229203E-2</v>
       </c>
       <c r="M202" s="11">
-        <v>0.166008171960286</v>
+        <v>0.16986808776588999</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.3">
@@ -10525,19 +10532,19 @@
         <v>5.5045555555555499</v>
       </c>
       <c r="C203" s="11">
-        <v>0.13628420587724999</v>
+        <v>0.13144146962193401</v>
       </c>
       <c r="D203" s="11">
-        <v>123554.946292122</v>
+        <v>153999.48562244899</v>
       </c>
       <c r="E203" s="11">
-        <v>100975.03894607601</v>
+        <v>126992.763108165</v>
       </c>
       <c r="F203" s="10">
         <v>0</v>
       </c>
       <c r="G203" s="11">
-        <v>1163.54430955424</v>
+        <v>909.17850037776498</v>
       </c>
       <c r="H203" s="10">
         <v>0</v>
@@ -10546,16 +10553,16 @@
         <v>0</v>
       </c>
       <c r="J203" s="11">
-        <v>21416.363036491399</v>
+        <v>26097.544013905601</v>
       </c>
       <c r="K203" s="10">
         <v>0</v>
       </c>
       <c r="L203" s="11">
-        <v>6.2410040423230499E-2</v>
+        <v>9.2480484978164496E-2</v>
       </c>
       <c r="M203" s="11">
-        <v>0.166008171960286</v>
+        <v>0.16986808776588999</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.3">
@@ -10566,19 +10573,19 @@
         <v>5.556</v>
       </c>
       <c r="C204" s="11">
-        <v>0.137557890044327</v>
+        <v>0.132669894571671</v>
       </c>
       <c r="D204" s="11">
-        <v>125850.046002395</v>
+        <v>156820.504612066</v>
       </c>
       <c r="E204" s="11">
-        <v>102750.613425096</v>
+        <v>129226.529604215</v>
       </c>
       <c r="F204" s="10">
         <v>0</v>
       </c>
       <c r="G204" s="11">
-        <v>1280.89310156837</v>
+        <v>1006.34697237214</v>
       </c>
       <c r="H204" s="10">
         <v>0</v>
@@ -10587,16 +10594,16 @@
         <v>0</v>
       </c>
       <c r="J204" s="11">
-        <v>21818.5394757303</v>
+        <v>26587.628035478701</v>
       </c>
       <c r="K204" s="10">
         <v>0</v>
       </c>
       <c r="L204" s="11">
-        <v>6.2370489682139103E-2</v>
+        <v>9.2450133394882394E-2</v>
       </c>
       <c r="M204" s="11">
-        <v>0.166008171960286</v>
+        <v>0.16986808776588999</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.3">
@@ -10607,19 +10614,19 @@
         <v>5.6074444444444396</v>
       </c>
       <c r="C205" s="11">
-        <v>0.13883157421140499</v>
+        <v>0.13389831952140899</v>
       </c>
       <c r="D205" s="11">
-        <v>128172.85738474</v>
+        <v>159672.74474891301</v>
       </c>
       <c r="E205" s="11">
-        <v>104540.684093427</v>
+        <v>131478.54418451301</v>
       </c>
       <c r="F205" s="10">
         <v>0</v>
       </c>
       <c r="G205" s="11">
-        <v>1407.7162001645299</v>
+        <v>1111.9295862169399</v>
       </c>
       <c r="H205" s="10">
         <v>0</v>
@@ -10628,16 +10635,16 @@
         <v>0</v>
       </c>
       <c r="J205" s="11">
-        <v>22224.457091148099</v>
+        <v>27082.270978182602</v>
       </c>
       <c r="K205" s="10">
         <v>0</v>
       </c>
       <c r="L205" s="11">
-        <v>6.2331376350720703E-2</v>
+        <v>9.2420119370170598E-2</v>
       </c>
       <c r="M205" s="11">
-        <v>0.166008171960286</v>
+        <v>0.16986808776588999</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.3">
@@ -10648,19 +10655,19 @@
         <v>5.65888888888888</v>
       </c>
       <c r="C206" s="11">
-        <v>0.14010525837848201</v>
+        <v>0.135126744471147</v>
       </c>
       <c r="D206" s="11">
-        <v>130523.92592781701</v>
+        <v>162556.73391592599</v>
       </c>
       <c r="E206" s="11">
-        <v>106345.23580798801</v>
+        <v>133748.787863003</v>
       </c>
       <c r="F206" s="10">
         <v>0</v>
       </c>
       <c r="G206" s="11">
-        <v>1544.5742370842399</v>
+        <v>1226.47321090578</v>
       </c>
       <c r="H206" s="10">
         <v>0</v>
@@ -10669,16 +10676,16 @@
         <v>0</v>
       </c>
       <c r="J206" s="11">
-        <v>22634.1158827449</v>
+        <v>27581.472842017502</v>
       </c>
       <c r="K206" s="10">
         <v>0</v>
       </c>
       <c r="L206" s="11">
-        <v>6.2292691598673802E-2</v>
+        <v>9.2390436066288995E-2</v>
       </c>
       <c r="M206" s="11">
-        <v>0.166008171960286</v>
+        <v>0.16986808776588999</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.3">
@@ -10689,19 +10696,19 @@
         <v>5.7103333333333302</v>
       </c>
       <c r="C207" s="11">
-        <v>0.14137894254555899</v>
+        <v>0.13635516942088399</v>
       </c>
       <c r="D207" s="11">
-        <v>132903.81651098901</v>
+        <v>165473.022341495</v>
       </c>
       <c r="E207" s="11">
-        <v>108164.253587239</v>
+        <v>136037.241856048</v>
       </c>
       <c r="F207" s="10">
         <v>0</v>
       </c>
       <c r="G207" s="11">
-        <v>1692.04707322953</v>
+        <v>1350.54685846443</v>
       </c>
       <c r="H207" s="10">
         <v>0</v>
@@ -10710,16 +10717,16 @@
         <v>0</v>
       </c>
       <c r="J207" s="11">
-        <v>23047.5158505207</v>
+        <v>28085.233626983201</v>
       </c>
       <c r="K207" s="10">
         <v>0</v>
       </c>
       <c r="L207" s="11">
-        <v>6.2254426852734003E-2</v>
+        <v>9.2361076845029505E-2</v>
       </c>
       <c r="M207" s="11">
-        <v>0.166008171960286</v>
+        <v>0.16986808776588999</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.3">
@@ -10730,19 +10737,19 @@
         <v>5.7617777777777697</v>
       </c>
       <c r="C208" s="11">
-        <v>0.14265262671263601</v>
+        <v>0.13758359437062201</v>
       </c>
       <c r="D208" s="11">
-        <v>135313.11335948101</v>
+        <v>168422.18274981901</v>
       </c>
       <c r="E208" s="11">
-        <v>109997.72260799599</v>
+        <v>138343.88757844799</v>
       </c>
       <c r="F208" s="10">
         <v>0</v>
       </c>
       <c r="G208" s="11">
-        <v>1850.7337570090899</v>
+        <v>1484.74183829099</v>
       </c>
       <c r="H208" s="10">
         <v>0</v>
@@ -10751,16 +10758,16 @@
         <v>0</v>
       </c>
       <c r="J208" s="11">
-        <v>23464.656994475401</v>
+        <v>28593.553333079901</v>
       </c>
       <c r="K208" s="10">
         <v>0</v>
       </c>
       <c r="L208" s="11">
-        <v>6.2216573786944201E-2</v>
+        <v>9.2332035260148299E-2</v>
       </c>
       <c r="M208" s="11">
-        <v>0.166008171960286</v>
+        <v>0.16986808776588999</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.3">
@@ -10771,19 +10778,19 @@
         <v>5.8132222222222198</v>
       </c>
       <c r="C209" s="11">
-        <v>0.143926310879713</v>
+        <v>0.13881201932036</v>
       </c>
       <c r="D209" s="11">
-        <v>137752.41997279599</v>
+        <v>171404.81048210201</v>
       </c>
       <c r="E209" s="11">
-        <v>111845.628202352</v>
+        <v>140668.70663957199</v>
       </c>
       <c r="F209" s="10">
         <v>0</v>
       </c>
       <c r="G209" s="11">
-        <v>2021.25245583529</v>
+        <v>1629.6718822222299</v>
       </c>
       <c r="H209" s="10">
         <v>0</v>
@@ -10792,16 +10799,16 @@
         <v>0</v>
       </c>
       <c r="J209" s="11">
-        <v>23885.539314609101</v>
+        <v>29106.431960307498</v>
       </c>
       <c r="K209" s="10">
         <v>0</v>
       </c>
       <c r="L209" s="11">
-        <v>6.2179124313377299E-2</v>
+        <v>9.23033050501499E-2</v>
       </c>
       <c r="M209" s="11">
-        <v>0.166008171960286</v>
+        <v>0.16986808776588999</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.3">
@@ -10812,19 +10819,19 @@
         <v>5.8646666666666603</v>
       </c>
       <c r="C210" s="11">
-        <v>0.14519999504678999</v>
+        <v>0.14004044427009801</v>
       </c>
       <c r="D210" s="11">
-        <v>140222.35902657601</v>
+        <v>174421.52358857999</v>
       </c>
       <c r="E210" s="11">
-        <v>113707.955854663</v>
+        <v>143011.68083959501</v>
       </c>
       <c r="F210" s="10">
         <v>0</v>
       </c>
       <c r="G210" s="11">
-        <v>2204.2403609911698</v>
+        <v>1785.9732403187299</v>
       </c>
       <c r="H210" s="10">
         <v>0</v>
@@ -10833,16 +10840,16 @@
         <v>0</v>
       </c>
       <c r="J210" s="11">
-        <v>24310.162810921702</v>
+        <v>29623.869508666001</v>
       </c>
       <c r="K210" s="10">
         <v>0</v>
       </c>
       <c r="L210" s="11">
-        <v>6.2142070573285101E-2</v>
+        <v>9.2274880131404294E-2</v>
       </c>
       <c r="M210" s="11">
-        <v>0.166008171960286</v>
+        <v>0.16986808776588999</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.3">
@@ -10853,19 +10860,19 @@
         <v>5.9161111111111104</v>
       </c>
       <c r="C211" s="11">
-        <v>0.146473679213867</v>
+        <v>0.141268869219835</v>
       </c>
       <c r="D211" s="11">
-        <v>142723.572248201</v>
+        <v>177472.96289141799</v>
       </c>
       <c r="E211" s="11">
-        <v>115584.691198639</v>
+        <v>145372.792165844</v>
       </c>
       <c r="F211" s="10">
         <v>0</v>
       </c>
       <c r="G211" s="11">
-        <v>2400.3535661484102</v>
+        <v>1954.30474741899</v>
       </c>
       <c r="H211" s="10">
         <v>0</v>
@@ -10874,16 +10881,16 @@
         <v>0</v>
       </c>
       <c r="J211" s="11">
-        <v>24738.527483413302</v>
+        <v>30145.8659781555</v>
       </c>
       <c r="K211" s="10">
         <v>0</v>
       </c>
       <c r="L211" s="11">
-        <v>6.2105404928651901E-2</v>
+        <v>9.2246754591578203E-2</v>
       </c>
       <c r="M211" s="11">
-        <v>0.166008171960286</v>
+        <v>0.16986808776588999</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.3">
@@ -10894,19 +10901,19 @@
         <v>5.96755555555555</v>
       </c>
       <c r="C212" s="11">
-        <v>0.14774736338094399</v>
+        <v>0.14249729416957299</v>
       </c>
       <c r="D212" s="11">
-        <v>145256.720266775</v>
+        <v>180559.792018554</v>
       </c>
       <c r="E212" s="11">
-        <v>117475.82001450501</v>
+        <v>147752.02278924201</v>
       </c>
       <c r="F212" s="10">
         <v>0</v>
       </c>
       <c r="G212" s="11">
-        <v>2610.26692018616</v>
+        <v>2135.3478605352402</v>
       </c>
       <c r="H212" s="10">
         <v>0</v>
@@ -10915,16 +10922,16 @@
         <v>0</v>
       </c>
       <c r="J212" s="11">
-        <v>25170.6333320839</v>
+        <v>30672.421368775798</v>
       </c>
       <c r="K212" s="10">
         <v>0</v>
       </c>
       <c r="L212" s="11">
-        <v>6.2069119954128699E-2</v>
+        <v>9.2218922683364193E-2</v>
       </c>
       <c r="M212" s="11">
-        <v>0.166008171960286</v>
+        <v>0.16986808776588999</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.3">
@@ -10935,19 +10942,19 @@
         <v>6.0190000000000001</v>
       </c>
       <c r="C213" s="11">
-        <v>0.14902104754802101</v>
+        <v>0.14372571911931101</v>
       </c>
       <c r="D213" s="11">
-        <v>147822.48243891701</v>
+        <v>183682.697408559</v>
       </c>
       <c r="E213" s="11">
-        <v>119381.32822623799</v>
+        <v>150149.35506085801</v>
       </c>
       <c r="F213" s="10">
         <v>0</v>
       </c>
       <c r="G213" s="11">
-        <v>2834.6738557459498</v>
+        <v>2329.80666717431</v>
       </c>
       <c r="H213" s="10">
         <v>0</v>
@@ -10956,16 +10963,16 @@
         <v>0</v>
       </c>
       <c r="J213" s="11">
-        <v>25606.480356933502</v>
+        <v>31203.535680526998</v>
       </c>
       <c r="K213" s="10">
         <v>0</v>
       </c>
       <c r="L213" s="11">
-        <v>6.2033208429330897E-2</v>
+        <v>9.2191378818491002E-2</v>
       </c>
       <c r="M213" s="11">
-        <v>0.166008171960286</v>
+        <v>0.16986808776588999</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.3">
@@ -10976,19 +10983,19 @@
         <v>6.0704444444444396</v>
       </c>
       <c r="C214" s="11">
-        <v>0.15029473171509899</v>
+        <v>0.144954144069048</v>
       </c>
       <c r="D214" s="11">
-        <v>150421.55665285399</v>
+        <v>186842.388286673</v>
       </c>
       <c r="E214" s="11">
-        <v>121301.201898889</v>
+        <v>152564.771508537</v>
       </c>
       <c r="F214" s="10">
         <v>0</v>
       </c>
       <c r="G214" s="11">
-        <v>3074.2861960026198</v>
+        <v>2538.4078647271399</v>
       </c>
       <c r="H214" s="10">
         <v>0</v>
@@ -10997,16 +11004,16 @@
         <v>0</v>
       </c>
       <c r="J214" s="11">
-        <v>26046.068557962</v>
+        <v>31739.208913409198</v>
       </c>
       <c r="K214" s="10">
         <v>0</v>
       </c>
       <c r="L214" s="11">
-        <v>6.1997663331476098E-2</v>
+        <v>9.21641175620007E-2</v>
       </c>
       <c r="M214" s="11">
-        <v>0.166008171960286</v>
+        <v>0.16986808776588999</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.3">
@@ -11017,19 +11024,19 @@
         <v>6.1218888888888801</v>
       </c>
       <c r="C215" s="11">
-        <v>0.15156841588217601</v>
+        <v>0.14618256901878601</v>
       </c>
       <c r="D215" s="11">
-        <v>153054.659114029</v>
+        <v>190039.59661233501</v>
       </c>
       <c r="E215" s="11">
-        <v>123235.42723597</v>
+        <v>154998.25483363701</v>
       </c>
       <c r="F215" s="10">
         <v>0</v>
       </c>
       <c r="G215" s="11">
-        <v>3329.8339428888999</v>
+        <v>2761.9007112757299</v>
       </c>
       <c r="H215" s="10">
         <v>0</v>
@@ -11038,16 +11045,16 @@
         <v>0</v>
       </c>
       <c r="J215" s="11">
-        <v>26489.397935169502</v>
+        <v>32279.4410674223</v>
       </c>
       <c r="K215" s="10">
         <v>0</v>
       </c>
       <c r="L215" s="11">
-        <v>6.1962477828348503E-2</v>
+        <v>9.2137133626779194E-2</v>
       </c>
       <c r="M215" s="11">
-        <v>0.166008171960286</v>
+        <v>0.16986808776588999</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.3">
@@ -11058,19 +11065,19 @@
         <v>6.1733333333333302</v>
       </c>
       <c r="C216" s="11">
-        <v>0.152842100049253</v>
+        <v>0.147410993968524</v>
       </c>
       <c r="D216" s="11">
-        <v>155722.52411507399</v>
+        <v>193275.076998996</v>
       </c>
       <c r="E216" s="11">
-        <v>125183.990576913</v>
+        <v>157449.78790783999</v>
       </c>
       <c r="F216" s="10">
         <v>0</v>
       </c>
       <c r="G216" s="11">
-        <v>3602.06504960539</v>
+        <v>3001.0569485894498</v>
       </c>
       <c r="H216" s="10">
         <v>0</v>
@@ -11079,16 +11086,16 @@
         <v>0</v>
       </c>
       <c r="J216" s="11">
-        <v>26936.4684885559</v>
+        <v>32824.232142566201</v>
       </c>
       <c r="K216" s="10">
         <v>0</v>
       </c>
       <c r="L216" s="11">
-        <v>6.1927645271569701E-2</v>
+        <v>9.2110421868324799E-2</v>
       </c>
       <c r="M216" s="11">
-        <v>0.166008171960286</v>
+        <v>0.16986808776588999</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.3">
@@ -11099,19 +11106,19 @@
         <v>6.2247777777777697</v>
       </c>
       <c r="C217" s="11">
-        <v>0.15411578421632999</v>
+        <v>0.14863941891826099</v>
       </c>
       <c r="D217" s="11">
-        <v>158425.903790543</v>
+        <v>196549.60660758099</v>
       </c>
       <c r="E217" s="11">
-        <v>127146.87839459399</v>
+        <v>159919.35377005901</v>
       </c>
       <c r="F217" s="10">
         <v>0</v>
       </c>
       <c r="G217" s="11">
-        <v>3891.7451778268901</v>
+        <v>3256.6706986812201</v>
       </c>
       <c r="H217" s="10">
         <v>0</v>
@@ -11120,16 +11127,16 @@
         <v>0</v>
       </c>
       <c r="J217" s="11">
-        <v>27387.280218121301</v>
+        <v>33373.582138841099</v>
       </c>
       <c r="K217" s="10">
         <v>0</v>
       </c>
       <c r="L217" s="11">
-        <v>6.18931591901608E-2</v>
+        <v>9.2083977279745002E-2</v>
       </c>
       <c r="M217" s="11">
-        <v>0.166008171960286</v>
+        <v>0.16986808776588999</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.3">
@@ -11140,19 +11147,19 @@
         <v>6.2762222222222199</v>
       </c>
       <c r="C218" s="11">
-        <v>0.155389468383407</v>
+        <v>0.14986784386799901</v>
       </c>
       <c r="D218" s="11">
-        <v>161165.567852151</v>
+        <v>199863.98501549399</v>
       </c>
       <c r="E218" s="11">
-        <v>129124.077292931</v>
+        <v>162406.93562341499</v>
       </c>
       <c r="F218" s="10">
         <v>0</v>
       </c>
       <c r="G218" s="11">
-        <v>4199.6574353536998</v>
+        <v>3529.5583358316499</v>
       </c>
       <c r="H218" s="10">
         <v>0</v>
@@ -11161,16 +11168,16 @@
         <v>0</v>
       </c>
       <c r="J218" s="11">
-        <v>27841.833123865701</v>
+        <v>33927.491056246901</v>
       </c>
       <c r="K218" s="10">
         <v>0</v>
       </c>
       <c r="L218" s="11">
-        <v>6.1859013284382501E-2</v>
+        <v>9.2057794986968103E-2</v>
       </c>
       <c r="M218" s="11">
-        <v>0.166008171960286</v>
+        <v>0.16986808776588999</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.3">
@@ -11181,19 +11188,19 @@
         <v>6.3276666666666603</v>
       </c>
       <c r="C219" s="11">
-        <v>0.15666315255048399</v>
+        <v>0.151096268817737</v>
       </c>
       <c r="D219" s="11">
-        <v>163942.303294371</v>
+        <v>203219.03406311301</v>
       </c>
       <c r="E219" s="11">
-        <v>131115.57400453399</v>
+        <v>164912.51683230599</v>
       </c>
       <c r="F219" s="10">
         <v>0</v>
       </c>
       <c r="G219" s="11">
-        <v>4526.6020840485098</v>
+        <v>3820.5583360231099</v>
       </c>
       <c r="H219" s="10">
         <v>0</v>
@@ -11202,16 +11209,16 @@
         <v>0</v>
       </c>
       <c r="J219" s="11">
-        <v>28300.1272057891</v>
+        <v>34485.958894783696</v>
       </c>
       <c r="K219" s="10">
         <v>0</v>
       </c>
       <c r="L219" s="11">
-        <v>6.1825201419836599E-2</v>
+        <v>9.2031870244160097E-2</v>
       </c>
       <c r="M219" s="11">
-        <v>0.166008171960286</v>
+        <v>0.16986808776588999</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.3">
@@ -11222,19 +11229,19 @@
         <v>6.3791111111111096</v>
       </c>
       <c r="C220" s="11">
-        <v>0.15793683671756101</v>
+        <v>0.15232469376747501</v>
       </c>
       <c r="D220" s="11">
-        <v>166756.91405552701</v>
+        <v>206615.59767873201</v>
       </c>
       <c r="E220" s="11">
-        <v>133121.35538842101</v>
+        <v>167436.080919539</v>
       </c>
       <c r="F220" s="10">
         <v>0</v>
       </c>
       <c r="G220" s="11">
-        <v>4873.3962032146501</v>
+        <v>4130.5311047416399</v>
       </c>
       <c r="H220" s="10">
         <v>0</v>
@@ -11243,16 +11250,16 @@
         <v>0</v>
       </c>
       <c r="J220" s="11">
-        <v>28762.1624638914</v>
+        <v>35048.985654451302</v>
       </c>
       <c r="K220" s="10">
         <v>0</v>
       </c>
       <c r="L220" s="11">
-        <v>6.1791717621817503E-2</v>
+        <v>9.2006198429334204E-2</v>
       </c>
       <c r="M220" s="11">
-        <v>0.166008171960286</v>
+        <v>0.16986808776588999</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.3">
@@ -11263,19 +11270,19 @@
         <v>6.43055555555555</v>
       </c>
       <c r="C221" s="11">
-        <v>0.159210520884638</v>
+        <v>0.153553118717212</v>
       </c>
       <c r="D221" s="11">
-        <v>169610.2206196</v>
+        <v>210054.54168059799</v>
       </c>
       <c r="E221" s="11">
-        <v>135141.40842779499</v>
+        <v>169977.611563546</v>
       </c>
       <c r="F221" s="10">
         <v>0</v>
       </c>
       <c r="G221" s="11">
-        <v>5240.8732936325596</v>
+        <v>4460.3587818021197</v>
       </c>
       <c r="H221" s="10">
         <v>0</v>
@@ -11284,16 +11291,16 @@
         <v>0</v>
       </c>
       <c r="J221" s="11">
-        <v>29227.938898172699</v>
+        <v>35616.571335249799</v>
       </c>
       <c r="K221" s="10">
         <v>0</v>
       </c>
       <c r="L221" s="11">
-        <v>6.17585560699008E-2</v>
+        <v>9.1980775040146498E-2</v>
       </c>
       <c r="M221" s="11">
-        <v>0.166008171960286</v>
+        <v>0.16986808776588999</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.3">
@@ -11304,19 +11311,19 @@
         <v>6.4820000000000002</v>
       </c>
       <c r="C222" s="11">
-        <v>0.16048420505171501</v>
+        <v>0.15478154366694999</v>
       </c>
       <c r="D222" s="11">
-        <v>172503.05955216801</v>
+        <v>213536.75355133699</v>
       </c>
       <c r="E222" s="11">
-        <v>137175.720227874</v>
+        <v>172537.092595669</v>
       </c>
       <c r="F222" s="10">
         <v>0</v>
       </c>
       <c r="G222" s="11">
-        <v>5629.8828156612199</v>
+        <v>4810.94501848864</v>
       </c>
       <c r="H222" s="10">
       